--- a/publications.xlsx
+++ b/publications.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="papers" sheetId="1" r:id="rId1"/>
     <sheet name="chapters" sheetId="6" r:id="rId2"/>
     <sheet name="submitted" sheetId="4" r:id="rId3"/>
     <sheet name="zzz" sheetId="5" r:id="rId4"/>
+    <sheet name="SCI" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2559" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2604" uniqueCount="1075">
   <si>
     <t>title</t>
   </si>
@@ -2804,15 +2805,6 @@
     <t>10.1016/j.envres.2022.113014</t>
   </si>
   <si>
-    <t>Environmental nitrogen enrichment and the increasing burden of allergic disease: a trait modification hypothesis</t>
-  </si>
-  <si>
-    <t>Environmental Health</t>
-  </si>
-  <si>
-    <t>Environ. Health</t>
-  </si>
-  <si>
     <t>Ceulemans, Tobias; Verscheure, Paulien; Shadouh, Caroline; Van Acker, Kasper; Devleesschauwer, Brecht; Linard, Catherine; Dendoncker, Nicolas; Speybroeck, Niko; Bruffaerts, Nicolas; Honnay, Olivier; Schrijvers, Rik; Aerts, Raf</t>
   </si>
   <si>
@@ -3068,9 +3060,6 @@
     <t>Burden of infectious disease studies in Europe and the United Kingdom: a review of methodological design choices</t>
   </si>
   <si>
-    <t>Periklis Charalampous, Periklis; Haagsma, Juanita A., Jakobsen, Lea S.; Gorasso, Vanessa; Noguer, Isabel; Padron-Monedero, Alicia; Sarmiento, Rodrigo; Santos, João Vasco; Assunção, Ricardo; McDonald,Scott A; von der Lippe, Elena; Plass, Dietrich; burden-eu members; Devleesschauwer, Brecht; Pires, Sara M.</t>
-  </si>
-  <si>
     <t>10.1186/s12879-022-07849-7</t>
   </si>
   <si>
@@ -3177,6 +3166,90 @@
   </si>
   <si>
     <t>e0010468</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Self-uniqueness beliefs and adherence to recommended precautions. A 5-wave longitudinal COVID-19 study </t>
+  </si>
+  <si>
+    <t>HIND</t>
+  </si>
+  <si>
+    <t>SURV</t>
+  </si>
+  <si>
+    <t>DRUG</t>
+  </si>
+  <si>
+    <t>NUTR</t>
+  </si>
+  <si>
+    <t>EHIS</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.socscimed.2022.115595</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/36495770/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Innovative Methods Used in Monitoring COVID-19 in Europe: A Multinational Study </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/ijerph20010564</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/36612884/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prevalence and factors associated with academic burnout risk among nursing and midwifery students during the COVID-19 pandemic: A cross-sectional study </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/nop2.1575</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/36565163/</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>PMID</t>
+  </si>
+  <si>
+    <t>SCI</t>
+  </si>
+  <si>
+    <t>Environmental degradation and the increasing burden of allergic disease: the need to determine the impact of nitrogen pollution</t>
+  </si>
+  <si>
+    <t>Frontiers in Allergy</t>
+  </si>
+  <si>
+    <t>Front. Allergy</t>
+  </si>
+  <si>
+    <t>Classification of symptoms and associated factors of post COVID-19 condition: a longitudinal study in the Belgian population</t>
+  </si>
+  <si>
+    <t>Nayani, Sarah; Castañares, Diego; De Pauw, Robby; Van Cauteren, Dieter; Demarest, Stefaan; Drieskens, Sabine; Cornelissen, Laura; Devleesschauwer, Brecht; De Ridder, Karin; Charafeddine, Rana; Smith, Pierre</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> National Trends and Disparities in Retail Food Environments in the United States between 1990-2014</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1017/s1368980023000058</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/36644895/</t>
+  </si>
+  <si>
+    <t>Charalampous, Periklis; Haagsma, Juanita A., Jakobsen, Lea S.; Gorasso, Vanessa; Noguer, Isabel; Padron-Monedero, Alicia; Sarmiento, Rodrigo; Santos, João Vasco; Assunção, Ricardo; McDonald,Scott A; von der Lippe, Elena; Plass, Dietrich; burden-eu members; Devleesschauwer, Brecht; Pires, Sara M.</t>
   </si>
 </sst>
 </file>
@@ -3188,7 +3261,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3210,8 +3283,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3226,6 +3332,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3247,12 +3359,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3392,13 +3506,49 @@
     <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="75">
+  <dxfs count="77">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3816,74 +3966,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U215" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
-  <autoFilter ref="A1:U215"/>
-  <sortState ref="A2:U215">
-    <sortCondition ref="K1:K215"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U217" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+  <autoFilter ref="A1:U217"/>
+  <sortState ref="A2:U217">
+    <sortCondition ref="K1:K217"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" name="title" dataDxfId="48"/>
-    <tableColumn id="2" name="authors" dataDxfId="47"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="46"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="45"/>
-    <tableColumn id="6" name="year" dataDxfId="44"/>
-    <tableColumn id="4" name="volume" dataDxfId="43"/>
-    <tableColumn id="5" name="issue" dataDxfId="42"/>
-    <tableColumn id="7" name="eID" dataDxfId="41"/>
-    <tableColumn id="8" name="from" dataDxfId="40"/>
-    <tableColumn id="9" name="to" dataDxfId="39"/>
-    <tableColumn id="10" name="date" dataDxfId="38"/>
-    <tableColumn id="14" name="classification" dataDxfId="37"/>
-    <tableColumn id="12" name="IF" dataDxfId="36"/>
-    <tableColumn id="13" name="DOI" dataDxfId="35"/>
-    <tableColumn id="15" name="WoS" dataDxfId="34"/>
-    <tableColumn id="16" name="rank" dataDxfId="33"/>
-    <tableColumn id="17" name="quartile" dataDxfId="32"/>
-    <tableColumn id="18" name="category" dataDxfId="31"/>
-    <tableColumn id="19" name="CBRA" dataDxfId="30"/>
-    <tableColumn id="20" name="SC" dataDxfId="29"/>
-    <tableColumn id="21" name="UGent" dataDxfId="28"/>
+    <tableColumn id="1" name="title" dataDxfId="50"/>
+    <tableColumn id="2" name="authors" dataDxfId="49"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="48"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="47"/>
+    <tableColumn id="6" name="year" dataDxfId="46"/>
+    <tableColumn id="4" name="volume" dataDxfId="45"/>
+    <tableColumn id="5" name="issue" dataDxfId="44"/>
+    <tableColumn id="7" name="eID" dataDxfId="43"/>
+    <tableColumn id="8" name="from" dataDxfId="42"/>
+    <tableColumn id="9" name="to" dataDxfId="41"/>
+    <tableColumn id="10" name="date" dataDxfId="40"/>
+    <tableColumn id="14" name="classification" dataDxfId="39"/>
+    <tableColumn id="12" name="IF" dataDxfId="38"/>
+    <tableColumn id="13" name="DOI" dataDxfId="37"/>
+    <tableColumn id="15" name="WoS" dataDxfId="36"/>
+    <tableColumn id="16" name="rank" dataDxfId="35"/>
+    <tableColumn id="17" name="quartile" dataDxfId="34"/>
+    <tableColumn id="18" name="category" dataDxfId="33"/>
+    <tableColumn id="19" name="CBRA" dataDxfId="32"/>
+    <tableColumn id="20" name="SC" dataDxfId="31"/>
+    <tableColumn id="21" name="UGent" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J11" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J11" totalsRowShown="0" headerRowDxfId="29">
   <autoFilter ref="A1:J11"/>
   <sortState ref="A2:N50">
     <sortCondition ref="H1:H50"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="title" dataDxfId="26"/>
-    <tableColumn id="2" name="authors" dataDxfId="25"/>
-    <tableColumn id="3" name="editors" dataDxfId="24"/>
-    <tableColumn id="11" name="book" dataDxfId="23"/>
-    <tableColumn id="6" name="year" dataDxfId="22"/>
-    <tableColumn id="8" name="from" dataDxfId="21"/>
-    <tableColumn id="9" name="to" dataDxfId="20"/>
-    <tableColumn id="10" name="date" dataDxfId="19"/>
-    <tableColumn id="12" name="IF" dataDxfId="18"/>
-    <tableColumn id="13" name="DOI" dataDxfId="17"/>
+    <tableColumn id="1" name="title" dataDxfId="28"/>
+    <tableColumn id="2" name="authors" dataDxfId="27"/>
+    <tableColumn id="3" name="editors" dataDxfId="26"/>
+    <tableColumn id="11" name="book" dataDxfId="25"/>
+    <tableColumn id="6" name="year" dataDxfId="24"/>
+    <tableColumn id="8" name="from" dataDxfId="23"/>
+    <tableColumn id="9" name="to" dataDxfId="22"/>
+    <tableColumn id="10" name="date" dataDxfId="21"/>
+    <tableColumn id="12" name="IF" dataDxfId="20"/>
+    <tableColumn id="13" name="DOI" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G18" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A1:G18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G17" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:G17"/>
   <sortState ref="A2:G17">
     <sortCondition ref="F1:F17"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="title" dataDxfId="14"/>
-    <tableColumn id="2" name="authors" dataDxfId="13"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="12"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="11"/>
-    <tableColumn id="4" name="doi_preprint" dataDxfId="10"/>
-    <tableColumn id="10" name="date" dataDxfId="9"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="8">
+    <tableColumn id="1" name="title" dataDxfId="16"/>
+    <tableColumn id="2" name="authors" dataDxfId="15"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="14"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="13"/>
+    <tableColumn id="4" name="doi_preprint" dataDxfId="12"/>
+    <tableColumn id="10" name="date" dataDxfId="11"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="10">
       <calculatedColumnFormula>TODAY()-F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3892,18 +4042,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:F5"/>
   <sortState ref="A2:K14">
     <sortCondition ref="E1:E14"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="title" dataDxfId="5"/>
-    <tableColumn id="2" name="authors" dataDxfId="4"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="3"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="2"/>
-    <tableColumn id="10" name="date" dataDxfId="1"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="0">
+    <tableColumn id="1" name="title" dataDxfId="7"/>
+    <tableColumn id="2" name="authors" dataDxfId="6"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="5"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="4"/>
+    <tableColumn id="10" name="date" dataDxfId="3"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="2">
       <calculatedColumnFormula>(TODAY()-E2)/365</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4198,10 +4348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U215"/>
+  <dimension ref="A1:U217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A210" sqref="A210"/>
+    <sheetView topLeftCell="A180" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A217" sqref="A217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14052,10 +14202,10 @@
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>575</v>
@@ -14089,7 +14239,7 @@
       </c>
       <c r="M180" s="11"/>
       <c r="N180" s="19" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="O180" s="7"/>
       <c r="P180" s="24"/>
@@ -14285,7 +14435,7 @@
         <v>14</v>
       </c>
       <c r="H184" s="18" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="I184" s="18" t="s">
         <v>14</v>
@@ -14301,7 +14451,7 @@
       </c>
       <c r="M184" s="11"/>
       <c r="N184" s="19" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="O184" s="7"/>
       <c r="P184" s="24"/>
@@ -14354,7 +14504,7 @@
       </c>
       <c r="M185" s="11"/>
       <c r="N185" s="19" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="O185" s="7"/>
       <c r="P185" s="24"/>
@@ -14460,7 +14610,7 @@
       </c>
       <c r="M187" s="11"/>
       <c r="N187" s="19" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="O187" s="7"/>
       <c r="P187" s="24"/>
@@ -14513,7 +14663,7 @@
       </c>
       <c r="M188" s="11"/>
       <c r="N188" s="19" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="O188" s="7"/>
       <c r="P188" s="24"/>
@@ -14532,7 +14682,7 @@
         <v>897</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>12</v>
@@ -14566,7 +14716,7 @@
       </c>
       <c r="M189" s="11"/>
       <c r="N189" s="19" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="O189" s="7"/>
       <c r="P189" s="24"/>
@@ -14582,16 +14732,16 @@
     </row>
     <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
+        <v>954</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>955</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>956</v>
+      </c>
+      <c r="D190" s="7" t="s">
         <v>957</v>
-      </c>
-      <c r="B190" s="7" t="s">
-        <v>958</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>959</v>
-      </c>
-      <c r="D190" s="7" t="s">
-        <v>960</v>
       </c>
       <c r="E190" s="18">
         <v>2022</v>
@@ -14619,7 +14769,7 @@
       </c>
       <c r="M190" s="11"/>
       <c r="N190" s="19" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="O190" s="7"/>
       <c r="P190" s="24"/>
@@ -14725,7 +14875,7 @@
       </c>
       <c r="M192" s="11"/>
       <c r="N192" s="19" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="O192" s="7"/>
       <c r="P192" s="24"/>
@@ -14741,10 +14891,10 @@
     </row>
     <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>160</v>
@@ -14762,7 +14912,7 @@
         <v>153</v>
       </c>
       <c r="H193" s="18" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="I193" s="18" t="s">
         <v>14</v>
@@ -14778,7 +14928,7 @@
       </c>
       <c r="M193" s="11"/>
       <c r="N193" s="19" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="O193" s="7"/>
       <c r="P193" s="24"/>
@@ -14831,7 +14981,7 @@
       </c>
       <c r="M194" s="11"/>
       <c r="N194" s="19" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="O194" s="7"/>
       <c r="P194" s="24"/>
@@ -14884,7 +15034,7 @@
       </c>
       <c r="M195" s="11"/>
       <c r="N195" s="19" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="O195" s="7"/>
       <c r="P195" s="24"/>
@@ -14900,10 +15050,10 @@
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>267</v>
@@ -14990,7 +15140,7 @@
       </c>
       <c r="M197" s="11"/>
       <c r="N197" s="19" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="O197" s="7"/>
       <c r="P197" s="24"/>
@@ -15006,16 +15156,16 @@
     </row>
     <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="E198" s="18">
         <v>2022</v>
@@ -15043,7 +15193,7 @@
       </c>
       <c r="M198" s="11"/>
       <c r="N198" s="19" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="O198" s="7"/>
       <c r="P198" s="24"/>
@@ -15096,7 +15246,7 @@
       </c>
       <c r="M199" s="11"/>
       <c r="N199" s="19" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="O199" s="7"/>
       <c r="P199" s="24"/>
@@ -15149,7 +15299,7 @@
       </c>
       <c r="M200" s="11"/>
       <c r="N200" s="19" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="O200" s="7"/>
       <c r="P200" s="24"/>
@@ -15202,7 +15352,7 @@
       </c>
       <c r="M201" s="11"/>
       <c r="N201" s="19" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="O201" s="7"/>
       <c r="P201" s="24"/>
@@ -15218,16 +15368,16 @@
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="E202" s="18">
         <v>2022</v>
@@ -15255,7 +15405,7 @@
       </c>
       <c r="M202" s="11"/>
       <c r="N202" s="19" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="O202" s="7"/>
       <c r="P202" s="24"/>
@@ -15306,7 +15456,7 @@
       </c>
       <c r="M203" s="11"/>
       <c r="N203" s="19" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="O203" s="7"/>
       <c r="P203" s="24"/>
@@ -15359,7 +15509,7 @@
       </c>
       <c r="M204" s="11"/>
       <c r="N204" s="19" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="O204" s="7"/>
       <c r="P204" s="24"/>
@@ -15375,10 +15525,10 @@
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>724</v>
@@ -15396,7 +15546,7 @@
         <v>69</v>
       </c>
       <c r="H205" s="18" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="I205" s="18" t="s">
         <v>14</v>
@@ -15412,7 +15562,7 @@
       </c>
       <c r="M205" s="11"/>
       <c r="N205" s="19" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="O205" s="7"/>
       <c r="P205" s="24"/>
@@ -15465,7 +15615,7 @@
       </c>
       <c r="M206" s="11"/>
       <c r="N206" s="19" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="O206" s="7"/>
       <c r="P206" s="24"/>
@@ -15481,10 +15631,10 @@
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>267</v>
@@ -15518,7 +15668,7 @@
       </c>
       <c r="M207" s="11"/>
       <c r="N207" s="19" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="O207" s="7"/>
       <c r="P207" s="24"/>
@@ -15624,7 +15774,7 @@
       </c>
       <c r="M209" s="11"/>
       <c r="N209" s="19" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="O209" s="7"/>
       <c r="P209" s="24"/>
@@ -15640,10 +15790,10 @@
     </row>
     <row r="210" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>160</v>
@@ -15661,7 +15811,7 @@
         <v>65</v>
       </c>
       <c r="H210" s="18" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="I210" s="18" t="s">
         <v>14</v>
@@ -15677,7 +15827,7 @@
       </c>
       <c r="M210" s="11"/>
       <c r="N210" s="19" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="O210" s="7"/>
       <c r="P210" s="24"/>
@@ -15742,16 +15892,16 @@
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A212" s="13" t="s">
+        <v>990</v>
+      </c>
+      <c r="B212" s="13" t="s">
+        <v>991</v>
+      </c>
+      <c r="C212" s="13" t="s">
+        <v>992</v>
+      </c>
+      <c r="D212" s="13" t="s">
         <v>993</v>
-      </c>
-      <c r="B212" s="13" t="s">
-        <v>994</v>
-      </c>
-      <c r="C212" s="13" t="s">
-        <v>995</v>
-      </c>
-      <c r="D212" s="13" t="s">
-        <v>996</v>
       </c>
       <c r="E212" s="14">
         <v>2023</v>
@@ -15779,7 +15929,7 @@
       </c>
       <c r="M212" s="45"/>
       <c r="N212" s="44" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="O212" s="27"/>
       <c r="P212" s="24"/>
@@ -15791,16 +15941,16 @@
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A213" s="13" t="s">
+        <v>998</v>
+      </c>
+      <c r="B213" s="13" t="s">
+        <v>999</v>
+      </c>
+      <c r="C213" s="13" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D213" s="13" t="s">
         <v>1001</v>
-      </c>
-      <c r="B213" s="13" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C213" s="13" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D213" s="13" t="s">
-        <v>1004</v>
       </c>
       <c r="E213" s="14">
         <v>2023</v>
@@ -15812,7 +15962,7 @@
         <v>14</v>
       </c>
       <c r="H213" s="43" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="I213" s="43" t="s">
         <v>14</v>
@@ -15828,7 +15978,7 @@
       </c>
       <c r="M213" s="45"/>
       <c r="N213" s="44" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="O213" s="27"/>
       <c r="P213" s="24"/>
@@ -15840,10 +15990,10 @@
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214" s="13" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C214" s="13" t="s">
         <v>287</v>
@@ -15877,7 +16027,7 @@
       </c>
       <c r="M214" s="45"/>
       <c r="N214" s="44" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="O214" s="27"/>
       <c r="P214" s="24"/>
@@ -15889,10 +16039,10 @@
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215" s="13" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>1014</v>
+        <v>1074</v>
       </c>
       <c r="C215" s="13" t="s">
         <v>509</v>
@@ -15919,7 +16069,7 @@
         <v>14</v>
       </c>
       <c r="K215" s="31">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="L215" s="31" t="s">
         <v>273</v>
@@ -15934,100 +16084,194 @@
       <c r="T215" s="7"/>
       <c r="U215" s="7"/>
     </row>
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A216" s="13" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B216" s="13" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C216" s="13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D216" s="13" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E216" s="14">
+        <v>2023</v>
+      </c>
+      <c r="F216" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G216" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H216" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I216" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J216" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K216" s="31">
+        <v>45297</v>
+      </c>
+      <c r="L216" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="M216" s="45"/>
+      <c r="N216" s="44"/>
+      <c r="O216" s="27"/>
+      <c r="P216" s="24"/>
+      <c r="Q216" s="25"/>
+      <c r="R216" s="7"/>
+      <c r="S216" s="7"/>
+      <c r="T216" s="7"/>
+      <c r="U216" s="7"/>
+    </row>
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A217" s="13" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B217" s="13" t="s">
+        <v>926</v>
+      </c>
+      <c r="C217" s="13" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D217" s="13" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E217" s="14">
+        <v>2023</v>
+      </c>
+      <c r="F217" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G217" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H217" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I217" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J217" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K217" s="31">
+        <v>45298</v>
+      </c>
+      <c r="L217" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="M217" s="45"/>
+      <c r="N217" s="44"/>
+      <c r="O217" s="27"/>
+      <c r="P217" s="24"/>
+      <c r="Q217" s="25"/>
+      <c r="R217" s="7"/>
+      <c r="S217" s="7"/>
+      <c r="T217" s="7"/>
+      <c r="U217" s="7"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="S1:U112 S114:U122 S124:U125 S127:U134 U126 S148:U175 S136:U146 S177:U179 S182:U188 S190:U205 S207:U1048576">
-    <cfRule type="cellIs" dxfId="74" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="25" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="26" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T113:U113">
-    <cfRule type="cellIs" dxfId="72" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="23" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="24" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S113">
-    <cfRule type="cellIs" dxfId="70" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="21" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="22" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S123:U123">
-    <cfRule type="cellIs" dxfId="68" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="19" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="20" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S126:T126">
-    <cfRule type="cellIs" dxfId="66" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="17" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="18" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S135:U135">
-    <cfRule type="cellIs" dxfId="64" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="15" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="16" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S147:U147">
-    <cfRule type="cellIs" dxfId="62" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="13" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="14" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S176:U176">
-    <cfRule type="cellIs" dxfId="60" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="11" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="12" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S181:U181">
-    <cfRule type="cellIs" dxfId="58" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="7" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="8" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S189:U189">
-    <cfRule type="cellIs" dxfId="56" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="5" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="6" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S206:U206">
-    <cfRule type="cellIs" dxfId="54" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="3" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="4" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S180:U180">
-    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16361,16 +16605,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>947</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>948</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>951</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>950</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>951</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>954</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>953</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>14</v>
@@ -16386,7 +16630,7 @@
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="19" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
   </sheetData>
@@ -16399,9 +16643,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16426,7 +16672,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>8</v>
@@ -16437,262 +16683,262 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>767</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="10">
         <v>44191</v>
       </c>
       <c r="G2" s="12">
-        <f t="shared" ref="G2:G18" ca="1" si="0">TODAY()-F2</f>
-        <v>733</v>
+        <f t="shared" ref="G2:G17" ca="1" si="0">TODAY()-F2</f>
+        <v>752</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>929</v>
+        <v>941</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>927</v>
+        <v>144</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>928</v>
+        <v>144</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="10">
-        <v>44622</v>
+        <v>44666</v>
       </c>
       <c r="G3" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>302</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>943</v>
+        <v>960</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>944</v>
+        <v>961</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>144</v>
+        <v>959</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>144</v>
+        <v>962</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="10">
-        <v>44666</v>
+        <v>44734</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>258</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>963</v>
+        <v>970</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>964</v>
+        <v>973</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>962</v>
+        <v>971</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>965</v>
+        <v>972</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="10">
-        <v>44734</v>
+        <v>44757</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>974</v>
+        <v>89</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>975</v>
+        <v>89</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="10">
-        <v>44757</v>
+        <v>44769</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>979</v>
+        <v>994</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>980</v>
+        <v>995</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>89</v>
+        <v>659</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>89</v>
+        <v>660</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="10">
-        <v>44769</v>
+        <v>44803</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>997</v>
+        <v>986</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="10">
-        <v>44803</v>
+        <v>44810</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>669</v>
+        <v>790</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>670</v>
+        <v>793</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="10">
-        <v>44810</v>
+        <v>44832</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>987</v>
+        <v>1005</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>988</v>
+        <v>1006</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>790</v>
+        <v>724</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>793</v>
+        <v>724</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="10">
-        <v>44832</v>
+        <v>44852</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>1038</v>
+        <v>1016</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1040</v>
+        <v>1017</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1039</v>
+        <v>144</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1041</v>
+        <v>144</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="10">
-        <v>44847</v>
+        <v>44883</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>1008</v>
+        <v>1021</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1009</v>
+        <v>1022</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>724</v>
+        <v>1023</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>724</v>
+        <v>1024</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="10">
-        <v>44852</v>
+        <v>44897</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>1020</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>1021</v>
-      </c>
       <c r="C13" s="7" t="s">
-        <v>144</v>
+        <v>1025</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>144</v>
+        <v>1026</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="10">
-        <v>44883</v>
+        <v>44902</v>
       </c>
       <c r="G13" s="12">
         <f t="shared" ca="1" si="0"/>
@@ -16701,112 +16947,90 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1028</v>
+        <v>82</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="10">
-        <v>44897</v>
+        <v>44904</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>1023</v>
+        <v>1038</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>1024</v>
+        <v>1039</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>1029</v>
+        <v>1040</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1030</v>
+        <v>1041</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="10">
-        <v>44902</v>
+        <v>44914</v>
       </c>
       <c r="G15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>1032</v>
+        <v>1042</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1031</v>
+        <v>1043</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>82</v>
+        <v>1041</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="10">
-        <v>44904</v>
+        <v>44914</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>1042</v>
+        <v>1069</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1043</v>
+        <v>1070</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>1044</v>
+        <v>259</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>1045</v>
+        <v>262</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="10">
-        <v>44914</v>
+        <v>44942</v>
       </c>
       <c r="G17" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="10">
-        <v>44914</v>
-      </c>
-      <c r="G18" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -16871,7 +17095,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>7.1671232876712327</v>
+        <v>7.2191780821917808</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -16892,7 +17116,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1671232876712327</v>
+        <v>7.2191780821917808</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -16913,7 +17137,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5452054794520551</v>
+        <v>6.5972602739726032</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -16934,7 +17158,7 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>4.9150684931506845</v>
+        <v>4.9671232876712326</v>
       </c>
     </row>
   </sheetData>
@@ -16943,4 +17167,167 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="81.28515625" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="15"/>
+    <col min="5" max="9" width="9.140625" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="51">
+        <f>COUNTA(E3:E998)</f>
+        <v>2</v>
+      </c>
+      <c r="F1" s="51">
+        <f>COUNTA(F3:F998)</f>
+        <v>0</v>
+      </c>
+      <c r="G1" s="51">
+        <f>COUNTA(G3:G998)</f>
+        <v>0</v>
+      </c>
+      <c r="H1" s="51">
+        <f>COUNTA(H3:H998)</f>
+        <v>1</v>
+      </c>
+      <c r="I1" s="51">
+        <f>COUNTA(I3:I998)</f>
+        <v>1</v>
+      </c>
+      <c r="J1" s="52">
+        <f>SUM(E1:I1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G2" s="54" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H2" s="54" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E1:I1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="C5" r:id="rId6"/>
+    <hyperlink ref="B6" r:id="rId7"/>
+    <hyperlink ref="C6" r:id="rId8"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+</worksheet>
 </file>
--- a/publications.xlsx
+++ b/publications.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="papers" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2604" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2614" uniqueCount="1081">
   <si>
     <t>title</t>
   </si>
@@ -3250,6 +3250,24 @@
   </si>
   <si>
     <t>Charalampous, Periklis; Haagsma, Juanita A., Jakobsen, Lea S.; Gorasso, Vanessa; Noguer, Isabel; Padron-Monedero, Alicia; Sarmiento, Rodrigo; Santos, João Vasco; Assunção, Ricardo; McDonald,Scott A; von der Lippe, Elena; Plass, Dietrich; burden-eu members; Devleesschauwer, Brecht; Pires, Sara M.</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>e0280990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0280990 </t>
+  </si>
+  <si>
+    <t>10.3389/falgy.2023.1063982</t>
+  </si>
+  <si>
+    <t>10.1017/S0950268823000031</t>
+  </si>
+  <si>
+    <t>10.1038/s41591-023-02207-9</t>
   </si>
 </sst>
 </file>
@@ -3528,7 +3546,7 @@
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="77">
+  <dxfs count="80">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3550,167 +3568,14 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3952,6 +3817,189 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -3966,74 +4014,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U217" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
-  <autoFilter ref="A1:U217"/>
-  <sortState ref="A2:U217">
-    <sortCondition ref="K1:K217"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U218" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+  <autoFilter ref="A1:U218"/>
+  <sortState ref="A2:U218">
+    <sortCondition ref="K1:K218"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" name="title" dataDxfId="50"/>
-    <tableColumn id="2" name="authors" dataDxfId="49"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="48"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="47"/>
-    <tableColumn id="6" name="year" dataDxfId="46"/>
-    <tableColumn id="4" name="volume" dataDxfId="45"/>
-    <tableColumn id="5" name="issue" dataDxfId="44"/>
-    <tableColumn id="7" name="eID" dataDxfId="43"/>
-    <tableColumn id="8" name="from" dataDxfId="42"/>
-    <tableColumn id="9" name="to" dataDxfId="41"/>
-    <tableColumn id="10" name="date" dataDxfId="40"/>
-    <tableColumn id="14" name="classification" dataDxfId="39"/>
-    <tableColumn id="12" name="IF" dataDxfId="38"/>
-    <tableColumn id="13" name="DOI" dataDxfId="37"/>
-    <tableColumn id="15" name="WoS" dataDxfId="36"/>
-    <tableColumn id="16" name="rank" dataDxfId="35"/>
-    <tableColumn id="17" name="quartile" dataDxfId="34"/>
-    <tableColumn id="18" name="category" dataDxfId="33"/>
-    <tableColumn id="19" name="CBRA" dataDxfId="32"/>
-    <tableColumn id="20" name="SC" dataDxfId="31"/>
-    <tableColumn id="21" name="UGent" dataDxfId="30"/>
+    <tableColumn id="1" name="title" dataDxfId="77"/>
+    <tableColumn id="2" name="authors" dataDxfId="76"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="75"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="74"/>
+    <tableColumn id="6" name="year" dataDxfId="73"/>
+    <tableColumn id="4" name="volume" dataDxfId="72"/>
+    <tableColumn id="5" name="issue" dataDxfId="71"/>
+    <tableColumn id="7" name="eID" dataDxfId="70"/>
+    <tableColumn id="8" name="from" dataDxfId="69"/>
+    <tableColumn id="9" name="to" dataDxfId="68"/>
+    <tableColumn id="10" name="date" dataDxfId="67"/>
+    <tableColumn id="14" name="classification" dataDxfId="66"/>
+    <tableColumn id="12" name="IF" dataDxfId="65"/>
+    <tableColumn id="13" name="DOI" dataDxfId="64"/>
+    <tableColumn id="15" name="WoS" dataDxfId="63"/>
+    <tableColumn id="16" name="rank" dataDxfId="62"/>
+    <tableColumn id="17" name="quartile" dataDxfId="61"/>
+    <tableColumn id="18" name="category" dataDxfId="60"/>
+    <tableColumn id="19" name="CBRA" dataDxfId="59"/>
+    <tableColumn id="20" name="SC" dataDxfId="58"/>
+    <tableColumn id="21" name="UGent" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J11" totalsRowShown="0" headerRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J11" totalsRowShown="0" headerRowDxfId="56">
   <autoFilter ref="A1:J11"/>
   <sortState ref="A2:N50">
     <sortCondition ref="H1:H50"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="title" dataDxfId="28"/>
-    <tableColumn id="2" name="authors" dataDxfId="27"/>
-    <tableColumn id="3" name="editors" dataDxfId="26"/>
-    <tableColumn id="11" name="book" dataDxfId="25"/>
-    <tableColumn id="6" name="year" dataDxfId="24"/>
-    <tableColumn id="8" name="from" dataDxfId="23"/>
-    <tableColumn id="9" name="to" dataDxfId="22"/>
-    <tableColumn id="10" name="date" dataDxfId="21"/>
-    <tableColumn id="12" name="IF" dataDxfId="20"/>
-    <tableColumn id="13" name="DOI" dataDxfId="19"/>
+    <tableColumn id="1" name="title" dataDxfId="55"/>
+    <tableColumn id="2" name="authors" dataDxfId="54"/>
+    <tableColumn id="3" name="editors" dataDxfId="53"/>
+    <tableColumn id="11" name="book" dataDxfId="52"/>
+    <tableColumn id="6" name="year" dataDxfId="51"/>
+    <tableColumn id="8" name="from" dataDxfId="50"/>
+    <tableColumn id="9" name="to" dataDxfId="49"/>
+    <tableColumn id="10" name="date" dataDxfId="48"/>
+    <tableColumn id="12" name="IF" dataDxfId="47"/>
+    <tableColumn id="13" name="DOI" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G17" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:G17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G16" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+  <autoFilter ref="A1:G16"/>
   <sortState ref="A2:G17">
     <sortCondition ref="F1:F17"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="title" dataDxfId="16"/>
-    <tableColumn id="2" name="authors" dataDxfId="15"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="14"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="13"/>
-    <tableColumn id="4" name="doi_preprint" dataDxfId="12"/>
-    <tableColumn id="10" name="date" dataDxfId="11"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="10">
+    <tableColumn id="1" name="title" dataDxfId="43"/>
+    <tableColumn id="2" name="authors" dataDxfId="42"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="41"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="40"/>
+    <tableColumn id="4" name="doi_preprint" dataDxfId="39"/>
+    <tableColumn id="10" name="date" dataDxfId="38"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="37">
       <calculatedColumnFormula>TODAY()-F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4042,18 +4090,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A1:F5"/>
   <sortState ref="A2:K14">
     <sortCondition ref="E1:E14"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="title" dataDxfId="7"/>
-    <tableColumn id="2" name="authors" dataDxfId="6"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="5"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="4"/>
-    <tableColumn id="10" name="date" dataDxfId="3"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="2">
+    <tableColumn id="1" name="title" dataDxfId="34"/>
+    <tableColumn id="2" name="authors" dataDxfId="33"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="32"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="31"/>
+    <tableColumn id="10" name="date" dataDxfId="30"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="29">
       <calculatedColumnFormula>(TODAY()-E2)/365</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4348,10 +4396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U217"/>
+  <dimension ref="A1:U218"/>
   <sheetViews>
-    <sheetView topLeftCell="A180" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A217" sqref="A217"/>
+    <sheetView tabSelected="1" topLeftCell="A180" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A218" sqref="A218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15368,28 +15416,28 @@
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
-        <v>968</v>
+        <v>873</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>969</v>
+        <v>875</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>1009</v>
+        <v>267</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>1008</v>
+        <v>268</v>
       </c>
       <c r="E202" s="18">
         <v>2022</v>
       </c>
-      <c r="F202" s="18" t="s">
-        <v>14</v>
+      <c r="F202" s="18">
+        <v>80</v>
       </c>
       <c r="G202" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H202" s="18" t="s">
-        <v>14</v>
+      <c r="H202" s="18">
+        <v>222</v>
       </c>
       <c r="I202" s="18" t="s">
         <v>14</v>
@@ -15398,49 +15446,51 @@
         <v>14</v>
       </c>
       <c r="K202" s="42">
-        <v>44851</v>
+        <v>44852</v>
       </c>
       <c r="L202" s="42" t="s">
         <v>273</v>
       </c>
       <c r="M202" s="11"/>
       <c r="N202" s="19" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="O202" s="7"/>
       <c r="P202" s="24"/>
       <c r="Q202" s="25"/>
       <c r="R202" s="7"/>
       <c r="S202" s="7"/>
-      <c r="T202" s="7"/>
+      <c r="T202" s="7" t="s">
+        <v>604</v>
+      </c>
       <c r="U202" s="7" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="203" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
-        <v>873</v>
+        <v>968</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>875</v>
+        <v>969</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>267</v>
+        <v>1009</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>268</v>
+        <v>1008</v>
       </c>
       <c r="E203" s="18">
         <v>2022</v>
       </c>
       <c r="F203" s="18">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="G203" s="19" t="s">
         <v>14</v>
       </c>
       <c r="H203" s="18">
-        <v>222</v>
+        <v>1024560</v>
       </c>
       <c r="I203" s="18" t="s">
         <v>14</v>
@@ -15449,14 +15499,14 @@
         <v>14</v>
       </c>
       <c r="K203" s="42">
-        <v>44852</v>
+        <v>44866</v>
       </c>
       <c r="L203" s="42" t="s">
         <v>273</v>
       </c>
       <c r="M203" s="11"/>
       <c r="N203" s="19" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="O203" s="7"/>
       <c r="P203" s="24"/>
@@ -15737,28 +15787,28 @@
     </row>
     <row r="209" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>898</v>
+        <v>944</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>899</v>
+        <v>945</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="E209" s="18">
         <v>2022</v>
       </c>
       <c r="F209" s="18">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G209" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H209" s="18">
-        <v>2397</v>
+        <v>65</v>
+      </c>
+      <c r="H209" s="18" t="s">
+        <v>1046</v>
       </c>
       <c r="I209" s="18" t="s">
         <v>14</v>
@@ -15767,14 +15817,14 @@
         <v>14</v>
       </c>
       <c r="K209" s="42">
-        <v>44915</v>
+        <v>44908</v>
       </c>
       <c r="L209" s="42" t="s">
         <v>273</v>
       </c>
       <c r="M209" s="11"/>
       <c r="N209" s="19" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="O209" s="7"/>
       <c r="P209" s="24"/>
@@ -15790,28 +15840,28 @@
     </row>
     <row r="210" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>944</v>
+        <v>898</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>945</v>
+        <v>899</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="E210" s="18">
         <v>2022</v>
       </c>
       <c r="F210" s="18">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G210" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H210" s="18" t="s">
-        <v>1046</v>
+        <v>14</v>
+      </c>
+      <c r="H210" s="18">
+        <v>2397</v>
       </c>
       <c r="I210" s="18" t="s">
         <v>14</v>
@@ -15820,14 +15870,14 @@
         <v>14</v>
       </c>
       <c r="K210" s="42">
-        <v>45273</v>
+        <v>44915</v>
       </c>
       <c r="L210" s="42" t="s">
         <v>273</v>
       </c>
       <c r="M210" s="11"/>
       <c r="N210" s="19" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="O210" s="7"/>
       <c r="P210" s="24"/>
@@ -15842,66 +15892,70 @@
       </c>
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A211" s="13" t="s">
-        <v>791</v>
-      </c>
-      <c r="B211" s="13" t="s">
-        <v>792</v>
-      </c>
-      <c r="C211" s="13" t="s">
-        <v>790</v>
-      </c>
-      <c r="D211" s="13" t="s">
-        <v>793</v>
-      </c>
-      <c r="E211" s="14">
+      <c r="A211" s="7" t="s">
+        <v>940</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>941</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E211" s="18">
         <v>2023</v>
       </c>
-      <c r="F211" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G211" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H211" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I211" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J211" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K211" s="31">
-        <v>45292</v>
-      </c>
-      <c r="L211" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="M211" s="45"/>
-      <c r="N211" s="44" t="s">
-        <v>827</v>
-      </c>
-      <c r="O211" s="27"/>
+      <c r="F211" s="18">
+        <v>18</v>
+      </c>
+      <c r="G211" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H211" s="18" t="s">
+        <v>1076</v>
+      </c>
+      <c r="I211" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J211" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K211" s="42">
+        <v>44950</v>
+      </c>
+      <c r="L211" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="M211" s="11"/>
+      <c r="N211" s="19" t="s">
+        <v>1077</v>
+      </c>
+      <c r="O211" s="7"/>
       <c r="P211" s="24"/>
       <c r="Q211" s="25"/>
       <c r="R211" s="7"/>
       <c r="S211" s="7"/>
-      <c r="T211" s="7"/>
-      <c r="U211" s="7"/>
+      <c r="T211" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="U211" s="7" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A212" s="13" t="s">
-        <v>990</v>
+        <v>791</v>
       </c>
       <c r="B212" s="13" t="s">
-        <v>991</v>
+        <v>792</v>
       </c>
       <c r="C212" s="13" t="s">
-        <v>992</v>
+        <v>790</v>
       </c>
       <c r="D212" s="13" t="s">
-        <v>993</v>
+        <v>793</v>
       </c>
       <c r="E212" s="14">
         <v>2023</v>
@@ -15922,14 +15976,14 @@
         <v>14</v>
       </c>
       <c r="K212" s="31">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="L212" s="31" t="s">
         <v>273</v>
       </c>
       <c r="M212" s="45"/>
       <c r="N212" s="44" t="s">
-        <v>997</v>
+        <v>827</v>
       </c>
       <c r="O212" s="27"/>
       <c r="P212" s="24"/>
@@ -15941,16 +15995,16 @@
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A213" s="13" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C213" s="13" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="D213" s="13" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="E213" s="14">
         <v>2023</v>
@@ -15962,7 +16016,7 @@
         <v>14</v>
       </c>
       <c r="H213" s="43" t="s">
-        <v>1002</v>
+        <v>14</v>
       </c>
       <c r="I213" s="43" t="s">
         <v>14</v>
@@ -15971,14 +16025,14 @@
         <v>14</v>
       </c>
       <c r="K213" s="31">
-        <v>45294</v>
-      </c>
-      <c r="L213" s="48" t="s">
+        <v>45293</v>
+      </c>
+      <c r="L213" s="31" t="s">
         <v>273</v>
       </c>
       <c r="M213" s="45"/>
       <c r="N213" s="44" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="O213" s="27"/>
       <c r="P213" s="24"/>
@@ -15990,16 +16044,16 @@
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214" s="13" t="s">
-        <v>974</v>
+        <v>998</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>975</v>
+        <v>999</v>
       </c>
       <c r="C214" s="13" t="s">
-        <v>287</v>
+        <v>1000</v>
       </c>
       <c r="D214" s="13" t="s">
-        <v>330</v>
+        <v>1001</v>
       </c>
       <c r="E214" s="14">
         <v>2023</v>
@@ -16011,7 +16065,7 @@
         <v>14</v>
       </c>
       <c r="H214" s="43" t="s">
-        <v>14</v>
+        <v>1002</v>
       </c>
       <c r="I214" s="43" t="s">
         <v>14</v>
@@ -16020,14 +16074,14 @@
         <v>14</v>
       </c>
       <c r="K214" s="31">
-        <v>45295</v>
-      </c>
-      <c r="L214" s="31" t="s">
+        <v>45294</v>
+      </c>
+      <c r="L214" s="48" t="s">
         <v>273</v>
       </c>
       <c r="M214" s="45"/>
       <c r="N214" s="44" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="O214" s="27"/>
       <c r="P214" s="24"/>
@@ -16039,16 +16093,16 @@
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215" s="13" t="s">
-        <v>1010</v>
+        <v>974</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>1074</v>
+        <v>975</v>
       </c>
       <c r="C215" s="13" t="s">
-        <v>509</v>
+        <v>287</v>
       </c>
       <c r="D215" s="13" t="s">
-        <v>510</v>
+        <v>330</v>
       </c>
       <c r="E215" s="14">
         <v>2023</v>
@@ -16069,13 +16123,15 @@
         <v>14</v>
       </c>
       <c r="K215" s="31">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="L215" s="31" t="s">
         <v>273</v>
       </c>
       <c r="M215" s="45"/>
-      <c r="N215" s="44"/>
+      <c r="N215" s="44" t="s">
+        <v>1012</v>
+      </c>
       <c r="O215" s="27"/>
       <c r="P215" s="24"/>
       <c r="Q215" s="25"/>
@@ -16086,16 +16142,16 @@
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216" s="13" t="s">
-        <v>1034</v>
+        <v>1010</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>1036</v>
+        <v>1074</v>
       </c>
       <c r="C216" s="13" t="s">
-        <v>1035</v>
+        <v>509</v>
       </c>
       <c r="D216" s="13" t="s">
-        <v>1037</v>
+        <v>510</v>
       </c>
       <c r="E216" s="14">
         <v>2023</v>
@@ -16116,13 +16172,15 @@
         <v>14</v>
       </c>
       <c r="K216" s="31">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="L216" s="31" t="s">
         <v>273</v>
       </c>
       <c r="M216" s="45"/>
-      <c r="N216" s="44"/>
+      <c r="N216" s="44" t="s">
+        <v>1079</v>
+      </c>
       <c r="O216" s="27"/>
       <c r="P216" s="24"/>
       <c r="Q216" s="25"/>
@@ -16133,16 +16191,16 @@
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A217" s="13" t="s">
-        <v>1066</v>
+        <v>1034</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>926</v>
+        <v>1036</v>
       </c>
       <c r="C217" s="13" t="s">
-        <v>1067</v>
+        <v>1035</v>
       </c>
       <c r="D217" s="13" t="s">
-        <v>1068</v>
+        <v>1037</v>
       </c>
       <c r="E217" s="14">
         <v>2023</v>
@@ -16163,13 +16221,15 @@
         <v>14</v>
       </c>
       <c r="K217" s="31">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="L217" s="31" t="s">
         <v>273</v>
       </c>
       <c r="M217" s="45"/>
-      <c r="N217" s="44"/>
+      <c r="N217" s="44" t="s">
+        <v>1080</v>
+      </c>
       <c r="O217" s="27"/>
       <c r="P217" s="24"/>
       <c r="Q217" s="25"/>
@@ -16178,100 +16238,149 @@
       <c r="T217" s="7"/>
       <c r="U217" s="7"/>
     </row>
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A218" s="13" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B218" s="13" t="s">
+        <v>926</v>
+      </c>
+      <c r="C218" s="13" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D218" s="13" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E218" s="14">
+        <v>2023</v>
+      </c>
+      <c r="F218" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G218" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H218" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I218" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J218" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K218" s="31">
+        <v>45298</v>
+      </c>
+      <c r="L218" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="M218" s="45"/>
+      <c r="N218" s="44" t="s">
+        <v>1078</v>
+      </c>
+      <c r="O218" s="27"/>
+      <c r="P218" s="24"/>
+      <c r="Q218" s="25"/>
+      <c r="R218" s="7"/>
+      <c r="S218" s="7"/>
+      <c r="T218" s="7"/>
+      <c r="U218" s="7"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="S1:U112 S114:U122 S124:U125 S127:U134 U126 S148:U175 S136:U146 S177:U179 S182:U188 S190:U205 S207:U1048576">
-    <cfRule type="cellIs" dxfId="76" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T113:U113">
-    <cfRule type="cellIs" dxfId="74" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S113">
-    <cfRule type="cellIs" dxfId="72" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S123:U123">
-    <cfRule type="cellIs" dxfId="70" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S126:T126">
-    <cfRule type="cellIs" dxfId="68" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S135:U135">
-    <cfRule type="cellIs" dxfId="66" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S147:U147">
-    <cfRule type="cellIs" dxfId="64" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S176:U176">
-    <cfRule type="cellIs" dxfId="62" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S181:U181">
-    <cfRule type="cellIs" dxfId="60" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S189:U189">
-    <cfRule type="cellIs" dxfId="58" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S206:U206">
-    <cfRule type="cellIs" dxfId="56" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S180:U180">
-    <cfRule type="cellIs" dxfId="54" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16643,11 +16752,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16699,280 +16806,280 @@
         <v>44191</v>
       </c>
       <c r="G2" s="12">
-        <f t="shared" ref="G2:G17" ca="1" si="0">TODAY()-F2</f>
-        <v>752</v>
+        <f t="shared" ref="G2:G16" ca="1" si="0">TODAY()-F2</f>
+        <v>763</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>940</v>
+        <v>960</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>941</v>
+        <v>961</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>144</v>
+        <v>959</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>144</v>
+        <v>962</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="10">
-        <v>44666</v>
+        <v>44734</v>
       </c>
       <c r="G3" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>277</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>961</v>
+        <v>973</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>959</v>
+        <v>971</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>962</v>
+        <v>972</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="10">
-        <v>44734</v>
+        <v>44757</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>971</v>
+        <v>89</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>972</v>
+        <v>89</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="10">
-        <v>44757</v>
+        <v>44769</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>976</v>
+        <v>994</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>977</v>
+        <v>995</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>89</v>
+        <v>659</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>89</v>
+        <v>660</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="10">
-        <v>44769</v>
+        <v>44803</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>174</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="10">
-        <v>44803</v>
+        <v>44810</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>669</v>
+        <v>790</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>670</v>
+        <v>793</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="10">
-        <v>44810</v>
+        <v>44832</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>984</v>
+        <v>1005</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>985</v>
+        <v>1006</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>790</v>
+        <v>724</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>793</v>
+        <v>724</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="10">
-        <v>44832</v>
+        <v>44852</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>1005</v>
+        <v>1016</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1006</v>
+        <v>1017</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>724</v>
+        <v>144</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>724</v>
+        <v>144</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="10">
-        <v>44852</v>
+        <v>44883</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>144</v>
+        <v>1023</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>144</v>
+        <v>1024</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="10">
-        <v>44883</v>
+        <v>44897</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="10">
-        <v>44897</v>
+        <v>44902</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>1019</v>
+        <v>1028</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1020</v>
+        <v>1027</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1026</v>
+        <v>82</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="10">
-        <v>44902</v>
+        <v>44904</v>
       </c>
       <c r="G13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>1028</v>
+        <v>1038</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1027</v>
+        <v>1039</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>1029</v>
+        <v>1040</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>82</v>
+        <v>1041</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="10">
-        <v>44904</v>
+        <v>44914</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>1040</v>
@@ -16986,51 +17093,29 @@
       </c>
       <c r="G15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>1042</v>
+        <v>1069</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1043</v>
+        <v>1070</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>1040</v>
+        <v>259</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>1041</v>
+        <v>262</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="10">
-        <v>44914</v>
+        <v>44942</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="10">
-        <v>44942</v>
-      </c>
-      <c r="G17" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -17095,7 +17180,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>7.2191780821917808</v>
+        <v>7.2493150684931509</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -17116,7 +17201,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2191780821917808</v>
+        <v>7.2493150684931509</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -17137,7 +17222,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5972602739726032</v>
+        <v>6.6273972602739724</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -17158,7 +17243,7 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>4.9671232876712326</v>
+        <v>4.9972602739726026</v>
       </c>
     </row>
   </sheetData>
@@ -17173,7 +17258,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17266,7 +17353,7 @@
         <v>1058</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>1062</v>
+        <v>1075</v>
       </c>
       <c r="I4" s="49" t="s">
         <v>1053</v>
@@ -17283,7 +17370,7 @@
         <v>1061</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>1062</v>
+        <v>1075</v>
       </c>
       <c r="E5" s="49" t="s">
         <v>1053</v>
@@ -17308,12 +17395,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:I1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="papers" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2614" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2618" uniqueCount="1083">
   <si>
     <t>title</t>
   </si>
@@ -3268,6 +3268,12 @@
   </si>
   <si>
     <t>10.1038/s41591-023-02207-9</t>
+  </si>
+  <si>
+    <t>A systematic review of studies that estimated the burden of chronic non-communicable rare diseases using disability-adjusted life years</t>
+  </si>
+  <si>
+    <t>Cruz Oliveira, Claudia; Charalampous, Periklis; Delaye, Julien; Grad, Diana Alecsandra; Kolkhir, Pavel; Mechili, Enkeleint A.; Unim, Brigid; Devleesschauwer, Brecht; Haagsma, Juanita A.</t>
   </si>
 </sst>
 </file>
@@ -3546,7 +3552,7 @@
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="78">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3576,6 +3582,169 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3817,189 +3986,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -4014,74 +4000,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U218" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U218" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="A1:U218"/>
   <sortState ref="A2:U218">
     <sortCondition ref="K1:K218"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" name="title" dataDxfId="77"/>
-    <tableColumn id="2" name="authors" dataDxfId="76"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="75"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="74"/>
-    <tableColumn id="6" name="year" dataDxfId="73"/>
-    <tableColumn id="4" name="volume" dataDxfId="72"/>
-    <tableColumn id="5" name="issue" dataDxfId="71"/>
-    <tableColumn id="7" name="eID" dataDxfId="70"/>
-    <tableColumn id="8" name="from" dataDxfId="69"/>
-    <tableColumn id="9" name="to" dataDxfId="68"/>
-    <tableColumn id="10" name="date" dataDxfId="67"/>
-    <tableColumn id="14" name="classification" dataDxfId="66"/>
-    <tableColumn id="12" name="IF" dataDxfId="65"/>
-    <tableColumn id="13" name="DOI" dataDxfId="64"/>
-    <tableColumn id="15" name="WoS" dataDxfId="63"/>
-    <tableColumn id="16" name="rank" dataDxfId="62"/>
-    <tableColumn id="17" name="quartile" dataDxfId="61"/>
-    <tableColumn id="18" name="category" dataDxfId="60"/>
-    <tableColumn id="19" name="CBRA" dataDxfId="59"/>
-    <tableColumn id="20" name="SC" dataDxfId="58"/>
-    <tableColumn id="21" name="UGent" dataDxfId="57"/>
+    <tableColumn id="1" name="title" dataDxfId="51"/>
+    <tableColumn id="2" name="authors" dataDxfId="50"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="49"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="48"/>
+    <tableColumn id="6" name="year" dataDxfId="47"/>
+    <tableColumn id="4" name="volume" dataDxfId="46"/>
+    <tableColumn id="5" name="issue" dataDxfId="45"/>
+    <tableColumn id="7" name="eID" dataDxfId="44"/>
+    <tableColumn id="8" name="from" dataDxfId="43"/>
+    <tableColumn id="9" name="to" dataDxfId="42"/>
+    <tableColumn id="10" name="date" dataDxfId="41"/>
+    <tableColumn id="14" name="classification" dataDxfId="40"/>
+    <tableColumn id="12" name="IF" dataDxfId="39"/>
+    <tableColumn id="13" name="DOI" dataDxfId="38"/>
+    <tableColumn id="15" name="WoS" dataDxfId="37"/>
+    <tableColumn id="16" name="rank" dataDxfId="36"/>
+    <tableColumn id="17" name="quartile" dataDxfId="35"/>
+    <tableColumn id="18" name="category" dataDxfId="34"/>
+    <tableColumn id="19" name="CBRA" dataDxfId="33"/>
+    <tableColumn id="20" name="SC" dataDxfId="32"/>
+    <tableColumn id="21" name="UGent" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J11" totalsRowShown="0" headerRowDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J11" totalsRowShown="0" headerRowDxfId="30">
   <autoFilter ref="A1:J11"/>
   <sortState ref="A2:N50">
     <sortCondition ref="H1:H50"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="title" dataDxfId="55"/>
-    <tableColumn id="2" name="authors" dataDxfId="54"/>
-    <tableColumn id="3" name="editors" dataDxfId="53"/>
-    <tableColumn id="11" name="book" dataDxfId="52"/>
-    <tableColumn id="6" name="year" dataDxfId="51"/>
-    <tableColumn id="8" name="from" dataDxfId="50"/>
-    <tableColumn id="9" name="to" dataDxfId="49"/>
-    <tableColumn id="10" name="date" dataDxfId="48"/>
-    <tableColumn id="12" name="IF" dataDxfId="47"/>
-    <tableColumn id="13" name="DOI" dataDxfId="46"/>
+    <tableColumn id="1" name="title" dataDxfId="29"/>
+    <tableColumn id="2" name="authors" dataDxfId="28"/>
+    <tableColumn id="3" name="editors" dataDxfId="27"/>
+    <tableColumn id="11" name="book" dataDxfId="26"/>
+    <tableColumn id="6" name="year" dataDxfId="25"/>
+    <tableColumn id="8" name="from" dataDxfId="24"/>
+    <tableColumn id="9" name="to" dataDxfId="23"/>
+    <tableColumn id="10" name="date" dataDxfId="22"/>
+    <tableColumn id="12" name="IF" dataDxfId="21"/>
+    <tableColumn id="13" name="DOI" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G16" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
-  <autoFilter ref="A1:G16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G17" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:G17"/>
   <sortState ref="A2:G17">
     <sortCondition ref="F1:F17"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="title" dataDxfId="43"/>
-    <tableColumn id="2" name="authors" dataDxfId="42"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="41"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="40"/>
-    <tableColumn id="4" name="doi_preprint" dataDxfId="39"/>
-    <tableColumn id="10" name="date" dataDxfId="38"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="37">
+    <tableColumn id="1" name="title" dataDxfId="17"/>
+    <tableColumn id="2" name="authors" dataDxfId="16"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="15"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="14"/>
+    <tableColumn id="4" name="doi_preprint" dataDxfId="13"/>
+    <tableColumn id="10" name="date" dataDxfId="12"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="11">
       <calculatedColumnFormula>TODAY()-F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4090,18 +4076,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:F5"/>
   <sortState ref="A2:K14">
     <sortCondition ref="E1:E14"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="title" dataDxfId="34"/>
-    <tableColumn id="2" name="authors" dataDxfId="33"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="32"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="31"/>
-    <tableColumn id="10" name="date" dataDxfId="30"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="29">
+    <tableColumn id="1" name="title" dataDxfId="8"/>
+    <tableColumn id="2" name="authors" dataDxfId="7"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="6"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="5"/>
+    <tableColumn id="10" name="date" dataDxfId="4"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="3">
       <calculatedColumnFormula>(TODAY()-E2)/365</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4398,8 +4384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A218" sqref="A218"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16289,98 +16275,98 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="S1:U112 S114:U122 S124:U125 S127:U134 U126 S148:U175 S136:U146 S177:U179 S182:U188 S190:U205 S207:U1048576">
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="25" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="26" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T113:U113">
-    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="23" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="24" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S113">
-    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="21" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="22" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S123:U123">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="19" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="20" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S126:T126">
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="17" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="18" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S135:U135">
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="15" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="16" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S147:U147">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="13" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="14" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S176:U176">
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="11" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="12" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S181:U181">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="7" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="8" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S189:U189">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="5" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="6" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S206:U206">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S180:U180">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16752,9 +16738,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16806,8 +16792,8 @@
         <v>44191</v>
       </c>
       <c r="G2" s="12">
-        <f t="shared" ref="G2:G16" ca="1" si="0">TODAY()-F2</f>
-        <v>763</v>
+        <f t="shared" ref="G2:G17" ca="1" si="0">TODAY()-F2</f>
+        <v>767</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -16829,7 +16815,7 @@
       </c>
       <c r="G3" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -16851,7 +16837,7 @@
       </c>
       <c r="G4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -16873,7 +16859,7 @@
       </c>
       <c r="G5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -16895,7 +16881,7 @@
       </c>
       <c r="G6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -16917,7 +16903,7 @@
       </c>
       <c r="G7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -16939,7 +16925,7 @@
       </c>
       <c r="G8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -16961,7 +16947,7 @@
       </c>
       <c r="G9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -16983,7 +16969,7 @@
       </c>
       <c r="G10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -17005,7 +16991,7 @@
       </c>
       <c r="G11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -17027,7 +17013,7 @@
       </c>
       <c r="G12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -17049,7 +17035,7 @@
       </c>
       <c r="G13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -17071,7 +17057,7 @@
       </c>
       <c r="G14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -17093,7 +17079,7 @@
       </c>
       <c r="G15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -17115,7 +17101,29 @@
       </c>
       <c r="G16" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="10">
+        <v>44958</v>
+      </c>
+      <c r="G17" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -17180,7 +17188,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>7.2493150684931509</v>
+        <v>7.2602739726027394</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -17201,7 +17209,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2493150684931509</v>
+        <v>7.2602739726027394</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -17222,7 +17230,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6273972602739724</v>
+        <v>6.6383561643835618</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -17243,7 +17251,7 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>4.9972602739726026</v>
+        <v>5.0082191780821921</v>
       </c>
     </row>
   </sheetData>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2618" uniqueCount="1083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2619" uniqueCount="1084">
   <si>
     <t>title</t>
   </si>
@@ -3274,6 +3274,9 @@
   </si>
   <si>
     <t>Cruz Oliveira, Claudia; Charalampous, Periklis; Delaye, Julien; Grad, Diana Alecsandra; Kolkhir, Pavel; Mechili, Enkeleint A.; Unim, Brigid; Devleesschauwer, Brecht; Haagsma, Juanita A.</t>
+  </si>
+  <si>
+    <t>10.1101/2023.01.31.23285233</t>
   </si>
 </sst>
 </file>
@@ -16793,7 +16796,7 @@
       </c>
       <c r="G2" s="12">
         <f t="shared" ref="G2:G17" ca="1" si="0">TODAY()-F2</f>
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -16815,7 +16818,7 @@
       </c>
       <c r="G3" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -16837,7 +16840,7 @@
       </c>
       <c r="G4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -16853,13 +16856,15 @@
       <c r="D5" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>1083</v>
+      </c>
       <c r="F5" s="10">
         <v>44769</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -16881,7 +16886,7 @@
       </c>
       <c r="G6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -16903,7 +16908,7 @@
       </c>
       <c r="G7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -16925,7 +16930,7 @@
       </c>
       <c r="G8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -16947,7 +16952,7 @@
       </c>
       <c r="G9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -16969,7 +16974,7 @@
       </c>
       <c r="G10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -16991,7 +16996,7 @@
       </c>
       <c r="G11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -17013,7 +17018,7 @@
       </c>
       <c r="G12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -17035,7 +17040,7 @@
       </c>
       <c r="G13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -17057,7 +17062,7 @@
       </c>
       <c r="G14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -17079,7 +17084,7 @@
       </c>
       <c r="G15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -17101,7 +17106,7 @@
       </c>
       <c r="G16" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -17123,7 +17128,7 @@
       </c>
       <c r="G17" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -17188,7 +17193,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>7.2602739726027394</v>
+        <v>7.2630136986301368</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -17209,7 +17214,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2602739726027394</v>
+        <v>7.2630136986301368</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -17230,7 +17235,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6383561643835618</v>
+        <v>6.6410958904109592</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -17251,7 +17256,7 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>5.0082191780821921</v>
+        <v>5.0109589041095894</v>
       </c>
     </row>
   </sheetData>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="papers" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2619" uniqueCount="1084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2617" uniqueCount="1084">
   <si>
     <t>title</t>
   </si>
@@ -4387,8 +4387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U218"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:D14"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15934,47 +15934,47 @@
       </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A212" s="13" t="s">
-        <v>791</v>
-      </c>
-      <c r="B212" s="13" t="s">
-        <v>792</v>
-      </c>
-      <c r="C212" s="13" t="s">
-        <v>790</v>
-      </c>
-      <c r="D212" s="13" t="s">
-        <v>793</v>
-      </c>
-      <c r="E212" s="14">
+      <c r="A212" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>926</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D212" s="7" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E212" s="18">
         <v>2023</v>
       </c>
-      <c r="F212" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G212" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H212" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I212" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J212" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K212" s="31">
-        <v>45292</v>
-      </c>
-      <c r="L212" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="M212" s="45"/>
-      <c r="N212" s="44" t="s">
-        <v>827</v>
-      </c>
-      <c r="O212" s="27"/>
+      <c r="F212" s="18">
+        <v>4</v>
+      </c>
+      <c r="G212" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H212" s="18">
+        <v>1063982</v>
+      </c>
+      <c r="I212" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J212" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K212" s="42">
+        <v>44959</v>
+      </c>
+      <c r="L212" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="M212" s="11"/>
+      <c r="N212" s="19" t="s">
+        <v>1078</v>
+      </c>
+      <c r="O212" s="7"/>
       <c r="P212" s="24"/>
       <c r="Q212" s="25"/>
       <c r="R212" s="7"/>
@@ -15984,16 +15984,16 @@
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A213" s="13" t="s">
-        <v>990</v>
+        <v>791</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>991</v>
+        <v>792</v>
       </c>
       <c r="C213" s="13" t="s">
-        <v>992</v>
+        <v>790</v>
       </c>
       <c r="D213" s="13" t="s">
-        <v>993</v>
+        <v>793</v>
       </c>
       <c r="E213" s="14">
         <v>2023</v>
@@ -16014,14 +16014,14 @@
         <v>14</v>
       </c>
       <c r="K213" s="31">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="L213" s="31" t="s">
         <v>273</v>
       </c>
       <c r="M213" s="45"/>
       <c r="N213" s="44" t="s">
-        <v>997</v>
+        <v>827</v>
       </c>
       <c r="O213" s="27"/>
       <c r="P213" s="24"/>
@@ -16033,16 +16033,16 @@
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214" s="13" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C214" s="13" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="D214" s="13" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="E214" s="14">
         <v>2023</v>
@@ -16054,7 +16054,7 @@
         <v>14</v>
       </c>
       <c r="H214" s="43" t="s">
-        <v>1002</v>
+        <v>14</v>
       </c>
       <c r="I214" s="43" t="s">
         <v>14</v>
@@ -16063,14 +16063,14 @@
         <v>14</v>
       </c>
       <c r="K214" s="31">
-        <v>45294</v>
-      </c>
-      <c r="L214" s="48" t="s">
+        <v>45293</v>
+      </c>
+      <c r="L214" s="31" t="s">
         <v>273</v>
       </c>
       <c r="M214" s="45"/>
       <c r="N214" s="44" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="O214" s="27"/>
       <c r="P214" s="24"/>
@@ -16082,16 +16082,16 @@
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215" s="13" t="s">
-        <v>974</v>
+        <v>998</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>975</v>
+        <v>999</v>
       </c>
       <c r="C215" s="13" t="s">
-        <v>287</v>
+        <v>1000</v>
       </c>
       <c r="D215" s="13" t="s">
-        <v>330</v>
+        <v>1001</v>
       </c>
       <c r="E215" s="14">
         <v>2023</v>
@@ -16103,7 +16103,7 @@
         <v>14</v>
       </c>
       <c r="H215" s="43" t="s">
-        <v>14</v>
+        <v>1002</v>
       </c>
       <c r="I215" s="43" t="s">
         <v>14</v>
@@ -16112,14 +16112,14 @@
         <v>14</v>
       </c>
       <c r="K215" s="31">
-        <v>45295</v>
-      </c>
-      <c r="L215" s="31" t="s">
+        <v>45294</v>
+      </c>
+      <c r="L215" s="48" t="s">
         <v>273</v>
       </c>
       <c r="M215" s="45"/>
       <c r="N215" s="44" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="O215" s="27"/>
       <c r="P215" s="24"/>
@@ -16131,16 +16131,16 @@
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216" s="13" t="s">
-        <v>1010</v>
+        <v>974</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>1074</v>
+        <v>975</v>
       </c>
       <c r="C216" s="13" t="s">
-        <v>509</v>
+        <v>287</v>
       </c>
       <c r="D216" s="13" t="s">
-        <v>510</v>
+        <v>330</v>
       </c>
       <c r="E216" s="14">
         <v>2023</v>
@@ -16161,14 +16161,14 @@
         <v>14</v>
       </c>
       <c r="K216" s="31">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="L216" s="31" t="s">
         <v>273</v>
       </c>
       <c r="M216" s="45"/>
       <c r="N216" s="44" t="s">
-        <v>1079</v>
+        <v>1012</v>
       </c>
       <c r="O216" s="27"/>
       <c r="P216" s="24"/>
@@ -16180,16 +16180,16 @@
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A217" s="13" t="s">
-        <v>1034</v>
+        <v>1010</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>1036</v>
+        <v>1074</v>
       </c>
       <c r="C217" s="13" t="s">
-        <v>1035</v>
+        <v>509</v>
       </c>
       <c r="D217" s="13" t="s">
-        <v>1037</v>
+        <v>510</v>
       </c>
       <c r="E217" s="14">
         <v>2023</v>
@@ -16210,14 +16210,14 @@
         <v>14</v>
       </c>
       <c r="K217" s="31">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="L217" s="31" t="s">
         <v>273</v>
       </c>
       <c r="M217" s="45"/>
       <c r="N217" s="44" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="O217" s="27"/>
       <c r="P217" s="24"/>
@@ -16229,16 +16229,16 @@
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218" s="13" t="s">
-        <v>1066</v>
+        <v>1034</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>926</v>
+        <v>1036</v>
       </c>
       <c r="C218" s="13" t="s">
-        <v>1067</v>
+        <v>1035</v>
       </c>
       <c r="D218" s="13" t="s">
-        <v>1068</v>
+        <v>1037</v>
       </c>
       <c r="E218" s="14">
         <v>2023</v>
@@ -16259,14 +16259,14 @@
         <v>14</v>
       </c>
       <c r="K218" s="31">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="L218" s="31" t="s">
         <v>273</v>
       </c>
       <c r="M218" s="45"/>
       <c r="N218" s="44" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="O218" s="27"/>
       <c r="P218" s="24"/>
@@ -16743,7 +16743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="papers" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2617" uniqueCount="1084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="1086">
   <si>
     <t>title</t>
   </si>
@@ -3277,6 +3277,12 @@
   </si>
   <si>
     <t>10.1101/2023.01.31.23285233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacterial antimicrobial resistance: Data gaps and relationships between human and animal resistance </t>
+  </si>
+  <si>
+    <t>Venkateswaran, Narmada; Swetschinski, Lucien R.; Fastl, Christina; Di Bari, Carlotta; Criscuolo, Nicola G.; Zhao, Cheng; Meštrović, Tomislav; Ikuta, Kevin S.; Martins, Sara Babo; Coyne, Lucy A.; Afonso, João Sucena; Huntington, Ben; Rushton, Jonathan; Devleesschauwer, Brecht; Naghavi, Mohsen; Sartorius, Benn; Van Boeckel, Thomas P.; Pigott, David M.</t>
   </si>
 </sst>
 </file>
@@ -4058,8 +4064,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G17" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:G17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G18" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:G18"/>
   <sortState ref="A2:G17">
     <sortCondition ref="F1:F17"/>
   </sortState>
@@ -4387,7 +4393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A181" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
@@ -16741,9 +16747,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16795,7 +16801,7 @@
         <v>44191</v>
       </c>
       <c r="G2" s="12">
-        <f t="shared" ref="G2:G17" ca="1" si="0">TODAY()-F2</f>
+        <f t="shared" ref="G2:G18" ca="1" si="0">TODAY()-F2</f>
         <v>768</v>
       </c>
     </row>
@@ -17129,6 +17135,28 @@
       <c r="G17" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="10">
+        <v>44959</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="papers" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="1086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2627" uniqueCount="1090">
   <si>
     <t>title</t>
   </si>
@@ -2949,9 +2949,6 @@
     <t>Gorasso, Vanessa; Van der Heyden, Johan; De Pauw, Robby; Pelgrims, Ingrid; De Clercq, Eva; De Ridder, Karin; Vandevijvere, Stefanie; Vansteelandt, Stijn; Vaes, Bert; De Smedt, Delphine; Devleesschauwer, Brecht</t>
   </si>
   <si>
-    <t>Burden of disease among older adults in Europe – trends of main components of mortality and disability, 1990-2019</t>
-  </si>
-  <si>
     <t>Iburg, Kim Moesgaard; Charalampous, Periklis; Allebeck, Peter; Stenberg, Elsa Jonsson; O'Caoimh, Rónán; Monasta, Lorenzo; Peñalvo, José Luis; Pereira, Davd M; Wyper, Grant M A; Niranjan, Vikram; Devleesschauwer, Brecht; Haagsma, Juanita</t>
   </si>
   <si>
@@ -3283,6 +3280,21 @@
   </si>
   <si>
     <t>Venkateswaran, Narmada; Swetschinski, Lucien R.; Fastl, Christina; Di Bari, Carlotta; Criscuolo, Nicola G.; Zhao, Cheng; Meštrović, Tomislav; Ikuta, Kevin S.; Martins, Sara Babo; Coyne, Lucy A.; Afonso, João Sucena; Huntington, Ben; Rushton, Jonathan; Devleesschauwer, Brecht; Naghavi, Mohsen; Sartorius, Benn; Van Boeckel, Thomas P.; Pigott, David M.</t>
+  </si>
+  <si>
+    <t>e19</t>
+  </si>
+  <si>
+    <t>Burden of disease among older adults in Europe-trends in mortality and disability, 1990-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Product promotional strategies in supermarkets and their effects on sales: A case study of breakfast cereals and drinks in New Zealand </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/1747-0080.12800</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/36843241/</t>
   </si>
 </sst>
 </file>
@@ -4393,8 +4405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U218"/>
   <sheetViews>
-    <sheetView topLeftCell="A181" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A212" sqref="A212"/>
+    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A215" sqref="A215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14245,10 +14257,10 @@
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B180" s="7" t="s">
         <v>1031</v>
-      </c>
-      <c r="B180" s="7" t="s">
-        <v>1032</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>575</v>
@@ -14282,7 +14294,7 @@
       </c>
       <c r="M180" s="11"/>
       <c r="N180" s="19" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="O180" s="7"/>
       <c r="P180" s="24"/>
@@ -15183,7 +15195,7 @@
       </c>
       <c r="M197" s="11"/>
       <c r="N197" s="19" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="O197" s="7"/>
       <c r="P197" s="24"/>
@@ -15199,16 +15211,16 @@
     </row>
     <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
+        <v>978</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="C198" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="B198" s="7" t="s">
-        <v>983</v>
-      </c>
-      <c r="C198" s="7" t="s">
+      <c r="D198" s="7" t="s">
         <v>980</v>
-      </c>
-      <c r="D198" s="7" t="s">
-        <v>981</v>
       </c>
       <c r="E198" s="18">
         <v>2022</v>
@@ -15236,7 +15248,7 @@
       </c>
       <c r="M198" s="11"/>
       <c r="N198" s="19" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="O198" s="7"/>
       <c r="P198" s="24"/>
@@ -15289,7 +15301,7 @@
       </c>
       <c r="M199" s="11"/>
       <c r="N199" s="19" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="O199" s="7"/>
       <c r="P199" s="24"/>
@@ -15342,7 +15354,7 @@
       </c>
       <c r="M200" s="11"/>
       <c r="N200" s="19" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="O200" s="7"/>
       <c r="P200" s="24"/>
@@ -15395,7 +15407,7 @@
       </c>
       <c r="M201" s="11"/>
       <c r="N201" s="19" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="O201" s="7"/>
       <c r="P201" s="24"/>
@@ -15448,7 +15460,7 @@
       </c>
       <c r="M202" s="11"/>
       <c r="N202" s="19" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="O202" s="7"/>
       <c r="P202" s="24"/>
@@ -15470,10 +15482,10 @@
         <v>969</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E203" s="18">
         <v>2022</v>
@@ -15501,7 +15513,7 @@
       </c>
       <c r="M203" s="11"/>
       <c r="N203" s="19" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="O203" s="7"/>
       <c r="P203" s="24"/>
@@ -15554,7 +15566,7 @@
       </c>
       <c r="M204" s="11"/>
       <c r="N204" s="19" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="O204" s="7"/>
       <c r="P204" s="24"/>
@@ -15570,7 +15582,7 @@
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B205" s="7" t="s">
         <v>935</v>
@@ -15591,7 +15603,7 @@
         <v>69</v>
       </c>
       <c r="H205" s="18" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="I205" s="18" t="s">
         <v>14</v>
@@ -15607,7 +15619,7 @@
       </c>
       <c r="M205" s="11"/>
       <c r="N205" s="19" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="O205" s="7"/>
       <c r="P205" s="24"/>
@@ -15660,7 +15672,7 @@
       </c>
       <c r="M206" s="11"/>
       <c r="N206" s="19" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O206" s="7"/>
       <c r="P206" s="24"/>
@@ -15713,7 +15725,7 @@
       </c>
       <c r="M207" s="11"/>
       <c r="N207" s="19" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="O207" s="7"/>
       <c r="P207" s="24"/>
@@ -15803,7 +15815,7 @@
         <v>65</v>
       </c>
       <c r="H209" s="18" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I209" s="18" t="s">
         <v>14</v>
@@ -15819,7 +15831,7 @@
       </c>
       <c r="M209" s="11"/>
       <c r="N209" s="19" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="O209" s="7"/>
       <c r="P209" s="24"/>
@@ -15872,7 +15884,7 @@
       </c>
       <c r="M210" s="11"/>
       <c r="N210" s="19" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O210" s="7"/>
       <c r="P210" s="24"/>
@@ -15888,28 +15900,28 @@
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>940</v>
+        <v>1009</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>941</v>
+        <v>1073</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>144</v>
+        <v>509</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>144</v>
+        <v>510</v>
       </c>
       <c r="E211" s="18">
         <v>2023</v>
       </c>
       <c r="F211" s="18">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="G211" s="19" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="H211" s="18" t="s">
-        <v>1076</v>
+        <v>1085</v>
       </c>
       <c r="I211" s="18" t="s">
         <v>14</v>
@@ -15918,14 +15930,14 @@
         <v>14</v>
       </c>
       <c r="K211" s="42">
-        <v>44950</v>
+        <v>44935</v>
       </c>
       <c r="L211" s="42" t="s">
         <v>273</v>
       </c>
       <c r="M211" s="11"/>
       <c r="N211" s="19" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="O211" s="7"/>
       <c r="P211" s="24"/>
@@ -15941,28 +15953,28 @@
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>1066</v>
+        <v>940</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>926</v>
+        <v>941</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>1067</v>
+        <v>144</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>1068</v>
+        <v>144</v>
       </c>
       <c r="E212" s="18">
         <v>2023</v>
       </c>
       <c r="F212" s="18">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G212" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H212" s="18">
-        <v>1063982</v>
+        <v>101</v>
+      </c>
+      <c r="H212" s="18" t="s">
+        <v>1075</v>
       </c>
       <c r="I212" s="18" t="s">
         <v>14</v>
@@ -15971,182 +15983,198 @@
         <v>14</v>
       </c>
       <c r="K212" s="42">
-        <v>44959</v>
+        <v>44950</v>
       </c>
       <c r="L212" s="42" t="s">
         <v>273</v>
       </c>
       <c r="M212" s="11"/>
       <c r="N212" s="19" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="O212" s="7"/>
       <c r="P212" s="24"/>
       <c r="Q212" s="25"/>
       <c r="R212" s="7"/>
       <c r="S212" s="7"/>
-      <c r="T212" s="7"/>
-      <c r="U212" s="7"/>
+      <c r="T212" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="U212" s="7" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A213" s="13" t="s">
-        <v>791</v>
-      </c>
-      <c r="B213" s="13" t="s">
-        <v>792</v>
-      </c>
-      <c r="C213" s="13" t="s">
-        <v>790</v>
-      </c>
-      <c r="D213" s="13" t="s">
-        <v>793</v>
-      </c>
-      <c r="E213" s="14">
+      <c r="A213" s="7" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>926</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D213" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E213" s="18">
         <v>2023</v>
       </c>
-      <c r="F213" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G213" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H213" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I213" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J213" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K213" s="31">
-        <v>45292</v>
-      </c>
-      <c r="L213" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="M213" s="45"/>
-      <c r="N213" s="44" t="s">
-        <v>827</v>
-      </c>
-      <c r="O213" s="27"/>
+      <c r="F213" s="18">
+        <v>4</v>
+      </c>
+      <c r="G213" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H213" s="18">
+        <v>1063982</v>
+      </c>
+      <c r="I213" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J213" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K213" s="42">
+        <v>44959</v>
+      </c>
+      <c r="L213" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="M213" s="11"/>
+      <c r="N213" s="19" t="s">
+        <v>1077</v>
+      </c>
+      <c r="O213" s="7"/>
       <c r="P213" s="24"/>
       <c r="Q213" s="25"/>
       <c r="R213" s="7"/>
       <c r="S213" s="7"/>
-      <c r="T213" s="7"/>
-      <c r="U213" s="7"/>
+      <c r="T213" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="U213" s="7" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A214" s="13" t="s">
-        <v>990</v>
-      </c>
-      <c r="B214" s="13" t="s">
-        <v>991</v>
-      </c>
-      <c r="C214" s="13" t="s">
-        <v>992</v>
-      </c>
-      <c r="D214" s="13" t="s">
-        <v>993</v>
-      </c>
-      <c r="E214" s="14">
+      <c r="A214" s="7" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D214" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="E214" s="18">
         <v>2023</v>
       </c>
-      <c r="F214" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G214" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H214" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I214" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J214" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K214" s="31">
-        <v>45293</v>
-      </c>
-      <c r="L214" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="M214" s="45"/>
-      <c r="N214" s="44" t="s">
-        <v>997</v>
-      </c>
-      <c r="O214" s="27"/>
+      <c r="F214" s="18">
+        <v>33</v>
+      </c>
+      <c r="G214" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H214" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I214" s="18">
+        <v>121</v>
+      </c>
+      <c r="J214" s="18">
+        <v>126</v>
+      </c>
+      <c r="K214" s="42">
+        <v>44960</v>
+      </c>
+      <c r="L214" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="M214" s="11"/>
+      <c r="N214" s="19" t="s">
+        <v>1011</v>
+      </c>
+      <c r="O214" s="7"/>
       <c r="P214" s="24"/>
       <c r="Q214" s="25"/>
       <c r="R214" s="7"/>
       <c r="S214" s="7"/>
-      <c r="T214" s="7"/>
-      <c r="U214" s="7"/>
+      <c r="T214" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="U214" s="7" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A215" s="13" t="s">
-        <v>998</v>
-      </c>
-      <c r="B215" s="13" t="s">
-        <v>999</v>
-      </c>
-      <c r="C215" s="13" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D215" s="13" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E215" s="14">
+      <c r="A215" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="D215" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="E215" s="18">
         <v>2023</v>
       </c>
-      <c r="F215" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G215" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H215" s="43" t="s">
-        <v>1002</v>
-      </c>
-      <c r="I215" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J215" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K215" s="31">
-        <v>45294</v>
-      </c>
-      <c r="L215" s="48" t="s">
-        <v>273</v>
-      </c>
-      <c r="M215" s="45"/>
-      <c r="N215" s="44" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O215" s="27"/>
+      <c r="F215" s="18">
+        <v>5</v>
+      </c>
+      <c r="G215" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H215" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I215" s="18">
+        <v>296</v>
+      </c>
+      <c r="J215" s="18">
+        <v>300</v>
+      </c>
+      <c r="K215" s="42">
+        <v>44986</v>
+      </c>
+      <c r="L215" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="M215" s="11"/>
+      <c r="N215" s="19" t="s">
+        <v>827</v>
+      </c>
+      <c r="O215" s="7"/>
       <c r="P215" s="24"/>
       <c r="Q215" s="25"/>
       <c r="R215" s="7"/>
       <c r="S215" s="7"/>
-      <c r="T215" s="7"/>
-      <c r="U215" s="7"/>
+      <c r="T215" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="U215" s="7" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216" s="13" t="s">
-        <v>974</v>
+        <v>989</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>975</v>
+        <v>990</v>
       </c>
       <c r="C216" s="13" t="s">
-        <v>287</v>
+        <v>991</v>
       </c>
       <c r="D216" s="13" t="s">
-        <v>330</v>
+        <v>992</v>
       </c>
       <c r="E216" s="14">
         <v>2023</v>
@@ -16167,14 +16195,14 @@
         <v>14</v>
       </c>
       <c r="K216" s="31">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="L216" s="31" t="s">
         <v>273</v>
       </c>
       <c r="M216" s="45"/>
       <c r="N216" s="44" t="s">
-        <v>1012</v>
+        <v>996</v>
       </c>
       <c r="O216" s="27"/>
       <c r="P216" s="24"/>
@@ -16186,16 +16214,16 @@
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A217" s="13" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>1074</v>
+        <v>998</v>
       </c>
       <c r="C217" s="13" t="s">
-        <v>509</v>
+        <v>999</v>
       </c>
       <c r="D217" s="13" t="s">
-        <v>510</v>
+        <v>1000</v>
       </c>
       <c r="E217" s="14">
         <v>2023</v>
@@ -16207,7 +16235,7 @@
         <v>14</v>
       </c>
       <c r="H217" s="43" t="s">
-        <v>14</v>
+        <v>1001</v>
       </c>
       <c r="I217" s="43" t="s">
         <v>14</v>
@@ -16216,14 +16244,14 @@
         <v>14</v>
       </c>
       <c r="K217" s="31">
-        <v>45296</v>
-      </c>
-      <c r="L217" s="31" t="s">
+        <v>45294</v>
+      </c>
+      <c r="L217" s="48" t="s">
         <v>273</v>
       </c>
       <c r="M217" s="45"/>
       <c r="N217" s="44" t="s">
-        <v>1079</v>
+        <v>1002</v>
       </c>
       <c r="O217" s="27"/>
       <c r="P217" s="24"/>
@@ -16235,16 +16263,16 @@
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218" s="13" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B218" s="13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C218" s="13" t="s">
         <v>1034</v>
       </c>
-      <c r="B218" s="13" t="s">
+      <c r="D218" s="13" t="s">
         <v>1036</v>
-      </c>
-      <c r="C218" s="13" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D218" s="13" t="s">
-        <v>1037</v>
       </c>
       <c r="E218" s="14">
         <v>2023</v>
@@ -16272,7 +16300,7 @@
       </c>
       <c r="M218" s="45"/>
       <c r="N218" s="44" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="O218" s="27"/>
       <c r="P218" s="24"/>
@@ -16749,7 +16777,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16802,7 +16832,7 @@
       </c>
       <c r="G2" s="12">
         <f t="shared" ref="G2:G18" ca="1" si="0">TODAY()-F2</f>
-        <v>768</v>
+        <v>799</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -16824,7 +16854,7 @@
       </c>
       <c r="G3" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>225</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -16846,15 +16876,15 @@
       </c>
       <c r="G4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>202</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>975</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>976</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>977</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>89</v>
@@ -16863,22 +16893,22 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="F5" s="10">
         <v>44769</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>190</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>994</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>995</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>659</v>
@@ -16892,15 +16922,15 @@
       </c>
       <c r="G6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>156</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>986</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>987</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>669</v>
@@ -16914,15 +16944,15 @@
       </c>
       <c r="G7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>149</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>984</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>985</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>790</v>
@@ -16936,15 +16966,15 @@
       </c>
       <c r="G8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>127</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>1005</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>1006</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>724</v>
@@ -16958,15 +16988,15 @@
       </c>
       <c r="G9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>107</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>1016</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>1017</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>144</v>
@@ -16980,21 +17010,21 @@
       </c>
       <c r="G10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>1021</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>1022</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>1023</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>1024</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="10">
@@ -17002,21 +17032,21 @@
       </c>
       <c r="G11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>1019</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>1020</v>
-      </c>
       <c r="C12" s="7" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>1025</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>1026</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="10">
@@ -17024,18 +17054,18 @@
       </c>
       <c r="G12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>1028</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>1029</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>82</v>
@@ -17046,21 +17076,21 @@
       </c>
       <c r="G13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>1038</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>1039</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>1040</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>1041</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="10">
@@ -17068,21 +17098,21 @@
       </c>
       <c r="G14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>1042</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>1043</v>
-      </c>
       <c r="C15" s="7" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>1040</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>1041</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="10">
@@ -17090,15 +17120,15 @@
       </c>
       <c r="G15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>1069</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>1070</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>259</v>
@@ -17112,15 +17142,15 @@
       </c>
       <c r="G16" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>1081</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>1082</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>25</v>
@@ -17134,15 +17164,15 @@
       </c>
       <c r="G17" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>1084</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>1085</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>120</v>
@@ -17156,7 +17186,7 @@
       </c>
       <c r="G18" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -17221,7 +17251,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>7.2630136986301368</v>
+        <v>7.3479452054794523</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -17242,7 +17272,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2630136986301368</v>
+        <v>7.3479452054794523</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -17263,7 +17293,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6410958904109592</v>
+        <v>6.7260273972602738</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -17284,7 +17314,7 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>5.0109589041095894</v>
+        <v>5.095890410958904</v>
       </c>
     </row>
   </sheetData>
@@ -17297,10 +17327,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17326,7 +17356,7 @@
       </c>
       <c r="H1" s="51">
         <f>COUNTA(H3:H998)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1" s="51">
         <f>COUNTA(I3:I998)</f>
@@ -17334,104 +17364,121 @@
       </c>
       <c r="J1" s="52">
         <f>SUM(E1:I1)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>175</v>
       </c>
       <c r="C2" s="53" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D2" s="53" t="s">
         <v>1064</v>
       </c>
-      <c r="D2" s="53" t="s">
-        <v>1065</v>
-      </c>
       <c r="E2" s="54" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G2" s="54" t="s">
         <v>1049</v>
       </c>
-      <c r="F2" s="54" t="s">
-        <v>1048</v>
-      </c>
-      <c r="G2" s="54" t="s">
+      <c r="H2" s="54" t="s">
         <v>1050</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="I2" s="54" t="s">
         <v>1051</v>
-      </c>
-      <c r="I2" s="54" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B3" s="50" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C3" s="50" t="s">
         <v>1054</v>
       </c>
-      <c r="C3" s="50" t="s">
-        <v>1055</v>
-      </c>
       <c r="D3" s="15" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B4" s="50" t="s">
         <v>1056</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="C4" s="50" t="s">
         <v>1057</v>
       </c>
-      <c r="C4" s="50" t="s">
-        <v>1058</v>
-      </c>
       <c r="D4" s="15" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I4" s="49" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B5" s="50" t="s">
         <v>1059</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="C5" s="50" t="s">
         <v>1060</v>
       </c>
-      <c r="C5" s="50" t="s">
-        <v>1061</v>
-      </c>
       <c r="D5" s="15" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B6" s="50" t="s">
         <v>1071</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="C6" s="50" t="s">
         <v>1072</v>
       </c>
-      <c r="C6" s="50" t="s">
-        <v>1073</v>
-      </c>
       <c r="D6" s="15" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="H6" s="49" t="s">
-        <v>1053</v>
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>1052</v>
       </c>
     </row>
   </sheetData>
@@ -17457,8 +17504,10 @@
     <hyperlink ref="C5" r:id="rId6"/>
     <hyperlink ref="B6" r:id="rId7"/>
     <hyperlink ref="C6" r:id="rId8"/>
+    <hyperlink ref="B7" r:id="rId9"/>
+    <hyperlink ref="C7" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/publications.xlsx
+++ b/publications.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="papers" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2627" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2655" uniqueCount="1095">
   <si>
     <t>title</t>
   </si>
@@ -2940,12 +2940,6 @@
     <t>The health and economic burden of musculoskeletal disorders in Belgium from 2013 to 2018</t>
   </si>
   <si>
-    <t>Seminars in Arthritis &amp; Rheumatism</t>
-  </si>
-  <si>
-    <t>Semin. Arthritis Rheum.</t>
-  </si>
-  <si>
     <t>Gorasso, Vanessa; Van der Heyden, Johan; De Pauw, Robby; Pelgrims, Ingrid; De Clercq, Eva; De Ridder, Karin; Vandevijvere, Stefanie; Vansteelandt, Stijn; Vaes, Bert; De Smedt, Delphine; Devleesschauwer, Brecht</t>
   </si>
   <si>
@@ -3090,9 +3084,6 @@
     <t>Measuring small-area level deprivation in Belgium: the Belgian Index of Multiple Deprivation</t>
   </si>
   <si>
-    <t>Masquelier, Bruno; Faes, Christel; Van den Borre, Laura; Bouland, Catherine; De Clercq, Eva; Vandeninden, Bram; De Bleser, Andreas; Devleesschauwer, Brecht</t>
-  </si>
-  <si>
     <t>Spatial and Spatio-temporal Epidemiology</t>
   </si>
   <si>
@@ -3141,9 +3132,6 @@
     <t>Burden of disease attributable to risk factors in European countries: a systematic literature review</t>
   </si>
   <si>
-    <t>Gorasso,Vanessa; Nazaré Morgado, Joana; Charalampous, Periklis; Pires, Sara M.; Haagsma, Juanita A.; Santos, João Vasco: Idavain, Jane; Ngwa, Che Henry; Noguer, Isabel; Padron-Monedero, Alicia; Sarmiento, Rodrigo; Pinheiro, Vera; von der Lippe, Elena; Jakobsen, Lea Sletting; Devleesschauwer, Brecht; Plass, Dietrich; The COST Action CA18218 participants</t>
-  </si>
-  <si>
     <t>BMJ Global Health</t>
   </si>
   <si>
@@ -3295,6 +3283,33 @@
   </si>
   <si>
     <t>https://pubmed.ncbi.nlm.nih.gov/36843241/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Challenges in Drug Surveillance: Strengthening the Analysis of New Psychoactive Substances by Harmonizing Drug Checking Services in Proficiency Testing </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/ijerph20054628</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/36901637/</t>
+  </si>
+  <si>
+    <t>Impact of environmental nitrogen pollution on pollen allergy: a scoping review</t>
+  </si>
+  <si>
+    <t>Sci. Total Environ.</t>
+  </si>
+  <si>
+    <t>Science of the Total Environment</t>
+  </si>
+  <si>
+    <t>Verscheure, Paulien; Honnay, Olivier; Speybroeck, Niko; Daelemans, Robin; Bruffaerts, Nicolas; Devleesschauwer, Brecht; Ceulemans, Tobias; Van Gerven, Laura; Aerts, Raf; Schrijvers, Rik</t>
+  </si>
+  <si>
+    <t>Otavova, Martina; Masquelier, Bruno; Faes, Christel; Van den Borre, Laura; Bouland, Catherine; De Clercq, Eva; Vandeninden, Bram; De Bleser, Andreas; Devleesschauwer, Brecht</t>
+  </si>
+  <si>
+    <t>Gorasso, Vanessa; Nazaré Morgado, Joana; Charalampous, Periklis; Pires, Sara M.; Haagsma, Juanita A.; Santos, João Vasco: Idavain, Jane; Ngwa, Che Henry; Noguer, Isabel; Padron-Monedero, Alicia; Sarmiento, Rodrigo; Pinheiro, Vera; von der Lippe, Elena; Jakobsen, Lea Sletting; Devleesschauwer, Brecht; Plass, Dietrich; The COST Action CA18218 participants</t>
   </si>
 </sst>
 </file>
@@ -3411,7 +3426,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3548,9 +3563,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3603,169 +3615,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4007,6 +3856,169 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -4021,74 +4033,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U218" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
-  <autoFilter ref="A1:U218"/>
-  <sortState ref="A2:U218">
-    <sortCondition ref="K1:K218"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U221" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+  <autoFilter ref="A1:U221"/>
+  <sortState ref="A2:U221">
+    <sortCondition ref="K1:K221"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" name="title" dataDxfId="51"/>
-    <tableColumn id="2" name="authors" dataDxfId="50"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="49"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="48"/>
-    <tableColumn id="6" name="year" dataDxfId="47"/>
-    <tableColumn id="4" name="volume" dataDxfId="46"/>
-    <tableColumn id="5" name="issue" dataDxfId="45"/>
-    <tableColumn id="7" name="eID" dataDxfId="44"/>
-    <tableColumn id="8" name="from" dataDxfId="43"/>
-    <tableColumn id="9" name="to" dataDxfId="42"/>
-    <tableColumn id="10" name="date" dataDxfId="41"/>
-    <tableColumn id="14" name="classification" dataDxfId="40"/>
-    <tableColumn id="12" name="IF" dataDxfId="39"/>
-    <tableColumn id="13" name="DOI" dataDxfId="38"/>
-    <tableColumn id="15" name="WoS" dataDxfId="37"/>
-    <tableColumn id="16" name="rank" dataDxfId="36"/>
-    <tableColumn id="17" name="quartile" dataDxfId="35"/>
-    <tableColumn id="18" name="category" dataDxfId="34"/>
-    <tableColumn id="19" name="CBRA" dataDxfId="33"/>
-    <tableColumn id="20" name="SC" dataDxfId="32"/>
-    <tableColumn id="21" name="UGent" dataDxfId="31"/>
+    <tableColumn id="1" name="title" dataDxfId="75"/>
+    <tableColumn id="2" name="authors" dataDxfId="74"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="73"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="72"/>
+    <tableColumn id="6" name="year" dataDxfId="71"/>
+    <tableColumn id="4" name="volume" dataDxfId="70"/>
+    <tableColumn id="5" name="issue" dataDxfId="69"/>
+    <tableColumn id="7" name="eID" dataDxfId="68"/>
+    <tableColumn id="8" name="from" dataDxfId="67"/>
+    <tableColumn id="9" name="to" dataDxfId="66"/>
+    <tableColumn id="10" name="date" dataDxfId="65"/>
+    <tableColumn id="14" name="classification" dataDxfId="64"/>
+    <tableColumn id="12" name="IF" dataDxfId="63"/>
+    <tableColumn id="13" name="DOI" dataDxfId="62"/>
+    <tableColumn id="15" name="WoS" dataDxfId="61"/>
+    <tableColumn id="16" name="rank" dataDxfId="60"/>
+    <tableColumn id="17" name="quartile" dataDxfId="59"/>
+    <tableColumn id="18" name="category" dataDxfId="58"/>
+    <tableColumn id="19" name="CBRA" dataDxfId="57"/>
+    <tableColumn id="20" name="SC" dataDxfId="56"/>
+    <tableColumn id="21" name="UGent" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J11" totalsRowShown="0" headerRowDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J11" totalsRowShown="0" headerRowDxfId="54">
   <autoFilter ref="A1:J11"/>
   <sortState ref="A2:N50">
     <sortCondition ref="H1:H50"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="title" dataDxfId="29"/>
-    <tableColumn id="2" name="authors" dataDxfId="28"/>
-    <tableColumn id="3" name="editors" dataDxfId="27"/>
-    <tableColumn id="11" name="book" dataDxfId="26"/>
-    <tableColumn id="6" name="year" dataDxfId="25"/>
-    <tableColumn id="8" name="from" dataDxfId="24"/>
-    <tableColumn id="9" name="to" dataDxfId="23"/>
-    <tableColumn id="10" name="date" dataDxfId="22"/>
-    <tableColumn id="12" name="IF" dataDxfId="21"/>
-    <tableColumn id="13" name="DOI" dataDxfId="20"/>
+    <tableColumn id="1" name="title" dataDxfId="53"/>
+    <tableColumn id="2" name="authors" dataDxfId="52"/>
+    <tableColumn id="3" name="editors" dataDxfId="51"/>
+    <tableColumn id="11" name="book" dataDxfId="50"/>
+    <tableColumn id="6" name="year" dataDxfId="49"/>
+    <tableColumn id="8" name="from" dataDxfId="48"/>
+    <tableColumn id="9" name="to" dataDxfId="47"/>
+    <tableColumn id="10" name="date" dataDxfId="46"/>
+    <tableColumn id="12" name="IF" dataDxfId="45"/>
+    <tableColumn id="13" name="DOI" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G18" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:G18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G16" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:G16"/>
   <sortState ref="A2:G17">
     <sortCondition ref="F1:F17"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="title" dataDxfId="17"/>
-    <tableColumn id="2" name="authors" dataDxfId="16"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="15"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="14"/>
-    <tableColumn id="4" name="doi_preprint" dataDxfId="13"/>
-    <tableColumn id="10" name="date" dataDxfId="12"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="11">
+    <tableColumn id="1" name="title" dataDxfId="41"/>
+    <tableColumn id="2" name="authors" dataDxfId="40"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="39"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="38"/>
+    <tableColumn id="4" name="doi_preprint" dataDxfId="37"/>
+    <tableColumn id="10" name="date" dataDxfId="36"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="35">
       <calculatedColumnFormula>TODAY()-F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4097,18 +4109,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A1:F5"/>
   <sortState ref="A2:K14">
     <sortCondition ref="E1:E14"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="title" dataDxfId="8"/>
-    <tableColumn id="2" name="authors" dataDxfId="7"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="6"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="5"/>
-    <tableColumn id="10" name="date" dataDxfId="4"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="3">
+    <tableColumn id="1" name="title" dataDxfId="32"/>
+    <tableColumn id="2" name="authors" dataDxfId="31"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="30"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="29"/>
+    <tableColumn id="10" name="date" dataDxfId="28"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="27">
       <calculatedColumnFormula>(TODAY()-E2)/365</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4403,10 +4415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U218"/>
+  <dimension ref="A1:U221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A215" sqref="A215"/>
+    <sheetView topLeftCell="A188" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A217" sqref="A217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14257,10 +14269,10 @@
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>575</v>
@@ -14294,7 +14306,7 @@
       </c>
       <c r="M180" s="11"/>
       <c r="N180" s="19" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="O180" s="7"/>
       <c r="P180" s="24"/>
@@ -15195,7 +15207,7 @@
       </c>
       <c r="M197" s="11"/>
       <c r="N197" s="19" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="O197" s="7"/>
       <c r="P197" s="24"/>
@@ -15211,16 +15223,16 @@
     </row>
     <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
+        <v>976</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>980</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>977</v>
+      </c>
+      <c r="D198" s="7" t="s">
         <v>978</v>
-      </c>
-      <c r="B198" s="7" t="s">
-        <v>982</v>
-      </c>
-      <c r="C198" s="7" t="s">
-        <v>979</v>
-      </c>
-      <c r="D198" s="7" t="s">
-        <v>980</v>
       </c>
       <c r="E198" s="18">
         <v>2022</v>
@@ -15248,7 +15260,7 @@
       </c>
       <c r="M198" s="11"/>
       <c r="N198" s="19" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="O198" s="7"/>
       <c r="P198" s="24"/>
@@ -15301,7 +15313,7 @@
       </c>
       <c r="M199" s="11"/>
       <c r="N199" s="19" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="O199" s="7"/>
       <c r="P199" s="24"/>
@@ -15354,7 +15366,7 @@
       </c>
       <c r="M200" s="11"/>
       <c r="N200" s="19" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="O200" s="7"/>
       <c r="P200" s="24"/>
@@ -15407,7 +15419,7 @@
       </c>
       <c r="M201" s="11"/>
       <c r="N201" s="19" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="O201" s="7"/>
       <c r="P201" s="24"/>
@@ -15460,7 +15472,7 @@
       </c>
       <c r="M202" s="11"/>
       <c r="N202" s="19" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="O202" s="7"/>
       <c r="P202" s="24"/>
@@ -15482,10 +15494,10 @@
         <v>969</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E203" s="18">
         <v>2022</v>
@@ -15513,7 +15525,7 @@
       </c>
       <c r="M203" s="11"/>
       <c r="N203" s="19" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="O203" s="7"/>
       <c r="P203" s="24"/>
@@ -15566,7 +15578,7 @@
       </c>
       <c r="M204" s="11"/>
       <c r="N204" s="19" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="O204" s="7"/>
       <c r="P204" s="24"/>
@@ -15582,7 +15594,7 @@
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B205" s="7" t="s">
         <v>935</v>
@@ -15603,7 +15615,7 @@
         <v>69</v>
       </c>
       <c r="H205" s="18" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="I205" s="18" t="s">
         <v>14</v>
@@ -15619,7 +15631,7 @@
       </c>
       <c r="M205" s="11"/>
       <c r="N205" s="19" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="O205" s="7"/>
       <c r="P205" s="24"/>
@@ -15672,7 +15684,7 @@
       </c>
       <c r="M206" s="11"/>
       <c r="N206" s="19" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="O206" s="7"/>
       <c r="P206" s="24"/>
@@ -15725,7 +15737,7 @@
       </c>
       <c r="M207" s="11"/>
       <c r="N207" s="19" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="O207" s="7"/>
       <c r="P207" s="24"/>
@@ -15815,7 +15827,7 @@
         <v>65</v>
       </c>
       <c r="H209" s="18" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="I209" s="18" t="s">
         <v>14</v>
@@ -15831,7 +15843,7 @@
       </c>
       <c r="M209" s="11"/>
       <c r="N209" s="19" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="O209" s="7"/>
       <c r="P209" s="24"/>
@@ -15884,7 +15896,7 @@
       </c>
       <c r="M210" s="11"/>
       <c r="N210" s="19" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="O210" s="7"/>
       <c r="P210" s="24"/>
@@ -15900,28 +15912,28 @@
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>1009</v>
+        <v>995</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>1073</v>
+        <v>996</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>509</v>
+        <v>997</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>510</v>
+        <v>998</v>
       </c>
       <c r="E211" s="18">
         <v>2023</v>
       </c>
       <c r="F211" s="18">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="G211" s="19" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="H211" s="18" t="s">
-        <v>1085</v>
+        <v>999</v>
       </c>
       <c r="I211" s="18" t="s">
         <v>14</v>
@@ -15930,14 +15942,14 @@
         <v>14</v>
       </c>
       <c r="K211" s="42">
-        <v>44935</v>
+        <v>44927</v>
       </c>
       <c r="L211" s="42" t="s">
         <v>273</v>
       </c>
       <c r="M211" s="11"/>
       <c r="N211" s="19" t="s">
-        <v>1078</v>
+        <v>1000</v>
       </c>
       <c r="O211" s="7"/>
       <c r="P211" s="24"/>
@@ -15953,28 +15965,28 @@
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>940</v>
+        <v>1007</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>941</v>
+        <v>1069</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>144</v>
+        <v>509</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>144</v>
+        <v>510</v>
       </c>
       <c r="E212" s="18">
         <v>2023</v>
       </c>
       <c r="F212" s="18">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="G212" s="19" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="H212" s="18" t="s">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="I212" s="18" t="s">
         <v>14</v>
@@ -15983,14 +15995,14 @@
         <v>14</v>
       </c>
       <c r="K212" s="42">
-        <v>44950</v>
+        <v>44935</v>
       </c>
       <c r="L212" s="42" t="s">
         <v>273</v>
       </c>
       <c r="M212" s="11"/>
       <c r="N212" s="19" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="O212" s="7"/>
       <c r="P212" s="24"/>
@@ -16006,28 +16018,28 @@
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
-        <v>1065</v>
+        <v>940</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>926</v>
+        <v>941</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>1066</v>
+        <v>144</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>1067</v>
+        <v>144</v>
       </c>
       <c r="E213" s="18">
         <v>2023</v>
       </c>
       <c r="F213" s="18">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G213" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H213" s="18">
-        <v>1063982</v>
+        <v>101</v>
+      </c>
+      <c r="H213" s="18" t="s">
+        <v>1071</v>
       </c>
       <c r="I213" s="18" t="s">
         <v>14</v>
@@ -16036,14 +16048,14 @@
         <v>14</v>
       </c>
       <c r="K213" s="42">
-        <v>44959</v>
+        <v>44950</v>
       </c>
       <c r="L213" s="42" t="s">
         <v>273</v>
       </c>
       <c r="M213" s="11"/>
       <c r="N213" s="19" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="O213" s="7"/>
       <c r="P213" s="24"/>
@@ -16059,44 +16071,44 @@
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
-        <v>1086</v>
+        <v>1061</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>974</v>
+        <v>926</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>287</v>
+        <v>1062</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>330</v>
+        <v>1063</v>
       </c>
       <c r="E214" s="18">
         <v>2023</v>
       </c>
       <c r="F214" s="18">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="G214" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="H214" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I214" s="18">
-        <v>121</v>
-      </c>
-      <c r="J214" s="18">
-        <v>126</v>
+        <v>14</v>
+      </c>
+      <c r="H214" s="18">
+        <v>1063982</v>
+      </c>
+      <c r="I214" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J214" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="K214" s="42">
-        <v>44960</v>
+        <v>44959</v>
       </c>
       <c r="L214" s="42" t="s">
         <v>273</v>
       </c>
       <c r="M214" s="11"/>
       <c r="N214" s="19" t="s">
-        <v>1011</v>
+        <v>1073</v>
       </c>
       <c r="O214" s="7"/>
       <c r="P214" s="24"/>
@@ -16112,22 +16124,22 @@
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>791</v>
+        <v>1082</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>792</v>
+        <v>972</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>790</v>
+        <v>287</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>793</v>
+        <v>330</v>
       </c>
       <c r="E215" s="18">
         <v>2023</v>
       </c>
       <c r="F215" s="18">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="G215" s="19" t="s">
         <v>101</v>
@@ -16136,20 +16148,20 @@
         <v>14</v>
       </c>
       <c r="I215" s="18">
-        <v>296</v>
+        <v>121</v>
       </c>
       <c r="J215" s="18">
-        <v>300</v>
+        <v>126</v>
       </c>
       <c r="K215" s="42">
-        <v>44986</v>
+        <v>44960</v>
       </c>
       <c r="L215" s="42" t="s">
         <v>273</v>
       </c>
       <c r="M215" s="11"/>
       <c r="N215" s="19" t="s">
-        <v>827</v>
+        <v>1009</v>
       </c>
       <c r="O215" s="7"/>
       <c r="P215" s="24"/>
@@ -16164,66 +16176,70 @@
       </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A216" s="13" t="s">
-        <v>989</v>
-      </c>
-      <c r="B216" s="13" t="s">
-        <v>990</v>
-      </c>
-      <c r="C216" s="13" t="s">
-        <v>991</v>
-      </c>
-      <c r="D216" s="13" t="s">
-        <v>992</v>
-      </c>
-      <c r="E216" s="14">
+      <c r="A216" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="D216" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="E216" s="18">
         <v>2023</v>
       </c>
-      <c r="F216" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G216" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H216" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I216" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J216" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K216" s="31">
-        <v>45293</v>
-      </c>
-      <c r="L216" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="M216" s="45"/>
-      <c r="N216" s="44" t="s">
-        <v>996</v>
-      </c>
-      <c r="O216" s="27"/>
+      <c r="F216" s="18">
+        <v>5</v>
+      </c>
+      <c r="G216" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H216" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I216" s="18">
+        <v>296</v>
+      </c>
+      <c r="J216" s="18">
+        <v>300</v>
+      </c>
+      <c r="K216" s="42">
+        <v>44986</v>
+      </c>
+      <c r="L216" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="M216" s="11"/>
+      <c r="N216" s="19" t="s">
+        <v>827</v>
+      </c>
+      <c r="O216" s="7"/>
       <c r="P216" s="24"/>
       <c r="Q216" s="25"/>
       <c r="R216" s="7"/>
       <c r="S216" s="7"/>
-      <c r="T216" s="7"/>
-      <c r="U216" s="7"/>
+      <c r="T216" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="U216" s="7" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A217" s="13" t="s">
-        <v>997</v>
+        <v>987</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="C217" s="13" t="s">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="D217" s="13" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="E217" s="14">
         <v>2023</v>
@@ -16235,7 +16251,7 @@
         <v>14</v>
       </c>
       <c r="H217" s="43" t="s">
-        <v>1001</v>
+        <v>14</v>
       </c>
       <c r="I217" s="43" t="s">
         <v>14</v>
@@ -16244,14 +16260,14 @@
         <v>14</v>
       </c>
       <c r="K217" s="31">
-        <v>45294</v>
-      </c>
-      <c r="L217" s="48" t="s">
+        <v>45292</v>
+      </c>
+      <c r="L217" s="31" t="s">
         <v>273</v>
       </c>
       <c r="M217" s="45"/>
       <c r="N217" s="44" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="O217" s="27"/>
       <c r="P217" s="24"/>
@@ -16263,16 +16279,16 @@
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218" s="13" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B218" s="13" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C218" s="13" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D218" s="13" t="s">
         <v>1033</v>
-      </c>
-      <c r="B218" s="13" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C218" s="13" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D218" s="13" t="s">
-        <v>1036</v>
       </c>
       <c r="E218" s="14">
         <v>2023</v>
@@ -16293,14 +16309,14 @@
         <v>14</v>
       </c>
       <c r="K218" s="31">
-        <v>45297</v>
+        <v>45293</v>
       </c>
       <c r="L218" s="31" t="s">
         <v>273</v>
       </c>
       <c r="M218" s="45"/>
       <c r="N218" s="44" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="O218" s="27"/>
       <c r="P218" s="24"/>
@@ -16310,100 +16326,241 @@
       <c r="T218" s="7"/>
       <c r="U218" s="7"/>
     </row>
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A219" s="13" t="s">
+        <v>931</v>
+      </c>
+      <c r="B219" s="13" t="s">
+        <v>767</v>
+      </c>
+      <c r="C219" s="13" t="s">
+        <v>932</v>
+      </c>
+      <c r="D219" s="13" t="s">
+        <v>933</v>
+      </c>
+      <c r="E219" s="14">
+        <v>2023</v>
+      </c>
+      <c r="F219" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G219" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H219" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I219" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J219" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K219" s="31">
+        <v>45294</v>
+      </c>
+      <c r="L219" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="M219" s="45"/>
+      <c r="N219" s="44"/>
+      <c r="O219" s="27"/>
+      <c r="P219" s="24"/>
+      <c r="Q219" s="25"/>
+      <c r="R219" s="7"/>
+      <c r="S219" s="7"/>
+      <c r="T219" s="7"/>
+      <c r="U219" s="7"/>
+    </row>
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A220" s="13" t="s">
+        <v>970</v>
+      </c>
+      <c r="B220" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="C220" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D220" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E220" s="14">
+        <v>2023</v>
+      </c>
+      <c r="F220" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G220" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H220" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I220" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J220" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K220" s="31">
+        <v>45295</v>
+      </c>
+      <c r="L220" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="M220" s="45"/>
+      <c r="N220" s="44"/>
+      <c r="O220" s="27"/>
+      <c r="P220" s="24"/>
+      <c r="Q220" s="25"/>
+      <c r="R220" s="7"/>
+      <c r="S220" s="7"/>
+      <c r="T220" s="7"/>
+      <c r="U220" s="7"/>
+    </row>
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A221" s="13" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B221" s="13" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C221" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="D221" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="E221" s="14">
+        <v>2023</v>
+      </c>
+      <c r="F221" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G221" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H221" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I221" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J221" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K221" s="31">
+        <v>45296</v>
+      </c>
+      <c r="L221" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="M221" s="45"/>
+      <c r="N221" s="44"/>
+      <c r="O221" s="27"/>
+      <c r="P221" s="24"/>
+      <c r="Q221" s="25"/>
+      <c r="R221" s="7"/>
+      <c r="S221" s="7"/>
+      <c r="T221" s="7"/>
+      <c r="U221" s="7"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="S1:U112 S114:U122 S124:U125 S127:U134 U126 S148:U175 S136:U146 S177:U179 S182:U188 S190:U205 S207:U1048576">
-    <cfRule type="cellIs" dxfId="77" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T113:U113">
-    <cfRule type="cellIs" dxfId="75" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S113">
-    <cfRule type="cellIs" dxfId="73" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S123:U123">
-    <cfRule type="cellIs" dxfId="71" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S126:T126">
-    <cfRule type="cellIs" dxfId="69" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S135:U135">
-    <cfRule type="cellIs" dxfId="67" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S147:U147">
-    <cfRule type="cellIs" dxfId="65" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S176:U176">
-    <cfRule type="cellIs" dxfId="63" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S181:U181">
-    <cfRule type="cellIs" dxfId="61" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S189:U189">
-    <cfRule type="cellIs" dxfId="59" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S206:U206">
-    <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S180:U180">
-    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16775,11 +16932,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16815,378 +16970,334 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>931</v>
+        <v>960</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>767</v>
+        <v>961</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>932</v>
+        <v>959</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>933</v>
+        <v>962</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="10">
-        <v>44191</v>
+        <v>44734</v>
       </c>
       <c r="G2" s="12">
-        <f t="shared" ref="G2:G18" ca="1" si="0">TODAY()-F2</f>
-        <v>799</v>
+        <f t="shared" ref="G2:G16" ca="1" si="0">TODAY()-F2</f>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>960</v>
+        <v>973</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>961</v>
+        <v>974</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>959</v>
+        <v>89</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="E3" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1078</v>
+      </c>
       <c r="F3" s="10">
-        <v>44734</v>
+        <v>44769</v>
       </c>
       <c r="G3" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>970</v>
+        <v>991</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>973</v>
+        <v>992</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>971</v>
+        <v>659</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>972</v>
+        <v>660</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="10">
-        <v>44757</v>
+        <v>44803</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>233</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>975</v>
+        <v>983</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>976</v>
+        <v>984</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>89</v>
+        <v>669</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>1082</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="E5" s="7"/>
       <c r="F5" s="10">
-        <v>44769</v>
+        <v>44810</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>221</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>993</v>
+        <v>981</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>994</v>
+        <v>982</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>659</v>
+        <v>790</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>660</v>
+        <v>793</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="10">
-        <v>44803</v>
+        <v>44832</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>985</v>
+        <v>1013</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>986</v>
+        <v>1014</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>669</v>
+        <v>144</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>670</v>
+        <v>144</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="10">
-        <v>44810</v>
+        <v>44883</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>180</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>983</v>
+        <v>1018</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>984</v>
+        <v>1093</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>790</v>
+        <v>1019</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>793</v>
+        <v>1020</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="10">
-        <v>44832</v>
+        <v>44897</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>158</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>1004</v>
+        <v>1016</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1005</v>
+        <v>1017</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>724</v>
+        <v>1021</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>724</v>
+        <v>1022</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="10">
-        <v>44852</v>
+        <v>44902</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>1015</v>
+        <v>1024</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1016</v>
+        <v>1023</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>144</v>
+        <v>1025</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="10">
-        <v>44883</v>
+        <v>44904</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>1020</v>
+        <v>1034</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1021</v>
+        <v>1094</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1022</v>
+        <v>1035</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1023</v>
+        <v>1036</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="10">
-        <v>44897</v>
+        <v>44914</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>1018</v>
+        <v>1037</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1019</v>
+        <v>1038</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1024</v>
+        <v>1035</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1025</v>
+        <v>1036</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="10">
-        <v>44902</v>
+        <v>44914</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>1027</v>
+        <v>1064</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1026</v>
+        <v>1065</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1028</v>
+        <v>259</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>82</v>
+        <v>262</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="10">
-        <v>44904</v>
+        <v>44942</v>
       </c>
       <c r="G13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>1037</v>
+        <v>1076</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1038</v>
+        <v>1077</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>1039</v>
+        <v>25</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1040</v>
+        <v>28</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="10">
-        <v>44914</v>
+        <v>44958</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>1041</v>
+        <v>1079</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>1042</v>
+        <v>1080</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>1039</v>
+        <v>120</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1040</v>
+        <v>121</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="10">
-        <v>44914</v>
+        <v>44959</v>
       </c>
       <c r="G15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>1068</v>
+        <v>1089</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1069</v>
+        <v>1092</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>259</v>
+        <v>1091</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>262</v>
+        <v>1090</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="10">
-        <v>44942</v>
+        <v>45008</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="10">
-        <v>44958</v>
-      </c>
-      <c r="G17" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="10">
-        <v>44959</v>
-      </c>
-      <c r="G18" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -17251,7 +17362,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>7.3479452054794523</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -17272,7 +17383,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3479452054794523</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -17293,7 +17404,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7260273972602738</v>
+        <v>6.7780821917808218</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -17314,7 +17425,7 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>5.095890410958904</v>
+        <v>5.1479452054794521</v>
       </c>
     </row>
   </sheetData>
@@ -17327,158 +17438,173 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="81.28515625" customWidth="1"/>
     <col min="2" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="15"/>
-    <col min="5" max="9" width="9.140625" style="49"/>
+    <col min="5" max="9" width="9.140625" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="51">
+      <c r="E1" s="50">
         <f>COUNTA(E3:E998)</f>
         <v>2</v>
       </c>
-      <c r="F1" s="51">
+      <c r="F1" s="50">
         <f>COUNTA(F3:F998)</f>
         <v>0</v>
       </c>
-      <c r="G1" s="51">
+      <c r="G1" s="50">
         <f>COUNTA(G3:G998)</f>
-        <v>0</v>
-      </c>
-      <c r="H1" s="51">
+        <v>1</v>
+      </c>
+      <c r="H1" s="50">
         <f>COUNTA(H3:H998)</f>
         <v>2</v>
       </c>
-      <c r="I1" s="51">
+      <c r="I1" s="50">
         <f>COUNTA(I3:I998)</f>
         <v>1</v>
       </c>
-      <c r="J1" s="52">
+      <c r="J1" s="51">
         <f>SUM(E1:I1)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B2" s="53" t="s">
+      <c r="A2" s="52" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="53" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D2" s="53" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E2" s="54" t="s">
-        <v>1048</v>
-      </c>
-      <c r="F2" s="54" t="s">
+      <c r="C2" s="52" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>1046</v>
+      </c>
+      <c r="I2" s="53" t="s">
         <v>1047</v>
-      </c>
-      <c r="G2" s="54" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H2" s="54" t="s">
-        <v>1050</v>
-      </c>
-      <c r="I2" s="54" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>1054</v>
+        <v>1042</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>1050</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>1052</v>
+        <v>1057</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>1057</v>
+        <v>1051</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>1053</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>1074</v>
-      </c>
-      <c r="I4" s="49" t="s">
-        <v>1052</v>
+        <v>1070</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>1060</v>
+        <v>1054</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>1056</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>1052</v>
+        <v>1070</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>1072</v>
+        <v>1066</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>1068</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>1061</v>
-      </c>
-      <c r="H6" s="49" t="s">
-        <v>1052</v>
+        <v>1057</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B8" s="49" t="s">
         <v>1087</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="C8" s="49" t="s">
         <v>1088</v>
       </c>
-      <c r="C7" s="50" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>1061</v>
-      </c>
-      <c r="H7" s="49" t="s">
-        <v>1052</v>
+      <c r="D8" s="15" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>1048</v>
       </c>
     </row>
   </sheetData>
@@ -17506,8 +17632,10 @@
     <hyperlink ref="C6" r:id="rId8"/>
     <hyperlink ref="B7" r:id="rId9"/>
     <hyperlink ref="C7" r:id="rId10"/>
+    <hyperlink ref="B8" r:id="rId11"/>
+    <hyperlink ref="C8" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/publications.xlsx
+++ b/publications.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2655" uniqueCount="1095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="1096">
   <si>
     <t>title</t>
   </si>
@@ -2976,9 +2976,6 @@
     <t>Charalampous, Periklis; Haagsma, Juanita A.; Cuschieri, Sarah; Devleesschauwer, Brecht; von der Lippe, Elena; Pires, Sara M.; Polinder, Suzanne; Wyper, Grant M.A.; Hatziyianni, Amalia; Pallari, Elena</t>
   </si>
   <si>
-    <t>Validity of self-reported data from health interview surveys to assess the prevalence of overweight, obesity, hypertension and hypercholesterolemia in Belgium</t>
-  </si>
-  <si>
     <t>Pelgrims, Ingrid; Devleesschauwer, Brecht; Vandevijvere, Stefanie; De Clercq, Eva M; Vansteelandt, Stijn; Gorasso, Vanessa; Van der Heyden, Johan</t>
   </si>
   <si>
@@ -3310,6 +3307,12 @@
   </si>
   <si>
     <t>Gorasso, Vanessa; Nazaré Morgado, Joana; Charalampous, Periklis; Pires, Sara M.; Haagsma, Juanita A.; Santos, João Vasco: Idavain, Jane; Ngwa, Che Henry; Noguer, Isabel; Padron-Monedero, Alicia; Sarmiento, Rodrigo; Pinheiro, Vera; von der Lippe, Elena; Jakobsen, Lea Sletting; Devleesschauwer, Brecht; Plass, Dietrich; The COST Action CA18218 participants</t>
+  </si>
+  <si>
+    <t>Using random-forest multiple imputation to address bias of self-reported anthropometric measures, hypertension and hypercholesterolemia in the Belgian health interview survey</t>
+  </si>
+  <si>
+    <t>10.1186/s12874-023-01892-x</t>
   </si>
 </sst>
 </file>
@@ -4033,10 +4036,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U221" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
-  <autoFilter ref="A1:U221"/>
-  <sortState ref="A2:U221">
-    <sortCondition ref="K1:K221"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U222" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+  <autoFilter ref="A1:U222"/>
+  <sortState ref="A2:U222">
+    <sortCondition ref="K1:K222"/>
   </sortState>
   <tableColumns count="21">
     <tableColumn id="1" name="title" dataDxfId="75"/>
@@ -4088,8 +4091,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G16" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:G16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G15" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:G15"/>
   <sortState ref="A2:G17">
     <sortCondition ref="F1:F17"/>
   </sortState>
@@ -4415,7 +4418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U221"/>
+  <dimension ref="A1:U222"/>
   <sheetViews>
     <sheetView topLeftCell="A188" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A217" sqref="A217"/>
@@ -14269,10 +14272,10 @@
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B180" s="7" t="s">
         <v>1027</v>
-      </c>
-      <c r="B180" s="7" t="s">
-        <v>1028</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>575</v>
@@ -14306,7 +14309,7 @@
       </c>
       <c r="M180" s="11"/>
       <c r="N180" s="19" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="O180" s="7"/>
       <c r="P180" s="24"/>
@@ -15313,7 +15316,7 @@
       </c>
       <c r="M199" s="11"/>
       <c r="N199" s="19" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="O199" s="7"/>
       <c r="P199" s="24"/>
@@ -15366,7 +15369,7 @@
       </c>
       <c r="M200" s="11"/>
       <c r="N200" s="19" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="O200" s="7"/>
       <c r="P200" s="24"/>
@@ -15419,7 +15422,7 @@
       </c>
       <c r="M201" s="11"/>
       <c r="N201" s="19" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="O201" s="7"/>
       <c r="P201" s="24"/>
@@ -15472,7 +15475,7 @@
       </c>
       <c r="M202" s="11"/>
       <c r="N202" s="19" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="O202" s="7"/>
       <c r="P202" s="24"/>
@@ -15494,10 +15497,10 @@
         <v>969</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E203" s="18">
         <v>2022</v>
@@ -15525,7 +15528,7 @@
       </c>
       <c r="M203" s="11"/>
       <c r="N203" s="19" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="O203" s="7"/>
       <c r="P203" s="24"/>
@@ -15578,7 +15581,7 @@
       </c>
       <c r="M204" s="11"/>
       <c r="N204" s="19" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="O204" s="7"/>
       <c r="P204" s="24"/>
@@ -15594,7 +15597,7 @@
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B205" s="7" t="s">
         <v>935</v>
@@ -15615,7 +15618,7 @@
         <v>69</v>
       </c>
       <c r="H205" s="18" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="I205" s="18" t="s">
         <v>14</v>
@@ -15631,7 +15634,7 @@
       </c>
       <c r="M205" s="11"/>
       <c r="N205" s="19" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="O205" s="7"/>
       <c r="P205" s="24"/>
@@ -15684,7 +15687,7 @@
       </c>
       <c r="M206" s="11"/>
       <c r="N206" s="19" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="O206" s="7"/>
       <c r="P206" s="24"/>
@@ -15737,7 +15740,7 @@
       </c>
       <c r="M207" s="11"/>
       <c r="N207" s="19" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="O207" s="7"/>
       <c r="P207" s="24"/>
@@ -15827,7 +15830,7 @@
         <v>65</v>
       </c>
       <c r="H209" s="18" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="I209" s="18" t="s">
         <v>14</v>
@@ -15843,7 +15846,7 @@
       </c>
       <c r="M209" s="11"/>
       <c r="N209" s="19" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="O209" s="7"/>
       <c r="P209" s="24"/>
@@ -15896,7 +15899,7 @@
       </c>
       <c r="M210" s="11"/>
       <c r="N210" s="19" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="O210" s="7"/>
       <c r="P210" s="24"/>
@@ -15912,16 +15915,16 @@
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
+        <v>994</v>
+      </c>
+      <c r="B211" s="7" t="s">
         <v>995</v>
       </c>
-      <c r="B211" s="7" t="s">
+      <c r="C211" s="7" t="s">
         <v>996</v>
       </c>
-      <c r="C211" s="7" t="s">
+      <c r="D211" s="7" t="s">
         <v>997</v>
-      </c>
-      <c r="D211" s="7" t="s">
-        <v>998</v>
       </c>
       <c r="E211" s="18">
         <v>2023</v>
@@ -15933,7 +15936,7 @@
         <v>101</v>
       </c>
       <c r="H211" s="18" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="I211" s="18" t="s">
         <v>14</v>
@@ -15949,7 +15952,7 @@
       </c>
       <c r="M211" s="11"/>
       <c r="N211" s="19" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="O211" s="7"/>
       <c r="P211" s="24"/>
@@ -15965,10 +15968,10 @@
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>509</v>
@@ -15986,7 +15989,7 @@
         <v>14</v>
       </c>
       <c r="H212" s="18" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="I212" s="18" t="s">
         <v>14</v>
@@ -16002,7 +16005,7 @@
       </c>
       <c r="M212" s="11"/>
       <c r="N212" s="19" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="O212" s="7"/>
       <c r="P212" s="24"/>
@@ -16039,7 +16042,7 @@
         <v>101</v>
       </c>
       <c r="H213" s="18" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="I213" s="18" t="s">
         <v>14</v>
@@ -16055,7 +16058,7 @@
       </c>
       <c r="M213" s="11"/>
       <c r="N213" s="19" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="O213" s="7"/>
       <c r="P213" s="24"/>
@@ -16071,16 +16074,16 @@
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B214" s="7" t="s">
         <v>926</v>
       </c>
       <c r="C214" s="7" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D214" s="7" t="s">
         <v>1062</v>
-      </c>
-      <c r="D214" s="7" t="s">
-        <v>1063</v>
       </c>
       <c r="E214" s="18">
         <v>2023</v>
@@ -16108,7 +16111,7 @@
       </c>
       <c r="M214" s="11"/>
       <c r="N214" s="19" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="O214" s="7"/>
       <c r="P214" s="24"/>
@@ -16124,7 +16127,7 @@
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B215" s="7" t="s">
         <v>972</v>
@@ -16161,7 +16164,7 @@
       </c>
       <c r="M215" s="11"/>
       <c r="N215" s="19" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="O215" s="7"/>
       <c r="P215" s="24"/>
@@ -16229,66 +16232,70 @@
       </c>
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A217" s="13" t="s">
-        <v>987</v>
-      </c>
-      <c r="B217" s="13" t="s">
-        <v>988</v>
-      </c>
-      <c r="C217" s="13" t="s">
-        <v>989</v>
-      </c>
-      <c r="D217" s="13" t="s">
-        <v>990</v>
-      </c>
-      <c r="E217" s="14">
+      <c r="A217" s="7" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="D217" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="E217" s="18">
         <v>2023</v>
       </c>
-      <c r="F217" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G217" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H217" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I217" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J217" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K217" s="31">
-        <v>45292</v>
-      </c>
-      <c r="L217" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="M217" s="45"/>
-      <c r="N217" s="44" t="s">
-        <v>994</v>
-      </c>
-      <c r="O217" s="27"/>
+      <c r="F217" s="18">
+        <v>23</v>
+      </c>
+      <c r="G217" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H217" s="18">
+        <v>69</v>
+      </c>
+      <c r="I217" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J217" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K217" s="42">
+        <v>45010</v>
+      </c>
+      <c r="L217" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="M217" s="11"/>
+      <c r="N217" s="19" t="s">
+        <v>1095</v>
+      </c>
+      <c r="O217" s="7"/>
       <c r="P217" s="24"/>
       <c r="Q217" s="25"/>
       <c r="R217" s="7"/>
       <c r="S217" s="7"/>
-      <c r="T217" s="7"/>
-      <c r="U217" s="7"/>
+      <c r="T217" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="U217" s="7" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218" s="13" t="s">
-        <v>1030</v>
+        <v>986</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>1032</v>
+        <v>987</v>
       </c>
       <c r="C218" s="13" t="s">
-        <v>1031</v>
+        <v>988</v>
       </c>
       <c r="D218" s="13" t="s">
-        <v>1033</v>
+        <v>989</v>
       </c>
       <c r="E218" s="14">
         <v>2023</v>
@@ -16309,14 +16316,14 @@
         <v>14</v>
       </c>
       <c r="K218" s="31">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="L218" s="31" t="s">
         <v>273</v>
       </c>
       <c r="M218" s="45"/>
       <c r="N218" s="44" t="s">
-        <v>1075</v>
+        <v>993</v>
       </c>
       <c r="O218" s="27"/>
       <c r="P218" s="24"/>
@@ -16328,16 +16335,16 @@
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219" s="13" t="s">
-        <v>931</v>
+        <v>1029</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>767</v>
+        <v>1031</v>
       </c>
       <c r="C219" s="13" t="s">
-        <v>932</v>
+        <v>1030</v>
       </c>
       <c r="D219" s="13" t="s">
-        <v>933</v>
+        <v>1032</v>
       </c>
       <c r="E219" s="14">
         <v>2023</v>
@@ -16358,13 +16365,15 @@
         <v>14</v>
       </c>
       <c r="K219" s="31">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="L219" s="31" t="s">
         <v>273</v>
       </c>
       <c r="M219" s="45"/>
-      <c r="N219" s="44"/>
+      <c r="N219" s="44" t="s">
+        <v>1074</v>
+      </c>
       <c r="O219" s="27"/>
       <c r="P219" s="24"/>
       <c r="Q219" s="25"/>
@@ -16375,16 +16384,16 @@
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A220" s="13" t="s">
-        <v>970</v>
+        <v>931</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>971</v>
+        <v>767</v>
       </c>
       <c r="C220" s="13" t="s">
-        <v>108</v>
+        <v>932</v>
       </c>
       <c r="D220" s="13" t="s">
-        <v>109</v>
+        <v>933</v>
       </c>
       <c r="E220" s="14">
         <v>2023</v>
@@ -16405,7 +16414,7 @@
         <v>14</v>
       </c>
       <c r="K220" s="31">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="L220" s="31" t="s">
         <v>273</v>
@@ -16422,16 +16431,16 @@
     </row>
     <row r="221" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A221" s="13" t="s">
-        <v>1002</v>
+        <v>970</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>1003</v>
+        <v>971</v>
       </c>
       <c r="C221" s="13" t="s">
-        <v>724</v>
+        <v>108</v>
       </c>
       <c r="D221" s="13" t="s">
-        <v>724</v>
+        <v>109</v>
       </c>
       <c r="E221" s="14">
         <v>2023</v>
@@ -16452,7 +16461,7 @@
         <v>14</v>
       </c>
       <c r="K221" s="31">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="L221" s="31" t="s">
         <v>273</v>
@@ -16466,6 +16475,53 @@
       <c r="S221" s="7"/>
       <c r="T221" s="7"/>
       <c r="U221" s="7"/>
+    </row>
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A222" s="13" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B222" s="13" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C222" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="D222" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="E222" s="14">
+        <v>2023</v>
+      </c>
+      <c r="F222" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G222" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H222" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I222" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J222" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K222" s="31">
+        <v>45296</v>
+      </c>
+      <c r="L222" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="M222" s="45"/>
+      <c r="N222" s="44"/>
+      <c r="O222" s="27"/>
+      <c r="P222" s="24"/>
+      <c r="Q222" s="25"/>
+      <c r="R222" s="7"/>
+      <c r="S222" s="7"/>
+      <c r="T222" s="7"/>
+      <c r="U222" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="S1:U112 S114:U122 S124:U125 S127:U134 U126 S148:U175 S136:U146 S177:U179 S182:U188 S190:U205 S207:U1048576">
@@ -16932,7 +16988,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -16986,8 +17042,8 @@
         <v>44734</v>
       </c>
       <c r="G2" s="12">
-        <f t="shared" ref="G2:G16" ca="1" si="0">TODAY()-F2</f>
-        <v>275</v>
+        <f t="shared" ref="G2:G15" ca="1" si="0">TODAY()-F2</f>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -17004,22 +17060,22 @@
         <v>89</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F3" s="10">
         <v>44769</v>
       </c>
       <c r="G3" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>991</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>992</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>659</v>
@@ -17033,113 +17089,113 @@
       </c>
       <c r="G4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>669</v>
+        <v>790</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>670</v>
+        <v>793</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="10">
-        <v>44810</v>
+        <v>44832</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>199</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>981</v>
+        <v>1012</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>982</v>
+        <v>1013</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>790</v>
+        <v>144</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>793</v>
+        <v>144</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="10">
-        <v>44832</v>
+        <v>44883</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1014</v>
+        <v>1092</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>144</v>
+        <v>1018</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>144</v>
+        <v>1019</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="10">
-        <v>44883</v>
+        <v>44897</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1093</v>
+        <v>1016</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="10">
-        <v>44897</v>
+        <v>44902</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>1016</v>
+        <v>1023</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1022</v>
+        <v>82</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="10">
-        <v>44902</v>
+        <v>44904</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" ca="1" si="0"/>
@@ -17148,38 +17204,38 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>1024</v>
+        <v>1033</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1023</v>
+        <v>1093</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1025</v>
+        <v>1034</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>82</v>
+        <v>1035</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="10">
-        <v>44904</v>
+        <v>44914</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>1034</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>1035</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>1036</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="10">
@@ -17187,117 +17243,95 @@
       </c>
       <c r="G11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>1037</v>
+        <v>1063</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1038</v>
+        <v>1064</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1035</v>
+        <v>259</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1036</v>
+        <v>262</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="10">
-        <v>44914</v>
+        <v>44942</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>1064</v>
+        <v>1075</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1065</v>
+        <v>1076</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>259</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>262</v>
+        <v>28</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="10">
-        <v>44942</v>
+        <v>44958</v>
       </c>
       <c r="G13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="10">
-        <v>44958</v>
+        <v>44959</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>1079</v>
+        <v>1088</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>1080</v>
+        <v>1091</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>120</v>
+        <v>1090</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>121</v>
+        <v>1089</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="10">
-        <v>44959</v>
+        <v>45008</v>
       </c>
       <c r="G15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="10">
-        <v>45008</v>
-      </c>
-      <c r="G16" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -17362,7 +17396,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>7.4</v>
+        <v>7.4054794520547942</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -17383,7 +17417,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4</v>
+        <v>7.4054794520547942</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -17404,7 +17438,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7780821917808218</v>
+        <v>6.7835616438356166</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -17425,7 +17459,7 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>5.1479452054794521</v>
+        <v>5.1534246575342468</v>
       </c>
     </row>
   </sheetData>
@@ -17478,133 +17512,133 @@
     </row>
     <row r="2" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B2" s="52" t="s">
         <v>175</v>
       </c>
       <c r="C2" s="52" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D2" s="52" t="s">
         <v>1059</v>
       </c>
-      <c r="D2" s="52" t="s">
-        <v>1060</v>
-      </c>
       <c r="E2" s="53" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G2" s="53" t="s">
         <v>1044</v>
       </c>
-      <c r="F2" s="53" t="s">
-        <v>1043</v>
-      </c>
-      <c r="G2" s="53" t="s">
+      <c r="H2" s="53" t="s">
         <v>1045</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="I2" s="53" t="s">
         <v>1046</v>
-      </c>
-      <c r="I2" s="53" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B3" s="49" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C3" s="49" t="s">
         <v>1049</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>1050</v>
-      </c>
       <c r="D3" s="15" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B4" s="49" t="s">
         <v>1051</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="C4" s="49" t="s">
         <v>1052</v>
       </c>
-      <c r="C4" s="49" t="s">
-        <v>1053</v>
-      </c>
       <c r="D4" s="15" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I4" s="48" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B5" s="49" t="s">
         <v>1054</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="C5" s="49" t="s">
         <v>1055</v>
       </c>
-      <c r="C5" s="49" t="s">
-        <v>1056</v>
-      </c>
       <c r="D5" s="15" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B6" s="49" t="s">
         <v>1066</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="C6" s="49" t="s">
         <v>1067</v>
       </c>
-      <c r="C6" s="49" t="s">
-        <v>1068</v>
-      </c>
       <c r="D6" s="15" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H6" s="48" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B7" s="49" t="s">
         <v>1083</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="C7" s="49" t="s">
         <v>1084</v>
       </c>
-      <c r="C7" s="49" t="s">
-        <v>1085</v>
-      </c>
       <c r="D7" s="15" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B8" s="49" t="s">
         <v>1086</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="C8" s="49" t="s">
         <v>1087</v>
       </c>
-      <c r="C8" s="49" t="s">
-        <v>1088</v>
-      </c>
       <c r="D8" s="15" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G8" s="48" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
   </sheetData>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2666" uniqueCount="1100">
   <si>
     <t>title</t>
   </si>
@@ -3313,6 +3313,18 @@
   </si>
   <si>
     <t>10.1186/s12874-023-01892-x</t>
+  </si>
+  <si>
+    <t>Cluster pattern analysis of environmental stressors and quantifying their impact on all-cause mortality in Belgium</t>
+  </si>
+  <si>
+    <t>International Journal of Health Geographics</t>
+  </si>
+  <si>
+    <t>Int. J. Health Geogr.</t>
+  </si>
+  <si>
+    <t>Vandeninden, Bram; De Clercq, Eva; Devleesschauwer, Brecht; Otavova, Martina; Bouland, Catherine; Faes, Christel</t>
   </si>
 </sst>
 </file>
@@ -3620,6 +3632,169 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -3859,169 +4034,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -4036,74 +4048,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U222" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U222" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="A1:U222"/>
   <sortState ref="A2:U222">
     <sortCondition ref="K1:K222"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" name="title" dataDxfId="75"/>
-    <tableColumn id="2" name="authors" dataDxfId="74"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="73"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="72"/>
-    <tableColumn id="6" name="year" dataDxfId="71"/>
-    <tableColumn id="4" name="volume" dataDxfId="70"/>
-    <tableColumn id="5" name="issue" dataDxfId="69"/>
-    <tableColumn id="7" name="eID" dataDxfId="68"/>
-    <tableColumn id="8" name="from" dataDxfId="67"/>
-    <tableColumn id="9" name="to" dataDxfId="66"/>
-    <tableColumn id="10" name="date" dataDxfId="65"/>
-    <tableColumn id="14" name="classification" dataDxfId="64"/>
-    <tableColumn id="12" name="IF" dataDxfId="63"/>
-    <tableColumn id="13" name="DOI" dataDxfId="62"/>
-    <tableColumn id="15" name="WoS" dataDxfId="61"/>
-    <tableColumn id="16" name="rank" dataDxfId="60"/>
-    <tableColumn id="17" name="quartile" dataDxfId="59"/>
-    <tableColumn id="18" name="category" dataDxfId="58"/>
-    <tableColumn id="19" name="CBRA" dataDxfId="57"/>
-    <tableColumn id="20" name="SC" dataDxfId="56"/>
-    <tableColumn id="21" name="UGent" dataDxfId="55"/>
+    <tableColumn id="1" name="title" dataDxfId="51"/>
+    <tableColumn id="2" name="authors" dataDxfId="50"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="49"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="48"/>
+    <tableColumn id="6" name="year" dataDxfId="47"/>
+    <tableColumn id="4" name="volume" dataDxfId="46"/>
+    <tableColumn id="5" name="issue" dataDxfId="45"/>
+    <tableColumn id="7" name="eID" dataDxfId="44"/>
+    <tableColumn id="8" name="from" dataDxfId="43"/>
+    <tableColumn id="9" name="to" dataDxfId="42"/>
+    <tableColumn id="10" name="date" dataDxfId="41"/>
+    <tableColumn id="14" name="classification" dataDxfId="40"/>
+    <tableColumn id="12" name="IF" dataDxfId="39"/>
+    <tableColumn id="13" name="DOI" dataDxfId="38"/>
+    <tableColumn id="15" name="WoS" dataDxfId="37"/>
+    <tableColumn id="16" name="rank" dataDxfId="36"/>
+    <tableColumn id="17" name="quartile" dataDxfId="35"/>
+    <tableColumn id="18" name="category" dataDxfId="34"/>
+    <tableColumn id="19" name="CBRA" dataDxfId="33"/>
+    <tableColumn id="20" name="SC" dataDxfId="32"/>
+    <tableColumn id="21" name="UGent" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J11" totalsRowShown="0" headerRowDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J11" totalsRowShown="0" headerRowDxfId="30">
   <autoFilter ref="A1:J11"/>
   <sortState ref="A2:N50">
     <sortCondition ref="H1:H50"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="title" dataDxfId="53"/>
-    <tableColumn id="2" name="authors" dataDxfId="52"/>
-    <tableColumn id="3" name="editors" dataDxfId="51"/>
-    <tableColumn id="11" name="book" dataDxfId="50"/>
-    <tableColumn id="6" name="year" dataDxfId="49"/>
-    <tableColumn id="8" name="from" dataDxfId="48"/>
-    <tableColumn id="9" name="to" dataDxfId="47"/>
-    <tableColumn id="10" name="date" dataDxfId="46"/>
-    <tableColumn id="12" name="IF" dataDxfId="45"/>
-    <tableColumn id="13" name="DOI" dataDxfId="44"/>
+    <tableColumn id="1" name="title" dataDxfId="29"/>
+    <tableColumn id="2" name="authors" dataDxfId="28"/>
+    <tableColumn id="3" name="editors" dataDxfId="27"/>
+    <tableColumn id="11" name="book" dataDxfId="26"/>
+    <tableColumn id="6" name="year" dataDxfId="25"/>
+    <tableColumn id="8" name="from" dataDxfId="24"/>
+    <tableColumn id="9" name="to" dataDxfId="23"/>
+    <tableColumn id="10" name="date" dataDxfId="22"/>
+    <tableColumn id="12" name="IF" dataDxfId="21"/>
+    <tableColumn id="13" name="DOI" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G15" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:G15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G16" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:G16"/>
   <sortState ref="A2:G17">
     <sortCondition ref="F1:F17"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="title" dataDxfId="41"/>
-    <tableColumn id="2" name="authors" dataDxfId="40"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="39"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="38"/>
-    <tableColumn id="4" name="doi_preprint" dataDxfId="37"/>
-    <tableColumn id="10" name="date" dataDxfId="36"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="35">
+    <tableColumn id="1" name="title" dataDxfId="17"/>
+    <tableColumn id="2" name="authors" dataDxfId="16"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="15"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="14"/>
+    <tableColumn id="4" name="doi_preprint" dataDxfId="13"/>
+    <tableColumn id="10" name="date" dataDxfId="12"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="11">
       <calculatedColumnFormula>TODAY()-F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4112,18 +4124,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:F5"/>
   <sortState ref="A2:K14">
     <sortCondition ref="E1:E14"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="title" dataDxfId="32"/>
-    <tableColumn id="2" name="authors" dataDxfId="31"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="30"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="29"/>
-    <tableColumn id="10" name="date" dataDxfId="28"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="27">
+    <tableColumn id="1" name="title" dataDxfId="8"/>
+    <tableColumn id="2" name="authors" dataDxfId="7"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="6"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="5"/>
+    <tableColumn id="10" name="date" dataDxfId="4"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="3">
       <calculatedColumnFormula>(TODAY()-E2)/365</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16525,98 +16537,98 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="S1:U112 S114:U122 S124:U125 S127:U134 U126 S148:U175 S136:U146 S177:U179 S182:U188 S190:U205 S207:U1048576">
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="25" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="26" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T113:U113">
-    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="23" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="24" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S113">
-    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="21" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="22" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S123:U123">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="19" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="20" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S126:T126">
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="17" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="18" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S135:U135">
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="15" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="16" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S147:U147">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="13" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="14" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S176:U176">
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="11" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="12" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S181:U181">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="7" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="8" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S189:U189">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="5" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="6" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S206:U206">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S180:U180">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16988,7 +17000,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -17042,8 +17054,8 @@
         <v>44734</v>
       </c>
       <c r="G2" s="12">
-        <f t="shared" ref="G2:G15" ca="1" si="0">TODAY()-F2</f>
-        <v>277</v>
+        <f t="shared" ref="G2:G16" ca="1" si="0">TODAY()-F2</f>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -17067,7 +17079,7 @@
       </c>
       <c r="G3" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -17089,7 +17101,7 @@
       </c>
       <c r="G4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -17111,7 +17123,7 @@
       </c>
       <c r="G5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -17133,7 +17145,7 @@
       </c>
       <c r="G6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -17155,7 +17167,7 @@
       </c>
       <c r="G7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -17177,7 +17189,7 @@
       </c>
       <c r="G8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -17199,7 +17211,7 @@
       </c>
       <c r="G9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -17221,7 +17233,7 @@
       </c>
       <c r="G10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -17243,7 +17255,7 @@
       </c>
       <c r="G11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -17265,7 +17277,7 @@
       </c>
       <c r="G12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -17287,7 +17299,7 @@
       </c>
       <c r="G13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -17309,7 +17321,7 @@
       </c>
       <c r="G14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -17331,7 +17343,29 @@
       </c>
       <c r="G15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="10">
+        <v>45013</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -17396,7 +17430,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>7.4054794520547942</v>
+        <v>7.4109589041095889</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -17417,7 +17451,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4054794520547942</v>
+        <v>7.4109589041095889</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -17438,7 +17472,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7835616438356166</v>
+        <v>6.7890410958904113</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -17459,7 +17493,7 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>5.1534246575342468</v>
+        <v>5.1589041095890407</v>
       </c>
     </row>
   </sheetData>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="papers" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2666" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2665" uniqueCount="1100">
   <si>
     <t>title</t>
   </si>
@@ -4432,8 +4432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U222"/>
   <sheetViews>
-    <sheetView topLeftCell="A188" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A217" sqref="A217"/>
+    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A222" sqref="A222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16192,44 +16192,44 @@
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
-        <v>791</v>
+        <v>1029</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>792</v>
+        <v>1031</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>790</v>
+        <v>1030</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>793</v>
+        <v>1032</v>
       </c>
       <c r="E216" s="18">
         <v>2023</v>
       </c>
       <c r="F216" s="18">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G216" s="19" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="H216" s="18" t="s">
         <v>14</v>
       </c>
       <c r="I216" s="18">
-        <v>296</v>
+        <v>516</v>
       </c>
       <c r="J216" s="18">
-        <v>300</v>
+        <v>517</v>
       </c>
       <c r="K216" s="42">
-        <v>44986</v>
+        <v>44966</v>
       </c>
       <c r="L216" s="42" t="s">
         <v>273</v>
       </c>
       <c r="M216" s="11"/>
       <c r="N216" s="19" t="s">
-        <v>827</v>
+        <v>1074</v>
       </c>
       <c r="O216" s="7"/>
       <c r="P216" s="24"/>
@@ -16245,44 +16245,44 @@
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
-        <v>1094</v>
+        <v>791</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>983</v>
+        <v>792</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>669</v>
+        <v>790</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>670</v>
+        <v>793</v>
       </c>
       <c r="E217" s="18">
         <v>2023</v>
       </c>
       <c r="F217" s="18">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="G217" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H217" s="18">
-        <v>69</v>
-      </c>
-      <c r="I217" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J217" s="18" t="s">
-        <v>14</v>
+        <v>101</v>
+      </c>
+      <c r="H217" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I217" s="18">
+        <v>296</v>
+      </c>
+      <c r="J217" s="18">
+        <v>300</v>
       </c>
       <c r="K217" s="42">
-        <v>45010</v>
+        <v>44986</v>
       </c>
       <c r="L217" s="42" t="s">
         <v>273</v>
       </c>
       <c r="M217" s="11"/>
       <c r="N217" s="19" t="s">
-        <v>1095</v>
+        <v>827</v>
       </c>
       <c r="O217" s="7"/>
       <c r="P217" s="24"/>
@@ -16297,66 +16297,70 @@
       </c>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A218" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="B218" s="13" t="s">
-        <v>987</v>
-      </c>
-      <c r="C218" s="13" t="s">
-        <v>988</v>
-      </c>
-      <c r="D218" s="13" t="s">
-        <v>989</v>
-      </c>
-      <c r="E218" s="14">
+      <c r="A218" s="7" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="D218" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="E218" s="18">
         <v>2023</v>
       </c>
-      <c r="F218" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G218" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H218" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I218" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J218" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K218" s="31">
-        <v>45292</v>
-      </c>
-      <c r="L218" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="M218" s="45"/>
-      <c r="N218" s="44" t="s">
-        <v>993</v>
-      </c>
-      <c r="O218" s="27"/>
+      <c r="F218" s="18">
+        <v>23</v>
+      </c>
+      <c r="G218" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H218" s="18">
+        <v>69</v>
+      </c>
+      <c r="I218" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J218" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K218" s="42">
+        <v>45010</v>
+      </c>
+      <c r="L218" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="M218" s="11"/>
+      <c r="N218" s="19" t="s">
+        <v>1095</v>
+      </c>
+      <c r="O218" s="7"/>
       <c r="P218" s="24"/>
       <c r="Q218" s="25"/>
       <c r="R218" s="7"/>
       <c r="S218" s="7"/>
-      <c r="T218" s="7"/>
-      <c r="U218" s="7"/>
+      <c r="T218" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="U218" s="7" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219" s="13" t="s">
-        <v>1029</v>
+        <v>986</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>1031</v>
+        <v>987</v>
       </c>
       <c r="C219" s="13" t="s">
-        <v>1030</v>
+        <v>988</v>
       </c>
       <c r="D219" s="13" t="s">
-        <v>1032</v>
+        <v>989</v>
       </c>
       <c r="E219" s="14">
         <v>2023</v>
@@ -16377,14 +16381,14 @@
         <v>14</v>
       </c>
       <c r="K219" s="31">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="L219" s="31" t="s">
         <v>273</v>
       </c>
       <c r="M219" s="45"/>
       <c r="N219" s="44" t="s">
-        <v>1074</v>
+        <v>993</v>
       </c>
       <c r="O219" s="27"/>
       <c r="P219" s="24"/>
@@ -17002,7 +17006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17055,7 +17059,7 @@
       </c>
       <c r="G2" s="12">
         <f t="shared" ref="G2:G16" ca="1" si="0">TODAY()-F2</f>
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -17079,7 +17083,7 @@
       </c>
       <c r="G3" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -17101,7 +17105,7 @@
       </c>
       <c r="G4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -17123,7 +17127,7 @@
       </c>
       <c r="G5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -17145,7 +17149,7 @@
       </c>
       <c r="G6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -17167,7 +17171,7 @@
       </c>
       <c r="G7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -17189,7 +17193,7 @@
       </c>
       <c r="G8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -17211,7 +17215,7 @@
       </c>
       <c r="G9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -17233,7 +17237,7 @@
       </c>
       <c r="G10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -17255,7 +17259,7 @@
       </c>
       <c r="G11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -17277,7 +17281,7 @@
       </c>
       <c r="G12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -17299,7 +17303,7 @@
       </c>
       <c r="G13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -17321,7 +17325,7 @@
       </c>
       <c r="G14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -17343,7 +17347,7 @@
       </c>
       <c r="G15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -17365,7 +17369,7 @@
       </c>
       <c r="G16" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -17430,7 +17434,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>7.4109589041095889</v>
+        <v>7.4136986301369863</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -17451,7 +17455,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4109589041095889</v>
+        <v>7.4136986301369863</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -17472,7 +17476,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7890410958904113</v>
+        <v>6.7917808219178086</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -17493,7 +17497,7 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>5.1589041095890407</v>
+        <v>5.161643835616438</v>
       </c>
     </row>
   </sheetData>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="papers" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2665" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="1104">
   <si>
     <t>title</t>
   </si>
@@ -3325,6 +3325,18 @@
   </si>
   <si>
     <t>Vandeninden, Bram; De Clercq, Eva; Devleesschauwer, Brecht; Otavova, Martina; Bouland, Catherine; Faes, Christel</t>
+  </si>
+  <si>
+    <t>Exploratory study of risk factors related to SARS-CoV-2 prevalence in nursing homes in Flanders (Belgium) during the first wave of the COVID-19 pandemic</t>
+  </si>
+  <si>
+    <t>Annals of Work Exposures and Health</t>
+  </si>
+  <si>
+    <t>Ann. Work Expo. Health</t>
+  </si>
+  <si>
+    <t>Janssens, Heidi; Heytens, Stefan; Meyers, Eline; Devleesschauwer, Brecht; Cools, Piet; Geens, Tom</t>
   </si>
 </sst>
 </file>
@@ -4103,8 +4115,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G16" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:G16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G17" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:G17"/>
   <sortState ref="A2:G17">
     <sortCondition ref="F1:F17"/>
   </sortState>
@@ -4432,7 +4444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A188" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A222" sqref="A222"/>
     </sheetView>
   </sheetViews>
@@ -17004,9 +17016,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17058,8 +17070,8 @@
         <v>44734</v>
       </c>
       <c r="G2" s="12">
-        <f t="shared" ref="G2:G16" ca="1" si="0">TODAY()-F2</f>
-        <v>280</v>
+        <f t="shared" ref="G2:G17" ca="1" si="0">TODAY()-F2</f>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -17083,7 +17095,7 @@
       </c>
       <c r="G3" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -17105,7 +17117,7 @@
       </c>
       <c r="G4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -17127,7 +17139,7 @@
       </c>
       <c r="G5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -17149,7 +17161,7 @@
       </c>
       <c r="G6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -17171,7 +17183,7 @@
       </c>
       <c r="G7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -17193,7 +17205,7 @@
       </c>
       <c r="G8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -17215,7 +17227,7 @@
       </c>
       <c r="G9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -17237,7 +17249,7 @@
       </c>
       <c r="G10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -17259,7 +17271,7 @@
       </c>
       <c r="G11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -17281,7 +17293,7 @@
       </c>
       <c r="G12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -17303,7 +17315,7 @@
       </c>
       <c r="G13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -17325,7 +17337,7 @@
       </c>
       <c r="G14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -17347,7 +17359,7 @@
       </c>
       <c r="G15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -17368,6 +17380,28 @@
         <v>45013</v>
       </c>
       <c r="G16" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="10">
+        <v>45018</v>
+      </c>
+      <c r="G17" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
@@ -17434,7 +17468,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>7.4136986301369863</v>
+        <v>7.4273972602739722</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -17455,7 +17489,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4136986301369863</v>
+        <v>7.4273972602739722</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -17476,7 +17510,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7917808219178086</v>
+        <v>6.8054794520547945</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -17497,7 +17531,7 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>5.161643835616438</v>
+        <v>5.1753424657534248</v>
       </c>
     </row>
   </sheetData>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="1104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2673" uniqueCount="1107">
   <si>
     <t>title</t>
   </si>
@@ -3337,6 +3337,15 @@
   </si>
   <si>
     <t>Janssens, Heidi; Heytens, Stefan; Meyers, Eline; Devleesschauwer, Brecht; Cools, Piet; Geens, Tom</t>
+  </si>
+  <si>
+    <t>Association between SARS-CoV-2 variants and post COVID-19 condition: findings from a longitudinal cohort study in the Belgian adult population</t>
+  </si>
+  <si>
+    <t>Thi Khanh Nguyen, Huyen; Cornelissen, Laura; Castanares-Zapatero, Diego; De Pauw, Robby; Van Cauteren, Dieter; Demarest, Stefaan; Drieskens, Sabine; Devleesschauwer, Brecht; De Ridder, Karin; Charafeddine, Rana; Smith, Pierre</t>
+  </si>
+  <si>
+    <t>BMC Infectious Disease</t>
   </si>
 </sst>
 </file>
@@ -4115,8 +4124,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G17" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:G17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G18" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:G18"/>
   <sortState ref="A2:G17">
     <sortCondition ref="F1:F17"/>
   </sortState>
@@ -17016,9 +17025,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17070,8 +17081,8 @@
         <v>44734</v>
       </c>
       <c r="G2" s="12">
-        <f t="shared" ref="G2:G17" ca="1" si="0">TODAY()-F2</f>
-        <v>285</v>
+        <f t="shared" ref="G2:G18" ca="1" si="0">TODAY()-F2</f>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -17095,7 +17106,7 @@
       </c>
       <c r="G3" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -17117,7 +17128,7 @@
       </c>
       <c r="G4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -17139,7 +17150,7 @@
       </c>
       <c r="G5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -17161,7 +17172,7 @@
       </c>
       <c r="G6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -17183,7 +17194,7 @@
       </c>
       <c r="G7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -17205,7 +17216,7 @@
       </c>
       <c r="G8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -17227,7 +17238,7 @@
       </c>
       <c r="G9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -17249,7 +17260,7 @@
       </c>
       <c r="G10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -17271,7 +17282,7 @@
       </c>
       <c r="G11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -17293,7 +17304,7 @@
       </c>
       <c r="G12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -17315,7 +17326,7 @@
       </c>
       <c r="G13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -17337,7 +17348,7 @@
       </c>
       <c r="G14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -17359,7 +17370,7 @@
       </c>
       <c r="G15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -17381,7 +17392,7 @@
       </c>
       <c r="G16" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -17403,7 +17414,29 @@
       </c>
       <c r="G17" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="10">
+        <v>45021</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -17468,7 +17501,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>7.4273972602739722</v>
+        <v>7.4328767123287669</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -17489,7 +17522,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4273972602739722</v>
+        <v>7.4328767123287669</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -17510,7 +17543,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8054794520547945</v>
+        <v>6.8109589041095893</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -17531,7 +17564,7 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>5.1753424657534248</v>
+        <v>5.1808219178082195</v>
       </c>
     </row>
   </sheetData>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2673" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2677" uniqueCount="1111">
   <si>
     <t>title</t>
   </si>
@@ -3346,6 +3346,18 @@
   </si>
   <si>
     <t>BMC Infectious Disease</t>
+  </si>
+  <si>
+    <t>Etiological and prognostic roles of frailty and multimorbidity in the development of SARS-CoV-2 health outcomes: systematic review of population-based studies</t>
+  </si>
+  <si>
+    <t>Age and Ageing</t>
+  </si>
+  <si>
+    <t>Age Ageing</t>
+  </si>
+  <si>
+    <t>Makovski, Tatjana T.; Ghattas, Jinane; Monnier-Besnard, Stéphanie; Cavillot, Lisa; Ambrožová, Monika; Vašinová, Barbora; Feteira-Santos, Rodrigo; Bezzegh, Peter; Bollmann, Felipe Ponce; Cottam, James; Haneef, Romana; Devleesschauwer, Brecht; Speybroeck, Niko ; Nogueira, Paulo Jorge; Forjaz, Maria João; Coste, Joël; Carcaillon-Bentata, Laure</t>
   </si>
 </sst>
 </file>
@@ -4124,8 +4136,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G18" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:G18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G19" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:G19"/>
   <sortState ref="A2:G17">
     <sortCondition ref="F1:F17"/>
   </sortState>
@@ -17025,10 +17037,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17436,6 +17448,28 @@
       </c>
       <c r="G18" s="12">
         <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="10">
+        <v>45021</v>
+      </c>
+      <c r="G19" s="12">
+        <f t="shared" ref="G19" ca="1" si="1">TODAY()-F19</f>
         <v>0</v>
       </c>
     </row>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2677" uniqueCount="1111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2681" uniqueCount="1115">
   <si>
     <t>title</t>
   </si>
@@ -3358,6 +3358,18 @@
   </si>
   <si>
     <t>Makovski, Tatjana T.; Ghattas, Jinane; Monnier-Besnard, Stéphanie; Cavillot, Lisa; Ambrožová, Monika; Vašinová, Barbora; Feteira-Santos, Rodrigo; Bezzegh, Peter; Bollmann, Felipe Ponce; Cottam, James; Haneef, Romana; Devleesschauwer, Brecht; Speybroeck, Niko ; Nogueira, Paulo Jorge; Forjaz, Maria João; Coste, Joël; Carcaillon-Bentata, Laure</t>
+  </si>
+  <si>
+    <t>The incremental healthcare cost associated with cancer in Belgium: a registry-based data analysis</t>
+  </si>
+  <si>
+    <t>Gorasso, Vanessa; Vandevijvere, Stefanie; Van der Heyden, Johan; Pelgrims, Ingrid; Hilderink, Henk; Nusselder, Wilma; Demoury, Claire; Schmidt, Masja; Vansteelandt, Stijn; De Smedt, Delphine; Devleesschauwer, Brecht</t>
+  </si>
+  <si>
+    <t>Applied Health Economics and Health Policy</t>
+  </si>
+  <si>
+    <t>Appl. Health Econ. Health Policy</t>
   </si>
 </sst>
 </file>
@@ -4136,8 +4148,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G19" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:G19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G20" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:G20"/>
   <sortState ref="A2:G17">
     <sortCondition ref="F1:F17"/>
   </sortState>
@@ -17037,10 +17049,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17094,7 +17106,7 @@
       </c>
       <c r="G2" s="12">
         <f t="shared" ref="G2:G18" ca="1" si="0">TODAY()-F2</f>
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -17118,7 +17130,7 @@
       </c>
       <c r="G3" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -17140,7 +17152,7 @@
       </c>
       <c r="G4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -17162,7 +17174,7 @@
       </c>
       <c r="G5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -17184,7 +17196,7 @@
       </c>
       <c r="G6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -17206,7 +17218,7 @@
       </c>
       <c r="G7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -17228,7 +17240,7 @@
       </c>
       <c r="G8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -17250,7 +17262,7 @@
       </c>
       <c r="G9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -17272,7 +17284,7 @@
       </c>
       <c r="G10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -17294,7 +17306,7 @@
       </c>
       <c r="G11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -17316,7 +17328,7 @@
       </c>
       <c r="G12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -17338,7 +17350,7 @@
       </c>
       <c r="G13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -17360,7 +17372,7 @@
       </c>
       <c r="G14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -17382,7 +17394,7 @@
       </c>
       <c r="G15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -17404,7 +17416,7 @@
       </c>
       <c r="G16" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -17426,7 +17438,7 @@
       </c>
       <c r="G17" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -17448,7 +17460,7 @@
       </c>
       <c r="G18" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -17469,8 +17481,30 @@
         <v>45021</v>
       </c>
       <c r="G19" s="12">
-        <f t="shared" ref="G19" ca="1" si="1">TODAY()-F19</f>
-        <v>0</v>
+        <f t="shared" ref="G19:G20" ca="1" si="1">TODAY()-F19</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="10">
+        <v>45023</v>
+      </c>
+      <c r="G20" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -17535,7 +17569,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>7.4328767123287669</v>
+        <v>7.441095890410959</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -17556,7 +17590,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4328767123287669</v>
+        <v>7.441095890410959</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -17577,7 +17611,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8109589041095893</v>
+        <v>6.8191780821917805</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -17598,7 +17632,7 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>5.1808219178082195</v>
+        <v>5.1890410958904107</v>
       </c>
     </row>
   </sheetData>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="papers" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2681" uniqueCount="1115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2680" uniqueCount="1116">
   <si>
     <t>title</t>
   </si>
@@ -3370,6 +3370,9 @@
   </si>
   <si>
     <t>Appl. Health Econ. Health Policy</t>
+  </si>
+  <si>
+    <t>10.1186/s12905-023-02260-z</t>
   </si>
 </sst>
 </file>
@@ -4477,7 +4480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U222"/>
   <sheetViews>
-    <sheetView topLeftCell="A188" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A222" sqref="A222"/>
     </sheetView>
   </sheetViews>
@@ -16395,47 +16398,47 @@
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A219" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="B219" s="13" t="s">
-        <v>987</v>
-      </c>
-      <c r="C219" s="13" t="s">
-        <v>988</v>
-      </c>
-      <c r="D219" s="13" t="s">
-        <v>989</v>
-      </c>
-      <c r="E219" s="14">
+      <c r="A219" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="D219" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="E219" s="18">
         <v>2023</v>
       </c>
-      <c r="F219" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G219" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H219" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I219" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J219" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K219" s="31">
-        <v>45292</v>
-      </c>
-      <c r="L219" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="M219" s="45"/>
-      <c r="N219" s="44" t="s">
-        <v>993</v>
-      </c>
-      <c r="O219" s="27"/>
+      <c r="F219" s="18">
+        <v>23</v>
+      </c>
+      <c r="G219" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H219" s="18">
+        <v>168</v>
+      </c>
+      <c r="I219" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J219" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K219" s="42">
+        <v>45023</v>
+      </c>
+      <c r="L219" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="M219" s="11"/>
+      <c r="N219" s="19" t="s">
+        <v>1115</v>
+      </c>
+      <c r="O219" s="7"/>
       <c r="P219" s="24"/>
       <c r="Q219" s="25"/>
       <c r="R219" s="7"/>
@@ -16445,16 +16448,16 @@
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A220" s="13" t="s">
-        <v>931</v>
+        <v>986</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>767</v>
+        <v>987</v>
       </c>
       <c r="C220" s="13" t="s">
-        <v>932</v>
+        <v>988</v>
       </c>
       <c r="D220" s="13" t="s">
-        <v>933</v>
+        <v>989</v>
       </c>
       <c r="E220" s="14">
         <v>2023</v>
@@ -16475,13 +16478,15 @@
         <v>14</v>
       </c>
       <c r="K220" s="31">
-        <v>45294</v>
+        <v>45292</v>
       </c>
       <c r="L220" s="31" t="s">
         <v>273</v>
       </c>
       <c r="M220" s="45"/>
-      <c r="N220" s="44"/>
+      <c r="N220" s="44" t="s">
+        <v>993</v>
+      </c>
       <c r="O220" s="27"/>
       <c r="P220" s="24"/>
       <c r="Q220" s="25"/>
@@ -17051,7 +17056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -2820,9 +2820,6 @@
     <t>Larkins, Andrew; Bruce, Mieghan; Di Bari, Carlotta; Devleesschauwer, Brecht; Pigott, David M; Ash, Amanda</t>
   </si>
   <si>
-    <t>Systematic review of the association between bacterial vaginosis and emotional, sexual and social health</t>
-  </si>
-  <si>
     <t>BMC Women's Health</t>
   </si>
   <si>
@@ -3373,6 +3370,9 @@
   </si>
   <si>
     <t>10.1186/s12905-023-02260-z</t>
+  </si>
+  <si>
+    <t>Scoping review of the association between bacterial vaginosis and emotional, sexual and social health</t>
   </si>
 </sst>
 </file>
@@ -4481,7 +4481,7 @@
   <dimension ref="A1:U222"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A188" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A222" sqref="A222"/>
+      <selection activeCell="A220" sqref="A220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14332,10 +14332,10 @@
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B180" s="7" t="s">
         <v>1026</v>
-      </c>
-      <c r="B180" s="7" t="s">
-        <v>1027</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>575</v>
@@ -14369,7 +14369,7 @@
       </c>
       <c r="M180" s="11"/>
       <c r="N180" s="19" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="O180" s="7"/>
       <c r="P180" s="24"/>
@@ -14565,7 +14565,7 @@
         <v>14</v>
       </c>
       <c r="H184" s="18" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="I184" s="18" t="s">
         <v>14</v>
@@ -14634,7 +14634,7 @@
       </c>
       <c r="M185" s="11"/>
       <c r="N185" s="19" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="O185" s="7"/>
       <c r="P185" s="24"/>
@@ -14740,7 +14740,7 @@
       </c>
       <c r="M187" s="11"/>
       <c r="N187" s="19" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="O187" s="7"/>
       <c r="P187" s="24"/>
@@ -14793,7 +14793,7 @@
       </c>
       <c r="M188" s="11"/>
       <c r="N188" s="19" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="O188" s="7"/>
       <c r="P188" s="24"/>
@@ -14812,7 +14812,7 @@
         <v>897</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>12</v>
@@ -14846,7 +14846,7 @@
       </c>
       <c r="M189" s="11"/>
       <c r="N189" s="19" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="O189" s="7"/>
       <c r="P189" s="24"/>
@@ -14862,16 +14862,16 @@
     </row>
     <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
+        <v>953</v>
+      </c>
+      <c r="B190" s="7" t="s">
         <v>954</v>
       </c>
-      <c r="B190" s="7" t="s">
+      <c r="C190" s="7" t="s">
         <v>955</v>
       </c>
-      <c r="C190" s="7" t="s">
+      <c r="D190" s="7" t="s">
         <v>956</v>
-      </c>
-      <c r="D190" s="7" t="s">
-        <v>957</v>
       </c>
       <c r="E190" s="18">
         <v>2022</v>
@@ -14899,7 +14899,7 @@
       </c>
       <c r="M190" s="11"/>
       <c r="N190" s="19" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="O190" s="7"/>
       <c r="P190" s="24"/>
@@ -15005,7 +15005,7 @@
       </c>
       <c r="M192" s="11"/>
       <c r="N192" s="19" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="O192" s="7"/>
       <c r="P192" s="24"/>
@@ -15042,7 +15042,7 @@
         <v>153</v>
       </c>
       <c r="H193" s="18" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="I193" s="18" t="s">
         <v>14</v>
@@ -15058,7 +15058,7 @@
       </c>
       <c r="M193" s="11"/>
       <c r="N193" s="19" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="O193" s="7"/>
       <c r="P193" s="24"/>
@@ -15111,7 +15111,7 @@
       </c>
       <c r="M194" s="11"/>
       <c r="N194" s="19" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="O194" s="7"/>
       <c r="P194" s="24"/>
@@ -15164,7 +15164,7 @@
       </c>
       <c r="M195" s="11"/>
       <c r="N195" s="19" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="O195" s="7"/>
       <c r="P195" s="24"/>
@@ -15180,10 +15180,10 @@
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
+        <v>941</v>
+      </c>
+      <c r="B196" s="7" t="s">
         <v>942</v>
-      </c>
-      <c r="B196" s="7" t="s">
-        <v>943</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>267</v>
@@ -15270,7 +15270,7 @@
       </c>
       <c r="M197" s="11"/>
       <c r="N197" s="19" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="O197" s="7"/>
       <c r="P197" s="24"/>
@@ -15286,16 +15286,16 @@
     </row>
     <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
+        <v>975</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>979</v>
+      </c>
+      <c r="C198" s="7" t="s">
         <v>976</v>
       </c>
-      <c r="B198" s="7" t="s">
-        <v>980</v>
-      </c>
-      <c r="C198" s="7" t="s">
+      <c r="D198" s="7" t="s">
         <v>977</v>
-      </c>
-      <c r="D198" s="7" t="s">
-        <v>978</v>
       </c>
       <c r="E198" s="18">
         <v>2022</v>
@@ -15323,7 +15323,7 @@
       </c>
       <c r="M198" s="11"/>
       <c r="N198" s="19" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="O198" s="7"/>
       <c r="P198" s="24"/>
@@ -15376,7 +15376,7 @@
       </c>
       <c r="M199" s="11"/>
       <c r="N199" s="19" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="O199" s="7"/>
       <c r="P199" s="24"/>
@@ -15429,7 +15429,7 @@
       </c>
       <c r="M200" s="11"/>
       <c r="N200" s="19" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="O200" s="7"/>
       <c r="P200" s="24"/>
@@ -15482,7 +15482,7 @@
       </c>
       <c r="M201" s="11"/>
       <c r="N201" s="19" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="O201" s="7"/>
       <c r="P201" s="24"/>
@@ -15535,7 +15535,7 @@
       </c>
       <c r="M202" s="11"/>
       <c r="N202" s="19" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="O202" s="7"/>
       <c r="P202" s="24"/>
@@ -15551,16 +15551,16 @@
     </row>
     <row r="203" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
+        <v>967</v>
+      </c>
+      <c r="B203" s="7" t="s">
         <v>968</v>
       </c>
-      <c r="B203" s="7" t="s">
-        <v>969</v>
-      </c>
       <c r="C203" s="7" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E203" s="18">
         <v>2022</v>
@@ -15588,7 +15588,7 @@
       </c>
       <c r="M203" s="11"/>
       <c r="N203" s="19" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="O203" s="7"/>
       <c r="P203" s="24"/>
@@ -15641,7 +15641,7 @@
       </c>
       <c r="M204" s="11"/>
       <c r="N204" s="19" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="O204" s="7"/>
       <c r="P204" s="24"/>
@@ -15657,10 +15657,10 @@
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>724</v>
@@ -15678,7 +15678,7 @@
         <v>69</v>
       </c>
       <c r="H205" s="18" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="I205" s="18" t="s">
         <v>14</v>
@@ -15694,7 +15694,7 @@
       </c>
       <c r="M205" s="11"/>
       <c r="N205" s="19" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O205" s="7"/>
       <c r="P205" s="24"/>
@@ -15747,7 +15747,7 @@
       </c>
       <c r="M206" s="11"/>
       <c r="N206" s="19" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="O206" s="7"/>
       <c r="P206" s="24"/>
@@ -15763,10 +15763,10 @@
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
+        <v>937</v>
+      </c>
+      <c r="B207" s="7" t="s">
         <v>938</v>
-      </c>
-      <c r="B207" s="7" t="s">
-        <v>939</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>267</v>
@@ -15800,7 +15800,7 @@
       </c>
       <c r="M207" s="11"/>
       <c r="N207" s="19" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="O207" s="7"/>
       <c r="P207" s="24"/>
@@ -15869,10 +15869,10 @@
     </row>
     <row r="209" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
+        <v>943</v>
+      </c>
+      <c r="B209" s="7" t="s">
         <v>944</v>
-      </c>
-      <c r="B209" s="7" t="s">
-        <v>945</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>160</v>
@@ -15890,7 +15890,7 @@
         <v>65</v>
       </c>
       <c r="H209" s="18" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I209" s="18" t="s">
         <v>14</v>
@@ -15906,7 +15906,7 @@
       </c>
       <c r="M209" s="11"/>
       <c r="N209" s="19" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="O209" s="7"/>
       <c r="P209" s="24"/>
@@ -15959,7 +15959,7 @@
       </c>
       <c r="M210" s="11"/>
       <c r="N210" s="19" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="O210" s="7"/>
       <c r="P210" s="24"/>
@@ -15975,16 +15975,16 @@
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="B211" s="7" t="s">
         <v>994</v>
       </c>
-      <c r="B211" s="7" t="s">
+      <c r="C211" s="7" t="s">
         <v>995</v>
       </c>
-      <c r="C211" s="7" t="s">
+      <c r="D211" s="7" t="s">
         <v>996</v>
-      </c>
-      <c r="D211" s="7" t="s">
-        <v>997</v>
       </c>
       <c r="E211" s="18">
         <v>2023</v>
@@ -15996,7 +15996,7 @@
         <v>101</v>
       </c>
       <c r="H211" s="18" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I211" s="18" t="s">
         <v>14</v>
@@ -16012,7 +16012,7 @@
       </c>
       <c r="M211" s="11"/>
       <c r="N211" s="19" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="O211" s="7"/>
       <c r="P211" s="24"/>
@@ -16028,10 +16028,10 @@
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>509</v>
@@ -16049,7 +16049,7 @@
         <v>14</v>
       </c>
       <c r="H212" s="18" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I212" s="18" t="s">
         <v>14</v>
@@ -16065,7 +16065,7 @@
       </c>
       <c r="M212" s="11"/>
       <c r="N212" s="19" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="O212" s="7"/>
       <c r="P212" s="24"/>
@@ -16081,10 +16081,10 @@
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="B213" s="7" t="s">
         <v>940</v>
-      </c>
-      <c r="B213" s="7" t="s">
-        <v>941</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>144</v>
@@ -16102,7 +16102,7 @@
         <v>101</v>
       </c>
       <c r="H213" s="18" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I213" s="18" t="s">
         <v>14</v>
@@ -16118,7 +16118,7 @@
       </c>
       <c r="M213" s="11"/>
       <c r="N213" s="19" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="O213" s="7"/>
       <c r="P213" s="24"/>
@@ -16134,16 +16134,16 @@
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B214" s="7" t="s">
         <v>926</v>
       </c>
       <c r="C214" s="7" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D214" s="7" t="s">
         <v>1061</v>
-      </c>
-      <c r="D214" s="7" t="s">
-        <v>1062</v>
       </c>
       <c r="E214" s="18">
         <v>2023</v>
@@ -16171,7 +16171,7 @@
       </c>
       <c r="M214" s="11"/>
       <c r="N214" s="19" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="O214" s="7"/>
       <c r="P214" s="24"/>
@@ -16187,10 +16187,10 @@
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>287</v>
@@ -16224,7 +16224,7 @@
       </c>
       <c r="M215" s="11"/>
       <c r="N215" s="19" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="O215" s="7"/>
       <c r="P215" s="24"/>
@@ -16240,16 +16240,16 @@
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C216" s="7" t="s">
         <v>1029</v>
       </c>
-      <c r="B216" s="7" t="s">
+      <c r="D216" s="7" t="s">
         <v>1031</v>
-      </c>
-      <c r="C216" s="7" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D216" s="7" t="s">
-        <v>1032</v>
       </c>
       <c r="E216" s="18">
         <v>2023</v>
@@ -16277,7 +16277,7 @@
       </c>
       <c r="M216" s="11"/>
       <c r="N216" s="19" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="O216" s="7"/>
       <c r="P216" s="24"/>
@@ -16346,10 +16346,10 @@
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>669</v>
@@ -16383,7 +16383,7 @@
       </c>
       <c r="M218" s="11"/>
       <c r="N218" s="19" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="O218" s="7"/>
       <c r="P218" s="24"/>
@@ -16399,16 +16399,16 @@
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>931</v>
+        <v>1115</v>
       </c>
       <c r="B219" s="7" t="s">
         <v>767</v>
       </c>
       <c r="C219" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="D219" s="7" t="s">
         <v>932</v>
-      </c>
-      <c r="D219" s="7" t="s">
-        <v>933</v>
       </c>
       <c r="E219" s="18">
         <v>2023</v>
@@ -16436,7 +16436,7 @@
       </c>
       <c r="M219" s="11"/>
       <c r="N219" s="19" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="O219" s="7"/>
       <c r="P219" s="24"/>
@@ -16448,16 +16448,16 @@
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A220" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="B220" s="13" t="s">
         <v>986</v>
       </c>
-      <c r="B220" s="13" t="s">
+      <c r="C220" s="13" t="s">
         <v>987</v>
       </c>
-      <c r="C220" s="13" t="s">
+      <c r="D220" s="13" t="s">
         <v>988</v>
-      </c>
-      <c r="D220" s="13" t="s">
-        <v>989</v>
       </c>
       <c r="E220" s="14">
         <v>2023</v>
@@ -16485,7 +16485,7 @@
       </c>
       <c r="M220" s="45"/>
       <c r="N220" s="44" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="O220" s="27"/>
       <c r="P220" s="24"/>
@@ -16497,10 +16497,10 @@
     </row>
     <row r="221" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A221" s="13" t="s">
+        <v>969</v>
+      </c>
+      <c r="B221" s="13" t="s">
         <v>970</v>
-      </c>
-      <c r="B221" s="13" t="s">
-        <v>971</v>
       </c>
       <c r="C221" s="13" t="s">
         <v>108</v>
@@ -16544,10 +16544,10 @@
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222" s="13" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B222" s="13" t="s">
         <v>1001</v>
-      </c>
-      <c r="B222" s="13" t="s">
-        <v>1002</v>
       </c>
       <c r="C222" s="13" t="s">
         <v>724</v>
@@ -17016,16 +17016,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>946</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>947</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>948</v>
-      </c>
       <c r="C11" s="7" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>14</v>
@@ -17041,7 +17041,7 @@
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="19" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
   </sheetData>
@@ -17094,16 +17094,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>960</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
+        <v>958</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>961</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>959</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>962</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="10">
@@ -17116,10 +17116,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>973</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>974</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>89</v>
@@ -17128,7 +17128,7 @@
         <v>89</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F3" s="10">
         <v>44769</v>
@@ -17140,10 +17140,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>990</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>991</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>659</v>
@@ -17162,10 +17162,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>980</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>981</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>982</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>790</v>
@@ -17184,10 +17184,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>1012</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>1013</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>144</v>
@@ -17206,16 +17206,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>1017</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>1018</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>1019</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="10">
@@ -17228,16 +17228,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>1016</v>
-      </c>
       <c r="C8" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>1020</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>1021</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="10">
@@ -17250,13 +17250,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>1023</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>1024</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>82</v>
@@ -17272,16 +17272,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>1033</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>1034</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>1035</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="10">
@@ -17294,16 +17294,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>1036</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>1037</v>
-      </c>
       <c r="C11" s="7" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>1034</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>1035</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="10">
@@ -17316,10 +17316,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>1063</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>1064</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>259</v>
@@ -17338,10 +17338,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>1075</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>1076</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>25</v>
@@ -17360,10 +17360,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>1078</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>1079</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>120</v>
@@ -17382,16 +17382,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>1088</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>1089</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="10">
@@ -17404,16 +17404,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>1096</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>1097</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>1098</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="10">
@@ -17426,16 +17426,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>1100</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>1101</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>1102</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="10">
@@ -17448,13 +17448,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>1104</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>1105</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>1106</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>344</v>
@@ -17470,16 +17470,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>1107</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>1108</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>1109</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="10">
@@ -17492,16 +17492,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>1111</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>1112</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>1113</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>1114</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="10">
@@ -17690,133 +17690,133 @@
     </row>
     <row r="2" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B2" s="52" t="s">
         <v>175</v>
       </c>
       <c r="C2" s="52" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D2" s="52" t="s">
         <v>1058</v>
       </c>
-      <c r="D2" s="52" t="s">
-        <v>1059</v>
-      </c>
       <c r="E2" s="53" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G2" s="53" t="s">
         <v>1043</v>
       </c>
-      <c r="F2" s="53" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G2" s="53" t="s">
+      <c r="H2" s="53" t="s">
         <v>1044</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="I2" s="53" t="s">
         <v>1045</v>
-      </c>
-      <c r="I2" s="53" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B3" s="49" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C3" s="49" t="s">
         <v>1048</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>1049</v>
-      </c>
       <c r="D3" s="15" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B4" s="49" t="s">
         <v>1050</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="C4" s="49" t="s">
         <v>1051</v>
       </c>
-      <c r="C4" s="49" t="s">
-        <v>1052</v>
-      </c>
       <c r="D4" s="15" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="I4" s="48" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B5" s="49" t="s">
         <v>1053</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="C5" s="49" t="s">
         <v>1054</v>
       </c>
-      <c r="C5" s="49" t="s">
-        <v>1055</v>
-      </c>
       <c r="D5" s="15" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B6" s="49" t="s">
         <v>1065</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="C6" s="49" t="s">
         <v>1066</v>
       </c>
-      <c r="C6" s="49" t="s">
-        <v>1067</v>
-      </c>
       <c r="D6" s="15" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H6" s="48" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B7" s="49" t="s">
         <v>1082</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="C7" s="49" t="s">
         <v>1083</v>
       </c>
-      <c r="C7" s="49" t="s">
-        <v>1084</v>
-      </c>
       <c r="D7" s="15" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B8" s="49" t="s">
         <v>1085</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="C8" s="49" t="s">
         <v>1086</v>
       </c>
-      <c r="C8" s="49" t="s">
-        <v>1087</v>
-      </c>
       <c r="D8" s="15" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G8" s="48" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
   </sheetData>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2680" uniqueCount="1116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="1118">
   <si>
     <t>title</t>
   </si>
@@ -3373,6 +3373,12 @@
   </si>
   <si>
     <t>Scoping review of the association between bacterial vaginosis and emotional, sexual and social health</t>
+  </si>
+  <si>
+    <t>10.1186/s12963-023-00303-z</t>
+  </si>
+  <si>
+    <t>10.1016/j.sste.2023.100587</t>
   </si>
 </sst>
 </file>
@@ -3680,169 +3686,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -4082,6 +3925,169 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -4096,74 +4102,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U222" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
-  <autoFilter ref="A1:U222"/>
-  <sortState ref="A2:U222">
-    <sortCondition ref="K1:K222"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U223" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+  <autoFilter ref="A1:U223"/>
+  <sortState ref="A2:U223">
+    <sortCondition ref="K1:K223"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" name="title" dataDxfId="51"/>
-    <tableColumn id="2" name="authors" dataDxfId="50"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="49"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="48"/>
-    <tableColumn id="6" name="year" dataDxfId="47"/>
-    <tableColumn id="4" name="volume" dataDxfId="46"/>
-    <tableColumn id="5" name="issue" dataDxfId="45"/>
-    <tableColumn id="7" name="eID" dataDxfId="44"/>
-    <tableColumn id="8" name="from" dataDxfId="43"/>
-    <tableColumn id="9" name="to" dataDxfId="42"/>
-    <tableColumn id="10" name="date" dataDxfId="41"/>
-    <tableColumn id="14" name="classification" dataDxfId="40"/>
-    <tableColumn id="12" name="IF" dataDxfId="39"/>
-    <tableColumn id="13" name="DOI" dataDxfId="38"/>
-    <tableColumn id="15" name="WoS" dataDxfId="37"/>
-    <tableColumn id="16" name="rank" dataDxfId="36"/>
-    <tableColumn id="17" name="quartile" dataDxfId="35"/>
-    <tableColumn id="18" name="category" dataDxfId="34"/>
-    <tableColumn id="19" name="CBRA" dataDxfId="33"/>
-    <tableColumn id="20" name="SC" dataDxfId="32"/>
-    <tableColumn id="21" name="UGent" dataDxfId="31"/>
+    <tableColumn id="1" name="title" dataDxfId="75"/>
+    <tableColumn id="2" name="authors" dataDxfId="74"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="73"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="72"/>
+    <tableColumn id="6" name="year" dataDxfId="71"/>
+    <tableColumn id="4" name="volume" dataDxfId="70"/>
+    <tableColumn id="5" name="issue" dataDxfId="69"/>
+    <tableColumn id="7" name="eID" dataDxfId="68"/>
+    <tableColumn id="8" name="from" dataDxfId="67"/>
+    <tableColumn id="9" name="to" dataDxfId="66"/>
+    <tableColumn id="10" name="date" dataDxfId="65"/>
+    <tableColumn id="14" name="classification" dataDxfId="64"/>
+    <tableColumn id="12" name="IF" dataDxfId="63"/>
+    <tableColumn id="13" name="DOI" dataDxfId="62"/>
+    <tableColumn id="15" name="WoS" dataDxfId="61"/>
+    <tableColumn id="16" name="rank" dataDxfId="60"/>
+    <tableColumn id="17" name="quartile" dataDxfId="59"/>
+    <tableColumn id="18" name="category" dataDxfId="58"/>
+    <tableColumn id="19" name="CBRA" dataDxfId="57"/>
+    <tableColumn id="20" name="SC" dataDxfId="56"/>
+    <tableColumn id="21" name="UGent" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J11" totalsRowShown="0" headerRowDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J11" totalsRowShown="0" headerRowDxfId="54">
   <autoFilter ref="A1:J11"/>
   <sortState ref="A2:N50">
     <sortCondition ref="H1:H50"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="title" dataDxfId="29"/>
-    <tableColumn id="2" name="authors" dataDxfId="28"/>
-    <tableColumn id="3" name="editors" dataDxfId="27"/>
-    <tableColumn id="11" name="book" dataDxfId="26"/>
-    <tableColumn id="6" name="year" dataDxfId="25"/>
-    <tableColumn id="8" name="from" dataDxfId="24"/>
-    <tableColumn id="9" name="to" dataDxfId="23"/>
-    <tableColumn id="10" name="date" dataDxfId="22"/>
-    <tableColumn id="12" name="IF" dataDxfId="21"/>
-    <tableColumn id="13" name="DOI" dataDxfId="20"/>
+    <tableColumn id="1" name="title" dataDxfId="53"/>
+    <tableColumn id="2" name="authors" dataDxfId="52"/>
+    <tableColumn id="3" name="editors" dataDxfId="51"/>
+    <tableColumn id="11" name="book" dataDxfId="50"/>
+    <tableColumn id="6" name="year" dataDxfId="49"/>
+    <tableColumn id="8" name="from" dataDxfId="48"/>
+    <tableColumn id="9" name="to" dataDxfId="47"/>
+    <tableColumn id="10" name="date" dataDxfId="46"/>
+    <tableColumn id="12" name="IF" dataDxfId="45"/>
+    <tableColumn id="13" name="DOI" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G20" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:G20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G19" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:G19"/>
   <sortState ref="A2:G17">
     <sortCondition ref="F1:F17"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="title" dataDxfId="17"/>
-    <tableColumn id="2" name="authors" dataDxfId="16"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="15"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="14"/>
-    <tableColumn id="4" name="doi_preprint" dataDxfId="13"/>
-    <tableColumn id="10" name="date" dataDxfId="12"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="11">
+    <tableColumn id="1" name="title" dataDxfId="41"/>
+    <tableColumn id="2" name="authors" dataDxfId="40"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="39"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="38"/>
+    <tableColumn id="4" name="doi_preprint" dataDxfId="37"/>
+    <tableColumn id="10" name="date" dataDxfId="36"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="35">
       <calculatedColumnFormula>TODAY()-F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4172,18 +4178,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A1:F5"/>
   <sortState ref="A2:K14">
     <sortCondition ref="E1:E14"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="title" dataDxfId="8"/>
-    <tableColumn id="2" name="authors" dataDxfId="7"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="6"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="5"/>
-    <tableColumn id="10" name="date" dataDxfId="4"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="3">
+    <tableColumn id="1" name="title" dataDxfId="32"/>
+    <tableColumn id="2" name="authors" dataDxfId="31"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="30"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="29"/>
+    <tableColumn id="10" name="date" dataDxfId="28"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="27">
       <calculatedColumnFormula>(TODAY()-E2)/365</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4478,10 +4484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U222"/>
+  <dimension ref="A1:U223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A220" sqref="A220"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A221" sqref="A221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16443,70 +16449,78 @@
       <c r="Q219" s="25"/>
       <c r="R219" s="7"/>
       <c r="S219" s="7"/>
-      <c r="T219" s="7"/>
-      <c r="U219" s="7"/>
+      <c r="T219" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="U219" s="7" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A220" s="13" t="s">
-        <v>985</v>
-      </c>
-      <c r="B220" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C220" s="13" t="s">
-        <v>987</v>
-      </c>
-      <c r="D220" s="13" t="s">
-        <v>988</v>
-      </c>
-      <c r="E220" s="14">
+      <c r="A220" s="7" t="s">
+        <v>969</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>970</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D220" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E220" s="18">
         <v>2023</v>
       </c>
-      <c r="F220" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G220" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H220" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I220" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J220" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K220" s="31">
-        <v>45292</v>
-      </c>
-      <c r="L220" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="M220" s="45"/>
-      <c r="N220" s="44" t="s">
-        <v>992</v>
-      </c>
-      <c r="O220" s="27"/>
+      <c r="F220" s="18">
+        <v>21</v>
+      </c>
+      <c r="G220" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H220" s="18">
+        <v>4</v>
+      </c>
+      <c r="I220" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J220" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K220" s="42">
+        <v>45037</v>
+      </c>
+      <c r="L220" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="M220" s="11"/>
+      <c r="N220" s="19" t="s">
+        <v>1116</v>
+      </c>
+      <c r="O220" s="7"/>
       <c r="P220" s="24"/>
       <c r="Q220" s="25"/>
       <c r="R220" s="7"/>
       <c r="S220" s="7"/>
-      <c r="T220" s="7"/>
-      <c r="U220" s="7"/>
+      <c r="T220" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="U220" s="7" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="221" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A221" s="13" t="s">
-        <v>969</v>
+        <v>985</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>970</v>
+        <v>986</v>
       </c>
       <c r="C221" s="13" t="s">
-        <v>108</v>
+        <v>987</v>
       </c>
       <c r="D221" s="13" t="s">
-        <v>109</v>
+        <v>988</v>
       </c>
       <c r="E221" s="14">
         <v>2023</v>
@@ -16527,13 +16541,15 @@
         <v>14</v>
       </c>
       <c r="K221" s="31">
-        <v>45295</v>
+        <v>45292</v>
       </c>
       <c r="L221" s="31" t="s">
         <v>273</v>
       </c>
       <c r="M221" s="45"/>
-      <c r="N221" s="44"/>
+      <c r="N221" s="44" t="s">
+        <v>992</v>
+      </c>
       <c r="O221" s="27"/>
       <c r="P221" s="24"/>
       <c r="Q221" s="25"/>
@@ -16544,16 +16560,16 @@
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222" s="13" t="s">
-        <v>1000</v>
+        <v>1016</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>1001</v>
+        <v>1091</v>
       </c>
       <c r="C222" s="13" t="s">
-        <v>724</v>
+        <v>1017</v>
       </c>
       <c r="D222" s="13" t="s">
-        <v>724</v>
+        <v>1018</v>
       </c>
       <c r="E222" s="14">
         <v>2023</v>
@@ -16574,13 +16590,15 @@
         <v>14</v>
       </c>
       <c r="K222" s="31">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="L222" s="31" t="s">
         <v>273</v>
       </c>
       <c r="M222" s="45"/>
-      <c r="N222" s="44"/>
+      <c r="N222" s="44" t="s">
+        <v>1117</v>
+      </c>
       <c r="O222" s="27"/>
       <c r="P222" s="24"/>
       <c r="Q222" s="25"/>
@@ -16589,100 +16607,147 @@
       <c r="T222" s="7"/>
       <c r="U222" s="7"/>
     </row>
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A223" s="13" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B223" s="13" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C223" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="D223" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="E223" s="14">
+        <v>2023</v>
+      </c>
+      <c r="F223" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G223" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H223" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I223" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J223" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K223" s="31">
+        <v>45294</v>
+      </c>
+      <c r="L223" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="M223" s="45"/>
+      <c r="N223" s="44"/>
+      <c r="O223" s="27"/>
+      <c r="P223" s="24"/>
+      <c r="Q223" s="25"/>
+      <c r="R223" s="7"/>
+      <c r="S223" s="7"/>
+      <c r="T223" s="7"/>
+      <c r="U223" s="7"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="S1:U112 S114:U122 S124:U125 S127:U134 U126 S148:U175 S136:U146 S177:U179 S182:U188 S190:U205 S207:U1048576">
-    <cfRule type="cellIs" dxfId="77" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T113:U113">
-    <cfRule type="cellIs" dxfId="75" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S113">
-    <cfRule type="cellIs" dxfId="73" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S123:U123">
-    <cfRule type="cellIs" dxfId="71" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S126:T126">
-    <cfRule type="cellIs" dxfId="69" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S135:U135">
-    <cfRule type="cellIs" dxfId="67" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S147:U147">
-    <cfRule type="cellIs" dxfId="65" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S176:U176">
-    <cfRule type="cellIs" dxfId="63" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S181:U181">
-    <cfRule type="cellIs" dxfId="61" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S189:U189">
-    <cfRule type="cellIs" dxfId="59" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S206:U206">
-    <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S180:U180">
-    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17054,10 +17119,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17110,8 +17175,8 @@
         <v>44734</v>
       </c>
       <c r="G2" s="12">
-        <f t="shared" ref="G2:G18" ca="1" si="0">TODAY()-F2</f>
-        <v>290</v>
+        <f t="shared" ref="G2:G17" ca="1" si="0">TODAY()-F2</f>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -17122,10 +17187,10 @@
         <v>973</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>89</v>
+        <v>259</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>89</v>
+        <v>262</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>1076</v>
@@ -17135,7 +17200,7 @@
       </c>
       <c r="G3" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -17146,10 +17211,10 @@
         <v>990</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>659</v>
+        <v>89</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>660</v>
+        <v>89</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="10">
@@ -17157,7 +17222,7 @@
       </c>
       <c r="G4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>221</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -17179,7 +17244,7 @@
       </c>
       <c r="G5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>192</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -17201,81 +17266,81 @@
       </c>
       <c r="G6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1091</v>
+        <v>1015</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="10">
-        <v>44897</v>
+        <v>44902</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>1014</v>
+        <v>1022</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1020</v>
+        <v>82</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="10">
-        <v>44902</v>
+        <v>44904</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>1022</v>
+        <v>1032</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1021</v>
+        <v>1092</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1023</v>
+        <v>1033</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>82</v>
+        <v>1034</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="10">
-        <v>44904</v>
+        <v>44914</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1092</v>
+        <v>1036</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>1033</v>
@@ -17289,227 +17354,205 @@
       </c>
       <c r="G10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>110</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>1035</v>
+        <v>1062</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1036</v>
+        <v>1063</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1033</v>
+        <v>259</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1034</v>
+        <v>262</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="10">
-        <v>44914</v>
+        <v>44942</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>1062</v>
+        <v>1074</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1063</v>
+        <v>1075</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>259</v>
+        <v>25</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>262</v>
+        <v>28</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="10">
-        <v>44942</v>
+        <v>44958</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="10">
-        <v>44958</v>
+        <v>44959</v>
       </c>
       <c r="G13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>1077</v>
+        <v>1087</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1078</v>
+        <v>1090</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>120</v>
+        <v>1089</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>121</v>
+        <v>1088</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="10">
-        <v>44959</v>
+        <v>45008</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>1087</v>
+        <v>1095</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>1090</v>
+        <v>1098</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>1089</v>
+        <v>1096</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1088</v>
+        <v>1097</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="10">
-        <v>45008</v>
+        <v>45013</v>
       </c>
       <c r="G15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>1095</v>
+        <v>1099</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1098</v>
+        <v>1102</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>1097</v>
+        <v>1101</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="10">
-        <v>45013</v>
+        <v>45018</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>1100</v>
+        <v>1105</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>1101</v>
+        <v>344</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="10">
-        <v>45018</v>
+        <v>45021</v>
       </c>
       <c r="G17" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>1104</v>
+        <v>1109</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>344</v>
+        <v>1108</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="10">
         <v>45021</v>
       </c>
       <c r="G18" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <f t="shared" ref="G18:G19" ca="1" si="1">TODAY()-F18</f>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>1107</v>
+        <v>1112</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>1108</v>
+        <v>1113</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="10">
-        <v>45021</v>
+        <v>45023</v>
       </c>
       <c r="G19" s="12">
-        <f t="shared" ref="G19:G20" ca="1" si="1">TODAY()-F19</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="10">
-        <v>45023</v>
-      </c>
-      <c r="G20" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -17574,7 +17617,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>7.441095890410959</v>
+        <v>7.4794520547945202</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -17595,7 +17638,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.441095890410959</v>
+        <v>7.4794520547945202</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -17616,7 +17659,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8191780821917805</v>
+        <v>6.8575342465753426</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -17637,7 +17680,7 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>5.1890410958904107</v>
+        <v>5.2273972602739729</v>
       </c>
     </row>
   </sheetData>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="papers" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="1122">
   <si>
     <t>title</t>
   </si>
@@ -3379,6 +3379,18 @@
   </si>
   <si>
     <t>10.1016/j.sste.2023.100587</t>
+  </si>
+  <si>
+    <t>Excess mortality across migrant groups in Belgium during the first three COVID-19 waves: the evolving dynamics of social inequalities</t>
+  </si>
+  <si>
+    <t>Vanthomme, Katrien; Gadeyne, Sylvie; Devleesschauwer, Brecht; Van den Borre, Laura</t>
+  </si>
+  <si>
+    <t>Journal of Public Health</t>
+  </si>
+  <si>
+    <t>J. Public Health</t>
   </si>
 </sst>
 </file>
@@ -3686,6 +3698,169 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -3925,169 +4100,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -4102,74 +4114,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U223" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U223" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="A1:U223"/>
   <sortState ref="A2:U223">
     <sortCondition ref="K1:K223"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" name="title" dataDxfId="75"/>
-    <tableColumn id="2" name="authors" dataDxfId="74"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="73"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="72"/>
-    <tableColumn id="6" name="year" dataDxfId="71"/>
-    <tableColumn id="4" name="volume" dataDxfId="70"/>
-    <tableColumn id="5" name="issue" dataDxfId="69"/>
-    <tableColumn id="7" name="eID" dataDxfId="68"/>
-    <tableColumn id="8" name="from" dataDxfId="67"/>
-    <tableColumn id="9" name="to" dataDxfId="66"/>
-    <tableColumn id="10" name="date" dataDxfId="65"/>
-    <tableColumn id="14" name="classification" dataDxfId="64"/>
-    <tableColumn id="12" name="IF" dataDxfId="63"/>
-    <tableColumn id="13" name="DOI" dataDxfId="62"/>
-    <tableColumn id="15" name="WoS" dataDxfId="61"/>
-    <tableColumn id="16" name="rank" dataDxfId="60"/>
-    <tableColumn id="17" name="quartile" dataDxfId="59"/>
-    <tableColumn id="18" name="category" dataDxfId="58"/>
-    <tableColumn id="19" name="CBRA" dataDxfId="57"/>
-    <tableColumn id="20" name="SC" dataDxfId="56"/>
-    <tableColumn id="21" name="UGent" dataDxfId="55"/>
+    <tableColumn id="1" name="title" dataDxfId="51"/>
+    <tableColumn id="2" name="authors" dataDxfId="50"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="49"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="48"/>
+    <tableColumn id="6" name="year" dataDxfId="47"/>
+    <tableColumn id="4" name="volume" dataDxfId="46"/>
+    <tableColumn id="5" name="issue" dataDxfId="45"/>
+    <tableColumn id="7" name="eID" dataDxfId="44"/>
+    <tableColumn id="8" name="from" dataDxfId="43"/>
+    <tableColumn id="9" name="to" dataDxfId="42"/>
+    <tableColumn id="10" name="date" dataDxfId="41"/>
+    <tableColumn id="14" name="classification" dataDxfId="40"/>
+    <tableColumn id="12" name="IF" dataDxfId="39"/>
+    <tableColumn id="13" name="DOI" dataDxfId="38"/>
+    <tableColumn id="15" name="WoS" dataDxfId="37"/>
+    <tableColumn id="16" name="rank" dataDxfId="36"/>
+    <tableColumn id="17" name="quartile" dataDxfId="35"/>
+    <tableColumn id="18" name="category" dataDxfId="34"/>
+    <tableColumn id="19" name="CBRA" dataDxfId="33"/>
+    <tableColumn id="20" name="SC" dataDxfId="32"/>
+    <tableColumn id="21" name="UGent" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J11" totalsRowShown="0" headerRowDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J11" totalsRowShown="0" headerRowDxfId="30">
   <autoFilter ref="A1:J11"/>
   <sortState ref="A2:N50">
     <sortCondition ref="H1:H50"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="title" dataDxfId="53"/>
-    <tableColumn id="2" name="authors" dataDxfId="52"/>
-    <tableColumn id="3" name="editors" dataDxfId="51"/>
-    <tableColumn id="11" name="book" dataDxfId="50"/>
-    <tableColumn id="6" name="year" dataDxfId="49"/>
-    <tableColumn id="8" name="from" dataDxfId="48"/>
-    <tableColumn id="9" name="to" dataDxfId="47"/>
-    <tableColumn id="10" name="date" dataDxfId="46"/>
-    <tableColumn id="12" name="IF" dataDxfId="45"/>
-    <tableColumn id="13" name="DOI" dataDxfId="44"/>
+    <tableColumn id="1" name="title" dataDxfId="29"/>
+    <tableColumn id="2" name="authors" dataDxfId="28"/>
+    <tableColumn id="3" name="editors" dataDxfId="27"/>
+    <tableColumn id="11" name="book" dataDxfId="26"/>
+    <tableColumn id="6" name="year" dataDxfId="25"/>
+    <tableColumn id="8" name="from" dataDxfId="24"/>
+    <tableColumn id="9" name="to" dataDxfId="23"/>
+    <tableColumn id="10" name="date" dataDxfId="22"/>
+    <tableColumn id="12" name="IF" dataDxfId="21"/>
+    <tableColumn id="13" name="DOI" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G19" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:G19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G20" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:G20"/>
   <sortState ref="A2:G17">
     <sortCondition ref="F1:F17"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="title" dataDxfId="41"/>
-    <tableColumn id="2" name="authors" dataDxfId="40"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="39"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="38"/>
-    <tableColumn id="4" name="doi_preprint" dataDxfId="37"/>
-    <tableColumn id="10" name="date" dataDxfId="36"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="35">
+    <tableColumn id="1" name="title" dataDxfId="17"/>
+    <tableColumn id="2" name="authors" dataDxfId="16"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="15"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="14"/>
+    <tableColumn id="4" name="doi_preprint" dataDxfId="13"/>
+    <tableColumn id="10" name="date" dataDxfId="12"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="11">
       <calculatedColumnFormula>TODAY()-F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4178,18 +4190,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:F5"/>
   <sortState ref="A2:K14">
     <sortCondition ref="E1:E14"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="title" dataDxfId="32"/>
-    <tableColumn id="2" name="authors" dataDxfId="31"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="30"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="29"/>
-    <tableColumn id="10" name="date" dataDxfId="28"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="27">
+    <tableColumn id="1" name="title" dataDxfId="8"/>
+    <tableColumn id="2" name="authors" dataDxfId="7"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="6"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="5"/>
+    <tableColumn id="10" name="date" dataDxfId="4"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="3">
       <calculatedColumnFormula>(TODAY()-E2)/365</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4486,7 +4498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A187" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A221" sqref="A221"/>
     </sheetView>
   </sheetViews>
@@ -16656,98 +16668,98 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="S1:U112 S114:U122 S124:U125 S127:U134 U126 S148:U175 S136:U146 S177:U179 S182:U188 S190:U205 S207:U1048576">
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="25" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="26" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T113:U113">
-    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="23" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="24" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S113">
-    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="21" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="22" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S123:U123">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="19" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="20" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S126:T126">
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="17" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="18" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S135:U135">
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="15" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="16" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S147:U147">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="13" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="14" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S176:U176">
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="11" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="12" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S181:U181">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="7" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="8" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S189:U189">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="5" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="6" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S206:U206">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S180:U180">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17119,10 +17131,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17176,7 +17188,7 @@
       </c>
       <c r="G2" s="12">
         <f t="shared" ref="G2:G17" ca="1" si="0">TODAY()-F2</f>
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -17200,7 +17212,7 @@
       </c>
       <c r="G3" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -17222,7 +17234,7 @@
       </c>
       <c r="G4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -17244,7 +17256,7 @@
       </c>
       <c r="G5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -17266,7 +17278,7 @@
       </c>
       <c r="G6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -17288,7 +17300,7 @@
       </c>
       <c r="G7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -17310,7 +17322,7 @@
       </c>
       <c r="G8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -17332,7 +17344,7 @@
       </c>
       <c r="G9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -17354,7 +17366,7 @@
       </c>
       <c r="G10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -17376,7 +17388,7 @@
       </c>
       <c r="G11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -17398,7 +17410,7 @@
       </c>
       <c r="G12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -17420,7 +17432,7 @@
       </c>
       <c r="G13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -17442,7 +17454,7 @@
       </c>
       <c r="G14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -17464,7 +17476,7 @@
       </c>
       <c r="G15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -17486,7 +17498,7 @@
       </c>
       <c r="G16" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -17508,7 +17520,7 @@
       </c>
       <c r="G17" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -17529,8 +17541,8 @@
         <v>45021</v>
       </c>
       <c r="G18" s="12">
-        <f t="shared" ref="G18:G19" ca="1" si="1">TODAY()-F18</f>
-        <v>17</v>
+        <f t="shared" ref="G18:G20" ca="1" si="1">TODAY()-F18</f>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -17552,7 +17564,29 @@
       </c>
       <c r="G19" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="10">
+        <v>45037</v>
+      </c>
+      <c r="G20" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -17617,7 +17651,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>7.4794520547945202</v>
+        <v>7.4821917808219176</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -17638,7 +17672,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4794520547945202</v>
+        <v>7.4821917808219176</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -17659,7 +17693,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8575342465753426</v>
+        <v>6.86027397260274</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -17680,7 +17714,7 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>5.2273972602739729</v>
+        <v>5.2301369863013702</v>
       </c>
     </row>
   </sheetData>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2702" uniqueCount="1128">
   <si>
     <t>title</t>
   </si>
@@ -3391,6 +3391,24 @@
   </si>
   <si>
     <t>J. Public Health</t>
+  </si>
+  <si>
+    <t>Validation of the Global Burden of Disease study frailty index (GBD-FI) in the Survey of Health, Ageing and Retirement in Europe</t>
+  </si>
+  <si>
+    <t>O'Caoimh, Rónán; O'Donovan, Mark; Devleesschauwer, Brecht; Sezgin, Duygu; Aaron, Liew; Kabir, Zubair</t>
+  </si>
+  <si>
+    <t>The direct disease burden of COVID-19 in Belgium in 2020 and 2021</t>
+  </si>
+  <si>
+    <t>Devleesschauwer, Brecht; Willem, Lander; Jurčević, Jure; Smith, Pierre; Scohy, Aline; Wyper, Grant; Pires, Sara Monteiro; Van Goethem, Nina; Beutels, Philippe; Franco, Nicolas; Abrams, Steven; Van Cauteren, Dieter; Speybroeck, Niko; Hens, Niel; De Pauw, Robby</t>
+  </si>
+  <si>
+    <t>The Lancet Regional Health - Europe</t>
+  </si>
+  <si>
+    <t>Lancet Reg. Health Eur.</t>
   </si>
 </sst>
 </file>
@@ -4169,8 +4187,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G20" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:G20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G22" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:G22"/>
   <sortState ref="A2:G17">
     <sortCondition ref="F1:F17"/>
   </sortState>
@@ -17131,10 +17149,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17188,7 +17206,7 @@
       </c>
       <c r="G2" s="12">
         <f t="shared" ref="G2:G17" ca="1" si="0">TODAY()-F2</f>
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -17212,7 +17230,7 @@
       </c>
       <c r="G3" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -17234,7 +17252,7 @@
       </c>
       <c r="G4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -17256,7 +17274,7 @@
       </c>
       <c r="G5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -17278,7 +17296,7 @@
       </c>
       <c r="G6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -17300,7 +17318,7 @@
       </c>
       <c r="G7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -17322,7 +17340,7 @@
       </c>
       <c r="G8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -17344,7 +17362,7 @@
       </c>
       <c r="G9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -17366,7 +17384,7 @@
       </c>
       <c r="G10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -17388,7 +17406,7 @@
       </c>
       <c r="G11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -17410,7 +17428,7 @@
       </c>
       <c r="G12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -17432,7 +17450,7 @@
       </c>
       <c r="G13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -17454,7 +17472,7 @@
       </c>
       <c r="G14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -17476,7 +17494,7 @@
       </c>
       <c r="G15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -17498,7 +17516,7 @@
       </c>
       <c r="G16" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -17520,7 +17538,7 @@
       </c>
       <c r="G17" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -17541,8 +17559,8 @@
         <v>45021</v>
       </c>
       <c r="G18" s="12">
-        <f t="shared" ref="G18:G20" ca="1" si="1">TODAY()-F18</f>
-        <v>18</v>
+        <f t="shared" ref="G18:G21" ca="1" si="1">TODAY()-F18</f>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -17564,7 +17582,7 @@
       </c>
       <c r="G19" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -17586,6 +17604,50 @@
       </c>
       <c r="G20" s="12">
         <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="10">
+        <v>45043</v>
+      </c>
+      <c r="G21" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="10">
+        <v>45043</v>
+      </c>
+      <c r="G22" s="12">
+        <f t="shared" ref="G22" ca="1" si="2">TODAY()-F22</f>
         <v>2</v>
       </c>
     </row>
@@ -17651,7 +17713,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>7.4821917808219176</v>
+        <v>7.4986301369863018</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -17672,7 +17734,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4821917808219176</v>
+        <v>7.4986301369863018</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -17693,7 +17755,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>6.86027397260274</v>
+        <v>6.8767123287671232</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -17714,7 +17776,7 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>5.2301369863013702</v>
+        <v>5.2465753424657535</v>
       </c>
     </row>
   </sheetData>
@@ -17729,7 +17791,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="papers" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2702" uniqueCount="1128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2708" uniqueCount="1126">
   <si>
     <t>title</t>
   </si>
@@ -3069,9 +3069,6 @@
     <t xml:space="preserve">10.1186/s12889-022-14380-6 </t>
   </si>
   <si>
-    <t>Prevalence estimation of musculoskeletal conditions in the Global Burden of Disease 2019 Study: assessing the risk of bias of primary data input studies and the certainty of GBD modelled estimates</t>
-  </si>
-  <si>
     <t>Muñoz Laguna, Javier; Puhan, Milo A; Rodríguez Artalejo, Fernando; De Pauw, Robby; Wyper, Grant M A; Devleesschauwer, Brecht; Santos, João Vasco; Hincapié, Cesar A</t>
   </si>
   <si>
@@ -3084,12 +3081,6 @@
     <t>Spat. Spatiotemporal Epidemiol.</t>
   </si>
   <si>
-    <t>Annals of the Rheumatic Diseases</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ann. Rheum. Dis.</t>
-  </si>
-  <si>
     <t>Di Bari, Carlotta; Venkateswaran, Narmada; Fastl, Christina; Gabriël, Sarah; Grace, Delia; Havelaar, Arie H.; Huntington, Ben; Patterson, Grace T.; Rushton, Jonathan; Speybroeck, Niko; Torgerson, Paul; Pigott, David M.; Devleesschauwer, Brecht</t>
   </si>
   <si>
@@ -3409,6 +3400,9 @@
   </si>
   <si>
     <t>Lancet Reg. Health Eur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certainty of the Global Burden of Disease 2019 modelled prevalence estimates for musculoskeletal conditions: a meta-epidemiological study </t>
   </si>
 </sst>
 </file>
@@ -3716,169 +3710,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -4118,6 +3949,169 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -4132,74 +4126,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U223" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
-  <autoFilter ref="A1:U223"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U224" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+  <autoFilter ref="A1:U224"/>
   <sortState ref="A2:U223">
     <sortCondition ref="K1:K223"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" name="title" dataDxfId="51"/>
-    <tableColumn id="2" name="authors" dataDxfId="50"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="49"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="48"/>
-    <tableColumn id="6" name="year" dataDxfId="47"/>
-    <tableColumn id="4" name="volume" dataDxfId="46"/>
-    <tableColumn id="5" name="issue" dataDxfId="45"/>
-    <tableColumn id="7" name="eID" dataDxfId="44"/>
-    <tableColumn id="8" name="from" dataDxfId="43"/>
-    <tableColumn id="9" name="to" dataDxfId="42"/>
-    <tableColumn id="10" name="date" dataDxfId="41"/>
-    <tableColumn id="14" name="classification" dataDxfId="40"/>
-    <tableColumn id="12" name="IF" dataDxfId="39"/>
-    <tableColumn id="13" name="DOI" dataDxfId="38"/>
-    <tableColumn id="15" name="WoS" dataDxfId="37"/>
-    <tableColumn id="16" name="rank" dataDxfId="36"/>
-    <tableColumn id="17" name="quartile" dataDxfId="35"/>
-    <tableColumn id="18" name="category" dataDxfId="34"/>
-    <tableColumn id="19" name="CBRA" dataDxfId="33"/>
-    <tableColumn id="20" name="SC" dataDxfId="32"/>
-    <tableColumn id="21" name="UGent" dataDxfId="31"/>
+    <tableColumn id="1" name="title" dataDxfId="75"/>
+    <tableColumn id="2" name="authors" dataDxfId="74"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="73"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="72"/>
+    <tableColumn id="6" name="year" dataDxfId="71"/>
+    <tableColumn id="4" name="volume" dataDxfId="70"/>
+    <tableColumn id="5" name="issue" dataDxfId="69"/>
+    <tableColumn id="7" name="eID" dataDxfId="68"/>
+    <tableColumn id="8" name="from" dataDxfId="67"/>
+    <tableColumn id="9" name="to" dataDxfId="66"/>
+    <tableColumn id="10" name="date" dataDxfId="65"/>
+    <tableColumn id="14" name="classification" dataDxfId="64"/>
+    <tableColumn id="12" name="IF" dataDxfId="63"/>
+    <tableColumn id="13" name="DOI" dataDxfId="62"/>
+    <tableColumn id="15" name="WoS" dataDxfId="61"/>
+    <tableColumn id="16" name="rank" dataDxfId="60"/>
+    <tableColumn id="17" name="quartile" dataDxfId="59"/>
+    <tableColumn id="18" name="category" dataDxfId="58"/>
+    <tableColumn id="19" name="CBRA" dataDxfId="57"/>
+    <tableColumn id="20" name="SC" dataDxfId="56"/>
+    <tableColumn id="21" name="UGent" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J11" totalsRowShown="0" headerRowDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J11" totalsRowShown="0" headerRowDxfId="54">
   <autoFilter ref="A1:J11"/>
   <sortState ref="A2:N50">
     <sortCondition ref="H1:H50"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="title" dataDxfId="29"/>
-    <tableColumn id="2" name="authors" dataDxfId="28"/>
-    <tableColumn id="3" name="editors" dataDxfId="27"/>
-    <tableColumn id="11" name="book" dataDxfId="26"/>
-    <tableColumn id="6" name="year" dataDxfId="25"/>
-    <tableColumn id="8" name="from" dataDxfId="24"/>
-    <tableColumn id="9" name="to" dataDxfId="23"/>
-    <tableColumn id="10" name="date" dataDxfId="22"/>
-    <tableColumn id="12" name="IF" dataDxfId="21"/>
-    <tableColumn id="13" name="DOI" dataDxfId="20"/>
+    <tableColumn id="1" name="title" dataDxfId="53"/>
+    <tableColumn id="2" name="authors" dataDxfId="52"/>
+    <tableColumn id="3" name="editors" dataDxfId="51"/>
+    <tableColumn id="11" name="book" dataDxfId="50"/>
+    <tableColumn id="6" name="year" dataDxfId="49"/>
+    <tableColumn id="8" name="from" dataDxfId="48"/>
+    <tableColumn id="9" name="to" dataDxfId="47"/>
+    <tableColumn id="10" name="date" dataDxfId="46"/>
+    <tableColumn id="12" name="IF" dataDxfId="45"/>
+    <tableColumn id="13" name="DOI" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G22" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:G22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G21" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:G21"/>
   <sortState ref="A2:G17">
     <sortCondition ref="F1:F17"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="title" dataDxfId="17"/>
-    <tableColumn id="2" name="authors" dataDxfId="16"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="15"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="14"/>
-    <tableColumn id="4" name="doi_preprint" dataDxfId="13"/>
-    <tableColumn id="10" name="date" dataDxfId="12"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="11">
+    <tableColumn id="1" name="title" dataDxfId="41"/>
+    <tableColumn id="2" name="authors" dataDxfId="40"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="39"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="38"/>
+    <tableColumn id="4" name="doi_preprint" dataDxfId="37"/>
+    <tableColumn id="10" name="date" dataDxfId="36"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="35">
       <calculatedColumnFormula>TODAY()-F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4208,18 +4202,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A1:F5"/>
   <sortState ref="A2:K14">
     <sortCondition ref="E1:E14"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="title" dataDxfId="8"/>
-    <tableColumn id="2" name="authors" dataDxfId="7"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="6"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="5"/>
-    <tableColumn id="10" name="date" dataDxfId="4"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="3">
+    <tableColumn id="1" name="title" dataDxfId="32"/>
+    <tableColumn id="2" name="authors" dataDxfId="31"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="30"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="29"/>
+    <tableColumn id="10" name="date" dataDxfId="28"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="27">
       <calculatedColumnFormula>(TODAY()-E2)/365</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4514,10 +4508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U223"/>
+  <dimension ref="A1:U224"/>
   <sheetViews>
-    <sheetView topLeftCell="A187" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A221" sqref="A221"/>
+    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A224" sqref="A224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14368,10 +14362,10 @@
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>575</v>
@@ -14405,7 +14399,7 @@
       </c>
       <c r="M180" s="11"/>
       <c r="N180" s="19" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="O180" s="7"/>
       <c r="P180" s="24"/>
@@ -15836,7 +15830,7 @@
       </c>
       <c r="M207" s="11"/>
       <c r="N207" s="19" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="O207" s="7"/>
       <c r="P207" s="24"/>
@@ -15926,7 +15920,7 @@
         <v>65</v>
       </c>
       <c r="H209" s="18" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="I209" s="18" t="s">
         <v>14</v>
@@ -15942,7 +15936,7 @@
       </c>
       <c r="M209" s="11"/>
       <c r="N209" s="19" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="O209" s="7"/>
       <c r="P209" s="24"/>
@@ -15995,7 +15989,7 @@
       </c>
       <c r="M210" s="11"/>
       <c r="N210" s="19" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="O210" s="7"/>
       <c r="P210" s="24"/>
@@ -16067,7 +16061,7 @@
         <v>1005</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>509</v>
@@ -16085,7 +16079,7 @@
         <v>14</v>
       </c>
       <c r="H212" s="18" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="I212" s="18" t="s">
         <v>14</v>
@@ -16101,7 +16095,7 @@
       </c>
       <c r="M212" s="11"/>
       <c r="N212" s="19" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="O212" s="7"/>
       <c r="P212" s="24"/>
@@ -16138,7 +16132,7 @@
         <v>101</v>
       </c>
       <c r="H213" s="18" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="I213" s="18" t="s">
         <v>14</v>
@@ -16154,7 +16148,7 @@
       </c>
       <c r="M213" s="11"/>
       <c r="N213" s="19" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="O213" s="7"/>
       <c r="P213" s="24"/>
@@ -16170,16 +16164,16 @@
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="B214" s="7" t="s">
         <v>926</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="E214" s="18">
         <v>2023</v>
@@ -16207,7 +16201,7 @@
       </c>
       <c r="M214" s="11"/>
       <c r="N214" s="19" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="O214" s="7"/>
       <c r="P214" s="24"/>
@@ -16223,7 +16217,7 @@
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="B215" s="7" t="s">
         <v>971</v>
@@ -16276,16 +16270,16 @@
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D216" s="7" t="s">
         <v>1028</v>
-      </c>
-      <c r="B216" s="7" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C216" s="7" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D216" s="7" t="s">
-        <v>1031</v>
       </c>
       <c r="E216" s="18">
         <v>2023</v>
@@ -16313,7 +16307,7 @@
       </c>
       <c r="M216" s="11"/>
       <c r="N216" s="19" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="O216" s="7"/>
       <c r="P216" s="24"/>
@@ -16382,7 +16376,7 @@
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="B218" s="7" t="s">
         <v>982</v>
@@ -16419,7 +16413,7 @@
       </c>
       <c r="M218" s="11"/>
       <c r="N218" s="19" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="O218" s="7"/>
       <c r="P218" s="24"/>
@@ -16435,7 +16429,7 @@
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="B219" s="7" t="s">
         <v>767</v>
@@ -16472,7 +16466,7 @@
       </c>
       <c r="M219" s="11"/>
       <c r="N219" s="19" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="O219" s="7"/>
       <c r="P219" s="24"/>
@@ -16525,7 +16519,7 @@
       </c>
       <c r="M220" s="11"/>
       <c r="N220" s="19" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="O220" s="7"/>
       <c r="P220" s="24"/>
@@ -16590,16 +16584,16 @@
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222" s="13" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B222" s="13" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C222" s="13" t="s">
         <v>1016</v>
       </c>
-      <c r="B222" s="13" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C222" s="13" t="s">
+      <c r="D222" s="13" t="s">
         <v>1017</v>
-      </c>
-      <c r="D222" s="13" t="s">
-        <v>1018</v>
       </c>
       <c r="E222" s="14">
         <v>2023</v>
@@ -16627,7 +16621,7 @@
       </c>
       <c r="M222" s="45"/>
       <c r="N222" s="44" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="O222" s="27"/>
       <c r="P222" s="24"/>
@@ -16684,100 +16678,147 @@
       <c r="T223" s="7"/>
       <c r="U223" s="7"/>
     </row>
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A224" s="13" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B224" s="13" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C224" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D224" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E224" s="14">
+        <v>2023</v>
+      </c>
+      <c r="F224" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G224" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H224" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I224" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J224" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K224" s="31">
+        <v>45295</v>
+      </c>
+      <c r="L224" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="M224" s="45"/>
+      <c r="N224" s="44"/>
+      <c r="O224" s="27"/>
+      <c r="P224" s="24"/>
+      <c r="Q224" s="25"/>
+      <c r="R224" s="7"/>
+      <c r="S224" s="7"/>
+      <c r="T224" s="7"/>
+      <c r="U224" s="7"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="S1:U112 S114:U122 S124:U125 S127:U134 U126 S148:U175 S136:U146 S177:U179 S182:U188 S190:U205 S207:U1048576">
-    <cfRule type="cellIs" dxfId="77" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T113:U113">
-    <cfRule type="cellIs" dxfId="75" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S113">
-    <cfRule type="cellIs" dxfId="73" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S123:U123">
-    <cfRule type="cellIs" dxfId="71" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S126:T126">
-    <cfRule type="cellIs" dxfId="69" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S135:U135">
-    <cfRule type="cellIs" dxfId="67" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S147:U147">
-    <cfRule type="cellIs" dxfId="65" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S176:U176">
-    <cfRule type="cellIs" dxfId="63" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S181:U181">
-    <cfRule type="cellIs" dxfId="61" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S189:U189">
-    <cfRule type="cellIs" dxfId="59" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S206:U206">
-    <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S180:U180">
-    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17149,11 +17190,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17205,8 +17244,8 @@
         <v>44734</v>
       </c>
       <c r="G2" s="12">
-        <f t="shared" ref="G2:G17" ca="1" si="0">TODAY()-F2</f>
-        <v>311</v>
+        <f t="shared" ref="G2:G16" ca="1" si="0">TODAY()-F2</f>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -17223,14 +17262,14 @@
         <v>262</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="F3" s="10">
         <v>44769</v>
       </c>
       <c r="G3" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -17252,7 +17291,7 @@
       </c>
       <c r="G4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -17274,7 +17313,7 @@
       </c>
       <c r="G5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -17296,51 +17335,51 @@
       </c>
       <c r="G6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>1020</v>
+        <v>82</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="10">
-        <v>44902</v>
+        <v>44904</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1021</v>
+        <v>1089</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>1023</v>
+        <v>1030</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>82</v>
+        <v>1031</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="10">
-        <v>44904</v>
+        <v>44914</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -17348,13 +17387,13 @@
         <v>1032</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1092</v>
+        <v>1033</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="10">
@@ -17362,51 +17401,51 @@
       </c>
       <c r="G9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>1035</v>
+        <v>1059</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1036</v>
+        <v>1060</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1033</v>
+        <v>259</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1034</v>
+        <v>262</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="10">
-        <v>44914</v>
+        <v>44942</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>131</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>1062</v>
+        <v>1071</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1063</v>
+        <v>1072</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>259</v>
+        <v>25</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>262</v>
+        <v>28</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="10">
-        <v>44942</v>
+        <v>44958</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -17417,14 +17456,14 @@
         <v>1075</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="10">
-        <v>44958</v>
+        <v>44959</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" ca="1" si="0"/>
@@ -17433,90 +17472,90 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>1077</v>
+        <v>1084</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1078</v>
+        <v>1087</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>120</v>
+        <v>1086</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>121</v>
+        <v>1085</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="10">
-        <v>44959</v>
+        <v>45008</v>
       </c>
       <c r="G13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>1087</v>
+        <v>1092</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1090</v>
+        <v>1095</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>1089</v>
+        <v>1093</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1088</v>
+        <v>1094</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="10">
-        <v>45008</v>
+        <v>45013</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>1098</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>1097</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="10">
-        <v>45013</v>
+        <v>45018</v>
       </c>
       <c r="G15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>1102</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>1100</v>
-      </c>
       <c r="D16" s="7" t="s">
-        <v>1101</v>
+        <v>344</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="10">
-        <v>45018</v>
+        <v>45021</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -17524,131 +17563,109 @@
         <v>1103</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>1104</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>1105</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="10">
         <v>45021</v>
       </c>
       <c r="G17" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <f t="shared" ref="G17:G20" ca="1" si="1">TODAY()-F17</f>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>1109</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>1107</v>
-      </c>
       <c r="D18" s="7" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="10">
-        <v>45021</v>
+        <v>45023</v>
       </c>
       <c r="G18" s="12">
-        <f t="shared" ref="G18:G21" ca="1" si="1">TODAY()-F18</f>
-        <v>24</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>1110</v>
+        <v>1115</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1111</v>
+        <v>1116</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>1112</v>
+        <v>1117</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>1113</v>
+        <v>1118</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="10">
-        <v>45023</v>
+        <v>45037</v>
       </c>
       <c r="G19" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>1120</v>
+        <v>1104</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>1121</v>
+        <v>1105</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="10">
-        <v>45037</v>
+        <v>45043</v>
       </c>
       <c r="G20" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>1122</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>1123</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>1107</v>
-      </c>
       <c r="D21" s="7" t="s">
-        <v>1108</v>
+        <v>1124</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="10">
         <v>45043</v>
       </c>
       <c r="G21" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="10">
-        <v>45043</v>
-      </c>
-      <c r="G22" s="12">
-        <f t="shared" ref="G22" ca="1" si="2">TODAY()-F22</f>
-        <v>2</v>
+        <f t="shared" ref="G21" ca="1" si="2">TODAY()-F21</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -17713,7 +17730,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>7.4986301369863018</v>
+        <v>7.5013698630136982</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -17734,7 +17751,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4986301369863018</v>
+        <v>7.5013698630136982</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -17755,7 +17772,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8767123287671232</v>
+        <v>6.8794520547945206</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -17776,7 +17793,7 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>5.2465753424657535</v>
+        <v>5.2493150684931509</v>
       </c>
     </row>
   </sheetData>
@@ -17831,133 +17848,133 @@
     </row>
     <row r="2" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B2" s="52" t="s">
         <v>175</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E2" s="53" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>1041</v>
+      </c>
+      <c r="I2" s="53" t="s">
         <v>1042</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>1041</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>1043</v>
-      </c>
-      <c r="H2" s="53" t="s">
-        <v>1044</v>
-      </c>
-      <c r="I2" s="53" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="I4" s="48" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="H6" s="48" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="G8" s="48" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
   </sheetData>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="papers" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2708" uniqueCount="1126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2712" uniqueCount="1126">
   <si>
     <t>title</t>
   </si>
@@ -3396,13 +3396,13 @@
     <t>Devleesschauwer, Brecht; Willem, Lander; Jurčević, Jure; Smith, Pierre; Scohy, Aline; Wyper, Grant; Pires, Sara Monteiro; Van Goethem, Nina; Beutels, Philippe; Franco, Nicolas; Abrams, Steven; Van Cauteren, Dieter; Speybroeck, Niko; Hens, Niel; De Pauw, Robby</t>
   </si>
   <si>
-    <t>The Lancet Regional Health - Europe</t>
-  </si>
-  <si>
-    <t>Lancet Reg. Health Eur.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Certainty of the Global Burden of Disease 2019 modelled prevalence estimates for musculoskeletal conditions: a meta-epidemiological study </t>
+  </si>
+  <si>
+    <t>The impact of the COVID-19 pandemic on delayed care of cardiovascular diseases in Europe: a systematic review</t>
+  </si>
+  <si>
+    <t>Khan, Yasmine Patricia; Verhaeghe, Nick; Devleesschauwer, Brecht; Cavillot, Lisa; Gadeyne, Sylvie; Pauwels, Nele S; Van den Borre, Laura; De Smedt, Delphine</t>
   </si>
 </sst>
 </file>
@@ -3710,6 +3710,169 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -3949,169 +4112,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -4126,74 +4126,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U224" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U224" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="A1:U224"/>
   <sortState ref="A2:U223">
     <sortCondition ref="K1:K223"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" name="title" dataDxfId="75"/>
-    <tableColumn id="2" name="authors" dataDxfId="74"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="73"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="72"/>
-    <tableColumn id="6" name="year" dataDxfId="71"/>
-    <tableColumn id="4" name="volume" dataDxfId="70"/>
-    <tableColumn id="5" name="issue" dataDxfId="69"/>
-    <tableColumn id="7" name="eID" dataDxfId="68"/>
-    <tableColumn id="8" name="from" dataDxfId="67"/>
-    <tableColumn id="9" name="to" dataDxfId="66"/>
-    <tableColumn id="10" name="date" dataDxfId="65"/>
-    <tableColumn id="14" name="classification" dataDxfId="64"/>
-    <tableColumn id="12" name="IF" dataDxfId="63"/>
-    <tableColumn id="13" name="DOI" dataDxfId="62"/>
-    <tableColumn id="15" name="WoS" dataDxfId="61"/>
-    <tableColumn id="16" name="rank" dataDxfId="60"/>
-    <tableColumn id="17" name="quartile" dataDxfId="59"/>
-    <tableColumn id="18" name="category" dataDxfId="58"/>
-    <tableColumn id="19" name="CBRA" dataDxfId="57"/>
-    <tableColumn id="20" name="SC" dataDxfId="56"/>
-    <tableColumn id="21" name="UGent" dataDxfId="55"/>
+    <tableColumn id="1" name="title" dataDxfId="51"/>
+    <tableColumn id="2" name="authors" dataDxfId="50"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="49"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="48"/>
+    <tableColumn id="6" name="year" dataDxfId="47"/>
+    <tableColumn id="4" name="volume" dataDxfId="46"/>
+    <tableColumn id="5" name="issue" dataDxfId="45"/>
+    <tableColumn id="7" name="eID" dataDxfId="44"/>
+    <tableColumn id="8" name="from" dataDxfId="43"/>
+    <tableColumn id="9" name="to" dataDxfId="42"/>
+    <tableColumn id="10" name="date" dataDxfId="41"/>
+    <tableColumn id="14" name="classification" dataDxfId="40"/>
+    <tableColumn id="12" name="IF" dataDxfId="39"/>
+    <tableColumn id="13" name="DOI" dataDxfId="38"/>
+    <tableColumn id="15" name="WoS" dataDxfId="37"/>
+    <tableColumn id="16" name="rank" dataDxfId="36"/>
+    <tableColumn id="17" name="quartile" dataDxfId="35"/>
+    <tableColumn id="18" name="category" dataDxfId="34"/>
+    <tableColumn id="19" name="CBRA" dataDxfId="33"/>
+    <tableColumn id="20" name="SC" dataDxfId="32"/>
+    <tableColumn id="21" name="UGent" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J11" totalsRowShown="0" headerRowDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J11" totalsRowShown="0" headerRowDxfId="30">
   <autoFilter ref="A1:J11"/>
   <sortState ref="A2:N50">
     <sortCondition ref="H1:H50"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="title" dataDxfId="53"/>
-    <tableColumn id="2" name="authors" dataDxfId="52"/>
-    <tableColumn id="3" name="editors" dataDxfId="51"/>
-    <tableColumn id="11" name="book" dataDxfId="50"/>
-    <tableColumn id="6" name="year" dataDxfId="49"/>
-    <tableColumn id="8" name="from" dataDxfId="48"/>
-    <tableColumn id="9" name="to" dataDxfId="47"/>
-    <tableColumn id="10" name="date" dataDxfId="46"/>
-    <tableColumn id="12" name="IF" dataDxfId="45"/>
-    <tableColumn id="13" name="DOI" dataDxfId="44"/>
+    <tableColumn id="1" name="title" dataDxfId="29"/>
+    <tableColumn id="2" name="authors" dataDxfId="28"/>
+    <tableColumn id="3" name="editors" dataDxfId="27"/>
+    <tableColumn id="11" name="book" dataDxfId="26"/>
+    <tableColumn id="6" name="year" dataDxfId="25"/>
+    <tableColumn id="8" name="from" dataDxfId="24"/>
+    <tableColumn id="9" name="to" dataDxfId="23"/>
+    <tableColumn id="10" name="date" dataDxfId="22"/>
+    <tableColumn id="12" name="IF" dataDxfId="21"/>
+    <tableColumn id="13" name="DOI" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G21" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:G21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G22" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:G22"/>
   <sortState ref="A2:G17">
     <sortCondition ref="F1:F17"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="title" dataDxfId="41"/>
-    <tableColumn id="2" name="authors" dataDxfId="40"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="39"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="38"/>
-    <tableColumn id="4" name="doi_preprint" dataDxfId="37"/>
-    <tableColumn id="10" name="date" dataDxfId="36"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="35">
+    <tableColumn id="1" name="title" dataDxfId="17"/>
+    <tableColumn id="2" name="authors" dataDxfId="16"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="15"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="14"/>
+    <tableColumn id="4" name="doi_preprint" dataDxfId="13"/>
+    <tableColumn id="10" name="date" dataDxfId="12"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="11">
       <calculatedColumnFormula>TODAY()-F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4202,18 +4202,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:F5"/>
   <sortState ref="A2:K14">
     <sortCondition ref="E1:E14"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="title" dataDxfId="32"/>
-    <tableColumn id="2" name="authors" dataDxfId="31"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="30"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="29"/>
-    <tableColumn id="10" name="date" dataDxfId="28"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="27">
+    <tableColumn id="1" name="title" dataDxfId="8"/>
+    <tableColumn id="2" name="authors" dataDxfId="7"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="6"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="5"/>
+    <tableColumn id="10" name="date" dataDxfId="4"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="3">
       <calculatedColumnFormula>(TODAY()-E2)/365</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4510,7 +4510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A188" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A224" sqref="A224"/>
     </sheetView>
   </sheetViews>
@@ -16680,7 +16680,7 @@
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A224" s="13" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B224" s="13" t="s">
         <v>1014</v>
@@ -16727,98 +16727,98 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="S1:U112 S114:U122 S124:U125 S127:U134 U126 S148:U175 S136:U146 S177:U179 S182:U188 S190:U205 S207:U1048576">
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="25" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="26" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T113:U113">
-    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="23" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="24" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S113">
-    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="21" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="22" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S123:U123">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="19" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="20" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S126:T126">
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="17" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="18" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S135:U135">
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="15" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="16" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S147:U147">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="13" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="14" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S176:U176">
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="11" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="12" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S181:U181">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="7" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="8" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S189:U189">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="5" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="6" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S206:U206">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S180:U180">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17190,9 +17190,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17245,7 +17247,7 @@
       </c>
       <c r="G2" s="12">
         <f t="shared" ref="G2:G16" ca="1" si="0">TODAY()-F2</f>
-        <v>312</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -17269,7 +17271,7 @@
       </c>
       <c r="G3" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>277</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -17291,7 +17293,7 @@
       </c>
       <c r="G4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>243</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -17313,7 +17315,7 @@
       </c>
       <c r="G5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>214</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -17335,7 +17337,7 @@
       </c>
       <c r="G6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -17357,7 +17359,7 @@
       </c>
       <c r="G7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -17379,7 +17381,7 @@
       </c>
       <c r="G8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -17401,7 +17403,7 @@
       </c>
       <c r="G9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -17423,7 +17425,7 @@
       </c>
       <c r="G10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -17445,7 +17447,7 @@
       </c>
       <c r="G11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -17467,7 +17469,7 @@
       </c>
       <c r="G12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -17489,7 +17491,7 @@
       </c>
       <c r="G13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -17511,7 +17513,7 @@
       </c>
       <c r="G14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -17533,7 +17535,7 @@
       </c>
       <c r="G15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -17555,7 +17557,7 @@
       </c>
       <c r="G16" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -17577,7 +17579,7 @@
       </c>
       <c r="G17" s="12">
         <f t="shared" ref="G17:G20" ca="1" si="1">TODAY()-F17</f>
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -17599,7 +17601,7 @@
       </c>
       <c r="G18" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -17621,7 +17623,7 @@
       </c>
       <c r="G19" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -17643,7 +17645,7 @@
       </c>
       <c r="G20" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -17654,10 +17656,10 @@
         <v>1122</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>1123</v>
+        <v>89</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>1124</v>
+        <v>89</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="10">
@@ -17665,7 +17667,29 @@
       </c>
       <c r="G21" s="12">
         <f t="shared" ref="G21" ca="1" si="2">TODAY()-F21</f>
-        <v>3</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="10">
+        <v>45057</v>
+      </c>
+      <c r="G22" s="12">
+        <f t="shared" ref="G22" ca="1" si="3">TODAY()-F22</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -17730,7 +17754,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>7.5013698630136982</v>
+        <v>7.5315068493150683</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -17751,7 +17775,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5013698630136982</v>
+        <v>7.5315068493150683</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -17772,7 +17796,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8794520547945206</v>
+        <v>6.9095890410958907</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -17793,7 +17817,7 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>5.2493150684931509</v>
+        <v>5.279452054794521</v>
       </c>
     </row>
   </sheetData>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2712" uniqueCount="1126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2726" uniqueCount="1138">
   <si>
     <t>title</t>
   </si>
@@ -3403,6 +3403,42 @@
   </si>
   <si>
     <t>Khan, Yasmine Patricia; Verhaeghe, Nick; Devleesschauwer, Brecht; Cavillot, Lisa; Gadeyne, Sylvie; Pauwels, Nele S; Van den Borre, Laura; De Smedt, Delphine</t>
+  </si>
+  <si>
+    <t>COVID-19 pandemic response in the Meuse-Rhine Euroregion: methods, participation and recommendations of a longitudinal cross-border study</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13690-023-01102-6</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/37179369/</t>
+  </si>
+  <si>
+    <t>Prevalence of drug use before and during imprisonment in seven European countries (2014-2018)</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/jcop.23053</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/37172289/</t>
+  </si>
+  <si>
+    <t>Eur. Heart J. Qual. Care Clin. Outcomes</t>
+  </si>
+  <si>
+    <t>European Heart Journal. Quality of Care &amp; Clinical Outcomes</t>
+  </si>
+  <si>
+    <t>Inequalities in the burden of non-communicable diseases across European countries: a systematic analysis of the Global Burden of Disease 2019 study</t>
+  </si>
+  <si>
+    <t>International Journal for Equity in Health</t>
+  </si>
+  <si>
+    <t>Int. J. Equity Health</t>
+  </si>
+  <si>
+    <t>Andrade, Carlos Alexandre Soares; Mahrouseh, Nour; Gabrani, Jonila; Charalampous, Periklis; Cuschieri, Sarah; Grad, Diana Alecsandra; Unim, Brigid; Mechili, Enkeleint A.; Chen-Xu, José; Devleesschauwer, Brecht; Isola, Gaetano; von der Lippe, Elena; Baravelli, Carl Michael; Fischer, Florian; Weye, Nanna; Balaj, Mirza; Haneef, Romana; Economou, Mary; Haagsma, Juanita A.; Varga, Orsolya</t>
   </si>
 </sst>
 </file>
@@ -4181,8 +4217,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G22" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:G22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G23" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:G23"/>
   <sortState ref="A2:G17">
     <sortCondition ref="F1:F17"/>
   </sortState>
@@ -17190,11 +17226,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17247,7 +17281,7 @@
       </c>
       <c r="G2" s="12">
         <f t="shared" ref="G2:G16" ca="1" si="0">TODAY()-F2</f>
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -17271,7 +17305,7 @@
       </c>
       <c r="G3" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -17293,7 +17327,7 @@
       </c>
       <c r="G4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -17315,7 +17349,7 @@
       </c>
       <c r="G5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -17337,7 +17371,7 @@
       </c>
       <c r="G6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -17359,7 +17393,7 @@
       </c>
       <c r="G7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -17381,7 +17415,7 @@
       </c>
       <c r="G8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -17403,7 +17437,7 @@
       </c>
       <c r="G9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -17425,7 +17459,7 @@
       </c>
       <c r="G10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -17447,7 +17481,7 @@
       </c>
       <c r="G11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -17469,7 +17503,7 @@
       </c>
       <c r="G12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -17491,7 +17525,7 @@
       </c>
       <c r="G13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -17513,7 +17547,7 @@
       </c>
       <c r="G14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -17535,7 +17569,7 @@
       </c>
       <c r="G15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -17557,7 +17591,7 @@
       </c>
       <c r="G16" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -17579,7 +17613,7 @@
       </c>
       <c r="G17" s="12">
         <f t="shared" ref="G17:G20" ca="1" si="1">TODAY()-F17</f>
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -17601,7 +17635,7 @@
       </c>
       <c r="G18" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -17623,7 +17657,7 @@
       </c>
       <c r="G19" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -17645,7 +17679,7 @@
       </c>
       <c r="G20" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -17667,7 +17701,7 @@
       </c>
       <c r="G21" s="12">
         <f t="shared" ref="G21" ca="1" si="2">TODAY()-F21</f>
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -17678,17 +17712,39 @@
         <v>1125</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>775</v>
+        <v>1133</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>776</v>
+        <v>1132</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="10">
-        <v>45057</v>
+        <v>45061</v>
       </c>
       <c r="G22" s="12">
         <f t="shared" ref="G22" ca="1" si="3">TODAY()-F22</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="10">
+        <v>45063</v>
+      </c>
+      <c r="G23" s="12">
+        <f t="shared" ref="G23" ca="1" si="4">TODAY()-F23</f>
         <v>0</v>
       </c>
     </row>
@@ -17754,7 +17810,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>7.5315068493150683</v>
+        <v>7.5479452054794525</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -17775,7 +17831,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5315068493150683</v>
+        <v>7.5479452054794525</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -17796,7 +17852,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9095890410958907</v>
+        <v>6.9260273972602739</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -17817,7 +17873,7 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>5.279452054794521</v>
+        <v>5.2958904109589042</v>
       </c>
     </row>
   </sheetData>
@@ -17830,10 +17886,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17847,7 +17903,7 @@
     <row r="1" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E1" s="50">
         <f>COUNTA(E3:E998)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="50">
         <f>COUNTA(F3:F998)</f>
@@ -17855,7 +17911,7 @@
       </c>
       <c r="G1" s="50">
         <f>COUNTA(G3:G998)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1" s="50">
         <f>COUNTA(H3:H998)</f>
@@ -17867,7 +17923,7 @@
       </c>
       <c r="J1" s="51">
         <f>SUM(E1:I1)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -17998,6 +18054,40 @@
         <v>1052</v>
       </c>
       <c r="G8" s="48" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G10" s="48" t="s">
         <v>1043</v>
       </c>
     </row>
@@ -18028,8 +18118,12 @@
     <hyperlink ref="C7" r:id="rId10"/>
     <hyperlink ref="B8" r:id="rId11"/>
     <hyperlink ref="C8" r:id="rId12"/>
+    <hyperlink ref="B9" r:id="rId13"/>
+    <hyperlink ref="C9" r:id="rId14"/>
+    <hyperlink ref="B10" r:id="rId15"/>
+    <hyperlink ref="C10" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/publications.xlsx
+++ b/publications.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="papers" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2726" uniqueCount="1138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="1140">
   <si>
     <t>title</t>
   </si>
@@ -3439,6 +3439,12 @@
   </si>
   <si>
     <t>Andrade, Carlos Alexandre Soares; Mahrouseh, Nour; Gabrani, Jonila; Charalampous, Periklis; Cuschieri, Sarah; Grad, Diana Alecsandra; Unim, Brigid; Mechili, Enkeleint A.; Chen-Xu, José; Devleesschauwer, Brecht; Isola, Gaetano; von der Lippe, Elena; Baravelli, Carl Michael; Fischer, Florian; Weye, Nanna; Balaj, Mirza; Haneef, Romana; Economou, Mary; Haagsma, Juanita A.; Varga, Orsolya</t>
+  </si>
+  <si>
+    <t>e069355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1136/bmjopen-2022-069355 </t>
   </si>
 </sst>
 </file>
@@ -4164,8 +4170,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U224" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="A1:U224"/>
-  <sortState ref="A2:U223">
-    <sortCondition ref="K1:K223"/>
+  <sortState ref="A2:U224">
+    <sortCondition ref="K1:K224"/>
   </sortState>
   <tableColumns count="21">
     <tableColumn id="1" name="title" dataDxfId="51"/>
@@ -4546,7 +4552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U224"/>
   <sheetViews>
-    <sheetView topLeftCell="A188" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A224" sqref="A224"/>
     </sheetView>
   </sheetViews>
@@ -16570,66 +16576,68 @@
       </c>
     </row>
     <row r="221" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A221" s="13" t="s">
-        <v>985</v>
-      </c>
-      <c r="B221" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C221" s="13" t="s">
-        <v>987</v>
-      </c>
-      <c r="D221" s="13" t="s">
-        <v>988</v>
-      </c>
-      <c r="E221" s="14">
+      <c r="A221" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="D221" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="E221" s="18">
         <v>2023</v>
       </c>
-      <c r="F221" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G221" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H221" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I221" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J221" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K221" s="31">
-        <v>45292</v>
-      </c>
-      <c r="L221" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="M221" s="45"/>
-      <c r="N221" s="44" t="s">
-        <v>992</v>
-      </c>
-      <c r="O221" s="27"/>
+      <c r="F221" s="18">
+        <v>13</v>
+      </c>
+      <c r="G221" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H221" s="18" t="s">
+        <v>1138</v>
+      </c>
+      <c r="I221" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J221" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K221" s="42">
+        <v>45064</v>
+      </c>
+      <c r="L221" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="M221" s="11"/>
+      <c r="N221" s="19" t="s">
+        <v>1139</v>
+      </c>
+      <c r="O221" s="7"/>
       <c r="P221" s="24"/>
       <c r="Q221" s="25"/>
       <c r="R221" s="7"/>
       <c r="S221" s="7"/>
       <c r="T221" s="7"/>
-      <c r="U221" s="7"/>
+      <c r="U221" s="7" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222" s="13" t="s">
-        <v>1015</v>
+        <v>985</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>1088</v>
+        <v>986</v>
       </c>
       <c r="C222" s="13" t="s">
-        <v>1016</v>
+        <v>987</v>
       </c>
       <c r="D222" s="13" t="s">
-        <v>1017</v>
+        <v>988</v>
       </c>
       <c r="E222" s="14">
         <v>2023</v>
@@ -16650,14 +16658,14 @@
         <v>14</v>
       </c>
       <c r="K222" s="31">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="L222" s="31" t="s">
         <v>273</v>
       </c>
       <c r="M222" s="45"/>
       <c r="N222" s="44" t="s">
-        <v>1114</v>
+        <v>992</v>
       </c>
       <c r="O222" s="27"/>
       <c r="P222" s="24"/>
@@ -16669,16 +16677,16 @@
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A223" s="13" t="s">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>1001</v>
+        <v>1088</v>
       </c>
       <c r="C223" s="13" t="s">
-        <v>724</v>
+        <v>1016</v>
       </c>
       <c r="D223" s="13" t="s">
-        <v>724</v>
+        <v>1017</v>
       </c>
       <c r="E223" s="14">
         <v>2023</v>
@@ -16699,13 +16707,15 @@
         <v>14</v>
       </c>
       <c r="K223" s="31">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="L223" s="31" t="s">
         <v>273</v>
       </c>
       <c r="M223" s="45"/>
-      <c r="N223" s="44"/>
+      <c r="N223" s="44" t="s">
+        <v>1114</v>
+      </c>
       <c r="O223" s="27"/>
       <c r="P223" s="24"/>
       <c r="Q223" s="25"/>
@@ -17228,7 +17238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17281,7 +17291,7 @@
       </c>
       <c r="G2" s="12">
         <f t="shared" ref="G2:G16" ca="1" si="0">TODAY()-F2</f>
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -17305,7 +17315,7 @@
       </c>
       <c r="G3" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -17327,7 +17337,7 @@
       </c>
       <c r="G4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -17349,7 +17359,7 @@
       </c>
       <c r="G5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -17371,7 +17381,7 @@
       </c>
       <c r="G6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -17393,7 +17403,7 @@
       </c>
       <c r="G7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -17415,7 +17425,7 @@
       </c>
       <c r="G8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -17437,7 +17447,7 @@
       </c>
       <c r="G9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -17459,7 +17469,7 @@
       </c>
       <c r="G10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -17481,7 +17491,7 @@
       </c>
       <c r="G11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -17503,7 +17513,7 @@
       </c>
       <c r="G12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -17525,7 +17535,7 @@
       </c>
       <c r="G13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -17547,7 +17557,7 @@
       </c>
       <c r="G14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -17569,7 +17579,7 @@
       </c>
       <c r="G15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -17591,7 +17601,7 @@
       </c>
       <c r="G16" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -17613,7 +17623,7 @@
       </c>
       <c r="G17" s="12">
         <f t="shared" ref="G17:G20" ca="1" si="1">TODAY()-F17</f>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -17635,7 +17645,7 @@
       </c>
       <c r="G18" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -17657,7 +17667,7 @@
       </c>
       <c r="G19" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -17679,7 +17689,7 @@
       </c>
       <c r="G20" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -17701,7 +17711,7 @@
       </c>
       <c r="G21" s="12">
         <f t="shared" ref="G21" ca="1" si="2">TODAY()-F21</f>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -17723,7 +17733,7 @@
       </c>
       <c r="G22" s="12">
         <f t="shared" ref="G22" ca="1" si="3">TODAY()-F22</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -17745,7 +17755,7 @@
       </c>
       <c r="G23" s="12">
         <f t="shared" ref="G23" ca="1" si="4">TODAY()-F23</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -17810,7 +17820,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>7.5479452054794525</v>
+        <v>7.5534246575342463</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -17831,7 +17841,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5479452054794525</v>
+        <v>7.5534246575342463</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -17852,7 +17862,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9260273972602739</v>
+        <v>6.9315068493150687</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -17873,7 +17883,7 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>5.2958904109589042</v>
+        <v>5.3013698630136989</v>
       </c>
     </row>
   </sheetData>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="1140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2739" uniqueCount="1147">
   <si>
     <t>title</t>
   </si>
@@ -3445,6 +3445,27 @@
   </si>
   <si>
     <t xml:space="preserve">10.1136/bmjopen-2022-069355 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What does it take to create a European Health Data Space? International commitments and national realities </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.zefq.2023.03.011</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/37208272/</t>
+  </si>
+  <si>
+    <t>10.3389/ijph.2023.1605763</t>
+  </si>
+  <si>
+    <t>rs-2952989/v1</t>
+  </si>
+  <si>
+    <t>Investigating years of life lost in Belgium, 2004–2019: A comprehensive analysis using a probabilistic redistribution approach</t>
+  </si>
+  <si>
+    <t>Devleesschauwer, Brecht; Scohy, Aline; De Pauw, Robby; Gorasso, Vanessa; Kongs, Anne; Neirynck, Elias; Verduyckt, Peter; Wyper, Grant M A; Van den Borre, Laura</t>
   </si>
 </sst>
 </file>
@@ -4223,8 +4244,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G23" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:G23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G24" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:G24"/>
   <sortState ref="A2:G17">
     <sortCondition ref="F1:F17"/>
   </sortState>
@@ -4553,7 +4574,7 @@
   <dimension ref="A1:U224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A188" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A224" sqref="A224"/>
+      <selection activeCell="A222" sqref="A222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16595,7 +16616,7 @@
         <v>13</v>
       </c>
       <c r="G221" s="19" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="H221" s="18" t="s">
         <v>1138</v>
@@ -16621,72 +16642,78 @@
       <c r="Q221" s="25"/>
       <c r="R221" s="7"/>
       <c r="S221" s="7"/>
-      <c r="T221" s="7"/>
+      <c r="T221" s="7" t="s">
+        <v>604</v>
+      </c>
       <c r="U221" s="7" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A222" s="13" t="s">
-        <v>985</v>
-      </c>
-      <c r="B222" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C222" s="13" t="s">
-        <v>987</v>
-      </c>
-      <c r="D222" s="13" t="s">
-        <v>988</v>
-      </c>
-      <c r="E222" s="14">
+      <c r="A222" s="7" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D222" s="7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E222" s="18">
         <v>2023</v>
       </c>
-      <c r="F222" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G222" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H222" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I222" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J222" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K222" s="31">
-        <v>45292</v>
-      </c>
-      <c r="L222" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="M222" s="45"/>
-      <c r="N222" s="44" t="s">
-        <v>992</v>
-      </c>
-      <c r="O222" s="27"/>
+      <c r="F222" s="18">
+        <v>45</v>
+      </c>
+      <c r="G222" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H222" s="18">
+        <v>100587</v>
+      </c>
+      <c r="I222" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J222" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K222" s="42">
+        <v>45078</v>
+      </c>
+      <c r="L222" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="M222" s="11"/>
+      <c r="N222" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="O222" s="7"/>
       <c r="P222" s="24"/>
       <c r="Q222" s="25"/>
       <c r="R222" s="7"/>
       <c r="S222" s="7"/>
-      <c r="T222" s="7"/>
-      <c r="U222" s="7"/>
+      <c r="T222" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="U222" s="7" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A223" s="13" t="s">
-        <v>1015</v>
+        <v>985</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>1088</v>
+        <v>986</v>
       </c>
       <c r="C223" s="13" t="s">
-        <v>1016</v>
+        <v>987</v>
       </c>
       <c r="D223" s="13" t="s">
-        <v>1017</v>
+        <v>988</v>
       </c>
       <c r="E223" s="14">
         <v>2023</v>
@@ -16707,14 +16734,14 @@
         <v>14</v>
       </c>
       <c r="K223" s="31">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="L223" s="31" t="s">
         <v>273</v>
       </c>
       <c r="M223" s="45"/>
       <c r="N223" s="44" t="s">
-        <v>1114</v>
+        <v>992</v>
       </c>
       <c r="O223" s="27"/>
       <c r="P223" s="24"/>
@@ -16762,7 +16789,9 @@
         <v>273</v>
       </c>
       <c r="M224" s="45"/>
-      <c r="N224" s="44"/>
+      <c r="N224" s="44" t="s">
+        <v>1143</v>
+      </c>
       <c r="O224" s="27"/>
       <c r="P224" s="24"/>
       <c r="Q224" s="25"/>
@@ -17236,9 +17265,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17291,7 +17322,7 @@
       </c>
       <c r="G2" s="12">
         <f t="shared" ref="G2:G16" ca="1" si="0">TODAY()-F2</f>
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -17315,7 +17346,7 @@
       </c>
       <c r="G3" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -17337,7 +17368,7 @@
       </c>
       <c r="G4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -17359,7 +17390,7 @@
       </c>
       <c r="G5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -17381,7 +17412,7 @@
       </c>
       <c r="G6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>182</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -17403,7 +17434,7 @@
       </c>
       <c r="G7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -17425,7 +17456,7 @@
       </c>
       <c r="G8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -17447,7 +17478,7 @@
       </c>
       <c r="G9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -17469,7 +17500,7 @@
       </c>
       <c r="G10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -17491,7 +17522,7 @@
       </c>
       <c r="G11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -17513,7 +17544,7 @@
       </c>
       <c r="G12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -17535,7 +17566,7 @@
       </c>
       <c r="G13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -17557,7 +17588,7 @@
       </c>
       <c r="G14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -17579,7 +17610,7 @@
       </c>
       <c r="G15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -17601,7 +17632,7 @@
       </c>
       <c r="G16" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -17623,7 +17654,7 @@
       </c>
       <c r="G17" s="12">
         <f t="shared" ref="G17:G20" ca="1" si="1">TODAY()-F17</f>
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -17645,7 +17676,7 @@
       </c>
       <c r="G18" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -17667,7 +17698,7 @@
       </c>
       <c r="G19" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -17689,7 +17720,7 @@
       </c>
       <c r="G20" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -17711,7 +17742,7 @@
       </c>
       <c r="G21" s="12">
         <f t="shared" ref="G21" ca="1" si="2">TODAY()-F21</f>
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -17733,7 +17764,7 @@
       </c>
       <c r="G22" s="12">
         <f t="shared" ref="G22" ca="1" si="3">TODAY()-F22</f>
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -17754,8 +17785,32 @@
         <v>45063</v>
       </c>
       <c r="G23" s="12">
-        <f t="shared" ref="G23" ca="1" si="4">TODAY()-F23</f>
-        <v>2</v>
+        <f t="shared" ref="G23:G24" ca="1" si="4">TODAY()-F23</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F24" s="10">
+        <v>45064</v>
+      </c>
+      <c r="G24" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -17820,7 +17875,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>7.5534246575342463</v>
+        <v>7.5780821917808217</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -17841,7 +17896,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5534246575342463</v>
+        <v>7.5780821917808217</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -17862,7 +17917,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9315068493150687</v>
+        <v>6.956164383561644</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -17883,7 +17938,7 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>5.3013698630136989</v>
+        <v>5.3260273972602743</v>
       </c>
     </row>
   </sheetData>
@@ -17896,10 +17951,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17929,11 +17984,11 @@
       </c>
       <c r="I1" s="50">
         <f>COUNTA(I3:I998)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1" s="51">
         <f>SUM(E1:I1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -18098,6 +18153,23 @@
         <v>1052</v>
       </c>
       <c r="G10" s="48" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I11" s="48" t="s">
         <v>1043</v>
       </c>
     </row>
@@ -18132,8 +18204,10 @@
     <hyperlink ref="C9" r:id="rId14"/>
     <hyperlink ref="B10" r:id="rId15"/>
     <hyperlink ref="C10" r:id="rId16"/>
+    <hyperlink ref="B11" r:id="rId17"/>
+    <hyperlink ref="C11" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/publications.xlsx
+++ b/publications.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="papers" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2739" uniqueCount="1147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2775" uniqueCount="1162">
   <si>
     <t>title</t>
   </si>
@@ -3138,9 +3138,6 @@
     <t>e0010468</t>
   </si>
   <si>
-    <t xml:space="preserve"> Self-uniqueness beliefs and adherence to recommended precautions. A 5-wave longitudinal COVID-19 study </t>
-  </si>
-  <si>
     <t>HIND</t>
   </si>
   <si>
@@ -3165,18 +3162,12 @@
     <t>https://pubmed.ncbi.nlm.nih.gov/36495770/</t>
   </si>
   <si>
-    <t xml:space="preserve"> Innovative Methods Used in Monitoring COVID-19 in Europe: A Multinational Study </t>
-  </si>
-  <si>
     <t>https://doi.org/10.3390/ijerph20010564</t>
   </si>
   <si>
     <t>https://pubmed.ncbi.nlm.nih.gov/36612884/</t>
   </si>
   <si>
-    <t xml:space="preserve"> Prevalence and factors associated with academic burnout risk among nursing and midwifery students during the COVID-19 pandemic: A cross-sectional study </t>
-  </si>
-  <si>
     <t>https://doi.org/10.1002/nop2.1575</t>
   </si>
   <si>
@@ -3210,9 +3201,6 @@
     <t>Nayani, Sarah; Castañares, Diego; De Pauw, Robby; Van Cauteren, Dieter; Demarest, Stefaan; Drieskens, Sabine; Cornelissen, Laura; Devleesschauwer, Brecht; De Ridder, Karin; Charafeddine, Rana; Smith, Pierre</t>
   </si>
   <si>
-    <t xml:space="preserve"> National Trends and Disparities in Retail Food Environments in the United States between 1990-2014</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1017/s1368980023000058</t>
   </si>
   <si>
@@ -3261,9 +3249,6 @@
     <t>Burden of disease among older adults in Europe-trends in mortality and disability, 1990-2019</t>
   </si>
   <si>
-    <t xml:space="preserve"> Product promotional strategies in supermarkets and their effects on sales: A case study of breakfast cereals and drinks in New Zealand </t>
-  </si>
-  <si>
     <t>https://doi.org/10.1111/1747-0080.12800</t>
   </si>
   <si>
@@ -3459,13 +3444,73 @@
     <t>10.3389/ijph.2023.1605763</t>
   </si>
   <si>
-    <t>rs-2952989/v1</t>
-  </si>
-  <si>
     <t>Investigating years of life lost in Belgium, 2004–2019: A comprehensive analysis using a probabilistic redistribution approach</t>
   </si>
   <si>
     <t>Devleesschauwer, Brecht; Scohy, Aline; De Pauw, Robby; Gorasso, Vanessa; Kongs, Anne; Neirynck, Elias; Verduyckt, Peter; Wyper, Grant M A; Van den Borre, Laura</t>
+  </si>
+  <si>
+    <t>10.21203/rs.3.rs-2952989/v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trends in adults' energy imbalance gaps over two decades in Belgium using system dynamics modelling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product promotional strategies in supermarkets and their effects on sales: A case study of breakfast cereals and drinks in New Zealand </t>
+  </si>
+  <si>
+    <t>National Trends and Disparities in Retail Food Environments in the United States between 1990-2014</t>
+  </si>
+  <si>
+    <t>Prevalence and factors associated with academic burnout risk among nursing and midwifery students during the COVID-19 pandemic: A cross-sectional study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Innovative Methods Used in Monitoring COVID-19 in Europe: A Multinational Study </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self-uniqueness beliefs and adherence to recommended precautions. A 5-wave longitudinal COVID-19 study </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s40795-023-00721-0</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/37245052/</t>
+  </si>
+  <si>
+    <t>Assessing European national health information systems in peer review format: lessons learnt</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/eurpub/ckad085</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/37263589/</t>
+  </si>
+  <si>
+    <t>Di Bari, Carlotta; Devleesschauwer, Brecht</t>
+  </si>
+  <si>
+    <t>Burden of Foodborne Diseases From Biological Hazards</t>
+  </si>
+  <si>
+    <t>10.1016/B978-0-12-822521-9.00221-5</t>
+  </si>
+  <si>
+    <t>The state of health in the European Union (EU-27) in 2019: A systematic analysis for the Global Burden of Disease Study 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMC Public Health </t>
+  </si>
+  <si>
+    <t>Gorasso, Vanessa; Vandevijvere, Stefanie; Heyden, Johan Van der; Pelgrims, Ingrid; Hilderink, Henk; Nusselder, Wilma; Demoury, Claire; Schmidt, Masja; Vansteelandt, Stijn; Smedt, Delphine De; Devleesschauwer, Brecht</t>
+  </si>
+  <si>
+    <t>Cancer Medicine</t>
+  </si>
+  <si>
+    <t>Cancer Med.</t>
+  </si>
+  <si>
+    <t>Santos, João Vasco, Devleesschauwer, Brecht</t>
   </si>
 </sst>
 </file>
@@ -3741,7 +3786,7 @@
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="80">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3771,169 +3816,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4175,6 +4057,189 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -4189,74 +4254,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U224" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
-  <autoFilter ref="A1:U224"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U226" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+  <autoFilter ref="A1:U226"/>
   <sortState ref="A2:U224">
     <sortCondition ref="K1:K224"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" name="title" dataDxfId="51"/>
-    <tableColumn id="2" name="authors" dataDxfId="50"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="49"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="48"/>
-    <tableColumn id="6" name="year" dataDxfId="47"/>
-    <tableColumn id="4" name="volume" dataDxfId="46"/>
-    <tableColumn id="5" name="issue" dataDxfId="45"/>
-    <tableColumn id="7" name="eID" dataDxfId="44"/>
-    <tableColumn id="8" name="from" dataDxfId="43"/>
-    <tableColumn id="9" name="to" dataDxfId="42"/>
-    <tableColumn id="10" name="date" dataDxfId="41"/>
-    <tableColumn id="14" name="classification" dataDxfId="40"/>
-    <tableColumn id="12" name="IF" dataDxfId="39"/>
-    <tableColumn id="13" name="DOI" dataDxfId="38"/>
-    <tableColumn id="15" name="WoS" dataDxfId="37"/>
-    <tableColumn id="16" name="rank" dataDxfId="36"/>
-    <tableColumn id="17" name="quartile" dataDxfId="35"/>
-    <tableColumn id="18" name="category" dataDxfId="34"/>
-    <tableColumn id="19" name="CBRA" dataDxfId="33"/>
-    <tableColumn id="20" name="SC" dataDxfId="32"/>
-    <tableColumn id="21" name="UGent" dataDxfId="31"/>
+    <tableColumn id="1" name="title" dataDxfId="77"/>
+    <tableColumn id="2" name="authors" dataDxfId="76"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="75"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="74"/>
+    <tableColumn id="6" name="year" dataDxfId="73"/>
+    <tableColumn id="4" name="volume" dataDxfId="72"/>
+    <tableColumn id="5" name="issue" dataDxfId="71"/>
+    <tableColumn id="7" name="eID" dataDxfId="70"/>
+    <tableColumn id="8" name="from" dataDxfId="69"/>
+    <tableColumn id="9" name="to" dataDxfId="68"/>
+    <tableColumn id="10" name="date" dataDxfId="67"/>
+    <tableColumn id="14" name="classification" dataDxfId="66"/>
+    <tableColumn id="12" name="IF" dataDxfId="65"/>
+    <tableColumn id="13" name="DOI" dataDxfId="64"/>
+    <tableColumn id="15" name="WoS" dataDxfId="63"/>
+    <tableColumn id="16" name="rank" dataDxfId="62"/>
+    <tableColumn id="17" name="quartile" dataDxfId="61"/>
+    <tableColumn id="18" name="category" dataDxfId="60"/>
+    <tableColumn id="19" name="CBRA" dataDxfId="59"/>
+    <tableColumn id="20" name="SC" dataDxfId="58"/>
+    <tableColumn id="21" name="UGent" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J11" totalsRowShown="0" headerRowDxfId="30">
-  <autoFilter ref="A1:J11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J12" totalsRowShown="0" headerRowDxfId="56">
+  <autoFilter ref="A1:J12"/>
   <sortState ref="A2:N50">
     <sortCondition ref="H1:H50"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="title" dataDxfId="29"/>
-    <tableColumn id="2" name="authors" dataDxfId="28"/>
-    <tableColumn id="3" name="editors" dataDxfId="27"/>
-    <tableColumn id="11" name="book" dataDxfId="26"/>
-    <tableColumn id="6" name="year" dataDxfId="25"/>
-    <tableColumn id="8" name="from" dataDxfId="24"/>
-    <tableColumn id="9" name="to" dataDxfId="23"/>
-    <tableColumn id="10" name="date" dataDxfId="22"/>
-    <tableColumn id="12" name="IF" dataDxfId="21"/>
-    <tableColumn id="13" name="DOI" dataDxfId="20"/>
+    <tableColumn id="1" name="title" dataDxfId="55"/>
+    <tableColumn id="2" name="authors" dataDxfId="54"/>
+    <tableColumn id="3" name="editors" dataDxfId="53"/>
+    <tableColumn id="11" name="book" dataDxfId="52"/>
+    <tableColumn id="6" name="year" dataDxfId="51"/>
+    <tableColumn id="8" name="from" dataDxfId="50"/>
+    <tableColumn id="9" name="to" dataDxfId="49"/>
+    <tableColumn id="10" name="date" dataDxfId="48"/>
+    <tableColumn id="12" name="IF" dataDxfId="47"/>
+    <tableColumn id="13" name="DOI" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G24" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:G24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G23" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+  <autoFilter ref="A1:G23"/>
   <sortState ref="A2:G17">
     <sortCondition ref="F1:F17"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="title" dataDxfId="17"/>
-    <tableColumn id="2" name="authors" dataDxfId="16"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="15"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="14"/>
-    <tableColumn id="4" name="doi_preprint" dataDxfId="13"/>
-    <tableColumn id="10" name="date" dataDxfId="12"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="11">
+    <tableColumn id="1" name="title" dataDxfId="43"/>
+    <tableColumn id="2" name="authors" dataDxfId="42"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="41"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="40"/>
+    <tableColumn id="4" name="doi_preprint" dataDxfId="39"/>
+    <tableColumn id="10" name="date" dataDxfId="38"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="37">
       <calculatedColumnFormula>TODAY()-F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4265,18 +4330,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A1:F5"/>
   <sortState ref="A2:K14">
     <sortCondition ref="E1:E14"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="title" dataDxfId="8"/>
-    <tableColumn id="2" name="authors" dataDxfId="7"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="6"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="5"/>
-    <tableColumn id="10" name="date" dataDxfId="4"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="3">
+    <tableColumn id="1" name="title" dataDxfId="34"/>
+    <tableColumn id="2" name="authors" dataDxfId="33"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="32"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="31"/>
+    <tableColumn id="10" name="date" dataDxfId="30"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="29">
       <calculatedColumnFormula>(TODAY()-E2)/365</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4571,10 +4636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U224"/>
+  <dimension ref="A1:U226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A222" sqref="A222"/>
+    <sheetView topLeftCell="A188" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A226" sqref="A226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16124,7 +16189,7 @@
         <v>1005</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>509</v>
@@ -16142,7 +16207,7 @@
         <v>14</v>
       </c>
       <c r="H212" s="18" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="I212" s="18" t="s">
         <v>14</v>
@@ -16158,7 +16223,7 @@
       </c>
       <c r="M212" s="11"/>
       <c r="N212" s="19" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="O212" s="7"/>
       <c r="P212" s="24"/>
@@ -16195,7 +16260,7 @@
         <v>101</v>
       </c>
       <c r="H213" s="18" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="I213" s="18" t="s">
         <v>14</v>
@@ -16211,7 +16276,7 @@
       </c>
       <c r="M213" s="11"/>
       <c r="N213" s="19" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="O213" s="7"/>
       <c r="P213" s="24"/>
@@ -16227,16 +16292,16 @@
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B214" s="7" t="s">
         <v>926</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E214" s="18">
         <v>2023</v>
@@ -16264,7 +16329,7 @@
       </c>
       <c r="M214" s="11"/>
       <c r="N214" s="19" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="O214" s="7"/>
       <c r="P214" s="24"/>
@@ -16280,7 +16345,7 @@
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="B215" s="7" t="s">
         <v>971</v>
@@ -16370,7 +16435,7 @@
       </c>
       <c r="M216" s="11"/>
       <c r="N216" s="19" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="O216" s="7"/>
       <c r="P216" s="24"/>
@@ -16439,7 +16504,7 @@
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="B218" s="7" t="s">
         <v>982</v>
@@ -16476,7 +16541,7 @@
       </c>
       <c r="M218" s="11"/>
       <c r="N218" s="19" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="O218" s="7"/>
       <c r="P218" s="24"/>
@@ -16492,7 +16557,7 @@
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="B219" s="7" t="s">
         <v>767</v>
@@ -16529,7 +16594,7 @@
       </c>
       <c r="M219" s="11"/>
       <c r="N219" s="19" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="O219" s="7"/>
       <c r="P219" s="24"/>
@@ -16582,7 +16647,7 @@
       </c>
       <c r="M220" s="11"/>
       <c r="N220" s="19" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="O220" s="7"/>
       <c r="P220" s="24"/>
@@ -16619,7 +16684,7 @@
         <v>92</v>
       </c>
       <c r="H221" s="18" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="I221" s="18" t="s">
         <v>14</v>
@@ -16635,7 +16700,7 @@
       </c>
       <c r="M221" s="11"/>
       <c r="N221" s="19" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="O221" s="7"/>
       <c r="P221" s="24"/>
@@ -16654,7 +16719,7 @@
         <v>1015</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="C222" s="7" t="s">
         <v>1016</v>
@@ -16688,7 +16753,7 @@
       </c>
       <c r="M222" s="11"/>
       <c r="N222" s="19" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="O222" s="7"/>
       <c r="P222" s="24"/>
@@ -16753,7 +16818,7 @@
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A224" s="13" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="B224" s="13" t="s">
         <v>1014</v>
@@ -16783,14 +16848,14 @@
         <v>14</v>
       </c>
       <c r="K224" s="31">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="L224" s="31" t="s">
         <v>273</v>
       </c>
       <c r="M224" s="45"/>
       <c r="N224" s="44" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="O224" s="27"/>
       <c r="P224" s="24"/>
@@ -16800,100 +16865,202 @@
       <c r="T224" s="7"/>
       <c r="U224" s="7"/>
     </row>
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A225" s="13" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B225" s="13" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C225" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D225" s="13" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E225" s="14">
+        <v>2023</v>
+      </c>
+      <c r="F225" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G225" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H225" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I225" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J225" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K225" s="31">
+        <v>45295</v>
+      </c>
+      <c r="L225" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="M225" s="45"/>
+      <c r="N225" s="44"/>
+      <c r="O225" s="27"/>
+      <c r="P225" s="24"/>
+      <c r="Q225" s="25"/>
+      <c r="R225" s="7"/>
+      <c r="S225" s="7"/>
+      <c r="T225" s="7"/>
+      <c r="U225" s="7"/>
+    </row>
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A226" s="13" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B226" s="13" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C226" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D226" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E226" s="14">
+        <v>2023</v>
+      </c>
+      <c r="F226" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G226" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H226" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I226" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J226" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K226" s="31">
+        <v>45294</v>
+      </c>
+      <c r="L226" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="M226" s="45"/>
+      <c r="N226" s="44"/>
+      <c r="O226" s="27"/>
+      <c r="P226" s="24"/>
+      <c r="Q226" s="25"/>
+      <c r="R226" s="7"/>
+      <c r="S226" s="7"/>
+      <c r="T226" s="7"/>
+      <c r="U226" s="7"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="S1:U112 S114:U122 S124:U125 S127:U134 U126 S148:U175 S136:U146 S177:U179 S182:U188 S190:U205 S207:U1048576">
-    <cfRule type="cellIs" dxfId="77" priority="25" operator="equal">
+  <conditionalFormatting sqref="S1:U112 S114:U122 S124:U125 S127:U134 U126 S148:U175 S136:U146 S177:U179 S182:U188 S190:U205 S207:U225 S227:U1048576">
+    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T113:U113">
-    <cfRule type="cellIs" dxfId="75" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S113">
-    <cfRule type="cellIs" dxfId="73" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S123:U123">
-    <cfRule type="cellIs" dxfId="71" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S126:T126">
-    <cfRule type="cellIs" dxfId="69" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S135:U135">
-    <cfRule type="cellIs" dxfId="67" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S147:U147">
-    <cfRule type="cellIs" dxfId="65" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S176:U176">
-    <cfRule type="cellIs" dxfId="63" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S181:U181">
-    <cfRule type="cellIs" dxfId="61" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S189:U189">
-    <cfRule type="cellIs" dxfId="59" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S206:U206">
-    <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S180:U180">
-    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S226:U226">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16907,9 +17074,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17238,8 +17407,8 @@
       <c r="D11" s="7" t="s">
         <v>949</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>14</v>
+      <c r="E11" s="18">
+        <v>2023</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>14</v>
@@ -17253,6 +17422,36 @@
       <c r="I11" s="11"/>
       <c r="J11" s="19" t="s">
         <v>948</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="E12" s="18">
+        <v>2023</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="42">
+        <v>44927</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="19" t="s">
+        <v>1155</v>
       </c>
     </row>
   </sheetData>
@@ -17265,10 +17464,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17321,8 +17520,8 @@
         <v>44734</v>
       </c>
       <c r="G2" s="12">
-        <f t="shared" ref="G2:G16" ca="1" si="0">TODAY()-F2</f>
-        <v>340</v>
+        <f ca="1">TODAY()-F2</f>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -17339,14 +17538,14 @@
         <v>262</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="F3" s="10">
         <v>44769</v>
       </c>
       <c r="G3" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>305</v>
+        <f ca="1">TODAY()-F3</f>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -17367,8 +17566,8 @@
         <v>44803</v>
       </c>
       <c r="G4" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>271</v>
+        <f ca="1">TODAY()-F4</f>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -17389,8 +17588,8 @@
         <v>44832</v>
       </c>
       <c r="G5" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>242</v>
+        <f ca="1">TODAY()-F5</f>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -17411,8 +17610,8 @@
         <v>44883</v>
       </c>
       <c r="G6" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>191</v>
+        <f ca="1">TODAY()-F6</f>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -17433,16 +17632,16 @@
         <v>44904</v>
       </c>
       <c r="G7" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>170</v>
+        <f ca="1">TODAY()-F7</f>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1089</v>
+        <v>1033</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>1030</v>
@@ -17455,253 +17654,253 @@
         <v>44914</v>
       </c>
       <c r="G8" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>160</v>
+        <f ca="1">TODAY()-F8</f>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>1032</v>
+        <v>1056</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1033</v>
+        <v>1057</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1030</v>
+        <v>259</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1031</v>
+        <v>262</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="10">
-        <v>44914</v>
+        <v>44942</v>
       </c>
       <c r="G9" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>160</v>
+        <f ca="1">TODAY()-F9</f>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>1059</v>
+        <v>1067</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1060</v>
+        <v>1068</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>259</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>262</v>
+        <v>28</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="10">
-        <v>44942</v>
+        <v>44958</v>
       </c>
       <c r="G10" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>132</v>
+        <f ca="1">TODAY()-F10</f>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>1071</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>1072</v>
-      </c>
       <c r="C11" s="7" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="10">
-        <v>44958</v>
+        <v>44959</v>
       </c>
       <c r="G11" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>116</v>
+        <f ca="1">TODAY()-F11</f>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>1074</v>
+        <v>1087</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1075</v>
+        <v>1090</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>120</v>
+        <v>1088</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>121</v>
+        <v>1089</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="10">
-        <v>44959</v>
+        <v>45013</v>
       </c>
       <c r="G12" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>115</v>
+        <f ca="1">TODAY()-F12</f>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>1084</v>
+        <v>1091</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1087</v>
+        <v>1094</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1086</v>
+        <v>1092</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1085</v>
+        <v>1093</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="10">
-        <v>45008</v>
+        <v>45018</v>
       </c>
       <c r="G13" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <f ca="1">TODAY()-F13</f>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>1093</v>
+        <v>1097</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1094</v>
+        <v>344</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="10">
-        <v>45013</v>
+        <v>45021</v>
       </c>
       <c r="G14" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <f ca="1">TODAY()-F14</f>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>1099</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>1097</v>
-      </c>
       <c r="D15" s="7" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="10">
-        <v>45018</v>
+        <v>45021</v>
       </c>
       <c r="G15" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <f ca="1">TODAY()-F15</f>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>344</v>
+        <v>1105</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="10">
-        <v>45021</v>
+        <v>45023</v>
       </c>
       <c r="G16" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <f ca="1">TODAY()-F16</f>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>1103</v>
+        <v>1110</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1106</v>
+        <v>1111</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>1104</v>
+        <v>1112</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>1105</v>
+        <v>1113</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="10">
-        <v>45021</v>
+        <v>45037</v>
       </c>
       <c r="G17" s="12">
-        <f t="shared" ref="G17:G20" ca="1" si="1">TODAY()-F17</f>
-        <v>53</v>
+        <f ca="1">TODAY()-F17</f>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>1107</v>
+        <v>1114</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>1108</v>
+        <v>1115</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>1109</v>
+        <v>1099</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>1110</v>
+        <v>1100</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="10">
-        <v>45023</v>
+        <v>45043</v>
       </c>
       <c r="G18" s="12">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">TODAY()-F18</f>
         <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>1117</v>
+        <v>89</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>1118</v>
+        <v>89</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="10">
-        <v>45037</v>
+        <v>45043</v>
       </c>
       <c r="G19" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <f ca="1">TODAY()-F19</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>1119</v>
       </c>
@@ -17709,108 +17908,86 @@
         <v>1120</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>1104</v>
+        <v>1128</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>1105</v>
+        <v>1127</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="10">
-        <v>45043</v>
+        <v>45061</v>
       </c>
       <c r="G20" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <f ca="1">TODAY()-F20</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>1121</v>
+        <v>1129</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1122</v>
+        <v>1132</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>89</v>
+        <v>1130</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>89</v>
+        <v>1131</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="10">
-        <v>45043</v>
+        <v>45063</v>
       </c>
       <c r="G21" s="12">
-        <f t="shared" ref="G21" ca="1" si="2">TODAY()-F21</f>
+        <f ca="1">TODAY()-F21</f>
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>1124</v>
+        <v>1139</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1125</v>
+        <v>1140</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>1133</v>
+        <v>267</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E22" s="7"/>
+        <v>268</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>1141</v>
+      </c>
       <c r="F22" s="10">
-        <v>45061</v>
+        <v>45064</v>
       </c>
       <c r="G22" s="12">
-        <f t="shared" ref="G22" ca="1" si="3">TODAY()-F22</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <f ca="1">TODAY()-F22</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>1134</v>
+        <v>1102</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1137</v>
+        <v>1158</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>1135</v>
+        <v>1159</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>1136</v>
+        <v>1160</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="10">
-        <v>45063</v>
+        <v>45072</v>
       </c>
       <c r="G23" s="12">
-        <f t="shared" ref="G23:G24" ca="1" si="4">TODAY()-F23</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>1144</v>
-      </c>
-      <c r="F24" s="10">
-        <v>45064</v>
-      </c>
-      <c r="G24" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <f ca="1">TODAY()-F23</f>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -17824,7 +18001,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
@@ -17837,7 +18014,7 @@
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -17857,7 +18034,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>168</v>
       </c>
@@ -17875,10 +18052,10 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>7.5780821917808217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.6328767123287671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>169</v>
       </c>
@@ -17896,10 +18073,10 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5780821917808217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.6328767123287671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>256</v>
       </c>
@@ -17917,10 +18094,10 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>6.956164383561644</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.0109589041095894</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>346</v>
       </c>
@@ -17938,8 +18115,27 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>5.3260273972602743</v>
-      </c>
+        <v>5.3808219178082188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="10">
+        <v>45077</v>
+      </c>
+      <c r="G6" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17951,11 +18147,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17980,197 +18174,231 @@
       </c>
       <c r="H1" s="50">
         <f>COUNTA(H3:H998)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I1" s="50">
         <f>COUNTA(I3:I998)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J1" s="51">
         <f>SUM(E1:I1)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B2" s="52" t="s">
         <v>175</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="E2" s="53" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G2" s="53" t="s">
         <v>1039</v>
       </c>
-      <c r="F2" s="53" t="s">
-        <v>1038</v>
-      </c>
-      <c r="G2" s="53" t="s">
+      <c r="H2" s="53" t="s">
         <v>1040</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="I2" s="53" t="s">
         <v>1041</v>
-      </c>
-      <c r="I2" s="53" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1037</v>
+        <v>1147</v>
       </c>
       <c r="B3" s="49" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C3" s="49" t="s">
         <v>1044</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>1045</v>
-      </c>
       <c r="D3" s="15" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C4" s="49" t="s">
         <v>1046</v>
       </c>
-      <c r="B4" s="49" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>1048</v>
-      </c>
       <c r="D4" s="15" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="I4" s="48" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1049</v>
+        <v>1145</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1061</v>
+        <v>1144</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="H6" s="48" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1078</v>
+        <v>1143</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="G8" s="48" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="G10" s="48" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="C11" s="49" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I11" s="48" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>1142</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>1052</v>
-      </c>
-      <c r="I11" s="48" t="s">
-        <v>1043</v>
+      <c r="B12" s="49" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H12" s="48" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I13" s="48" t="s">
+        <v>1042</v>
       </c>
     </row>
   </sheetData>
@@ -18206,8 +18434,12 @@
     <hyperlink ref="C10" r:id="rId16"/>
     <hyperlink ref="B11" r:id="rId17"/>
     <hyperlink ref="C11" r:id="rId18"/>
+    <hyperlink ref="B12" r:id="rId19"/>
+    <hyperlink ref="C12" r:id="rId20"/>
+    <hyperlink ref="B13" r:id="rId21"/>
+    <hyperlink ref="C13" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
--- a/publications.xlsx
+++ b/publications.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="papers" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2775" uniqueCount="1162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2790" uniqueCount="1170">
   <si>
     <t>title</t>
   </si>
@@ -3138,9 +3138,6 @@
     <t>e0010468</t>
   </si>
   <si>
-    <t>HIND</t>
-  </si>
-  <si>
     <t>SURV</t>
   </si>
   <si>
@@ -3511,6 +3508,33 @@
   </si>
   <si>
     <t>Santos, João Vasco, Devleesschauwer, Brecht</t>
+  </si>
+  <si>
+    <t>10.1016/j.scitotenv.2023.164801</t>
+  </si>
+  <si>
+    <t>10.1186/s13690-023-01119-x</t>
+  </si>
+  <si>
+    <t>Unhealthy food advertising on Costa Rican and Guatemalan television: a comparative study</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/heapro/daad028</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/37184579/</t>
+  </si>
+  <si>
+    <t>Product promotional strategies in supermarkets and their effects on sales: A case study of breakfast cereals and drinks in New Zealand</t>
+  </si>
+  <si>
+    <t>The Africa Food Environment Research Network (FERN): from concept to practice</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1177/17579759221126155</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/36321592/</t>
   </si>
 </sst>
 </file>
@@ -3818,6 +3842,169 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -4077,169 +4264,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -4254,74 +4278,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U226" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U226" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="A1:U226"/>
-  <sortState ref="A2:U224">
-    <sortCondition ref="K1:K224"/>
+  <sortState ref="A2:U226">
+    <sortCondition ref="K1:K226"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" name="title" dataDxfId="77"/>
-    <tableColumn id="2" name="authors" dataDxfId="76"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="75"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="74"/>
-    <tableColumn id="6" name="year" dataDxfId="73"/>
-    <tableColumn id="4" name="volume" dataDxfId="72"/>
-    <tableColumn id="5" name="issue" dataDxfId="71"/>
-    <tableColumn id="7" name="eID" dataDxfId="70"/>
-    <tableColumn id="8" name="from" dataDxfId="69"/>
-    <tableColumn id="9" name="to" dataDxfId="68"/>
-    <tableColumn id="10" name="date" dataDxfId="67"/>
-    <tableColumn id="14" name="classification" dataDxfId="66"/>
-    <tableColumn id="12" name="IF" dataDxfId="65"/>
-    <tableColumn id="13" name="DOI" dataDxfId="64"/>
-    <tableColumn id="15" name="WoS" dataDxfId="63"/>
-    <tableColumn id="16" name="rank" dataDxfId="62"/>
-    <tableColumn id="17" name="quartile" dataDxfId="61"/>
-    <tableColumn id="18" name="category" dataDxfId="60"/>
-    <tableColumn id="19" name="CBRA" dataDxfId="59"/>
-    <tableColumn id="20" name="SC" dataDxfId="58"/>
-    <tableColumn id="21" name="UGent" dataDxfId="57"/>
+    <tableColumn id="1" name="title" dataDxfId="51"/>
+    <tableColumn id="2" name="authors" dataDxfId="50"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="49"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="48"/>
+    <tableColumn id="6" name="year" dataDxfId="47"/>
+    <tableColumn id="4" name="volume" dataDxfId="46"/>
+    <tableColumn id="5" name="issue" dataDxfId="45"/>
+    <tableColumn id="7" name="eID" dataDxfId="44"/>
+    <tableColumn id="8" name="from" dataDxfId="43"/>
+    <tableColumn id="9" name="to" dataDxfId="42"/>
+    <tableColumn id="10" name="date" dataDxfId="41"/>
+    <tableColumn id="14" name="classification" dataDxfId="40"/>
+    <tableColumn id="12" name="IF" dataDxfId="39"/>
+    <tableColumn id="13" name="DOI" dataDxfId="38"/>
+    <tableColumn id="15" name="WoS" dataDxfId="37"/>
+    <tableColumn id="16" name="rank" dataDxfId="36"/>
+    <tableColumn id="17" name="quartile" dataDxfId="35"/>
+    <tableColumn id="18" name="category" dataDxfId="34"/>
+    <tableColumn id="19" name="CBRA" dataDxfId="33"/>
+    <tableColumn id="20" name="SC" dataDxfId="32"/>
+    <tableColumn id="21" name="UGent" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J12" totalsRowShown="0" headerRowDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J12" totalsRowShown="0" headerRowDxfId="30">
   <autoFilter ref="A1:J12"/>
   <sortState ref="A2:N50">
     <sortCondition ref="H1:H50"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="title" dataDxfId="55"/>
-    <tableColumn id="2" name="authors" dataDxfId="54"/>
-    <tableColumn id="3" name="editors" dataDxfId="53"/>
-    <tableColumn id="11" name="book" dataDxfId="52"/>
-    <tableColumn id="6" name="year" dataDxfId="51"/>
-    <tableColumn id="8" name="from" dataDxfId="50"/>
-    <tableColumn id="9" name="to" dataDxfId="49"/>
-    <tableColumn id="10" name="date" dataDxfId="48"/>
-    <tableColumn id="12" name="IF" dataDxfId="47"/>
-    <tableColumn id="13" name="DOI" dataDxfId="46"/>
+    <tableColumn id="1" name="title" dataDxfId="29"/>
+    <tableColumn id="2" name="authors" dataDxfId="28"/>
+    <tableColumn id="3" name="editors" dataDxfId="27"/>
+    <tableColumn id="11" name="book" dataDxfId="26"/>
+    <tableColumn id="6" name="year" dataDxfId="25"/>
+    <tableColumn id="8" name="from" dataDxfId="24"/>
+    <tableColumn id="9" name="to" dataDxfId="23"/>
+    <tableColumn id="10" name="date" dataDxfId="22"/>
+    <tableColumn id="12" name="IF" dataDxfId="21"/>
+    <tableColumn id="13" name="DOI" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G23" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G23" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:G23"/>
   <sortState ref="A2:G17">
     <sortCondition ref="F1:F17"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="title" dataDxfId="43"/>
-    <tableColumn id="2" name="authors" dataDxfId="42"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="41"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="40"/>
-    <tableColumn id="4" name="doi_preprint" dataDxfId="39"/>
-    <tableColumn id="10" name="date" dataDxfId="38"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="37">
+    <tableColumn id="1" name="title" dataDxfId="17"/>
+    <tableColumn id="2" name="authors" dataDxfId="16"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="15"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="14"/>
+    <tableColumn id="4" name="doi_preprint" dataDxfId="13"/>
+    <tableColumn id="10" name="date" dataDxfId="12"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="11">
       <calculatedColumnFormula>TODAY()-F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4330,18 +4354,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:F5"/>
   <sortState ref="A2:K14">
     <sortCondition ref="E1:E14"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="title" dataDxfId="34"/>
-    <tableColumn id="2" name="authors" dataDxfId="33"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="32"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="31"/>
-    <tableColumn id="10" name="date" dataDxfId="30"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="29">
+    <tableColumn id="1" name="title" dataDxfId="8"/>
+    <tableColumn id="2" name="authors" dataDxfId="7"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="6"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="5"/>
+    <tableColumn id="10" name="date" dataDxfId="4"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="3">
       <calculatedColumnFormula>(TODAY()-E2)/365</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4638,7 +4662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U226"/>
   <sheetViews>
-    <sheetView topLeftCell="A188" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A226" sqref="A226"/>
     </sheetView>
   </sheetViews>
@@ -16189,7 +16213,7 @@
         <v>1005</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>509</v>
@@ -16207,7 +16231,7 @@
         <v>14</v>
       </c>
       <c r="H212" s="18" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I212" s="18" t="s">
         <v>14</v>
@@ -16223,7 +16247,7 @@
       </c>
       <c r="M212" s="11"/>
       <c r="N212" s="19" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="O212" s="7"/>
       <c r="P212" s="24"/>
@@ -16260,7 +16284,7 @@
         <v>101</v>
       </c>
       <c r="H213" s="18" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="I213" s="18" t="s">
         <v>14</v>
@@ -16276,7 +16300,7 @@
       </c>
       <c r="M213" s="11"/>
       <c r="N213" s="19" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="O213" s="7"/>
       <c r="P213" s="24"/>
@@ -16292,16 +16316,16 @@
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B214" s="7" t="s">
         <v>926</v>
       </c>
       <c r="C214" s="7" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D214" s="7" t="s">
         <v>1054</v>
-      </c>
-      <c r="D214" s="7" t="s">
-        <v>1055</v>
       </c>
       <c r="E214" s="18">
         <v>2023</v>
@@ -16329,7 +16353,7 @@
       </c>
       <c r="M214" s="11"/>
       <c r="N214" s="19" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="O214" s="7"/>
       <c r="P214" s="24"/>
@@ -16345,7 +16369,7 @@
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B215" s="7" t="s">
         <v>971</v>
@@ -16435,7 +16459,7 @@
       </c>
       <c r="M216" s="11"/>
       <c r="N216" s="19" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="O216" s="7"/>
       <c r="P216" s="24"/>
@@ -16504,7 +16528,7 @@
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B218" s="7" t="s">
         <v>982</v>
@@ -16541,7 +16565,7 @@
       </c>
       <c r="M218" s="11"/>
       <c r="N218" s="19" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="O218" s="7"/>
       <c r="P218" s="24"/>
@@ -16557,7 +16581,7 @@
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B219" s="7" t="s">
         <v>767</v>
@@ -16594,7 +16618,7 @@
       </c>
       <c r="M219" s="11"/>
       <c r="N219" s="19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="O219" s="7"/>
       <c r="P219" s="24"/>
@@ -16647,7 +16671,7 @@
       </c>
       <c r="M220" s="11"/>
       <c r="N220" s="19" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="O220" s="7"/>
       <c r="P220" s="24"/>
@@ -16684,7 +16708,7 @@
         <v>92</v>
       </c>
       <c r="H221" s="18" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="I221" s="18" t="s">
         <v>14</v>
@@ -16700,7 +16724,7 @@
       </c>
       <c r="M221" s="11"/>
       <c r="N221" s="19" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="O221" s="7"/>
       <c r="P221" s="24"/>
@@ -16716,28 +16740,28 @@
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
-        <v>1015</v>
+        <v>1117</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>1083</v>
+        <v>1014</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>1016</v>
+        <v>12</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>1017</v>
+        <v>13</v>
       </c>
       <c r="E222" s="18">
         <v>2023</v>
       </c>
       <c r="F222" s="18">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="G222" s="19" t="s">
         <v>14</v>
       </c>
       <c r="H222" s="18">
-        <v>100587</v>
+        <v>1605763</v>
       </c>
       <c r="I222" s="18" t="s">
         <v>14</v>
@@ -16746,14 +16770,14 @@
         <v>14</v>
       </c>
       <c r="K222" s="42">
-        <v>45078</v>
+        <v>45077</v>
       </c>
       <c r="L222" s="42" t="s">
         <v>273</v>
       </c>
       <c r="M222" s="11"/>
       <c r="N222" s="19" t="s">
-        <v>1109</v>
+        <v>1137</v>
       </c>
       <c r="O222" s="7"/>
       <c r="P222" s="24"/>
@@ -16768,162 +16792,174 @@
       </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A223" s="13" t="s">
-        <v>985</v>
-      </c>
-      <c r="B223" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C223" s="13" t="s">
-        <v>987</v>
-      </c>
-      <c r="D223" s="13" t="s">
-        <v>988</v>
-      </c>
-      <c r="E223" s="14">
+      <c r="A223" s="7" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D223" s="7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E223" s="18">
         <v>2023</v>
       </c>
-      <c r="F223" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G223" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H223" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I223" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J223" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K223" s="31">
-        <v>45292</v>
-      </c>
-      <c r="L223" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="M223" s="45"/>
-      <c r="N223" s="44" t="s">
-        <v>992</v>
-      </c>
-      <c r="O223" s="27"/>
+      <c r="F223" s="18">
+        <v>45</v>
+      </c>
+      <c r="G223" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H223" s="18">
+        <v>100587</v>
+      </c>
+      <c r="I223" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J223" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K223" s="42">
+        <v>45078</v>
+      </c>
+      <c r="L223" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="M223" s="11"/>
+      <c r="N223" s="19" t="s">
+        <v>1108</v>
+      </c>
+      <c r="O223" s="7"/>
       <c r="P223" s="24"/>
       <c r="Q223" s="25"/>
       <c r="R223" s="7"/>
       <c r="S223" s="7"/>
-      <c r="T223" s="7"/>
-      <c r="U223" s="7"/>
+      <c r="T223" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="U223" s="7" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A224" s="13" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B224" s="13" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C224" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D224" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E224" s="14">
+      <c r="A224" s="7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D224" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E224" s="18">
         <v>2023</v>
       </c>
-      <c r="F224" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G224" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H224" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I224" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J224" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K224" s="31">
-        <v>45293</v>
-      </c>
-      <c r="L224" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="M224" s="45"/>
-      <c r="N224" s="44" t="s">
-        <v>1138</v>
-      </c>
-      <c r="O224" s="27"/>
+      <c r="F224" s="18">
+        <v>81</v>
+      </c>
+      <c r="G224" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H224" s="18">
+        <v>116</v>
+      </c>
+      <c r="I224" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J224" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K224" s="42">
+        <v>45102</v>
+      </c>
+      <c r="L224" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="M224" s="11"/>
+      <c r="N224" s="19" t="s">
+        <v>1162</v>
+      </c>
+      <c r="O224" s="7"/>
       <c r="P224" s="24"/>
       <c r="Q224" s="25"/>
       <c r="R224" s="7"/>
       <c r="S224" s="7"/>
-      <c r="T224" s="7"/>
+      <c r="T224" s="7" t="s">
+        <v>604</v>
+      </c>
       <c r="U224" s="7"/>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A225" s="13" t="s">
+      <c r="A225" s="7" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D225" s="7" t="s">
         <v>1079</v>
       </c>
-      <c r="B225" s="13" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C225" s="13" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D225" s="13" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E225" s="14">
+      <c r="E225" s="18">
         <v>2023</v>
       </c>
-      <c r="F225" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G225" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H225" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I225" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J225" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K225" s="31">
-        <v>45295</v>
-      </c>
-      <c r="L225" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="M225" s="45"/>
-      <c r="N225" s="44"/>
-      <c r="O225" s="27"/>
+      <c r="F225" s="18">
+        <v>893</v>
+      </c>
+      <c r="G225" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H225" s="18">
+        <v>164801</v>
+      </c>
+      <c r="I225" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J225" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K225" s="42">
+        <v>45200</v>
+      </c>
+      <c r="L225" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="M225" s="11"/>
+      <c r="N225" s="19" t="s">
+        <v>1161</v>
+      </c>
+      <c r="O225" s="7"/>
       <c r="P225" s="24"/>
       <c r="Q225" s="25"/>
       <c r="R225" s="7"/>
       <c r="S225" s="7"/>
-      <c r="T225" s="7"/>
-      <c r="U225" s="7"/>
+      <c r="T225" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="U225" s="7" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A226" s="13" t="s">
-        <v>1029</v>
+        <v>985</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>1084</v>
+        <v>986</v>
       </c>
       <c r="C226" s="13" t="s">
-        <v>267</v>
+        <v>987</v>
       </c>
       <c r="D226" s="13" t="s">
-        <v>268</v>
+        <v>988</v>
       </c>
       <c r="E226" s="14">
         <v>2023</v>
@@ -16944,13 +16980,15 @@
         <v>14</v>
       </c>
       <c r="K226" s="31">
-        <v>45294</v>
+        <v>45292</v>
       </c>
       <c r="L226" s="31" t="s">
         <v>273</v>
       </c>
       <c r="M226" s="45"/>
-      <c r="N226" s="44"/>
+      <c r="N226" s="44" t="s">
+        <v>992</v>
+      </c>
       <c r="O226" s="27"/>
       <c r="P226" s="24"/>
       <c r="Q226" s="25"/>
@@ -16961,106 +16999,106 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="S1:U112 S114:U122 S124:U125 S127:U134 U126 S148:U175 S136:U146 S177:U179 S182:U188 S190:U205 S207:U225 S227:U1048576">
-    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="27" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="28" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T113:U113">
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="25" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="26" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S113">
-    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="23" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="24" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S123:U123">
-    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="21" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="22" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S126:T126">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="19" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="20" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S135:U135">
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="17" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="18" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S147:U147">
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="15" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="16" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S176:U176">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="13" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="14" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S181:U181">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="9" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="10" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S189:U189">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="7" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="8" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S206:U206">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="5" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="6" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S180:U180">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S226:U226">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17426,10 +17464,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>950</v>
@@ -17451,7 +17489,7 @@
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="19" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
   </sheetData>
@@ -17466,7 +17504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -17520,8 +17558,8 @@
         <v>44734</v>
       </c>
       <c r="G2" s="12">
-        <f ca="1">TODAY()-F2</f>
-        <v>360</v>
+        <f t="shared" ref="G2:G23" ca="1" si="0">TODAY()-F2</f>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -17538,14 +17576,14 @@
         <v>262</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F3" s="10">
         <v>44769</v>
       </c>
       <c r="G3" s="12">
-        <f ca="1">TODAY()-F3</f>
-        <v>325</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -17566,8 +17604,8 @@
         <v>44803</v>
       </c>
       <c r="G4" s="12">
-        <f ca="1">TODAY()-F4</f>
-        <v>291</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -17588,8 +17626,8 @@
         <v>44832</v>
       </c>
       <c r="G5" s="12">
-        <f ca="1">TODAY()-F5</f>
-        <v>262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -17610,8 +17648,8 @@
         <v>44883</v>
       </c>
       <c r="G6" s="12">
-        <f ca="1">TODAY()-F6</f>
-        <v>211</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -17632,8 +17670,8 @@
         <v>44904</v>
       </c>
       <c r="G7" s="12">
-        <f ca="1">TODAY()-F7</f>
-        <v>190</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -17654,16 +17692,16 @@
         <v>44914</v>
       </c>
       <c r="G8" s="12">
-        <f ca="1">TODAY()-F8</f>
-        <v>180</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>1056</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>1057</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>259</v>
@@ -17676,16 +17714,16 @@
         <v>44942</v>
       </c>
       <c r="G9" s="12">
-        <f ca="1">TODAY()-F9</f>
-        <v>152</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>1067</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>1068</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>25</v>
@@ -17698,16 +17736,16 @@
         <v>44958</v>
       </c>
       <c r="G10" s="12">
-        <f ca="1">TODAY()-F10</f>
-        <v>136</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>1070</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>1071</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>120</v>
@@ -17720,63 +17758,63 @@
         <v>44959</v>
       </c>
       <c r="G11" s="12">
-        <f ca="1">TODAY()-F11</f>
-        <v>135</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>1087</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>1088</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>1089</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="10">
         <v>45013</v>
       </c>
       <c r="G12" s="12">
-        <f ca="1">TODAY()-F12</f>
-        <v>81</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>1091</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>1092</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>1093</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="10">
         <v>45018</v>
       </c>
       <c r="G13" s="12">
-        <f ca="1">TODAY()-F13</f>
-        <v>76</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>1095</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>1096</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>1097</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>344</v>
@@ -17786,104 +17824,104 @@
         <v>45021</v>
       </c>
       <c r="G14" s="12">
-        <f ca="1">TODAY()-F14</f>
-        <v>73</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>1098</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>1099</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>1100</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="10">
         <v>45021</v>
       </c>
       <c r="G15" s="12">
-        <f ca="1">TODAY()-F15</f>
-        <v>73</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>1102</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>1103</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>1104</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>1105</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="10">
         <v>45023</v>
       </c>
       <c r="G16" s="12">
-        <f ca="1">TODAY()-F16</f>
-        <v>71</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>1110</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>1111</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>1112</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>1113</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="10">
         <v>45037</v>
       </c>
       <c r="G17" s="12">
-        <f ca="1">TODAY()-F17</f>
-        <v>57</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>1114</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>1115</v>
-      </c>
       <c r="C18" s="7" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>1099</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>1100</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="10">
         <v>45043</v>
       </c>
       <c r="G18" s="12">
-        <f ca="1">TODAY()-F18</f>
-        <v>51</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>1116</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>1117</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>89</v>
@@ -17896,60 +17934,60 @@
         <v>45043</v>
       </c>
       <c r="G19" s="12">
-        <f ca="1">TODAY()-F19</f>
-        <v>51</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>1119</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>1120</v>
-      </c>
       <c r="C20" s="7" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="10">
         <v>45061</v>
       </c>
       <c r="G20" s="12">
-        <f ca="1">TODAY()-F20</f>
-        <v>33</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>1129</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>1130</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>1131</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="10">
         <v>45063</v>
       </c>
       <c r="G21" s="12">
-        <f ca="1">TODAY()-F21</f>
-        <v>31</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>1139</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>1140</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>267</v>
@@ -17958,36 +17996,36 @@
         <v>268</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="F22" s="10">
         <v>45064</v>
       </c>
       <c r="G22" s="12">
-        <f ca="1">TODAY()-F22</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>1158</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>1159</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>1160</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="10">
         <v>45072</v>
       </c>
       <c r="G23" s="12">
-        <f ca="1">TODAY()-F23</f>
-        <v>22</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -18052,7 +18090,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>7.6328767123287671</v>
+        <v>7.6547945205479451</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -18073,7 +18111,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6328767123287671</v>
+        <v>7.6547945205479451</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -18094,7 +18132,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0109589041095894</v>
+        <v>7.0328767123287674</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -18115,21 +18153,21 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>5.3808219178082188</v>
+        <v>5.4027397260273968</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>1156</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>1157</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="10">
@@ -18147,62 +18185,60 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="81.28515625" customWidth="1"/>
     <col min="2" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="15"/>
-    <col min="5" max="9" width="9.140625" style="48"/>
+    <col min="5" max="8" width="9.140625" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E1" s="50">
         <f>COUNTA(E3:E998)</f>
         <v>3</v>
       </c>
       <c r="F1" s="50">
         <f>COUNTA(F3:F998)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G1" s="50">
         <f>COUNTA(G3:G998)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H1" s="50">
         <f>COUNTA(H3:H998)</f>
         <v>3</v>
       </c>
-      <c r="I1" s="50">
-        <f>COUNTA(I3:I998)</f>
-        <v>3</v>
-      </c>
-      <c r="J1" s="51">
-        <f>SUM(E1:I1)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="51">
+        <f>SUM(E1:H1)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B2" s="52" t="s">
         <v>175</v>
       </c>
       <c r="C2" s="52" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D2" s="52" t="s">
         <v>1051</v>
       </c>
-      <c r="D2" s="52" t="s">
-        <v>1052</v>
-      </c>
       <c r="E2" s="53" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F2" s="53" t="s">
         <v>1038</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>1037</v>
       </c>
       <c r="G2" s="53" t="s">
         <v>1039</v>
@@ -18210,199 +18246,247 @@
       <c r="H2" s="53" t="s">
         <v>1040</v>
       </c>
-      <c r="I2" s="53" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E3" s="48" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B12" s="49" t="s">
         <v>1147</v>
       </c>
-      <c r="B3" s="49" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E3" s="48" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>1061</v>
-      </c>
-      <c r="I4" s="48" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C5" s="49" t="s">
+      <c r="C12" s="49" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>1048</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H6" s="48" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B7" s="49" t="s">
+      <c r="G12" s="48" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C15" s="49" t="s">
         <v>1074</v>
       </c>
-      <c r="C7" s="49" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H7" s="48" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G8" s="48" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1135</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>1049</v>
-      </c>
-      <c r="I11" s="48" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H12" s="48" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>1049</v>
-      </c>
-      <c r="I13" s="48" t="s">
-        <v>1042</v>
+      <c r="D15" s="15" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>1041</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E1:I1048576">
+  <conditionalFormatting sqref="E1:H1048576">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"X"</formula>
     </cfRule>
@@ -18438,8 +18522,14 @@
     <hyperlink ref="C12" r:id="rId20"/>
     <hyperlink ref="B13" r:id="rId21"/>
     <hyperlink ref="C13" r:id="rId22"/>
+    <hyperlink ref="B14" r:id="rId23"/>
+    <hyperlink ref="C14" r:id="rId24"/>
+    <hyperlink ref="C15" r:id="rId25"/>
+    <hyperlink ref="B15" r:id="rId26"/>
+    <hyperlink ref="B16" r:id="rId27"/>
+    <hyperlink ref="C16" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
--- a/publications.xlsx
+++ b/publications.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2790" uniqueCount="1170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2822" uniqueCount="1177">
   <si>
     <t>title</t>
   </si>
@@ -3087,9 +3087,6 @@
     <t>The global burden of neglected zoonotic diseases: current state of evidence</t>
   </si>
   <si>
-    <t xml:space="preserve">The Lancet Infectious Diseases </t>
-  </si>
-  <si>
     <t>10.1186/s13690-022-01011-0</t>
   </si>
   <si>
@@ -3535,6 +3532,30 @@
   </si>
   <si>
     <t>https://pubmed.ncbi.nlm.nih.gov/36321592/</t>
+  </si>
+  <si>
+    <t>Were SARS-CoV-2 self-tests used for their intended purpose? The experience in Belgium</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12913-023-09704-0</t>
+  </si>
+  <si>
+    <t>Psychological distress and online advice-seeking in times of COVID-19: vertical and horizontal equity of an e-mental health strategy</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s12144-023-04907-4</t>
+  </si>
+  <si>
+    <t>Comparing self-reported health interview survey and pharmacy billing data in determining the prevalence of diabetes, hypertension, and hypercholesterolemia in Belgium</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13690-023-01134-y</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/37391854/</t>
+  </si>
+  <si>
+    <t>10.1016/j.onehlt.2023.100595</t>
   </si>
 </sst>
 </file>
@@ -3842,169 +3863,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -4264,6 +4122,169 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -4278,74 +4299,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U226" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
-  <autoFilter ref="A1:U226"/>
-  <sortState ref="A2:U226">
-    <sortCondition ref="K1:K226"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U229" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+  <autoFilter ref="A1:U229"/>
+  <sortState ref="A2:U229">
+    <sortCondition ref="K1:K229"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" name="title" dataDxfId="51"/>
-    <tableColumn id="2" name="authors" dataDxfId="50"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="49"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="48"/>
-    <tableColumn id="6" name="year" dataDxfId="47"/>
-    <tableColumn id="4" name="volume" dataDxfId="46"/>
-    <tableColumn id="5" name="issue" dataDxfId="45"/>
-    <tableColumn id="7" name="eID" dataDxfId="44"/>
-    <tableColumn id="8" name="from" dataDxfId="43"/>
-    <tableColumn id="9" name="to" dataDxfId="42"/>
-    <tableColumn id="10" name="date" dataDxfId="41"/>
-    <tableColumn id="14" name="classification" dataDxfId="40"/>
-    <tableColumn id="12" name="IF" dataDxfId="39"/>
-    <tableColumn id="13" name="DOI" dataDxfId="38"/>
-    <tableColumn id="15" name="WoS" dataDxfId="37"/>
-    <tableColumn id="16" name="rank" dataDxfId="36"/>
-    <tableColumn id="17" name="quartile" dataDxfId="35"/>
-    <tableColumn id="18" name="category" dataDxfId="34"/>
-    <tableColumn id="19" name="CBRA" dataDxfId="33"/>
-    <tableColumn id="20" name="SC" dataDxfId="32"/>
-    <tableColumn id="21" name="UGent" dataDxfId="31"/>
+    <tableColumn id="1" name="title" dataDxfId="77"/>
+    <tableColumn id="2" name="authors" dataDxfId="76"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="75"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="74"/>
+    <tableColumn id="6" name="year" dataDxfId="73"/>
+    <tableColumn id="4" name="volume" dataDxfId="72"/>
+    <tableColumn id="5" name="issue" dataDxfId="71"/>
+    <tableColumn id="7" name="eID" dataDxfId="70"/>
+    <tableColumn id="8" name="from" dataDxfId="69"/>
+    <tableColumn id="9" name="to" dataDxfId="68"/>
+    <tableColumn id="10" name="date" dataDxfId="67"/>
+    <tableColumn id="14" name="classification" dataDxfId="66"/>
+    <tableColumn id="12" name="IF" dataDxfId="65"/>
+    <tableColumn id="13" name="DOI" dataDxfId="64"/>
+    <tableColumn id="15" name="WoS" dataDxfId="63"/>
+    <tableColumn id="16" name="rank" dataDxfId="62"/>
+    <tableColumn id="17" name="quartile" dataDxfId="61"/>
+    <tableColumn id="18" name="category" dataDxfId="60"/>
+    <tableColumn id="19" name="CBRA" dataDxfId="59"/>
+    <tableColumn id="20" name="SC" dataDxfId="58"/>
+    <tableColumn id="21" name="UGent" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J12" totalsRowShown="0" headerRowDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J12" totalsRowShown="0" headerRowDxfId="56">
   <autoFilter ref="A1:J12"/>
   <sortState ref="A2:N50">
     <sortCondition ref="H1:H50"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="title" dataDxfId="29"/>
-    <tableColumn id="2" name="authors" dataDxfId="28"/>
-    <tableColumn id="3" name="editors" dataDxfId="27"/>
-    <tableColumn id="11" name="book" dataDxfId="26"/>
-    <tableColumn id="6" name="year" dataDxfId="25"/>
-    <tableColumn id="8" name="from" dataDxfId="24"/>
-    <tableColumn id="9" name="to" dataDxfId="23"/>
-    <tableColumn id="10" name="date" dataDxfId="22"/>
-    <tableColumn id="12" name="IF" dataDxfId="21"/>
-    <tableColumn id="13" name="DOI" dataDxfId="20"/>
+    <tableColumn id="1" name="title" dataDxfId="55"/>
+    <tableColumn id="2" name="authors" dataDxfId="54"/>
+    <tableColumn id="3" name="editors" dataDxfId="53"/>
+    <tableColumn id="11" name="book" dataDxfId="52"/>
+    <tableColumn id="6" name="year" dataDxfId="51"/>
+    <tableColumn id="8" name="from" dataDxfId="50"/>
+    <tableColumn id="9" name="to" dataDxfId="49"/>
+    <tableColumn id="10" name="date" dataDxfId="48"/>
+    <tableColumn id="12" name="IF" dataDxfId="47"/>
+    <tableColumn id="13" name="DOI" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G23" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:G23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G20" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+  <autoFilter ref="A1:G20"/>
   <sortState ref="A2:G17">
     <sortCondition ref="F1:F17"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="title" dataDxfId="17"/>
-    <tableColumn id="2" name="authors" dataDxfId="16"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="15"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="14"/>
-    <tableColumn id="4" name="doi_preprint" dataDxfId="13"/>
-    <tableColumn id="10" name="date" dataDxfId="12"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="11">
+    <tableColumn id="1" name="title" dataDxfId="43"/>
+    <tableColumn id="2" name="authors" dataDxfId="42"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="41"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="40"/>
+    <tableColumn id="4" name="doi_preprint" dataDxfId="39"/>
+    <tableColumn id="10" name="date" dataDxfId="38"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="37">
       <calculatedColumnFormula>TODAY()-F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4354,18 +4375,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A1:F5"/>
   <sortState ref="A2:K14">
     <sortCondition ref="E1:E14"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="title" dataDxfId="8"/>
-    <tableColumn id="2" name="authors" dataDxfId="7"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="6"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="5"/>
-    <tableColumn id="10" name="date" dataDxfId="4"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="3">
+    <tableColumn id="1" name="title" dataDxfId="34"/>
+    <tableColumn id="2" name="authors" dataDxfId="33"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="32"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="31"/>
+    <tableColumn id="10" name="date" dataDxfId="30"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="29">
       <calculatedColumnFormula>(TODAY()-E2)/365</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4660,10 +4681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U226"/>
+  <dimension ref="A1:U229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A226" sqref="A226"/>
+    <sheetView tabSelected="1" topLeftCell="A192" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A229" sqref="A229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14514,10 +14535,10 @@
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B180" s="7" t="s">
         <v>1022</v>
-      </c>
-      <c r="B180" s="7" t="s">
-        <v>1023</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>575</v>
@@ -14551,7 +14572,7 @@
       </c>
       <c r="M180" s="11"/>
       <c r="N180" s="19" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="O180" s="7"/>
       <c r="P180" s="24"/>
@@ -15982,7 +16003,7 @@
       </c>
       <c r="M207" s="11"/>
       <c r="N207" s="19" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="O207" s="7"/>
       <c r="P207" s="24"/>
@@ -16072,7 +16093,7 @@
         <v>65</v>
       </c>
       <c r="H209" s="18" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="I209" s="18" t="s">
         <v>14</v>
@@ -16088,7 +16109,7 @@
       </c>
       <c r="M209" s="11"/>
       <c r="N209" s="19" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="O209" s="7"/>
       <c r="P209" s="24"/>
@@ -16141,7 +16162,7 @@
       </c>
       <c r="M210" s="11"/>
       <c r="N210" s="19" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="O210" s="7"/>
       <c r="P210" s="24"/>
@@ -16213,7 +16234,7 @@
         <v>1005</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>509</v>
@@ -16231,7 +16252,7 @@
         <v>14</v>
       </c>
       <c r="H212" s="18" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="I212" s="18" t="s">
         <v>14</v>
@@ -16247,7 +16268,7 @@
       </c>
       <c r="M212" s="11"/>
       <c r="N212" s="19" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="O212" s="7"/>
       <c r="P212" s="24"/>
@@ -16284,7 +16305,7 @@
         <v>101</v>
       </c>
       <c r="H213" s="18" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="I213" s="18" t="s">
         <v>14</v>
@@ -16300,7 +16321,7 @@
       </c>
       <c r="M213" s="11"/>
       <c r="N213" s="19" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="O213" s="7"/>
       <c r="P213" s="24"/>
@@ -16316,16 +16337,16 @@
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B214" s="7" t="s">
         <v>926</v>
       </c>
       <c r="C214" s="7" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D214" s="7" t="s">
         <v>1053</v>
-      </c>
-      <c r="D214" s="7" t="s">
-        <v>1054</v>
       </c>
       <c r="E214" s="18">
         <v>2023</v>
@@ -16353,7 +16374,7 @@
       </c>
       <c r="M214" s="11"/>
       <c r="N214" s="19" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="O214" s="7"/>
       <c r="P214" s="24"/>
@@ -16369,7 +16390,7 @@
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B215" s="7" t="s">
         <v>971</v>
@@ -16422,16 +16443,16 @@
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C216" s="7" t="s">
         <v>1025</v>
       </c>
-      <c r="B216" s="7" t="s">
+      <c r="D216" s="7" t="s">
         <v>1027</v>
-      </c>
-      <c r="C216" s="7" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D216" s="7" t="s">
-        <v>1028</v>
       </c>
       <c r="E216" s="18">
         <v>2023</v>
@@ -16459,7 +16480,7 @@
       </c>
       <c r="M216" s="11"/>
       <c r="N216" s="19" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="O216" s="7"/>
       <c r="P216" s="24"/>
@@ -16528,7 +16549,7 @@
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B218" s="7" t="s">
         <v>982</v>
@@ -16565,7 +16586,7 @@
       </c>
       <c r="M218" s="11"/>
       <c r="N218" s="19" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="O218" s="7"/>
       <c r="P218" s="24"/>
@@ -16581,7 +16602,7 @@
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B219" s="7" t="s">
         <v>767</v>
@@ -16618,7 +16639,7 @@
       </c>
       <c r="M219" s="11"/>
       <c r="N219" s="19" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="O219" s="7"/>
       <c r="P219" s="24"/>
@@ -16671,7 +16692,7 @@
       </c>
       <c r="M220" s="11"/>
       <c r="N220" s="19" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="O220" s="7"/>
       <c r="P220" s="24"/>
@@ -16708,7 +16729,7 @@
         <v>92</v>
       </c>
       <c r="H221" s="18" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="I221" s="18" t="s">
         <v>14</v>
@@ -16724,7 +16745,7 @@
       </c>
       <c r="M221" s="11"/>
       <c r="N221" s="19" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="O221" s="7"/>
       <c r="P221" s="24"/>
@@ -16740,7 +16761,7 @@
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B222" s="7" t="s">
         <v>1014</v>
@@ -16777,7 +16798,7 @@
       </c>
       <c r="M222" s="11"/>
       <c r="N222" s="19" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="O222" s="7"/>
       <c r="P222" s="24"/>
@@ -16796,7 +16817,7 @@
         <v>1015</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>1016</v>
@@ -16830,7 +16851,7 @@
       </c>
       <c r="M223" s="11"/>
       <c r="N223" s="19" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="O223" s="7"/>
       <c r="P223" s="24"/>
@@ -16846,10 +16867,10 @@
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>267</v>
@@ -16883,7 +16904,7 @@
       </c>
       <c r="M224" s="11"/>
       <c r="N224" s="19" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="O224" s="7"/>
       <c r="P224" s="24"/>
@@ -16897,16 +16918,16 @@
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D225" s="7" t="s">
         <v>1078</v>
-      </c>
-      <c r="B225" s="7" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C225" s="7" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D225" s="7" t="s">
-        <v>1079</v>
       </c>
       <c r="E225" s="18">
         <v>2023</v>
@@ -16934,7 +16955,7 @@
       </c>
       <c r="M225" s="11"/>
       <c r="N225" s="19" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="O225" s="7"/>
       <c r="P225" s="24"/>
@@ -16997,108 +17018,251 @@
       <c r="T226" s="7"/>
       <c r="U226" s="7"/>
     </row>
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A227" s="13" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B227" s="13" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C227" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="D227" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="E227" s="14">
+        <v>2023</v>
+      </c>
+      <c r="F227" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G227" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H227" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I227" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J227" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K227" s="31">
+        <v>45293</v>
+      </c>
+      <c r="L227" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="M227" s="45"/>
+      <c r="N227" s="44" t="s">
+        <v>1176</v>
+      </c>
+      <c r="O227" s="27"/>
+      <c r="P227" s="24"/>
+      <c r="Q227" s="25"/>
+      <c r="R227" s="7"/>
+      <c r="S227" s="7"/>
+      <c r="T227" s="7"/>
+      <c r="U227" s="7"/>
+    </row>
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A228" s="13" t="s">
+        <v>959</v>
+      </c>
+      <c r="B228" s="13" t="s">
+        <v>960</v>
+      </c>
+      <c r="C228" s="13" t="s">
+        <v>958</v>
+      </c>
+      <c r="D228" s="13" t="s">
+        <v>961</v>
+      </c>
+      <c r="E228" s="14">
+        <v>2023</v>
+      </c>
+      <c r="F228" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G228" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H228" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I228" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J228" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K228" s="31">
+        <v>45294</v>
+      </c>
+      <c r="L228" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="M228" s="45"/>
+      <c r="N228" s="44"/>
+      <c r="O228" s="27"/>
+      <c r="P228" s="24"/>
+      <c r="Q228" s="25"/>
+      <c r="R228" s="7"/>
+      <c r="S228" s="7"/>
+      <c r="T228" s="7"/>
+      <c r="U228" s="7"/>
+    </row>
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A229" s="13" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B229" s="13" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C229" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D229" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E229" s="14">
+        <v>2023</v>
+      </c>
+      <c r="F229" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G229" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H229" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I229" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J229" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K229" s="31">
+        <v>45295</v>
+      </c>
+      <c r="L229" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="M229" s="45"/>
+      <c r="N229" s="44"/>
+      <c r="O229" s="27"/>
+      <c r="P229" s="24"/>
+      <c r="Q229" s="25"/>
+      <c r="R229" s="7"/>
+      <c r="S229" s="7"/>
+      <c r="T229" s="7"/>
+      <c r="U229" s="7"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="S1:U112 S114:U122 S124:U125 S127:U134 U126 S148:U175 S136:U146 S177:U179 S182:U188 S190:U205 S207:U225 S227:U1048576">
-    <cfRule type="cellIs" dxfId="79" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T113:U113">
-    <cfRule type="cellIs" dxfId="77" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S113">
-    <cfRule type="cellIs" dxfId="75" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S123:U123">
-    <cfRule type="cellIs" dxfId="73" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S126:T126">
-    <cfRule type="cellIs" dxfId="71" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S135:U135">
-    <cfRule type="cellIs" dxfId="69" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S147:U147">
-    <cfRule type="cellIs" dxfId="67" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S176:U176">
-    <cfRule type="cellIs" dxfId="65" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S181:U181">
-    <cfRule type="cellIs" dxfId="63" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S189:U189">
-    <cfRule type="cellIs" dxfId="61" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S206:U206">
-    <cfRule type="cellIs" dxfId="59" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S180:U180">
-    <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S226:U226">
-    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17464,10 +17628,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>950</v>
@@ -17489,7 +17653,7 @@
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="19" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
   </sheetData>
@@ -17502,11 +17666,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17542,490 +17704,424 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>959</v>
+        <v>972</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>960</v>
+        <v>973</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>958</v>
+        <v>259</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>961</v>
-      </c>
-      <c r="E2" s="7"/>
+        <v>262</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>1067</v>
+      </c>
       <c r="F2" s="10">
-        <v>44734</v>
+        <v>44769</v>
       </c>
       <c r="G2" s="12">
-        <f t="shared" ref="G2:G23" ca="1" si="0">TODAY()-F2</f>
-        <v>368</v>
+        <f t="shared" ref="G2:G20" ca="1" si="0">TODAY()-F2</f>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>972</v>
+        <v>989</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>973</v>
+        <v>990</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>259</v>
+        <v>89</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>1068</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E3" s="7"/>
       <c r="F3" s="10">
-        <v>44769</v>
+        <v>44803</v>
       </c>
       <c r="G3" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>333</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>89</v>
+        <v>790</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>89</v>
+        <v>793</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="10">
-        <v>44803</v>
+        <v>44832</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>299</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>980</v>
+        <v>1031</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>981</v>
+        <v>1032</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>790</v>
+        <v>1029</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>793</v>
+        <v>1030</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="10">
-        <v>44832</v>
+        <v>44914</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>270</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>1011</v>
+        <v>1054</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1012</v>
+        <v>1055</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>144</v>
+        <v>259</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>144</v>
+        <v>262</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="10">
-        <v>44883</v>
+        <v>44942</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>219</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>1019</v>
+        <v>1065</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1018</v>
+        <v>1066</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>1020</v>
+        <v>25</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="10">
-        <v>44904</v>
+        <v>44958</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>198</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>1032</v>
+        <v>1068</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1033</v>
+        <v>1069</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>1030</v>
+        <v>120</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1031</v>
+        <v>121</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="10">
-        <v>44914</v>
+        <v>44959</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>188</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>1055</v>
+        <v>1085</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1056</v>
+        <v>1088</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>259</v>
+        <v>1086</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>262</v>
+        <v>1087</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="10">
-        <v>44942</v>
+        <v>45013</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>160</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>1066</v>
+        <v>1089</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1067</v>
+        <v>1092</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>25</v>
+        <v>1090</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>28</v>
+        <v>1091</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="10">
-        <v>44958</v>
+        <v>45018</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>1069</v>
+        <v>1093</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1070</v>
+        <v>1094</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>120</v>
+        <v>1095</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>121</v>
+        <v>344</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="10">
-        <v>44959</v>
+        <v>45021</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>143</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>1086</v>
+        <v>1096</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1089</v>
+        <v>1099</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1087</v>
+        <v>1097</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1088</v>
+        <v>1098</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="10">
-        <v>45013</v>
+        <v>45021</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>1090</v>
+        <v>1100</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1093</v>
+        <v>1101</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1091</v>
+        <v>1102</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1092</v>
+        <v>1103</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="10">
-        <v>45018</v>
+        <v>45023</v>
       </c>
       <c r="G13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>1094</v>
+        <v>1108</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1095</v>
+        <v>1109</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>1096</v>
+        <v>1110</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>344</v>
+        <v>1111</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="10">
-        <v>45021</v>
+        <v>45037</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>1097</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>1098</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>1099</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="10">
-        <v>45021</v>
+        <v>45043</v>
       </c>
       <c r="G15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>1101</v>
+        <v>1114</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1102</v>
+        <v>1115</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>1103</v>
+        <v>89</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>1104</v>
+        <v>89</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="10">
-        <v>45023</v>
+        <v>45043</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>1109</v>
+        <v>1117</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1110</v>
+        <v>1118</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>1111</v>
+        <v>1126</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>1112</v>
+        <v>1125</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="10">
-        <v>45037</v>
+        <v>45061</v>
       </c>
       <c r="G17" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>1113</v>
+        <v>1127</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>1114</v>
+        <v>1130</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>1098</v>
+        <v>1128</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>1099</v>
+        <v>1129</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="10">
-        <v>45043</v>
+        <v>45063</v>
       </c>
       <c r="G18" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>1115</v>
+        <v>1137</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>89</v>
+        <v>267</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="7"/>
+        <v>268</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>1139</v>
+      </c>
       <c r="F19" s="10">
-        <v>45043</v>
+        <v>45064</v>
       </c>
       <c r="G19" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>1118</v>
+        <v>1100</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1119</v>
+        <v>1156</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>1127</v>
+        <v>1157</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>1126</v>
+        <v>1158</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="10">
-        <v>45061</v>
+        <v>45072</v>
       </c>
       <c r="G20" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="10">
-        <v>45063</v>
-      </c>
-      <c r="G21" s="12">
-        <f t="shared" ca="1" si="0"/>
         <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>1140</v>
-      </c>
-      <c r="F22" s="10">
-        <v>45064</v>
-      </c>
-      <c r="G22" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>1159</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="10">
-        <v>45072</v>
-      </c>
-      <c r="G23" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -18090,7 +18186,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>7.6547945205479451</v>
+        <v>7.6794520547945204</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -18111,7 +18207,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6547945205479451</v>
+        <v>7.6794520547945204</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -18132,7 +18228,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0328767123287674</v>
+        <v>7.0575342465753428</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -18153,21 +18249,21 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>5.4027397260273968</v>
+        <v>5.4273972602739722</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>1155</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>1156</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="10">
@@ -18185,10 +18281,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18202,7 +18298,7 @@
     <row r="1" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E1" s="50">
         <f>COUNTA(E3:E998)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1" s="50">
         <f>COUNTA(F3:F998)</f>
@@ -18210,7 +18306,7 @@
       </c>
       <c r="G1" s="50">
         <f>COUNTA(G3:G998)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="50">
         <f>COUNTA(H3:H998)</f>
@@ -18218,271 +18314,316 @@
       </c>
       <c r="I1" s="51">
         <f>SUM(E1:H1)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B2" s="52" t="s">
         <v>175</v>
       </c>
       <c r="C2" s="52" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D2" s="52" t="s">
         <v>1050</v>
       </c>
-      <c r="D2" s="52" t="s">
-        <v>1051</v>
-      </c>
       <c r="E2" s="53" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F2" s="53" t="s">
         <v>1037</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="G2" s="53" t="s">
         <v>1038</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="H2" s="53" t="s">
         <v>1039</v>
-      </c>
-      <c r="H2" s="53" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B3" s="49" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C3" s="49" t="s">
         <v>1042</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>1043</v>
-      </c>
       <c r="D3" s="15" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B4" s="49" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C4" s="49" t="s">
         <v>1044</v>
       </c>
-      <c r="C4" s="49" t="s">
-        <v>1045</v>
-      </c>
       <c r="D4" s="15" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B5" s="49" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C5" s="49" t="s">
         <v>1046</v>
       </c>
-      <c r="C5" s="49" t="s">
-        <v>1047</v>
-      </c>
       <c r="D5" s="15" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B6" s="49" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C6" s="49" t="s">
         <v>1057</v>
       </c>
-      <c r="C6" s="49" t="s">
-        <v>1058</v>
-      </c>
       <c r="D6" s="15" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="G6" s="48" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B7" s="49" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C7" s="49" t="s">
         <v>1073</v>
       </c>
-      <c r="C7" s="49" t="s">
-        <v>1074</v>
-      </c>
       <c r="D7" s="15" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="G7" s="48" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B8" s="49" t="s">
         <v>1075</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="C8" s="49" t="s">
         <v>1076</v>
       </c>
-      <c r="C8" s="49" t="s">
-        <v>1077</v>
-      </c>
       <c r="D8" s="15" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F8" s="48" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B9" s="49" t="s">
         <v>1120</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="C9" s="49" t="s">
         <v>1121</v>
       </c>
-      <c r="C9" s="49" t="s">
-        <v>1122</v>
-      </c>
       <c r="D9" s="15" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B10" s="49" t="s">
         <v>1123</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="C10" s="49" t="s">
         <v>1124</v>
       </c>
-      <c r="C10" s="49" t="s">
-        <v>1125</v>
-      </c>
       <c r="D10" s="15" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F10" s="48" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B11" s="49" t="s">
         <v>1134</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="C11" s="49" t="s">
         <v>1135</v>
       </c>
-      <c r="C11" s="49" t="s">
-        <v>1136</v>
-      </c>
       <c r="D11" s="15" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H11" s="48" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B12" s="49" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C12" s="49" t="s">
         <v>1147</v>
       </c>
-      <c r="C12" s="49" t="s">
-        <v>1148</v>
-      </c>
       <c r="D12" s="15" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="G12" s="48" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B13" s="49" t="s">
         <v>1149</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="C13" s="49" t="s">
         <v>1150</v>
       </c>
-      <c r="C13" s="49" t="s">
-        <v>1151</v>
-      </c>
       <c r="D13" s="15" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H13" s="48" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B14" s="49" t="s">
         <v>1163</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="C14" s="49" t="s">
         <v>1164</v>
       </c>
-      <c r="C14" s="49" t="s">
-        <v>1165</v>
-      </c>
       <c r="D14" s="15" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B15" s="49" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C15" s="49" t="s">
         <v>1073</v>
       </c>
-      <c r="C15" s="49" t="s">
-        <v>1074</v>
-      </c>
       <c r="D15" s="15" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="G15" s="48" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B16" s="49" t="s">
         <v>1167</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="C16" s="49" t="s">
         <v>1168</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="D16" s="15" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>1169</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>1048</v>
-      </c>
-      <c r="G16" s="48" t="s">
-        <v>1041</v>
+      <c r="B17" s="49" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E18" s="48" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>1040</v>
       </c>
     </row>
   </sheetData>
@@ -18528,8 +18669,12 @@
     <hyperlink ref="B15" r:id="rId26"/>
     <hyperlink ref="B16" r:id="rId27"/>
     <hyperlink ref="C16" r:id="rId28"/>
+    <hyperlink ref="B17" r:id="rId29"/>
+    <hyperlink ref="B18" r:id="rId30"/>
+    <hyperlink ref="B19" r:id="rId31"/>
+    <hyperlink ref="C19" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
--- a/publications.xlsx
+++ b/publications.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2822" uniqueCount="1177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2831" uniqueCount="1181">
   <si>
     <t>title</t>
   </si>
@@ -3556,6 +3556,18 @@
   </si>
   <si>
     <t>10.1016/j.onehlt.2023.100595</t>
+  </si>
+  <si>
+    <t>Animal sources of antimicrobial resistant bacterial infections in humans: a systematic review</t>
+  </si>
+  <si>
+    <t>Fastl, Christina; De Carvalho Ferreira, Helena C; Babo Martins, Sara; Sucena Afonso, Joao; di Bari, Carlotta; Venkateswaran, Narmada; Pires, Sara Monteiro; Mughini-Gras, Lapo; Huntington, Ben; Rushton, Jonathan; Pigott, David; Devleesschauwer, Brecht</t>
+  </si>
+  <si>
+    <t>Trends in socioeconomic inequalities in cause-specific premature mortality in Belgium, 1998-2019</t>
+  </si>
+  <si>
+    <t>Otavova, Martina; Masquelier, Bruno; Faes, Christel; Van Den Borre, Laura; Vandeninden, Bram; De Clercq, Eva; Devleesschauwer, Brecht</t>
   </si>
 </sst>
 </file>
@@ -3863,6 +3875,169 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -4122,169 +4297,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -4299,74 +4311,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U229" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U229" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="A1:U229"/>
   <sortState ref="A2:U229">
     <sortCondition ref="K1:K229"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" name="title" dataDxfId="77"/>
-    <tableColumn id="2" name="authors" dataDxfId="76"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="75"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="74"/>
-    <tableColumn id="6" name="year" dataDxfId="73"/>
-    <tableColumn id="4" name="volume" dataDxfId="72"/>
-    <tableColumn id="5" name="issue" dataDxfId="71"/>
-    <tableColumn id="7" name="eID" dataDxfId="70"/>
-    <tableColumn id="8" name="from" dataDxfId="69"/>
-    <tableColumn id="9" name="to" dataDxfId="68"/>
-    <tableColumn id="10" name="date" dataDxfId="67"/>
-    <tableColumn id="14" name="classification" dataDxfId="66"/>
-    <tableColumn id="12" name="IF" dataDxfId="65"/>
-    <tableColumn id="13" name="DOI" dataDxfId="64"/>
-    <tableColumn id="15" name="WoS" dataDxfId="63"/>
-    <tableColumn id="16" name="rank" dataDxfId="62"/>
-    <tableColumn id="17" name="quartile" dataDxfId="61"/>
-    <tableColumn id="18" name="category" dataDxfId="60"/>
-    <tableColumn id="19" name="CBRA" dataDxfId="59"/>
-    <tableColumn id="20" name="SC" dataDxfId="58"/>
-    <tableColumn id="21" name="UGent" dataDxfId="57"/>
+    <tableColumn id="1" name="title" dataDxfId="51"/>
+    <tableColumn id="2" name="authors" dataDxfId="50"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="49"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="48"/>
+    <tableColumn id="6" name="year" dataDxfId="47"/>
+    <tableColumn id="4" name="volume" dataDxfId="46"/>
+    <tableColumn id="5" name="issue" dataDxfId="45"/>
+    <tableColumn id="7" name="eID" dataDxfId="44"/>
+    <tableColumn id="8" name="from" dataDxfId="43"/>
+    <tableColumn id="9" name="to" dataDxfId="42"/>
+    <tableColumn id="10" name="date" dataDxfId="41"/>
+    <tableColumn id="14" name="classification" dataDxfId="40"/>
+    <tableColumn id="12" name="IF" dataDxfId="39"/>
+    <tableColumn id="13" name="DOI" dataDxfId="38"/>
+    <tableColumn id="15" name="WoS" dataDxfId="37"/>
+    <tableColumn id="16" name="rank" dataDxfId="36"/>
+    <tableColumn id="17" name="quartile" dataDxfId="35"/>
+    <tableColumn id="18" name="category" dataDxfId="34"/>
+    <tableColumn id="19" name="CBRA" dataDxfId="33"/>
+    <tableColumn id="20" name="SC" dataDxfId="32"/>
+    <tableColumn id="21" name="UGent" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J12" totalsRowShown="0" headerRowDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J12" totalsRowShown="0" headerRowDxfId="30">
   <autoFilter ref="A1:J12"/>
   <sortState ref="A2:N50">
     <sortCondition ref="H1:H50"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="title" dataDxfId="55"/>
-    <tableColumn id="2" name="authors" dataDxfId="54"/>
-    <tableColumn id="3" name="editors" dataDxfId="53"/>
-    <tableColumn id="11" name="book" dataDxfId="52"/>
-    <tableColumn id="6" name="year" dataDxfId="51"/>
-    <tableColumn id="8" name="from" dataDxfId="50"/>
-    <tableColumn id="9" name="to" dataDxfId="49"/>
-    <tableColumn id="10" name="date" dataDxfId="48"/>
-    <tableColumn id="12" name="IF" dataDxfId="47"/>
-    <tableColumn id="13" name="DOI" dataDxfId="46"/>
+    <tableColumn id="1" name="title" dataDxfId="29"/>
+    <tableColumn id="2" name="authors" dataDxfId="28"/>
+    <tableColumn id="3" name="editors" dataDxfId="27"/>
+    <tableColumn id="11" name="book" dataDxfId="26"/>
+    <tableColumn id="6" name="year" dataDxfId="25"/>
+    <tableColumn id="8" name="from" dataDxfId="24"/>
+    <tableColumn id="9" name="to" dataDxfId="23"/>
+    <tableColumn id="10" name="date" dataDxfId="22"/>
+    <tableColumn id="12" name="IF" dataDxfId="21"/>
+    <tableColumn id="13" name="DOI" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G20" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
-  <autoFilter ref="A1:G20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G22" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:G22"/>
   <sortState ref="A2:G17">
     <sortCondition ref="F1:F17"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="title" dataDxfId="43"/>
-    <tableColumn id="2" name="authors" dataDxfId="42"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="41"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="40"/>
-    <tableColumn id="4" name="doi_preprint" dataDxfId="39"/>
-    <tableColumn id="10" name="date" dataDxfId="38"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="37">
+    <tableColumn id="1" name="title" dataDxfId="17"/>
+    <tableColumn id="2" name="authors" dataDxfId="16"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="15"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="14"/>
+    <tableColumn id="4" name="doi_preprint" dataDxfId="13"/>
+    <tableColumn id="10" name="date" dataDxfId="12"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="11">
       <calculatedColumnFormula>TODAY()-F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4375,18 +4387,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:F5"/>
   <sortState ref="A2:K14">
     <sortCondition ref="E1:E14"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="title" dataDxfId="34"/>
-    <tableColumn id="2" name="authors" dataDxfId="33"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="32"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="31"/>
-    <tableColumn id="10" name="date" dataDxfId="30"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="29">
+    <tableColumn id="1" name="title" dataDxfId="8"/>
+    <tableColumn id="2" name="authors" dataDxfId="7"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="6"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="5"/>
+    <tableColumn id="10" name="date" dataDxfId="4"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="3">
       <calculatedColumnFormula>(TODAY()-E2)/365</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4683,7 +4695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A229" sqref="A229"/>
     </sheetView>
   </sheetViews>
@@ -16914,7 +16926,9 @@
       <c r="T224" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="U224" s="7"/>
+      <c r="U224" s="7" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
@@ -17163,106 +17177,106 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="S1:U112 S114:U122 S124:U125 S127:U134 U126 S148:U175 S136:U146 S177:U179 S182:U188 S190:U205 S207:U225 S227:U1048576">
-    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="27" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="28" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T113:U113">
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="25" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="26" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S113">
-    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="23" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="24" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S123:U123">
-    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="21" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="22" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S126:T126">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="19" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="20" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S135:U135">
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="17" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="18" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S147:U147">
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="15" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="16" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S176:U176">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="13" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="14" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S181:U181">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="9" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="10" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S189:U189">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="7" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="8" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S206:U206">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="5" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="6" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S180:U180">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S226:U226">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17666,9 +17680,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17722,8 +17738,8 @@
         <v>44769</v>
       </c>
       <c r="G2" s="12">
-        <f t="shared" ref="G2:G20" ca="1" si="0">TODAY()-F2</f>
-        <v>342</v>
+        <f t="shared" ref="G2:G21" ca="1" si="0">TODAY()-F2</f>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -17745,7 +17761,7 @@
       </c>
       <c r="G3" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -17767,7 +17783,7 @@
       </c>
       <c r="G4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -17789,7 +17805,7 @@
       </c>
       <c r="G5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -17811,7 +17827,7 @@
       </c>
       <c r="G6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -17833,7 +17849,7 @@
       </c>
       <c r="G7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -17855,7 +17871,7 @@
       </c>
       <c r="G8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -17877,7 +17893,7 @@
       </c>
       <c r="G9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -17899,7 +17915,7 @@
       </c>
       <c r="G10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -17921,7 +17937,7 @@
       </c>
       <c r="G11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -17943,7 +17959,7 @@
       </c>
       <c r="G12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -17965,7 +17981,7 @@
       </c>
       <c r="G13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -17987,7 +18003,7 @@
       </c>
       <c r="G14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -18009,7 +18025,7 @@
       </c>
       <c r="G15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -18031,7 +18047,7 @@
       </c>
       <c r="G16" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -18053,7 +18069,7 @@
       </c>
       <c r="G17" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -18075,7 +18091,7 @@
       </c>
       <c r="G18" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -18099,7 +18115,7 @@
       </c>
       <c r="G19" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -18121,7 +18137,51 @@
       </c>
       <c r="G20" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="10">
+        <v>45114</v>
+      </c>
+      <c r="G21" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="10">
+        <v>45114</v>
+      </c>
+      <c r="G22" s="12">
+        <f t="shared" ref="G22" ca="1" si="1">TODAY()-F22</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -18186,7 +18246,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>7.6794520547945204</v>
+        <v>7.6904109589041099</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -18207,7 +18267,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6794520547945204</v>
+        <v>7.6904109589041099</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -18228,7 +18288,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0575342465753428</v>
+        <v>7.0684931506849313</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -18249,7 +18309,7 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>5.4273972602739722</v>
+        <v>5.4383561643835616</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2831" uniqueCount="1181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2843" uniqueCount="1185">
   <si>
     <t>title</t>
   </si>
@@ -3568,6 +3568,18 @@
   </si>
   <si>
     <t>Otavova, Martina; Masquelier, Bruno; Faes, Christel; Van Den Borre, Laura; Vandeninden, Bram; De Clercq, Eva; Devleesschauwer, Brecht</t>
+  </si>
+  <si>
+    <t>Non-response bias in the analysis of the association between mental health and the urban environment: a cross-sectional study in Brussels, Belgium</t>
+  </si>
+  <si>
+    <t>HIND</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13690-023-01118-y</t>
+  </si>
+  <si>
+    <t>avg time since submission</t>
   </si>
 </sst>
 </file>
@@ -3579,7 +3591,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3634,6 +3646,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3684,7 +3704,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3835,6 +3855,12 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -3843,7 +3869,17 @@
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="81">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3873,169 +3909,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4297,6 +4170,169 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -4311,74 +4347,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U229" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
-  <autoFilter ref="A1:U229"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U230" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
+  <autoFilter ref="A1:U230"/>
   <sortState ref="A2:U229">
     <sortCondition ref="K1:K229"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" name="title" dataDxfId="51"/>
-    <tableColumn id="2" name="authors" dataDxfId="50"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="49"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="48"/>
-    <tableColumn id="6" name="year" dataDxfId="47"/>
-    <tableColumn id="4" name="volume" dataDxfId="46"/>
-    <tableColumn id="5" name="issue" dataDxfId="45"/>
-    <tableColumn id="7" name="eID" dataDxfId="44"/>
-    <tableColumn id="8" name="from" dataDxfId="43"/>
-    <tableColumn id="9" name="to" dataDxfId="42"/>
-    <tableColumn id="10" name="date" dataDxfId="41"/>
-    <tableColumn id="14" name="classification" dataDxfId="40"/>
-    <tableColumn id="12" name="IF" dataDxfId="39"/>
-    <tableColumn id="13" name="DOI" dataDxfId="38"/>
-    <tableColumn id="15" name="WoS" dataDxfId="37"/>
-    <tableColumn id="16" name="rank" dataDxfId="36"/>
-    <tableColumn id="17" name="quartile" dataDxfId="35"/>
-    <tableColumn id="18" name="category" dataDxfId="34"/>
-    <tableColumn id="19" name="CBRA" dataDxfId="33"/>
-    <tableColumn id="20" name="SC" dataDxfId="32"/>
-    <tableColumn id="21" name="UGent" dataDxfId="31"/>
+    <tableColumn id="1" name="title" dataDxfId="78"/>
+    <tableColumn id="2" name="authors" dataDxfId="77"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="76"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="75"/>
+    <tableColumn id="6" name="year" dataDxfId="74"/>
+    <tableColumn id="4" name="volume" dataDxfId="73"/>
+    <tableColumn id="5" name="issue" dataDxfId="72"/>
+    <tableColumn id="7" name="eID" dataDxfId="71"/>
+    <tableColumn id="8" name="from" dataDxfId="70"/>
+    <tableColumn id="9" name="to" dataDxfId="69"/>
+    <tableColumn id="10" name="date" dataDxfId="68"/>
+    <tableColumn id="14" name="classification" dataDxfId="67"/>
+    <tableColumn id="12" name="IF" dataDxfId="66"/>
+    <tableColumn id="13" name="DOI" dataDxfId="65"/>
+    <tableColumn id="15" name="WoS" dataDxfId="64"/>
+    <tableColumn id="16" name="rank" dataDxfId="63"/>
+    <tableColumn id="17" name="quartile" dataDxfId="62"/>
+    <tableColumn id="18" name="category" dataDxfId="61"/>
+    <tableColumn id="19" name="CBRA" dataDxfId="60"/>
+    <tableColumn id="20" name="SC" dataDxfId="59"/>
+    <tableColumn id="21" name="UGent" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J12" totalsRowShown="0" headerRowDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J12" totalsRowShown="0" headerRowDxfId="57">
   <autoFilter ref="A1:J12"/>
   <sortState ref="A2:N50">
     <sortCondition ref="H1:H50"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="title" dataDxfId="29"/>
-    <tableColumn id="2" name="authors" dataDxfId="28"/>
-    <tableColumn id="3" name="editors" dataDxfId="27"/>
-    <tableColumn id="11" name="book" dataDxfId="26"/>
-    <tableColumn id="6" name="year" dataDxfId="25"/>
-    <tableColumn id="8" name="from" dataDxfId="24"/>
-    <tableColumn id="9" name="to" dataDxfId="23"/>
-    <tableColumn id="10" name="date" dataDxfId="22"/>
-    <tableColumn id="12" name="IF" dataDxfId="21"/>
-    <tableColumn id="13" name="DOI" dataDxfId="20"/>
+    <tableColumn id="1" name="title" dataDxfId="56"/>
+    <tableColumn id="2" name="authors" dataDxfId="55"/>
+    <tableColumn id="3" name="editors" dataDxfId="54"/>
+    <tableColumn id="11" name="book" dataDxfId="53"/>
+    <tableColumn id="6" name="year" dataDxfId="52"/>
+    <tableColumn id="8" name="from" dataDxfId="51"/>
+    <tableColumn id="9" name="to" dataDxfId="50"/>
+    <tableColumn id="10" name="date" dataDxfId="49"/>
+    <tableColumn id="12" name="IF" dataDxfId="48"/>
+    <tableColumn id="13" name="DOI" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G22" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:G22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G21" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+  <autoFilter ref="A1:G21"/>
   <sortState ref="A2:G17">
     <sortCondition ref="F1:F17"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="title" dataDxfId="17"/>
-    <tableColumn id="2" name="authors" dataDxfId="16"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="15"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="14"/>
-    <tableColumn id="4" name="doi_preprint" dataDxfId="13"/>
-    <tableColumn id="10" name="date" dataDxfId="12"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="11">
+    <tableColumn id="1" name="title" dataDxfId="44"/>
+    <tableColumn id="2" name="authors" dataDxfId="43"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="42"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="41"/>
+    <tableColumn id="4" name="doi_preprint" dataDxfId="40"/>
+    <tableColumn id="10" name="date" dataDxfId="39"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="38">
       <calculatedColumnFormula>TODAY()-F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4387,18 +4423,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="A1:F5"/>
   <sortState ref="A2:K14">
     <sortCondition ref="E1:E14"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="title" dataDxfId="8"/>
-    <tableColumn id="2" name="authors" dataDxfId="7"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="6"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="5"/>
-    <tableColumn id="10" name="date" dataDxfId="4"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="3">
+    <tableColumn id="1" name="title" dataDxfId="35"/>
+    <tableColumn id="2" name="authors" dataDxfId="34"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="33"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="32"/>
+    <tableColumn id="10" name="date" dataDxfId="31"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="30">
       <calculatedColumnFormula>(TODAY()-E2)/365</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4693,10 +4729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U229"/>
+  <dimension ref="A1:U230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A229" sqref="A229"/>
+    <sheetView tabSelected="1" topLeftCell="A192" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A230" sqref="A230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17175,108 +17211,155 @@
       <c r="T229" s="7"/>
       <c r="U229" s="7"/>
     </row>
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A230" s="13" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B230" s="13" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C230" s="13" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D230" s="13" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E230" s="14">
+        <v>2023</v>
+      </c>
+      <c r="F230" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G230" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H230" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I230" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J230" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K230" s="31">
+        <v>45296</v>
+      </c>
+      <c r="L230" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="M230" s="45"/>
+      <c r="N230" s="44"/>
+      <c r="O230" s="27"/>
+      <c r="P230" s="24"/>
+      <c r="Q230" s="25"/>
+      <c r="R230" s="7"/>
+      <c r="S230" s="7"/>
+      <c r="T230" s="7"/>
+      <c r="U230" s="7"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="S1:U112 S114:U122 S124:U125 S127:U134 U126 S148:U175 S136:U146 S177:U179 S182:U188 S190:U205 S207:U225 S227:U1048576">
-    <cfRule type="cellIs" dxfId="79" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T113:U113">
-    <cfRule type="cellIs" dxfId="77" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S113">
-    <cfRule type="cellIs" dxfId="75" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S123:U123">
-    <cfRule type="cellIs" dxfId="73" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S126:T126">
-    <cfRule type="cellIs" dxfId="71" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S135:U135">
-    <cfRule type="cellIs" dxfId="69" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S147:U147">
-    <cfRule type="cellIs" dxfId="67" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S176:U176">
-    <cfRule type="cellIs" dxfId="65" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S181:U181">
-    <cfRule type="cellIs" dxfId="63" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S189:U189">
-    <cfRule type="cellIs" dxfId="61" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S206:U206">
-    <cfRule type="cellIs" dxfId="59" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S180:U180">
-    <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S226:U226">
-    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17680,11 +17763,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17695,7 +17776,7 @@
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -17717,8 +17798,15 @@
       <c r="G1" s="5" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" s="55">
+        <f ca="1">AVERAGE(G:G)</f>
+        <v>126.95</v>
+      </c>
+      <c r="J1" s="54" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>972</v>
       </c>
@@ -17738,11 +17826,11 @@
         <v>44769</v>
       </c>
       <c r="G2" s="12">
-        <f t="shared" ref="G2:G21" ca="1" si="0">TODAY()-F2</f>
-        <v>346</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <f ca="1">TODAY()-F2</f>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>989</v>
       </c>
@@ -17760,11 +17848,11 @@
         <v>44803</v>
       </c>
       <c r="G3" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <f ca="1">TODAY()-F3</f>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>980</v>
       </c>
@@ -17782,11 +17870,11 @@
         <v>44832</v>
       </c>
       <c r="G4" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <f ca="1">TODAY()-F4</f>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>1031</v>
       </c>
@@ -17804,11 +17892,11 @@
         <v>44914</v>
       </c>
       <c r="G5" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <f ca="1">TODAY()-F5</f>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>1054</v>
       </c>
@@ -17826,11 +17914,11 @@
         <v>44942</v>
       </c>
       <c r="G6" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <f ca="1">TODAY()-F6</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>1065</v>
       </c>
@@ -17848,11 +17936,11 @@
         <v>44958</v>
       </c>
       <c r="G7" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <f ca="1">TODAY()-F7</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>1068</v>
       </c>
@@ -17870,11 +17958,11 @@
         <v>44959</v>
       </c>
       <c r="G8" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <f ca="1">TODAY()-F8</f>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1085</v>
       </c>
@@ -17892,11 +17980,11 @@
         <v>45013</v>
       </c>
       <c r="G9" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <f ca="1">TODAY()-F9</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>1089</v>
       </c>
@@ -17914,11 +18002,11 @@
         <v>45018</v>
       </c>
       <c r="G10" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <f ca="1">TODAY()-F10</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>1093</v>
       </c>
@@ -17936,11 +18024,11 @@
         <v>45021</v>
       </c>
       <c r="G11" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <f ca="1">TODAY()-F11</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>1096</v>
       </c>
@@ -17958,11 +18046,11 @@
         <v>45021</v>
       </c>
       <c r="G12" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <f ca="1">TODAY()-F12</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>1100</v>
       </c>
@@ -17980,11 +18068,11 @@
         <v>45023</v>
       </c>
       <c r="G13" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <f ca="1">TODAY()-F13</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>1108</v>
       </c>
@@ -18002,11 +18090,11 @@
         <v>45037</v>
       </c>
       <c r="G14" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <f ca="1">TODAY()-F14</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>1112</v>
       </c>
@@ -18024,11 +18112,11 @@
         <v>45043</v>
       </c>
       <c r="G15" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <f ca="1">TODAY()-F15</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>1114</v>
       </c>
@@ -18046,8 +18134,8 @@
         <v>45043</v>
       </c>
       <c r="G16" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <f ca="1">TODAY()-F16</f>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -18068,120 +18156,98 @@
         <v>45061</v>
       </c>
       <c r="G17" s="12">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">TODAY()-F17</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F18" s="10">
+        <v>45064</v>
+      </c>
+      <c r="G18" s="12">
+        <f ca="1">TODAY()-F18</f>
         <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>1129</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="10">
-        <v>45063</v>
-      </c>
-      <c r="G18" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>1137</v>
+        <v>1100</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1138</v>
+        <v>1156</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>267</v>
+        <v>1157</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>1139</v>
-      </c>
+        <v>1158</v>
+      </c>
+      <c r="E19" s="7"/>
       <c r="F19" s="10">
-        <v>45064</v>
+        <v>45072</v>
       </c>
       <c r="G19" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <f ca="1">TODAY()-F19</f>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>1100</v>
+        <v>1177</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1156</v>
+        <v>1178</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>1157</v>
+        <v>509</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>1158</v>
+        <v>510</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="10">
-        <v>45072</v>
+        <v>45114</v>
       </c>
       <c r="G20" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <f ca="1">TODAY()-F20</f>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>509</v>
+        <v>575</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>510</v>
+        <v>576</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="10">
         <v>45114</v>
       </c>
       <c r="G21" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="10">
-        <v>45114</v>
-      </c>
-      <c r="G22" s="12">
-        <f t="shared" ref="G22" ca="1" si="1">TODAY()-F22</f>
-        <v>1</v>
+        <f ca="1">TODAY()-F21</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -18246,7 +18312,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>7.6904109589041099</v>
+        <v>7.6986301369863011</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -18267,7 +18333,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6904109589041099</v>
+        <v>7.6986301369863011</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -18288,7 +18354,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0684931506849313</v>
+        <v>7.0767123287671234</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -18309,7 +18375,7 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>5.4383561643835616</v>
+        <v>5.4465753424657537</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -18341,43 +18407,45 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="81.28515625" customWidth="1"/>
     <col min="2" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="15"/>
-    <col min="5" max="8" width="9.140625" style="48"/>
+    <col min="5" max="9" width="9.140625" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E1" s="50">
         <f>COUNTA(E3:E998)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F1" s="50">
         <f>COUNTA(F3:F998)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1" s="50">
         <f>COUNTA(G3:G998)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H1" s="50">
         <f>COUNTA(H3:H998)</f>
+        <v>7</v>
+      </c>
+      <c r="I1" s="50">
+        <f>COUNTA(I3:I998)</f>
         <v>3</v>
       </c>
-      <c r="I1" s="51">
-        <f>SUM(E1:H1)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="51">
+        <f>SUM(E1:I1)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>1048</v>
       </c>
@@ -18391,19 +18459,22 @@
         <v>1050</v>
       </c>
       <c r="E2" s="53" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F2" s="53" t="s">
         <v>1036</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="G2" s="53" t="s">
         <v>1037</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="H2" s="53" t="s">
         <v>1038</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="I2" s="53" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1145</v>
       </c>
@@ -18416,11 +18487,11 @@
       <c r="D3" s="15" t="s">
         <v>1047</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="F3" s="48" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1144</v>
       </c>
@@ -18433,11 +18504,11 @@
       <c r="D4" s="15" t="s">
         <v>1059</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="I4" s="48" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1143</v>
       </c>
@@ -18450,11 +18521,11 @@
       <c r="D5" s="15" t="s">
         <v>1059</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="F5" s="48" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1142</v>
       </c>
@@ -18467,11 +18538,11 @@
       <c r="D6" s="15" t="s">
         <v>1047</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="H6" s="48" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1141</v>
       </c>
@@ -18484,11 +18555,11 @@
       <c r="D7" s="15" t="s">
         <v>1047</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="H7" s="48" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1074</v>
       </c>
@@ -18501,11 +18572,11 @@
       <c r="D8" s="15" t="s">
         <v>1047</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="G8" s="48" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1119</v>
       </c>
@@ -18518,11 +18589,11 @@
       <c r="D9" s="15" t="s">
         <v>1047</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="F9" s="48" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1122</v>
       </c>
@@ -18535,11 +18606,11 @@
       <c r="D10" s="15" t="s">
         <v>1047</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="G10" s="48" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1133</v>
       </c>
@@ -18552,11 +18623,11 @@
       <c r="D11" s="15" t="s">
         <v>1047</v>
       </c>
-      <c r="H11" s="48" t="s">
+      <c r="I11" s="48" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1140</v>
       </c>
@@ -18569,11 +18640,11 @@
       <c r="D12" s="15" t="s">
         <v>1047</v>
       </c>
-      <c r="G12" s="48" t="s">
+      <c r="H12" s="48" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1148</v>
       </c>
@@ -18586,11 +18657,11 @@
       <c r="D13" s="15" t="s">
         <v>1047</v>
       </c>
-      <c r="H13" s="48" t="s">
+      <c r="I13" s="48" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1162</v>
       </c>
@@ -18603,11 +18674,11 @@
       <c r="D14" s="15" t="s">
         <v>1047</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="H14" s="48" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1165</v>
       </c>
@@ -18620,11 +18691,11 @@
       <c r="D15" s="15" t="s">
         <v>1047</v>
       </c>
-      <c r="G15" s="48" t="s">
+      <c r="H15" s="48" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1166</v>
       </c>
@@ -18637,11 +18708,11 @@
       <c r="D16" s="15" t="s">
         <v>1047</v>
       </c>
-      <c r="G16" s="48" t="s">
+      <c r="H16" s="48" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1169</v>
       </c>
@@ -18651,11 +18722,11 @@
       <c r="D17" s="15" t="s">
         <v>1047</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="F17" s="48" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1171</v>
       </c>
@@ -18665,11 +18736,11 @@
       <c r="D18" s="15" t="s">
         <v>1047</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="F18" s="48" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1173</v>
       </c>
@@ -18682,22 +18753,41 @@
       <c r="D19" s="15" t="s">
         <v>1047</v>
       </c>
-      <c r="G19" s="48" t="s">
+      <c r="H19" s="48" t="s">
         <v>1040</v>
       </c>
     </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>1040</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E1:H1048576">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="E1:I1048576">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="D2:E1048576 D1">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -18733,8 +18823,9 @@
     <hyperlink ref="B18" r:id="rId30"/>
     <hyperlink ref="B19" r:id="rId31"/>
     <hyperlink ref="C19" r:id="rId32"/>
+    <hyperlink ref="B20" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
--- a/publications.xlsx
+++ b/publications.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2871" uniqueCount="1200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="1202">
   <si>
     <t>title</t>
   </si>
@@ -3327,15 +3327,6 @@
     <t>The incremental healthcare cost associated with cancer in Belgium: a registry-based data analysis</t>
   </si>
   <si>
-    <t>Gorasso, Vanessa; Vandevijvere, Stefanie; Van der Heyden, Johan; Pelgrims, Ingrid; Hilderink, Henk; Nusselder, Wilma; Demoury, Claire; Schmidt, Masja; Vansteelandt, Stijn; De Smedt, Delphine; Devleesschauwer, Brecht</t>
-  </si>
-  <si>
-    <t>Applied Health Economics and Health Policy</t>
-  </si>
-  <si>
-    <t>Appl. Health Econ. Health Policy</t>
-  </si>
-  <si>
     <t>10.1186/s12905-023-02260-z</t>
   </si>
   <si>
@@ -3441,9 +3432,6 @@
     <t>Devleesschauwer, Brecht; Scohy, Aline; De Pauw, Robby; Gorasso, Vanessa; Kongs, Anne; Neirynck, Elias; Verduyckt, Peter; Wyper, Grant M A; Van den Borre, Laura</t>
   </si>
   <si>
-    <t>10.21203/rs.3.rs-2952989/v1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trends in adults' energy imbalance gaps over two decades in Belgium using system dynamics modelling </t>
   </si>
   <si>
@@ -3625,6 +3613,24 @@
   </si>
   <si>
     <t>Pelgrims, Ingrid; Devleesschauwer, Brecht; Vandevijvere, Stefanie; De Clercq, Eva M; Gorasso, Vanessa; Van der Heyden, Johan; Vansteelandt, Stijn</t>
+  </si>
+  <si>
+    <t>10.1007/s12571-023-01385-1</t>
+  </si>
+  <si>
+    <t>Upstream Determinants of Overweight and Obesity in Europe</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s13679-023-00524-1</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/37594616/</t>
+  </si>
+  <si>
+    <t>10.1017/S0950268823001309</t>
+  </si>
+  <si>
+    <t>10.1186/s13690-023-01163-7</t>
   </si>
 </sst>
 </file>
@@ -3956,6 +3962,46 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -4119,46 +4165,6 @@
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -4173,74 +4179,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U231" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
-  <autoFilter ref="A1:U231"/>
-  <sortState ref="A2:U231">
-    <sortCondition ref="K1:K231"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U233" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+  <autoFilter ref="A1:U233"/>
+  <sortState ref="A2:U233">
+    <sortCondition ref="K1:K233"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" name="title" dataDxfId="52"/>
-    <tableColumn id="2" name="authors" dataDxfId="51"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="50"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="49"/>
-    <tableColumn id="6" name="year" dataDxfId="48"/>
-    <tableColumn id="4" name="volume" dataDxfId="47"/>
-    <tableColumn id="5" name="issue" dataDxfId="46"/>
-    <tableColumn id="7" name="eID" dataDxfId="45"/>
-    <tableColumn id="8" name="from" dataDxfId="44"/>
-    <tableColumn id="9" name="to" dataDxfId="43"/>
-    <tableColumn id="10" name="date" dataDxfId="42"/>
-    <tableColumn id="19" name="date_submitted" dataDxfId="41" dataCellStyle="Neutral"/>
-    <tableColumn id="14" name="classification" dataDxfId="40"/>
-    <tableColumn id="12" name="IF" dataDxfId="39"/>
-    <tableColumn id="13" name="DOI" dataDxfId="38"/>
-    <tableColumn id="15" name="WoS" dataDxfId="37"/>
-    <tableColumn id="16" name="rank" dataDxfId="36"/>
-    <tableColumn id="17" name="quartile" dataDxfId="35"/>
-    <tableColumn id="18" name="category" dataDxfId="34"/>
-    <tableColumn id="20" name="SC" dataDxfId="33"/>
-    <tableColumn id="21" name="UGent" dataDxfId="32"/>
+    <tableColumn id="1" name="title" dataDxfId="56"/>
+    <tableColumn id="2" name="authors" dataDxfId="55"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="54"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="53"/>
+    <tableColumn id="6" name="year" dataDxfId="52"/>
+    <tableColumn id="4" name="volume" dataDxfId="51"/>
+    <tableColumn id="5" name="issue" dataDxfId="50"/>
+    <tableColumn id="7" name="eID" dataDxfId="49"/>
+    <tableColumn id="8" name="from" dataDxfId="48"/>
+    <tableColumn id="9" name="to" dataDxfId="47"/>
+    <tableColumn id="10" name="date" dataDxfId="46"/>
+    <tableColumn id="19" name="date_submitted" dataDxfId="45" dataCellStyle="Neutral"/>
+    <tableColumn id="14" name="classification" dataDxfId="44"/>
+    <tableColumn id="12" name="IF" dataDxfId="43"/>
+    <tableColumn id="13" name="DOI" dataDxfId="42"/>
+    <tableColumn id="15" name="WoS" dataDxfId="41"/>
+    <tableColumn id="16" name="rank" dataDxfId="40"/>
+    <tableColumn id="17" name="quartile" dataDxfId="39"/>
+    <tableColumn id="18" name="category" dataDxfId="38"/>
+    <tableColumn id="20" name="SC" dataDxfId="37"/>
+    <tableColumn id="21" name="UGent" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J12" totalsRowShown="0" headerRowDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J12" totalsRowShown="0" headerRowDxfId="35">
   <autoFilter ref="A1:J12"/>
   <sortState ref="A2:N50">
     <sortCondition ref="H1:H50"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="title" dataDxfId="30"/>
-    <tableColumn id="2" name="authors" dataDxfId="29"/>
-    <tableColumn id="3" name="editors" dataDxfId="28"/>
-    <tableColumn id="11" name="book" dataDxfId="27"/>
-    <tableColumn id="6" name="year" dataDxfId="26"/>
-    <tableColumn id="8" name="from" dataDxfId="25"/>
-    <tableColumn id="9" name="to" dataDxfId="24"/>
-    <tableColumn id="10" name="date" dataDxfId="23"/>
-    <tableColumn id="12" name="IF" dataDxfId="22"/>
-    <tableColumn id="13" name="DOI" dataDxfId="21"/>
+    <tableColumn id="1" name="title" dataDxfId="34"/>
+    <tableColumn id="2" name="authors" dataDxfId="33"/>
+    <tableColumn id="3" name="editors" dataDxfId="32"/>
+    <tableColumn id="11" name="book" dataDxfId="31"/>
+    <tableColumn id="6" name="year" dataDxfId="30"/>
+    <tableColumn id="8" name="from" dataDxfId="29"/>
+    <tableColumn id="9" name="to" dataDxfId="28"/>
+    <tableColumn id="10" name="date" dataDxfId="27"/>
+    <tableColumn id="12" name="IF" dataDxfId="26"/>
+    <tableColumn id="13" name="DOI" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G22" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:G22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G19" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A1:G19"/>
   <sortState ref="A2:G22">
     <sortCondition ref="F1:F22"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="title" dataDxfId="18"/>
-    <tableColumn id="2" name="authors" dataDxfId="17"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="16"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="15"/>
-    <tableColumn id="4" name="doi_preprint" dataDxfId="14"/>
-    <tableColumn id="10" name="date" dataDxfId="13"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="12">
+    <tableColumn id="1" name="title" dataDxfId="22"/>
+    <tableColumn id="2" name="authors" dataDxfId="21"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="20"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="19"/>
+    <tableColumn id="4" name="doi_preprint" dataDxfId="18"/>
+    <tableColumn id="10" name="date" dataDxfId="17"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="16">
       <calculatedColumnFormula>TODAY()-F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4249,18 +4255,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:F5"/>
   <sortState ref="A2:K14">
     <sortCondition ref="E1:E14"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="title" dataDxfId="9"/>
-    <tableColumn id="2" name="authors" dataDxfId="8"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="7"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="6"/>
-    <tableColumn id="10" name="date" dataDxfId="5"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="4">
+    <tableColumn id="1" name="title" dataDxfId="13"/>
+    <tableColumn id="2" name="authors" dataDxfId="12"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="11"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="10"/>
+    <tableColumn id="10" name="date" dataDxfId="9"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="8">
       <calculatedColumnFormula>(TODAY()-E2)/365</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4555,10 +4561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U231"/>
+  <dimension ref="A1:U233"/>
   <sheetViews>
-    <sheetView topLeftCell="A194" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A218" sqref="A218"/>
+    <sheetView topLeftCell="A196" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A233" sqref="A233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4613,7 +4619,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>272</v>
@@ -16476,7 +16482,7 @@
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="B219" s="7" t="s">
         <v>766</v>
@@ -16514,7 +16520,7 @@
       </c>
       <c r="N219" s="11"/>
       <c r="O219" s="19" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="P219" s="7"/>
       <c r="Q219" s="24"/>
@@ -16567,7 +16573,7 @@
       </c>
       <c r="N220" s="11"/>
       <c r="O220" s="19" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="P220" s="7"/>
       <c r="Q220" s="24"/>
@@ -16603,7 +16609,7 @@
         <v>92</v>
       </c>
       <c r="H221" s="18" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="I221" s="18" t="s">
         <v>14</v>
@@ -16620,7 +16626,7 @@
       </c>
       <c r="N221" s="11"/>
       <c r="O221" s="19" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="P221" s="7"/>
       <c r="Q221" s="24"/>
@@ -16635,7 +16641,7 @@
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="B222" s="7" t="s">
         <v>1013</v>
@@ -16673,7 +16679,7 @@
       </c>
       <c r="N222" s="11"/>
       <c r="O222" s="19" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="P222" s="7"/>
       <c r="Q222" s="24"/>
@@ -16726,7 +16732,7 @@
       </c>
       <c r="N223" s="11"/>
       <c r="O223" s="19" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="P223" s="7"/>
       <c r="Q223" s="24"/>
@@ -16779,7 +16785,7 @@
       </c>
       <c r="N224" s="11"/>
       <c r="O224" s="19" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="P224" s="7"/>
       <c r="Q224" s="24"/>
@@ -16832,29 +16838,31 @@
       </c>
       <c r="N225" s="11"/>
       <c r="O225" s="19" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="P225" s="7"/>
       <c r="Q225" s="24"/>
       <c r="R225" s="25"/>
       <c r="S225" s="7"/>
-      <c r="T225" s="7"/>
+      <c r="T225" s="7" t="s">
+        <v>603</v>
+      </c>
       <c r="U225" s="7" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B226" s="7" t="s">
         <v>1126</v>
       </c>
-      <c r="B226" s="7" t="s">
-        <v>1129</v>
-      </c>
       <c r="C226" s="7" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="E226" s="18">
         <v>2023</v>
@@ -16883,13 +16891,15 @@
       </c>
       <c r="N226" s="11"/>
       <c r="O226" s="19" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="P226" s="7"/>
       <c r="Q226" s="24"/>
       <c r="R226" s="25"/>
       <c r="S226" s="7"/>
-      <c r="T226" s="7"/>
+      <c r="T226" s="7" t="s">
+        <v>603</v>
+      </c>
       <c r="U226" s="7" t="s">
         <v>603</v>
       </c>
@@ -16934,7 +16944,7 @@
       </c>
       <c r="N227" s="11"/>
       <c r="O227" s="19" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="P227" s="7"/>
       <c r="Q227" s="24"/>
@@ -16987,13 +16997,15 @@
       </c>
       <c r="N228" s="11"/>
       <c r="O228" s="19" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="P228" s="7"/>
       <c r="Q228" s="24"/>
       <c r="R228" s="25"/>
       <c r="S228" s="7"/>
-      <c r="T228" s="7"/>
+      <c r="T228" s="7" t="s">
+        <v>603</v>
+      </c>
       <c r="U228" s="7" t="s">
         <v>603</v>
       </c>
@@ -17079,14 +17091,16 @@
         <v>14</v>
       </c>
       <c r="K230" s="31">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="L230" s="31"/>
       <c r="M230" s="31" t="s">
         <v>273</v>
       </c>
       <c r="N230" s="45"/>
-      <c r="O230" s="44"/>
+      <c r="O230" s="44" t="s">
+        <v>1196</v>
+      </c>
       <c r="P230" s="27"/>
       <c r="Q230" s="24"/>
       <c r="R230" s="25"/>
@@ -17096,16 +17110,16 @@
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231" s="13" t="s">
-        <v>1010</v>
+        <v>1172</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>1011</v>
+        <v>1173</v>
       </c>
       <c r="C231" s="13" t="s">
-        <v>144</v>
+        <v>509</v>
       </c>
       <c r="D231" s="13" t="s">
-        <v>144</v>
+        <v>510</v>
       </c>
       <c r="E231" s="14">
         <v>2023</v>
@@ -17126,14 +17140,16 @@
         <v>14</v>
       </c>
       <c r="K231" s="31">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="L231" s="31"/>
       <c r="M231" s="31" t="s">
         <v>273</v>
       </c>
       <c r="N231" s="45"/>
-      <c r="O231" s="44"/>
+      <c r="O231" s="44" t="s">
+        <v>1200</v>
+      </c>
       <c r="P231" s="27"/>
       <c r="Q231" s="24"/>
       <c r="R231" s="25"/>
@@ -17141,20 +17157,116 @@
       <c r="T231" s="7"/>
       <c r="U231" s="7"/>
     </row>
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A232" s="13" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B232" s="13" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C232" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D232" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E232" s="14">
+        <v>2023</v>
+      </c>
+      <c r="F232" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G232" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H232" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I232" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J232" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K232" s="31">
+        <v>45295</v>
+      </c>
+      <c r="L232" s="31"/>
+      <c r="M232" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="N232" s="45"/>
+      <c r="O232" s="44" t="s">
+        <v>1201</v>
+      </c>
+      <c r="P232" s="27"/>
+      <c r="Q232" s="24"/>
+      <c r="R232" s="25"/>
+      <c r="S232" s="7"/>
+      <c r="T232" s="7"/>
+      <c r="U232" s="7"/>
+    </row>
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A233" s="13" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B233" s="13" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C233" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D233" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E233" s="14">
+        <v>2023</v>
+      </c>
+      <c r="F233" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G233" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H233" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I233" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J233" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K233" s="31">
+        <v>45296</v>
+      </c>
+      <c r="L233" s="31"/>
+      <c r="M233" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="N233" s="45"/>
+      <c r="O233" s="44"/>
+      <c r="P233" s="27"/>
+      <c r="Q233" s="24"/>
+      <c r="R233" s="25"/>
+      <c r="S233" s="7"/>
+      <c r="T233" s="7"/>
+      <c r="U233" s="7"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="T1:U112 T232:V1048576 T114:U231">
-    <cfRule type="cellIs" dxfId="58" priority="27" operator="equal">
+  <conditionalFormatting sqref="T1:U112 T114:U231 T232:V1048576">
+    <cfRule type="cellIs" dxfId="7" priority="27" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="28" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T113:U113">
-    <cfRule type="cellIs" dxfId="56" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="25" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="26" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17520,10 +17632,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>949</v>
@@ -17545,7 +17657,7 @@
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="19" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
     </row>
   </sheetData>
@@ -17558,10 +17670,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17597,10 +17709,10 @@
       </c>
       <c r="I1" s="55">
         <f ca="1">AVERAGE(G:G)</f>
-        <v>122.71428571428571</v>
+        <v>152.66666666666666</v>
       </c>
       <c r="J1" s="54" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -17623,8 +17735,8 @@
         <v>44769</v>
       </c>
       <c r="G2" s="12">
-        <f ca="1">TODAY()-F2</f>
-        <v>367</v>
+        <f t="shared" ref="G2:G19" ca="1" si="0">TODAY()-F2</f>
+        <v>388</v>
       </c>
       <c r="I2" s="55"/>
       <c r="J2" s="54"/>
@@ -17647,8 +17759,8 @@
         <v>44832</v>
       </c>
       <c r="G3" s="12">
-        <f ca="1">TODAY()-F3</f>
-        <v>304</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -17669,8 +17781,8 @@
         <v>44914</v>
       </c>
       <c r="G4" s="12">
-        <f ca="1">TODAY()-F4</f>
-        <v>222</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -17691,8 +17803,8 @@
         <v>44942</v>
       </c>
       <c r="G5" s="12">
-        <f ca="1">TODAY()-F5</f>
-        <v>194</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -17713,8 +17825,8 @@
         <v>44958</v>
       </c>
       <c r="G6" s="12">
-        <f ca="1">TODAY()-F6</f>
-        <v>178</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -17735,8 +17847,8 @@
         <v>44959</v>
       </c>
       <c r="G7" s="12">
-        <f ca="1">TODAY()-F7</f>
-        <v>177</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -17757,8 +17869,8 @@
         <v>45013</v>
       </c>
       <c r="G8" s="12">
-        <f ca="1">TODAY()-F8</f>
-        <v>123</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -17779,8 +17891,8 @@
         <v>45018</v>
       </c>
       <c r="G9" s="12">
-        <f ca="1">TODAY()-F9</f>
-        <v>118</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -17801,8 +17913,8 @@
         <v>45021</v>
       </c>
       <c r="G10" s="12">
-        <f ca="1">TODAY()-F10</f>
-        <v>115</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -17823,77 +17935,77 @@
         <v>45021</v>
       </c>
       <c r="G11" s="12">
-        <f ca="1">TODAY()-F11</f>
-        <v>115</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>1099</v>
+        <v>1104</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1100</v>
+        <v>1105</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1101</v>
+        <v>1106</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="10">
-        <v>45023</v>
+        <v>45037</v>
       </c>
       <c r="G12" s="12">
-        <f ca="1">TODAY()-F12</f>
-        <v>113</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1109</v>
+        <v>1096</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1110</v>
+        <v>1097</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="10">
-        <v>45037</v>
+        <v>45043</v>
       </c>
       <c r="G13" s="12">
-        <f ca="1">TODAY()-F13</f>
-        <v>99</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>1111</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>1112</v>
-      </c>
       <c r="C14" s="7" t="s">
-        <v>1096</v>
+        <v>89</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1097</v>
+        <v>89</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="10">
         <v>45043</v>
       </c>
       <c r="G14" s="12">
-        <f ca="1">TODAY()-F14</f>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>1113</v>
       </c>
@@ -17901,174 +18013,106 @@
         <v>1114</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>89</v>
+        <v>1122</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>89</v>
+        <v>1121</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="10">
-        <v>45043</v>
+        <v>45061</v>
       </c>
       <c r="G15" s="12">
-        <f ca="1">TODAY()-F15</f>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>1116</v>
+        <v>1099</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1117</v>
+        <v>1151</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>1125</v>
+        <v>1152</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="10">
-        <v>45061</v>
+        <v>45072</v>
       </c>
       <c r="G16" s="12">
-        <f ca="1">TODAY()-F16</f>
-        <v>75</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>1136</v>
+        <v>1174</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1137</v>
+        <v>1175</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>267</v>
+        <v>575</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>1138</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="E17" s="7"/>
       <c r="F17" s="10">
-        <v>45064</v>
+        <v>45114</v>
       </c>
       <c r="G17" s="12">
-        <f ca="1">TODAY()-F17</f>
-        <v>72</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>1099</v>
+        <v>1194</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>1155</v>
+        <v>1195</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>1156</v>
+        <v>668</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>1157</v>
+        <v>669</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="10">
-        <v>45072</v>
+        <v>45127</v>
       </c>
       <c r="G18" s="12">
-        <f ca="1">TODAY()-F18</f>
-        <v>64</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>1176</v>
+        <v>1183</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1177</v>
+        <v>1184</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>509</v>
+        <v>55</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>510</v>
+        <v>56</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="10">
-        <v>45114</v>
+        <v>45134</v>
       </c>
       <c r="G19" s="12">
-        <f ca="1">TODAY()-F19</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="10">
-        <v>45114</v>
-      </c>
-      <c r="G20" s="12">
-        <f ca="1">TODAY()-F20</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="10">
-        <v>45127</v>
-      </c>
-      <c r="G21" s="12">
-        <f ca="1">TODAY()-F21</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="10">
-        <v>45134</v>
-      </c>
-      <c r="G22" s="12">
-        <f ca="1">TODAY()-F22</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -18133,7 +18177,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>7.7479452054794518</v>
+        <v>7.8054794520547945</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -18154,7 +18198,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7479452054794518</v>
+        <v>7.8054794520547945</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -18175,7 +18219,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1260273972602741</v>
+        <v>7.183561643835616</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -18196,21 +18240,21 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>5.4958904109589044</v>
+        <v>5.5534246575342463</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="10">
@@ -18228,10 +18272,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18257,7 +18301,7 @@
       </c>
       <c r="H1" s="50">
         <f>COUNTA(H3:H998)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I1" s="50">
         <f>COUNTA(I3:I998)</f>
@@ -18265,7 +18309,7 @@
       </c>
       <c r="J1" s="51">
         <f>SUM(E1:I1)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -18282,7 +18326,7 @@
         <v>1049</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="F2" s="53" t="s">
         <v>1035</v>
@@ -18299,7 +18343,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="B3" s="49" t="s">
         <v>1040</v>
@@ -18316,7 +18360,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="B4" s="49" t="s">
         <v>1042</v>
@@ -18333,7 +18377,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="B5" s="49" t="s">
         <v>1044</v>
@@ -18350,7 +18394,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="B6" s="49" t="s">
         <v>1055</v>
@@ -18367,7 +18411,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="B7" s="49" t="s">
         <v>1071</v>
@@ -18401,13 +18445,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>1046</v>
@@ -18418,13 +18462,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>1046</v>
@@ -18435,13 +18479,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>1046</v>
@@ -18452,13 +18496,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>1046</v>
@@ -18469,13 +18513,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>1046</v>
@@ -18486,13 +18530,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>1046</v>
@@ -18503,7 +18547,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="B15" s="49" t="s">
         <v>1071</v>
@@ -18520,13 +18564,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>1046</v>
@@ -18537,10 +18581,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>1046</v>
@@ -18551,10 +18595,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>1046</v>
@@ -18565,13 +18609,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>1046</v>
@@ -18582,10 +18626,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>1046</v>
@@ -18596,13 +18640,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>1046</v>
@@ -18613,13 +18657,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>1046</v>
@@ -18630,18 +18674,35 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>1046</v>
       </c>
       <c r="H23" s="48" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H24" s="48" t="s">
         <v>1039</v>
       </c>
     </row>
@@ -18704,8 +18765,10 @@
     <hyperlink ref="B22" r:id="rId37"/>
     <hyperlink ref="B23" r:id="rId38"/>
     <hyperlink ref="C23" r:id="rId39"/>
+    <hyperlink ref="B24" r:id="rId40"/>
+    <hyperlink ref="C24" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId42"/>
 </worksheet>
 </file>
--- a/publications.xlsx
+++ b/publications.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="papers" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="1202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2903" uniqueCount="1208">
   <si>
     <t>title</t>
   </si>
@@ -3631,6 +3631,24 @@
   </si>
   <si>
     <t>10.1186/s13690-023-01163-7</t>
+  </si>
+  <si>
+    <t>Unhealthy food availability, prominence and promotion in a representative sample of supermarkets in Flanders (Belgium): a detailed assessment</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/37608383/</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13690-023-01175-3</t>
+  </si>
+  <si>
+    <t>The burden of breast, cervical, and colon and rectum cancer in the Balkan countries, 1990–2019 and forecast to 2030</t>
+  </si>
+  <si>
+    <t>Todorovic, Jovana; Stamenkovic, Zeljka; Stevanovic, Aleksandar; Terzic, Natasa; Kissimova-Skarbek, Katarzyna; Tozija, Fimka; Mechili, Enkeleint A.; Devleesschauwer, Brecht; Terzic-Supic, Zorica; Vasic, Milena; Bjegovic-Mikanovic, Vesna; Santric-Milicevic, Milena; COST Action 18218 participants Burden of Disease Collaborator Network</t>
+  </si>
+  <si>
+    <t>10.1186/s13690-023-01137-9</t>
   </si>
 </sst>
 </file>
@@ -3962,46 +3980,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -4165,6 +4143,46 @@
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -4179,74 +4197,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U233" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
-  <autoFilter ref="A1:U233"/>
-  <sortState ref="A2:U233">
-    <sortCondition ref="K1:K233"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U234" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+  <autoFilter ref="A1:U234"/>
+  <sortState ref="A2:U234">
+    <sortCondition ref="K1:K234"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" name="title" dataDxfId="56"/>
-    <tableColumn id="2" name="authors" dataDxfId="55"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="54"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="53"/>
-    <tableColumn id="6" name="year" dataDxfId="52"/>
-    <tableColumn id="4" name="volume" dataDxfId="51"/>
-    <tableColumn id="5" name="issue" dataDxfId="50"/>
-    <tableColumn id="7" name="eID" dataDxfId="49"/>
-    <tableColumn id="8" name="from" dataDxfId="48"/>
-    <tableColumn id="9" name="to" dataDxfId="47"/>
-    <tableColumn id="10" name="date" dataDxfId="46"/>
-    <tableColumn id="19" name="date_submitted" dataDxfId="45" dataCellStyle="Neutral"/>
-    <tableColumn id="14" name="classification" dataDxfId="44"/>
-    <tableColumn id="12" name="IF" dataDxfId="43"/>
-    <tableColumn id="13" name="DOI" dataDxfId="42"/>
-    <tableColumn id="15" name="WoS" dataDxfId="41"/>
-    <tableColumn id="16" name="rank" dataDxfId="40"/>
-    <tableColumn id="17" name="quartile" dataDxfId="39"/>
-    <tableColumn id="18" name="category" dataDxfId="38"/>
-    <tableColumn id="20" name="SC" dataDxfId="37"/>
-    <tableColumn id="21" name="UGent" dataDxfId="36"/>
+    <tableColumn id="1" name="title" dataDxfId="52"/>
+    <tableColumn id="2" name="authors" dataDxfId="51"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="50"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="49"/>
+    <tableColumn id="6" name="year" dataDxfId="48"/>
+    <tableColumn id="4" name="volume" dataDxfId="47"/>
+    <tableColumn id="5" name="issue" dataDxfId="46"/>
+    <tableColumn id="7" name="eID" dataDxfId="45"/>
+    <tableColumn id="8" name="from" dataDxfId="44"/>
+    <tableColumn id="9" name="to" dataDxfId="43"/>
+    <tableColumn id="10" name="date" dataDxfId="42"/>
+    <tableColumn id="19" name="date_submitted" dataDxfId="41" dataCellStyle="Neutral"/>
+    <tableColumn id="14" name="classification" dataDxfId="40"/>
+    <tableColumn id="12" name="IF" dataDxfId="39"/>
+    <tableColumn id="13" name="DOI" dataDxfId="38"/>
+    <tableColumn id="15" name="WoS" dataDxfId="37"/>
+    <tableColumn id="16" name="rank" dataDxfId="36"/>
+    <tableColumn id="17" name="quartile" dataDxfId="35"/>
+    <tableColumn id="18" name="category" dataDxfId="34"/>
+    <tableColumn id="20" name="SC" dataDxfId="33"/>
+    <tableColumn id="21" name="UGent" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J12" totalsRowShown="0" headerRowDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J12" totalsRowShown="0" headerRowDxfId="31">
   <autoFilter ref="A1:J12"/>
   <sortState ref="A2:N50">
     <sortCondition ref="H1:H50"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="title" dataDxfId="34"/>
-    <tableColumn id="2" name="authors" dataDxfId="33"/>
-    <tableColumn id="3" name="editors" dataDxfId="32"/>
-    <tableColumn id="11" name="book" dataDxfId="31"/>
-    <tableColumn id="6" name="year" dataDxfId="30"/>
-    <tableColumn id="8" name="from" dataDxfId="29"/>
-    <tableColumn id="9" name="to" dataDxfId="28"/>
-    <tableColumn id="10" name="date" dataDxfId="27"/>
-    <tableColumn id="12" name="IF" dataDxfId="26"/>
-    <tableColumn id="13" name="DOI" dataDxfId="25"/>
+    <tableColumn id="1" name="title" dataDxfId="30"/>
+    <tableColumn id="2" name="authors" dataDxfId="29"/>
+    <tableColumn id="3" name="editors" dataDxfId="28"/>
+    <tableColumn id="11" name="book" dataDxfId="27"/>
+    <tableColumn id="6" name="year" dataDxfId="26"/>
+    <tableColumn id="8" name="from" dataDxfId="25"/>
+    <tableColumn id="9" name="to" dataDxfId="24"/>
+    <tableColumn id="10" name="date" dataDxfId="23"/>
+    <tableColumn id="12" name="IF" dataDxfId="22"/>
+    <tableColumn id="13" name="DOI" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G19" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G19" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:G19"/>
   <sortState ref="A2:G22">
     <sortCondition ref="F1:F22"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="title" dataDxfId="22"/>
-    <tableColumn id="2" name="authors" dataDxfId="21"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="20"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="19"/>
-    <tableColumn id="4" name="doi_preprint" dataDxfId="18"/>
-    <tableColumn id="10" name="date" dataDxfId="17"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="16">
+    <tableColumn id="1" name="title" dataDxfId="18"/>
+    <tableColumn id="2" name="authors" dataDxfId="17"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="16"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="15"/>
+    <tableColumn id="4" name="doi_preprint" dataDxfId="14"/>
+    <tableColumn id="10" name="date" dataDxfId="13"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="12">
       <calculatedColumnFormula>TODAY()-F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4255,18 +4273,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:F5"/>
   <sortState ref="A2:K14">
     <sortCondition ref="E1:E14"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="title" dataDxfId="13"/>
-    <tableColumn id="2" name="authors" dataDxfId="12"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="11"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="10"/>
-    <tableColumn id="10" name="date" dataDxfId="9"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="8">
+    <tableColumn id="1" name="title" dataDxfId="9"/>
+    <tableColumn id="2" name="authors" dataDxfId="8"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="7"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="6"/>
+    <tableColumn id="10" name="date" dataDxfId="5"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="4">
       <calculatedColumnFormula>(TODAY()-E2)/365</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4561,10 +4579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U233"/>
+  <dimension ref="A1:U234"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A233" sqref="A233"/>
+    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A234" sqref="A234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16906,28 +16924,28 @@
     </row>
     <row r="227" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
-        <v>1076</v>
+        <v>1205</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>1079</v>
+        <v>1206</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>1078</v>
+        <v>267</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>1077</v>
+        <v>268</v>
       </c>
       <c r="E227" s="18">
         <v>2023</v>
       </c>
       <c r="F227" s="18">
-        <v>893</v>
+        <v>81</v>
       </c>
       <c r="G227" s="19" t="s">
         <v>14</v>
       </c>
       <c r="H227" s="18">
-        <v>164801</v>
+        <v>156</v>
       </c>
       <c r="I227" s="18" t="s">
         <v>14</v>
@@ -16936,7 +16954,7 @@
         <v>14</v>
       </c>
       <c r="K227" s="42">
-        <v>45200</v>
+        <v>45162</v>
       </c>
       <c r="L227" s="42"/>
       <c r="M227" s="42" t="s">
@@ -16944,43 +16962,39 @@
       </c>
       <c r="N227" s="11"/>
       <c r="O227" s="19" t="s">
-        <v>1155</v>
+        <v>1207</v>
       </c>
       <c r="P227" s="7"/>
       <c r="Q227" s="24"/>
       <c r="R227" s="25"/>
       <c r="S227" s="7"/>
-      <c r="T227" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="U227" s="7" t="s">
-        <v>603</v>
-      </c>
+      <c r="T227" s="7"/>
+      <c r="U227" s="7"/>
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
-        <v>1018</v>
+        <v>1076</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>1017</v>
+        <v>1079</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>419</v>
+        <v>1078</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>419</v>
+        <v>1077</v>
       </c>
       <c r="E228" s="18">
         <v>2023</v>
       </c>
       <c r="F228" s="18">
-        <v>17</v>
+        <v>893</v>
       </c>
       <c r="G228" s="19" t="s">
         <v>14</v>
       </c>
       <c r="H228" s="18">
-        <v>100595</v>
+        <v>164801</v>
       </c>
       <c r="I228" s="18" t="s">
         <v>14</v>
@@ -16989,7 +17003,7 @@
         <v>14</v>
       </c>
       <c r="K228" s="42">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="L228" s="42"/>
       <c r="M228" s="42" t="s">
@@ -16997,7 +17011,7 @@
       </c>
       <c r="N228" s="11"/>
       <c r="O228" s="19" t="s">
-        <v>1171</v>
+        <v>1155</v>
       </c>
       <c r="P228" s="7"/>
       <c r="Q228" s="24"/>
@@ -17011,66 +17025,70 @@
       </c>
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A229" s="13" t="s">
-        <v>984</v>
-      </c>
-      <c r="B229" s="13" t="s">
-        <v>985</v>
-      </c>
-      <c r="C229" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="D229" s="13" t="s">
-        <v>987</v>
-      </c>
-      <c r="E229" s="14">
+      <c r="A229" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="D229" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="E229" s="18">
         <v>2023</v>
       </c>
-      <c r="F229" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G229" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H229" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I229" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J229" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K229" s="31">
-        <v>45292</v>
-      </c>
-      <c r="L229" s="31"/>
-      <c r="M229" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="N229" s="45"/>
-      <c r="O229" s="44" t="s">
-        <v>991</v>
-      </c>
-      <c r="P229" s="27"/>
+      <c r="F229" s="18">
+        <v>17</v>
+      </c>
+      <c r="G229" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H229" s="18">
+        <v>100595</v>
+      </c>
+      <c r="I229" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J229" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K229" s="42">
+        <v>45261</v>
+      </c>
+      <c r="L229" s="42"/>
+      <c r="M229" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="N229" s="11"/>
+      <c r="O229" s="19" t="s">
+        <v>1171</v>
+      </c>
+      <c r="P229" s="7"/>
       <c r="Q229" s="24"/>
       <c r="R229" s="25"/>
       <c r="S229" s="7"/>
-      <c r="T229" s="7"/>
-      <c r="U229" s="7"/>
+      <c r="T229" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="U229" s="7" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230" s="13" t="s">
-        <v>958</v>
+        <v>984</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>959</v>
+        <v>985</v>
       </c>
       <c r="C230" s="13" t="s">
-        <v>957</v>
+        <v>986</v>
       </c>
       <c r="D230" s="13" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="E230" s="14">
         <v>2023</v>
@@ -17091,7 +17109,7 @@
         <v>14</v>
       </c>
       <c r="K230" s="31">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="L230" s="31"/>
       <c r="M230" s="31" t="s">
@@ -17099,7 +17117,7 @@
       </c>
       <c r="N230" s="45"/>
       <c r="O230" s="44" t="s">
-        <v>1196</v>
+        <v>991</v>
       </c>
       <c r="P230" s="27"/>
       <c r="Q230" s="24"/>
@@ -17110,16 +17128,16 @@
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231" s="13" t="s">
-        <v>1172</v>
+        <v>958</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>1173</v>
+        <v>959</v>
       </c>
       <c r="C231" s="13" t="s">
-        <v>509</v>
+        <v>957</v>
       </c>
       <c r="D231" s="13" t="s">
-        <v>510</v>
+        <v>960</v>
       </c>
       <c r="E231" s="14">
         <v>2023</v>
@@ -17140,7 +17158,7 @@
         <v>14</v>
       </c>
       <c r="K231" s="31">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="L231" s="31"/>
       <c r="M231" s="31" t="s">
@@ -17148,7 +17166,7 @@
       </c>
       <c r="N231" s="45"/>
       <c r="O231" s="44" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="P231" s="27"/>
       <c r="Q231" s="24"/>
@@ -17159,16 +17177,16 @@
     </row>
     <row r="232" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A232" s="13" t="s">
-        <v>1133</v>
+        <v>1172</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>1134</v>
+        <v>1173</v>
       </c>
       <c r="C232" s="13" t="s">
-        <v>267</v>
+        <v>509</v>
       </c>
       <c r="D232" s="13" t="s">
-        <v>268</v>
+        <v>510</v>
       </c>
       <c r="E232" s="14">
         <v>2023</v>
@@ -17189,7 +17207,7 @@
         <v>14</v>
       </c>
       <c r="K232" s="31">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="L232" s="31"/>
       <c r="M232" s="31" t="s">
@@ -17197,7 +17215,7 @@
       </c>
       <c r="N232" s="45"/>
       <c r="O232" s="44" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="P232" s="27"/>
       <c r="Q232" s="24"/>
@@ -17208,16 +17226,16 @@
     </row>
     <row r="233" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A233" s="13" t="s">
-        <v>1010</v>
+        <v>1133</v>
       </c>
       <c r="B233" s="13" t="s">
-        <v>1011</v>
+        <v>1134</v>
       </c>
       <c r="C233" s="13" t="s">
-        <v>144</v>
+        <v>267</v>
       </c>
       <c r="D233" s="13" t="s">
-        <v>144</v>
+        <v>268</v>
       </c>
       <c r="E233" s="14">
         <v>2023</v>
@@ -17238,14 +17256,16 @@
         <v>14</v>
       </c>
       <c r="K233" s="31">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="L233" s="31"/>
       <c r="M233" s="31" t="s">
         <v>273</v>
       </c>
       <c r="N233" s="45"/>
-      <c r="O233" s="44"/>
+      <c r="O233" s="44" t="s">
+        <v>1201</v>
+      </c>
       <c r="P233" s="27"/>
       <c r="Q233" s="24"/>
       <c r="R233" s="25"/>
@@ -17253,20 +17273,67 @@
       <c r="T233" s="7"/>
       <c r="U233" s="7"/>
     </row>
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A234" s="13" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B234" s="13" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C234" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D234" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E234" s="14">
+        <v>2023</v>
+      </c>
+      <c r="F234" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G234" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H234" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I234" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J234" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K234" s="31">
+        <v>45296</v>
+      </c>
+      <c r="L234" s="31"/>
+      <c r="M234" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="N234" s="45"/>
+      <c r="O234" s="44"/>
+      <c r="P234" s="27"/>
+      <c r="Q234" s="24"/>
+      <c r="R234" s="25"/>
+      <c r="S234" s="7"/>
+      <c r="T234" s="7"/>
+      <c r="U234" s="7"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="T1:U112 T114:U231 T232:V1048576">
-    <cfRule type="cellIs" dxfId="7" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="27" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="28" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T113:U113">
-    <cfRule type="cellIs" dxfId="5" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="25" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="26" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17672,9 +17739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17709,7 +17774,7 @@
       </c>
       <c r="I1" s="55">
         <f ca="1">AVERAGE(G:G)</f>
-        <v>152.66666666666666</v>
+        <v>157.66666666666666</v>
       </c>
       <c r="J1" s="54" t="s">
         <v>1179</v>
@@ -17736,7 +17801,7 @@
       </c>
       <c r="G2" s="12">
         <f t="shared" ref="G2:G19" ca="1" si="0">TODAY()-F2</f>
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="I2" s="55"/>
       <c r="J2" s="54"/>
@@ -17760,7 +17825,7 @@
       </c>
       <c r="G3" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -17782,7 +17847,7 @@
       </c>
       <c r="G4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -17804,7 +17869,7 @@
       </c>
       <c r="G5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -17826,7 +17891,7 @@
       </c>
       <c r="G6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -17848,7 +17913,7 @@
       </c>
       <c r="G7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -17870,7 +17935,7 @@
       </c>
       <c r="G8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -17892,7 +17957,7 @@
       </c>
       <c r="G9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -17914,7 +17979,7 @@
       </c>
       <c r="G10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -17936,7 +18001,7 @@
       </c>
       <c r="G11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -17958,7 +18023,7 @@
       </c>
       <c r="G12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -17980,7 +18045,7 @@
       </c>
       <c r="G13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -18002,7 +18067,7 @@
       </c>
       <c r="G14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -18024,7 +18089,7 @@
       </c>
       <c r="G15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -18046,7 +18111,7 @@
       </c>
       <c r="G16" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -18068,7 +18133,7 @@
       </c>
       <c r="G17" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -18090,7 +18155,7 @@
       </c>
       <c r="G18" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -18112,7 +18177,7 @@
       </c>
       <c r="G19" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -18177,7 +18242,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>7.8054794520547945</v>
+        <v>7.8191780821917805</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -18198,7 +18263,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8054794520547945</v>
+        <v>7.8191780821917805</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -18219,7 +18284,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.183561643835616</v>
+        <v>7.1972602739726028</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -18240,7 +18305,7 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>5.5534246575342463</v>
+        <v>5.5671232876712331</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -18272,10 +18337,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18301,7 +18366,7 @@
       </c>
       <c r="H1" s="50">
         <f>COUNTA(H3:H998)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" s="50">
         <f>COUNTA(I3:I998)</f>
@@ -18309,7 +18374,7 @@
       </c>
       <c r="J1" s="51">
         <f>SUM(E1:I1)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -18703,6 +18768,23 @@
         <v>1046</v>
       </c>
       <c r="H24" s="48" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H25" s="48" t="s">
         <v>1039</v>
       </c>
     </row>
@@ -18767,8 +18849,10 @@
     <hyperlink ref="C23" r:id="rId39"/>
     <hyperlink ref="B24" r:id="rId40"/>
     <hyperlink ref="C24" r:id="rId41"/>
+    <hyperlink ref="C25" r:id="rId42"/>
+    <hyperlink ref="B25" r:id="rId43"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId42"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId44"/>
 </worksheet>
 </file>
--- a/publications.xlsx
+++ b/publications.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="papers" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2903" uniqueCount="1208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2915" uniqueCount="1210">
   <si>
     <t>title</t>
   </si>
@@ -3649,6 +3649,12 @@
   </si>
   <si>
     <t>10.1186/s13690-023-01137-9</t>
+  </si>
+  <si>
+    <t>Expanding citizen engagement in the secondary use of health data: an opportunity for national Health Data Access Bodies to realise the intentions of the European Health Data Space</t>
+  </si>
+  <si>
+    <t>Saelaert, Marlies; Mathieu, Louise; Van Hoof, Wannes; Devleesschauwer, Brecht</t>
   </si>
 </sst>
 </file>
@@ -3980,6 +3986,46 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -4143,46 +4189,6 @@
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -4197,74 +4203,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U234" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
-  <autoFilter ref="A1:U234"/>
-  <sortState ref="A2:U234">
-    <sortCondition ref="K1:K234"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U235" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+  <autoFilter ref="A1:U235"/>
+  <sortState ref="A2:U235">
+    <sortCondition ref="K1:K235"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" name="title" dataDxfId="52"/>
-    <tableColumn id="2" name="authors" dataDxfId="51"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="50"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="49"/>
-    <tableColumn id="6" name="year" dataDxfId="48"/>
-    <tableColumn id="4" name="volume" dataDxfId="47"/>
-    <tableColumn id="5" name="issue" dataDxfId="46"/>
-    <tableColumn id="7" name="eID" dataDxfId="45"/>
-    <tableColumn id="8" name="from" dataDxfId="44"/>
-    <tableColumn id="9" name="to" dataDxfId="43"/>
-    <tableColumn id="10" name="date" dataDxfId="42"/>
-    <tableColumn id="19" name="date_submitted" dataDxfId="41" dataCellStyle="Neutral"/>
-    <tableColumn id="14" name="classification" dataDxfId="40"/>
-    <tableColumn id="12" name="IF" dataDxfId="39"/>
-    <tableColumn id="13" name="DOI" dataDxfId="38"/>
-    <tableColumn id="15" name="WoS" dataDxfId="37"/>
-    <tableColumn id="16" name="rank" dataDxfId="36"/>
-    <tableColumn id="17" name="quartile" dataDxfId="35"/>
-    <tableColumn id="18" name="category" dataDxfId="34"/>
-    <tableColumn id="20" name="SC" dataDxfId="33"/>
-    <tableColumn id="21" name="UGent" dataDxfId="32"/>
+    <tableColumn id="1" name="title" dataDxfId="56"/>
+    <tableColumn id="2" name="authors" dataDxfId="55"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="54"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="53"/>
+    <tableColumn id="6" name="year" dataDxfId="52"/>
+    <tableColumn id="4" name="volume" dataDxfId="51"/>
+    <tableColumn id="5" name="issue" dataDxfId="50"/>
+    <tableColumn id="7" name="eID" dataDxfId="49"/>
+    <tableColumn id="8" name="from" dataDxfId="48"/>
+    <tableColumn id="9" name="to" dataDxfId="47"/>
+    <tableColumn id="10" name="date" dataDxfId="46"/>
+    <tableColumn id="19" name="date_submitted" dataDxfId="45" dataCellStyle="Neutral"/>
+    <tableColumn id="14" name="classification" dataDxfId="44"/>
+    <tableColumn id="12" name="IF" dataDxfId="43"/>
+    <tableColumn id="13" name="DOI" dataDxfId="42"/>
+    <tableColumn id="15" name="WoS" dataDxfId="41"/>
+    <tableColumn id="16" name="rank" dataDxfId="40"/>
+    <tableColumn id="17" name="quartile" dataDxfId="39"/>
+    <tableColumn id="18" name="category" dataDxfId="38"/>
+    <tableColumn id="20" name="SC" dataDxfId="37"/>
+    <tableColumn id="21" name="UGent" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J12" totalsRowShown="0" headerRowDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J12" totalsRowShown="0" headerRowDxfId="35">
   <autoFilter ref="A1:J12"/>
   <sortState ref="A2:N50">
     <sortCondition ref="H1:H50"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="title" dataDxfId="30"/>
-    <tableColumn id="2" name="authors" dataDxfId="29"/>
-    <tableColumn id="3" name="editors" dataDxfId="28"/>
-    <tableColumn id="11" name="book" dataDxfId="27"/>
-    <tableColumn id="6" name="year" dataDxfId="26"/>
-    <tableColumn id="8" name="from" dataDxfId="25"/>
-    <tableColumn id="9" name="to" dataDxfId="24"/>
-    <tableColumn id="10" name="date" dataDxfId="23"/>
-    <tableColumn id="12" name="IF" dataDxfId="22"/>
-    <tableColumn id="13" name="DOI" dataDxfId="21"/>
+    <tableColumn id="1" name="title" dataDxfId="34"/>
+    <tableColumn id="2" name="authors" dataDxfId="33"/>
+    <tableColumn id="3" name="editors" dataDxfId="32"/>
+    <tableColumn id="11" name="book" dataDxfId="31"/>
+    <tableColumn id="6" name="year" dataDxfId="30"/>
+    <tableColumn id="8" name="from" dataDxfId="29"/>
+    <tableColumn id="9" name="to" dataDxfId="28"/>
+    <tableColumn id="10" name="date" dataDxfId="27"/>
+    <tableColumn id="12" name="IF" dataDxfId="26"/>
+    <tableColumn id="13" name="DOI" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G19" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G19" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:G19"/>
-  <sortState ref="A2:G22">
-    <sortCondition ref="F1:F22"/>
+  <sortState ref="A2:G19">
+    <sortCondition ref="F1:F19"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="title" dataDxfId="18"/>
-    <tableColumn id="2" name="authors" dataDxfId="17"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="16"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="15"/>
-    <tableColumn id="4" name="doi_preprint" dataDxfId="14"/>
-    <tableColumn id="10" name="date" dataDxfId="13"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="12">
+    <tableColumn id="1" name="title" dataDxfId="22"/>
+    <tableColumn id="2" name="authors" dataDxfId="21"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="20"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="19"/>
+    <tableColumn id="4" name="doi_preprint" dataDxfId="18"/>
+    <tableColumn id="10" name="date" dataDxfId="17"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="16">
       <calculatedColumnFormula>TODAY()-F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4273,18 +4279,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:F5"/>
   <sortState ref="A2:K14">
     <sortCondition ref="E1:E14"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="title" dataDxfId="9"/>
-    <tableColumn id="2" name="authors" dataDxfId="8"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="7"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="6"/>
-    <tableColumn id="10" name="date" dataDxfId="5"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="4">
+    <tableColumn id="1" name="title" dataDxfId="13"/>
+    <tableColumn id="2" name="authors" dataDxfId="12"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="11"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="10"/>
+    <tableColumn id="10" name="date" dataDxfId="9"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="8">
       <calculatedColumnFormula>(TODAY()-E2)/365</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4579,10 +4585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U234"/>
+  <dimension ref="A1:U235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A234" sqref="A234"/>
+    <sheetView topLeftCell="A197" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A235" sqref="A235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16968,33 +16974,37 @@
       <c r="Q227" s="24"/>
       <c r="R227" s="25"/>
       <c r="S227" s="7"/>
-      <c r="T227" s="7"/>
-      <c r="U227" s="7"/>
+      <c r="T227" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="U227" s="7" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
-        <v>1076</v>
+        <v>1133</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>1079</v>
+        <v>1134</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>1078</v>
+        <v>267</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>1077</v>
+        <v>268</v>
       </c>
       <c r="E228" s="18">
         <v>2023</v>
       </c>
       <c r="F228" s="18">
-        <v>893</v>
+        <v>81</v>
       </c>
       <c r="G228" s="19" t="s">
         <v>14</v>
       </c>
       <c r="H228" s="18">
-        <v>164801</v>
+        <v>160</v>
       </c>
       <c r="I228" s="18" t="s">
         <v>14</v>
@@ -17003,7 +17013,7 @@
         <v>14</v>
       </c>
       <c r="K228" s="42">
-        <v>45200</v>
+        <v>45163</v>
       </c>
       <c r="L228" s="42"/>
       <c r="M228" s="42" t="s">
@@ -17011,7 +17021,7 @@
       </c>
       <c r="N228" s="11"/>
       <c r="O228" s="19" t="s">
-        <v>1155</v>
+        <v>1201</v>
       </c>
       <c r="P228" s="7"/>
       <c r="Q228" s="24"/>
@@ -17026,28 +17036,28 @@
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
-        <v>1018</v>
+        <v>1076</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>1017</v>
+        <v>1079</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>419</v>
+        <v>1078</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>419</v>
+        <v>1077</v>
       </c>
       <c r="E229" s="18">
         <v>2023</v>
       </c>
       <c r="F229" s="18">
-        <v>17</v>
+        <v>893</v>
       </c>
       <c r="G229" s="19" t="s">
         <v>14</v>
       </c>
       <c r="H229" s="18">
-        <v>100595</v>
+        <v>164801</v>
       </c>
       <c r="I229" s="18" t="s">
         <v>14</v>
@@ -17056,7 +17066,7 @@
         <v>14</v>
       </c>
       <c r="K229" s="42">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="L229" s="42"/>
       <c r="M229" s="42" t="s">
@@ -17064,7 +17074,7 @@
       </c>
       <c r="N229" s="11"/>
       <c r="O229" s="19" t="s">
-        <v>1171</v>
+        <v>1155</v>
       </c>
       <c r="P229" s="7"/>
       <c r="Q229" s="24"/>
@@ -17078,66 +17088,70 @@
       </c>
     </row>
     <row r="230" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A230" s="13" t="s">
-        <v>984</v>
-      </c>
-      <c r="B230" s="13" t="s">
-        <v>985</v>
-      </c>
-      <c r="C230" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="D230" s="13" t="s">
-        <v>987</v>
-      </c>
-      <c r="E230" s="14">
+      <c r="A230" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="D230" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="E230" s="18">
         <v>2023</v>
       </c>
-      <c r="F230" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G230" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H230" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I230" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J230" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K230" s="31">
-        <v>45292</v>
-      </c>
-      <c r="L230" s="31"/>
-      <c r="M230" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="N230" s="45"/>
-      <c r="O230" s="44" t="s">
-        <v>991</v>
-      </c>
-      <c r="P230" s="27"/>
+      <c r="F230" s="18">
+        <v>17</v>
+      </c>
+      <c r="G230" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H230" s="18">
+        <v>100595</v>
+      </c>
+      <c r="I230" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J230" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K230" s="42">
+        <v>45261</v>
+      </c>
+      <c r="L230" s="42"/>
+      <c r="M230" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="N230" s="11"/>
+      <c r="O230" s="19" t="s">
+        <v>1171</v>
+      </c>
+      <c r="P230" s="7"/>
       <c r="Q230" s="24"/>
       <c r="R230" s="25"/>
       <c r="S230" s="7"/>
-      <c r="T230" s="7"/>
-      <c r="U230" s="7"/>
+      <c r="T230" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="U230" s="7" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231" s="13" t="s">
-        <v>958</v>
+        <v>984</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>959</v>
+        <v>985</v>
       </c>
       <c r="C231" s="13" t="s">
-        <v>957</v>
+        <v>986</v>
       </c>
       <c r="D231" s="13" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="E231" s="14">
         <v>2023</v>
@@ -17158,7 +17172,7 @@
         <v>14</v>
       </c>
       <c r="K231" s="31">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="L231" s="31"/>
       <c r="M231" s="31" t="s">
@@ -17166,7 +17180,7 @@
       </c>
       <c r="N231" s="45"/>
       <c r="O231" s="44" t="s">
-        <v>1196</v>
+        <v>991</v>
       </c>
       <c r="P231" s="27"/>
       <c r="Q231" s="24"/>
@@ -17177,16 +17191,16 @@
     </row>
     <row r="232" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A232" s="13" t="s">
-        <v>1172</v>
+        <v>958</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>1173</v>
+        <v>959</v>
       </c>
       <c r="C232" s="13" t="s">
-        <v>509</v>
+        <v>957</v>
       </c>
       <c r="D232" s="13" t="s">
-        <v>510</v>
+        <v>960</v>
       </c>
       <c r="E232" s="14">
         <v>2023</v>
@@ -17207,7 +17221,7 @@
         <v>14</v>
       </c>
       <c r="K232" s="31">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="L232" s="31"/>
       <c r="M232" s="31" t="s">
@@ -17215,7 +17229,7 @@
       </c>
       <c r="N232" s="45"/>
       <c r="O232" s="44" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="P232" s="27"/>
       <c r="Q232" s="24"/>
@@ -17226,16 +17240,16 @@
     </row>
     <row r="233" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A233" s="13" t="s">
-        <v>1133</v>
+        <v>1172</v>
       </c>
       <c r="B233" s="13" t="s">
-        <v>1134</v>
+        <v>1173</v>
       </c>
       <c r="C233" s="13" t="s">
-        <v>267</v>
+        <v>509</v>
       </c>
       <c r="D233" s="13" t="s">
-        <v>268</v>
+        <v>510</v>
       </c>
       <c r="E233" s="14">
         <v>2023</v>
@@ -17256,7 +17270,7 @@
         <v>14</v>
       </c>
       <c r="K233" s="31">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="L233" s="31"/>
       <c r="M233" s="31" t="s">
@@ -17264,7 +17278,7 @@
       </c>
       <c r="N233" s="45"/>
       <c r="O233" s="44" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="P233" s="27"/>
       <c r="Q233" s="24"/>
@@ -17320,20 +17334,67 @@
       <c r="T234" s="7"/>
       <c r="U234" s="7"/>
     </row>
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A235" s="13" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B235" s="13" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C235" s="13" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D235" s="13" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E235" s="14">
+        <v>2023</v>
+      </c>
+      <c r="F235" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G235" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H235" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I235" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J235" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K235" s="31">
+        <v>45297</v>
+      </c>
+      <c r="L235" s="31"/>
+      <c r="M235" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="N235" s="45"/>
+      <c r="O235" s="44"/>
+      <c r="P235" s="27"/>
+      <c r="Q235" s="24"/>
+      <c r="R235" s="25"/>
+      <c r="S235" s="7"/>
+      <c r="T235" s="7"/>
+      <c r="U235" s="7"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="T1:U112 T114:U231 T232:V1048576">
-    <cfRule type="cellIs" dxfId="58" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="27" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="28" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T113:U113">
-    <cfRule type="cellIs" dxfId="56" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="25" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="26" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17739,7 +17800,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17774,7 +17837,7 @@
       </c>
       <c r="I1" s="55">
         <f ca="1">AVERAGE(G:G)</f>
-        <v>157.66666666666666</v>
+        <v>157.55555555555554</v>
       </c>
       <c r="J1" s="54" t="s">
         <v>1179</v>
@@ -17800,10 +17863,13 @@
         <v>44769</v>
       </c>
       <c r="G2" s="12">
-        <f t="shared" ref="G2:G19" ca="1" si="0">TODAY()-F2</f>
-        <v>393</v>
-      </c>
-      <c r="I2" s="55"/>
+        <f ca="1">TODAY()-F2</f>
+        <v>395</v>
+      </c>
+      <c r="I2" s="55" t="str">
+        <f ca="1">ROUND(I1/30,0)&amp;" md"</f>
+        <v>5 md</v>
+      </c>
       <c r="J2" s="54"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -17824,8 +17890,8 @@
         <v>44832</v>
       </c>
       <c r="G3" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>330</v>
+        <f ca="1">TODAY()-F3</f>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -17846,8 +17912,8 @@
         <v>44914</v>
       </c>
       <c r="G4" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>248</v>
+        <f ca="1">TODAY()-F4</f>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -17868,8 +17934,8 @@
         <v>44942</v>
       </c>
       <c r="G5" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>220</v>
+        <f ca="1">TODAY()-F5</f>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -17890,8 +17956,8 @@
         <v>44958</v>
       </c>
       <c r="G6" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>204</v>
+        <f ca="1">TODAY()-F6</f>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -17912,8 +17978,8 @@
         <v>44959</v>
       </c>
       <c r="G7" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>203</v>
+        <f ca="1">TODAY()-F7</f>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -17934,8 +18000,8 @@
         <v>45013</v>
       </c>
       <c r="G8" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>149</v>
+        <f ca="1">TODAY()-F8</f>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -17956,8 +18022,8 @@
         <v>45018</v>
       </c>
       <c r="G9" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <f ca="1">TODAY()-F9</f>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -17978,8 +18044,8 @@
         <v>45021</v>
       </c>
       <c r="G10" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>141</v>
+        <f ca="1">TODAY()-F10</f>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -18000,8 +18066,8 @@
         <v>45021</v>
       </c>
       <c r="G11" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>141</v>
+        <f ca="1">TODAY()-F11</f>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -18022,8 +18088,8 @@
         <v>45037</v>
       </c>
       <c r="G12" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>125</v>
+        <f ca="1">TODAY()-F12</f>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -18044,8 +18110,8 @@
         <v>45043</v>
       </c>
       <c r="G13" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>119</v>
+        <f ca="1">TODAY()-F13</f>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -18066,52 +18132,52 @@
         <v>45043</v>
       </c>
       <c r="G14" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <f ca="1">TODAY()-F14</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>1113</v>
+        <v>1099</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>1114</v>
+        <v>1151</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>1122</v>
+        <v>1152</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1121</v>
+        <v>1153</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="10">
-        <v>45061</v>
+        <v>45072</v>
       </c>
       <c r="G15" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>101</v>
+        <f ca="1">TODAY()-F15</f>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>1099</v>
+        <v>1208</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1151</v>
+        <v>1209</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>1152</v>
+        <v>267</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>1153</v>
+        <v>268</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="10">
-        <v>45072</v>
+        <v>45099</v>
       </c>
       <c r="G16" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <f ca="1">TODAY()-F16</f>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -18132,8 +18198,8 @@
         <v>45114</v>
       </c>
       <c r="G17" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <f ca="1">TODAY()-F17</f>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -18154,8 +18220,8 @@
         <v>45127</v>
       </c>
       <c r="G18" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <f ca="1">TODAY()-F18</f>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -18176,8 +18242,8 @@
         <v>45134</v>
       </c>
       <c r="G19" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <f ca="1">TODAY()-F19</f>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -18242,7 +18308,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>7.8191780821917805</v>
+        <v>7.8246575342465752</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -18263,7 +18329,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8191780821917805</v>
+        <v>7.8246575342465752</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -18284,7 +18350,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1972602739726028</v>
+        <v>7.2027397260273975</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -18305,7 +18371,7 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>5.5671232876712331</v>
+        <v>5.5726027397260278</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="papers" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2915" uniqueCount="1210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2930" uniqueCount="1213">
   <si>
     <t>title</t>
   </si>
@@ -3655,6 +3655,15 @@
   </si>
   <si>
     <t>Saelaert, Marlies; Mathieu, Louise; Van Hoof, Wannes; Devleesschauwer, Brecht</t>
+  </si>
+  <si>
+    <t>10.1186/s12889-023-16572-0</t>
+  </si>
+  <si>
+    <t>10.1186/s13690-023-01182-4</t>
+  </si>
+  <si>
+    <t>e143</t>
   </si>
 </sst>
 </file>
@@ -4203,10 +4212,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U235" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
-  <autoFilter ref="A1:U235"/>
-  <sortState ref="A2:U235">
-    <sortCondition ref="K1:K235"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U237" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+  <autoFilter ref="A1:U237"/>
+  <sortState ref="A2:U237">
+    <sortCondition ref="K1:K237"/>
   </sortState>
   <tableColumns count="21">
     <tableColumn id="1" name="title" dataDxfId="56"/>
@@ -4258,8 +4267,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G19" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A1:G19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G17" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A1:G17"/>
   <sortState ref="A2:G19">
     <sortCondition ref="F1:F19"/>
   </sortState>
@@ -4585,10 +4594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U235"/>
+  <dimension ref="A1:U237"/>
   <sheetViews>
-    <sheetView topLeftCell="A197" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A235" sqref="A235"/>
+    <sheetView tabSelected="1" topLeftCell="A201" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A237" sqref="A237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16930,28 +16939,28 @@
     </row>
     <row r="227" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
-        <v>1205</v>
+        <v>1172</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>1206</v>
+        <v>1173</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>267</v>
+        <v>509</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>268</v>
+        <v>510</v>
       </c>
       <c r="E227" s="18">
         <v>2023</v>
       </c>
       <c r="F227" s="18">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="G227" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H227" s="18">
-        <v>156</v>
+      <c r="H227" s="18" t="s">
+        <v>1212</v>
       </c>
       <c r="I227" s="18" t="s">
         <v>14</v>
@@ -16960,7 +16969,7 @@
         <v>14</v>
       </c>
       <c r="K227" s="42">
-        <v>45162</v>
+        <v>45152</v>
       </c>
       <c r="L227" s="42"/>
       <c r="M227" s="42" t="s">
@@ -16968,7 +16977,7 @@
       </c>
       <c r="N227" s="11"/>
       <c r="O227" s="19" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="P227" s="7"/>
       <c r="Q227" s="24"/>
@@ -16983,10 +16992,10 @@
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
-        <v>1133</v>
+        <v>1205</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>1134</v>
+        <v>1206</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>267</v>
@@ -17004,7 +17013,7 @@
         <v>14</v>
       </c>
       <c r="H228" s="18">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I228" s="18" t="s">
         <v>14</v>
@@ -17013,7 +17022,7 @@
         <v>14</v>
       </c>
       <c r="K228" s="42">
-        <v>45163</v>
+        <v>45162</v>
       </c>
       <c r="L228" s="42"/>
       <c r="M228" s="42" t="s">
@@ -17021,7 +17030,7 @@
       </c>
       <c r="N228" s="11"/>
       <c r="O228" s="19" t="s">
-        <v>1201</v>
+        <v>1207</v>
       </c>
       <c r="P228" s="7"/>
       <c r="Q228" s="24"/>
@@ -17036,28 +17045,28 @@
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
-        <v>1076</v>
+        <v>1133</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>1079</v>
+        <v>1134</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>1078</v>
+        <v>267</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>1077</v>
+        <v>268</v>
       </c>
       <c r="E229" s="18">
         <v>2023</v>
       </c>
       <c r="F229" s="18">
-        <v>893</v>
+        <v>81</v>
       </c>
       <c r="G229" s="19" t="s">
         <v>14</v>
       </c>
       <c r="H229" s="18">
-        <v>164801</v>
+        <v>160</v>
       </c>
       <c r="I229" s="18" t="s">
         <v>14</v>
@@ -17066,7 +17075,7 @@
         <v>14</v>
       </c>
       <c r="K229" s="42">
-        <v>45200</v>
+        <v>45163</v>
       </c>
       <c r="L229" s="42"/>
       <c r="M229" s="42" t="s">
@@ -17074,7 +17083,7 @@
       </c>
       <c r="N229" s="11"/>
       <c r="O229" s="19" t="s">
-        <v>1155</v>
+        <v>1201</v>
       </c>
       <c r="P229" s="7"/>
       <c r="Q229" s="24"/>
@@ -17089,28 +17098,28 @@
     </row>
     <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
-        <v>1018</v>
+        <v>1110</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>1017</v>
+        <v>1111</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>419</v>
+        <v>89</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>419</v>
+        <v>89</v>
       </c>
       <c r="E230" s="18">
         <v>2023</v>
       </c>
       <c r="F230" s="18">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G230" s="19" t="s">
         <v>14</v>
       </c>
       <c r="H230" s="18">
-        <v>100595</v>
+        <v>1707</v>
       </c>
       <c r="I230" s="18" t="s">
         <v>14</v>
@@ -17119,7 +17128,7 @@
         <v>14</v>
       </c>
       <c r="K230" s="42">
-        <v>45261</v>
+        <v>45173</v>
       </c>
       <c r="L230" s="42"/>
       <c r="M230" s="42" t="s">
@@ -17127,7 +17136,7 @@
       </c>
       <c r="N230" s="11"/>
       <c r="O230" s="19" t="s">
-        <v>1171</v>
+        <v>1210</v>
       </c>
       <c r="P230" s="7"/>
       <c r="Q230" s="24"/>
@@ -17141,164 +17150,176 @@
       </c>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A231" s="13" t="s">
-        <v>984</v>
-      </c>
-      <c r="B231" s="13" t="s">
-        <v>985</v>
-      </c>
-      <c r="C231" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="D231" s="13" t="s">
-        <v>987</v>
-      </c>
-      <c r="E231" s="14">
+      <c r="A231" s="7" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D231" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E231" s="18">
         <v>2023</v>
       </c>
-      <c r="F231" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G231" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H231" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I231" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J231" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K231" s="31">
-        <v>45292</v>
-      </c>
-      <c r="L231" s="31"/>
-      <c r="M231" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="N231" s="45"/>
-      <c r="O231" s="44" t="s">
-        <v>991</v>
-      </c>
-      <c r="P231" s="27"/>
+      <c r="F231" s="18">
+        <v>81</v>
+      </c>
+      <c r="G231" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H231" s="18">
+        <v>168</v>
+      </c>
+      <c r="I231" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J231" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K231" s="42">
+        <v>45181</v>
+      </c>
+      <c r="L231" s="42"/>
+      <c r="M231" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="N231" s="11"/>
+      <c r="O231" s="19" t="s">
+        <v>1211</v>
+      </c>
+      <c r="P231" s="7"/>
       <c r="Q231" s="24"/>
       <c r="R231" s="25"/>
       <c r="S231" s="7"/>
-      <c r="T231" s="7"/>
-      <c r="U231" s="7"/>
+      <c r="T231" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="U231" s="7" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="232" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A232" s="13" t="s">
-        <v>958</v>
-      </c>
-      <c r="B232" s="13" t="s">
-        <v>959</v>
-      </c>
-      <c r="C232" s="13" t="s">
-        <v>957</v>
-      </c>
-      <c r="D232" s="13" t="s">
-        <v>960</v>
-      </c>
-      <c r="E232" s="14">
+      <c r="A232" s="7" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D232" s="7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E232" s="18">
         <v>2023</v>
       </c>
-      <c r="F232" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G232" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H232" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I232" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J232" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K232" s="31">
-        <v>45293</v>
-      </c>
-      <c r="L232" s="31"/>
-      <c r="M232" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="N232" s="45"/>
-      <c r="O232" s="44" t="s">
-        <v>1196</v>
-      </c>
-      <c r="P232" s="27"/>
+      <c r="F232" s="18">
+        <v>893</v>
+      </c>
+      <c r="G232" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H232" s="18">
+        <v>164801</v>
+      </c>
+      <c r="I232" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J232" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K232" s="42">
+        <v>45200</v>
+      </c>
+      <c r="L232" s="42"/>
+      <c r="M232" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="N232" s="11"/>
+      <c r="O232" s="19" t="s">
+        <v>1155</v>
+      </c>
+      <c r="P232" s="7"/>
       <c r="Q232" s="24"/>
       <c r="R232" s="25"/>
       <c r="S232" s="7"/>
-      <c r="T232" s="7"/>
-      <c r="U232" s="7"/>
+      <c r="T232" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="U232" s="7" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="233" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A233" s="13" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B233" s="13" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C233" s="13" t="s">
-        <v>509</v>
-      </c>
-      <c r="D233" s="13" t="s">
-        <v>510</v>
-      </c>
-      <c r="E233" s="14">
+      <c r="A233" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="D233" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="E233" s="18">
         <v>2023</v>
       </c>
-      <c r="F233" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G233" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H233" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I233" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J233" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K233" s="31">
-        <v>45294</v>
-      </c>
-      <c r="L233" s="31"/>
-      <c r="M233" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="N233" s="45"/>
-      <c r="O233" s="44" t="s">
-        <v>1200</v>
-      </c>
-      <c r="P233" s="27"/>
+      <c r="F233" s="18">
+        <v>17</v>
+      </c>
+      <c r="G233" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H233" s="18">
+        <v>100595</v>
+      </c>
+      <c r="I233" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J233" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K233" s="42">
+        <v>45261</v>
+      </c>
+      <c r="L233" s="42"/>
+      <c r="M233" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="N233" s="11"/>
+      <c r="O233" s="19" t="s">
+        <v>1171</v>
+      </c>
+      <c r="P233" s="7"/>
       <c r="Q233" s="24"/>
       <c r="R233" s="25"/>
       <c r="S233" s="7"/>
-      <c r="T233" s="7"/>
-      <c r="U233" s="7"/>
+      <c r="T233" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="U233" s="7" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="234" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A234" s="13" t="s">
-        <v>1010</v>
+        <v>984</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>1011</v>
+        <v>985</v>
       </c>
       <c r="C234" s="13" t="s">
-        <v>144</v>
+        <v>986</v>
       </c>
       <c r="D234" s="13" t="s">
-        <v>144</v>
+        <v>987</v>
       </c>
       <c r="E234" s="14">
         <v>2023</v>
@@ -17319,14 +17340,16 @@
         <v>14</v>
       </c>
       <c r="K234" s="31">
-        <v>45296</v>
+        <v>45292</v>
       </c>
       <c r="L234" s="31"/>
       <c r="M234" s="31" t="s">
         <v>273</v>
       </c>
       <c r="N234" s="45"/>
-      <c r="O234" s="44"/>
+      <c r="O234" s="44" t="s">
+        <v>991</v>
+      </c>
       <c r="P234" s="27"/>
       <c r="Q234" s="24"/>
       <c r="R234" s="25"/>
@@ -17336,16 +17359,16 @@
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235" s="13" t="s">
-        <v>1113</v>
+        <v>958</v>
       </c>
       <c r="B235" s="13" t="s">
-        <v>1114</v>
+        <v>959</v>
       </c>
       <c r="C235" s="13" t="s">
-        <v>1122</v>
+        <v>957</v>
       </c>
       <c r="D235" s="13" t="s">
-        <v>1121</v>
+        <v>960</v>
       </c>
       <c r="E235" s="14">
         <v>2023</v>
@@ -17366,20 +17389,116 @@
         <v>14</v>
       </c>
       <c r="K235" s="31">
-        <v>45297</v>
+        <v>45293</v>
       </c>
       <c r="L235" s="31"/>
       <c r="M235" s="31" t="s">
         <v>273</v>
       </c>
       <c r="N235" s="45"/>
-      <c r="O235" s="44"/>
+      <c r="O235" s="44" t="s">
+        <v>1196</v>
+      </c>
       <c r="P235" s="27"/>
       <c r="Q235" s="24"/>
       <c r="R235" s="25"/>
       <c r="S235" s="7"/>
       <c r="T235" s="7"/>
       <c r="U235" s="7"/>
+    </row>
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A236" s="13" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B236" s="13" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C236" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D236" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E236" s="14">
+        <v>2023</v>
+      </c>
+      <c r="F236" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G236" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H236" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I236" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J236" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K236" s="31">
+        <v>45296</v>
+      </c>
+      <c r="L236" s="31"/>
+      <c r="M236" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="N236" s="45"/>
+      <c r="O236" s="44"/>
+      <c r="P236" s="27"/>
+      <c r="Q236" s="24"/>
+      <c r="R236" s="25"/>
+      <c r="S236" s="7"/>
+      <c r="T236" s="7"/>
+      <c r="U236" s="7"/>
+    </row>
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A237" s="13" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B237" s="13" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C237" s="13" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D237" s="13" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E237" s="14">
+        <v>2023</v>
+      </c>
+      <c r="F237" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G237" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H237" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I237" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J237" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K237" s="31">
+        <v>45297</v>
+      </c>
+      <c r="L237" s="31"/>
+      <c r="M237" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="N237" s="45"/>
+      <c r="O237" s="44"/>
+      <c r="P237" s="27"/>
+      <c r="Q237" s="24"/>
+      <c r="R237" s="25"/>
+      <c r="S237" s="7"/>
+      <c r="T237" s="7"/>
+      <c r="U237" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="T1:U112 T114:U231 T232:V1048576">
@@ -17798,10 +17917,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17837,7 +17956,7 @@
       </c>
       <c r="I1" s="55">
         <f ca="1">AVERAGE(G:G)</f>
-        <v>157.55555555555554</v>
+        <v>187.625</v>
       </c>
       <c r="J1" s="54" t="s">
         <v>1179</v>
@@ -17863,12 +17982,12 @@
         <v>44769</v>
       </c>
       <c r="G2" s="12">
-        <f ca="1">TODAY()-F2</f>
-        <v>395</v>
+        <f t="shared" ref="G2:G17" ca="1" si="0">TODAY()-F2</f>
+        <v>417</v>
       </c>
       <c r="I2" s="55" t="str">
         <f ca="1">ROUND(I1/30,0)&amp;" md"</f>
-        <v>5 md</v>
+        <v>6 md</v>
       </c>
       <c r="J2" s="54"/>
     </row>
@@ -17890,8 +18009,8 @@
         <v>44832</v>
       </c>
       <c r="G3" s="12">
-        <f ca="1">TODAY()-F3</f>
-        <v>332</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -17912,8 +18031,8 @@
         <v>44914</v>
       </c>
       <c r="G4" s="12">
-        <f ca="1">TODAY()-F4</f>
-        <v>250</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -17934,8 +18053,8 @@
         <v>44942</v>
       </c>
       <c r="G5" s="12">
-        <f ca="1">TODAY()-F5</f>
-        <v>222</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -17956,8 +18075,8 @@
         <v>44958</v>
       </c>
       <c r="G6" s="12">
-        <f ca="1">TODAY()-F6</f>
-        <v>206</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -17978,8 +18097,8 @@
         <v>44959</v>
       </c>
       <c r="G7" s="12">
-        <f ca="1">TODAY()-F7</f>
-        <v>205</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -18000,8 +18119,8 @@
         <v>45013</v>
       </c>
       <c r="G8" s="12">
-        <f ca="1">TODAY()-F8</f>
-        <v>151</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -18022,8 +18141,8 @@
         <v>45018</v>
       </c>
       <c r="G9" s="12">
-        <f ca="1">TODAY()-F9</f>
-        <v>146</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -18044,8 +18163,8 @@
         <v>45021</v>
       </c>
       <c r="G10" s="12">
-        <f ca="1">TODAY()-F10</f>
-        <v>143</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -18066,8 +18185,8 @@
         <v>45021</v>
       </c>
       <c r="G11" s="12">
-        <f ca="1">TODAY()-F11</f>
-        <v>143</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -18088,8 +18207,8 @@
         <v>45037</v>
       </c>
       <c r="G12" s="12">
-        <f ca="1">TODAY()-F12</f>
-        <v>127</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -18110,140 +18229,96 @@
         <v>45043</v>
       </c>
       <c r="G13" s="12">
-        <f ca="1">TODAY()-F13</f>
-        <v>121</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>1110</v>
+        <v>1099</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1111</v>
+        <v>1151</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>89</v>
+        <v>1152</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>89</v>
+        <v>1153</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="10">
-        <v>45043</v>
+        <v>45072</v>
       </c>
       <c r="G14" s="12">
-        <f ca="1">TODAY()-F14</f>
-        <v>121</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>1099</v>
+        <v>1174</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>1151</v>
+        <v>1175</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>1152</v>
+        <v>575</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1153</v>
+        <v>576</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="10">
-        <v>45072</v>
+        <v>45114</v>
       </c>
       <c r="G15" s="12">
-        <f ca="1">TODAY()-F15</f>
-        <v>92</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>1208</v>
+        <v>1194</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1209</v>
+        <v>1195</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>267</v>
+        <v>668</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>268</v>
+        <v>669</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="10">
-        <v>45099</v>
+        <v>45127</v>
       </c>
       <c r="G16" s="12">
-        <f ca="1">TODAY()-F16</f>
-        <v>65</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>1174</v>
+        <v>1183</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1175</v>
+        <v>1184</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>575</v>
+        <v>55</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>576</v>
+        <v>56</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="10">
-        <v>45114</v>
+        <v>45134</v>
       </c>
       <c r="G17" s="12">
-        <f ca="1">TODAY()-F17</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="10">
-        <v>45127</v>
-      </c>
-      <c r="G18" s="12">
-        <f ca="1">TODAY()-F18</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="10">
-        <v>45134</v>
-      </c>
-      <c r="G19" s="12">
-        <f ca="1">TODAY()-F19</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -18308,7 +18383,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>7.8246575342465752</v>
+        <v>7.8849315068493153</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -18329,7 +18404,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8246575342465752</v>
+        <v>7.8849315068493153</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -18350,7 +18425,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2027397260273975</v>
+        <v>7.2630136986301368</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -18371,7 +18446,7 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>5.5726027397260278</v>
+        <v>5.6328767123287671</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2930" uniqueCount="1213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2951" uniqueCount="1217">
   <si>
     <t>title</t>
   </si>
@@ -3186,9 +3186,6 @@
     <t>Front. Allergy</t>
   </si>
   <si>
-    <t>Classification of symptoms and associated factors of post COVID-19 condition: a longitudinal study in the Belgian population</t>
-  </si>
-  <si>
     <t>Nayani, Sarah; Castañares, Diego; De Pauw, Robby; Van Cauteren, Dieter; Demarest, Stefaan; Drieskens, Sabine; Cornelissen, Laura; Devleesschauwer, Brecht; De Ridder, Karin; Charafeddine, Rana; Smith, Pierre</t>
   </si>
   <si>
@@ -3294,12 +3291,6 @@
     <t>Exploratory study of risk factors related to SARS-CoV-2 prevalence in nursing homes in Flanders (Belgium) during the first wave of the COVID-19 pandemic</t>
   </si>
   <si>
-    <t>Annals of Work Exposures and Health</t>
-  </si>
-  <si>
-    <t>Ann. Work Expo. Health</t>
-  </si>
-  <si>
     <t>Janssens, Heidi; Heytens, Stefan; Meyers, Eline; Devleesschauwer, Brecht; Cools, Piet; Geens, Tom</t>
   </si>
   <si>
@@ -3664,6 +3655,27 @@
   </si>
   <si>
     <t>e143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mental health among people with a migration background in Belgium over the past 20 years: how has the situation evolved? </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13690-023-01187-z</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/37770954/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> e0292596</t>
+  </si>
+  <si>
+    <t>10.1093/ehjqcco/qcad051</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0292596</t>
+  </si>
+  <si>
+    <t>Classification of post COVID-19 condition symptoms: a longitudinal study in the Belgian population</t>
   </si>
 </sst>
 </file>
@@ -4212,10 +4224,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U237" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
-  <autoFilter ref="A1:U237"/>
-  <sortState ref="A2:U237">
-    <sortCondition ref="K1:K237"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U240" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+  <autoFilter ref="A1:U240"/>
+  <sortState ref="A2:U238">
+    <sortCondition ref="K1:K238"/>
   </sortState>
   <tableColumns count="21">
     <tableColumn id="1" name="title" dataDxfId="56"/>
@@ -4267,8 +4279,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G17" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A1:G17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G14" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A1:G14"/>
   <sortState ref="A2:G19">
     <sortCondition ref="F1:F19"/>
   </sortState>
@@ -4594,10 +4606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U237"/>
+  <dimension ref="A1:U240"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A201" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A237" sqref="A237"/>
+      <selection activeCell="A240" sqref="A240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4652,7 +4664,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>272</v>
@@ -16147,7 +16159,7 @@
         <v>1004</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>509</v>
@@ -16165,7 +16177,7 @@
         <v>14</v>
       </c>
       <c r="H212" s="18" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="I212" s="18" t="s">
         <v>14</v>
@@ -16182,7 +16194,7 @@
       </c>
       <c r="N212" s="11"/>
       <c r="O212" s="19" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="P212" s="7"/>
       <c r="Q212" s="24"/>
@@ -16218,7 +16230,7 @@
         <v>101</v>
       </c>
       <c r="H213" s="18" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I213" s="18" t="s">
         <v>14</v>
@@ -16235,7 +16247,7 @@
       </c>
       <c r="N213" s="11"/>
       <c r="O213" s="19" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="P213" s="7"/>
       <c r="Q213" s="24"/>
@@ -16288,7 +16300,7 @@
       </c>
       <c r="N214" s="11"/>
       <c r="O214" s="19" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="P214" s="7"/>
       <c r="Q214" s="24"/>
@@ -16303,7 +16315,7 @@
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B215" s="7" t="s">
         <v>970</v>
@@ -16394,7 +16406,7 @@
       </c>
       <c r="N216" s="11"/>
       <c r="O216" s="19" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="P216" s="7"/>
       <c r="Q216" s="24"/>
@@ -16462,7 +16474,7 @@
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B218" s="7" t="s">
         <v>981</v>
@@ -16500,7 +16512,7 @@
       </c>
       <c r="N218" s="11"/>
       <c r="O218" s="19" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="P218" s="7"/>
       <c r="Q218" s="24"/>
@@ -16515,7 +16527,7 @@
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="B219" s="7" t="s">
         <v>766</v>
@@ -16553,7 +16565,7 @@
       </c>
       <c r="N219" s="11"/>
       <c r="O219" s="19" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="P219" s="7"/>
       <c r="Q219" s="24"/>
@@ -16606,7 +16618,7 @@
       </c>
       <c r="N220" s="11"/>
       <c r="O220" s="19" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="P220" s="7"/>
       <c r="Q220" s="24"/>
@@ -16642,7 +16654,7 @@
         <v>92</v>
       </c>
       <c r="H221" s="18" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I221" s="18" t="s">
         <v>14</v>
@@ -16659,7 +16671,7 @@
       </c>
       <c r="N221" s="11"/>
       <c r="O221" s="19" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="P221" s="7"/>
       <c r="Q221" s="24"/>
@@ -16674,7 +16686,7 @@
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B222" s="7" t="s">
         <v>1013</v>
@@ -16712,7 +16724,7 @@
       </c>
       <c r="N222" s="11"/>
       <c r="O222" s="19" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="P222" s="7"/>
       <c r="Q222" s="24"/>
@@ -16730,7 +16742,7 @@
         <v>1014</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>1015</v>
@@ -16765,7 +16777,7 @@
       </c>
       <c r="N223" s="11"/>
       <c r="O223" s="19" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="P223" s="7"/>
       <c r="Q223" s="24"/>
@@ -16783,7 +16795,7 @@
         <v>1027</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>267</v>
@@ -16818,7 +16830,7 @@
       </c>
       <c r="N224" s="11"/>
       <c r="O224" s="19" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="P224" s="7"/>
       <c r="Q224" s="24"/>
@@ -16871,7 +16883,7 @@
       </c>
       <c r="N225" s="11"/>
       <c r="O225" s="19" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="P225" s="7"/>
       <c r="Q225" s="24"/>
@@ -16886,16 +16898,16 @@
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B226" s="7" t="s">
         <v>1123</v>
       </c>
-      <c r="B226" s="7" t="s">
-        <v>1126</v>
-      </c>
       <c r="C226" s="7" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="E226" s="18">
         <v>2023</v>
@@ -16924,7 +16936,7 @@
       </c>
       <c r="N226" s="11"/>
       <c r="O226" s="19" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="P226" s="7"/>
       <c r="Q226" s="24"/>
@@ -16939,10 +16951,10 @@
     </row>
     <row r="227" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>509</v>
@@ -16960,7 +16972,7 @@
         <v>14</v>
       </c>
       <c r="H227" s="18" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="I227" s="18" t="s">
         <v>14</v>
@@ -16977,7 +16989,7 @@
       </c>
       <c r="N227" s="11"/>
       <c r="O227" s="19" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="P227" s="7"/>
       <c r="Q227" s="24"/>
@@ -16992,10 +17004,10 @@
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>267</v>
@@ -17030,7 +17042,7 @@
       </c>
       <c r="N228" s="11"/>
       <c r="O228" s="19" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="P228" s="7"/>
       <c r="Q228" s="24"/>
@@ -17045,10 +17057,10 @@
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>267</v>
@@ -17083,7 +17095,7 @@
       </c>
       <c r="N229" s="11"/>
       <c r="O229" s="19" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="P229" s="7"/>
       <c r="Q229" s="24"/>
@@ -17098,10 +17110,10 @@
     </row>
     <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>89</v>
@@ -17136,7 +17148,7 @@
       </c>
       <c r="N230" s="11"/>
       <c r="O230" s="19" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="P230" s="7"/>
       <c r="Q230" s="24"/>
@@ -17151,10 +17163,10 @@
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>267</v>
@@ -17189,7 +17201,7 @@
       </c>
       <c r="N231" s="11"/>
       <c r="O231" s="19" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="P231" s="7"/>
       <c r="Q231" s="24"/>
@@ -17204,16 +17216,16 @@
     </row>
     <row r="232" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D232" s="7" t="s">
         <v>1076</v>
-      </c>
-      <c r="B232" s="7" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C232" s="7" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D232" s="7" t="s">
-        <v>1077</v>
       </c>
       <c r="E232" s="18">
         <v>2023</v>
@@ -17242,7 +17254,7 @@
       </c>
       <c r="N232" s="11"/>
       <c r="O232" s="19" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="P232" s="7"/>
       <c r="Q232" s="24"/>
@@ -17257,37 +17269,37 @@
     </row>
     <row r="233" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
-        <v>1018</v>
+        <v>958</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>1017</v>
+        <v>959</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>419</v>
+        <v>957</v>
       </c>
       <c r="D233" s="7" t="s">
-        <v>419</v>
+        <v>960</v>
       </c>
       <c r="E233" s="18">
         <v>2023</v>
       </c>
       <c r="F233" s="18">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G233" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H233" s="18">
-        <v>100595</v>
-      </c>
-      <c r="I233" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J233" s="18" t="s">
-        <v>14</v>
+        <v>92</v>
+      </c>
+      <c r="H233" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I233" s="18">
+        <v>1313</v>
+      </c>
+      <c r="J233" s="18">
+        <v>1344</v>
       </c>
       <c r="K233" s="42">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="L233" s="42"/>
       <c r="M233" s="42" t="s">
@@ -17295,62 +17307,58 @@
       </c>
       <c r="N233" s="11"/>
       <c r="O233" s="19" t="s">
-        <v>1171</v>
+        <v>1193</v>
       </c>
       <c r="P233" s="7"/>
       <c r="Q233" s="24"/>
       <c r="R233" s="25"/>
       <c r="S233" s="7"/>
-      <c r="T233" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="U233" s="7" t="s">
-        <v>603</v>
-      </c>
+      <c r="T233" s="7"/>
+      <c r="U233" s="7"/>
     </row>
     <row r="234" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A234" s="13" t="s">
-        <v>984</v>
-      </c>
-      <c r="B234" s="13" t="s">
-        <v>985</v>
-      </c>
-      <c r="C234" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="D234" s="13" t="s">
-        <v>987</v>
-      </c>
-      <c r="E234" s="14">
+      <c r="A234" s="7" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D234" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E234" s="18">
         <v>2023</v>
       </c>
-      <c r="F234" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G234" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H234" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I234" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J234" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K234" s="31">
-        <v>45292</v>
-      </c>
-      <c r="L234" s="31"/>
-      <c r="M234" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="N234" s="45"/>
-      <c r="O234" s="44" t="s">
-        <v>991</v>
-      </c>
-      <c r="P234" s="27"/>
+      <c r="F234" s="18">
+        <v>18</v>
+      </c>
+      <c r="G234" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H234" s="18" t="s">
+        <v>1213</v>
+      </c>
+      <c r="I234" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J234" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K234" s="42">
+        <v>45204</v>
+      </c>
+      <c r="L234" s="42"/>
+      <c r="M234" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="N234" s="11"/>
+      <c r="O234" s="19" t="s">
+        <v>1215</v>
+      </c>
+      <c r="P234" s="7"/>
       <c r="Q234" s="24"/>
       <c r="R234" s="25"/>
       <c r="S234" s="7"/>
@@ -17358,66 +17366,70 @@
       <c r="U234" s="7"/>
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A235" s="13" t="s">
-        <v>958</v>
-      </c>
-      <c r="B235" s="13" t="s">
-        <v>959</v>
-      </c>
-      <c r="C235" s="13" t="s">
-        <v>957</v>
-      </c>
-      <c r="D235" s="13" t="s">
-        <v>960</v>
-      </c>
-      <c r="E235" s="14">
+      <c r="A235" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="D235" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="E235" s="18">
         <v>2023</v>
       </c>
-      <c r="F235" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G235" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H235" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I235" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J235" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K235" s="31">
-        <v>45293</v>
-      </c>
-      <c r="L235" s="31"/>
-      <c r="M235" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="N235" s="45"/>
-      <c r="O235" s="44" t="s">
-        <v>1196</v>
-      </c>
-      <c r="P235" s="27"/>
+      <c r="F235" s="18">
+        <v>17</v>
+      </c>
+      <c r="G235" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H235" s="18">
+        <v>100595</v>
+      </c>
+      <c r="I235" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J235" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K235" s="42">
+        <v>45261</v>
+      </c>
+      <c r="L235" s="42"/>
+      <c r="M235" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="N235" s="11"/>
+      <c r="O235" s="19" t="s">
+        <v>1168</v>
+      </c>
+      <c r="P235" s="7"/>
       <c r="Q235" s="24"/>
       <c r="R235" s="25"/>
       <c r="S235" s="7"/>
-      <c r="T235" s="7"/>
-      <c r="U235" s="7"/>
+      <c r="T235" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="U235" s="7" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="236" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A236" s="13" t="s">
-        <v>1010</v>
+        <v>984</v>
       </c>
       <c r="B236" s="13" t="s">
-        <v>1011</v>
+        <v>985</v>
       </c>
       <c r="C236" s="13" t="s">
-        <v>144</v>
+        <v>986</v>
       </c>
       <c r="D236" s="13" t="s">
-        <v>144</v>
+        <v>987</v>
       </c>
       <c r="E236" s="14">
         <v>2023</v>
@@ -17438,14 +17450,16 @@
         <v>14</v>
       </c>
       <c r="K236" s="31">
-        <v>45296</v>
+        <v>45292</v>
       </c>
       <c r="L236" s="31"/>
       <c r="M236" s="31" t="s">
         <v>273</v>
       </c>
       <c r="N236" s="45"/>
-      <c r="O236" s="44"/>
+      <c r="O236" s="44" t="s">
+        <v>991</v>
+      </c>
       <c r="P236" s="27"/>
       <c r="Q236" s="24"/>
       <c r="R236" s="25"/>
@@ -17455,16 +17469,16 @@
     </row>
     <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237" s="13" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="B237" s="13" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="D237" s="13" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="E237" s="14">
         <v>2023</v>
@@ -17485,20 +17499,163 @@
         <v>14</v>
       </c>
       <c r="K237" s="31">
-        <v>45297</v>
+        <v>45293</v>
       </c>
       <c r="L237" s="31"/>
       <c r="M237" s="31" t="s">
         <v>273</v>
       </c>
       <c r="N237" s="45"/>
-      <c r="O237" s="44"/>
+      <c r="O237" s="44" t="s">
+        <v>1214</v>
+      </c>
       <c r="P237" s="27"/>
       <c r="Q237" s="24"/>
       <c r="R237" s="25"/>
       <c r="S237" s="7"/>
       <c r="T237" s="7"/>
       <c r="U237" s="7"/>
+    </row>
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A238" s="13" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B238" s="13" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C238" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D238" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E238" s="14">
+        <v>2023</v>
+      </c>
+      <c r="F238" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G238" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H238" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I238" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J238" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K238" s="31">
+        <v>45294</v>
+      </c>
+      <c r="L238" s="31"/>
+      <c r="M238" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="N238" s="45"/>
+      <c r="O238" s="44"/>
+      <c r="P238" s="27"/>
+      <c r="Q238" s="24"/>
+      <c r="R238" s="25"/>
+      <c r="S238" s="7"/>
+      <c r="T238" s="7"/>
+      <c r="U238" s="7"/>
+    </row>
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A239" s="13" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B239" s="13" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C239" s="13" t="s">
+        <v>723</v>
+      </c>
+      <c r="D239" s="13" t="s">
+        <v>723</v>
+      </c>
+      <c r="E239" s="14">
+        <v>2023</v>
+      </c>
+      <c r="F239" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G239" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H239" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I239" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J239" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K239" s="31">
+        <v>45295</v>
+      </c>
+      <c r="L239" s="31"/>
+      <c r="M239" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="N239" s="45"/>
+      <c r="O239" s="44"/>
+      <c r="P239" s="27"/>
+      <c r="Q239" s="24"/>
+      <c r="R239" s="25"/>
+      <c r="S239" s="7"/>
+      <c r="T239" s="7"/>
+      <c r="U239" s="7"/>
+    </row>
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A240" s="13" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B240" s="13" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C240" s="13" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D240" s="13" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E240" s="14">
+        <v>2023</v>
+      </c>
+      <c r="F240" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G240" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H240" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I240" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J240" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K240" s="31">
+        <v>45296</v>
+      </c>
+      <c r="L240" s="31"/>
+      <c r="M240" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="N240" s="45"/>
+      <c r="O240" s="44"/>
+      <c r="P240" s="27"/>
+      <c r="Q240" s="24"/>
+      <c r="R240" s="25"/>
+      <c r="S240" s="7"/>
+      <c r="T240" s="7"/>
+      <c r="U240" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="T1:U112 T114:U231 T232:V1048576">
@@ -17879,10 +18036,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>949</v>
@@ -17904,7 +18061,7 @@
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="19" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
   </sheetData>
@@ -17917,11 +18074,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17956,10 +18111,10 @@
       </c>
       <c r="I1" s="55">
         <f ca="1">AVERAGE(G:G)</f>
-        <v>187.625</v>
+        <v>209.46153846153845</v>
       </c>
       <c r="J1" s="54" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -17976,18 +18131,18 @@
         <v>262</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F2" s="10">
         <v>44769</v>
       </c>
       <c r="G2" s="12">
-        <f t="shared" ref="G2:G17" ca="1" si="0">TODAY()-F2</f>
-        <v>417</v>
+        <f t="shared" ref="G2:G14" ca="1" si="0">TODAY()-F2</f>
+        <v>436</v>
       </c>
       <c r="I2" s="55" t="str">
         <f ca="1">ROUND(I1/30,0)&amp;" md"</f>
-        <v>6 md</v>
+        <v>7 md</v>
       </c>
       <c r="J2" s="54"/>
     </row>
@@ -18010,7 +18165,7 @@
       </c>
       <c r="G3" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>354</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -18032,293 +18187,227 @@
       </c>
       <c r="G4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>272</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>1053</v>
+        <v>1063</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1054</v>
+        <v>1064</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>259</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>262</v>
+        <v>28</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="10">
-        <v>44942</v>
+        <v>44958</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="10">
-        <v>44958</v>
+        <v>44959</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>228</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>1067</v>
+        <v>1083</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1068</v>
+        <v>1086</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>120</v>
+        <v>1084</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>121</v>
+        <v>1085</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="10">
-        <v>44959</v>
+        <v>45013</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>227</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>1084</v>
+        <v>1089</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>1085</v>
+        <v>1091</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1086</v>
+        <v>344</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="10">
-        <v>45013</v>
+        <v>45021</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1089</v>
+        <v>1093</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1090</v>
+        <v>1094</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="10">
-        <v>45018</v>
+        <v>45021</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>1092</v>
+        <v>1101</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1093</v>
+        <v>1102</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1094</v>
+        <v>1103</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>344</v>
+        <v>1104</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="10">
-        <v>45021</v>
+        <v>45037</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>1095</v>
+        <v>1105</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1098</v>
+        <v>1106</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="10">
-        <v>45021</v>
+        <v>45043</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>1104</v>
+        <v>1171</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1105</v>
+        <v>1172</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1106</v>
+        <v>575</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1107</v>
+        <v>576</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="10">
-        <v>45037</v>
+        <v>45114</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>149</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>1108</v>
+        <v>1191</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1109</v>
+        <v>1192</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1096</v>
+        <v>668</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1097</v>
+        <v>669</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="10">
-        <v>45043</v>
+        <v>45127</v>
       </c>
       <c r="G13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>143</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>1099</v>
+        <v>1180</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1151</v>
+        <v>1181</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>1152</v>
+        <v>55</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1153</v>
+        <v>56</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="10">
-        <v>45072</v>
+        <v>45134</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="10">
-        <v>45114</v>
-      </c>
-      <c r="G15" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="10">
-        <v>45127</v>
-      </c>
-      <c r="G16" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="10">
-        <v>45134</v>
-      </c>
-      <c r="G17" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -18383,7 +18472,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>7.8849315068493153</v>
+        <v>7.9369863013698634</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -18404,7 +18493,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8849315068493153</v>
+        <v>7.9369863013698634</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -18425,7 +18514,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2630136986301368</v>
+        <v>7.3150684931506849</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -18446,21 +18535,21 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>5.6328767123287671</v>
+        <v>5.6849315068493151</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="10">
@@ -18478,7 +18567,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
@@ -18499,7 +18588,7 @@
       </c>
       <c r="F1" s="50">
         <f>COUNTA(F3:F998)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="50">
         <f>COUNTA(G3:G998)</f>
@@ -18515,7 +18604,7 @@
       </c>
       <c r="J1" s="51">
         <f>SUM(E1:I1)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -18532,7 +18621,7 @@
         <v>1049</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="F2" s="53" t="s">
         <v>1035</v>
@@ -18549,7 +18638,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="B3" s="49" t="s">
         <v>1040</v>
@@ -18566,7 +18655,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="B4" s="49" t="s">
         <v>1042</v>
@@ -18575,7 +18664,7 @@
         <v>1043</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I4" s="48" t="s">
         <v>1039</v>
@@ -18583,7 +18672,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="B5" s="49" t="s">
         <v>1044</v>
@@ -18592,7 +18681,7 @@
         <v>1045</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F5" s="48" t="s">
         <v>1039</v>
@@ -18600,13 +18689,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="B6" s="49" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C6" s="49" t="s">
         <v>1055</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>1056</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>1046</v>
@@ -18617,13 +18706,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="B7" s="49" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C7" s="49" t="s">
         <v>1071</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>1072</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>1046</v>
@@ -18634,13 +18723,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B8" s="49" t="s">
         <v>1073</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="C8" s="49" t="s">
         <v>1074</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>1075</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>1046</v>
@@ -18651,13 +18740,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>1046</v>
@@ -18668,13 +18757,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>1046</v>
@@ -18685,13 +18774,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>1046</v>
@@ -18702,13 +18791,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>1046</v>
@@ -18719,13 +18808,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>1046</v>
@@ -18736,13 +18825,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>1046</v>
@@ -18753,13 +18842,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="B15" s="49" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C15" s="49" t="s">
         <v>1071</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>1072</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>1046</v>
@@ -18770,13 +18859,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>1046</v>
@@ -18787,10 +18876,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>1046</v>
@@ -18801,10 +18890,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>1046</v>
@@ -18815,13 +18904,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>1046</v>
@@ -18832,10 +18921,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>1046</v>
@@ -18846,13 +18935,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>1046</v>
@@ -18863,13 +18952,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>1046</v>
@@ -18880,13 +18969,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>1046</v>
@@ -18897,13 +18986,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>1046</v>
@@ -18914,18 +19003,35 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>1046</v>
       </c>
       <c r="H25" s="48" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F26" s="48" t="s">
         <v>1039</v>
       </c>
     </row>
@@ -18992,8 +19098,10 @@
     <hyperlink ref="C24" r:id="rId41"/>
     <hyperlink ref="C25" r:id="rId42"/>
     <hyperlink ref="B25" r:id="rId43"/>
+    <hyperlink ref="B26" r:id="rId44"/>
+    <hyperlink ref="C26" r:id="rId45"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId44"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId46"/>
 </worksheet>
 </file>
--- a/publications.xlsx
+++ b/publications.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2951" uniqueCount="1217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2971" uniqueCount="1223">
   <si>
     <t>title</t>
   </si>
@@ -3471,9 +3471,6 @@
     <t xml:space="preserve">BMC Public Health </t>
   </si>
   <si>
-    <t>Gorasso, Vanessa; Vandevijvere, Stefanie; Heyden, Johan Van der; Pelgrims, Ingrid; Hilderink, Henk; Nusselder, Wilma; Demoury, Claire; Schmidt, Masja; Vansteelandt, Stijn; Smedt, Delphine De; Devleesschauwer, Brecht</t>
-  </si>
-  <si>
     <t>Cancer Medicine</t>
   </si>
   <si>
@@ -3676,6 +3673,27 @@
   </si>
   <si>
     <t>Classification of post COVID-19 condition symptoms: a longitudinal study in the Belgian population</t>
+  </si>
+  <si>
+    <t>e072726</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10.1136/bmjopen-2023-072726 </t>
+  </si>
+  <si>
+    <t>The burden of disease attributable to high body mass index in Belgium</t>
+  </si>
+  <si>
+    <t>Gorasso, Vanessa; Vandevijvere, Stefanie; Nusselder, Wilma; De Pauw, Robby; Hilderink, Henk; Nayani, Sarah; Van der Heyden, Johan; Desmedt, Delphine; Devleesschauwer Brecht</t>
+  </si>
+  <si>
+    <t>Gorasso, Vanessa; Vandevijvere, Stefanie; Heyden, Johan Van der; Pelgrims, Ingrid; Hilderink, Henk; Nusselder, Wilma; Demoury, Claire; Schmidt, Masja; Vansteelandt, Stijn; De Smedt, Delphine; Devleesschauwer, Brecht</t>
+  </si>
+  <si>
+    <t>Fasciola spp. in Southeast Asia: A systematic review</t>
+  </si>
+  <si>
+    <t>Hoang Quang, Vinh; Levecke, Bruno; Do Trung, Dung; Devleesschauwer, Brecht; Vu Thi Lam, Binh; Goossens, Kathy; Polman, Katja; Callens, Steven; Dorny, Pierre; Dermauw, Veronique</t>
   </si>
 </sst>
 </file>
@@ -3965,7 +3983,7 @@
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="61">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4003,6 +4021,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4224,74 +4262,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U240" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
-  <autoFilter ref="A1:U240"/>
-  <sortState ref="A2:U238">
-    <sortCondition ref="K1:K238"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U241" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+  <autoFilter ref="A1:U241"/>
+  <sortState ref="A2:U240">
+    <sortCondition ref="K1:K240"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" name="title" dataDxfId="56"/>
-    <tableColumn id="2" name="authors" dataDxfId="55"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="54"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="53"/>
-    <tableColumn id="6" name="year" dataDxfId="52"/>
-    <tableColumn id="4" name="volume" dataDxfId="51"/>
-    <tableColumn id="5" name="issue" dataDxfId="50"/>
-    <tableColumn id="7" name="eID" dataDxfId="49"/>
-    <tableColumn id="8" name="from" dataDxfId="48"/>
-    <tableColumn id="9" name="to" dataDxfId="47"/>
-    <tableColumn id="10" name="date" dataDxfId="46"/>
-    <tableColumn id="19" name="date_submitted" dataDxfId="45" dataCellStyle="Neutral"/>
-    <tableColumn id="14" name="classification" dataDxfId="44"/>
-    <tableColumn id="12" name="IF" dataDxfId="43"/>
-    <tableColumn id="13" name="DOI" dataDxfId="42"/>
-    <tableColumn id="15" name="WoS" dataDxfId="41"/>
-    <tableColumn id="16" name="rank" dataDxfId="40"/>
-    <tableColumn id="17" name="quartile" dataDxfId="39"/>
-    <tableColumn id="18" name="category" dataDxfId="38"/>
-    <tableColumn id="20" name="SC" dataDxfId="37"/>
-    <tableColumn id="21" name="UGent" dataDxfId="36"/>
+    <tableColumn id="1" name="title" dataDxfId="58"/>
+    <tableColumn id="2" name="authors" dataDxfId="57"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="56"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="55"/>
+    <tableColumn id="6" name="year" dataDxfId="54"/>
+    <tableColumn id="4" name="volume" dataDxfId="53"/>
+    <tableColumn id="5" name="issue" dataDxfId="52"/>
+    <tableColumn id="7" name="eID" dataDxfId="51"/>
+    <tableColumn id="8" name="from" dataDxfId="50"/>
+    <tableColumn id="9" name="to" dataDxfId="49"/>
+    <tableColumn id="10" name="date" dataDxfId="48"/>
+    <tableColumn id="19" name="date_submitted" dataDxfId="47" dataCellStyle="Neutral"/>
+    <tableColumn id="14" name="classification" dataDxfId="46"/>
+    <tableColumn id="12" name="IF" dataDxfId="45"/>
+    <tableColumn id="13" name="DOI" dataDxfId="44"/>
+    <tableColumn id="15" name="WoS" dataDxfId="43"/>
+    <tableColumn id="16" name="rank" dataDxfId="42"/>
+    <tableColumn id="17" name="quartile" dataDxfId="41"/>
+    <tableColumn id="18" name="category" dataDxfId="40"/>
+    <tableColumn id="20" name="SC" dataDxfId="39"/>
+    <tableColumn id="21" name="UGent" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J12" totalsRowShown="0" headerRowDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J12" totalsRowShown="0" headerRowDxfId="37">
   <autoFilter ref="A1:J12"/>
   <sortState ref="A2:N50">
     <sortCondition ref="H1:H50"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="title" dataDxfId="34"/>
-    <tableColumn id="2" name="authors" dataDxfId="33"/>
-    <tableColumn id="3" name="editors" dataDxfId="32"/>
-    <tableColumn id="11" name="book" dataDxfId="31"/>
-    <tableColumn id="6" name="year" dataDxfId="30"/>
-    <tableColumn id="8" name="from" dataDxfId="29"/>
-    <tableColumn id="9" name="to" dataDxfId="28"/>
-    <tableColumn id="10" name="date" dataDxfId="27"/>
-    <tableColumn id="12" name="IF" dataDxfId="26"/>
-    <tableColumn id="13" name="DOI" dataDxfId="25"/>
+    <tableColumn id="1" name="title" dataDxfId="36"/>
+    <tableColumn id="2" name="authors" dataDxfId="35"/>
+    <tableColumn id="3" name="editors" dataDxfId="34"/>
+    <tableColumn id="11" name="book" dataDxfId="33"/>
+    <tableColumn id="6" name="year" dataDxfId="32"/>
+    <tableColumn id="8" name="from" dataDxfId="31"/>
+    <tableColumn id="9" name="to" dataDxfId="30"/>
+    <tableColumn id="10" name="date" dataDxfId="29"/>
+    <tableColumn id="12" name="IF" dataDxfId="28"/>
+    <tableColumn id="13" name="DOI" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G14" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A1:G14"/>
-  <sortState ref="A2:G19">
-    <sortCondition ref="F1:F19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G15" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="A1:G15"/>
+  <sortState ref="A2:G15">
+    <sortCondition ref="F1:F15"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="title" dataDxfId="22"/>
-    <tableColumn id="2" name="authors" dataDxfId="21"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="20"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="19"/>
-    <tableColumn id="4" name="doi_preprint" dataDxfId="18"/>
-    <tableColumn id="10" name="date" dataDxfId="17"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="16">
+    <tableColumn id="1" name="title" dataDxfId="24"/>
+    <tableColumn id="2" name="authors" dataDxfId="23"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="22"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="21"/>
+    <tableColumn id="4" name="doi_preprint" dataDxfId="20"/>
+    <tableColumn id="10" name="date" dataDxfId="19"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="18">
       <calculatedColumnFormula>TODAY()-F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4300,18 +4338,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:F5"/>
   <sortState ref="A2:K14">
     <sortCondition ref="E1:E14"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="title" dataDxfId="13"/>
-    <tableColumn id="2" name="authors" dataDxfId="12"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="11"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="10"/>
-    <tableColumn id="10" name="date" dataDxfId="9"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="8">
+    <tableColumn id="1" name="title" dataDxfId="15"/>
+    <tableColumn id="2" name="authors" dataDxfId="14"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="13"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="12"/>
+    <tableColumn id="10" name="date" dataDxfId="11"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="10">
       <calculatedColumnFormula>(TODAY()-E2)/365</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4606,10 +4644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U240"/>
+  <dimension ref="A1:U241"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A201" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A240" sqref="A240"/>
+      <selection activeCell="A241" sqref="A241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4664,7 +4702,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>272</v>
@@ -16830,7 +16868,7 @@
       </c>
       <c r="N224" s="11"/>
       <c r="O224" s="19" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="P224" s="7"/>
       <c r="Q224" s="24"/>
@@ -16883,7 +16921,7 @@
       </c>
       <c r="N225" s="11"/>
       <c r="O225" s="19" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="P225" s="7"/>
       <c r="Q225" s="24"/>
@@ -16936,7 +16974,7 @@
       </c>
       <c r="N226" s="11"/>
       <c r="O226" s="19" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="P226" s="7"/>
       <c r="Q226" s="24"/>
@@ -16951,10 +16989,10 @@
     </row>
     <row r="227" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B227" s="7" t="s">
         <v>1169</v>
-      </c>
-      <c r="B227" s="7" t="s">
-        <v>1170</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>509</v>
@@ -16972,7 +17010,7 @@
         <v>14</v>
       </c>
       <c r="H227" s="18" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="I227" s="18" t="s">
         <v>14</v>
@@ -16989,7 +17027,7 @@
       </c>
       <c r="N227" s="11"/>
       <c r="O227" s="19" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="P227" s="7"/>
       <c r="Q227" s="24"/>
@@ -17004,10 +17042,10 @@
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B228" s="7" t="s">
         <v>1202</v>
-      </c>
-      <c r="B228" s="7" t="s">
-        <v>1203</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>267</v>
@@ -17042,7 +17080,7 @@
       </c>
       <c r="N228" s="11"/>
       <c r="O228" s="19" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="P228" s="7"/>
       <c r="Q228" s="24"/>
@@ -17095,7 +17133,7 @@
       </c>
       <c r="N229" s="11"/>
       <c r="O229" s="19" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="P229" s="7"/>
       <c r="Q229" s="24"/>
@@ -17148,7 +17186,7 @@
       </c>
       <c r="N230" s="11"/>
       <c r="O230" s="19" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="P230" s="7"/>
       <c r="Q230" s="24"/>
@@ -17163,10 +17201,10 @@
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B231" s="7" t="s">
         <v>1205</v>
-      </c>
-      <c r="B231" s="7" t="s">
-        <v>1206</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>267</v>
@@ -17201,7 +17239,7 @@
       </c>
       <c r="N231" s="11"/>
       <c r="O231" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="P231" s="7"/>
       <c r="Q231" s="24"/>
@@ -17254,7 +17292,7 @@
       </c>
       <c r="N232" s="11"/>
       <c r="O232" s="19" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="P232" s="7"/>
       <c r="Q232" s="24"/>
@@ -17307,14 +17345,18 @@
       </c>
       <c r="N233" s="11"/>
       <c r="O233" s="19" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="P233" s="7"/>
       <c r="Q233" s="24"/>
       <c r="R233" s="25"/>
       <c r="S233" s="7"/>
-      <c r="T233" s="7"/>
-      <c r="U233" s="7"/>
+      <c r="T233" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="U233" s="7" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="234" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
@@ -17339,7 +17381,7 @@
         <v>99</v>
       </c>
       <c r="H234" s="18" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="I234" s="18" t="s">
         <v>14</v>
@@ -17356,39 +17398,43 @@
       </c>
       <c r="N234" s="11"/>
       <c r="O234" s="19" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="P234" s="7"/>
       <c r="Q234" s="24"/>
       <c r="R234" s="25"/>
       <c r="S234" s="7"/>
-      <c r="T234" s="7"/>
-      <c r="U234" s="7"/>
+      <c r="T234" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="U234" s="7" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
-        <v>1018</v>
+        <v>1215</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>1017</v>
+        <v>1053</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>419</v>
+        <v>723</v>
       </c>
       <c r="D235" s="7" t="s">
-        <v>419</v>
+        <v>723</v>
       </c>
       <c r="E235" s="18">
         <v>2023</v>
       </c>
       <c r="F235" s="18">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G235" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H235" s="18">
-        <v>100595</v>
+        <v>99</v>
+      </c>
+      <c r="H235" s="18" t="s">
+        <v>1216</v>
       </c>
       <c r="I235" s="18" t="s">
         <v>14</v>
@@ -17397,7 +17443,7 @@
         <v>14</v>
       </c>
       <c r="K235" s="42">
-        <v>45261</v>
+        <v>45205</v>
       </c>
       <c r="L235" s="42"/>
       <c r="M235" s="42" t="s">
@@ -17405,7 +17451,7 @@
       </c>
       <c r="N235" s="11"/>
       <c r="O235" s="19" t="s">
-        <v>1168</v>
+        <v>1217</v>
       </c>
       <c r="P235" s="7"/>
       <c r="Q235" s="24"/>
@@ -17419,66 +17465,70 @@
       </c>
     </row>
     <row r="236" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A236" s="13" t="s">
-        <v>984</v>
-      </c>
-      <c r="B236" s="13" t="s">
-        <v>985</v>
-      </c>
-      <c r="C236" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="D236" s="13" t="s">
-        <v>987</v>
-      </c>
-      <c r="E236" s="14">
+      <c r="A236" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="D236" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="E236" s="18">
         <v>2023</v>
       </c>
-      <c r="F236" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G236" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H236" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I236" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J236" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K236" s="31">
-        <v>45292</v>
-      </c>
-      <c r="L236" s="31"/>
-      <c r="M236" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="N236" s="45"/>
-      <c r="O236" s="44" t="s">
-        <v>991</v>
-      </c>
-      <c r="P236" s="27"/>
+      <c r="F236" s="18">
+        <v>17</v>
+      </c>
+      <c r="G236" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H236" s="18">
+        <v>100595</v>
+      </c>
+      <c r="I236" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J236" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K236" s="42">
+        <v>45261</v>
+      </c>
+      <c r="L236" s="42"/>
+      <c r="M236" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="N236" s="11"/>
+      <c r="O236" s="19" t="s">
+        <v>1167</v>
+      </c>
+      <c r="P236" s="7"/>
       <c r="Q236" s="24"/>
       <c r="R236" s="25"/>
       <c r="S236" s="7"/>
-      <c r="T236" s="7"/>
-      <c r="U236" s="7"/>
+      <c r="T236" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="U236" s="7" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237" s="13" t="s">
-        <v>1110</v>
+        <v>984</v>
       </c>
       <c r="B237" s="13" t="s">
-        <v>1111</v>
+        <v>985</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>1119</v>
+        <v>986</v>
       </c>
       <c r="D237" s="13" t="s">
-        <v>1118</v>
+        <v>987</v>
       </c>
       <c r="E237" s="14">
         <v>2023</v>
@@ -17499,7 +17549,7 @@
         <v>14</v>
       </c>
       <c r="K237" s="31">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="L237" s="31"/>
       <c r="M237" s="31" t="s">
@@ -17507,7 +17557,7 @@
       </c>
       <c r="N237" s="45"/>
       <c r="O237" s="44" t="s">
-        <v>1214</v>
+        <v>991</v>
       </c>
       <c r="P237" s="27"/>
       <c r="Q237" s="24"/>
@@ -17518,16 +17568,16 @@
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A238" s="13" t="s">
-        <v>1010</v>
+        <v>1110</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>1011</v>
+        <v>1111</v>
       </c>
       <c r="C238" s="13" t="s">
-        <v>144</v>
+        <v>1119</v>
       </c>
       <c r="D238" s="13" t="s">
-        <v>144</v>
+        <v>1118</v>
       </c>
       <c r="E238" s="14">
         <v>2023</v>
@@ -17548,14 +17598,16 @@
         <v>14</v>
       </c>
       <c r="K238" s="31">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="L238" s="31"/>
       <c r="M238" s="31" t="s">
         <v>273</v>
       </c>
       <c r="N238" s="45"/>
-      <c r="O238" s="44"/>
+      <c r="O238" s="44" t="s">
+        <v>1213</v>
+      </c>
       <c r="P238" s="27"/>
       <c r="Q238" s="24"/>
       <c r="R238" s="25"/>
@@ -17565,16 +17617,16 @@
     </row>
     <row r="239" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A239" s="13" t="s">
-        <v>1216</v>
+        <v>1010</v>
       </c>
       <c r="B239" s="13" t="s">
-        <v>1053</v>
+        <v>1011</v>
       </c>
       <c r="C239" s="13" t="s">
-        <v>723</v>
+        <v>144</v>
       </c>
       <c r="D239" s="13" t="s">
-        <v>723</v>
+        <v>144</v>
       </c>
       <c r="E239" s="14">
         <v>2023</v>
@@ -17595,7 +17647,7 @@
         <v>14</v>
       </c>
       <c r="K239" s="31">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="L239" s="31"/>
       <c r="M239" s="31" t="s">
@@ -17615,13 +17667,13 @@
         <v>1096</v>
       </c>
       <c r="B240" s="13" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C240" s="13" t="s">
         <v>1148</v>
       </c>
-      <c r="C240" s="13" t="s">
+      <c r="D240" s="13" t="s">
         <v>1149</v>
-      </c>
-      <c r="D240" s="13" t="s">
-        <v>1150</v>
       </c>
       <c r="E240" s="14">
         <v>2023</v>
@@ -17657,8 +17709,63 @@
       <c r="T240" s="7"/>
       <c r="U240" s="7"/>
     </row>
+    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A241" s="13" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B241" s="13" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C241" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D241" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E241" s="14">
+        <v>2023</v>
+      </c>
+      <c r="F241" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G241" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H241" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I241" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J241" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K241" s="31">
+        <v>45297</v>
+      </c>
+      <c r="L241" s="31"/>
+      <c r="M241" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="N241" s="45"/>
+      <c r="O241" s="44"/>
+      <c r="P241" s="27"/>
+      <c r="Q241" s="24"/>
+      <c r="R241" s="25"/>
+      <c r="S241" s="7"/>
+      <c r="T241" s="7"/>
+      <c r="U241" s="7"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="T1:U112 T114:U231 T232:V1048576">
+  <conditionalFormatting sqref="T1:U112 T114:U231 T232:V240 T242:V1048576 V241">
+    <cfRule type="cellIs" dxfId="9" priority="29" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="30" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T113:U113">
     <cfRule type="cellIs" dxfId="7" priority="27" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
@@ -17666,11 +17773,11 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T113:U113">
-    <cfRule type="cellIs" dxfId="5" priority="25" operator="equal">
+  <conditionalFormatting sqref="T241:U241">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18074,9 +18181,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18111,10 +18220,10 @@
       </c>
       <c r="I1" s="55">
         <f ca="1">AVERAGE(G:G)</f>
-        <v>209.46153846153845</v>
+        <v>218.57142857142858</v>
       </c>
       <c r="J1" s="54" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -18137,8 +18246,8 @@
         <v>44769</v>
       </c>
       <c r="G2" s="12">
-        <f t="shared" ref="G2:G14" ca="1" si="0">TODAY()-F2</f>
-        <v>436</v>
+        <f ca="1">TODAY()-F2</f>
+        <v>459</v>
       </c>
       <c r="I2" s="55" t="str">
         <f ca="1">ROUND(I1/30,0)&amp;" md"</f>
@@ -18164,8 +18273,8 @@
         <v>44832</v>
       </c>
       <c r="G3" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>373</v>
+        <f ca="1">TODAY()-F3</f>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -18186,8 +18295,8 @@
         <v>44914</v>
       </c>
       <c r="G4" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>291</v>
+        <f ca="1">TODAY()-F4</f>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -18208,8 +18317,8 @@
         <v>44958</v>
       </c>
       <c r="G5" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>247</v>
+        <f ca="1">TODAY()-F5</f>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -18230,8 +18339,8 @@
         <v>44959</v>
       </c>
       <c r="G6" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>246</v>
+        <f ca="1">TODAY()-F6</f>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -18252,8 +18361,8 @@
         <v>45013</v>
       </c>
       <c r="G7" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>192</v>
+        <f ca="1">TODAY()-F7</f>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -18274,8 +18383,8 @@
         <v>45021</v>
       </c>
       <c r="G8" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>184</v>
+        <f ca="1">TODAY()-F8</f>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -18296,8 +18405,8 @@
         <v>45021</v>
       </c>
       <c r="G9" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>184</v>
+        <f ca="1">TODAY()-F9</f>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -18318,8 +18427,8 @@
         <v>45037</v>
       </c>
       <c r="G10" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>168</v>
+        <f ca="1">TODAY()-F10</f>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -18340,16 +18449,16 @@
         <v>45043</v>
       </c>
       <c r="G11" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>162</v>
+        <f ca="1">TODAY()-F11</f>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>1171</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>1172</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>575</v>
@@ -18362,52 +18471,74 @@
         <v>45114</v>
       </c>
       <c r="G12" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <f ca="1">TODAY()-F12</f>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>1191</v>
+        <v>1221</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1192</v>
+        <v>1222</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>668</v>
+        <v>160</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>669</v>
+        <v>161</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="10">
-        <v>45127</v>
+        <v>45116</v>
       </c>
       <c r="G13" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <f ca="1">TODAY()-F13</f>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>1180</v>
+        <v>1190</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1181</v>
+        <v>1191</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>55</v>
+        <v>668</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>56</v>
+        <v>669</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="10">
-        <v>45134</v>
+        <v>45127</v>
       </c>
       <c r="G14" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <f ca="1">TODAY()-F14</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="10">
+        <v>45208</v>
+      </c>
+      <c r="G15" s="12">
+        <f ca="1">TODAY()-F15</f>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -18472,7 +18603,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>7.9369863013698634</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -18493,7 +18624,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9369863013698634</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -18514,7 +18645,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3150684931506849</v>
+        <v>7.3780821917808215</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -18535,7 +18666,7 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>5.6849315068493151</v>
+        <v>5.7479452054794518</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -18543,7 +18674,7 @@
         <v>1146</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>1147</v>
@@ -18621,7 +18752,7 @@
         <v>1049</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2" s="53" t="s">
         <v>1035</v>
@@ -18825,13 +18956,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B14" s="49" t="s">
         <v>1154</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="C14" s="49" t="s">
         <v>1155</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>1156</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>1046</v>
@@ -18842,7 +18973,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B15" s="49" t="s">
         <v>1070</v>
@@ -18859,13 +18990,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B16" s="49" t="s">
         <v>1158</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="C16" s="49" t="s">
         <v>1159</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>1160</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>1046</v>
@@ -18876,10 +19007,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B17" s="49" t="s">
         <v>1161</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>1162</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>1046</v>
@@ -18890,10 +19021,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B18" s="49" t="s">
         <v>1163</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>1164</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>1046</v>
@@ -18904,13 +19035,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B19" s="49" t="s">
         <v>1165</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="C19" s="49" t="s">
         <v>1166</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>1167</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>1046</v>
@@ -18921,10 +19052,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>1046</v>
@@ -18935,13 +19066,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B21" s="49" t="s">
         <v>1177</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="C21" s="49" t="s">
         <v>1178</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>1179</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>1046</v>
@@ -18952,13 +19083,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C22" s="49" t="s">
         <v>1184</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>1185</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>1046</v>
@@ -18969,13 +19100,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B23" s="49" t="s">
         <v>1188</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="C23" s="49" t="s">
         <v>1189</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>1190</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>1046</v>
@@ -18986,13 +19117,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B24" s="49" t="s">
         <v>1194</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="C24" s="49" t="s">
         <v>1195</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>1196</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>1046</v>
@@ -19003,13 +19134,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C25" s="49" t="s">
         <v>1199</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>1200</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>1046</v>
@@ -19020,13 +19151,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B26" s="49" t="s">
         <v>1210</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="C26" s="49" t="s">
         <v>1211</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>1212</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>1046</v>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2971" uniqueCount="1223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2977" uniqueCount="1224">
   <si>
     <t>title</t>
   </si>
@@ -3111,12 +3111,6 @@
     <t>Burden of disease attributable to risk factors in European countries: a systematic literature review</t>
   </si>
   <si>
-    <t>BMJ Global Health</t>
-  </si>
-  <si>
-    <t>BMJ Glob. Health</t>
-  </si>
-  <si>
     <t>A proposal for further developing fatigue-related post COVID-19 health states for burden of disease studies</t>
   </si>
   <si>
@@ -3694,6 +3688,15 @@
   </si>
   <si>
     <t>Hoang Quang, Vinh; Levecke, Bruno; Do Trung, Dung; Devleesschauwer, Brecht; Vu Thi Lam, Binh; Goossens, Kathy; Polman, Katja; Callens, Steven; Dorny, Pierre; Dermauw, Veronique</t>
+  </si>
+  <si>
+    <t>e0288777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0288777 </t>
+  </si>
+  <si>
+    <t>10.1186/s13690-023-01212-1</t>
   </si>
 </sst>
 </file>
@@ -4262,10 +4265,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U241" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
-  <autoFilter ref="A1:U241"/>
-  <sortState ref="A2:U240">
-    <sortCondition ref="K1:K240"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U242" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+  <autoFilter ref="A1:U242"/>
+  <sortState ref="A2:U242">
+    <sortCondition ref="K1:K242"/>
   </sortState>
   <tableColumns count="21">
     <tableColumn id="1" name="title" dataDxfId="58"/>
@@ -4317,8 +4320,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G15" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="A1:G15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G14" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="A1:G14"/>
   <sortState ref="A2:G15">
     <sortCondition ref="F1:F15"/>
   </sortState>
@@ -4644,10 +4647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U241"/>
+  <dimension ref="A1:U242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A241" sqref="A241"/>
+    <sheetView tabSelected="1" topLeftCell="A207" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A242" sqref="A242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4702,7 +4705,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>272</v>
@@ -16056,7 +16059,7 @@
         <v>65</v>
       </c>
       <c r="H209" s="18" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="I209" s="18" t="s">
         <v>14</v>
@@ -16073,7 +16076,7 @@
       </c>
       <c r="N209" s="11"/>
       <c r="O209" s="19" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="P209" s="7"/>
       <c r="Q209" s="24"/>
@@ -16126,7 +16129,7 @@
       </c>
       <c r="N210" s="11"/>
       <c r="O210" s="19" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="P210" s="7"/>
       <c r="Q210" s="24"/>
@@ -16197,7 +16200,7 @@
         <v>1004</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>509</v>
@@ -16215,7 +16218,7 @@
         <v>14</v>
       </c>
       <c r="H212" s="18" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="I212" s="18" t="s">
         <v>14</v>
@@ -16232,7 +16235,7 @@
       </c>
       <c r="N212" s="11"/>
       <c r="O212" s="19" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="P212" s="7"/>
       <c r="Q212" s="24"/>
@@ -16268,7 +16271,7 @@
         <v>101</v>
       </c>
       <c r="H213" s="18" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="I213" s="18" t="s">
         <v>14</v>
@@ -16285,7 +16288,7 @@
       </c>
       <c r="N213" s="11"/>
       <c r="O213" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="P213" s="7"/>
       <c r="Q213" s="24"/>
@@ -16300,16 +16303,16 @@
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B214" s="7" t="s">
         <v>925</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E214" s="18">
         <v>2023</v>
@@ -16338,7 +16341,7 @@
       </c>
       <c r="N214" s="11"/>
       <c r="O214" s="19" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="P214" s="7"/>
       <c r="Q214" s="24"/>
@@ -16353,7 +16356,7 @@
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B215" s="7" t="s">
         <v>970</v>
@@ -16444,7 +16447,7 @@
       </c>
       <c r="N216" s="11"/>
       <c r="O216" s="19" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="P216" s="7"/>
       <c r="Q216" s="24"/>
@@ -16512,7 +16515,7 @@
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B218" s="7" t="s">
         <v>981</v>
@@ -16550,7 +16553,7 @@
       </c>
       <c r="N218" s="11"/>
       <c r="O218" s="19" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="P218" s="7"/>
       <c r="Q218" s="24"/>
@@ -16565,7 +16568,7 @@
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B219" s="7" t="s">
         <v>766</v>
@@ -16603,7 +16606,7 @@
       </c>
       <c r="N219" s="11"/>
       <c r="O219" s="19" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="P219" s="7"/>
       <c r="Q219" s="24"/>
@@ -16656,7 +16659,7 @@
       </c>
       <c r="N220" s="11"/>
       <c r="O220" s="19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="P220" s="7"/>
       <c r="Q220" s="24"/>
@@ -16692,7 +16695,7 @@
         <v>92</v>
       </c>
       <c r="H221" s="18" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="I221" s="18" t="s">
         <v>14</v>
@@ -16709,7 +16712,7 @@
       </c>
       <c r="N221" s="11"/>
       <c r="O221" s="19" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="P221" s="7"/>
       <c r="Q221" s="24"/>
@@ -16724,7 +16727,7 @@
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B222" s="7" t="s">
         <v>1013</v>
@@ -16762,7 +16765,7 @@
       </c>
       <c r="N222" s="11"/>
       <c r="O222" s="19" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="P222" s="7"/>
       <c r="Q222" s="24"/>
@@ -16780,7 +16783,7 @@
         <v>1014</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>1015</v>
@@ -16815,7 +16818,7 @@
       </c>
       <c r="N223" s="11"/>
       <c r="O223" s="19" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="P223" s="7"/>
       <c r="Q223" s="24"/>
@@ -16833,7 +16836,7 @@
         <v>1027</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>267</v>
@@ -16868,7 +16871,7 @@
       </c>
       <c r="N224" s="11"/>
       <c r="O224" s="19" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="P224" s="7"/>
       <c r="Q224" s="24"/>
@@ -16921,7 +16924,7 @@
       </c>
       <c r="N225" s="11"/>
       <c r="O225" s="19" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="P225" s="7"/>
       <c r="Q225" s="24"/>
@@ -16936,16 +16939,16 @@
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D226" s="7" t="s">
         <v>1120</v>
-      </c>
-      <c r="B226" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C226" s="7" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D226" s="7" t="s">
-        <v>1122</v>
       </c>
       <c r="E226" s="18">
         <v>2023</v>
@@ -16974,7 +16977,7 @@
       </c>
       <c r="N226" s="11"/>
       <c r="O226" s="19" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="P226" s="7"/>
       <c r="Q226" s="24"/>
@@ -16989,10 +16992,10 @@
     </row>
     <row r="227" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>509</v>
@@ -17010,7 +17013,7 @@
         <v>14</v>
       </c>
       <c r="H227" s="18" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="I227" s="18" t="s">
         <v>14</v>
@@ -17027,7 +17030,7 @@
       </c>
       <c r="N227" s="11"/>
       <c r="O227" s="19" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="P227" s="7"/>
       <c r="Q227" s="24"/>
@@ -17042,10 +17045,10 @@
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>267</v>
@@ -17080,7 +17083,7 @@
       </c>
       <c r="N228" s="11"/>
       <c r="O228" s="19" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="P228" s="7"/>
       <c r="Q228" s="24"/>
@@ -17095,10 +17098,10 @@
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>267</v>
@@ -17133,7 +17136,7 @@
       </c>
       <c r="N229" s="11"/>
       <c r="O229" s="19" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="P229" s="7"/>
       <c r="Q229" s="24"/>
@@ -17148,10 +17151,10 @@
     </row>
     <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>89</v>
@@ -17186,7 +17189,7 @@
       </c>
       <c r="N230" s="11"/>
       <c r="O230" s="19" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="P230" s="7"/>
       <c r="Q230" s="24"/>
@@ -17201,10 +17204,10 @@
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>267</v>
@@ -17239,7 +17242,7 @@
       </c>
       <c r="N231" s="11"/>
       <c r="O231" s="19" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="P231" s="7"/>
       <c r="Q231" s="24"/>
@@ -17254,16 +17257,16 @@
     </row>
     <row r="232" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C232" s="7" t="s">
         <v>1075</v>
       </c>
-      <c r="B232" s="7" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C232" s="7" t="s">
-        <v>1077</v>
-      </c>
       <c r="D232" s="7" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="E232" s="18">
         <v>2023</v>
@@ -17292,7 +17295,7 @@
       </c>
       <c r="N232" s="11"/>
       <c r="O232" s="19" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="P232" s="7"/>
       <c r="Q232" s="24"/>
@@ -17345,7 +17348,7 @@
       </c>
       <c r="N233" s="11"/>
       <c r="O233" s="19" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="P233" s="7"/>
       <c r="Q233" s="24"/>
@@ -17360,10 +17363,10 @@
     </row>
     <row r="234" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>144</v>
@@ -17381,7 +17384,7 @@
         <v>99</v>
       </c>
       <c r="H234" s="18" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="I234" s="18" t="s">
         <v>14</v>
@@ -17398,7 +17401,7 @@
       </c>
       <c r="N234" s="11"/>
       <c r="O234" s="19" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="P234" s="7"/>
       <c r="Q234" s="24"/>
@@ -17413,10 +17416,10 @@
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>723</v>
@@ -17434,7 +17437,7 @@
         <v>99</v>
       </c>
       <c r="H235" s="18" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="I235" s="18" t="s">
         <v>14</v>
@@ -17451,7 +17454,7 @@
       </c>
       <c r="N235" s="11"/>
       <c r="O235" s="19" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="P235" s="7"/>
       <c r="Q235" s="24"/>
@@ -17466,28 +17469,28 @@
     </row>
     <row r="236" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>419</v>
+        <v>144</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>419</v>
+        <v>144</v>
       </c>
       <c r="E236" s="18">
         <v>2023</v>
       </c>
       <c r="F236" s="18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G236" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H236" s="18">
-        <v>100595</v>
+        <v>99</v>
+      </c>
+      <c r="H236" s="18" t="s">
+        <v>1221</v>
       </c>
       <c r="I236" s="18" t="s">
         <v>14</v>
@@ -17496,7 +17499,7 @@
         <v>14</v>
       </c>
       <c r="K236" s="42">
-        <v>45261</v>
+        <v>45229</v>
       </c>
       <c r="L236" s="42"/>
       <c r="M236" s="42" t="s">
@@ -17504,62 +17507,60 @@
       </c>
       <c r="N236" s="11"/>
       <c r="O236" s="19" t="s">
-        <v>1167</v>
+        <v>1222</v>
       </c>
       <c r="P236" s="7"/>
       <c r="Q236" s="24"/>
       <c r="R236" s="25"/>
       <c r="S236" s="7"/>
-      <c r="T236" s="7" t="s">
-        <v>603</v>
-      </c>
+      <c r="T236" s="7"/>
       <c r="U236" s="7" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="237" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A237" s="13" t="s">
-        <v>984</v>
-      </c>
-      <c r="B237" s="13" t="s">
-        <v>985</v>
-      </c>
-      <c r="C237" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="D237" s="13" t="s">
-        <v>987</v>
-      </c>
-      <c r="E237" s="14">
+      <c r="A237" s="7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D237" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E237" s="18">
         <v>2023</v>
       </c>
-      <c r="F237" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G237" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H237" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I237" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J237" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K237" s="31">
-        <v>45292</v>
-      </c>
-      <c r="L237" s="31"/>
-      <c r="M237" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="N237" s="45"/>
-      <c r="O237" s="44" t="s">
-        <v>991</v>
-      </c>
-      <c r="P237" s="27"/>
+      <c r="F237" s="18">
+        <v>81</v>
+      </c>
+      <c r="G237" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H237" s="18">
+        <v>193</v>
+      </c>
+      <c r="I237" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J237" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K237" s="42">
+        <v>45232</v>
+      </c>
+      <c r="L237" s="42"/>
+      <c r="M237" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="N237" s="11"/>
+      <c r="O237" s="19" t="s">
+        <v>1223</v>
+      </c>
+      <c r="P237" s="7"/>
       <c r="Q237" s="24"/>
       <c r="R237" s="25"/>
       <c r="S237" s="7"/>
@@ -17567,66 +17568,70 @@
       <c r="U237" s="7"/>
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A238" s="13" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B238" s="13" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C238" s="13" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D238" s="13" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E238" s="14">
+      <c r="A238" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="D238" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="E238" s="18">
         <v>2023</v>
       </c>
-      <c r="F238" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G238" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H238" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I238" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J238" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K238" s="31">
-        <v>45293</v>
-      </c>
-      <c r="L238" s="31"/>
-      <c r="M238" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="N238" s="45"/>
-      <c r="O238" s="44" t="s">
-        <v>1213</v>
-      </c>
-      <c r="P238" s="27"/>
+      <c r="F238" s="18">
+        <v>17</v>
+      </c>
+      <c r="G238" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H238" s="18">
+        <v>100595</v>
+      </c>
+      <c r="I238" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J238" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K238" s="42">
+        <v>45261</v>
+      </c>
+      <c r="L238" s="42"/>
+      <c r="M238" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="N238" s="11"/>
+      <c r="O238" s="19" t="s">
+        <v>1165</v>
+      </c>
+      <c r="P238" s="7"/>
       <c r="Q238" s="24"/>
       <c r="R238" s="25"/>
       <c r="S238" s="7"/>
-      <c r="T238" s="7"/>
-      <c r="U238" s="7"/>
+      <c r="T238" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="U238" s="7" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="239" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A239" s="13" t="s">
-        <v>1010</v>
+        <v>984</v>
       </c>
       <c r="B239" s="13" t="s">
-        <v>1011</v>
+        <v>985</v>
       </c>
       <c r="C239" s="13" t="s">
-        <v>144</v>
+        <v>986</v>
       </c>
       <c r="D239" s="13" t="s">
-        <v>144</v>
+        <v>987</v>
       </c>
       <c r="E239" s="14">
         <v>2023</v>
@@ -17647,14 +17652,16 @@
         <v>14</v>
       </c>
       <c r="K239" s="31">
-        <v>45294</v>
+        <v>45292</v>
       </c>
       <c r="L239" s="31"/>
       <c r="M239" s="31" t="s">
         <v>273</v>
       </c>
       <c r="N239" s="45"/>
-      <c r="O239" s="44"/>
+      <c r="O239" s="44" t="s">
+        <v>991</v>
+      </c>
       <c r="P239" s="27"/>
       <c r="Q239" s="24"/>
       <c r="R239" s="25"/>
@@ -17664,16 +17671,16 @@
     </row>
     <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A240" s="13" t="s">
-        <v>1096</v>
+        <v>1108</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>1220</v>
+        <v>1109</v>
       </c>
       <c r="C240" s="13" t="s">
-        <v>1148</v>
+        <v>1117</v>
       </c>
       <c r="D240" s="13" t="s">
-        <v>1149</v>
+        <v>1116</v>
       </c>
       <c r="E240" s="14">
         <v>2023</v>
@@ -17694,14 +17701,16 @@
         <v>14</v>
       </c>
       <c r="K240" s="31">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="L240" s="31"/>
       <c r="M240" s="31" t="s">
         <v>273</v>
       </c>
       <c r="N240" s="45"/>
-      <c r="O240" s="44"/>
+      <c r="O240" s="44" t="s">
+        <v>1211</v>
+      </c>
       <c r="P240" s="27"/>
       <c r="Q240" s="24"/>
       <c r="R240" s="25"/>
@@ -17711,16 +17720,16 @@
     </row>
     <row r="241" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A241" s="13" t="s">
-        <v>1179</v>
+        <v>1094</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>1180</v>
+        <v>1218</v>
       </c>
       <c r="C241" s="13" t="s">
-        <v>160</v>
+        <v>1146</v>
       </c>
       <c r="D241" s="13" t="s">
-        <v>161</v>
+        <v>1147</v>
       </c>
       <c r="E241" s="14">
         <v>2023</v>
@@ -17741,7 +17750,7 @@
         <v>14</v>
       </c>
       <c r="K241" s="31">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="L241" s="31"/>
       <c r="M241" s="31" t="s">
@@ -17755,6 +17764,53 @@
       <c r="S241" s="7"/>
       <c r="T241" s="7"/>
       <c r="U241" s="7"/>
+    </row>
+    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A242" s="13" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B242" s="13" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C242" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D242" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E242" s="14">
+        <v>2023</v>
+      </c>
+      <c r="F242" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G242" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H242" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I242" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J242" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K242" s="31">
+        <v>45297</v>
+      </c>
+      <c r="L242" s="31"/>
+      <c r="M242" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="N242" s="45"/>
+      <c r="O242" s="44"/>
+      <c r="P242" s="27"/>
+      <c r="Q242" s="24"/>
+      <c r="R242" s="25"/>
+      <c r="S242" s="7"/>
+      <c r="T242" s="7"/>
+      <c r="U242" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="T1:U112 T114:U231 T232:V240 T242:V1048576 V241">
@@ -18143,10 +18199,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>949</v>
@@ -18168,7 +18224,7 @@
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="19" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
   </sheetData>
@@ -18181,11 +18237,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18220,10 +18274,10 @@
       </c>
       <c r="I1" s="55">
         <f ca="1">AVERAGE(G:G)</f>
-        <v>218.57142857142858</v>
+        <v>215.23076923076923</v>
       </c>
       <c r="J1" s="54" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -18240,14 +18294,14 @@
         <v>262</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F2" s="10">
         <v>44769</v>
       </c>
       <c r="G2" s="12">
-        <f ca="1">TODAY()-F2</f>
-        <v>459</v>
+        <f t="shared" ref="G2:G14" ca="1" si="0">TODAY()-F2</f>
+        <v>463</v>
       </c>
       <c r="I2" s="55" t="str">
         <f ca="1">ROUND(I1/30,0)&amp;" md"</f>
@@ -18273,272 +18327,250 @@
         <v>44832</v>
       </c>
       <c r="G3" s="12">
-        <f ca="1">TODAY()-F3</f>
-        <v>396</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>1030</v>
+        <v>1061</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1031</v>
+        <v>1062</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>1028</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>1029</v>
+        <v>28</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="10">
-        <v>44914</v>
+        <v>44958</v>
       </c>
       <c r="G4" s="12">
-        <f ca="1">TODAY()-F4</f>
-        <v>314</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="10">
-        <v>44958</v>
+        <v>44959</v>
       </c>
       <c r="G5" s="12">
-        <f ca="1">TODAY()-F5</f>
-        <v>270</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>1066</v>
+        <v>1081</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1067</v>
+        <v>1084</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>120</v>
+        <v>1082</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>121</v>
+        <v>1083</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="10">
-        <v>44959</v>
+        <v>45013</v>
       </c>
       <c r="G6" s="12">
-        <f ca="1">TODAY()-F6</f>
-        <v>269</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>1083</v>
+        <v>1087</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>1084</v>
+        <v>1089</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>1085</v>
+        <v>344</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="10">
-        <v>45013</v>
+        <v>45021</v>
       </c>
       <c r="G7" s="12">
-        <f ca="1">TODAY()-F7</f>
-        <v>215</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>1091</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>344</v>
+        <v>1092</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="10">
         <v>45021</v>
       </c>
       <c r="G8" s="12">
-        <f ca="1">TODAY()-F8</f>
-        <v>207</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>1092</v>
+        <v>1099</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1095</v>
+        <v>1100</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1093</v>
+        <v>1101</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1094</v>
+        <v>1102</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="10">
-        <v>45021</v>
+        <v>45037</v>
       </c>
       <c r="G9" s="12">
-        <f ca="1">TODAY()-F9</f>
-        <v>207</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1103</v>
+        <v>1091</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1104</v>
+        <v>1092</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="10">
-        <v>45037</v>
+        <v>45043</v>
       </c>
       <c r="G10" s="12">
-        <f ca="1">TODAY()-F10</f>
-        <v>191</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>1105</v>
+        <v>1168</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1106</v>
+        <v>1169</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1093</v>
+        <v>575</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1094</v>
+        <v>576</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="10">
-        <v>45043</v>
+        <v>45114</v>
       </c>
       <c r="G11" s="12">
-        <f ca="1">TODAY()-F11</f>
-        <v>185</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>1170</v>
+        <v>1219</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1171</v>
+        <v>1220</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>575</v>
+        <v>160</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>576</v>
+        <v>161</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="10">
-        <v>45114</v>
+        <v>45116</v>
       </c>
       <c r="G12" s="12">
-        <f ca="1">TODAY()-F12</f>
-        <v>114</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>1221</v>
+        <v>1188</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1222</v>
+        <v>1189</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>160</v>
+        <v>668</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>161</v>
+        <v>669</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="10">
-        <v>45116</v>
+        <v>45127</v>
       </c>
       <c r="G13" s="12">
-        <f ca="1">TODAY()-F13</f>
-        <v>112</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>1190</v>
+        <v>1216</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1191</v>
+        <v>1217</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>668</v>
+        <v>259</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>669</v>
+        <v>262</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="10">
-        <v>45127</v>
+        <v>45208</v>
       </c>
       <c r="G14" s="12">
-        <f ca="1">TODAY()-F14</f>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="10">
-        <v>45208</v>
-      </c>
-      <c r="G15" s="12">
-        <f ca="1">TODAY()-F15</f>
-        <v>20</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -18603,7 +18635,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>8</v>
+        <v>8.0109589041095894</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -18624,7 +18656,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>8.0109589041095894</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -18645,7 +18677,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3780821917808215</v>
+        <v>7.3890410958904109</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -18666,21 +18698,21 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>5.7479452054794518</v>
+        <v>5.7589041095890412</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="10">
@@ -18740,430 +18772,430 @@
     </row>
     <row r="2" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B2" s="52" t="s">
         <v>175</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="F2" s="53" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H2" s="53" t="s">
         <v>1035</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="I2" s="53" t="s">
         <v>1036</v>
-      </c>
-      <c r="H2" s="53" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I2" s="53" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="F3" s="48" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="I4" s="48" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F5" s="48" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="H6" s="48" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C8" s="49" t="s">
         <v>1072</v>
       </c>
-      <c r="B8" s="49" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>1074</v>
-      </c>
       <c r="D8" s="15" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="G8" s="48" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C9" s="49" t="s">
         <v>1112</v>
       </c>
-      <c r="B9" s="49" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>1114</v>
-      </c>
       <c r="D9" s="15" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="F9" s="48" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C10" s="49" t="s">
         <v>1115</v>
       </c>
-      <c r="B10" s="49" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>1117</v>
-      </c>
       <c r="D10" s="15" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="G10" s="48" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C11" s="49" t="s">
         <v>1126</v>
       </c>
-      <c r="B11" s="49" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>1128</v>
-      </c>
       <c r="D11" s="15" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="H12" s="48" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C13" s="49" t="s">
         <v>1140</v>
       </c>
-      <c r="B13" s="49" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>1142</v>
-      </c>
       <c r="D13" s="15" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C14" s="49" t="s">
         <v>1153</v>
       </c>
-      <c r="B14" s="49" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>1155</v>
-      </c>
       <c r="D14" s="15" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="H14" s="48" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="H15" s="48" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C16" s="49" t="s">
         <v>1157</v>
       </c>
-      <c r="B16" s="49" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>1159</v>
-      </c>
       <c r="D16" s="15" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="H16" s="48" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="F17" s="48" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="F18" s="48" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C19" s="49" t="s">
         <v>1164</v>
       </c>
-      <c r="B19" s="49" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>1166</v>
-      </c>
       <c r="D19" s="15" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="H19" s="48" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B20" s="49" t="s">
         <v>1172</v>
       </c>
-      <c r="B20" s="49" t="s">
-        <v>1174</v>
-      </c>
       <c r="D20" s="15" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C21" s="49" t="s">
         <v>1176</v>
       </c>
-      <c r="B21" s="49" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>1178</v>
-      </c>
       <c r="D21" s="15" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="H21" s="48" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B22" s="49" t="s">
         <v>1183</v>
       </c>
-      <c r="B22" s="49" t="s">
-        <v>1185</v>
-      </c>
       <c r="C22" s="49" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="H22" s="48" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C23" s="49" t="s">
         <v>1187</v>
       </c>
-      <c r="B23" s="49" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>1189</v>
-      </c>
       <c r="D23" s="15" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="H23" s="48" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C24" s="49" t="s">
         <v>1193</v>
       </c>
-      <c r="B24" s="49" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>1195</v>
-      </c>
       <c r="D24" s="15" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="H24" s="48" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B25" s="49" t="s">
         <v>1198</v>
       </c>
-      <c r="B25" s="49" t="s">
-        <v>1200</v>
-      </c>
       <c r="C25" s="49" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="H25" s="48" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C26" s="49" t="s">
         <v>1209</v>
       </c>
-      <c r="B26" s="49" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>1211</v>
-      </c>
       <c r="D26" s="15" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="F26" s="48" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
   </sheetData>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2977" uniqueCount="1224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2997" uniqueCount="1233">
   <si>
     <t>title</t>
   </si>
@@ -3291,9 +3291,6 @@
     <t>Association between SARS-CoV-2 variants and post COVID-19 condition: findings from a longitudinal cohort study in the Belgian adult population</t>
   </si>
   <si>
-    <t>Thi Khanh Nguyen, Huyen; Cornelissen, Laura; Castanares-Zapatero, Diego; De Pauw, Robby; Van Cauteren, Dieter; Demarest, Stefaan; Drieskens, Sabine; Devleesschauwer, Brecht; De Ridder, Karin; Charafeddine, Rana; Smith, Pierre</t>
-  </si>
-  <si>
     <t>BMC Infectious Disease</t>
   </si>
   <si>
@@ -3678,9 +3675,6 @@
     <t>The burden of disease attributable to high body mass index in Belgium</t>
   </si>
   <si>
-    <t>Gorasso, Vanessa; Vandevijvere, Stefanie; Nusselder, Wilma; De Pauw, Robby; Hilderink, Henk; Nayani, Sarah; Van der Heyden, Johan; Desmedt, Delphine; Devleesschauwer Brecht</t>
-  </si>
-  <si>
     <t>Gorasso, Vanessa; Vandevijvere, Stefanie; Heyden, Johan Van der; Pelgrims, Ingrid; Hilderink, Henk; Nusselder, Wilma; Demoury, Claire; Schmidt, Masja; Vansteelandt, Stijn; De Smedt, Delphine; Devleesschauwer, Brecht</t>
   </si>
   <si>
@@ -3697,6 +3691,39 @@
   </si>
   <si>
     <t>10.1186/s13690-023-01212-1</t>
+  </si>
+  <si>
+    <t>The importance of estimating the burden of disease from foodborne transmission of Trypanosoma cruzi</t>
+  </si>
+  <si>
+    <t>Robertson, Lucy; Havelaar, Arie; Keddy, Karen H; Devleesschauwer, Brecht; Sripa, Banchob; Torgerson, Paul</t>
+  </si>
+  <si>
+    <t>Discover Health Systems</t>
+  </si>
+  <si>
+    <t>Discov. Health Syst.</t>
+  </si>
+  <si>
+    <t>Gorasso, Vanessa; Vandevijvere, Stefanie; Nusselder, Wilma; De Pauw, Robby; Hilderink, Henk; Nayani, Sarah; Van der Heyden, Johan; Desmedt, Delphine; Devleesschauwer, Brecht</t>
+  </si>
+  <si>
+    <t>Thi Khanh, Huyen Nguyen; Cornelissen, Laura; Castanares-Zapatero, Diego; De Pauw, Robby; Van Cauteren, Dieter; Demarest, Stefaan; Drieskens, Sabine; Devleesschauwer, Brecht; De Ridder, Karin; Charafeddine, Rana; Smith, Pierre</t>
+  </si>
+  <si>
+    <t>10.1186/s12879-023-08787-8</t>
+  </si>
+  <si>
+    <t>10.1007/s44250-023-00051-9</t>
+  </si>
+  <si>
+    <t>The Belgian physiotherapy reimbursement criteria for fall prevention fails in screening appropriately fall-prone community-dwelling older adults</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/17843286.2023.2268916</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/37815372/</t>
   </si>
 </sst>
 </file>
@@ -4028,66 +4055,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -4251,6 +4218,66 @@
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -4265,74 +4292,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U242" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
-  <autoFilter ref="A1:U242"/>
-  <sortState ref="A2:U242">
-    <sortCondition ref="K1:K242"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U244" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+  <autoFilter ref="A1:U244"/>
+  <sortState ref="A2:U244">
+    <sortCondition ref="K1:K244"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" name="title" dataDxfId="58"/>
-    <tableColumn id="2" name="authors" dataDxfId="57"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="56"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="55"/>
-    <tableColumn id="6" name="year" dataDxfId="54"/>
-    <tableColumn id="4" name="volume" dataDxfId="53"/>
-    <tableColumn id="5" name="issue" dataDxfId="52"/>
-    <tableColumn id="7" name="eID" dataDxfId="51"/>
-    <tableColumn id="8" name="from" dataDxfId="50"/>
-    <tableColumn id="9" name="to" dataDxfId="49"/>
-    <tableColumn id="10" name="date" dataDxfId="48"/>
-    <tableColumn id="19" name="date_submitted" dataDxfId="47" dataCellStyle="Neutral"/>
-    <tableColumn id="14" name="classification" dataDxfId="46"/>
-    <tableColumn id="12" name="IF" dataDxfId="45"/>
-    <tableColumn id="13" name="DOI" dataDxfId="44"/>
-    <tableColumn id="15" name="WoS" dataDxfId="43"/>
-    <tableColumn id="16" name="rank" dataDxfId="42"/>
-    <tableColumn id="17" name="quartile" dataDxfId="41"/>
-    <tableColumn id="18" name="category" dataDxfId="40"/>
-    <tableColumn id="20" name="SC" dataDxfId="39"/>
-    <tableColumn id="21" name="UGent" dataDxfId="38"/>
+    <tableColumn id="1" name="title" dataDxfId="52"/>
+    <tableColumn id="2" name="authors" dataDxfId="51"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="50"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="49"/>
+    <tableColumn id="6" name="year" dataDxfId="48"/>
+    <tableColumn id="4" name="volume" dataDxfId="47"/>
+    <tableColumn id="5" name="issue" dataDxfId="46"/>
+    <tableColumn id="7" name="eID" dataDxfId="45"/>
+    <tableColumn id="8" name="from" dataDxfId="44"/>
+    <tableColumn id="9" name="to" dataDxfId="43"/>
+    <tableColumn id="10" name="date" dataDxfId="42"/>
+    <tableColumn id="19" name="date_submitted" dataDxfId="41" dataCellStyle="Neutral"/>
+    <tableColumn id="14" name="classification" dataDxfId="40"/>
+    <tableColumn id="12" name="IF" dataDxfId="39"/>
+    <tableColumn id="13" name="DOI" dataDxfId="38"/>
+    <tableColumn id="15" name="WoS" dataDxfId="37"/>
+    <tableColumn id="16" name="rank" dataDxfId="36"/>
+    <tableColumn id="17" name="quartile" dataDxfId="35"/>
+    <tableColumn id="18" name="category" dataDxfId="34"/>
+    <tableColumn id="20" name="SC" dataDxfId="33"/>
+    <tableColumn id="21" name="UGent" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J12" totalsRowShown="0" headerRowDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J12" totalsRowShown="0" headerRowDxfId="31">
   <autoFilter ref="A1:J12"/>
   <sortState ref="A2:N50">
     <sortCondition ref="H1:H50"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="title" dataDxfId="36"/>
-    <tableColumn id="2" name="authors" dataDxfId="35"/>
-    <tableColumn id="3" name="editors" dataDxfId="34"/>
-    <tableColumn id="11" name="book" dataDxfId="33"/>
-    <tableColumn id="6" name="year" dataDxfId="32"/>
-    <tableColumn id="8" name="from" dataDxfId="31"/>
-    <tableColumn id="9" name="to" dataDxfId="30"/>
-    <tableColumn id="10" name="date" dataDxfId="29"/>
-    <tableColumn id="12" name="IF" dataDxfId="28"/>
-    <tableColumn id="13" name="DOI" dataDxfId="27"/>
+    <tableColumn id="1" name="title" dataDxfId="30"/>
+    <tableColumn id="2" name="authors" dataDxfId="29"/>
+    <tableColumn id="3" name="editors" dataDxfId="28"/>
+    <tableColumn id="11" name="book" dataDxfId="27"/>
+    <tableColumn id="6" name="year" dataDxfId="26"/>
+    <tableColumn id="8" name="from" dataDxfId="25"/>
+    <tableColumn id="9" name="to" dataDxfId="24"/>
+    <tableColumn id="10" name="date" dataDxfId="23"/>
+    <tableColumn id="12" name="IF" dataDxfId="22"/>
+    <tableColumn id="13" name="DOI" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G14" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="A1:G14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G13" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A1:G13"/>
   <sortState ref="A2:G15">
     <sortCondition ref="F1:F15"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="title" dataDxfId="24"/>
-    <tableColumn id="2" name="authors" dataDxfId="23"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="22"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="21"/>
-    <tableColumn id="4" name="doi_preprint" dataDxfId="20"/>
-    <tableColumn id="10" name="date" dataDxfId="19"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="18">
+    <tableColumn id="1" name="title" dataDxfId="18"/>
+    <tableColumn id="2" name="authors" dataDxfId="17"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="16"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="15"/>
+    <tableColumn id="4" name="doi_preprint" dataDxfId="14"/>
+    <tableColumn id="10" name="date" dataDxfId="13"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="12">
       <calculatedColumnFormula>TODAY()-F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4341,18 +4368,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:F5"/>
   <sortState ref="A2:K14">
     <sortCondition ref="E1:E14"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="title" dataDxfId="15"/>
-    <tableColumn id="2" name="authors" dataDxfId="14"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="13"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="12"/>
-    <tableColumn id="10" name="date" dataDxfId="11"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="10">
+    <tableColumn id="1" name="title" dataDxfId="9"/>
+    <tableColumn id="2" name="authors" dataDxfId="8"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="7"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="6"/>
+    <tableColumn id="10" name="date" dataDxfId="5"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="4">
       <calculatedColumnFormula>(TODAY()-E2)/365</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4647,10 +4674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U242"/>
+  <dimension ref="A1:U244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A242" sqref="A242"/>
+    <sheetView tabSelected="1" topLeftCell="A209" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A241" sqref="A241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4705,7 +4732,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>272</v>
@@ -16568,7 +16595,7 @@
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B219" s="7" t="s">
         <v>766</v>
@@ -16606,7 +16633,7 @@
       </c>
       <c r="N219" s="11"/>
       <c r="O219" s="19" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="P219" s="7"/>
       <c r="Q219" s="24"/>
@@ -16659,7 +16686,7 @@
       </c>
       <c r="N220" s="11"/>
       <c r="O220" s="19" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="P220" s="7"/>
       <c r="Q220" s="24"/>
@@ -16695,7 +16722,7 @@
         <v>92</v>
       </c>
       <c r="H221" s="18" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="I221" s="18" t="s">
         <v>14</v>
@@ -16712,7 +16739,7 @@
       </c>
       <c r="N221" s="11"/>
       <c r="O221" s="19" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="P221" s="7"/>
       <c r="Q221" s="24"/>
@@ -16727,7 +16754,7 @@
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B222" s="7" t="s">
         <v>1013</v>
@@ -16765,7 +16792,7 @@
       </c>
       <c r="N222" s="11"/>
       <c r="O222" s="19" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="P222" s="7"/>
       <c r="Q222" s="24"/>
@@ -16818,7 +16845,7 @@
       </c>
       <c r="N223" s="11"/>
       <c r="O223" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="P223" s="7"/>
       <c r="Q223" s="24"/>
@@ -16871,7 +16898,7 @@
       </c>
       <c r="N224" s="11"/>
       <c r="O224" s="19" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="P224" s="7"/>
       <c r="Q224" s="24"/>
@@ -16924,7 +16951,7 @@
       </c>
       <c r="N225" s="11"/>
       <c r="O225" s="19" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="P225" s="7"/>
       <c r="Q225" s="24"/>
@@ -16939,16 +16966,16 @@
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C226" s="7" t="s">
         <v>1118</v>
       </c>
-      <c r="B226" s="7" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C226" s="7" t="s">
+      <c r="D226" s="7" t="s">
         <v>1119</v>
-      </c>
-      <c r="D226" s="7" t="s">
-        <v>1120</v>
       </c>
       <c r="E226" s="18">
         <v>2023</v>
@@ -16977,7 +17004,7 @@
       </c>
       <c r="N226" s="11"/>
       <c r="O226" s="19" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="P226" s="7"/>
       <c r="Q226" s="24"/>
@@ -16992,10 +17019,10 @@
     </row>
     <row r="227" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B227" s="7" t="s">
         <v>1166</v>
-      </c>
-      <c r="B227" s="7" t="s">
-        <v>1167</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>509</v>
@@ -17013,7 +17040,7 @@
         <v>14</v>
       </c>
       <c r="H227" s="18" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I227" s="18" t="s">
         <v>14</v>
@@ -17030,7 +17057,7 @@
       </c>
       <c r="N227" s="11"/>
       <c r="O227" s="19" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="P227" s="7"/>
       <c r="Q227" s="24"/>
@@ -17045,10 +17072,10 @@
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B228" s="7" t="s">
         <v>1199</v>
-      </c>
-      <c r="B228" s="7" t="s">
-        <v>1200</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>267</v>
@@ -17083,7 +17110,7 @@
       </c>
       <c r="N228" s="11"/>
       <c r="O228" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="P228" s="7"/>
       <c r="Q228" s="24"/>
@@ -17098,10 +17125,10 @@
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B229" s="7" t="s">
         <v>1128</v>
-      </c>
-      <c r="B229" s="7" t="s">
-        <v>1129</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>267</v>
@@ -17136,7 +17163,7 @@
       </c>
       <c r="N229" s="11"/>
       <c r="O229" s="19" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="P229" s="7"/>
       <c r="Q229" s="24"/>
@@ -17151,10 +17178,10 @@
     </row>
     <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B230" s="7" t="s">
         <v>1105</v>
-      </c>
-      <c r="B230" s="7" t="s">
-        <v>1106</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>89</v>
@@ -17189,7 +17216,7 @@
       </c>
       <c r="N230" s="11"/>
       <c r="O230" s="19" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="P230" s="7"/>
       <c r="Q230" s="24"/>
@@ -17204,10 +17231,10 @@
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B231" s="7" t="s">
         <v>1202</v>
-      </c>
-      <c r="B231" s="7" t="s">
-        <v>1203</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>267</v>
@@ -17242,7 +17269,7 @@
       </c>
       <c r="N231" s="11"/>
       <c r="O231" s="19" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="P231" s="7"/>
       <c r="Q231" s="24"/>
@@ -17295,7 +17322,7 @@
       </c>
       <c r="N232" s="11"/>
       <c r="O232" s="19" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="P232" s="7"/>
       <c r="Q232" s="24"/>
@@ -17348,7 +17375,7 @@
       </c>
       <c r="N233" s="11"/>
       <c r="O233" s="19" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="P233" s="7"/>
       <c r="Q233" s="24"/>
@@ -17384,7 +17411,7 @@
         <v>99</v>
       </c>
       <c r="H234" s="18" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="I234" s="18" t="s">
         <v>14</v>
@@ -17401,7 +17428,7 @@
       </c>
       <c r="N234" s="11"/>
       <c r="O234" s="19" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="P234" s="7"/>
       <c r="Q234" s="24"/>
@@ -17416,7 +17443,7 @@
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B235" s="7" t="s">
         <v>1051</v>
@@ -17437,7 +17464,7 @@
         <v>99</v>
       </c>
       <c r="H235" s="18" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="I235" s="18" t="s">
         <v>14</v>
@@ -17454,7 +17481,7 @@
       </c>
       <c r="N235" s="11"/>
       <c r="O235" s="19" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="P235" s="7"/>
       <c r="Q235" s="24"/>
@@ -17490,7 +17517,7 @@
         <v>99</v>
       </c>
       <c r="H236" s="18" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="I236" s="18" t="s">
         <v>14</v>
@@ -17507,50 +17534,52 @@
       </c>
       <c r="N236" s="11"/>
       <c r="O236" s="19" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="P236" s="7"/>
       <c r="Q236" s="24"/>
       <c r="R236" s="25"/>
       <c r="S236" s="7"/>
-      <c r="T236" s="7"/>
+      <c r="T236" s="7" t="s">
+        <v>603</v>
+      </c>
       <c r="U236" s="7" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
-        <v>1028</v>
+        <v>1107</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>1029</v>
+        <v>1108</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>267</v>
+        <v>1116</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>268</v>
+        <v>1115</v>
       </c>
       <c r="E237" s="18">
         <v>2023</v>
       </c>
       <c r="F237" s="18">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="G237" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H237" s="18">
-        <v>193</v>
-      </c>
-      <c r="I237" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J237" s="18" t="s">
-        <v>14</v>
+        <v>153</v>
+      </c>
+      <c r="H237" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I237" s="18">
+        <v>647</v>
+      </c>
+      <c r="J237" s="18">
+        <v>661</v>
       </c>
       <c r="K237" s="42">
-        <v>45232</v>
+        <v>45231</v>
       </c>
       <c r="L237" s="42"/>
       <c r="M237" s="42" t="s">
@@ -17558,7 +17587,7 @@
       </c>
       <c r="N237" s="11"/>
       <c r="O237" s="19" t="s">
-        <v>1223</v>
+        <v>1210</v>
       </c>
       <c r="P237" s="7"/>
       <c r="Q237" s="24"/>
@@ -17569,28 +17598,28 @@
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
-        <v>1018</v>
+        <v>1028</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>1017</v>
+        <v>1029</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>419</v>
+        <v>267</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>419</v>
+        <v>268</v>
       </c>
       <c r="E238" s="18">
         <v>2023</v>
       </c>
       <c r="F238" s="18">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="G238" s="19" t="s">
         <v>14</v>
       </c>
       <c r="H238" s="18">
-        <v>100595</v>
+        <v>193</v>
       </c>
       <c r="I238" s="18" t="s">
         <v>14</v>
@@ -17599,7 +17628,7 @@
         <v>14</v>
       </c>
       <c r="K238" s="42">
-        <v>45261</v>
+        <v>45232</v>
       </c>
       <c r="L238" s="42"/>
       <c r="M238" s="42" t="s">
@@ -17607,176 +17636,184 @@
       </c>
       <c r="N238" s="11"/>
       <c r="O238" s="19" t="s">
-        <v>1165</v>
+        <v>1221</v>
       </c>
       <c r="P238" s="7"/>
       <c r="Q238" s="24"/>
       <c r="R238" s="25"/>
       <c r="S238" s="7"/>
-      <c r="T238" s="7" t="s">
-        <v>603</v>
-      </c>
+      <c r="T238" s="7"/>
       <c r="U238" s="7" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="239" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A239" s="13" t="s">
-        <v>984</v>
-      </c>
-      <c r="B239" s="13" t="s">
-        <v>985</v>
-      </c>
-      <c r="C239" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="D239" s="13" t="s">
-        <v>987</v>
-      </c>
-      <c r="E239" s="14">
+      <c r="A239" s="7" t="s">
+        <v>979</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>980</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D239" s="7" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E239" s="18">
         <v>2023</v>
       </c>
-      <c r="F239" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G239" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H239" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I239" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J239" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K239" s="31">
-        <v>45292</v>
-      </c>
-      <c r="L239" s="31"/>
-      <c r="M239" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="N239" s="45"/>
-      <c r="O239" s="44" t="s">
-        <v>991</v>
-      </c>
-      <c r="P239" s="27"/>
+      <c r="F239" s="18">
+        <v>2</v>
+      </c>
+      <c r="G239" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H239" s="18">
+        <v>35</v>
+      </c>
+      <c r="I239" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J239" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K239" s="42">
+        <v>45232</v>
+      </c>
+      <c r="L239" s="42"/>
+      <c r="M239" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="N239" s="11"/>
+      <c r="O239" s="19" t="s">
+        <v>1229</v>
+      </c>
+      <c r="P239" s="7"/>
       <c r="Q239" s="24"/>
       <c r="R239" s="25"/>
       <c r="S239" s="7"/>
       <c r="T239" s="7"/>
-      <c r="U239" s="7"/>
+      <c r="U239" s="7" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="240" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A240" s="13" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B240" s="13" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C240" s="13" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D240" s="13" t="s">
-        <v>1116</v>
-      </c>
-      <c r="E240" s="14">
+      <c r="A240" s="7" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D240" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="E240" s="18">
         <v>2023</v>
       </c>
-      <c r="F240" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G240" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H240" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I240" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J240" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K240" s="31">
-        <v>45293</v>
-      </c>
-      <c r="L240" s="31"/>
-      <c r="M240" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="N240" s="45"/>
-      <c r="O240" s="44" t="s">
-        <v>1211</v>
-      </c>
-      <c r="P240" s="27"/>
+      <c r="F240" s="18">
+        <v>23</v>
+      </c>
+      <c r="G240" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H240" s="18">
+        <v>774</v>
+      </c>
+      <c r="I240" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J240" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K240" s="42">
+        <v>45238</v>
+      </c>
+      <c r="L240" s="42"/>
+      <c r="M240" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="N240" s="11"/>
+      <c r="O240" s="19" t="s">
+        <v>1228</v>
+      </c>
+      <c r="P240" s="7"/>
       <c r="Q240" s="24"/>
       <c r="R240" s="25"/>
       <c r="S240" s="7"/>
       <c r="T240" s="7"/>
-      <c r="U240" s="7"/>
+      <c r="U240" s="7" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="241" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A241" s="13" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B241" s="13" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C241" s="13" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D241" s="13" t="s">
-        <v>1147</v>
-      </c>
-      <c r="E241" s="14">
+      <c r="A241" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="D241" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="E241" s="18">
         <v>2023</v>
       </c>
-      <c r="F241" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G241" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H241" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I241" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J241" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K241" s="31">
-        <v>45296</v>
-      </c>
-      <c r="L241" s="31"/>
-      <c r="M241" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="N241" s="45"/>
-      <c r="O241" s="44"/>
-      <c r="P241" s="27"/>
+      <c r="F241" s="18">
+        <v>17</v>
+      </c>
+      <c r="G241" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H241" s="18">
+        <v>100595</v>
+      </c>
+      <c r="I241" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J241" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K241" s="42">
+        <v>45261</v>
+      </c>
+      <c r="L241" s="42"/>
+      <c r="M241" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="N241" s="11"/>
+      <c r="O241" s="19" t="s">
+        <v>1164</v>
+      </c>
+      <c r="P241" s="7"/>
       <c r="Q241" s="24"/>
       <c r="R241" s="25"/>
       <c r="S241" s="7"/>
-      <c r="T241" s="7"/>
-      <c r="U241" s="7"/>
+      <c r="T241" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="U241" s="7" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="242" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A242" s="13" t="s">
-        <v>1177</v>
+        <v>984</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>1178</v>
+        <v>985</v>
       </c>
       <c r="C242" s="13" t="s">
-        <v>160</v>
+        <v>986</v>
       </c>
       <c r="D242" s="13" t="s">
-        <v>161</v>
+        <v>987</v>
       </c>
       <c r="E242" s="14">
         <v>2023</v>
@@ -17797,14 +17834,16 @@
         <v>14</v>
       </c>
       <c r="K242" s="31">
-        <v>45297</v>
+        <v>45292</v>
       </c>
       <c r="L242" s="31"/>
       <c r="M242" s="31" t="s">
         <v>273</v>
       </c>
       <c r="N242" s="45"/>
-      <c r="O242" s="44"/>
+      <c r="O242" s="44" t="s">
+        <v>991</v>
+      </c>
       <c r="P242" s="27"/>
       <c r="Q242" s="24"/>
       <c r="R242" s="25"/>
@@ -17812,28 +17851,122 @@
       <c r="T242" s="7"/>
       <c r="U242" s="7"/>
     </row>
+    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A243" s="13" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B243" s="13" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C243" s="13" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D243" s="13" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E243" s="14">
+        <v>2023</v>
+      </c>
+      <c r="F243" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G243" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H243" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I243" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J243" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K243" s="31">
+        <v>45296</v>
+      </c>
+      <c r="L243" s="31"/>
+      <c r="M243" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="N243" s="45"/>
+      <c r="O243" s="44"/>
+      <c r="P243" s="27"/>
+      <c r="Q243" s="24"/>
+      <c r="R243" s="25"/>
+      <c r="S243" s="7"/>
+      <c r="T243" s="7"/>
+      <c r="U243" s="7"/>
+    </row>
+    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A244" s="13" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B244" s="13" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C244" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D244" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E244" s="14">
+        <v>2023</v>
+      </c>
+      <c r="F244" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G244" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H244" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I244" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J244" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K244" s="31">
+        <v>45297</v>
+      </c>
+      <c r="L244" s="31"/>
+      <c r="M244" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="N244" s="45"/>
+      <c r="O244" s="44"/>
+      <c r="P244" s="27"/>
+      <c r="Q244" s="24"/>
+      <c r="R244" s="25"/>
+      <c r="S244" s="7"/>
+      <c r="T244" s="7"/>
+      <c r="U244" s="7"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="T1:U112 T114:U231 T232:V240 T242:V1048576 V241">
-    <cfRule type="cellIs" dxfId="9" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="29" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="30" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T113:U113">
-    <cfRule type="cellIs" dxfId="7" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="27" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="28" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T241:U241">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18199,10 +18332,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>949</v>
@@ -18224,7 +18357,7 @@
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="19" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
   </sheetData>
@@ -18237,9 +18370,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18274,10 +18409,10 @@
       </c>
       <c r="I1" s="55">
         <f ca="1">AVERAGE(G:G)</f>
-        <v>215.23076923076923</v>
+        <v>195.5</v>
       </c>
       <c r="J1" s="54" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -18300,8 +18435,8 @@
         <v>44769</v>
       </c>
       <c r="G2" s="12">
-        <f t="shared" ref="G2:G14" ca="1" si="0">TODAY()-F2</f>
-        <v>463</v>
+        <f t="shared" ref="G2:G13" ca="1" si="0">TODAY()-F2</f>
+        <v>476</v>
       </c>
       <c r="I2" s="55" t="str">
         <f ca="1">ROUND(I1/30,0)&amp;" md"</f>
@@ -18311,196 +18446,196 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>979</v>
+        <v>1061</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>980</v>
+        <v>1062</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>789</v>
+        <v>25</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>792</v>
+        <v>28</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="10">
-        <v>44832</v>
+        <v>44958</v>
       </c>
       <c r="G3" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>400</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="10">
-        <v>44958</v>
+        <v>44959</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>1064</v>
+        <v>1081</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1065</v>
+        <v>1084</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>120</v>
+        <v>1082</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>121</v>
+        <v>1083</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="10">
-        <v>44959</v>
+        <v>45013</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>273</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>1081</v>
+        <v>1089</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1084</v>
+        <v>1092</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1082</v>
+        <v>1090</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1083</v>
+        <v>1091</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="10">
-        <v>45013</v>
+        <v>45021</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>1087</v>
+        <v>1098</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1088</v>
+        <v>1099</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>1089</v>
+        <v>1100</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>344</v>
+        <v>1101</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="10">
-        <v>45021</v>
+        <v>45037</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>1090</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>1091</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>1092</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="10">
-        <v>45021</v>
+        <v>45043</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>1099</v>
+        <v>1167</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1100</v>
+        <v>1168</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1101</v>
+        <v>575</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1102</v>
+        <v>576</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="10">
-        <v>45037</v>
+        <v>45114</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>195</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>1103</v>
+        <v>1217</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1104</v>
+        <v>1218</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1091</v>
+        <v>160</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1092</v>
+        <v>161</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="10">
-        <v>45043</v>
+        <v>45116</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>189</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>1168</v>
+        <v>1187</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1169</v>
+        <v>1188</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>575</v>
+        <v>668</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>576</v>
+        <v>669</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="10">
-        <v>45114</v>
+        <v>45127</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" ca="1" si="0"/>
@@ -18509,68 +18644,46 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1220</v>
+        <v>1226</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>160</v>
+        <v>259</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>161</v>
+        <v>262</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="10">
-        <v>45116</v>
+        <v>45208</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>116</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>1188</v>
+        <v>1222</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1189</v>
+        <v>1223</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>668</v>
+        <v>160</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>669</v>
+        <v>161</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="10">
-        <v>45127</v>
+        <v>45229</v>
       </c>
       <c r="G13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="10">
-        <v>45208</v>
-      </c>
-      <c r="G14" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -18635,7 +18748,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>8.0109589041095894</v>
+        <v>8.0465753424657542</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -18656,7 +18769,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0109589041095894</v>
+        <v>8.0465753424657542</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -18677,7 +18790,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3890410958904109</v>
+        <v>7.4246575342465757</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -18698,21 +18811,21 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>5.7589041095890412</v>
+        <v>5.7945205479452051</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>1144</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>1145</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="10">
@@ -18730,10 +18843,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18747,7 +18860,7 @@
     <row r="1" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E1" s="50">
         <f>COUNTA(E3:E998)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" s="50">
         <f>COUNTA(F3:F998)</f>
@@ -18767,7 +18880,7 @@
       </c>
       <c r="J1" s="51">
         <f>SUM(E1:I1)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -18784,7 +18897,7 @@
         <v>1047</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="F2" s="53" t="s">
         <v>1033</v>
@@ -18801,7 +18914,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B3" s="49" t="s">
         <v>1038</v>
@@ -18818,7 +18931,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B4" s="49" t="s">
         <v>1040</v>
@@ -18835,7 +18948,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B5" s="49" t="s">
         <v>1042</v>
@@ -18852,7 +18965,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B6" s="49" t="s">
         <v>1052</v>
@@ -18869,7 +18982,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B7" s="49" t="s">
         <v>1068</v>
@@ -18903,13 +19016,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B9" s="49" t="s">
         <v>1110</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="C9" s="49" t="s">
         <v>1111</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>1112</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>1044</v>
@@ -18920,13 +19033,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B10" s="49" t="s">
         <v>1113</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="C10" s="49" t="s">
         <v>1114</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>1115</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>1044</v>
@@ -18937,13 +19050,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B11" s="49" t="s">
         <v>1124</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="C11" s="49" t="s">
         <v>1125</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>1126</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>1044</v>
@@ -18954,13 +19067,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B12" s="49" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C12" s="49" t="s">
         <v>1136</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>1137</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>1044</v>
@@ -18971,13 +19084,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B13" s="49" t="s">
         <v>1138</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="C13" s="49" t="s">
         <v>1139</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>1140</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>1044</v>
@@ -18988,13 +19101,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B14" s="49" t="s">
         <v>1151</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="C14" s="49" t="s">
         <v>1152</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>1153</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>1044</v>
@@ -19005,7 +19118,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B15" s="49" t="s">
         <v>1068</v>
@@ -19022,13 +19135,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B16" s="49" t="s">
         <v>1155</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="C16" s="49" t="s">
         <v>1156</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>1157</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>1044</v>
@@ -19039,10 +19152,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B17" s="49" t="s">
         <v>1158</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>1159</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>1044</v>
@@ -19053,10 +19166,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B18" s="49" t="s">
         <v>1160</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>1161</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>1044</v>
@@ -19067,13 +19180,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B19" s="49" t="s">
         <v>1162</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="C19" s="49" t="s">
         <v>1163</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>1164</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>1044</v>
@@ -19084,10 +19197,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>1044</v>
@@ -19098,13 +19211,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B21" s="49" t="s">
         <v>1174</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="C21" s="49" t="s">
         <v>1175</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>1176</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>1044</v>
@@ -19115,13 +19228,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C22" s="49" t="s">
         <v>1181</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>1182</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>1044</v>
@@ -19132,13 +19245,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B23" s="49" t="s">
         <v>1185</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="C23" s="49" t="s">
         <v>1186</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>1187</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>1044</v>
@@ -19149,13 +19262,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B24" s="49" t="s">
         <v>1191</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="C24" s="49" t="s">
         <v>1192</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>1193</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>1044</v>
@@ -19166,13 +19279,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C25" s="49" t="s">
         <v>1196</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>1197</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>1044</v>
@@ -19183,18 +19296,35 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B26" s="49" t="s">
         <v>1207</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="C26" s="49" t="s">
         <v>1208</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>1209</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>1044</v>
       </c>
       <c r="F26" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E27" s="48" t="s">
         <v>1037</v>
       </c>
     </row>
@@ -19263,8 +19393,10 @@
     <hyperlink ref="B25" r:id="rId43"/>
     <hyperlink ref="B26" r:id="rId44"/>
     <hyperlink ref="C26" r:id="rId45"/>
+    <hyperlink ref="C27" r:id="rId46"/>
+    <hyperlink ref="B27" r:id="rId47"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId46"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId48"/>
 </worksheet>
 </file>
--- a/publications.xlsx
+++ b/publications.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="papers" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,9 @@
     <sheet name="zzz" sheetId="5" r:id="rId4"/>
     <sheet name="SCI" sheetId="7" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">SCI!$A$2:$I$33</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2997" uniqueCount="1233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3068" uniqueCount="1274">
   <si>
     <t>title</t>
   </si>
@@ -3216,9 +3219,6 @@
     <t>Cruz Oliveira, Claudia; Charalampous, Periklis; Delaye, Julien; Grad, Diana Alecsandra; Kolkhir, Pavel; Mechili, Enkeleint A.; Unim, Brigid; Devleesschauwer, Brecht; Haagsma, Juanita A.</t>
   </si>
   <si>
-    <t>10.1101/2023.01.31.23285233</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bacterial antimicrobial resistance: Data gaps and relationships between human and animal resistance </t>
   </si>
   <si>
@@ -3294,9 +3294,6 @@
     <t>BMC Infectious Disease</t>
   </si>
   <si>
-    <t>Etiological and prognostic roles of frailty and multimorbidity in the development of SARS-CoV-2 health outcomes: systematic review of population-based studies</t>
-  </si>
-  <si>
     <t>Age and Ageing</t>
   </si>
   <si>
@@ -3333,12 +3330,6 @@
     <t>J. Public Health</t>
   </si>
   <si>
-    <t>Validation of the Global Burden of Disease study frailty index (GBD-FI) in the Survey of Health, Ageing and Retirement in Europe</t>
-  </si>
-  <si>
-    <t>O'Caoimh, Rónán; O'Donovan, Mark; Devleesschauwer, Brecht; Sezgin, Duygu; Aaron, Liew; Kabir, Zubair</t>
-  </si>
-  <si>
     <t>The direct disease burden of COVID-19 in Belgium in 2020 and 2021</t>
   </si>
   <si>
@@ -3486,9 +3477,6 @@
     <t>https://pubmed.ncbi.nlm.nih.gov/37184579/</t>
   </si>
   <si>
-    <t>Product promotional strategies in supermarkets and their effects on sales: A case study of breakfast cereals and drinks in New Zealand</t>
-  </si>
-  <si>
     <t>The Africa Food Environment Research Network (FERN): from concept to practice</t>
   </si>
   <si>
@@ -3555,9 +3543,6 @@
     <t>https://pubmed.ncbi.nlm.nih.gov/37480028/</t>
   </si>
   <si>
-    <t>Malaria drug resistance landscape in the Democratic Republic of the Congo: a spatial mapping systematic review of molecular surveillance surveys</t>
-  </si>
-  <si>
     <t>Kalenda Kayiba, Nadine; Tshibangu-Kabamba, Evariste; Rosas-Aguirre, Angel; Kaku, Natsuko; Nakagama, Yu; Kaneko, Akira; Makaba Mvumbi, Dieudonné; Malekita Yobi, Doudou; Devleesschauwer, Brecht; Losimba Likwela, Joris; Kabututu Zakayi, Pius; DeMol, Patrick; Lelo Mvumbi, Georges; Hayette, Marie-Pierre; Dikassa Lusamba, Paul; Kido, Yasutoshi; Speybroeck, Niko</t>
   </si>
   <si>
@@ -3724,6 +3709,147 @@
   </si>
   <si>
     <t>https://pubmed.ncbi.nlm.nih.gov/37815372/</t>
+  </si>
+  <si>
+    <t>The landscape of drug resistance in Plasmodium falciparum malaria in the Democratic Republic of Congo: a mapping systematic review</t>
+  </si>
+  <si>
+    <t>Tropical Medicine and Health</t>
+  </si>
+  <si>
+    <t>Trop. Med. Health</t>
+  </si>
+  <si>
+    <t>10.1186/s41182-023-00551-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linking health survey data with health insurance data: methodology, challenges, opportunities and recommendations for public health research. An experience from the HISlink project in Belgium </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13690-023-01213-0</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/37968754/</t>
+  </si>
+  <si>
+    <t>Attributing Ethiopian animal health losses to high-level causes using expert elicitation</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.prevetmed.2023.106077</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/37976968/</t>
+  </si>
+  <si>
+    <t>Association between adherence to the EAT-Lancet sustainable reference diet and cardiovascular health among European adolescents: the HELENA study</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41430-023-01379-4</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/38093098/</t>
+  </si>
+  <si>
+    <t>Evaluation of an electrochemical sensor and comparison with spectroscopic approaches as used today in practice for harm reduction in a festival setting-A case study: Analysis of 3,4-methylenedioxymethamphetamine samples</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/38086368/</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/dta.3625</t>
+  </si>
+  <si>
+    <t>Age-Specific Quantification of Overweight/Obesity Risk Factors From Infancy to Adolescence and Differences by Educational Level of Parents</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/ijph.2023.1605798</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/38033763/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparing frailty prevalence between countries: validation of the Global Burden of Disease study Frailty Index (GBD-FI) in the survey of health, ageing and retirement in Europe </t>
+  </si>
+  <si>
+    <t>O'Donovan, Mark R; Devleesschauwer, Brecht; Sezgin, Duygu; Liew, Aaron; Kabir, Zubair; O'Caoimh, Rónán</t>
+  </si>
+  <si>
+    <t>afad214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1093/ageing/afad214 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient Reported Outcome and Experience Measures (PROMs and PREMs) in substance use disorder treatment services: A scoping review </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.drugalcdep.2023.111017</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/37995391/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dependence-Robust Confidence Intervals for Capture-Recapture Surveys </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/jssam/smac031</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/37975066/</t>
+  </si>
+  <si>
+    <t>Added</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>overview of available/added</t>
+  </si>
+  <si>
+    <t>check link to projects, health topics, authors</t>
+  </si>
+  <si>
+    <t>add PDF</t>
+  </si>
+  <si>
+    <t>Email Stefanie</t>
+  </si>
+  <si>
+    <t>list to add</t>
+  </si>
+  <si>
+    <t>Uncovering the toll of the first three COVID-19 waves: excess mortality and social patterns in Belgium</t>
+  </si>
+  <si>
+    <t>Van den Borre, Laura; Gadeyne, Sylvie; Devleesschauwer, Brecht; Vanthomme, Katrien</t>
+  </si>
+  <si>
+    <t>SSM - Population Health</t>
+  </si>
+  <si>
+    <t>SSM - Popul. Health</t>
+  </si>
+  <si>
+    <t>Santos, João Vasco; Padron Monedero, Alicia; Bikbov, Boris; Grad, Diana Alecsandra; Plass, Dietrich; Mechili, Enkeleint A; Gazzelloni, Federica; Fischer, Florian; Sulo, Gerhard; Ngwa, Che Henry; Noguer-Zambrano, Isabel; Peñalvo, José Luis; Haagsma, Juanita A; Kissmiova-Skarbek, Katarzyna; Monasta, Lorenzo; Ghith, Nermin; Sarmiento-Suarez, Rodrigo; Hrzic, Rok; Haneef, Romana; O'Caoimh, Rónán; Cuschieri, Sarah; Mondello, Stefania; Kabir, Zubair; Freitas, Alberto; Devleesschauwer, Brecht; GBD 2019 EU State of Health Collaborators</t>
+  </si>
+  <si>
+    <t>Multimorbidity and frailty are associated with poorer SARS-CoV-2-related outcomes: systematic review of population-based studies</t>
+  </si>
+  <si>
+    <t>Aging Clinical and Experimental Research</t>
+  </si>
+  <si>
+    <t>Aging Clin. Exp. Res.</t>
+  </si>
+  <si>
+    <t>Journal of Transport and Health</t>
+  </si>
+  <si>
+    <t>Vandeninden, Bram; De Clercq, Eva; Devleesschauwer, Brecht; Otavova, Martina; Masquelier, Bruno; Fierens, Frans; Faes, Christel; Bouland, Catherine</t>
+  </si>
+  <si>
+    <t>Methodology for assessing the impact of local traffic interventions on disease burden: a case study on paediatric asthma incidence in European cities</t>
   </si>
 </sst>
 </file>
@@ -4013,7 +4139,137 @@
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="61">
+  <dxfs count="68">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4218,66 +4474,6 @@
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -4292,74 +4488,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U244" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
-  <autoFilter ref="A1:U244"/>
-  <sortState ref="A2:U244">
-    <sortCondition ref="K1:K244"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U247" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
+  <autoFilter ref="A1:U247"/>
+  <sortState ref="A2:U246">
+    <sortCondition ref="K1:K246"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" name="title" dataDxfId="52"/>
-    <tableColumn id="2" name="authors" dataDxfId="51"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="50"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="49"/>
-    <tableColumn id="6" name="year" dataDxfId="48"/>
-    <tableColumn id="4" name="volume" dataDxfId="47"/>
-    <tableColumn id="5" name="issue" dataDxfId="46"/>
-    <tableColumn id="7" name="eID" dataDxfId="45"/>
-    <tableColumn id="8" name="from" dataDxfId="44"/>
-    <tableColumn id="9" name="to" dataDxfId="43"/>
-    <tableColumn id="10" name="date" dataDxfId="42"/>
-    <tableColumn id="19" name="date_submitted" dataDxfId="41" dataCellStyle="Neutral"/>
-    <tableColumn id="14" name="classification" dataDxfId="40"/>
-    <tableColumn id="12" name="IF" dataDxfId="39"/>
-    <tableColumn id="13" name="DOI" dataDxfId="38"/>
-    <tableColumn id="15" name="WoS" dataDxfId="37"/>
-    <tableColumn id="16" name="rank" dataDxfId="36"/>
-    <tableColumn id="17" name="quartile" dataDxfId="35"/>
-    <tableColumn id="18" name="category" dataDxfId="34"/>
-    <tableColumn id="20" name="SC" dataDxfId="33"/>
-    <tableColumn id="21" name="UGent" dataDxfId="32"/>
+    <tableColumn id="1" name="title" dataDxfId="65"/>
+    <tableColumn id="2" name="authors" dataDxfId="64"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="63"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="62"/>
+    <tableColumn id="6" name="year" dataDxfId="61"/>
+    <tableColumn id="4" name="volume" dataDxfId="60"/>
+    <tableColumn id="5" name="issue" dataDxfId="59"/>
+    <tableColumn id="7" name="eID" dataDxfId="58"/>
+    <tableColumn id="8" name="from" dataDxfId="57"/>
+    <tableColumn id="9" name="to" dataDxfId="56"/>
+    <tableColumn id="10" name="date" dataDxfId="55"/>
+    <tableColumn id="19" name="date_submitted" dataDxfId="54" dataCellStyle="Neutral"/>
+    <tableColumn id="14" name="classification" dataDxfId="53"/>
+    <tableColumn id="12" name="IF" dataDxfId="52"/>
+    <tableColumn id="13" name="DOI" dataDxfId="51"/>
+    <tableColumn id="15" name="WoS" dataDxfId="50"/>
+    <tableColumn id="16" name="rank" dataDxfId="49"/>
+    <tableColumn id="17" name="quartile" dataDxfId="48"/>
+    <tableColumn id="18" name="category" dataDxfId="47"/>
+    <tableColumn id="20" name="SC" dataDxfId="46"/>
+    <tableColumn id="21" name="UGent" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J12" totalsRowShown="0" headerRowDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J12" totalsRowShown="0" headerRowDxfId="44">
   <autoFilter ref="A1:J12"/>
   <sortState ref="A2:N50">
     <sortCondition ref="H1:H50"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="title" dataDxfId="30"/>
-    <tableColumn id="2" name="authors" dataDxfId="29"/>
-    <tableColumn id="3" name="editors" dataDxfId="28"/>
-    <tableColumn id="11" name="book" dataDxfId="27"/>
-    <tableColumn id="6" name="year" dataDxfId="26"/>
-    <tableColumn id="8" name="from" dataDxfId="25"/>
-    <tableColumn id="9" name="to" dataDxfId="24"/>
-    <tableColumn id="10" name="date" dataDxfId="23"/>
-    <tableColumn id="12" name="IF" dataDxfId="22"/>
-    <tableColumn id="13" name="DOI" dataDxfId="21"/>
+    <tableColumn id="1" name="title" dataDxfId="43"/>
+    <tableColumn id="2" name="authors" dataDxfId="42"/>
+    <tableColumn id="3" name="editors" dataDxfId="41"/>
+    <tableColumn id="11" name="book" dataDxfId="40"/>
+    <tableColumn id="6" name="year" dataDxfId="39"/>
+    <tableColumn id="8" name="from" dataDxfId="38"/>
+    <tableColumn id="9" name="to" dataDxfId="37"/>
+    <tableColumn id="10" name="date" dataDxfId="36"/>
+    <tableColumn id="12" name="IF" dataDxfId="35"/>
+    <tableColumn id="13" name="DOI" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G13" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G13" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A1:G13"/>
-  <sortState ref="A2:G15">
-    <sortCondition ref="F1:F15"/>
+  <sortState ref="A2:G13">
+    <sortCondition ref="F1:F13"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="title" dataDxfId="18"/>
-    <tableColumn id="2" name="authors" dataDxfId="17"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="16"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="15"/>
-    <tableColumn id="4" name="doi_preprint" dataDxfId="14"/>
-    <tableColumn id="10" name="date" dataDxfId="13"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="12">
+    <tableColumn id="1" name="title" dataDxfId="31"/>
+    <tableColumn id="2" name="authors" dataDxfId="30"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="29"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="28"/>
+    <tableColumn id="4" name="doi_preprint" dataDxfId="27"/>
+    <tableColumn id="10" name="date" dataDxfId="26"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="25">
       <calculatedColumnFormula>TODAY()-F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4368,18 +4564,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:F5"/>
   <sortState ref="A2:K14">
     <sortCondition ref="E1:E14"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="title" dataDxfId="9"/>
-    <tableColumn id="2" name="authors" dataDxfId="8"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="7"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="6"/>
-    <tableColumn id="10" name="date" dataDxfId="5"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="4">
+    <tableColumn id="1" name="title" dataDxfId="22"/>
+    <tableColumn id="2" name="authors" dataDxfId="21"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="20"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="19"/>
+    <tableColumn id="10" name="date" dataDxfId="18"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="17">
       <calculatedColumnFormula>(TODAY()-E2)/365</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4674,10 +4870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U244"/>
+  <dimension ref="A1:U247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A241" sqref="A241"/>
+    <sheetView topLeftCell="A209" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A247" sqref="A247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4732,7 +4928,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>272</v>
@@ -16245,7 +16441,7 @@
         <v>14</v>
       </c>
       <c r="H212" s="18" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I212" s="18" t="s">
         <v>14</v>
@@ -16383,7 +16579,7 @@
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B215" s="7" t="s">
         <v>970</v>
@@ -16542,7 +16738,7 @@
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B218" s="7" t="s">
         <v>981</v>
@@ -16580,7 +16776,7 @@
       </c>
       <c r="N218" s="11"/>
       <c r="O218" s="19" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="P218" s="7"/>
       <c r="Q218" s="24"/>
@@ -16595,7 +16791,7 @@
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B219" s="7" t="s">
         <v>766</v>
@@ -16633,7 +16829,7 @@
       </c>
       <c r="N219" s="11"/>
       <c r="O219" s="19" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="P219" s="7"/>
       <c r="Q219" s="24"/>
@@ -16686,7 +16882,7 @@
       </c>
       <c r="N220" s="11"/>
       <c r="O220" s="19" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="P220" s="7"/>
       <c r="Q220" s="24"/>
@@ -16722,7 +16918,7 @@
         <v>92</v>
       </c>
       <c r="H221" s="18" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="I221" s="18" t="s">
         <v>14</v>
@@ -16739,7 +16935,7 @@
       </c>
       <c r="N221" s="11"/>
       <c r="O221" s="19" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="P221" s="7"/>
       <c r="Q221" s="24"/>
@@ -16754,7 +16950,7 @@
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="B222" s="7" t="s">
         <v>1013</v>
@@ -16792,7 +16988,7 @@
       </c>
       <c r="N222" s="11"/>
       <c r="O222" s="19" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="P222" s="7"/>
       <c r="Q222" s="24"/>
@@ -16810,7 +17006,7 @@
         <v>1014</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>1015</v>
@@ -16845,7 +17041,7 @@
       </c>
       <c r="N223" s="11"/>
       <c r="O223" s="19" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="P223" s="7"/>
       <c r="Q223" s="24"/>
@@ -16863,7 +17059,7 @@
         <v>1027</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>267</v>
@@ -16898,7 +17094,7 @@
       </c>
       <c r="N224" s="11"/>
       <c r="O224" s="19" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="P224" s="7"/>
       <c r="Q224" s="24"/>
@@ -16951,7 +17147,7 @@
       </c>
       <c r="N225" s="11"/>
       <c r="O225" s="19" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="P225" s="7"/>
       <c r="Q225" s="24"/>
@@ -16966,16 +17162,16 @@
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="E226" s="18">
         <v>2023</v>
@@ -17004,7 +17200,7 @@
       </c>
       <c r="N226" s="11"/>
       <c r="O226" s="19" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="P226" s="7"/>
       <c r="Q226" s="24"/>
@@ -17019,10 +17215,10 @@
     </row>
     <row r="227" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>509</v>
@@ -17040,7 +17236,7 @@
         <v>14</v>
       </c>
       <c r="H227" s="18" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="I227" s="18" t="s">
         <v>14</v>
@@ -17057,7 +17253,7 @@
       </c>
       <c r="N227" s="11"/>
       <c r="O227" s="19" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="P227" s="7"/>
       <c r="Q227" s="24"/>
@@ -17072,10 +17268,10 @@
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>267</v>
@@ -17110,7 +17306,7 @@
       </c>
       <c r="N228" s="11"/>
       <c r="O228" s="19" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="P228" s="7"/>
       <c r="Q228" s="24"/>
@@ -17125,10 +17321,10 @@
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>267</v>
@@ -17163,7 +17359,7 @@
       </c>
       <c r="N229" s="11"/>
       <c r="O229" s="19" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="P229" s="7"/>
       <c r="Q229" s="24"/>
@@ -17178,10 +17374,10 @@
     </row>
     <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>89</v>
@@ -17216,7 +17412,7 @@
       </c>
       <c r="N230" s="11"/>
       <c r="O230" s="19" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="P230" s="7"/>
       <c r="Q230" s="24"/>
@@ -17231,10 +17427,10 @@
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>267</v>
@@ -17269,7 +17465,7 @@
       </c>
       <c r="N231" s="11"/>
       <c r="O231" s="19" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="P231" s="7"/>
       <c r="Q231" s="24"/>
@@ -17284,16 +17480,16 @@
     </row>
     <row r="232" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D232" s="7" t="s">
         <v>1073</v>
-      </c>
-      <c r="B232" s="7" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C232" s="7" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D232" s="7" t="s">
-        <v>1074</v>
       </c>
       <c r="E232" s="18">
         <v>2023</v>
@@ -17322,7 +17518,7 @@
       </c>
       <c r="N232" s="11"/>
       <c r="O232" s="19" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="P232" s="7"/>
       <c r="Q232" s="24"/>
@@ -17375,7 +17571,7 @@
       </c>
       <c r="N233" s="11"/>
       <c r="O233" s="19" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="P233" s="7"/>
       <c r="Q233" s="24"/>
@@ -17390,10 +17586,10 @@
     </row>
     <row r="234" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B234" s="7" t="s">
         <v>1085</v>
-      </c>
-      <c r="B234" s="7" t="s">
-        <v>1086</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>144</v>
@@ -17411,7 +17607,7 @@
         <v>99</v>
       </c>
       <c r="H234" s="18" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="I234" s="18" t="s">
         <v>14</v>
@@ -17428,7 +17624,7 @@
       </c>
       <c r="N234" s="11"/>
       <c r="O234" s="19" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="P234" s="7"/>
       <c r="Q234" s="24"/>
@@ -17443,7 +17639,7 @@
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B235" s="7" t="s">
         <v>1051</v>
@@ -17464,7 +17660,7 @@
         <v>99</v>
       </c>
       <c r="H235" s="18" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="I235" s="18" t="s">
         <v>14</v>
@@ -17481,7 +17677,7 @@
       </c>
       <c r="N235" s="11"/>
       <c r="O235" s="19" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="P235" s="7"/>
       <c r="Q235" s="24"/>
@@ -17517,7 +17713,7 @@
         <v>99</v>
       </c>
       <c r="H236" s="18" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="I236" s="18" t="s">
         <v>14</v>
@@ -17534,7 +17730,7 @@
       </c>
       <c r="N236" s="11"/>
       <c r="O236" s="19" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="P236" s="7"/>
       <c r="Q236" s="24"/>
@@ -17549,16 +17745,16 @@
     </row>
     <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="E237" s="18">
         <v>2023</v>
@@ -17587,14 +17783,18 @@
       </c>
       <c r="N237" s="11"/>
       <c r="O237" s="19" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="P237" s="7"/>
       <c r="Q237" s="24"/>
       <c r="R237" s="25"/>
       <c r="S237" s="7"/>
-      <c r="T237" s="7"/>
-      <c r="U237" s="7"/>
+      <c r="T237" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="U237" s="7" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
@@ -17636,13 +17836,15 @@
       </c>
       <c r="N238" s="11"/>
       <c r="O238" s="19" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="P238" s="7"/>
       <c r="Q238" s="24"/>
       <c r="R238" s="25"/>
       <c r="S238" s="7"/>
-      <c r="T238" s="7"/>
+      <c r="T238" s="7" t="s">
+        <v>603</v>
+      </c>
       <c r="U238" s="7" t="s">
         <v>603</v>
       </c>
@@ -17655,10 +17857,10 @@
         <v>980</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="E239" s="18">
         <v>2023</v>
@@ -17687,41 +17889,43 @@
       </c>
       <c r="N239" s="11"/>
       <c r="O239" s="19" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="P239" s="7"/>
       <c r="Q239" s="24"/>
       <c r="R239" s="25"/>
       <c r="S239" s="7"/>
-      <c r="T239" s="7"/>
+      <c r="T239" s="7" t="s">
+        <v>603</v>
+      </c>
       <c r="U239" s="7" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
-        <v>1087</v>
+        <v>1246</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>1227</v>
+        <v>1247</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>1088</v>
       </c>
       <c r="D240" s="7" t="s">
-        <v>344</v>
+        <v>1089</v>
       </c>
       <c r="E240" s="18">
         <v>2023</v>
       </c>
       <c r="F240" s="18">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="G240" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H240" s="18">
-        <v>774</v>
+        <v>69</v>
+      </c>
+      <c r="H240" s="18" t="s">
+        <v>1248</v>
       </c>
       <c r="I240" s="18" t="s">
         <v>14</v>
@@ -17730,7 +17934,7 @@
         <v>14</v>
       </c>
       <c r="K240" s="42">
-        <v>45238</v>
+        <v>45232</v>
       </c>
       <c r="L240" s="42"/>
       <c r="M240" s="42" t="s">
@@ -17738,41 +17942,43 @@
       </c>
       <c r="N240" s="11"/>
       <c r="O240" s="19" t="s">
-        <v>1228</v>
+        <v>1249</v>
       </c>
       <c r="P240" s="7"/>
       <c r="Q240" s="24"/>
       <c r="R240" s="25"/>
       <c r="S240" s="7"/>
-      <c r="T240" s="7"/>
+      <c r="T240" s="7" t="s">
+        <v>603</v>
+      </c>
       <c r="U240" s="7" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="241" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
-        <v>1018</v>
+        <v>1086</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>1017</v>
+        <v>1221</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>419</v>
+        <v>1087</v>
       </c>
       <c r="D241" s="7" t="s">
-        <v>419</v>
+        <v>344</v>
       </c>
       <c r="E241" s="18">
         <v>2023</v>
       </c>
       <c r="F241" s="18">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G241" s="19" t="s">
         <v>14</v>
       </c>
       <c r="H241" s="18">
-        <v>100595</v>
+        <v>774</v>
       </c>
       <c r="I241" s="18" t="s">
         <v>14</v>
@@ -17781,7 +17987,7 @@
         <v>14</v>
       </c>
       <c r="K241" s="42">
-        <v>45261</v>
+        <v>45238</v>
       </c>
       <c r="L241" s="42"/>
       <c r="M241" s="42" t="s">
@@ -17789,7 +17995,7 @@
       </c>
       <c r="N241" s="11"/>
       <c r="O241" s="19" t="s">
-        <v>1164</v>
+        <v>1222</v>
       </c>
       <c r="P241" s="7"/>
       <c r="Q241" s="24"/>
@@ -17803,170 +18009,335 @@
       </c>
     </row>
     <row r="242" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A242" s="13" t="s">
-        <v>984</v>
-      </c>
-      <c r="B242" s="13" t="s">
-        <v>985</v>
-      </c>
-      <c r="C242" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="D242" s="13" t="s">
-        <v>987</v>
-      </c>
-      <c r="E242" s="14">
+      <c r="A242" s="7" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B242" s="7" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D242" s="7" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E242" s="18">
         <v>2023</v>
       </c>
-      <c r="F242" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G242" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H242" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I242" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J242" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K242" s="31">
-        <v>45292</v>
-      </c>
-      <c r="L242" s="31"/>
-      <c r="M242" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="N242" s="45"/>
-      <c r="O242" s="44" t="s">
-        <v>991</v>
-      </c>
-      <c r="P242" s="27"/>
+      <c r="F242" s="18">
+        <v>51</v>
+      </c>
+      <c r="G242" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H242" s="18">
+        <v>64</v>
+      </c>
+      <c r="I242" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J242" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K242" s="42">
+        <v>45245</v>
+      </c>
+      <c r="L242" s="42"/>
+      <c r="M242" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="N242" s="11"/>
+      <c r="O242" s="19" t="s">
+        <v>1230</v>
+      </c>
+      <c r="P242" s="7"/>
       <c r="Q242" s="24"/>
       <c r="R242" s="25"/>
       <c r="S242" s="7"/>
-      <c r="T242" s="7"/>
-      <c r="U242" s="7"/>
+      <c r="T242" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="U242" s="7" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="243" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A243" s="13" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B243" s="13" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C243" s="13" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D243" s="13" t="s">
-        <v>1146</v>
-      </c>
-      <c r="E243" s="14">
+      <c r="A243" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B243" s="7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="D243" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="E243" s="18">
         <v>2023</v>
       </c>
-      <c r="F243" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G243" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H243" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I243" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J243" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K243" s="31">
-        <v>45296</v>
-      </c>
-      <c r="L243" s="31"/>
-      <c r="M243" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="N243" s="45"/>
-      <c r="O243" s="44"/>
-      <c r="P243" s="27"/>
+      <c r="F243" s="18">
+        <v>17</v>
+      </c>
+      <c r="G243" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H243" s="18">
+        <v>100595</v>
+      </c>
+      <c r="I243" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J243" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K243" s="42">
+        <v>45261</v>
+      </c>
+      <c r="L243" s="42"/>
+      <c r="M243" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="N243" s="11"/>
+      <c r="O243" s="19" t="s">
+        <v>1159</v>
+      </c>
+      <c r="P243" s="7"/>
       <c r="Q243" s="24"/>
       <c r="R243" s="25"/>
       <c r="S243" s="7"/>
-      <c r="T243" s="7"/>
-      <c r="U243" s="7"/>
+      <c r="T243" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="U243" s="7" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="244" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A244" s="13" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B244" s="13" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C244" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D244" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E244" s="14">
+      <c r="A244" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="B244" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="D244" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="E244" s="18">
         <v>2023</v>
       </c>
-      <c r="F244" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G244" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H244" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I244" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J244" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K244" s="31">
-        <v>45297</v>
-      </c>
-      <c r="L244" s="31"/>
-      <c r="M244" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="N244" s="45"/>
-      <c r="O244" s="44"/>
-      <c r="P244" s="27"/>
+      <c r="F244" s="18">
+        <v>19</v>
+      </c>
+      <c r="G244" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="H244" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I244" s="18">
+        <v>743</v>
+      </c>
+      <c r="J244" s="18">
+        <v>757</v>
+      </c>
+      <c r="K244" s="42">
+        <v>45261</v>
+      </c>
+      <c r="L244" s="42"/>
+      <c r="M244" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="N244" s="11"/>
+      <c r="O244" s="19" t="s">
+        <v>991</v>
+      </c>
+      <c r="P244" s="7"/>
       <c r="Q244" s="24"/>
       <c r="R244" s="25"/>
       <c r="S244" s="7"/>
-      <c r="T244" s="7"/>
-      <c r="U244" s="7"/>
+      <c r="T244" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="U244" s="7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A245" s="13" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B245" s="13" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C245" s="13" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D245" s="13" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E245" s="14">
+        <v>2023</v>
+      </c>
+      <c r="F245" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G245" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H245" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I245" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J245" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K245" s="31">
+        <v>45658</v>
+      </c>
+      <c r="L245" s="31"/>
+      <c r="M245" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="N245" s="45"/>
+      <c r="O245" s="44"/>
+      <c r="P245" s="27"/>
+      <c r="Q245" s="24"/>
+      <c r="R245" s="25"/>
+      <c r="S245" s="7"/>
+      <c r="T245" s="7"/>
+      <c r="U245" s="7"/>
+    </row>
+    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A246" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="B246" s="13" t="s">
+        <v>972</v>
+      </c>
+      <c r="C246" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D246" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="E246" s="14">
+        <v>2023</v>
+      </c>
+      <c r="F246" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G246" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H246" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I246" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J246" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K246" s="31">
+        <v>45659</v>
+      </c>
+      <c r="L246" s="31"/>
+      <c r="M246" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="N246" s="45"/>
+      <c r="O246" s="44"/>
+      <c r="P246" s="27"/>
+      <c r="Q246" s="24"/>
+      <c r="R246" s="25"/>
+      <c r="S246" s="7"/>
+      <c r="T246" s="7"/>
+      <c r="U246" s="7"/>
+    </row>
+    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A247" s="13" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B247" s="13" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C247" s="13" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D247" s="13" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E247" s="14">
+        <v>2023</v>
+      </c>
+      <c r="F247" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G247" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H247" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I247" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J247" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K247" s="31">
+        <v>45660</v>
+      </c>
+      <c r="L247" s="31"/>
+      <c r="M247" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="N247" s="45"/>
+      <c r="O247" s="44"/>
+      <c r="P247" s="27"/>
+      <c r="Q247" s="24"/>
+      <c r="R247" s="25"/>
+      <c r="S247" s="7"/>
+      <c r="T247" s="7"/>
+      <c r="U247" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="T1:U112 T114:U231 T232:V240 T242:V1048576 V241">
-    <cfRule type="cellIs" dxfId="60" priority="29" operator="equal">
+  <conditionalFormatting sqref="T1:U112 T114:U231 T248:V1048576 V246:V247 T232:V240 V241:V242 T241:T242 T243:V245">
+    <cfRule type="cellIs" dxfId="12" priority="31" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="32" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T113:U113">
-    <cfRule type="cellIs" dxfId="58" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="29" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="30" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T241:U241">
-    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
+  <conditionalFormatting sqref="U241:U242">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T246:U247">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18332,10 +18703,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>949</v>
@@ -18357,7 +18728,7 @@
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="19" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
     </row>
   </sheetData>
@@ -18370,11 +18741,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18385,7 +18754,7 @@
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -18407,283 +18776,278 @@
       <c r="G1" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="I1" s="55">
+      <c r="I1" s="55" t="str">
+        <f ca="1">ROUND(J1/30,0)&amp;" md"</f>
+        <v>6 md</v>
+      </c>
+      <c r="J1" s="55">
         <f ca="1">AVERAGE(G:G)</f>
-        <v>195.5</v>
-      </c>
-      <c r="J1" s="54" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>179.83333333333334</v>
+      </c>
+      <c r="K1" s="54" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>971</v>
+        <v>1061</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>972</v>
+        <v>1062</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>259</v>
+        <v>25</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="10">
+        <v>44958</v>
+      </c>
+      <c r="G2" s="12">
+        <f ca="1">TODAY()-F2</f>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>1063</v>
       </c>
-      <c r="F2" s="10">
-        <v>44769</v>
-      </c>
-      <c r="G2" s="12">
-        <f t="shared" ref="G2:G13" ca="1" si="0">TODAY()-F2</f>
-        <v>476</v>
-      </c>
-      <c r="I2" s="55" t="str">
-        <f ca="1">ROUND(I1/30,0)&amp;" md"</f>
-        <v>7 md</v>
-      </c>
-      <c r="J2" s="54"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>1061</v>
-      </c>
       <c r="B3" s="7" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="10">
-        <v>44958</v>
+        <v>44959</v>
       </c>
       <c r="G3" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>287</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <f ca="1">TODAY()-F3</f>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>1064</v>
+        <v>1080</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1065</v>
+        <v>1083</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>120</v>
+        <v>1081</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>121</v>
+        <v>1082</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="10">
-        <v>44959</v>
+        <v>45013</v>
       </c>
       <c r="G4" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <f ca="1">TODAY()-F4</f>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>1081</v>
+        <v>1096</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1084</v>
+        <v>1097</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1082</v>
+        <v>1098</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1083</v>
+        <v>1099</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="10">
-        <v>45013</v>
+        <v>45037</v>
       </c>
       <c r="G5" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <f ca="1">TODAY()-F5</f>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>1089</v>
+        <v>1139</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1092</v>
+        <v>1267</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1090</v>
+        <v>89</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1091</v>
+        <v>89</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="10">
-        <v>45021</v>
+        <v>45077</v>
       </c>
       <c r="G6" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <f ca="1">TODAY()-F6</f>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>1098</v>
+        <v>1162</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1099</v>
+        <v>1163</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>1100</v>
+        <v>575</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>1101</v>
+        <v>576</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="10">
-        <v>45037</v>
+        <v>45114</v>
       </c>
       <c r="G7" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <f ca="1">TODAY()-F7</f>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>1102</v>
+        <v>1211</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1103</v>
+        <v>1212</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>1090</v>
+        <v>160</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1091</v>
+        <v>161</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="10">
-        <v>45043</v>
+        <v>45116</v>
       </c>
       <c r="G8" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <f ca="1">TODAY()-F8</f>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>1167</v>
+        <v>1181</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1168</v>
+        <v>1182</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>575</v>
+        <v>668</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>576</v>
+        <v>669</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="10">
-        <v>45114</v>
+        <v>45127</v>
       </c>
       <c r="G9" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <f ca="1">TODAY()-F9</f>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>1217</v>
+        <v>1273</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1218</v>
+        <v>1272</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>161</v>
-      </c>
+        <v>1271</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="10">
-        <v>45116</v>
+        <v>45146</v>
       </c>
       <c r="G10" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <f ca="1">TODAY()-F10</f>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>1187</v>
+        <v>1209</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1188</v>
+        <v>1220</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>668</v>
+        <v>259</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>669</v>
+        <v>262</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="10">
-        <v>45127</v>
+        <v>45208</v>
       </c>
       <c r="G11" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <f ca="1">TODAY()-F11</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1226</v>
+        <v>1217</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>259</v>
+        <v>160</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>262</v>
+        <v>161</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="10">
-        <v>45208</v>
+        <v>45229</v>
       </c>
       <c r="G12" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <f ca="1">TODAY()-F12</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>1222</v>
+        <v>1263</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1223</v>
+        <v>1264</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>160</v>
+        <v>1265</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>161</v>
+        <v>1266</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="10">
-        <v>45229</v>
+        <v>45278</v>
       </c>
       <c r="G13" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <f ca="1">TODAY()-F13</f>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -18748,7 +19112,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>8.0465753424657542</v>
+        <v>8.1561643835616433</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -18769,7 +19133,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0465753424657542</v>
+        <v>8.1561643835616433</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -18790,7 +19154,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4246575342465757</v>
+        <v>7.5342465753424657</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -18811,21 +19175,21 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>5.7945205479452051</v>
+        <v>5.904109589041096</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>1143</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>1147</v>
-      </c>
       <c r="C6" s="7" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="10">
@@ -18843,11 +19207,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18857,33 +19219,33 @@
     <col min="5" max="9" width="9.140625" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E1" s="50">
-        <f>COUNTA(E3:E998)</f>
-        <v>2</v>
+        <f>COUNTA(E3:E997)</f>
+        <v>3</v>
       </c>
       <c r="F1" s="50">
-        <f>COUNTA(F3:F998)</f>
-        <v>6</v>
+        <f>COUNTA(F3:F997)</f>
+        <v>7</v>
       </c>
       <c r="G1" s="50">
-        <f>COUNTA(G3:G998)</f>
-        <v>2</v>
+        <f>COUNTA(G3:G997)</f>
+        <v>5</v>
       </c>
       <c r="H1" s="50">
-        <f>COUNTA(H3:H998)</f>
-        <v>12</v>
+        <f>COUNTA(H3:H997)</f>
+        <v>13</v>
       </c>
       <c r="I1" s="50">
-        <f>COUNTA(I3:I998)</f>
+        <f>COUNTA(I3:I997)</f>
         <v>3</v>
       </c>
       <c r="J1" s="51">
         <f>SUM(E1:I1)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>1045</v>
       </c>
@@ -18897,7 +19259,7 @@
         <v>1047</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="F2" s="53" t="s">
         <v>1033</v>
@@ -18911,10 +19273,13 @@
       <c r="I2" s="53" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L2" s="53" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="B3" s="49" t="s">
         <v>1038</v>
@@ -18923,15 +19288,18 @@
         <v>1039</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>1044</v>
+        <v>1256</v>
       </c>
       <c r="F3" s="48" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="B4" s="49" t="s">
         <v>1040</v>
@@ -18945,10 +19313,13 @@
       <c r="I4" s="48" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="B5" s="49" t="s">
         <v>1042</v>
@@ -18962,10 +19333,13 @@
       <c r="F5" s="48" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="B6" s="49" t="s">
         <v>1052</v>
@@ -18979,16 +19353,19 @@
       <c r="H6" s="48" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="B7" s="49" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C7" s="49" t="s">
         <v>1068</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>1069</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>1044</v>
@@ -18996,84 +19373,87 @@
       <c r="H7" s="48" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B8" s="49" t="s">
         <v>1070</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="C8" s="49" t="s">
         <v>1071</v>
       </c>
-      <c r="C8" s="49" t="s">
-        <v>1072</v>
-      </c>
       <c r="D8" s="15" t="s">
-        <v>1044</v>
+        <v>1055</v>
       </c>
       <c r="G8" s="48" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>1044</v>
+        <v>1256</v>
       </c>
       <c r="F9" s="48" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>1044</v>
+        <v>1256</v>
       </c>
       <c r="G10" s="48" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>1044</v>
+        <v>1256</v>
       </c>
       <c r="I11" s="48" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>1044</v>
@@ -19082,32 +19462,32 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>1044</v>
+        <v>1256</v>
       </c>
       <c r="I13" s="48" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>1044</v>
@@ -19116,49 +19496,46 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>1068</v>
+        <v>1150</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>1069</v>
+        <v>1151</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>1044</v>
+        <v>1055</v>
       </c>
       <c r="H15" s="48" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H16" s="48" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F16" s="48" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>1044</v>
+        <v>1055</v>
       </c>
       <c r="F17" s="48" t="s">
         <v>1037</v>
@@ -19166,55 +19543,58 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>1160</v>
+        <v>1157</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>1158</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>1044</v>
       </c>
-      <c r="F18" s="48" t="s">
+      <c r="H18" s="48" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H19" s="48" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E19" s="48" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B20" s="49" t="s">
         <v>1169</v>
       </c>
-      <c r="B20" s="49" t="s">
-        <v>1171</v>
+      <c r="C20" s="49" t="s">
+        <v>1170</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>1044</v>
       </c>
-      <c r="E20" s="48" t="s">
+      <c r="H20" s="48" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="C21" s="49" t="s">
         <v>1175</v>
@@ -19228,13 +19608,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C22" s="49" t="s">
         <v>1180</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>1181</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>1044</v>
@@ -19262,13 +19642,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B24" s="49" t="s">
         <v>1191</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>1044</v>
@@ -19279,72 +19659,180 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1195</v>
+        <v>1200</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>1197</v>
+        <v>1201</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>1196</v>
+        <v>1202</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H25" s="48" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F25" s="48" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1206</v>
+        <v>1224</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>1207</v>
+        <v>1225</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>1208</v>
+        <v>1226</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>1044</v>
-      </c>
-      <c r="F26" s="48" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E26" s="48" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="D27" s="15" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F27" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E28" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>1044</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="H29" s="48" t="s">
         <v>1037</v>
       </c>
     </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G30" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H31" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G32" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G33" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E1:I1048576">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <autoFilter ref="A2:I33"/>
+  <conditionalFormatting sqref="E1:I1048576 L2">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1 D2:E1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"X"</formula>
+      <formula>"Added"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -19372,31 +19860,43 @@
     <hyperlink ref="C13" r:id="rId22"/>
     <hyperlink ref="B14" r:id="rId23"/>
     <hyperlink ref="C14" r:id="rId24"/>
-    <hyperlink ref="C15" r:id="rId25"/>
-    <hyperlink ref="B15" r:id="rId26"/>
+    <hyperlink ref="B15" r:id="rId25"/>
+    <hyperlink ref="C15" r:id="rId26"/>
     <hyperlink ref="B16" r:id="rId27"/>
-    <hyperlink ref="C16" r:id="rId28"/>
-    <hyperlink ref="B17" r:id="rId29"/>
-    <hyperlink ref="B18" r:id="rId30"/>
+    <hyperlink ref="B17" r:id="rId28"/>
+    <hyperlink ref="B18" r:id="rId29"/>
+    <hyperlink ref="C18" r:id="rId30"/>
     <hyperlink ref="B19" r:id="rId31"/>
-    <hyperlink ref="C19" r:id="rId32"/>
-    <hyperlink ref="B20" r:id="rId33"/>
-    <hyperlink ref="B21" r:id="rId34"/>
-    <hyperlink ref="C21" r:id="rId35"/>
-    <hyperlink ref="C22" r:id="rId36"/>
-    <hyperlink ref="B22" r:id="rId37"/>
+    <hyperlink ref="B20" r:id="rId32"/>
+    <hyperlink ref="C20" r:id="rId33"/>
+    <hyperlink ref="C21" r:id="rId34"/>
+    <hyperlink ref="B21" r:id="rId35"/>
+    <hyperlink ref="B22" r:id="rId36"/>
+    <hyperlink ref="C22" r:id="rId37"/>
     <hyperlink ref="B23" r:id="rId38"/>
     <hyperlink ref="C23" r:id="rId39"/>
-    <hyperlink ref="B24" r:id="rId40"/>
-    <hyperlink ref="C24" r:id="rId41"/>
-    <hyperlink ref="C25" r:id="rId42"/>
-    <hyperlink ref="B25" r:id="rId43"/>
-    <hyperlink ref="B26" r:id="rId44"/>
-    <hyperlink ref="C26" r:id="rId45"/>
-    <hyperlink ref="C27" r:id="rId46"/>
-    <hyperlink ref="B27" r:id="rId47"/>
+    <hyperlink ref="C24" r:id="rId40"/>
+    <hyperlink ref="B24" r:id="rId41"/>
+    <hyperlink ref="B25" r:id="rId42"/>
+    <hyperlink ref="C25" r:id="rId43"/>
+    <hyperlink ref="C26" r:id="rId44"/>
+    <hyperlink ref="B26" r:id="rId45"/>
+    <hyperlink ref="B27" r:id="rId46"/>
+    <hyperlink ref="C27" r:id="rId47"/>
+    <hyperlink ref="B28" r:id="rId48"/>
+    <hyperlink ref="C28" r:id="rId49"/>
+    <hyperlink ref="B29" r:id="rId50"/>
+    <hyperlink ref="C29" r:id="rId51"/>
+    <hyperlink ref="C30" r:id="rId52"/>
+    <hyperlink ref="B30" r:id="rId53"/>
+    <hyperlink ref="B31" r:id="rId54"/>
+    <hyperlink ref="C31" r:id="rId55"/>
+    <hyperlink ref="B32" r:id="rId56"/>
+    <hyperlink ref="C32" r:id="rId57"/>
+    <hyperlink ref="B33" r:id="rId58"/>
+    <hyperlink ref="C33" r:id="rId59"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId48"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId60"/>
 </worksheet>
 </file>
--- a/publications.xlsx
+++ b/publications.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="papers" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3068" uniqueCount="1274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3080" uniqueCount="1280">
   <si>
     <t>title</t>
   </si>
@@ -3850,6 +3850,24 @@
   </si>
   <si>
     <t>Methodology for assessing the impact of local traffic interventions on disease burden: a case study on paediatric asthma incidence in European cities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1136/jech-2023-220751 </t>
+  </si>
+  <si>
+    <t>Area and individual level analyses of  the impact of demographic and socio-economic factors on COVID-19 vaccination uptake in Belgium</t>
+  </si>
+  <si>
+    <t>Hubin, Pierre; Van den Borre, Laura; Braeye, Toon; Cavillot, Lisa; Billuart, Matthieu; Stouten, Veerle; Nasiadka, Léonore; Vermeiren, Elias; Van Evercooren, Izaak; Devleesschauwer, Brecht; Catteau, Lucy; van Loenhout, Joris A F</t>
+  </si>
+  <si>
+    <t>Vaccine: X</t>
+  </si>
+  <si>
+    <t>Vaccine X</t>
+  </si>
+  <si>
+    <t>10.1007/s10389-023-02180-0</t>
   </si>
 </sst>
 </file>
@@ -4139,7 +4157,7 @@
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="64">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -4267,46 +4285,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4488,74 +4466,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U247" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
-  <autoFilter ref="A1:U247"/>
-  <sortState ref="A2:U246">
-    <sortCondition ref="K1:K246"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U248" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+  <autoFilter ref="A1:U248"/>
+  <sortState ref="A2:U248">
+    <sortCondition ref="K1:K248"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" name="title" dataDxfId="65"/>
-    <tableColumn id="2" name="authors" dataDxfId="64"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="63"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="62"/>
-    <tableColumn id="6" name="year" dataDxfId="61"/>
-    <tableColumn id="4" name="volume" dataDxfId="60"/>
-    <tableColumn id="5" name="issue" dataDxfId="59"/>
-    <tableColumn id="7" name="eID" dataDxfId="58"/>
-    <tableColumn id="8" name="from" dataDxfId="57"/>
-    <tableColumn id="9" name="to" dataDxfId="56"/>
-    <tableColumn id="10" name="date" dataDxfId="55"/>
-    <tableColumn id="19" name="date_submitted" dataDxfId="54" dataCellStyle="Neutral"/>
-    <tableColumn id="14" name="classification" dataDxfId="53"/>
-    <tableColumn id="12" name="IF" dataDxfId="52"/>
-    <tableColumn id="13" name="DOI" dataDxfId="51"/>
-    <tableColumn id="15" name="WoS" dataDxfId="50"/>
-    <tableColumn id="16" name="rank" dataDxfId="49"/>
-    <tableColumn id="17" name="quartile" dataDxfId="48"/>
-    <tableColumn id="18" name="category" dataDxfId="47"/>
-    <tableColumn id="20" name="SC" dataDxfId="46"/>
-    <tableColumn id="21" name="UGent" dataDxfId="45"/>
+    <tableColumn id="1" name="title" dataDxfId="61"/>
+    <tableColumn id="2" name="authors" dataDxfId="60"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="59"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="58"/>
+    <tableColumn id="6" name="year" dataDxfId="57"/>
+    <tableColumn id="4" name="volume" dataDxfId="56"/>
+    <tableColumn id="5" name="issue" dataDxfId="55"/>
+    <tableColumn id="7" name="eID" dataDxfId="54"/>
+    <tableColumn id="8" name="from" dataDxfId="53"/>
+    <tableColumn id="9" name="to" dataDxfId="52"/>
+    <tableColumn id="10" name="date" dataDxfId="51"/>
+    <tableColumn id="19" name="date_submitted" dataDxfId="50" dataCellStyle="Neutral"/>
+    <tableColumn id="14" name="classification" dataDxfId="49"/>
+    <tableColumn id="12" name="IF" dataDxfId="48"/>
+    <tableColumn id="13" name="DOI" dataDxfId="47"/>
+    <tableColumn id="15" name="WoS" dataDxfId="46"/>
+    <tableColumn id="16" name="rank" dataDxfId="45"/>
+    <tableColumn id="17" name="quartile" dataDxfId="44"/>
+    <tableColumn id="18" name="category" dataDxfId="43"/>
+    <tableColumn id="20" name="SC" dataDxfId="42"/>
+    <tableColumn id="21" name="UGent" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J12" totalsRowShown="0" headerRowDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J12" totalsRowShown="0" headerRowDxfId="40">
   <autoFilter ref="A1:J12"/>
   <sortState ref="A2:N50">
     <sortCondition ref="H1:H50"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="title" dataDxfId="43"/>
-    <tableColumn id="2" name="authors" dataDxfId="42"/>
-    <tableColumn id="3" name="editors" dataDxfId="41"/>
-    <tableColumn id="11" name="book" dataDxfId="40"/>
-    <tableColumn id="6" name="year" dataDxfId="39"/>
-    <tableColumn id="8" name="from" dataDxfId="38"/>
-    <tableColumn id="9" name="to" dataDxfId="37"/>
-    <tableColumn id="10" name="date" dataDxfId="36"/>
-    <tableColumn id="12" name="IF" dataDxfId="35"/>
-    <tableColumn id="13" name="DOI" dataDxfId="34"/>
+    <tableColumn id="1" name="title" dataDxfId="39"/>
+    <tableColumn id="2" name="authors" dataDxfId="38"/>
+    <tableColumn id="3" name="editors" dataDxfId="37"/>
+    <tableColumn id="11" name="book" dataDxfId="36"/>
+    <tableColumn id="6" name="year" dataDxfId="35"/>
+    <tableColumn id="8" name="from" dataDxfId="34"/>
+    <tableColumn id="9" name="to" dataDxfId="33"/>
+    <tableColumn id="10" name="date" dataDxfId="32"/>
+    <tableColumn id="12" name="IF" dataDxfId="31"/>
+    <tableColumn id="13" name="DOI" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G13" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G13" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:G13"/>
-  <sortState ref="A2:G13">
-    <sortCondition ref="F1:F13"/>
+  <sortState ref="A2:G14">
+    <sortCondition ref="F1:F14"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="title" dataDxfId="31"/>
-    <tableColumn id="2" name="authors" dataDxfId="30"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="29"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="28"/>
-    <tableColumn id="4" name="doi_preprint" dataDxfId="27"/>
-    <tableColumn id="10" name="date" dataDxfId="26"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="25">
+    <tableColumn id="1" name="title" dataDxfId="27"/>
+    <tableColumn id="2" name="authors" dataDxfId="26"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="25"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="24"/>
+    <tableColumn id="4" name="doi_preprint" dataDxfId="23"/>
+    <tableColumn id="10" name="date" dataDxfId="22"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="21">
       <calculatedColumnFormula>TODAY()-F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4564,18 +4542,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:F5"/>
   <sortState ref="A2:K14">
     <sortCondition ref="E1:E14"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="title" dataDxfId="22"/>
-    <tableColumn id="2" name="authors" dataDxfId="21"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="20"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="19"/>
-    <tableColumn id="10" name="date" dataDxfId="18"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="17">
+    <tableColumn id="1" name="title" dataDxfId="18"/>
+    <tableColumn id="2" name="authors" dataDxfId="17"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="16"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="15"/>
+    <tableColumn id="10" name="date" dataDxfId="14"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="13">
       <calculatedColumnFormula>(TODAY()-E2)/365</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4870,10 +4848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U247"/>
+  <dimension ref="A1:U248"/>
   <sheetViews>
-    <sheetView topLeftCell="A209" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A247" sqref="A247"/>
+    <sheetView topLeftCell="A210" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A248" sqref="A248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18169,16 +18147,16 @@
     </row>
     <row r="245" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A245" s="13" t="s">
-        <v>1091</v>
+        <v>971</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>1210</v>
+        <v>972</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>1141</v>
+        <v>259</v>
       </c>
       <c r="D245" s="13" t="s">
-        <v>1142</v>
+        <v>262</v>
       </c>
       <c r="E245" s="14">
         <v>2023</v>
@@ -18199,14 +18177,16 @@
         <v>14</v>
       </c>
       <c r="K245" s="31">
-        <v>45658</v>
+        <v>45286</v>
       </c>
       <c r="L245" s="31"/>
       <c r="M245" s="31" t="s">
         <v>273</v>
       </c>
       <c r="N245" s="45"/>
-      <c r="O245" s="44"/>
+      <c r="O245" s="44" t="s">
+        <v>1274</v>
+      </c>
       <c r="P245" s="27"/>
       <c r="Q245" s="24"/>
       <c r="R245" s="25"/>
@@ -18216,16 +18196,16 @@
     </row>
     <row r="246" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A246" s="13" t="s">
-        <v>971</v>
+        <v>1096</v>
       </c>
       <c r="B246" s="13" t="s">
-        <v>972</v>
+        <v>1097</v>
       </c>
       <c r="C246" s="13" t="s">
-        <v>259</v>
+        <v>1098</v>
       </c>
       <c r="D246" s="13" t="s">
-        <v>262</v>
+        <v>1099</v>
       </c>
       <c r="E246" s="14">
         <v>2023</v>
@@ -18246,14 +18226,16 @@
         <v>14</v>
       </c>
       <c r="K246" s="31">
-        <v>45659</v>
+        <v>45288</v>
       </c>
       <c r="L246" s="31"/>
       <c r="M246" s="31" t="s">
         <v>273</v>
       </c>
       <c r="N246" s="45"/>
-      <c r="O246" s="44"/>
+      <c r="O246" s="44" t="s">
+        <v>1279</v>
+      </c>
       <c r="P246" s="27"/>
       <c r="Q246" s="24"/>
       <c r="R246" s="25"/>
@@ -18263,16 +18245,16 @@
     </row>
     <row r="247" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A247" s="13" t="s">
-        <v>1268</v>
+        <v>1091</v>
       </c>
       <c r="B247" s="13" t="s">
-        <v>1090</v>
+        <v>1210</v>
       </c>
       <c r="C247" s="13" t="s">
-        <v>1269</v>
+        <v>1141</v>
       </c>
       <c r="D247" s="13" t="s">
-        <v>1270</v>
+        <v>1142</v>
       </c>
       <c r="E247" s="14">
         <v>2023</v>
@@ -18293,7 +18275,7 @@
         <v>14</v>
       </c>
       <c r="K247" s="31">
-        <v>45660</v>
+        <v>45658</v>
       </c>
       <c r="L247" s="31"/>
       <c r="M247" s="31" t="s">
@@ -18307,6 +18289,53 @@
       <c r="S247" s="7"/>
       <c r="T247" s="7"/>
       <c r="U247" s="7"/>
+    </row>
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A248" s="13" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B248" s="13" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C248" s="13" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D248" s="13" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E248" s="14">
+        <v>2023</v>
+      </c>
+      <c r="F248" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G248" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H248" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I248" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J248" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K248" s="31">
+        <v>45660</v>
+      </c>
+      <c r="L248" s="31"/>
+      <c r="M248" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="N248" s="45"/>
+      <c r="O248" s="44"/>
+      <c r="P248" s="27"/>
+      <c r="Q248" s="24"/>
+      <c r="R248" s="25"/>
+      <c r="S248" s="7"/>
+      <c r="T248" s="7"/>
+      <c r="U248" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="T1:U112 T114:U231 T248:V1048576 V246:V247 T232:V240 V241:V242 T241:T242 T243:V245">
@@ -18743,7 +18772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18778,11 +18807,11 @@
       </c>
       <c r="I1" s="55" t="str">
         <f ca="1">ROUND(J1/30,0)&amp;" md"</f>
-        <v>6 md</v>
+        <v>5 md</v>
       </c>
       <c r="J1" s="55">
         <f ca="1">AVERAGE(G:G)</f>
-        <v>179.83333333333334</v>
+        <v>164.66666666666666</v>
       </c>
       <c r="K1" s="54" t="s">
         <v>1167</v>
@@ -18806,8 +18835,8 @@
         <v>44958</v>
       </c>
       <c r="G2" s="12">
-        <f ca="1">TODAY()-F2</f>
-        <v>327</v>
+        <f t="shared" ref="G2:G13" ca="1" si="0">TODAY()-F2</f>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -18828,8 +18857,8 @@
         <v>44959</v>
       </c>
       <c r="G3" s="12">
-        <f ca="1">TODAY()-F3</f>
-        <v>326</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -18850,182 +18879,182 @@
         <v>45013</v>
       </c>
       <c r="G4" s="12">
-        <f ca="1">TODAY()-F4</f>
-        <v>272</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>1096</v>
+        <v>1139</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1097</v>
+        <v>1267</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1098</v>
+        <v>89</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1099</v>
+        <v>89</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="10">
-        <v>45037</v>
+        <v>45077</v>
       </c>
       <c r="G5" s="12">
-        <f ca="1">TODAY()-F5</f>
-        <v>248</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>1139</v>
+        <v>1162</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1267</v>
+        <v>1163</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>89</v>
+        <v>575</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>89</v>
+        <v>576</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="10">
-        <v>45077</v>
+        <v>45114</v>
       </c>
       <c r="G6" s="12">
-        <f ca="1">TODAY()-F6</f>
-        <v>208</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>1162</v>
+        <v>1211</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1163</v>
+        <v>1212</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>575</v>
+        <v>160</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>576</v>
+        <v>161</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="10">
-        <v>45114</v>
+        <v>45116</v>
       </c>
       <c r="G7" s="12">
-        <f ca="1">TODAY()-F7</f>
-        <v>171</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>1211</v>
+        <v>1181</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1212</v>
+        <v>1182</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>160</v>
+        <v>668</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>161</v>
+        <v>669</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="10">
-        <v>45116</v>
+        <v>45127</v>
       </c>
       <c r="G8" s="12">
-        <f ca="1">TODAY()-F8</f>
-        <v>169</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>1181</v>
+        <v>1273</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1182</v>
+        <v>1272</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>669</v>
-      </c>
+        <v>1271</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="10">
-        <v>45127</v>
+        <v>45146</v>
       </c>
       <c r="G9" s="12">
-        <f ca="1">TODAY()-F9</f>
-        <v>158</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>1273</v>
+        <v>1209</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1272</v>
+        <v>1220</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1271</v>
-      </c>
-      <c r="D10" s="7"/>
+        <v>259</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>262</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="10">
-        <v>45146</v>
+        <v>45208</v>
       </c>
       <c r="G10" s="12">
-        <f ca="1">TODAY()-F10</f>
-        <v>139</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>1209</v>
+        <v>1216</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>259</v>
+        <v>160</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>262</v>
+        <v>161</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="10">
-        <v>45208</v>
+        <v>45229</v>
       </c>
       <c r="G11" s="12">
-        <f ca="1">TODAY()-F11</f>
-        <v>77</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>1216</v>
+        <v>1275</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1217</v>
+        <v>1276</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>160</v>
+        <v>1277</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>161</v>
+        <v>1278</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="10">
-        <v>45229</v>
+        <v>45267</v>
       </c>
       <c r="G12" s="12">
-        <f ca="1">TODAY()-F12</f>
-        <v>56</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -19046,8 +19075,8 @@
         <v>45278</v>
       </c>
       <c r="G13" s="12">
-        <f ca="1">TODAY()-F13</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -19112,7 +19141,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>8.1561643835616433</v>
+        <v>8.1671232876712327</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -19133,7 +19162,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1561643835616433</v>
+        <v>8.1671232876712327</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -19154,7 +19183,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5342465753424657</v>
+        <v>7.5452054794520551</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -19175,7 +19204,7 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>5.904109589041096</v>
+        <v>5.9150684931506845</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -19209,7 +19238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="papers" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3080" uniqueCount="1280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3097" uniqueCount="1285">
   <si>
     <t>title</t>
   </si>
@@ -3868,6 +3868,21 @@
   </si>
   <si>
     <t>10.1007/s10389-023-02180-0</t>
+  </si>
+  <si>
+    <t>J. Transp. Health</t>
+  </si>
+  <si>
+    <t>Implications of sectorial spatial-seasonal air pollution patterns for source allocation and public health policy making</t>
+  </si>
+  <si>
+    <t>Environmental Health Perspectives</t>
+  </si>
+  <si>
+    <t>Environ. Health Perspect.</t>
+  </si>
+  <si>
+    <t>Vandeninden, Bram; Bouland, Catherine; Devleesschauwer, Brecht; Vanpoucke, Charlotte; Hooyberghs, Hans; Otavova, Martina; Faes, Christel; De Clercq, Eva M.</t>
   </si>
 </sst>
 </file>
@@ -4466,8 +4481,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U248" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
-  <autoFilter ref="A1:U248"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U250" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+  <autoFilter ref="A1:U250"/>
   <sortState ref="A2:U248">
     <sortCondition ref="K1:K248"/>
   </sortState>
@@ -4521,8 +4536,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G13" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="A1:G13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G12" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:G12"/>
   <sortState ref="A2:G14">
     <sortCondition ref="F1:F14"/>
   </sortState>
@@ -4848,10 +4863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U248"/>
+  <dimension ref="A1:U250"/>
   <sheetViews>
-    <sheetView topLeftCell="A210" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A248" sqref="A248"/>
+    <sheetView tabSelected="1" topLeftCell="A212" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A250" sqref="A250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18159,7 +18174,7 @@
         <v>262</v>
       </c>
       <c r="E245" s="14">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F245" s="43" t="s">
         <v>14</v>
@@ -18208,7 +18223,7 @@
         <v>1099</v>
       </c>
       <c r="E246" s="14">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F246" s="43" t="s">
         <v>14</v>
@@ -18257,7 +18272,7 @@
         <v>1142</v>
       </c>
       <c r="E247" s="14">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F247" s="43" t="s">
         <v>14</v>
@@ -18304,7 +18319,7 @@
         <v>1270</v>
       </c>
       <c r="E248" s="14">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F248" s="43" t="s">
         <v>14</v>
@@ -18322,7 +18337,7 @@
         <v>14</v>
       </c>
       <c r="K248" s="31">
-        <v>45660</v>
+        <v>45659</v>
       </c>
       <c r="L248" s="31"/>
       <c r="M248" s="31" t="s">
@@ -18336,6 +18351,100 @@
       <c r="S248" s="7"/>
       <c r="T248" s="7"/>
       <c r="U248" s="7"/>
+    </row>
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A249" s="13" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B249" s="13" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C249" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D249" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E249" s="14">
+        <v>2024</v>
+      </c>
+      <c r="F249" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G249" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H249" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I249" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J249" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K249" s="31">
+        <v>45660</v>
+      </c>
+      <c r="L249" s="31"/>
+      <c r="M249" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="N249" s="45"/>
+      <c r="O249" s="44"/>
+      <c r="P249" s="27"/>
+      <c r="Q249" s="24"/>
+      <c r="R249" s="25"/>
+      <c r="S249" s="7"/>
+      <c r="T249" s="7"/>
+      <c r="U249" s="7"/>
+    </row>
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A250" s="13" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B250" s="13" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C250" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D250" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E250" s="14">
+        <v>2024</v>
+      </c>
+      <c r="F250" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G250" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H250" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I250" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J250" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K250" s="31">
+        <v>45661</v>
+      </c>
+      <c r="L250" s="31"/>
+      <c r="M250" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="N250" s="45"/>
+      <c r="O250" s="44"/>
+      <c r="P250" s="27"/>
+      <c r="Q250" s="24"/>
+      <c r="R250" s="25"/>
+      <c r="S250" s="7"/>
+      <c r="T250" s="7"/>
+      <c r="U250" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="T1:U112 T114:U231 T248:V1048576 V246:V247 T232:V240 V241:V242 T241:T242 T243:V245">
@@ -18770,9 +18879,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18807,11 +18916,11 @@
       </c>
       <c r="I1" s="55" t="str">
         <f ca="1">ROUND(J1/30,0)&amp;" md"</f>
-        <v>5 md</v>
+        <v>6 md</v>
       </c>
       <c r="J1" s="55">
         <f ca="1">AVERAGE(G:G)</f>
-        <v>164.66666666666666</v>
+        <v>172.54545454545453</v>
       </c>
       <c r="K1" s="54" t="s">
         <v>1167</v>
@@ -18835,8 +18944,8 @@
         <v>44958</v>
       </c>
       <c r="G2" s="12">
-        <f t="shared" ref="G2:G13" ca="1" si="0">TODAY()-F2</f>
-        <v>331</v>
+        <f ca="1">TODAY()-F2</f>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -18857,8 +18966,8 @@
         <v>44959</v>
       </c>
       <c r="G3" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>330</v>
+        <f ca="1">TODAY()-F3</f>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -18879,8 +18988,8 @@
         <v>45013</v>
       </c>
       <c r="G4" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>276</v>
+        <f ca="1">TODAY()-F4</f>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -18901,8 +19010,8 @@
         <v>45077</v>
       </c>
       <c r="G5" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>212</v>
+        <f ca="1">TODAY()-F5</f>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -18923,160 +19032,140 @@
         <v>45114</v>
       </c>
       <c r="G6" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>175</v>
+        <f ca="1">TODAY()-F6</f>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>1211</v>
+        <v>1181</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1212</v>
+        <v>1182</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>160</v>
+        <v>668</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>161</v>
+        <v>669</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="10">
-        <v>45116</v>
+        <v>45127</v>
       </c>
       <c r="G7" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <f ca="1">TODAY()-F7</f>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>1181</v>
+        <v>1273</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1182</v>
+        <v>1272</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>668</v>
+        <v>1271</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>669</v>
+        <v>1280</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="10">
-        <v>45127</v>
+        <v>45146</v>
       </c>
       <c r="G8" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>162</v>
+        <f ca="1">TODAY()-F8</f>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>1273</v>
+        <v>1209</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1272</v>
+        <v>1220</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1271</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>259</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>262</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="10">
-        <v>45146</v>
+        <v>45208</v>
       </c>
       <c r="G9" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>143</v>
+        <f ca="1">TODAY()-F9</f>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>1209</v>
+        <v>1275</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1220</v>
+        <v>1276</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>259</v>
+        <v>1277</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>262</v>
+        <v>1278</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="10">
-        <v>45208</v>
+        <v>45267</v>
       </c>
       <c r="G10" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <f ca="1">TODAY()-F10</f>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>1216</v>
+        <v>1263</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1217</v>
+        <v>1264</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>160</v>
+        <v>1265</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>161</v>
+        <v>1266</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="10">
-        <v>45229</v>
+        <v>45278</v>
       </c>
       <c r="G11" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <f ca="1">TODAY()-F11</f>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>1275</v>
+        <v>1281</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1276</v>
+        <v>1284</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1277</v>
+        <v>1282</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1278</v>
+        <v>1283</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="10">
-        <v>45267</v>
+        <v>45299</v>
       </c>
       <c r="G12" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>1265</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>1266</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="10">
-        <v>45278</v>
-      </c>
-      <c r="G13" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <f ca="1">TODAY()-F12</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -19141,7 +19230,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>8.1671232876712327</v>
+        <v>8.2082191780821923</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -19162,7 +19251,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1671232876712327</v>
+        <v>8.2082191780821923</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -19183,7 +19272,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5452054794520551</v>
+        <v>7.5863013698630137</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -19204,7 +19293,7 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>5.9150684931506845</v>
+        <v>5.956164383561644</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -19238,7 +19327,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3097" uniqueCount="1285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3118" uniqueCount="1294">
   <si>
     <t>title</t>
   </si>
@@ -3273,12 +3273,6 @@
     <t>Cluster pattern analysis of environmental stressors and quantifying their impact on all-cause mortality in Belgium</t>
   </si>
   <si>
-    <t>International Journal of Health Geographics</t>
-  </si>
-  <si>
-    <t>Int. J. Health Geogr.</t>
-  </si>
-  <si>
     <t>Vandeninden, Bram; De Clercq, Eva; Devleesschauwer, Brecht; Otavova, Martina; Bouland, Catherine; Faes, Christel</t>
   </si>
   <si>
@@ -3825,12 +3819,6 @@
     <t>Van den Borre, Laura; Gadeyne, Sylvie; Devleesschauwer, Brecht; Vanthomme, Katrien</t>
   </si>
   <si>
-    <t>SSM - Population Health</t>
-  </si>
-  <si>
-    <t>SSM - Popul. Health</t>
-  </si>
-  <si>
     <t>Santos, João Vasco; Padron Monedero, Alicia; Bikbov, Boris; Grad, Diana Alecsandra; Plass, Dietrich; Mechili, Enkeleint A; Gazzelloni, Federica; Fischer, Florian; Sulo, Gerhard; Ngwa, Che Henry; Noguer-Zambrano, Isabel; Peñalvo, José Luis; Haagsma, Juanita A; Kissmiova-Skarbek, Katarzyna; Monasta, Lorenzo; Ghith, Nermin; Sarmiento-Suarez, Rodrigo; Hrzic, Rok; Haneef, Romana; O'Caoimh, Rónán; Cuschieri, Sarah; Mondello, Stefania; Kabir, Zubair; Freitas, Alberto; Devleesschauwer, Brecht; GBD 2019 EU State of Health Collaborators</t>
   </si>
   <si>
@@ -3883,6 +3871,45 @@
   </si>
   <si>
     <t>Vandeninden, Bram; Bouland, Catherine; Devleesschauwer, Brecht; Vanpoucke, Charlotte; Hooyberghs, Hans; Otavova, Martina; Faes, Christel; De Clercq, Eva M.</t>
+  </si>
+  <si>
+    <t>Assessing mental health from registry data: What is the best proxy?</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijmedinf.2024.105340</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/38244479/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impact of short-term exposure to air pollution on natural mortality and vulnerable populations: a multi-city case-crossover analysis in Belgium </t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/38267996/</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12940-024-01050-w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1002/cam4.6659 </t>
+  </si>
+  <si>
+    <t>Standardised reporting of burden of disease studies: the STROBOD statement</t>
+  </si>
+  <si>
+    <t>Devleesschauwer, Brecht; Charalampous, Periklis; Gorasso, Vanessa; Assunção, Ricardo; Grant, Ian; Hilderink, Henk; Idavain, Jane; Lesnik, Tina; Santric-Milicevic, Milena; Pallari, Elena; Pires, Sara Monteiro; Plass, Dietrich; Wyper, Grant M A; von der Lippe, Elena; Haagsma, Juanita A</t>
+  </si>
+  <si>
+    <t>e0011904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pntd.0011904 </t>
+  </si>
+  <si>
+    <t>e0011898</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pntd.0011898</t>
   </si>
 </sst>
 </file>
@@ -4224,86 +4251,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -4467,6 +4414,86 @@
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -4481,74 +4508,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U250" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
-  <autoFilter ref="A1:U250"/>
-  <sortState ref="A2:U248">
-    <sortCondition ref="K1:K248"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U251" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+  <autoFilter ref="A1:U251"/>
+  <sortState ref="A2:U251">
+    <sortCondition ref="K1:K251"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" name="title" dataDxfId="61"/>
-    <tableColumn id="2" name="authors" dataDxfId="60"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="59"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="58"/>
-    <tableColumn id="6" name="year" dataDxfId="57"/>
-    <tableColumn id="4" name="volume" dataDxfId="56"/>
-    <tableColumn id="5" name="issue" dataDxfId="55"/>
-    <tableColumn id="7" name="eID" dataDxfId="54"/>
-    <tableColumn id="8" name="from" dataDxfId="53"/>
-    <tableColumn id="9" name="to" dataDxfId="52"/>
-    <tableColumn id="10" name="date" dataDxfId="51"/>
-    <tableColumn id="19" name="date_submitted" dataDxfId="50" dataCellStyle="Neutral"/>
-    <tableColumn id="14" name="classification" dataDxfId="49"/>
-    <tableColumn id="12" name="IF" dataDxfId="48"/>
-    <tableColumn id="13" name="DOI" dataDxfId="47"/>
-    <tableColumn id="15" name="WoS" dataDxfId="46"/>
-    <tableColumn id="16" name="rank" dataDxfId="45"/>
-    <tableColumn id="17" name="quartile" dataDxfId="44"/>
-    <tableColumn id="18" name="category" dataDxfId="43"/>
-    <tableColumn id="20" name="SC" dataDxfId="42"/>
-    <tableColumn id="21" name="UGent" dataDxfId="41"/>
+    <tableColumn id="1" name="title" dataDxfId="53"/>
+    <tableColumn id="2" name="authors" dataDxfId="52"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="51"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="50"/>
+    <tableColumn id="6" name="year" dataDxfId="49"/>
+    <tableColumn id="4" name="volume" dataDxfId="48"/>
+    <tableColumn id="5" name="issue" dataDxfId="47"/>
+    <tableColumn id="7" name="eID" dataDxfId="46"/>
+    <tableColumn id="8" name="from" dataDxfId="45"/>
+    <tableColumn id="9" name="to" dataDxfId="44"/>
+    <tableColumn id="10" name="date" dataDxfId="43"/>
+    <tableColumn id="19" name="date_submitted" dataDxfId="42" dataCellStyle="Neutral"/>
+    <tableColumn id="14" name="classification" dataDxfId="41"/>
+    <tableColumn id="12" name="IF" dataDxfId="40"/>
+    <tableColumn id="13" name="DOI" dataDxfId="39"/>
+    <tableColumn id="15" name="WoS" dataDxfId="38"/>
+    <tableColumn id="16" name="rank" dataDxfId="37"/>
+    <tableColumn id="17" name="quartile" dataDxfId="36"/>
+    <tableColumn id="18" name="category" dataDxfId="35"/>
+    <tableColumn id="20" name="SC" dataDxfId="34"/>
+    <tableColumn id="21" name="UGent" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J12" totalsRowShown="0" headerRowDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J12" totalsRowShown="0" headerRowDxfId="32">
   <autoFilter ref="A1:J12"/>
   <sortState ref="A2:N50">
     <sortCondition ref="H1:H50"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="title" dataDxfId="39"/>
-    <tableColumn id="2" name="authors" dataDxfId="38"/>
-    <tableColumn id="3" name="editors" dataDxfId="37"/>
-    <tableColumn id="11" name="book" dataDxfId="36"/>
-    <tableColumn id="6" name="year" dataDxfId="35"/>
-    <tableColumn id="8" name="from" dataDxfId="34"/>
-    <tableColumn id="9" name="to" dataDxfId="33"/>
-    <tableColumn id="10" name="date" dataDxfId="32"/>
-    <tableColumn id="12" name="IF" dataDxfId="31"/>
-    <tableColumn id="13" name="DOI" dataDxfId="30"/>
+    <tableColumn id="1" name="title" dataDxfId="31"/>
+    <tableColumn id="2" name="authors" dataDxfId="30"/>
+    <tableColumn id="3" name="editors" dataDxfId="29"/>
+    <tableColumn id="11" name="book" dataDxfId="28"/>
+    <tableColumn id="6" name="year" dataDxfId="27"/>
+    <tableColumn id="8" name="from" dataDxfId="26"/>
+    <tableColumn id="9" name="to" dataDxfId="25"/>
+    <tableColumn id="10" name="date" dataDxfId="24"/>
+    <tableColumn id="12" name="IF" dataDxfId="23"/>
+    <tableColumn id="13" name="DOI" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G12" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G12" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:G12"/>
-  <sortState ref="A2:G14">
-    <sortCondition ref="F1:F14"/>
+  <sortState ref="A2:G12">
+    <sortCondition ref="F1:F12"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="title" dataDxfId="27"/>
-    <tableColumn id="2" name="authors" dataDxfId="26"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="25"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="24"/>
-    <tableColumn id="4" name="doi_preprint" dataDxfId="23"/>
-    <tableColumn id="10" name="date" dataDxfId="22"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="21">
+    <tableColumn id="1" name="title" dataDxfId="19"/>
+    <tableColumn id="2" name="authors" dataDxfId="18"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="17"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="16"/>
+    <tableColumn id="4" name="doi_preprint" dataDxfId="15"/>
+    <tableColumn id="10" name="date" dataDxfId="14"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="13">
       <calculatedColumnFormula>TODAY()-F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4557,18 +4584,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:F5"/>
   <sortState ref="A2:K14">
     <sortCondition ref="E1:E14"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="title" dataDxfId="18"/>
-    <tableColumn id="2" name="authors" dataDxfId="17"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="16"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="15"/>
-    <tableColumn id="10" name="date" dataDxfId="14"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="13">
+    <tableColumn id="1" name="title" dataDxfId="10"/>
+    <tableColumn id="2" name="authors" dataDxfId="9"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="8"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="7"/>
+    <tableColumn id="10" name="date" dataDxfId="6"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="5">
       <calculatedColumnFormula>(TODAY()-E2)/365</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4863,10 +4890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U250"/>
+  <dimension ref="A1:U251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A250" sqref="A250"/>
+    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A246" sqref="A246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4921,7 +4948,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>272</v>
@@ -16784,7 +16811,7 @@
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B219" s="7" t="s">
         <v>766</v>
@@ -16822,7 +16849,7 @@
       </c>
       <c r="N219" s="11"/>
       <c r="O219" s="19" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="P219" s="7"/>
       <c r="Q219" s="24"/>
@@ -16875,7 +16902,7 @@
       </c>
       <c r="N220" s="11"/>
       <c r="O220" s="19" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="P220" s="7"/>
       <c r="Q220" s="24"/>
@@ -16911,7 +16938,7 @@
         <v>92</v>
       </c>
       <c r="H221" s="18" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="I221" s="18" t="s">
         <v>14</v>
@@ -16928,7 +16955,7 @@
       </c>
       <c r="N221" s="11"/>
       <c r="O221" s="19" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="P221" s="7"/>
       <c r="Q221" s="24"/>
@@ -16943,7 +16970,7 @@
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B222" s="7" t="s">
         <v>1013</v>
@@ -16981,7 +17008,7 @@
       </c>
       <c r="N222" s="11"/>
       <c r="O222" s="19" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="P222" s="7"/>
       <c r="Q222" s="24"/>
@@ -17034,7 +17061,7 @@
       </c>
       <c r="N223" s="11"/>
       <c r="O223" s="19" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="P223" s="7"/>
       <c r="Q223" s="24"/>
@@ -17087,7 +17114,7 @@
       </c>
       <c r="N224" s="11"/>
       <c r="O224" s="19" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="P224" s="7"/>
       <c r="Q224" s="24"/>
@@ -17140,7 +17167,7 @@
       </c>
       <c r="N225" s="11"/>
       <c r="O225" s="19" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="P225" s="7"/>
       <c r="Q225" s="24"/>
@@ -17155,16 +17182,16 @@
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D226" s="7" t="s">
         <v>1113</v>
-      </c>
-      <c r="B226" s="7" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C226" s="7" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D226" s="7" t="s">
-        <v>1115</v>
       </c>
       <c r="E226" s="18">
         <v>2023</v>
@@ -17193,7 +17220,7 @@
       </c>
       <c r="N226" s="11"/>
       <c r="O226" s="19" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="P226" s="7"/>
       <c r="Q226" s="24"/>
@@ -17208,10 +17235,10 @@
     </row>
     <row r="227" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>509</v>
@@ -17229,7 +17256,7 @@
         <v>14</v>
       </c>
       <c r="H227" s="18" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="I227" s="18" t="s">
         <v>14</v>
@@ -17246,7 +17273,7 @@
       </c>
       <c r="N227" s="11"/>
       <c r="O227" s="19" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="P227" s="7"/>
       <c r="Q227" s="24"/>
@@ -17261,10 +17288,10 @@
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>267</v>
@@ -17299,7 +17326,7 @@
       </c>
       <c r="N228" s="11"/>
       <c r="O228" s="19" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="P228" s="7"/>
       <c r="Q228" s="24"/>
@@ -17314,10 +17341,10 @@
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>267</v>
@@ -17352,7 +17379,7 @@
       </c>
       <c r="N229" s="11"/>
       <c r="O229" s="19" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="P229" s="7"/>
       <c r="Q229" s="24"/>
@@ -17367,10 +17394,10 @@
     </row>
     <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>89</v>
@@ -17405,7 +17432,7 @@
       </c>
       <c r="N230" s="11"/>
       <c r="O230" s="19" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="P230" s="7"/>
       <c r="Q230" s="24"/>
@@ -17420,10 +17447,10 @@
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>267</v>
@@ -17458,7 +17485,7 @@
       </c>
       <c r="N231" s="11"/>
       <c r="O231" s="19" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="P231" s="7"/>
       <c r="Q231" s="24"/>
@@ -17511,7 +17538,7 @@
       </c>
       <c r="N232" s="11"/>
       <c r="O232" s="19" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="P232" s="7"/>
       <c r="Q232" s="24"/>
@@ -17564,7 +17591,7 @@
       </c>
       <c r="N233" s="11"/>
       <c r="O233" s="19" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="P233" s="7"/>
       <c r="Q233" s="24"/>
@@ -17579,10 +17606,10 @@
     </row>
     <row r="234" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>144</v>
@@ -17600,7 +17627,7 @@
         <v>99</v>
       </c>
       <c r="H234" s="18" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="I234" s="18" t="s">
         <v>14</v>
@@ -17617,7 +17644,7 @@
       </c>
       <c r="N234" s="11"/>
       <c r="O234" s="19" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="P234" s="7"/>
       <c r="Q234" s="24"/>
@@ -17632,7 +17659,7 @@
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B235" s="7" t="s">
         <v>1051</v>
@@ -17653,7 +17680,7 @@
         <v>99</v>
       </c>
       <c r="H235" s="18" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="I235" s="18" t="s">
         <v>14</v>
@@ -17670,7 +17697,7 @@
       </c>
       <c r="N235" s="11"/>
       <c r="O235" s="19" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="P235" s="7"/>
       <c r="Q235" s="24"/>
@@ -17706,7 +17733,7 @@
         <v>99</v>
       </c>
       <c r="H236" s="18" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="I236" s="18" t="s">
         <v>14</v>
@@ -17723,7 +17750,7 @@
       </c>
       <c r="N236" s="11"/>
       <c r="O236" s="19" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="P236" s="7"/>
       <c r="Q236" s="24"/>
@@ -17738,16 +17765,16 @@
     </row>
     <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="E237" s="18">
         <v>2023</v>
@@ -17776,7 +17803,7 @@
       </c>
       <c r="N237" s="11"/>
       <c r="O237" s="19" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="P237" s="7"/>
       <c r="Q237" s="24"/>
@@ -17829,7 +17856,7 @@
       </c>
       <c r="N238" s="11"/>
       <c r="O238" s="19" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="P238" s="7"/>
       <c r="Q238" s="24"/>
@@ -17850,10 +17877,10 @@
         <v>980</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="E239" s="18">
         <v>2023</v>
@@ -17882,7 +17909,7 @@
       </c>
       <c r="N239" s="11"/>
       <c r="O239" s="19" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="P239" s="7"/>
       <c r="Q239" s="24"/>
@@ -17897,16 +17924,16 @@
     </row>
     <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D240" s="7" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="E240" s="18">
         <v>2023</v>
@@ -17918,7 +17945,7 @@
         <v>69</v>
       </c>
       <c r="H240" s="18" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="I240" s="18" t="s">
         <v>14</v>
@@ -17935,7 +17962,7 @@
       </c>
       <c r="N240" s="11"/>
       <c r="O240" s="19" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="P240" s="7"/>
       <c r="Q240" s="24"/>
@@ -17950,13 +17977,13 @@
     </row>
     <row r="241" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="D241" s="7" t="s">
         <v>344</v>
@@ -17988,7 +18015,7 @@
       </c>
       <c r="N241" s="11"/>
       <c r="O241" s="19" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="P241" s="7"/>
       <c r="Q241" s="24"/>
@@ -18003,16 +18030,16 @@
     </row>
     <row r="242" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B242" s="7" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D242" s="7" t="s">
         <v>1227</v>
-      </c>
-      <c r="B242" s="7" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C242" s="7" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D242" s="7" t="s">
-        <v>1229</v>
       </c>
       <c r="E242" s="18">
         <v>2023</v>
@@ -18041,7 +18068,7 @@
       </c>
       <c r="N242" s="11"/>
       <c r="O242" s="19" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="P242" s="7"/>
       <c r="Q242" s="24"/>
@@ -18094,7 +18121,7 @@
       </c>
       <c r="N243" s="11"/>
       <c r="O243" s="19" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="P243" s="7"/>
       <c r="Q243" s="24"/>
@@ -18161,48 +18188,48 @@
       </c>
     </row>
     <row r="245" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A245" s="13" t="s">
-        <v>971</v>
-      </c>
-      <c r="B245" s="13" t="s">
-        <v>972</v>
-      </c>
-      <c r="C245" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="D245" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="E245" s="14">
+      <c r="A245" s="7" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D245" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E245" s="18">
         <v>2024</v>
       </c>
-      <c r="F245" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G245" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H245" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I245" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J245" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K245" s="31">
-        <v>45286</v>
-      </c>
-      <c r="L245" s="31"/>
-      <c r="M245" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="N245" s="45"/>
-      <c r="O245" s="44" t="s">
-        <v>1274</v>
-      </c>
-      <c r="P245" s="27"/>
+      <c r="F245" s="18">
+        <v>18</v>
+      </c>
+      <c r="G245" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H245" s="18" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I245" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J245" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K245" s="42">
+        <v>45308</v>
+      </c>
+      <c r="L245" s="42"/>
+      <c r="M245" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="N245" s="11"/>
+      <c r="O245" s="19" t="s">
+        <v>1291</v>
+      </c>
+      <c r="P245" s="7"/>
       <c r="Q245" s="24"/>
       <c r="R245" s="25"/>
       <c r="S245" s="7"/>
@@ -18210,48 +18237,48 @@
       <c r="U245" s="7"/>
     </row>
     <row r="246" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A246" s="13" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B246" s="13" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C246" s="13" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D246" s="13" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E246" s="14">
+      <c r="A246" s="7" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B246" s="7" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D246" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E246" s="18">
         <v>2024</v>
       </c>
-      <c r="F246" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G246" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H246" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I246" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J246" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K246" s="31">
-        <v>45288</v>
-      </c>
-      <c r="L246" s="31"/>
-      <c r="M246" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="N246" s="45"/>
-      <c r="O246" s="44" t="s">
-        <v>1279</v>
-      </c>
-      <c r="P246" s="27"/>
+      <c r="F246" s="18">
+        <v>18</v>
+      </c>
+      <c r="G246" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H246" s="18" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I246" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J246" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K246" s="42">
+        <v>45330</v>
+      </c>
+      <c r="L246" s="42"/>
+      <c r="M246" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="N246" s="11"/>
+      <c r="O246" s="19" t="s">
+        <v>1293</v>
+      </c>
+      <c r="P246" s="7"/>
       <c r="Q246" s="24"/>
       <c r="R246" s="25"/>
       <c r="S246" s="7"/>
@@ -18260,16 +18287,16 @@
     </row>
     <row r="247" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A247" s="13" t="s">
-        <v>1091</v>
+        <v>971</v>
       </c>
       <c r="B247" s="13" t="s">
-        <v>1210</v>
+        <v>972</v>
       </c>
       <c r="C247" s="13" t="s">
-        <v>1141</v>
+        <v>259</v>
       </c>
       <c r="D247" s="13" t="s">
-        <v>1142</v>
+        <v>262</v>
       </c>
       <c r="E247" s="14">
         <v>2024</v>
@@ -18297,7 +18324,9 @@
         <v>273</v>
       </c>
       <c r="N247" s="45"/>
-      <c r="O247" s="44"/>
+      <c r="O247" s="44" t="s">
+        <v>1270</v>
+      </c>
       <c r="P247" s="27"/>
       <c r="Q247" s="24"/>
       <c r="R247" s="25"/>
@@ -18307,16 +18336,16 @@
     </row>
     <row r="248" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A248" s="13" t="s">
-        <v>1268</v>
+        <v>1094</v>
       </c>
       <c r="B248" s="13" t="s">
-        <v>1090</v>
+        <v>1095</v>
       </c>
       <c r="C248" s="13" t="s">
-        <v>1269</v>
+        <v>1096</v>
       </c>
       <c r="D248" s="13" t="s">
-        <v>1270</v>
+        <v>1097</v>
       </c>
       <c r="E248" s="14">
         <v>2024</v>
@@ -18344,7 +18373,9 @@
         <v>273</v>
       </c>
       <c r="N248" s="45"/>
-      <c r="O248" s="44"/>
+      <c r="O248" s="44" t="s">
+        <v>1275</v>
+      </c>
       <c r="P248" s="27"/>
       <c r="Q248" s="24"/>
       <c r="R248" s="25"/>
@@ -18354,16 +18385,16 @@
     </row>
     <row r="249" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A249" s="13" t="s">
-        <v>1211</v>
+        <v>1089</v>
       </c>
       <c r="B249" s="13" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="C249" s="13" t="s">
-        <v>160</v>
+        <v>1139</v>
       </c>
       <c r="D249" s="13" t="s">
-        <v>161</v>
+        <v>1140</v>
       </c>
       <c r="E249" s="14">
         <v>2024</v>
@@ -18391,7 +18422,9 @@
         <v>273</v>
       </c>
       <c r="N249" s="45"/>
-      <c r="O249" s="44"/>
+      <c r="O249" s="44" t="s">
+        <v>1287</v>
+      </c>
       <c r="P249" s="27"/>
       <c r="Q249" s="24"/>
       <c r="R249" s="25"/>
@@ -18401,16 +18434,16 @@
     </row>
     <row r="250" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A250" s="13" t="s">
-        <v>1216</v>
+        <v>1264</v>
       </c>
       <c r="B250" s="13" t="s">
-        <v>1217</v>
+        <v>1088</v>
       </c>
       <c r="C250" s="13" t="s">
-        <v>160</v>
+        <v>1265</v>
       </c>
       <c r="D250" s="13" t="s">
-        <v>161</v>
+        <v>1266</v>
       </c>
       <c r="E250" s="14">
         <v>2024</v>
@@ -18446,36 +18479,83 @@
       <c r="T250" s="7"/>
       <c r="U250" s="7"/>
     </row>
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A251" s="13" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B251" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C251" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D251" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E251" s="14">
+        <v>2024</v>
+      </c>
+      <c r="F251" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G251" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H251" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I251" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J251" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K251" s="31">
+        <v>45662</v>
+      </c>
+      <c r="L251" s="31"/>
+      <c r="M251" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="N251" s="45"/>
+      <c r="O251" s="44"/>
+      <c r="P251" s="27"/>
+      <c r="Q251" s="24"/>
+      <c r="R251" s="25"/>
+      <c r="S251" s="7"/>
+      <c r="T251" s="7"/>
+      <c r="U251" s="7"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="T1:U112 T114:U231 T248:V1048576 V246:V247 T232:V240 V241:V242 T241:T242 T243:V245">
-    <cfRule type="cellIs" dxfId="12" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="31" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="32" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T113:U113">
-    <cfRule type="cellIs" dxfId="10" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="29" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="30" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U241:U242">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="3" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="4" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T246:U247">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18841,10 +18921,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>949</v>
@@ -18866,7 +18946,7 @@
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="19" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
   </sheetData>
@@ -18920,10 +19000,10 @@
       </c>
       <c r="J1" s="55">
         <f ca="1">AVERAGE(G:G)</f>
-        <v>172.54545454545453</v>
+        <v>169.36363636363637</v>
       </c>
       <c r="K1" s="54" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -18945,7 +19025,7 @@
       </c>
       <c r="G2" s="12">
         <f ca="1">TODAY()-F2</f>
-        <v>346</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -18967,205 +19047,205 @@
       </c>
       <c r="G3" s="12">
         <f ca="1">TODAY()-F3</f>
-        <v>345</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>1080</v>
+        <v>1137</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1083</v>
+        <v>1263</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>1081</v>
+        <v>89</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>1082</v>
+        <v>89</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="10">
-        <v>45013</v>
+        <v>45077</v>
       </c>
       <c r="G4" s="12">
         <f ca="1">TODAY()-F4</f>
-        <v>291</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>1139</v>
+        <v>1160</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1267</v>
+        <v>1161</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>89</v>
+        <v>575</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>89</v>
+        <v>576</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="10">
-        <v>45077</v>
+        <v>45114</v>
       </c>
       <c r="G5" s="12">
         <f ca="1">TODAY()-F5</f>
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>1162</v>
+        <v>1179</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1163</v>
+        <v>1180</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>575</v>
+        <v>668</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>576</v>
+        <v>669</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="10">
-        <v>45114</v>
+        <v>45127</v>
       </c>
       <c r="G6" s="12">
         <f ca="1">TODAY()-F6</f>
-        <v>190</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>1181</v>
+        <v>1269</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1182</v>
+        <v>1268</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>668</v>
+        <v>1267</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>669</v>
+        <v>1276</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="10">
-        <v>45127</v>
+        <v>45146</v>
       </c>
       <c r="G7" s="12">
         <f ca="1">TODAY()-F7</f>
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>1273</v>
+        <v>1207</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1272</v>
+        <v>1218</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>1271</v>
+        <v>259</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1280</v>
+        <v>262</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="10">
-        <v>45146</v>
+        <v>45208</v>
       </c>
       <c r="G8" s="12">
         <f ca="1">TODAY()-F8</f>
-        <v>158</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>1209</v>
+        <v>1271</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1220</v>
+        <v>1272</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>259</v>
+        <v>1273</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>262</v>
+        <v>1274</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="10">
-        <v>45208</v>
+        <v>45267</v>
       </c>
       <c r="G9" s="12">
         <f ca="1">TODAY()-F9</f>
-        <v>96</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1276</v>
+        <v>1280</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="10">
-        <v>45267</v>
+        <v>45299</v>
       </c>
       <c r="G10" s="12">
         <f ca="1">TODAY()-F10</f>
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1265</v>
+        <v>267</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1266</v>
+        <v>268</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="10">
-        <v>45278</v>
+        <v>45320</v>
       </c>
       <c r="G11" s="12">
         <f ca="1">TODAY()-F11</f>
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>1281</v>
+        <v>1288</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1284</v>
+        <v>1289</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1282</v>
+        <v>108</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1283</v>
+        <v>109</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="10">
-        <v>45299</v>
+        <v>45325</v>
       </c>
       <c r="G12" s="12">
         <f ca="1">TODAY()-F12</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -19230,7 +19310,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>8.2082191780821923</v>
+        <v>8.287671232876713</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -19251,7 +19331,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2082191780821923</v>
+        <v>8.287671232876713</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -19272,7 +19352,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5863013698630137</v>
+        <v>7.6657534246575345</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -19293,21 +19373,21 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>5.956164383561644</v>
+        <v>6.0356164383561648</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="10">
@@ -19325,10 +19405,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19342,11 +19422,11 @@
     <row r="1" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E1" s="50">
         <f>COUNTA(E3:E997)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="50">
         <f>COUNTA(F3:F997)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G1" s="50">
         <f>COUNTA(G3:G997)</f>
@@ -19362,7 +19442,7 @@
       </c>
       <c r="J1" s="51">
         <f>SUM(E1:I1)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -19379,7 +19459,7 @@
         <v>1047</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="F2" s="53" t="s">
         <v>1033</v>
@@ -19394,12 +19474,12 @@
         <v>1036</v>
       </c>
       <c r="L2" s="53" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B3" s="49" t="s">
         <v>1038</v>
@@ -19408,18 +19488,18 @@
         <v>1039</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F3" s="48" t="s">
         <v>1037</v>
       </c>
       <c r="M3" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B4" s="49" t="s">
         <v>1040</v>
@@ -19434,12 +19514,12 @@
         <v>1037</v>
       </c>
       <c r="M4" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B5" s="49" t="s">
         <v>1042</v>
@@ -19454,12 +19534,12 @@
         <v>1037</v>
       </c>
       <c r="M5" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B6" s="49" t="s">
         <v>1052</v>
@@ -19474,12 +19554,12 @@
         <v>1037</v>
       </c>
       <c r="L6" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B7" s="49" t="s">
         <v>1067</v>
@@ -19494,7 +19574,7 @@
         <v>1037</v>
       </c>
       <c r="M7" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -19516,16 +19596,16 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C9" s="49" t="s">
         <v>1105</v>
       </c>
-      <c r="B9" s="49" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>1107</v>
-      </c>
       <c r="D9" s="15" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F9" s="48" t="s">
         <v>1037</v>
@@ -19533,16 +19613,16 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C10" s="49" t="s">
         <v>1108</v>
       </c>
-      <c r="B10" s="49" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>1110</v>
-      </c>
       <c r="D10" s="15" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="G10" s="48" t="s">
         <v>1037</v>
@@ -19550,16 +19630,16 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C11" s="49" t="s">
         <v>1119</v>
       </c>
-      <c r="B11" s="49" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>1121</v>
-      </c>
       <c r="D11" s="15" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="I11" s="48" t="s">
         <v>1037</v>
@@ -19567,13 +19647,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>1044</v>
@@ -19584,16 +19664,16 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C13" s="49" t="s">
         <v>1133</v>
       </c>
-      <c r="B13" s="49" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>1135</v>
-      </c>
       <c r="D13" s="15" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="I13" s="48" t="s">
         <v>1037</v>
@@ -19601,13 +19681,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C14" s="49" t="s">
         <v>1146</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>1148</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>1044</v>
@@ -19618,13 +19698,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C15" s="49" t="s">
         <v>1149</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>1151</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>1055</v>
@@ -19635,10 +19715,10 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>1055</v>
@@ -19649,10 +19729,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>1055</v>
@@ -19663,13 +19743,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C18" s="49" t="s">
         <v>1156</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>1158</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>1044</v>
@@ -19680,10 +19760,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B19" s="49" t="s">
         <v>1164</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>1166</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>1055</v>
@@ -19694,13 +19774,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C20" s="49" t="s">
         <v>1168</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>1170</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>1044</v>
@@ -19711,13 +19791,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B21" s="49" t="s">
         <v>1174</v>
       </c>
-      <c r="B21" s="49" t="s">
-        <v>1176</v>
-      </c>
       <c r="C21" s="49" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>1044</v>
@@ -19728,13 +19808,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C22" s="49" t="s">
         <v>1178</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>1180</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>1044</v>
@@ -19745,13 +19825,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C23" s="49" t="s">
         <v>1184</v>
-      </c>
-      <c r="B23" s="49" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>1186</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>1044</v>
@@ -19762,13 +19842,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B24" s="49" t="s">
         <v>1189</v>
       </c>
-      <c r="B24" s="49" t="s">
-        <v>1191</v>
-      </c>
       <c r="C24" s="49" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>1044</v>
@@ -19779,13 +19859,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C25" s="49" t="s">
         <v>1200</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>1202</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>1055</v>
@@ -19796,16 +19876,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C26" s="49" t="s">
         <v>1224</v>
       </c>
-      <c r="B26" s="49" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>1226</v>
-      </c>
       <c r="D26" s="15" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="E26" s="48" t="s">
         <v>1037</v>
@@ -19813,16 +19893,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C27" s="49" t="s">
         <v>1231</v>
       </c>
-      <c r="B27" s="49" t="s">
-        <v>1232</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>1233</v>
-      </c>
       <c r="D27" s="15" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F27" s="48" t="s">
         <v>1037</v>
@@ -19830,16 +19910,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C28" s="49" t="s">
         <v>1234</v>
       </c>
-      <c r="B28" s="49" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C28" s="49" t="s">
-        <v>1236</v>
-      </c>
       <c r="D28" s="15" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="E28" s="48" t="s">
         <v>1037</v>
@@ -19847,13 +19927,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C29" s="49" t="s">
         <v>1237</v>
-      </c>
-      <c r="B29" s="49" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>1239</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>1044</v>
@@ -19864,16 +19944,16 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B30" s="49" t="s">
         <v>1240</v>
       </c>
-      <c r="B30" s="49" t="s">
-        <v>1242</v>
-      </c>
       <c r="C30" s="49" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="G30" s="48" t="s">
         <v>1037</v>
@@ -19881,13 +19961,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C31" s="49" t="s">
         <v>1243</v>
-      </c>
-      <c r="B31" s="49" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C31" s="49" t="s">
-        <v>1245</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>1044</v>
@@ -19898,13 +19978,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C32" s="49" t="s">
         <v>1250</v>
-      </c>
-      <c r="B32" s="49" t="s">
-        <v>1251</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>1252</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>1055</v>
@@ -19915,18 +19995,52 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C33" s="49" t="s">
         <v>1253</v>
-      </c>
-      <c r="B33" s="49" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>1255</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>1055</v>
       </c>
       <c r="G33" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B34" s="49" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E34" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F35" s="48" t="s">
         <v>1037</v>
       </c>
     </row>
@@ -20015,8 +20129,12 @@
     <hyperlink ref="C32" r:id="rId57"/>
     <hyperlink ref="B33" r:id="rId58"/>
     <hyperlink ref="C33" r:id="rId59"/>
+    <hyperlink ref="B34" r:id="rId60"/>
+    <hyperlink ref="C34" r:id="rId61"/>
+    <hyperlink ref="C35" r:id="rId62"/>
+    <hyperlink ref="B35" r:id="rId63"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId60"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId64"/>
 </worksheet>
 </file>
--- a/publications.xlsx
+++ b/publications.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="papers" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3118" uniqueCount="1294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3122" uniqueCount="1296">
   <si>
     <t>title</t>
   </si>
@@ -3910,6 +3910,12 @@
   </si>
   <si>
     <t>10.1371/journal.pntd.0011898</t>
+  </si>
+  <si>
+    <t>10.1186/s12889-024-17933-z</t>
+  </si>
+  <si>
+    <t>10.1007/s40520-023-02685-4</t>
   </si>
 </sst>
 </file>
@@ -4251,6 +4257,86 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -4414,86 +4500,6 @@
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -4508,74 +4514,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U251" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
-  <autoFilter ref="A1:U251"/>
-  <sortState ref="A2:U251">
-    <sortCondition ref="K1:K251"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U252" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+  <autoFilter ref="A1:U252"/>
+  <sortState ref="A2:U252">
+    <sortCondition ref="K1:K252"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" name="title" dataDxfId="53"/>
-    <tableColumn id="2" name="authors" dataDxfId="52"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="51"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="50"/>
-    <tableColumn id="6" name="year" dataDxfId="49"/>
-    <tableColumn id="4" name="volume" dataDxfId="48"/>
-    <tableColumn id="5" name="issue" dataDxfId="47"/>
-    <tableColumn id="7" name="eID" dataDxfId="46"/>
-    <tableColumn id="8" name="from" dataDxfId="45"/>
-    <tableColumn id="9" name="to" dataDxfId="44"/>
-    <tableColumn id="10" name="date" dataDxfId="43"/>
-    <tableColumn id="19" name="date_submitted" dataDxfId="42" dataCellStyle="Neutral"/>
-    <tableColumn id="14" name="classification" dataDxfId="41"/>
-    <tableColumn id="12" name="IF" dataDxfId="40"/>
-    <tableColumn id="13" name="DOI" dataDxfId="39"/>
-    <tableColumn id="15" name="WoS" dataDxfId="38"/>
-    <tableColumn id="16" name="rank" dataDxfId="37"/>
-    <tableColumn id="17" name="quartile" dataDxfId="36"/>
-    <tableColumn id="18" name="category" dataDxfId="35"/>
-    <tableColumn id="20" name="SC" dataDxfId="34"/>
-    <tableColumn id="21" name="UGent" dataDxfId="33"/>
+    <tableColumn id="1" name="title" dataDxfId="61"/>
+    <tableColumn id="2" name="authors" dataDxfId="60"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="59"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="58"/>
+    <tableColumn id="6" name="year" dataDxfId="57"/>
+    <tableColumn id="4" name="volume" dataDxfId="56"/>
+    <tableColumn id="5" name="issue" dataDxfId="55"/>
+    <tableColumn id="7" name="eID" dataDxfId="54"/>
+    <tableColumn id="8" name="from" dataDxfId="53"/>
+    <tableColumn id="9" name="to" dataDxfId="52"/>
+    <tableColumn id="10" name="date" dataDxfId="51"/>
+    <tableColumn id="19" name="date_submitted" dataDxfId="50" dataCellStyle="Neutral"/>
+    <tableColumn id="14" name="classification" dataDxfId="49"/>
+    <tableColumn id="12" name="IF" dataDxfId="48"/>
+    <tableColumn id="13" name="DOI" dataDxfId="47"/>
+    <tableColumn id="15" name="WoS" dataDxfId="46"/>
+    <tableColumn id="16" name="rank" dataDxfId="45"/>
+    <tableColumn id="17" name="quartile" dataDxfId="44"/>
+    <tableColumn id="18" name="category" dataDxfId="43"/>
+    <tableColumn id="20" name="SC" dataDxfId="42"/>
+    <tableColumn id="21" name="UGent" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J12" totalsRowShown="0" headerRowDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J12" totalsRowShown="0" headerRowDxfId="40">
   <autoFilter ref="A1:J12"/>
   <sortState ref="A2:N50">
     <sortCondition ref="H1:H50"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="title" dataDxfId="31"/>
-    <tableColumn id="2" name="authors" dataDxfId="30"/>
-    <tableColumn id="3" name="editors" dataDxfId="29"/>
-    <tableColumn id="11" name="book" dataDxfId="28"/>
-    <tableColumn id="6" name="year" dataDxfId="27"/>
-    <tableColumn id="8" name="from" dataDxfId="26"/>
-    <tableColumn id="9" name="to" dataDxfId="25"/>
-    <tableColumn id="10" name="date" dataDxfId="24"/>
-    <tableColumn id="12" name="IF" dataDxfId="23"/>
-    <tableColumn id="13" name="DOI" dataDxfId="22"/>
+    <tableColumn id="1" name="title" dataDxfId="39"/>
+    <tableColumn id="2" name="authors" dataDxfId="38"/>
+    <tableColumn id="3" name="editors" dataDxfId="37"/>
+    <tableColumn id="11" name="book" dataDxfId="36"/>
+    <tableColumn id="6" name="year" dataDxfId="35"/>
+    <tableColumn id="8" name="from" dataDxfId="34"/>
+    <tableColumn id="9" name="to" dataDxfId="33"/>
+    <tableColumn id="10" name="date" dataDxfId="32"/>
+    <tableColumn id="12" name="IF" dataDxfId="31"/>
+    <tableColumn id="13" name="DOI" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G12" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:G12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G11" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:G11"/>
   <sortState ref="A2:G12">
     <sortCondition ref="F1:F12"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="title" dataDxfId="19"/>
-    <tableColumn id="2" name="authors" dataDxfId="18"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="17"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="16"/>
-    <tableColumn id="4" name="doi_preprint" dataDxfId="15"/>
-    <tableColumn id="10" name="date" dataDxfId="14"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="13">
+    <tableColumn id="1" name="title" dataDxfId="27"/>
+    <tableColumn id="2" name="authors" dataDxfId="26"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="25"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="24"/>
+    <tableColumn id="4" name="doi_preprint" dataDxfId="23"/>
+    <tableColumn id="10" name="date" dataDxfId="22"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="21">
       <calculatedColumnFormula>TODAY()-F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4584,18 +4590,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:F5"/>
   <sortState ref="A2:K14">
     <sortCondition ref="E1:E14"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="title" dataDxfId="10"/>
-    <tableColumn id="2" name="authors" dataDxfId="9"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="8"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="7"/>
-    <tableColumn id="10" name="date" dataDxfId="6"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="5">
+    <tableColumn id="1" name="title" dataDxfId="18"/>
+    <tableColumn id="2" name="authors" dataDxfId="17"/>
+    <tableColumn id="3" name="journal_full" dataDxfId="16"/>
+    <tableColumn id="11" name="journal_short" dataDxfId="15"/>
+    <tableColumn id="10" name="date" dataDxfId="14"/>
+    <tableColumn id="12" name="COUNT" dataDxfId="13">
       <calculatedColumnFormula>(TODAY()-E2)/365</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4890,10 +4896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U251"/>
+  <dimension ref="A1:U252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A246" sqref="A246"/>
+    <sheetView topLeftCell="A214" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A248" sqref="A248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18286,48 +18292,48 @@
       <c r="U246" s="7"/>
     </row>
     <row r="247" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A247" s="13" t="s">
-        <v>971</v>
-      </c>
-      <c r="B247" s="13" t="s">
-        <v>972</v>
-      </c>
-      <c r="C247" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="D247" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="E247" s="14">
+      <c r="A247" s="7" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D247" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E247" s="18">
         <v>2024</v>
       </c>
-      <c r="F247" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G247" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H247" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I247" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J247" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K247" s="31">
-        <v>45658</v>
-      </c>
-      <c r="L247" s="31"/>
-      <c r="M247" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="N247" s="45"/>
-      <c r="O247" s="44" t="s">
-        <v>1270</v>
-      </c>
-      <c r="P247" s="27"/>
+      <c r="F247" s="18">
+        <v>24</v>
+      </c>
+      <c r="G247" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H247" s="18">
+        <v>470</v>
+      </c>
+      <c r="I247" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J247" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K247" s="42">
+        <v>45336</v>
+      </c>
+      <c r="L247" s="42"/>
+      <c r="M247" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="N247" s="11"/>
+      <c r="O247" s="19" t="s">
+        <v>1294</v>
+      </c>
+      <c r="P247" s="7"/>
       <c r="Q247" s="24"/>
       <c r="R247" s="25"/>
       <c r="S247" s="7"/>
@@ -18335,48 +18341,48 @@
       <c r="U247" s="7"/>
     </row>
     <row r="248" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A248" s="13" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B248" s="13" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C248" s="13" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D248" s="13" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E248" s="14">
+      <c r="A248" s="7" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D248" s="7" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E248" s="18">
         <v>2024</v>
       </c>
-      <c r="F248" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G248" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H248" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I248" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J248" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K248" s="31">
-        <v>45659</v>
-      </c>
-      <c r="L248" s="31"/>
-      <c r="M248" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="N248" s="45"/>
-      <c r="O248" s="44" t="s">
-        <v>1275</v>
-      </c>
-      <c r="P248" s="27"/>
+      <c r="F248" s="18">
+        <v>36</v>
+      </c>
+      <c r="G248" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H248" s="18">
+        <v>40</v>
+      </c>
+      <c r="I248" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J248" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K248" s="42">
+        <v>45336</v>
+      </c>
+      <c r="L248" s="42"/>
+      <c r="M248" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="N248" s="11"/>
+      <c r="O248" s="19" t="s">
+        <v>1295</v>
+      </c>
+      <c r="P248" s="7"/>
       <c r="Q248" s="24"/>
       <c r="R248" s="25"/>
       <c r="S248" s="7"/>
@@ -18385,16 +18391,16 @@
     </row>
     <row r="249" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A249" s="13" t="s">
-        <v>1089</v>
+        <v>971</v>
       </c>
       <c r="B249" s="13" t="s">
-        <v>1208</v>
+        <v>972</v>
       </c>
       <c r="C249" s="13" t="s">
-        <v>1139</v>
+        <v>259</v>
       </c>
       <c r="D249" s="13" t="s">
-        <v>1140</v>
+        <v>262</v>
       </c>
       <c r="E249" s="14">
         <v>2024</v>
@@ -18415,7 +18421,7 @@
         <v>14</v>
       </c>
       <c r="K249" s="31">
-        <v>45660</v>
+        <v>45658</v>
       </c>
       <c r="L249" s="31"/>
       <c r="M249" s="31" t="s">
@@ -18423,7 +18429,7 @@
       </c>
       <c r="N249" s="45"/>
       <c r="O249" s="44" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="P249" s="27"/>
       <c r="Q249" s="24"/>
@@ -18434,16 +18440,16 @@
     </row>
     <row r="250" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A250" s="13" t="s">
-        <v>1264</v>
+        <v>1094</v>
       </c>
       <c r="B250" s="13" t="s">
-        <v>1088</v>
+        <v>1095</v>
       </c>
       <c r="C250" s="13" t="s">
-        <v>1265</v>
+        <v>1096</v>
       </c>
       <c r="D250" s="13" t="s">
-        <v>1266</v>
+        <v>1097</v>
       </c>
       <c r="E250" s="14">
         <v>2024</v>
@@ -18464,14 +18470,16 @@
         <v>14</v>
       </c>
       <c r="K250" s="31">
-        <v>45661</v>
+        <v>45659</v>
       </c>
       <c r="L250" s="31"/>
       <c r="M250" s="31" t="s">
         <v>273</v>
       </c>
       <c r="N250" s="45"/>
-      <c r="O250" s="44"/>
+      <c r="O250" s="44" t="s">
+        <v>1275</v>
+      </c>
       <c r="P250" s="27"/>
       <c r="Q250" s="24"/>
       <c r="R250" s="25"/>
@@ -18481,16 +18489,16 @@
     </row>
     <row r="251" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A251" s="13" t="s">
-        <v>1080</v>
+        <v>1089</v>
       </c>
       <c r="B251" s="13" t="s">
-        <v>1081</v>
+        <v>1208</v>
       </c>
       <c r="C251" s="13" t="s">
-        <v>89</v>
+        <v>1139</v>
       </c>
       <c r="D251" s="13" t="s">
-        <v>89</v>
+        <v>1140</v>
       </c>
       <c r="E251" s="14">
         <v>2024</v>
@@ -18511,14 +18519,16 @@
         <v>14</v>
       </c>
       <c r="K251" s="31">
-        <v>45662</v>
+        <v>45660</v>
       </c>
       <c r="L251" s="31"/>
       <c r="M251" s="31" t="s">
         <v>273</v>
       </c>
       <c r="N251" s="45"/>
-      <c r="O251" s="44"/>
+      <c r="O251" s="44" t="s">
+        <v>1287</v>
+      </c>
       <c r="P251" s="27"/>
       <c r="Q251" s="24"/>
       <c r="R251" s="25"/>
@@ -18526,36 +18536,83 @@
       <c r="T251" s="7"/>
       <c r="U251" s="7"/>
     </row>
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A252" s="13" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B252" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C252" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D252" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E252" s="14">
+        <v>2024</v>
+      </c>
+      <c r="F252" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G252" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H252" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I252" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J252" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K252" s="31">
+        <v>45662</v>
+      </c>
+      <c r="L252" s="31"/>
+      <c r="M252" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="N252" s="45"/>
+      <c r="O252" s="44"/>
+      <c r="P252" s="27"/>
+      <c r="Q252" s="24"/>
+      <c r="R252" s="25"/>
+      <c r="S252" s="7"/>
+      <c r="T252" s="7"/>
+      <c r="U252" s="7"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="T1:U112 T114:U231 T248:V1048576 V246:V247 T232:V240 V241:V242 T241:T242 T243:V245">
-    <cfRule type="cellIs" dxfId="63" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="31" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="32" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T113:U113">
-    <cfRule type="cellIs" dxfId="61" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="29" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="30" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U241:U242">
-    <cfRule type="cellIs" dxfId="59" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T246:U247">
-    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18959,9 +19016,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19000,7 +19059,7 @@
       </c>
       <c r="J1" s="55">
         <f ca="1">AVERAGE(G:G)</f>
-        <v>169.36363636363637</v>
+        <v>169.4</v>
       </c>
       <c r="K1" s="54" t="s">
         <v>1165</v>
@@ -19024,8 +19083,8 @@
         <v>44958</v>
       </c>
       <c r="G2" s="12">
-        <f ca="1">TODAY()-F2</f>
-        <v>375</v>
+        <f t="shared" ref="G2:G11" ca="1" si="0">TODAY()-F2</f>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -19046,8 +19105,8 @@
         <v>44959</v>
       </c>
       <c r="G3" s="12">
-        <f ca="1">TODAY()-F3</f>
-        <v>374</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -19068,184 +19127,162 @@
         <v>45077</v>
       </c>
       <c r="G4" s="12">
-        <f ca="1">TODAY()-F4</f>
-        <v>256</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>1160</v>
+        <v>1179</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1161</v>
+        <v>1180</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>575</v>
+        <v>668</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>576</v>
+        <v>669</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="10">
-        <v>45114</v>
+        <v>45127</v>
       </c>
       <c r="G5" s="12">
-        <f ca="1">TODAY()-F5</f>
-        <v>219</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>1179</v>
+        <v>1269</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1180</v>
+        <v>1268</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>668</v>
+        <v>1267</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>669</v>
+        <v>1276</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="10">
-        <v>45127</v>
+        <v>45146</v>
       </c>
       <c r="G6" s="12">
-        <f ca="1">TODAY()-F6</f>
-        <v>206</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>1269</v>
+        <v>1207</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1268</v>
+        <v>1218</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>1267</v>
+        <v>259</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>1276</v>
+        <v>262</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="10">
-        <v>45146</v>
+        <v>45208</v>
       </c>
       <c r="G7" s="12">
-        <f ca="1">TODAY()-F7</f>
-        <v>187</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>1207</v>
+        <v>1271</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1218</v>
+        <v>1272</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>259</v>
+        <v>1273</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>262</v>
+        <v>1274</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="10">
-        <v>45208</v>
+        <v>45267</v>
       </c>
       <c r="G8" s="12">
-        <f ca="1">TODAY()-F8</f>
-        <v>125</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>1271</v>
+        <v>1277</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1272</v>
+        <v>1280</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1273</v>
+        <v>1278</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1274</v>
+        <v>1279</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="10">
-        <v>45267</v>
+        <v>45299</v>
       </c>
       <c r="G9" s="12">
-        <f ca="1">TODAY()-F9</f>
-        <v>66</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>1277</v>
+        <v>1261</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1280</v>
+        <v>1262</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1278</v>
+        <v>267</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1279</v>
+        <v>268</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="10">
-        <v>45299</v>
+        <v>45320</v>
       </c>
       <c r="G10" s="12">
-        <f ca="1">TODAY()-F10</f>
-        <v>34</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>1261</v>
+        <v>1288</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1262</v>
+        <v>1289</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>267</v>
+        <v>108</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>268</v>
+        <v>109</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="10">
-        <v>45320</v>
+        <v>45325</v>
       </c>
       <c r="G11" s="12">
-        <f ca="1">TODAY()-F11</f>
+        <f t="shared" ca="1" si="0"/>
         <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="10">
-        <v>45325</v>
-      </c>
-      <c r="G12" s="12">
-        <f ca="1">TODAY()-F12</f>
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -19310,7 +19347,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>8.287671232876713</v>
+        <v>8.3013698630136989</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -19331,7 +19368,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>8.287671232876713</v>
+        <v>8.3013698630136989</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -19352,7 +19389,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6657534246575345</v>
+        <v>7.6794520547945204</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -19373,7 +19410,7 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>6.0356164383561648</v>
+        <v>6.0493150684931507</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDCFE85-F537-4853-B9E5-51794C550DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="papers" sheetId="1" r:id="rId1"/>
@@ -16,11 +17,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">SCI!$A$2:$I$33</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3122" uniqueCount="1296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3127" uniqueCount="1299">
   <si>
     <t>title</t>
   </si>
@@ -3807,12 +3812,6 @@
     <t>add PDF</t>
   </si>
   <si>
-    <t>Email Stefanie</t>
-  </si>
-  <si>
-    <t>list to add</t>
-  </si>
-  <si>
     <t>Uncovering the toll of the first three COVID-19 waves: excess mortality and social patterns in Belgium</t>
   </si>
   <si>
@@ -3840,9 +3839,6 @@
     <t>Methodology for assessing the impact of local traffic interventions on disease burden: a case study on paediatric asthma incidence in European cities</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1136/jech-2023-220751 </t>
-  </si>
-  <si>
     <t>Area and individual level analyses of  the impact of demographic and socio-economic factors on COVID-19 vaccination uptake in Belgium</t>
   </si>
   <si>
@@ -3916,12 +3912,30 @@
   </si>
   <si>
     <t>10.1007/s40520-023-02685-4</t>
+  </si>
+  <si>
+    <t>Nutri-Score 2023 update</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s43016-024-00920-3</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/38356074/</t>
+  </si>
+  <si>
+    <t>10.1186/s12889-024-18011-0</t>
+  </si>
+  <si>
+    <t>e6659</t>
+  </si>
+  <si>
+    <t>10.1136/jech-2023-220751</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -4257,86 +4271,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -4500,6 +4434,86 @@
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -4514,74 +4528,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:U252" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
-  <autoFilter ref="A1:U252"/>
-  <sortState ref="A2:U252">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabel1" displayName="Tabel1" ref="A1:U252" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+  <autoFilter ref="A1:U252" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U252">
     <sortCondition ref="K1:K252"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" name="title" dataDxfId="61"/>
-    <tableColumn id="2" name="authors" dataDxfId="60"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="59"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="58"/>
-    <tableColumn id="6" name="year" dataDxfId="57"/>
-    <tableColumn id="4" name="volume" dataDxfId="56"/>
-    <tableColumn id="5" name="issue" dataDxfId="55"/>
-    <tableColumn id="7" name="eID" dataDxfId="54"/>
-    <tableColumn id="8" name="from" dataDxfId="53"/>
-    <tableColumn id="9" name="to" dataDxfId="52"/>
-    <tableColumn id="10" name="date" dataDxfId="51"/>
-    <tableColumn id="19" name="date_submitted" dataDxfId="50" dataCellStyle="Neutral"/>
-    <tableColumn id="14" name="classification" dataDxfId="49"/>
-    <tableColumn id="12" name="IF" dataDxfId="48"/>
-    <tableColumn id="13" name="DOI" dataDxfId="47"/>
-    <tableColumn id="15" name="WoS" dataDxfId="46"/>
-    <tableColumn id="16" name="rank" dataDxfId="45"/>
-    <tableColumn id="17" name="quartile" dataDxfId="44"/>
-    <tableColumn id="18" name="category" dataDxfId="43"/>
-    <tableColumn id="20" name="SC" dataDxfId="42"/>
-    <tableColumn id="21" name="UGent" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="title" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="authors" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="journal_full" dataDxfId="51"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="journal_short" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="year" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="volume" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="issue" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="eID" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="from" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="to" dataDxfId="44"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="date" dataDxfId="43"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="date_submitted" dataDxfId="42" dataCellStyle="Neutral"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="classification" dataDxfId="41"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="IF" dataDxfId="40"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="DOI" dataDxfId="39"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="WoS" dataDxfId="38"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="rank" dataDxfId="37"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="quartile" dataDxfId="36"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="category" dataDxfId="35"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="SC" dataDxfId="34"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="UGent" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:J12" totalsRowShown="0" headerRowDxfId="40">
-  <autoFilter ref="A1:J12"/>
-  <sortState ref="A2:N50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabel14" displayName="Tabel14" ref="A1:J12" totalsRowShown="0" headerRowDxfId="32">
+  <autoFilter ref="A1:J12" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N50">
     <sortCondition ref="H1:H50"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="title" dataDxfId="39"/>
-    <tableColumn id="2" name="authors" dataDxfId="38"/>
-    <tableColumn id="3" name="editors" dataDxfId="37"/>
-    <tableColumn id="11" name="book" dataDxfId="36"/>
-    <tableColumn id="6" name="year" dataDxfId="35"/>
-    <tableColumn id="8" name="from" dataDxfId="34"/>
-    <tableColumn id="9" name="to" dataDxfId="33"/>
-    <tableColumn id="10" name="date" dataDxfId="32"/>
-    <tableColumn id="12" name="IF" dataDxfId="31"/>
-    <tableColumn id="13" name="DOI" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="title" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="authors" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="editors" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="book" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="year" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="from" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="to" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="date" dataDxfId="24"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="IF" dataDxfId="23"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="DOI" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:G11" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="A1:G11"/>
-  <sortState ref="A2:G12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabel13" displayName="Tabel13" ref="A1:G11" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:G11" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">
     <sortCondition ref="F1:F12"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="title" dataDxfId="27"/>
-    <tableColumn id="2" name="authors" dataDxfId="26"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="25"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="24"/>
-    <tableColumn id="4" name="doi_preprint" dataDxfId="23"/>
-    <tableColumn id="10" name="date" dataDxfId="22"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="title" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="authors" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="journal_full" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="journal_short" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="doi_preprint" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="date" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="COUNT" dataDxfId="13">
       <calculatedColumnFormula>TODAY()-F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4590,18 +4604,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:F5"/>
-  <sortState ref="A2:K14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:F5" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K14">
     <sortCondition ref="E1:E14"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="title" dataDxfId="18"/>
-    <tableColumn id="2" name="authors" dataDxfId="17"/>
-    <tableColumn id="3" name="journal_full" dataDxfId="16"/>
-    <tableColumn id="11" name="journal_short" dataDxfId="15"/>
-    <tableColumn id="10" name="date" dataDxfId="14"/>
-    <tableColumn id="12" name="COUNT" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="title" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="authors" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="journal_full" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="journal_short" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="date" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="COUNT" dataDxfId="5">
       <calculatedColumnFormula>(TODAY()-E2)/365</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4685,6 +4699,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4720,6 +4751,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4895,11 +4943,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U252"/>
   <sheetViews>
     <sheetView topLeftCell="A214" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A248" sqref="A248"/>
+      <selection activeCell="A251" sqref="A251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18216,7 +18264,7 @@
         <v>101</v>
       </c>
       <c r="H245" s="18" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="I245" s="18" t="s">
         <v>14</v>
@@ -18233,39 +18281,41 @@
       </c>
       <c r="N245" s="11"/>
       <c r="O245" s="19" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="P245" s="7"/>
       <c r="Q245" s="24"/>
       <c r="R245" s="25"/>
       <c r="S245" s="7"/>
       <c r="T245" s="7"/>
-      <c r="U245" s="7"/>
+      <c r="U245" s="7" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="246" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
-        <v>1214</v>
+        <v>1089</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>160</v>
+        <v>1139</v>
       </c>
       <c r="D246" s="7" t="s">
-        <v>161</v>
+        <v>1140</v>
       </c>
       <c r="E246" s="18">
         <v>2024</v>
       </c>
       <c r="F246" s="18">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G246" s="19" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="H246" s="18" t="s">
-        <v>1292</v>
+        <v>1297</v>
       </c>
       <c r="I246" s="18" t="s">
         <v>14</v>
@@ -18274,7 +18324,7 @@
         <v>14</v>
       </c>
       <c r="K246" s="42">
-        <v>45330</v>
+        <v>45323</v>
       </c>
       <c r="L246" s="42"/>
       <c r="M246" s="42" t="s">
@@ -18282,39 +18332,41 @@
       </c>
       <c r="N246" s="11"/>
       <c r="O246" s="19" t="s">
-        <v>1293</v>
+        <v>1284</v>
       </c>
       <c r="P246" s="7"/>
       <c r="Q246" s="24"/>
       <c r="R246" s="25"/>
       <c r="S246" s="7"/>
       <c r="T246" s="7"/>
-      <c r="U246" s="7"/>
+      <c r="U246" s="7" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="247" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
-        <v>1160</v>
+        <v>1214</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>1161</v>
+        <v>1215</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="D247" s="7" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="E247" s="18">
         <v>2024</v>
       </c>
       <c r="F247" s="18">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G247" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H247" s="18">
-        <v>470</v>
+        <v>125</v>
+      </c>
+      <c r="H247" s="18" t="s">
+        <v>1289</v>
       </c>
       <c r="I247" s="18" t="s">
         <v>14</v>
@@ -18323,7 +18375,7 @@
         <v>14</v>
       </c>
       <c r="K247" s="42">
-        <v>45336</v>
+        <v>45330</v>
       </c>
       <c r="L247" s="42"/>
       <c r="M247" s="42" t="s">
@@ -18331,39 +18383,41 @@
       </c>
       <c r="N247" s="11"/>
       <c r="O247" s="19" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="P247" s="7"/>
       <c r="Q247" s="24"/>
       <c r="R247" s="25"/>
       <c r="S247" s="7"/>
       <c r="T247" s="7"/>
-      <c r="U247" s="7"/>
+      <c r="U247" s="7" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="248" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
-        <v>1264</v>
+        <v>1160</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>1088</v>
+        <v>1161</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>1265</v>
+        <v>89</v>
       </c>
       <c r="D248" s="7" t="s">
-        <v>1266</v>
+        <v>89</v>
       </c>
       <c r="E248" s="18">
         <v>2024</v>
       </c>
       <c r="F248" s="18">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G248" s="19" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="H248" s="18">
-        <v>40</v>
+        <v>470</v>
       </c>
       <c r="I248" s="18" t="s">
         <v>14</v>
@@ -18380,174 +18434,182 @@
       </c>
       <c r="N248" s="11"/>
       <c r="O248" s="19" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="P248" s="7"/>
       <c r="Q248" s="24"/>
       <c r="R248" s="25"/>
       <c r="S248" s="7"/>
       <c r="T248" s="7"/>
-      <c r="U248" s="7"/>
+      <c r="U248" s="7" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="249" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A249" s="13" t="s">
-        <v>971</v>
-      </c>
-      <c r="B249" s="13" t="s">
-        <v>972</v>
-      </c>
-      <c r="C249" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="D249" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="E249" s="14">
+      <c r="A249" s="7" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D249" s="7" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E249" s="18">
         <v>2024</v>
       </c>
-      <c r="F249" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G249" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H249" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I249" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J249" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K249" s="31">
-        <v>45658</v>
-      </c>
-      <c r="L249" s="31"/>
-      <c r="M249" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="N249" s="45"/>
-      <c r="O249" s="44" t="s">
-        <v>1270</v>
-      </c>
-      <c r="P249" s="27"/>
+      <c r="F249" s="18">
+        <v>36</v>
+      </c>
+      <c r="G249" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H249" s="18">
+        <v>40</v>
+      </c>
+      <c r="I249" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J249" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K249" s="42">
+        <v>45336</v>
+      </c>
+      <c r="L249" s="42"/>
+      <c r="M249" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="N249" s="11"/>
+      <c r="O249" s="19" t="s">
+        <v>1292</v>
+      </c>
+      <c r="P249" s="7"/>
       <c r="Q249" s="24"/>
       <c r="R249" s="25"/>
       <c r="S249" s="7"/>
       <c r="T249" s="7"/>
-      <c r="U249" s="7"/>
+      <c r="U249" s="7" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="250" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A250" s="13" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B250" s="13" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C250" s="13" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D250" s="13" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E250" s="14">
+      <c r="A250" s="7" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B250" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D250" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E250" s="18">
         <v>2024</v>
       </c>
-      <c r="F250" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G250" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H250" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I250" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J250" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K250" s="31">
-        <v>45659</v>
-      </c>
-      <c r="L250" s="31"/>
-      <c r="M250" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="N250" s="45"/>
-      <c r="O250" s="44" t="s">
-        <v>1275</v>
-      </c>
-      <c r="P250" s="27"/>
+      <c r="F250" s="18">
+        <v>24</v>
+      </c>
+      <c r="G250" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H250" s="18">
+        <v>536</v>
+      </c>
+      <c r="I250" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J250" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K250" s="42">
+        <v>45343</v>
+      </c>
+      <c r="L250" s="42"/>
+      <c r="M250" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="N250" s="11"/>
+      <c r="O250" s="19" t="s">
+        <v>1296</v>
+      </c>
+      <c r="P250" s="7"/>
       <c r="Q250" s="24"/>
       <c r="R250" s="25"/>
       <c r="S250" s="7"/>
       <c r="T250" s="7"/>
-      <c r="U250" s="7"/>
+      <c r="U250" s="7" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="251" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A251" s="13" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B251" s="13" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C251" s="13" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D251" s="13" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E251" s="14">
+      <c r="A251" s="7" t="s">
+        <v>971</v>
+      </c>
+      <c r="B251" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D251" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E251" s="18">
         <v>2024</v>
       </c>
-      <c r="F251" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G251" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H251" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I251" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J251" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K251" s="31">
-        <v>45660</v>
-      </c>
-      <c r="L251" s="31"/>
-      <c r="M251" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="N251" s="45"/>
-      <c r="O251" s="44" t="s">
-        <v>1287</v>
-      </c>
-      <c r="P251" s="27"/>
+      <c r="F251" s="18">
+        <v>78</v>
+      </c>
+      <c r="G251" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="H251" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I251" s="18">
+        <v>176</v>
+      </c>
+      <c r="J251" s="18">
+        <v>183</v>
+      </c>
+      <c r="K251" s="42">
+        <v>45352</v>
+      </c>
+      <c r="L251" s="42"/>
+      <c r="M251" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="N251" s="11"/>
+      <c r="O251" s="19" t="s">
+        <v>1298</v>
+      </c>
+      <c r="P251" s="7"/>
       <c r="Q251" s="24"/>
       <c r="R251" s="25"/>
       <c r="S251" s="7"/>
       <c r="T251" s="7"/>
-      <c r="U251" s="7"/>
+      <c r="U251" s="7" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="252" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A252" s="13" t="s">
-        <v>1080</v>
+        <v>1094</v>
       </c>
       <c r="B252" s="13" t="s">
-        <v>1081</v>
+        <v>1095</v>
       </c>
       <c r="C252" s="13" t="s">
-        <v>89</v>
+        <v>1096</v>
       </c>
       <c r="D252" s="13" t="s">
-        <v>89</v>
+        <v>1097</v>
       </c>
       <c r="E252" s="14">
         <v>2024</v>
@@ -18568,14 +18630,16 @@
         <v>14</v>
       </c>
       <c r="K252" s="31">
-        <v>45662</v>
+        <v>45659</v>
       </c>
       <c r="L252" s="31"/>
       <c r="M252" s="31" t="s">
         <v>273</v>
       </c>
       <c r="N252" s="45"/>
-      <c r="O252" s="44"/>
+      <c r="O252" s="44" t="s">
+        <v>1272</v>
+      </c>
       <c r="P252" s="27"/>
       <c r="Q252" s="24"/>
       <c r="R252" s="25"/>
@@ -18584,35 +18648,35 @@
       <c r="U252" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="T1:U112 T114:U231 T248:V1048576 V246:V247 T232:V240 V241:V242 T241:T242 T243:V245">
-    <cfRule type="cellIs" dxfId="12" priority="31" operator="equal">
+  <conditionalFormatting sqref="T1:U112 T114:U231 V246:V247 T232:V240 V241:V242 T241:T242 T243:V245 U246 T248:V1048576">
+    <cfRule type="cellIs" dxfId="63" priority="31" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="32" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T113:U113">
-    <cfRule type="cellIs" dxfId="10" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="29" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="30" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U241:U242">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="3" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="4" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T246:U247">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+  <conditionalFormatting sqref="T247:U247 T246">
+    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18625,7 +18689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -19015,10 +19079,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -19059,7 +19123,7 @@
       </c>
       <c r="J1" s="55">
         <f ca="1">AVERAGE(G:G)</f>
-        <v>169.4</v>
+        <v>185.4</v>
       </c>
       <c r="K1" s="54" t="s">
         <v>1165</v>
@@ -19084,7 +19148,7 @@
       </c>
       <c r="G2" s="12">
         <f t="shared" ref="G2:G11" ca="1" si="0">TODAY()-F2</f>
-        <v>380</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -19106,7 +19170,7 @@
       </c>
       <c r="G3" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>379</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -19114,7 +19178,7 @@
         <v>1137</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>89</v>
@@ -19128,7 +19192,7 @@
       </c>
       <c r="G4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>261</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -19150,21 +19214,21 @@
       </c>
       <c r="G5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>211</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="10">
@@ -19172,7 +19236,7 @@
       </c>
       <c r="G6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>192</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -19194,21 +19258,21 @@
       </c>
       <c r="G7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>1271</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>1272</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>1273</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>1274</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="10">
@@ -19216,21 +19280,21 @@
       </c>
       <c r="G8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>1277</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>1280</v>
-      </c>
       <c r="C9" s="7" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="10">
@@ -19238,15 +19302,15 @@
       </c>
       <c r="G9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>267</v>
@@ -19260,15 +19324,15 @@
       </c>
       <c r="G10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>108</v>
@@ -19282,7 +19346,7 @@
       </c>
       <c r="G11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -19295,7 +19359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
@@ -19347,7 +19411,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>8.3013698630136989</v>
+        <v>8.3452054794520549</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -19368,7 +19432,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3013698630136989</v>
+        <v>8.3452054794520549</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -19389,7 +19453,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6794520547945204</v>
+        <v>7.7232876712328764</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -19410,7 +19474,7 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>6.0493150684931507</v>
+        <v>6.0931506849315067</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -19441,10 +19505,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -19471,7 +19535,7 @@
       </c>
       <c r="H1" s="50">
         <f>COUNTA(H3:H997)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I1" s="50">
         <f>COUNTA(I3:I997)</f>
@@ -19479,7 +19543,7 @@
       </c>
       <c r="J1" s="51">
         <f>SUM(E1:I1)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -19590,9 +19654,6 @@
       <c r="H6" s="48" t="s">
         <v>1037</v>
       </c>
-      <c r="L6" t="s">
-        <v>1259</v>
-      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -19610,9 +19671,6 @@
       <c r="H7" s="48" t="s">
         <v>1037</v>
       </c>
-      <c r="M7" t="s">
-        <v>1260</v>
-      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -20030,7 +20088,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1251</v>
       </c>
@@ -20047,15 +20105,15 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="B34" s="49" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="C34" s="49" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>1044</v>
@@ -20064,15 +20122,15 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="B35" s="49" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>1044</v>
@@ -20081,8 +20139,25 @@
         <v>1037</v>
       </c>
     </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B36" s="49" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H36" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:I33"/>
+  <autoFilter ref="A2:I33" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <conditionalFormatting sqref="E1:I1048576 L2">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"X"</formula>
@@ -20107,71 +20182,73 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="C4" r:id="rId4"/>
-    <hyperlink ref="B5" r:id="rId5"/>
-    <hyperlink ref="C5" r:id="rId6"/>
-    <hyperlink ref="B6" r:id="rId7"/>
-    <hyperlink ref="C6" r:id="rId8"/>
-    <hyperlink ref="B7" r:id="rId9"/>
-    <hyperlink ref="C7" r:id="rId10"/>
-    <hyperlink ref="B8" r:id="rId11"/>
-    <hyperlink ref="C8" r:id="rId12"/>
-    <hyperlink ref="B9" r:id="rId13"/>
-    <hyperlink ref="C9" r:id="rId14"/>
-    <hyperlink ref="B10" r:id="rId15"/>
-    <hyperlink ref="C10" r:id="rId16"/>
-    <hyperlink ref="B11" r:id="rId17"/>
-    <hyperlink ref="C11" r:id="rId18"/>
-    <hyperlink ref="B12" r:id="rId19"/>
-    <hyperlink ref="C12" r:id="rId20"/>
-    <hyperlink ref="B13" r:id="rId21"/>
-    <hyperlink ref="C13" r:id="rId22"/>
-    <hyperlink ref="B14" r:id="rId23"/>
-    <hyperlink ref="C14" r:id="rId24"/>
-    <hyperlink ref="B15" r:id="rId25"/>
-    <hyperlink ref="C15" r:id="rId26"/>
-    <hyperlink ref="B16" r:id="rId27"/>
-    <hyperlink ref="B17" r:id="rId28"/>
-    <hyperlink ref="B18" r:id="rId29"/>
-    <hyperlink ref="C18" r:id="rId30"/>
-    <hyperlink ref="B19" r:id="rId31"/>
-    <hyperlink ref="B20" r:id="rId32"/>
-    <hyperlink ref="C20" r:id="rId33"/>
-    <hyperlink ref="C21" r:id="rId34"/>
-    <hyperlink ref="B21" r:id="rId35"/>
-    <hyperlink ref="B22" r:id="rId36"/>
-    <hyperlink ref="C22" r:id="rId37"/>
-    <hyperlink ref="B23" r:id="rId38"/>
-    <hyperlink ref="C23" r:id="rId39"/>
-    <hyperlink ref="C24" r:id="rId40"/>
-    <hyperlink ref="B24" r:id="rId41"/>
-    <hyperlink ref="B25" r:id="rId42"/>
-    <hyperlink ref="C25" r:id="rId43"/>
-    <hyperlink ref="C26" r:id="rId44"/>
-    <hyperlink ref="B26" r:id="rId45"/>
-    <hyperlink ref="B27" r:id="rId46"/>
-    <hyperlink ref="C27" r:id="rId47"/>
-    <hyperlink ref="B28" r:id="rId48"/>
-    <hyperlink ref="C28" r:id="rId49"/>
-    <hyperlink ref="B29" r:id="rId50"/>
-    <hyperlink ref="C29" r:id="rId51"/>
-    <hyperlink ref="C30" r:id="rId52"/>
-    <hyperlink ref="B30" r:id="rId53"/>
-    <hyperlink ref="B31" r:id="rId54"/>
-    <hyperlink ref="C31" r:id="rId55"/>
-    <hyperlink ref="B32" r:id="rId56"/>
-    <hyperlink ref="C32" r:id="rId57"/>
-    <hyperlink ref="B33" r:id="rId58"/>
-    <hyperlink ref="C33" r:id="rId59"/>
-    <hyperlink ref="B34" r:id="rId60"/>
-    <hyperlink ref="C34" r:id="rId61"/>
-    <hyperlink ref="C35" r:id="rId62"/>
-    <hyperlink ref="B35" r:id="rId63"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="C5" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="B6" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="C6" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="B7" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="C7" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="B8" r:id="rId11" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="C8" r:id="rId12" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
+    <hyperlink ref="B9" r:id="rId13" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
+    <hyperlink ref="C9" r:id="rId14" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
+    <hyperlink ref="B10" r:id="rId15" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
+    <hyperlink ref="C10" r:id="rId16" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
+    <hyperlink ref="B11" r:id="rId17" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
+    <hyperlink ref="C11" r:id="rId18" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
+    <hyperlink ref="B12" r:id="rId19" xr:uid="{00000000-0004-0000-0400-000012000000}"/>
+    <hyperlink ref="C12" r:id="rId20" xr:uid="{00000000-0004-0000-0400-000013000000}"/>
+    <hyperlink ref="B13" r:id="rId21" xr:uid="{00000000-0004-0000-0400-000014000000}"/>
+    <hyperlink ref="C13" r:id="rId22" xr:uid="{00000000-0004-0000-0400-000015000000}"/>
+    <hyperlink ref="B14" r:id="rId23" xr:uid="{00000000-0004-0000-0400-000016000000}"/>
+    <hyperlink ref="C14" r:id="rId24" xr:uid="{00000000-0004-0000-0400-000017000000}"/>
+    <hyperlink ref="B15" r:id="rId25" xr:uid="{00000000-0004-0000-0400-000018000000}"/>
+    <hyperlink ref="C15" r:id="rId26" xr:uid="{00000000-0004-0000-0400-000019000000}"/>
+    <hyperlink ref="B16" r:id="rId27" xr:uid="{00000000-0004-0000-0400-00001A000000}"/>
+    <hyperlink ref="B17" r:id="rId28" xr:uid="{00000000-0004-0000-0400-00001B000000}"/>
+    <hyperlink ref="B18" r:id="rId29" xr:uid="{00000000-0004-0000-0400-00001C000000}"/>
+    <hyperlink ref="C18" r:id="rId30" xr:uid="{00000000-0004-0000-0400-00001D000000}"/>
+    <hyperlink ref="B19" r:id="rId31" xr:uid="{00000000-0004-0000-0400-00001E000000}"/>
+    <hyperlink ref="B20" r:id="rId32" xr:uid="{00000000-0004-0000-0400-00001F000000}"/>
+    <hyperlink ref="C20" r:id="rId33" xr:uid="{00000000-0004-0000-0400-000020000000}"/>
+    <hyperlink ref="C21" r:id="rId34" xr:uid="{00000000-0004-0000-0400-000021000000}"/>
+    <hyperlink ref="B21" r:id="rId35" xr:uid="{00000000-0004-0000-0400-000022000000}"/>
+    <hyperlink ref="B22" r:id="rId36" xr:uid="{00000000-0004-0000-0400-000023000000}"/>
+    <hyperlink ref="C22" r:id="rId37" xr:uid="{00000000-0004-0000-0400-000024000000}"/>
+    <hyperlink ref="B23" r:id="rId38" xr:uid="{00000000-0004-0000-0400-000025000000}"/>
+    <hyperlink ref="C23" r:id="rId39" xr:uid="{00000000-0004-0000-0400-000026000000}"/>
+    <hyperlink ref="C24" r:id="rId40" xr:uid="{00000000-0004-0000-0400-000027000000}"/>
+    <hyperlink ref="B24" r:id="rId41" xr:uid="{00000000-0004-0000-0400-000028000000}"/>
+    <hyperlink ref="B25" r:id="rId42" xr:uid="{00000000-0004-0000-0400-000029000000}"/>
+    <hyperlink ref="C25" r:id="rId43" xr:uid="{00000000-0004-0000-0400-00002A000000}"/>
+    <hyperlink ref="C26" r:id="rId44" xr:uid="{00000000-0004-0000-0400-00002B000000}"/>
+    <hyperlink ref="B26" r:id="rId45" xr:uid="{00000000-0004-0000-0400-00002C000000}"/>
+    <hyperlink ref="B27" r:id="rId46" xr:uid="{00000000-0004-0000-0400-00002D000000}"/>
+    <hyperlink ref="C27" r:id="rId47" xr:uid="{00000000-0004-0000-0400-00002E000000}"/>
+    <hyperlink ref="B28" r:id="rId48" xr:uid="{00000000-0004-0000-0400-00002F000000}"/>
+    <hyperlink ref="C28" r:id="rId49" xr:uid="{00000000-0004-0000-0400-000030000000}"/>
+    <hyperlink ref="B29" r:id="rId50" xr:uid="{00000000-0004-0000-0400-000031000000}"/>
+    <hyperlink ref="C29" r:id="rId51" xr:uid="{00000000-0004-0000-0400-000032000000}"/>
+    <hyperlink ref="C30" r:id="rId52" xr:uid="{00000000-0004-0000-0400-000033000000}"/>
+    <hyperlink ref="B30" r:id="rId53" xr:uid="{00000000-0004-0000-0400-000034000000}"/>
+    <hyperlink ref="B31" r:id="rId54" xr:uid="{00000000-0004-0000-0400-000035000000}"/>
+    <hyperlink ref="C31" r:id="rId55" xr:uid="{00000000-0004-0000-0400-000036000000}"/>
+    <hyperlink ref="B32" r:id="rId56" xr:uid="{00000000-0004-0000-0400-000037000000}"/>
+    <hyperlink ref="C32" r:id="rId57" xr:uid="{00000000-0004-0000-0400-000038000000}"/>
+    <hyperlink ref="B33" r:id="rId58" xr:uid="{00000000-0004-0000-0400-000039000000}"/>
+    <hyperlink ref="C33" r:id="rId59" xr:uid="{00000000-0004-0000-0400-00003A000000}"/>
+    <hyperlink ref="B34" r:id="rId60" xr:uid="{00000000-0004-0000-0400-00003B000000}"/>
+    <hyperlink ref="C34" r:id="rId61" xr:uid="{00000000-0004-0000-0400-00003C000000}"/>
+    <hyperlink ref="C35" r:id="rId62" xr:uid="{00000000-0004-0000-0400-00003D000000}"/>
+    <hyperlink ref="B35" r:id="rId63" xr:uid="{00000000-0004-0000-0400-00003E000000}"/>
+    <hyperlink ref="B36" r:id="rId64" xr:uid="{00000000-0004-0000-0400-00003F000000}"/>
+    <hyperlink ref="C36" r:id="rId65" xr:uid="{00000000-0004-0000-0400-000040000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId64"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId66"/>
 </worksheet>
 </file>
--- a/publications.xlsx
+++ b/publications.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDCFE85-F537-4853-B9E5-51794C550DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B14DD18-E7EC-4403-82DC-E16B58DA88D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="papers" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3127" uniqueCount="1299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3166" uniqueCount="1318">
   <si>
     <t>title</t>
   </si>
@@ -3224,9 +3224,6 @@
     <t>Cruz Oliveira, Claudia; Charalampous, Periklis; Delaye, Julien; Grad, Diana Alecsandra; Kolkhir, Pavel; Mechili, Enkeleint A.; Unim, Brigid; Devleesschauwer, Brecht; Haagsma, Juanita A.</t>
   </si>
   <si>
-    <t xml:space="preserve">Bacterial antimicrobial resistance: Data gaps and relationships between human and animal resistance </t>
-  </si>
-  <si>
     <t>Venkateswaran, Narmada; Swetschinski, Lucien R.; Fastl, Christina; Di Bari, Carlotta; Criscuolo, Nicola G.; Zhao, Cheng; Meštrović, Tomislav; Ikuta, Kevin S.; Martins, Sara Babo; Coyne, Lucy A.; Afonso, João Sucena; Huntington, Ben; Rushton, Jonathan; Devleesschauwer, Brecht; Naghavi, Mohsen; Sartorius, Benn; Van Boeckel, Thomas P.; Pigott, David M.</t>
   </si>
   <si>
@@ -3930,6 +3927,66 @@
   </si>
   <si>
     <t>10.1136/jech-2023-220751</t>
+  </si>
+  <si>
+    <t>Comparing people with substance use disorders entering treatment in general mental health centres or specialised addiction centres: the role of the main problematic substance</t>
+  </si>
+  <si>
+    <t>Fernandez, Kim; Antoine, Jérôme; Sinclair, Deborah Louise; Cosgrove, Shona; Daman, Elena; Devleesschauwer, Brecht</t>
+  </si>
+  <si>
+    <t>Journal of Substance Use and Addiction Treatment</t>
+  </si>
+  <si>
+    <t>J. Subst. Use Addict. Treat.</t>
+  </si>
+  <si>
+    <t>Environmental burden of disease related to pyrethroid-insecticide exposure and ADHD in Europe based on Human Biomonitoring</t>
+  </si>
+  <si>
+    <t>Environ. Health</t>
+  </si>
+  <si>
+    <t>Environmental Health</t>
+  </si>
+  <si>
+    <t>A nationwide exploration of social inequalities in cancer mortality amidst the COVID-19 pandemic in Belgium</t>
+  </si>
+  <si>
+    <t>Khan, Yasmine; De Smedt, Delphine; Vanthomme, Katrien; Van den Borre, Laura; Verhaeghe, Nick; Devleesschauwer, Brecht; Deboosere, Patrick; Gadeyne, Sylvie</t>
+  </si>
+  <si>
+    <t>Using priorities between human and livestock bacterial antimicrobial resistance (AMR) to identify data gaps in livestock AMR surveillance</t>
+  </si>
+  <si>
+    <t>Embracing the complexity: a critical appraisal of global neck pain trends and research gaps</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/38383082/</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/s2665-9913(24)00003-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Characterisation of Heroin Samples Using Infrared Spectroscopy and Multivariate Calibration </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/molecules29051116</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/38474628/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please don't throw me in the briar patch! Empirical evidence on the role of instructional cues on eco-label usage in fish consumption decisions </t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/38485058/</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.appet.2024.107291</t>
+  </si>
+  <si>
+    <t>Purece, Anthony; Thomsen, Sofie Theresa; Plass, Dietrich; Spyropoulou, Anastasia; Machera, Kyriaki; Palmont, Philippe; Crépet, Amélie; Benchrih, Rafiqa; Devleesschauwer, Brecht; Wieland, Nina; Scheepers, Paul T J</t>
   </si>
 </sst>
 </file>
@@ -4271,6 +4328,86 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -4434,86 +4571,6 @@
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -4528,74 +4585,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabel1" displayName="Tabel1" ref="A1:U252" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
-  <autoFilter ref="A1:U252" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabel1" displayName="Tabel1" ref="A1:U254" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+  <autoFilter ref="A1:U254" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U252">
     <sortCondition ref="K1:K252"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="title" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="authors" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="journal_full" dataDxfId="51"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="journal_short" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="year" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="volume" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="issue" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="eID" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="from" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="to" dataDxfId="44"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="date" dataDxfId="43"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="date_submitted" dataDxfId="42" dataCellStyle="Neutral"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="classification" dataDxfId="41"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="IF" dataDxfId="40"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="DOI" dataDxfId="39"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="WoS" dataDxfId="38"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="rank" dataDxfId="37"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="quartile" dataDxfId="36"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="category" dataDxfId="35"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="SC" dataDxfId="34"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="UGent" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="title" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="authors" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="journal_full" dataDxfId="59"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="journal_short" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="year" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="volume" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="issue" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="eID" dataDxfId="54"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="from" dataDxfId="53"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="to" dataDxfId="52"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="date" dataDxfId="51"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="date_submitted" dataDxfId="50" dataCellStyle="Neutral"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="classification" dataDxfId="49"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="IF" dataDxfId="48"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="DOI" dataDxfId="47"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="WoS" dataDxfId="46"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="rank" dataDxfId="45"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="quartile" dataDxfId="44"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="category" dataDxfId="43"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="SC" dataDxfId="42"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="UGent" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabel14" displayName="Tabel14" ref="A1:J12" totalsRowShown="0" headerRowDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabel14" displayName="Tabel14" ref="A1:J12" totalsRowShown="0" headerRowDxfId="40">
   <autoFilter ref="A1:J12" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N50">
     <sortCondition ref="H1:H50"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="title" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="authors" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="editors" dataDxfId="29"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="book" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="year" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="from" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="to" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="date" dataDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="IF" dataDxfId="23"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="DOI" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="title" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="authors" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="editors" dataDxfId="37"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="book" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="year" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="from" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="to" dataDxfId="33"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="date" dataDxfId="32"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="IF" dataDxfId="31"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="DOI" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabel13" displayName="Tabel13" ref="A1:G11" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:G11" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabel13" displayName="Tabel13" ref="A1:G12" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:G12" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">
     <sortCondition ref="F1:F12"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="title" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="authors" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="journal_full" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="journal_short" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="doi_preprint" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="date" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="COUNT" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="title" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="authors" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="journal_full" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="journal_short" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="doi_preprint" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="date" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="COUNT" dataDxfId="21">
       <calculatedColumnFormula>TODAY()-F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4604,18 +4661,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:F5" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K14">
     <sortCondition ref="E1:E14"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="title" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="authors" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="journal_full" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="journal_short" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="date" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="COUNT" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="title" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="authors" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="journal_full" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="journal_short" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="date" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="COUNT" dataDxfId="13">
       <calculatedColumnFormula>(TODAY()-E2)/365</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4944,10 +5001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U252"/>
+  <dimension ref="A1:U254"/>
   <sheetViews>
-    <sheetView topLeftCell="A214" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A251" sqref="A251"/>
+    <sheetView topLeftCell="A220" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A254" sqref="A254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5002,7 +5059,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>272</v>
@@ -16515,7 +16572,7 @@
         <v>14</v>
       </c>
       <c r="H212" s="18" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I212" s="18" t="s">
         <v>14</v>
@@ -16653,7 +16710,7 @@
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B215" s="7" t="s">
         <v>970</v>
@@ -16812,7 +16869,7 @@
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B218" s="7" t="s">
         <v>981</v>
@@ -16850,7 +16907,7 @@
       </c>
       <c r="N218" s="11"/>
       <c r="O218" s="19" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="P218" s="7"/>
       <c r="Q218" s="24"/>
@@ -16865,7 +16922,7 @@
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B219" s="7" t="s">
         <v>766</v>
@@ -16903,7 +16960,7 @@
       </c>
       <c r="N219" s="11"/>
       <c r="O219" s="19" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="P219" s="7"/>
       <c r="Q219" s="24"/>
@@ -16956,7 +17013,7 @@
       </c>
       <c r="N220" s="11"/>
       <c r="O220" s="19" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="P220" s="7"/>
       <c r="Q220" s="24"/>
@@ -16992,7 +17049,7 @@
         <v>92</v>
       </c>
       <c r="H221" s="18" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="I221" s="18" t="s">
         <v>14</v>
@@ -17009,7 +17066,7 @@
       </c>
       <c r="N221" s="11"/>
       <c r="O221" s="19" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="P221" s="7"/>
       <c r="Q221" s="24"/>
@@ -17024,7 +17081,7 @@
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B222" s="7" t="s">
         <v>1013</v>
@@ -17062,7 +17119,7 @@
       </c>
       <c r="N222" s="11"/>
       <c r="O222" s="19" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="P222" s="7"/>
       <c r="Q222" s="24"/>
@@ -17080,7 +17137,7 @@
         <v>1014</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>1015</v>
@@ -17115,7 +17172,7 @@
       </c>
       <c r="N223" s="11"/>
       <c r="O223" s="19" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="P223" s="7"/>
       <c r="Q223" s="24"/>
@@ -17133,7 +17190,7 @@
         <v>1027</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>267</v>
@@ -17168,7 +17225,7 @@
       </c>
       <c r="N224" s="11"/>
       <c r="O224" s="19" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="P224" s="7"/>
       <c r="Q224" s="24"/>
@@ -17221,7 +17278,7 @@
       </c>
       <c r="N225" s="11"/>
       <c r="O225" s="19" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="P225" s="7"/>
       <c r="Q225" s="24"/>
@@ -17236,16 +17293,16 @@
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C226" s="7" t="s">
         <v>1111</v>
       </c>
-      <c r="B226" s="7" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C226" s="7" t="s">
+      <c r="D226" s="7" t="s">
         <v>1112</v>
-      </c>
-      <c r="D226" s="7" t="s">
-        <v>1113</v>
       </c>
       <c r="E226" s="18">
         <v>2023</v>
@@ -17274,7 +17331,7 @@
       </c>
       <c r="N226" s="11"/>
       <c r="O226" s="19" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="P226" s="7"/>
       <c r="Q226" s="24"/>
@@ -17289,10 +17346,10 @@
     </row>
     <row r="227" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B227" s="7" t="s">
         <v>1158</v>
-      </c>
-      <c r="B227" s="7" t="s">
-        <v>1159</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>509</v>
@@ -17310,7 +17367,7 @@
         <v>14</v>
       </c>
       <c r="H227" s="18" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I227" s="18" t="s">
         <v>14</v>
@@ -17327,7 +17384,7 @@
       </c>
       <c r="N227" s="11"/>
       <c r="O227" s="19" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="P227" s="7"/>
       <c r="Q227" s="24"/>
@@ -17342,10 +17399,10 @@
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B228" s="7" t="s">
         <v>1190</v>
-      </c>
-      <c r="B228" s="7" t="s">
-        <v>1191</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>267</v>
@@ -17380,7 +17437,7 @@
       </c>
       <c r="N228" s="11"/>
       <c r="O228" s="19" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="P228" s="7"/>
       <c r="Q228" s="24"/>
@@ -17395,10 +17452,10 @@
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B229" s="7" t="s">
         <v>1121</v>
-      </c>
-      <c r="B229" s="7" t="s">
-        <v>1122</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>267</v>
@@ -17433,7 +17490,7 @@
       </c>
       <c r="N229" s="11"/>
       <c r="O229" s="19" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="P229" s="7"/>
       <c r="Q229" s="24"/>
@@ -17448,10 +17505,10 @@
     </row>
     <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B230" s="7" t="s">
         <v>1098</v>
-      </c>
-      <c r="B230" s="7" t="s">
-        <v>1099</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>89</v>
@@ -17486,7 +17543,7 @@
       </c>
       <c r="N230" s="11"/>
       <c r="O230" s="19" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="P230" s="7"/>
       <c r="Q230" s="24"/>
@@ -17501,10 +17558,10 @@
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B231" s="7" t="s">
         <v>1193</v>
-      </c>
-      <c r="B231" s="7" t="s">
-        <v>1194</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>267</v>
@@ -17539,7 +17596,7 @@
       </c>
       <c r="N231" s="11"/>
       <c r="O231" s="19" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="P231" s="7"/>
       <c r="Q231" s="24"/>
@@ -17554,16 +17611,16 @@
     </row>
     <row r="232" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D232" s="7" t="s">
         <v>1072</v>
-      </c>
-      <c r="B232" s="7" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C232" s="7" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D232" s="7" t="s">
-        <v>1073</v>
       </c>
       <c r="E232" s="18">
         <v>2023</v>
@@ -17592,7 +17649,7 @@
       </c>
       <c r="N232" s="11"/>
       <c r="O232" s="19" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="P232" s="7"/>
       <c r="Q232" s="24"/>
@@ -17645,7 +17702,7 @@
       </c>
       <c r="N233" s="11"/>
       <c r="O233" s="19" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="P233" s="7"/>
       <c r="Q233" s="24"/>
@@ -17660,10 +17717,10 @@
     </row>
     <row r="234" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B234" s="7" t="s">
         <v>1082</v>
-      </c>
-      <c r="B234" s="7" t="s">
-        <v>1083</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>144</v>
@@ -17681,7 +17738,7 @@
         <v>99</v>
       </c>
       <c r="H234" s="18" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="I234" s="18" t="s">
         <v>14</v>
@@ -17698,7 +17755,7 @@
       </c>
       <c r="N234" s="11"/>
       <c r="O234" s="19" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="P234" s="7"/>
       <c r="Q234" s="24"/>
@@ -17713,7 +17770,7 @@
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B235" s="7" t="s">
         <v>1051</v>
@@ -17734,7 +17791,7 @@
         <v>99</v>
       </c>
       <c r="H235" s="18" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I235" s="18" t="s">
         <v>14</v>
@@ -17751,7 +17808,7 @@
       </c>
       <c r="N235" s="11"/>
       <c r="O235" s="19" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="P235" s="7"/>
       <c r="Q235" s="24"/>
@@ -17787,7 +17844,7 @@
         <v>99</v>
       </c>
       <c r="H236" s="18" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="I236" s="18" t="s">
         <v>14</v>
@@ -17804,7 +17861,7 @@
       </c>
       <c r="N236" s="11"/>
       <c r="O236" s="19" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="P236" s="7"/>
       <c r="Q236" s="24"/>
@@ -17819,16 +17876,16 @@
     </row>
     <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B237" s="7" t="s">
         <v>1101</v>
       </c>
-      <c r="B237" s="7" t="s">
-        <v>1102</v>
-      </c>
       <c r="C237" s="7" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E237" s="18">
         <v>2023</v>
@@ -17857,7 +17914,7 @@
       </c>
       <c r="N237" s="11"/>
       <c r="O237" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="P237" s="7"/>
       <c r="Q237" s="24"/>
@@ -17910,7 +17967,7 @@
       </c>
       <c r="N238" s="11"/>
       <c r="O238" s="19" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="P238" s="7"/>
       <c r="Q238" s="24"/>
@@ -17931,10 +17988,10 @@
         <v>980</v>
       </c>
       <c r="C239" s="7" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D239" s="7" t="s">
         <v>1216</v>
-      </c>
-      <c r="D239" s="7" t="s">
-        <v>1217</v>
       </c>
       <c r="E239" s="18">
         <v>2023</v>
@@ -17963,7 +18020,7 @@
       </c>
       <c r="N239" s="11"/>
       <c r="O239" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="P239" s="7"/>
       <c r="Q239" s="24"/>
@@ -17978,16 +18035,16 @@
     </row>
     <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B240" s="7" t="s">
         <v>1244</v>
       </c>
-      <c r="B240" s="7" t="s">
-        <v>1245</v>
-      </c>
       <c r="C240" s="7" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D240" s="7" t="s">
         <v>1086</v>
-      </c>
-      <c r="D240" s="7" t="s">
-        <v>1087</v>
       </c>
       <c r="E240" s="18">
         <v>2023</v>
@@ -17999,7 +18056,7 @@
         <v>69</v>
       </c>
       <c r="H240" s="18" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="I240" s="18" t="s">
         <v>14</v>
@@ -18016,7 +18073,7 @@
       </c>
       <c r="N240" s="11"/>
       <c r="O240" s="19" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="P240" s="7"/>
       <c r="Q240" s="24"/>
@@ -18031,13 +18088,13 @@
     </row>
     <row r="241" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C241" s="7" t="s">
         <v>1084</v>
-      </c>
-      <c r="B241" s="7" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C241" s="7" t="s">
-        <v>1085</v>
       </c>
       <c r="D241" s="7" t="s">
         <v>344</v>
@@ -18069,7 +18126,7 @@
       </c>
       <c r="N241" s="11"/>
       <c r="O241" s="19" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="P241" s="7"/>
       <c r="Q241" s="24"/>
@@ -18084,16 +18141,16 @@
     </row>
     <row r="242" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B242" s="7" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C242" s="7" t="s">
         <v>1225</v>
       </c>
-      <c r="B242" s="7" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C242" s="7" t="s">
+      <c r="D242" s="7" t="s">
         <v>1226</v>
-      </c>
-      <c r="D242" s="7" t="s">
-        <v>1227</v>
       </c>
       <c r="E242" s="18">
         <v>2023</v>
@@ -18122,7 +18179,7 @@
       </c>
       <c r="N242" s="11"/>
       <c r="O242" s="19" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="P242" s="7"/>
       <c r="Q242" s="24"/>
@@ -18175,7 +18232,7 @@
       </c>
       <c r="N243" s="11"/>
       <c r="O243" s="19" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="P243" s="7"/>
       <c r="Q243" s="24"/>
@@ -18243,10 +18300,10 @@
     </row>
     <row r="245" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B245" s="7" t="s">
         <v>1209</v>
-      </c>
-      <c r="B245" s="7" t="s">
-        <v>1210</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>160</v>
@@ -18264,7 +18321,7 @@
         <v>101</v>
       </c>
       <c r="H245" s="18" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="I245" s="18" t="s">
         <v>14</v>
@@ -18281,7 +18338,7 @@
       </c>
       <c r="N245" s="11"/>
       <c r="O245" s="19" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="P245" s="7"/>
       <c r="Q245" s="24"/>
@@ -18294,16 +18351,16 @@
     </row>
     <row r="246" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C246" s="7" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D246" s="7" t="s">
         <v>1139</v>
-      </c>
-      <c r="D246" s="7" t="s">
-        <v>1140</v>
       </c>
       <c r="E246" s="18">
         <v>2024</v>
@@ -18315,7 +18372,7 @@
         <v>91</v>
       </c>
       <c r="H246" s="18" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="I246" s="18" t="s">
         <v>14</v>
@@ -18332,7 +18389,7 @@
       </c>
       <c r="N246" s="11"/>
       <c r="O246" s="19" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="P246" s="7"/>
       <c r="Q246" s="24"/>
@@ -18345,10 +18402,10 @@
     </row>
     <row r="247" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B247" s="7" t="s">
         <v>1214</v>
-      </c>
-      <c r="B247" s="7" t="s">
-        <v>1215</v>
       </c>
       <c r="C247" s="7" t="s">
         <v>160</v>
@@ -18366,7 +18423,7 @@
         <v>125</v>
       </c>
       <c r="H247" s="18" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="I247" s="18" t="s">
         <v>14</v>
@@ -18383,7 +18440,7 @@
       </c>
       <c r="N247" s="11"/>
       <c r="O247" s="19" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="P247" s="7"/>
       <c r="Q247" s="24"/>
@@ -18396,10 +18453,10 @@
     </row>
     <row r="248" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B248" s="7" t="s">
         <v>1160</v>
-      </c>
-      <c r="B248" s="7" t="s">
-        <v>1161</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>89</v>
@@ -18434,7 +18491,7 @@
       </c>
       <c r="N248" s="11"/>
       <c r="O248" s="19" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="P248" s="7"/>
       <c r="Q248" s="24"/>
@@ -18447,16 +18504,16 @@
     </row>
     <row r="249" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C249" s="7" t="s">
         <v>1262</v>
       </c>
-      <c r="B249" s="7" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C249" s="7" t="s">
+      <c r="D249" s="7" t="s">
         <v>1263</v>
-      </c>
-      <c r="D249" s="7" t="s">
-        <v>1264</v>
       </c>
       <c r="E249" s="18">
         <v>2024</v>
@@ -18485,7 +18542,7 @@
       </c>
       <c r="N249" s="11"/>
       <c r="O249" s="19" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="P249" s="7"/>
       <c r="Q249" s="24"/>
@@ -18498,10 +18555,10 @@
     </row>
     <row r="250" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B250" s="7" t="s">
         <v>1080</v>
-      </c>
-      <c r="B250" s="7" t="s">
-        <v>1081</v>
       </c>
       <c r="C250" s="7" t="s">
         <v>89</v>
@@ -18536,7 +18593,7 @@
       </c>
       <c r="N250" s="11"/>
       <c r="O250" s="19" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="P250" s="7"/>
       <c r="Q250" s="24"/>
@@ -18587,7 +18644,7 @@
       </c>
       <c r="N251" s="11"/>
       <c r="O251" s="19" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="P251" s="7"/>
       <c r="Q251" s="24"/>
@@ -18600,16 +18657,16 @@
     </row>
     <row r="252" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A252" s="13" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B252" s="13" t="s">
         <v>1094</v>
       </c>
-      <c r="B252" s="13" t="s">
+      <c r="C252" s="13" t="s">
         <v>1095</v>
       </c>
-      <c r="C252" s="13" t="s">
+      <c r="D252" s="13" t="s">
         <v>1096</v>
-      </c>
-      <c r="D252" s="13" t="s">
-        <v>1097</v>
       </c>
       <c r="E252" s="14">
         <v>2024</v>
@@ -18630,7 +18687,7 @@
         <v>14</v>
       </c>
       <c r="K252" s="31">
-        <v>45659</v>
+        <v>45658</v>
       </c>
       <c r="L252" s="31"/>
       <c r="M252" s="31" t="s">
@@ -18638,7 +18695,7 @@
       </c>
       <c r="N252" s="45"/>
       <c r="O252" s="44" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="P252" s="27"/>
       <c r="Q252" s="24"/>
@@ -18647,36 +18704,130 @@
       <c r="T252" s="7"/>
       <c r="U252" s="7"/>
     </row>
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A253" s="13" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B253" s="13" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C253" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D253" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E253" s="14">
+        <v>2024</v>
+      </c>
+      <c r="F253" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G253" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H253" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I253" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J253" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K253" s="31">
+        <v>45659</v>
+      </c>
+      <c r="L253" s="31"/>
+      <c r="M253" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="N253" s="45"/>
+      <c r="O253" s="44"/>
+      <c r="P253" s="27"/>
+      <c r="Q253" s="24"/>
+      <c r="R253" s="25"/>
+      <c r="S253" s="7"/>
+      <c r="T253" s="7"/>
+      <c r="U253" s="7"/>
+    </row>
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A254" s="13" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B254" s="13" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C254" s="13" t="s">
+        <v>668</v>
+      </c>
+      <c r="D254" s="13" t="s">
+        <v>669</v>
+      </c>
+      <c r="E254" s="14">
+        <v>2024</v>
+      </c>
+      <c r="F254" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G254" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H254" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I254" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J254" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K254" s="31">
+        <v>45660</v>
+      </c>
+      <c r="L254" s="31"/>
+      <c r="M254" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="N254" s="45"/>
+      <c r="O254" s="44"/>
+      <c r="P254" s="27"/>
+      <c r="Q254" s="24"/>
+      <c r="R254" s="25"/>
+      <c r="S254" s="7"/>
+      <c r="T254" s="7"/>
+      <c r="U254" s="7"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="T1:U112 T114:U231 V246:V247 T232:V240 V241:V242 T241:T242 T243:V245 U246 T248:V1048576">
-    <cfRule type="cellIs" dxfId="63" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="31" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="32" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T113:U113">
-    <cfRule type="cellIs" dxfId="61" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="29" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="30" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U241:U242">
-    <cfRule type="cellIs" dxfId="59" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T247:U247 T246">
-    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19042,10 +19193,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>949</v>
@@ -19067,7 +19218,7 @@
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
   </sheetData>
@@ -19080,10 +19231,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19119,14 +19270,14 @@
       </c>
       <c r="I1" s="55" t="str">
         <f ca="1">ROUND(J1/30,0)&amp;" md"</f>
-        <v>6 md</v>
+        <v>4 md</v>
       </c>
       <c r="J1" s="55">
         <f ca="1">AVERAGE(G:G)</f>
-        <v>185.4</v>
+        <v>113.09090909090909</v>
       </c>
       <c r="K1" s="54" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -19147,206 +19298,228 @@
         <v>44958</v>
       </c>
       <c r="G2" s="12">
-        <f t="shared" ref="G2:G11" ca="1" si="0">TODAY()-F2</f>
-        <v>396</v>
+        <f ca="1">TODAY()-F2</f>
+        <v>437</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>1063</v>
+        <v>1266</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1064</v>
+        <v>1265</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>120</v>
+        <v>1264</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>121</v>
+        <v>1272</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="10">
-        <v>44959</v>
+        <v>45146</v>
       </c>
       <c r="G3" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>395</v>
+        <f ca="1">TODAY()-F3</f>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>1137</v>
+        <v>1206</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1261</v>
+        <v>1217</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>89</v>
+        <v>259</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>89</v>
+        <v>262</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="10">
-        <v>45077</v>
+        <v>45208</v>
       </c>
       <c r="G4" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>277</v>
+        <f ca="1">TODAY()-F4</f>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>1179</v>
+        <v>1267</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1180</v>
+        <v>1268</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>668</v>
+        <v>1269</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>669</v>
+        <v>1270</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="10">
-        <v>45127</v>
+        <v>45267</v>
       </c>
       <c r="G5" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>227</v>
+        <f ca="1">TODAY()-F5</f>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>1267</v>
+        <v>1273</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1266</v>
+        <v>1276</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1265</v>
+        <v>1274</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="10">
-        <v>45146</v>
+        <v>45299</v>
       </c>
       <c r="G6" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>208</v>
+        <f ca="1">TODAY()-F6</f>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>1207</v>
+        <v>1258</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1218</v>
+        <v>1259</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="10">
-        <v>45208</v>
+        <v>45320</v>
       </c>
       <c r="G7" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>146</v>
+        <f ca="1">TODAY()-F7</f>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>1268</v>
+        <v>1298</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1269</v>
+        <v>1299</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>1270</v>
+        <v>1300</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1271</v>
+        <v>1301</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="10">
-        <v>45267</v>
+        <v>45363</v>
       </c>
       <c r="G8" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <f ca="1">TODAY()-F8</f>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>1274</v>
+        <v>1302</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1277</v>
+        <v>1317</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1275</v>
+        <v>1304</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1276</v>
+        <v>1303</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="10">
-        <v>45299</v>
+        <v>45372</v>
       </c>
       <c r="G9" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <f ca="1">TODAY()-F9</f>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>1259</v>
+        <v>1305</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1260</v>
+        <v>1306</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>267</v>
+        <v>428</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>268</v>
+        <v>429</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="10">
-        <v>45320</v>
+        <v>45380</v>
       </c>
       <c r="G10" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <f ca="1">TODAY()-F10</f>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>1285</v>
+        <v>1307</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1286</v>
+        <v>1063</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>108</v>
+        <v>1084</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>109</v>
+        <v>344</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="10">
-        <v>45325</v>
+        <v>45393</v>
       </c>
       <c r="G11" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <f ca="1">TODAY()-F11</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="10">
+        <v>45395</v>
+      </c>
+      <c r="G12" s="12">
+        <f ca="1">TODAY()-F12</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -19411,7 +19584,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>8.3452054794520549</v>
+        <v>8.4575342465753423</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -19432,7 +19605,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3452054794520549</v>
+        <v>8.4575342465753423</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -19453,7 +19626,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7232876712328764</v>
+        <v>7.8356164383561646</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -19474,21 +19647,21 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>6.0931506849315067</v>
+        <v>6.2054794520547949</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>1137</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>1138</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="10">
@@ -19506,10 +19679,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19523,7 +19697,7 @@
     <row r="1" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E1" s="50">
         <f>COUNTA(E3:E997)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="50">
         <f>COUNTA(F3:F997)</f>
@@ -19531,11 +19705,11 @@
       </c>
       <c r="G1" s="50">
         <f>COUNTA(G3:G997)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="50">
         <f>COUNTA(H3:H997)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="50">
         <f>COUNTA(I3:I997)</f>
@@ -19543,7 +19717,7 @@
       </c>
       <c r="J1" s="51">
         <f>SUM(E1:I1)</f>
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -19560,7 +19734,7 @@
         <v>1047</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="F2" s="53" t="s">
         <v>1033</v>
@@ -19575,12 +19749,12 @@
         <v>1036</v>
       </c>
       <c r="L2" s="53" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B3" s="49" t="s">
         <v>1038</v>
@@ -19589,18 +19763,18 @@
         <v>1039</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F3" s="48" t="s">
         <v>1037</v>
       </c>
       <c r="M3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B4" s="49" t="s">
         <v>1040</v>
@@ -19615,12 +19789,12 @@
         <v>1037</v>
       </c>
       <c r="M4" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B5" s="49" t="s">
         <v>1042</v>
@@ -19635,12 +19809,12 @@
         <v>1037</v>
       </c>
       <c r="M5" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B6" s="49" t="s">
         <v>1052</v>
@@ -19657,13 +19831,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B7" s="49" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C7" s="49" t="s">
         <v>1067</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>1068</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>1044</v>
@@ -19674,13 +19848,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B8" s="49" t="s">
         <v>1069</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="C8" s="49" t="s">
         <v>1070</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>1071</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>1055</v>
@@ -19691,16 +19865,16 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B9" s="49" t="s">
         <v>1103</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="C9" s="49" t="s">
         <v>1104</v>
       </c>
-      <c r="C9" s="49" t="s">
-        <v>1105</v>
-      </c>
       <c r="D9" s="15" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F9" s="48" t="s">
         <v>1037</v>
@@ -19708,16 +19882,16 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B10" s="49" t="s">
         <v>1106</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="C10" s="49" t="s">
         <v>1107</v>
       </c>
-      <c r="C10" s="49" t="s">
-        <v>1108</v>
-      </c>
       <c r="D10" s="15" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="G10" s="48" t="s">
         <v>1037</v>
@@ -19725,16 +19899,16 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B11" s="49" t="s">
         <v>1117</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="C11" s="49" t="s">
         <v>1118</v>
       </c>
-      <c r="C11" s="49" t="s">
-        <v>1119</v>
-      </c>
       <c r="D11" s="15" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="I11" s="48" t="s">
         <v>1037</v>
@@ -19742,13 +19916,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B12" s="49" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C12" s="49" t="s">
         <v>1129</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>1130</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>1044</v>
@@ -19759,16 +19933,16 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B13" s="49" t="s">
         <v>1131</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="C13" s="49" t="s">
         <v>1132</v>
       </c>
-      <c r="C13" s="49" t="s">
-        <v>1133</v>
-      </c>
       <c r="D13" s="15" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="I13" s="48" t="s">
         <v>1037</v>
@@ -19776,13 +19950,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B14" s="49" t="s">
         <v>1144</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="C14" s="49" t="s">
         <v>1145</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>1146</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>1044</v>
@@ -19793,13 +19967,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B15" s="49" t="s">
         <v>1147</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="C15" s="49" t="s">
         <v>1148</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>1149</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>1055</v>
@@ -19810,10 +19984,10 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B16" s="49" t="s">
         <v>1150</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>1151</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>1055</v>
@@ -19824,10 +19998,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B17" s="49" t="s">
         <v>1152</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>1153</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>1055</v>
@@ -19838,13 +20012,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B18" s="49" t="s">
         <v>1154</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="C18" s="49" t="s">
         <v>1155</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>1156</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>1044</v>
@@ -19855,10 +20029,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>1055</v>
@@ -19869,13 +20043,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B20" s="49" t="s">
         <v>1166</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="C20" s="49" t="s">
         <v>1167</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>1168</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>1044</v>
@@ -19886,13 +20060,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C21" s="49" t="s">
         <v>1172</v>
-      </c>
-      <c r="B21" s="49" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>1173</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>1044</v>
@@ -19903,13 +20077,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B22" s="49" t="s">
         <v>1176</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="C22" s="49" t="s">
         <v>1177</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>1178</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>1044</v>
@@ -19920,13 +20094,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B23" s="49" t="s">
         <v>1182</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="C23" s="49" t="s">
         <v>1183</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>1184</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>1044</v>
@@ -19937,13 +20111,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C24" s="49" t="s">
         <v>1187</v>
-      </c>
-      <c r="B24" s="49" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>1188</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>1044</v>
@@ -19954,13 +20128,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B25" s="49" t="s">
         <v>1198</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="C25" s="49" t="s">
         <v>1199</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>1200</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>1055</v>
@@ -19971,16 +20145,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B26" s="49" t="s">
         <v>1222</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="C26" s="49" t="s">
         <v>1223</v>
       </c>
-      <c r="C26" s="49" t="s">
-        <v>1224</v>
-      </c>
       <c r="D26" s="15" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E26" s="48" t="s">
         <v>1037</v>
@@ -19988,16 +20162,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B27" s="49" t="s">
         <v>1229</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="C27" s="49" t="s">
         <v>1230</v>
       </c>
-      <c r="C27" s="49" t="s">
-        <v>1231</v>
-      </c>
       <c r="D27" s="15" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F27" s="48" t="s">
         <v>1037</v>
@@ -20005,16 +20179,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B28" s="49" t="s">
         <v>1232</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="C28" s="49" t="s">
         <v>1233</v>
       </c>
-      <c r="C28" s="49" t="s">
-        <v>1234</v>
-      </c>
       <c r="D28" s="15" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E28" s="48" t="s">
         <v>1037</v>
@@ -20022,13 +20196,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B29" s="49" t="s">
         <v>1235</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="C29" s="49" t="s">
         <v>1236</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>1237</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>1044</v>
@@ -20039,16 +20213,16 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C30" s="49" t="s">
         <v>1238</v>
       </c>
-      <c r="B30" s="49" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C30" s="49" t="s">
-        <v>1239</v>
-      </c>
       <c r="D30" s="15" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="G30" s="48" t="s">
         <v>1037</v>
@@ -20056,13 +20230,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B31" s="49" t="s">
         <v>1241</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="C31" s="49" t="s">
         <v>1242</v>
-      </c>
-      <c r="C31" s="49" t="s">
-        <v>1243</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>1044</v>
@@ -20073,13 +20247,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B32" s="49" t="s">
         <v>1248</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="C32" s="49" t="s">
         <v>1249</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>1250</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>1055</v>
@@ -20090,13 +20264,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B33" s="49" t="s">
         <v>1251</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="C33" s="49" t="s">
         <v>1252</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>1253</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>1055</v>
@@ -20107,13 +20281,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B34" s="49" t="s">
         <v>1278</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="C34" s="49" t="s">
         <v>1279</v>
-      </c>
-      <c r="C34" s="49" t="s">
-        <v>1280</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>1044</v>
@@ -20124,13 +20298,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C35" s="49" t="s">
         <v>1281</v>
-      </c>
-      <c r="B35" s="49" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C35" s="49" t="s">
-        <v>1282</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>1044</v>
@@ -20141,18 +20315,69 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B36" s="49" t="s">
         <v>1293</v>
       </c>
-      <c r="B36" s="49" t="s">
+      <c r="C36" s="49" t="s">
         <v>1294</v>
-      </c>
-      <c r="C36" s="49" t="s">
-        <v>1295</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>1044</v>
       </c>
       <c r="H36" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B37" s="49" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E37" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G38" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H39" s="48" t="s">
         <v>1037</v>
       </c>
     </row>
@@ -20247,8 +20472,14 @@
     <hyperlink ref="B35" r:id="rId63" xr:uid="{00000000-0004-0000-0400-00003E000000}"/>
     <hyperlink ref="B36" r:id="rId64" xr:uid="{00000000-0004-0000-0400-00003F000000}"/>
     <hyperlink ref="C36" r:id="rId65" xr:uid="{00000000-0004-0000-0400-000040000000}"/>
+    <hyperlink ref="C37" r:id="rId66" xr:uid="{814559AB-90D6-4407-9A63-447B71F7D3F5}"/>
+    <hyperlink ref="B37" r:id="rId67" xr:uid="{9CB31E9C-4B19-418D-8207-A7C6A2D214FE}"/>
+    <hyperlink ref="B38" r:id="rId68" xr:uid="{71E4239E-8EC8-447F-8997-2698964BC16B}"/>
+    <hyperlink ref="C38" r:id="rId69" xr:uid="{B6BCAA2F-C442-40F4-B33C-CE18B3CC69B9}"/>
+    <hyperlink ref="C39" r:id="rId70" xr:uid="{C19CAC3E-3CF3-4020-9BE0-035F64F0E91E}"/>
+    <hyperlink ref="B39" r:id="rId71" xr:uid="{A75C1C32-D094-44FE-8BAE-57ED6CCBE1CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId66"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId72"/>
 </worksheet>
 </file>
--- a/publications.xlsx
+++ b/publications.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B14DD18-E7EC-4403-82DC-E16B58DA88D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37A61DF-0727-4B4B-8EE3-D3F66490878D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="papers" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3166" uniqueCount="1318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3174" uniqueCount="1323">
   <si>
     <t>title</t>
   </si>
@@ -3569,9 +3569,6 @@
     <t>https://pubmed.ncbi.nlm.nih.gov/37501782/</t>
   </si>
   <si>
-    <t>The potential impact fraction of population weight reduction scenarios on non-communicable diseases in Belgium: Application of the g-computation approach</t>
-  </si>
-  <si>
     <t>Pelgrims, Ingrid; Devleesschauwer, Brecht; Vandevijvere, Stefanie; De Clercq, Eva M; Gorasso, Vanessa; Van der Heyden, Johan; Vansteelandt, Stijn</t>
   </si>
   <si>
@@ -3656,9 +3653,6 @@
     <t>The burden of disease attributable to high body mass index in Belgium</t>
   </si>
   <si>
-    <t>Gorasso, Vanessa; Vandevijvere, Stefanie; Heyden, Johan Van der; Pelgrims, Ingrid; Hilderink, Henk; Nusselder, Wilma; Demoury, Claire; Schmidt, Masja; Vansteelandt, Stijn; De Smedt, Delphine; Devleesschauwer, Brecht</t>
-  </si>
-  <si>
     <t>Fasciola spp. in Southeast Asia: A systematic review</t>
   </si>
   <si>
@@ -3836,9 +3830,6 @@
     <t>Methodology for assessing the impact of local traffic interventions on disease burden: a case study on paediatric asthma incidence in European cities</t>
   </si>
   <si>
-    <t>Area and individual level analyses of  the impact of demographic and socio-economic factors on COVID-19 vaccination uptake in Belgium</t>
-  </si>
-  <si>
     <t>Hubin, Pierre; Van den Borre, Laura; Braeye, Toon; Cavillot, Lisa; Billuart, Matthieu; Stouten, Veerle; Nasiadka, Léonore; Vermeiren, Elias; Van Evercooren, Izaak; Devleesschauwer, Brecht; Catteau, Lucy; van Loenhout, Joris A F</t>
   </si>
   <si>
@@ -3987,6 +3978,30 @@
   </si>
   <si>
     <t>Purece, Anthony; Thomsen, Sofie Theresa; Plass, Dietrich; Spyropoulou, Anastasia; Machera, Kyriaki; Palmont, Philippe; Crépet, Amélie; Benchrih, Rafiqa; Devleesschauwer, Brecht; Wieland, Nina; Scheepers, Paul T J</t>
+  </si>
+  <si>
+    <t>The potential impact fraction of population weight reduction scenarios on non-communicable diseases in Belgium: application of the g-computation approach</t>
+  </si>
+  <si>
+    <t>10.1186/s12874-024-02212-7</t>
+  </si>
+  <si>
+    <t>Assumption-lean quantile regression</t>
+  </si>
+  <si>
+    <t>Baklicharov, Georgi; Ley, Christophe; Gorasso, Vanessa; Devleesschauwer, Brecht; Vansteelandt, Stijn</t>
+  </si>
+  <si>
+    <t>Biometrika</t>
+  </si>
+  <si>
+    <t>Area and individual level analyses of demographic and socio-economic disparities in COVID-19 vaccination uptake in Belgium</t>
+  </si>
+  <si>
+    <t>10.1016/j.jvacx.2024.100496</t>
+  </si>
+  <si>
+    <t>Gorasso, Vanessa; Vandevijvere, Stefanie; Van der Heyden, Johan; Pelgrims, Ingrid; Hilderink, Henk; Nusselder, Wilma; Demoury, Claire; Schmidt, Masja; Vansteelandt, Stijn; De Smedt, Delphine; Devleesschauwer, Brecht</t>
   </si>
 </sst>
 </file>
@@ -4328,86 +4343,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -4571,6 +4506,86 @@
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -4585,74 +4600,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabel1" displayName="Tabel1" ref="A1:U254" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
-  <autoFilter ref="A1:U254" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U252">
-    <sortCondition ref="K1:K252"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabel1" displayName="Tabel1" ref="A1:U255" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+  <autoFilter ref="A1:U255" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U255">
+    <sortCondition ref="K1:K255"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="title" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="authors" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="journal_full" dataDxfId="59"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="journal_short" dataDxfId="58"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="year" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="volume" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="issue" dataDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="eID" dataDxfId="54"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="from" dataDxfId="53"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="to" dataDxfId="52"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="date" dataDxfId="51"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="date_submitted" dataDxfId="50" dataCellStyle="Neutral"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="classification" dataDxfId="49"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="IF" dataDxfId="48"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="DOI" dataDxfId="47"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="WoS" dataDxfId="46"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="rank" dataDxfId="45"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="quartile" dataDxfId="44"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="category" dataDxfId="43"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="SC" dataDxfId="42"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="UGent" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="title" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="authors" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="journal_full" dataDxfId="51"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="journal_short" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="year" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="volume" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="issue" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="eID" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="from" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="to" dataDxfId="44"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="date" dataDxfId="43"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="date_submitted" dataDxfId="42" dataCellStyle="Neutral"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="classification" dataDxfId="41"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="IF" dataDxfId="40"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="DOI" dataDxfId="39"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="WoS" dataDxfId="38"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="rank" dataDxfId="37"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="quartile" dataDxfId="36"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="category" dataDxfId="35"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="SC" dataDxfId="34"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="UGent" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabel14" displayName="Tabel14" ref="A1:J12" totalsRowShown="0" headerRowDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabel14" displayName="Tabel14" ref="A1:J12" totalsRowShown="0" headerRowDxfId="32">
   <autoFilter ref="A1:J12" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N50">
     <sortCondition ref="H1:H50"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="title" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="authors" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="editors" dataDxfId="37"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="book" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="year" dataDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="from" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="to" dataDxfId="33"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="date" dataDxfId="32"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="IF" dataDxfId="31"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="DOI" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="title" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="authors" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="editors" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="book" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="year" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="from" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="to" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="date" dataDxfId="24"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="IF" dataDxfId="23"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="DOI" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabel13" displayName="Tabel13" ref="A1:G12" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabel13" displayName="Tabel13" ref="A1:G12" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:G12" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">
-    <sortCondition ref="F1:F12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
+    <sortCondition ref="F1:F11"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="title" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="authors" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="journal_full" dataDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="journal_short" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="doi_preprint" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="date" dataDxfId="22"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="COUNT" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="title" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="authors" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="journal_full" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="journal_short" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="doi_preprint" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="date" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="COUNT" dataDxfId="13">
       <calculatedColumnFormula>TODAY()-F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4661,18 +4676,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:F5" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K14">
     <sortCondition ref="E1:E14"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="title" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="authors" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="journal_full" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="journal_short" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="date" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="COUNT" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="title" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="authors" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="journal_full" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="journal_short" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="date" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="COUNT" dataDxfId="5">
       <calculatedColumnFormula>(TODAY()-E2)/365</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5001,10 +5016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U254"/>
+  <dimension ref="A1:U255"/>
   <sheetViews>
-    <sheetView topLeftCell="A220" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A254" sqref="A254"/>
+    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B247" sqref="B247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17367,7 +17382,7 @@
         <v>14</v>
       </c>
       <c r="H227" s="18" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="I227" s="18" t="s">
         <v>14</v>
@@ -17384,7 +17399,7 @@
       </c>
       <c r="N227" s="11"/>
       <c r="O227" s="19" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="P227" s="7"/>
       <c r="Q227" s="24"/>
@@ -17399,10 +17414,10 @@
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B228" s="7" t="s">
         <v>1189</v>
-      </c>
-      <c r="B228" s="7" t="s">
-        <v>1190</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>267</v>
@@ -17437,7 +17452,7 @@
       </c>
       <c r="N228" s="11"/>
       <c r="O228" s="19" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="P228" s="7"/>
       <c r="Q228" s="24"/>
@@ -17490,7 +17505,7 @@
       </c>
       <c r="N229" s="11"/>
       <c r="O229" s="19" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="P229" s="7"/>
       <c r="Q229" s="24"/>
@@ -17543,7 +17558,7 @@
       </c>
       <c r="N230" s="11"/>
       <c r="O230" s="19" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="P230" s="7"/>
       <c r="Q230" s="24"/>
@@ -17558,10 +17573,10 @@
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B231" s="7" t="s">
         <v>1192</v>
-      </c>
-      <c r="B231" s="7" t="s">
-        <v>1193</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>267</v>
@@ -17596,7 +17611,7 @@
       </c>
       <c r="N231" s="11"/>
       <c r="O231" s="19" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="P231" s="7"/>
       <c r="Q231" s="24"/>
@@ -17702,7 +17717,7 @@
       </c>
       <c r="N233" s="11"/>
       <c r="O233" s="19" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="P233" s="7"/>
       <c r="Q233" s="24"/>
@@ -17738,7 +17753,7 @@
         <v>99</v>
       </c>
       <c r="H234" s="18" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="I234" s="18" t="s">
         <v>14</v>
@@ -17755,7 +17770,7 @@
       </c>
       <c r="N234" s="11"/>
       <c r="O234" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="P234" s="7"/>
       <c r="Q234" s="24"/>
@@ -17770,7 +17785,7 @@
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B235" s="7" t="s">
         <v>1051</v>
@@ -17791,7 +17806,7 @@
         <v>99</v>
       </c>
       <c r="H235" s="18" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I235" s="18" t="s">
         <v>14</v>
@@ -17808,7 +17823,7 @@
       </c>
       <c r="N235" s="11"/>
       <c r="O235" s="19" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="P235" s="7"/>
       <c r="Q235" s="24"/>
@@ -17844,7 +17859,7 @@
         <v>99</v>
       </c>
       <c r="H236" s="18" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="I236" s="18" t="s">
         <v>14</v>
@@ -17861,7 +17876,7 @@
       </c>
       <c r="N236" s="11"/>
       <c r="O236" s="19" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="P236" s="7"/>
       <c r="Q236" s="24"/>
@@ -17914,7 +17929,7 @@
       </c>
       <c r="N237" s="11"/>
       <c r="O237" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="P237" s="7"/>
       <c r="Q237" s="24"/>
@@ -17967,7 +17982,7 @@
       </c>
       <c r="N238" s="11"/>
       <c r="O238" s="19" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="P238" s="7"/>
       <c r="Q238" s="24"/>
@@ -17988,10 +18003,10 @@
         <v>980</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="E239" s="18">
         <v>2023</v>
@@ -18020,7 +18035,7 @@
       </c>
       <c r="N239" s="11"/>
       <c r="O239" s="19" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="P239" s="7"/>
       <c r="Q239" s="24"/>
@@ -18035,10 +18050,10 @@
     </row>
     <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>1085</v>
@@ -18056,7 +18071,7 @@
         <v>69</v>
       </c>
       <c r="H240" s="18" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="I240" s="18" t="s">
         <v>14</v>
@@ -18073,7 +18088,7 @@
       </c>
       <c r="N240" s="11"/>
       <c r="O240" s="19" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="P240" s="7"/>
       <c r="Q240" s="24"/>
@@ -18091,7 +18106,7 @@
         <v>1083</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="C241" s="7" t="s">
         <v>1084</v>
@@ -18126,7 +18141,7 @@
       </c>
       <c r="N241" s="11"/>
       <c r="O241" s="19" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="P241" s="7"/>
       <c r="Q241" s="24"/>
@@ -18141,16 +18156,16 @@
     </row>
     <row r="242" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B242" s="7" t="s">
         <v>1168</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D242" s="7" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E242" s="18">
         <v>2023</v>
@@ -18179,7 +18194,7 @@
       </c>
       <c r="N242" s="11"/>
       <c r="O242" s="19" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="P242" s="7"/>
       <c r="Q242" s="24"/>
@@ -18300,10 +18315,10 @@
     </row>
     <row r="245" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>160</v>
@@ -18321,7 +18336,7 @@
         <v>101</v>
       </c>
       <c r="H245" s="18" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="I245" s="18" t="s">
         <v>14</v>
@@ -18338,7 +18353,7 @@
       </c>
       <c r="N245" s="11"/>
       <c r="O245" s="19" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="P245" s="7"/>
       <c r="Q245" s="24"/>
@@ -18354,7 +18369,7 @@
         <v>1088</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>1207</v>
+        <v>1322</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>1138</v>
@@ -18372,7 +18387,7 @@
         <v>91</v>
       </c>
       <c r="H246" s="18" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="I246" s="18" t="s">
         <v>14</v>
@@ -18389,7 +18404,7 @@
       </c>
       <c r="N246" s="11"/>
       <c r="O246" s="19" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="P246" s="7"/>
       <c r="Q246" s="24"/>
@@ -18402,10 +18417,10 @@
     </row>
     <row r="247" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="C247" s="7" t="s">
         <v>160</v>
@@ -18423,7 +18438,7 @@
         <v>125</v>
       </c>
       <c r="H247" s="18" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="I247" s="18" t="s">
         <v>14</v>
@@ -18440,7 +18455,7 @@
       </c>
       <c r="N247" s="11"/>
       <c r="O247" s="19" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="P247" s="7"/>
       <c r="Q247" s="24"/>
@@ -18491,7 +18506,7 @@
       </c>
       <c r="N248" s="11"/>
       <c r="O248" s="19" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="P248" s="7"/>
       <c r="Q248" s="24"/>
@@ -18504,16 +18519,16 @@
     </row>
     <row r="249" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="B249" s="7" t="s">
         <v>1087</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="D249" s="7" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="E249" s="18">
         <v>2024</v>
@@ -18542,7 +18557,7 @@
       </c>
       <c r="N249" s="11"/>
       <c r="O249" s="19" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="P249" s="7"/>
       <c r="Q249" s="24"/>
@@ -18593,7 +18608,7 @@
       </c>
       <c r="N250" s="11"/>
       <c r="O250" s="19" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="P250" s="7"/>
       <c r="Q250" s="24"/>
@@ -18644,7 +18659,7 @@
       </c>
       <c r="N251" s="11"/>
       <c r="O251" s="19" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="P251" s="7"/>
       <c r="Q251" s="24"/>
@@ -18656,48 +18671,48 @@
       </c>
     </row>
     <row r="252" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A252" s="13" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B252" s="13" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C252" s="13" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D252" s="13" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E252" s="14">
+      <c r="A252" s="7" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B252" s="7" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="D252" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="E252" s="18">
         <v>2024</v>
       </c>
-      <c r="F252" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G252" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H252" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I252" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J252" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K252" s="31">
-        <v>45658</v>
-      </c>
-      <c r="L252" s="31"/>
-      <c r="M252" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="N252" s="45"/>
-      <c r="O252" s="44" t="s">
-        <v>1271</v>
-      </c>
-      <c r="P252" s="27"/>
+      <c r="F252" s="18">
+        <v>24</v>
+      </c>
+      <c r="G252" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H252" s="18">
+        <v>87</v>
+      </c>
+      <c r="I252" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J252" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K252" s="42">
+        <v>45396</v>
+      </c>
+      <c r="L252" s="42"/>
+      <c r="M252" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="N252" s="11"/>
+      <c r="O252" s="19" t="s">
+        <v>1316</v>
+      </c>
+      <c r="P252" s="7"/>
       <c r="Q252" s="24"/>
       <c r="R252" s="25"/>
       <c r="S252" s="7"/>
@@ -18705,46 +18720,48 @@
       <c r="U252" s="7"/>
     </row>
     <row r="253" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A253" s="13" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B253" s="13" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C253" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D253" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E253" s="14">
+      <c r="A253" s="7" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D253" s="7" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E253" s="18">
         <v>2024</v>
       </c>
-      <c r="F253" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G253" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H253" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I253" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J253" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K253" s="31">
-        <v>45659</v>
-      </c>
-      <c r="L253" s="31"/>
-      <c r="M253" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="N253" s="45"/>
-      <c r="O253" s="44"/>
-      <c r="P253" s="27"/>
+      <c r="F253" s="18">
+        <v>18</v>
+      </c>
+      <c r="G253" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H253" s="18">
+        <v>100496</v>
+      </c>
+      <c r="I253" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J253" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K253" s="42">
+        <v>45444</v>
+      </c>
+      <c r="L253" s="42"/>
+      <c r="M253" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="N253" s="11"/>
+      <c r="O253" s="19" t="s">
+        <v>1321</v>
+      </c>
+      <c r="P253" s="7"/>
       <c r="Q253" s="24"/>
       <c r="R253" s="25"/>
       <c r="S253" s="7"/>
@@ -18753,16 +18770,16 @@
     </row>
     <row r="254" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A254" s="13" t="s">
-        <v>1178</v>
+        <v>1093</v>
       </c>
       <c r="B254" s="13" t="s">
-        <v>1179</v>
+        <v>1094</v>
       </c>
       <c r="C254" s="13" t="s">
-        <v>668</v>
+        <v>1095</v>
       </c>
       <c r="D254" s="13" t="s">
-        <v>669</v>
+        <v>1096</v>
       </c>
       <c r="E254" s="14">
         <v>2024</v>
@@ -18783,14 +18800,16 @@
         <v>14</v>
       </c>
       <c r="K254" s="31">
-        <v>45660</v>
+        <v>45658</v>
       </c>
       <c r="L254" s="31"/>
       <c r="M254" s="31" t="s">
         <v>273</v>
       </c>
       <c r="N254" s="45"/>
-      <c r="O254" s="44"/>
+      <c r="O254" s="44" t="s">
+        <v>1268</v>
+      </c>
       <c r="P254" s="27"/>
       <c r="Q254" s="24"/>
       <c r="R254" s="25"/>
@@ -18798,36 +18817,83 @@
       <c r="T254" s="7"/>
       <c r="U254" s="7"/>
     </row>
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A255" s="13" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B255" s="13" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C255" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D255" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E255" s="14">
+        <v>2024</v>
+      </c>
+      <c r="F255" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G255" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H255" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I255" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J255" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K255" s="31">
+        <v>45659</v>
+      </c>
+      <c r="L255" s="31"/>
+      <c r="M255" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="N255" s="45"/>
+      <c r="O255" s="44"/>
+      <c r="P255" s="27"/>
+      <c r="Q255" s="24"/>
+      <c r="R255" s="25"/>
+      <c r="S255" s="7"/>
+      <c r="T255" s="7"/>
+      <c r="U255" s="7"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="T1:U112 T114:U231 V246:V247 T232:V240 V241:V242 T241:T242 T243:V245 U246 T248:V1048576">
-    <cfRule type="cellIs" dxfId="12" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="31" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="32" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T113:U113">
-    <cfRule type="cellIs" dxfId="10" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="29" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="30" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U241:U242">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="3" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="4" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T247:U247 T246">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19233,8 +19299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19270,11 +19336,11 @@
       </c>
       <c r="I1" s="55" t="str">
         <f ca="1">ROUND(J1/30,0)&amp;" md"</f>
-        <v>4 md</v>
+        <v>5 md</v>
       </c>
       <c r="J1" s="55">
         <f ca="1">AVERAGE(G:G)</f>
-        <v>113.09090909090909</v>
+        <v>136.18181818181819</v>
       </c>
       <c r="K1" s="54" t="s">
         <v>1164</v>
@@ -19298,38 +19364,38 @@
         <v>44958</v>
       </c>
       <c r="G2" s="12">
-        <f ca="1">TODAY()-F2</f>
-        <v>437</v>
+        <f t="shared" ref="G2:G12" ca="1" si="0">TODAY()-F2</f>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="10">
         <v>45146</v>
       </c>
       <c r="G3" s="12">
-        <f ca="1">TODAY()-F3</f>
-        <v>249</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>259</v>
@@ -19342,96 +19408,96 @@
         <v>45208</v>
       </c>
       <c r="G4" s="12">
-        <f ca="1">TODAY()-F4</f>
-        <v>187</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1268</v>
+        <v>1273</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="10">
-        <v>45267</v>
+        <v>45299</v>
       </c>
       <c r="G5" s="12">
-        <f ca="1">TODAY()-F5</f>
-        <v>128</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>1273</v>
+        <v>1256</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1276</v>
+        <v>1257</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1274</v>
+        <v>267</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1275</v>
+        <v>268</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="10">
-        <v>45299</v>
+        <v>45320</v>
       </c>
       <c r="G6" s="12">
-        <f ca="1">TODAY()-F6</f>
-        <v>96</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>1258</v>
+        <v>1295</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1259</v>
+        <v>1296</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>267</v>
+        <v>1297</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>268</v>
+        <v>1298</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="10">
-        <v>45320</v>
+        <v>45363</v>
       </c>
       <c r="G7" s="12">
-        <f ca="1">TODAY()-F7</f>
-        <v>75</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1299</v>
+        <v>1314</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>1300</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>1301</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="10">
-        <v>45363</v>
+        <v>45372</v>
       </c>
       <c r="G8" s="12">
-        <f ca="1">TODAY()-F8</f>
-        <v>32</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -19439,87 +19505,87 @@
         <v>1302</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1317</v>
+        <v>1303</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1304</v>
+        <v>428</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1303</v>
+        <v>429</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="10">
-        <v>45372</v>
+        <v>45380</v>
       </c>
       <c r="G9" s="12">
-        <f ca="1">TODAY()-F9</f>
-        <v>23</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1306</v>
+        <v>1063</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>428</v>
+        <v>1084</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>429</v>
+        <v>344</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="10">
-        <v>45380</v>
+        <v>45393</v>
       </c>
       <c r="G10" s="12">
-        <f ca="1">TODAY()-F10</f>
-        <v>15</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>1307</v>
+        <v>1281</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1063</v>
+        <v>1282</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1084</v>
+        <v>108</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>344</v>
+        <v>109</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="10">
-        <v>45393</v>
+        <v>45395</v>
       </c>
       <c r="G11" s="12">
-        <f ca="1">TODAY()-F11</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>1284</v>
+        <v>1317</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1285</v>
+        <v>1318</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>108</v>
+        <v>1319</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>109</v>
+        <v>1319</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="10">
-        <v>45395</v>
+        <v>45398</v>
       </c>
       <c r="G12" s="12">
-        <f ca="1">TODAY()-F12</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -19584,7 +19650,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>8.4575342465753423</v>
+        <v>8.5534246575342472</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -19605,7 +19671,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4575342465753423</v>
+        <v>8.5534246575342472</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -19626,7 +19692,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8356164383561646</v>
+        <v>7.9315068493150687</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -19647,7 +19713,7 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>6.2054794520547949</v>
+        <v>6.3013698630136989</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -19749,7 +19815,7 @@
         <v>1036</v>
       </c>
       <c r="L2" s="53" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -19763,13 +19829,13 @@
         <v>1039</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="F3" s="48" t="s">
         <v>1037</v>
       </c>
       <c r="M3" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -19789,7 +19855,7 @@
         <v>1037</v>
       </c>
       <c r="M4" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -19809,7 +19875,7 @@
         <v>1037</v>
       </c>
       <c r="M5" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -19874,7 +19940,7 @@
         <v>1104</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="F9" s="48" t="s">
         <v>1037</v>
@@ -19891,7 +19957,7 @@
         <v>1107</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="G10" s="48" t="s">
         <v>1037</v>
@@ -19908,7 +19974,7 @@
         <v>1118</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="I11" s="48" t="s">
         <v>1037</v>
@@ -19942,7 +20008,7 @@
         <v>1132</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="I13" s="48" t="s">
         <v>1037</v>
@@ -20094,13 +20160,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B23" s="49" t="s">
         <v>1181</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="C23" s="49" t="s">
         <v>1182</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>1183</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>1044</v>
@@ -20111,13 +20177,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C24" s="49" t="s">
         <v>1186</v>
-      </c>
-      <c r="B24" s="49" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>1187</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>1044</v>
@@ -20128,13 +20194,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B25" s="49" t="s">
         <v>1197</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="C25" s="49" t="s">
         <v>1198</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>1199</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>1055</v>
@@ -20145,16 +20211,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C26" s="49" t="s">
         <v>1221</v>
       </c>
-      <c r="B26" s="49" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>1223</v>
-      </c>
       <c r="D26" s="15" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="E26" s="48" t="s">
         <v>1037</v>
@@ -20162,16 +20228,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C27" s="49" t="s">
         <v>1228</v>
       </c>
-      <c r="B27" s="49" t="s">
-        <v>1229</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>1230</v>
-      </c>
       <c r="D27" s="15" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="F27" s="48" t="s">
         <v>1037</v>
@@ -20179,16 +20245,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C28" s="49" t="s">
         <v>1231</v>
       </c>
-      <c r="B28" s="49" t="s">
-        <v>1232</v>
-      </c>
-      <c r="C28" s="49" t="s">
-        <v>1233</v>
-      </c>
       <c r="D28" s="15" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="E28" s="48" t="s">
         <v>1037</v>
@@ -20196,13 +20262,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C29" s="49" t="s">
         <v>1234</v>
-      </c>
-      <c r="B29" s="49" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>1236</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>1044</v>
@@ -20213,16 +20279,16 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B30" s="49" t="s">
         <v>1237</v>
       </c>
-      <c r="B30" s="49" t="s">
-        <v>1239</v>
-      </c>
       <c r="C30" s="49" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="G30" s="48" t="s">
         <v>1037</v>
@@ -20230,13 +20296,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C31" s="49" t="s">
         <v>1240</v>
-      </c>
-      <c r="B31" s="49" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C31" s="49" t="s">
-        <v>1242</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>1044</v>
@@ -20247,13 +20313,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C32" s="49" t="s">
         <v>1247</v>
-      </c>
-      <c r="B32" s="49" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>1249</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>1055</v>
@@ -20264,13 +20330,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C33" s="49" t="s">
         <v>1250</v>
-      </c>
-      <c r="B33" s="49" t="s">
-        <v>1251</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>1252</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>1055</v>
@@ -20281,13 +20347,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B34" s="49" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="C34" s="49" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>1044</v>
@@ -20298,13 +20364,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="B35" s="49" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>1044</v>
@@ -20315,13 +20381,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="B36" s="49" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="C36" s="49" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>1044</v>
@@ -20332,13 +20398,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="B37" s="49" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="C37" s="49" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>1044</v>
@@ -20349,13 +20415,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="B38" s="49" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="C38" s="49" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>1044</v>
@@ -20366,13 +20432,13 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="B39" s="49" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="C39" s="49" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>1044</v>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37A61DF-0727-4B4B-8EE3-D3F66490878D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41E1F3A-699C-48B6-8E13-8FB310E6AD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3174" uniqueCount="1323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="1336">
   <si>
     <t>title</t>
   </si>
@@ -3569,9 +3569,6 @@
     <t>https://pubmed.ncbi.nlm.nih.gov/37501782/</t>
   </si>
   <si>
-    <t>Pelgrims, Ingrid; Devleesschauwer, Brecht; Vandevijvere, Stefanie; De Clercq, Eva M; Gorasso, Vanessa; Van der Heyden, Johan; Vansteelandt, Stijn</t>
-  </si>
-  <si>
     <t>10.1007/s12571-023-01385-1</t>
   </si>
   <si>
@@ -3809,9 +3806,6 @@
     <t>Van den Borre, Laura; Gadeyne, Sylvie; Devleesschauwer, Brecht; Vanthomme, Katrien</t>
   </si>
   <si>
-    <t>Santos, João Vasco; Padron Monedero, Alicia; Bikbov, Boris; Grad, Diana Alecsandra; Plass, Dietrich; Mechili, Enkeleint A; Gazzelloni, Federica; Fischer, Florian; Sulo, Gerhard; Ngwa, Che Henry; Noguer-Zambrano, Isabel; Peñalvo, José Luis; Haagsma, Juanita A; Kissmiova-Skarbek, Katarzyna; Monasta, Lorenzo; Ghith, Nermin; Sarmiento-Suarez, Rodrigo; Hrzic, Rok; Haneef, Romana; O'Caoimh, Rónán; Cuschieri, Sarah; Mondello, Stefania; Kabir, Zubair; Freitas, Alberto; Devleesschauwer, Brecht; GBD 2019 EU State of Health Collaborators</t>
-  </si>
-  <si>
     <t>Multimorbidity and frailty are associated with poorer SARS-CoV-2-related outcomes: systematic review of population-based studies</t>
   </si>
   <si>
@@ -3848,12 +3842,6 @@
     <t>Implications of sectorial spatial-seasonal air pollution patterns for source allocation and public health policy making</t>
   </si>
   <si>
-    <t>Environmental Health Perspectives</t>
-  </si>
-  <si>
-    <t>Environ. Health Perspect.</t>
-  </si>
-  <si>
     <t>Vandeninden, Bram; Bouland, Catherine; Devleesschauwer, Brecht; Vanpoucke, Charlotte; Hooyberghs, Hans; Otavova, Martina; Faes, Christel; De Clercq, Eva M.</t>
   </si>
   <si>
@@ -4002,6 +3990,57 @@
   </si>
   <si>
     <t>Gorasso, Vanessa; Vandevijvere, Stefanie; Van der Heyden, Johan; Pelgrims, Ingrid; Hilderink, Henk; Nusselder, Wilma; Demoury, Claire; Schmidt, Masja; Vansteelandt, Stijn; De Smedt, Delphine; Devleesschauwer, Brecht</t>
+  </si>
+  <si>
+    <t>Santos, João Vasco; Padron Monedero, Alicia; Bikbov, Boris; Grad, Diana Alecsandra; Plass, Dietrich; Mechili, Enkeleint A; Gazzelloni, Federica; Fischer, Florian; Sulo, Gerhard; Ngwa, Che Henry; Noguer-Zambrano, Isabel; Peñalvo, José Luis; Haagsma, Juanita A; Kissmiova-Skarbek, Katarzyna; Monasta, Lorenzo; Ghith, Nermin; Sarmiento-Suarez, Rodrigo; Hrzic, Rok; Haneef, Romana; O'Caoimh, Rónán; Cuschieri, Sarah; Mondello, Stefania; Kabir, Zubair; GBD 2019 EU State of Health Collaborators; Freitas, Alberto; Devleesschauwer, Brecht</t>
+  </si>
+  <si>
+    <t>10.1186/s12889-024-18529-3</t>
+  </si>
+  <si>
+    <t>Accuracy of immunological tests on serum and urine for diagnosis of Taenia solium neurocysticercosis: A systematic review</t>
+  </si>
+  <si>
+    <t>PLOS Neglect. Trop. Dis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Van Acker, Lisa; Toribio, Luz; Chachage, Mkunde; Zeng, Hang; Devleesschauwer, Brecht; Garcia, Héctor H.; Gabriël, Sarah </t>
+  </si>
+  <si>
+    <t>The role of socio-economic determinants in SARS-CoV-2 health outcomes: systematic review of population-based studies</t>
+  </si>
+  <si>
+    <t>Unravelling demographic and socioeconomic patterns of COVID-19 death and other causes of death: results of an individual-level analysis of exhaustive cause of death data in Belgium, 2020</t>
+  </si>
+  <si>
+    <t>Cannabis use is not associated with altered levels of physical activity. Evidence from  the Belgian Health Interview Survey</t>
+  </si>
+  <si>
+    <t>Vernaillen, Brent; Devleesschauwer, Brecht; Vansteelandt, Stijn; Gisle, Lydia; Drieskens, Sabine; Damian, Elena</t>
+  </si>
+  <si>
+    <t>Addiction</t>
+  </si>
+  <si>
+    <t>Cavillot, Lisa; Van den Borre, Laura; Vanthomme, Katrien; Scohy, Aline; Deboosere, Patrick; Devleesschauwer, Brecht; Speybroeck, Niko; Gadeyne, Sylvie</t>
+  </si>
+  <si>
+    <t>Ghattas, Jinane; Makovski, Tatjana T; Monnier-Besnard, Stéphanie; Cavillot, Lisa; Ambrožová, Monika; Vašinová, Barbora; Feteira-Santos, Rodrigo; Bezzegh, Peter; Bollmann, Felipe Ponce; Cottam, James; Haneef, Romana; Speybroeck, Niko; Nogueira, Paulo Jorge; Forjaz, Maria João; Coste, Joël; Carcaillon-Bentata, Laure; Devleesschauwer, Brecht</t>
+  </si>
+  <si>
+    <t>BMJ Global Health</t>
+  </si>
+  <si>
+    <t>BMJ Glob. Health</t>
+  </si>
+  <si>
+    <t>The economic burden of smoking in Belgium: incremental healthcare costs and lost productivity</t>
+  </si>
+  <si>
+    <t>Vynckier, Pieter; Schmidt, Masja; Nayani, Sarah; Guariguata, Leonor; Devleesschauwer, Brecht; Verhaeghe, Nick</t>
+  </si>
+  <si>
+    <t>Pelgrims, Ingrid; Devleesschauwer, Brecht; Vandevijvere, Stefanie; De Clercq, Eva M; Van der Heyden, Johan; Vansteelandt, Stijn</t>
   </si>
 </sst>
 </file>
@@ -4655,10 +4694,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabel13" displayName="Tabel13" ref="A1:G12" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:G12" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
-    <sortCondition ref="F1:F11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabel13" displayName="Tabel13" ref="A1:G17" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:G17" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G17">
+    <sortCondition ref="F1:F17"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="title" dataDxfId="19"/>
@@ -5018,8 +5057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B247" sqref="B247"/>
+    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A254" sqref="A254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17382,7 +17421,7 @@
         <v>14</v>
       </c>
       <c r="H227" s="18" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="I227" s="18" t="s">
         <v>14</v>
@@ -17399,7 +17438,7 @@
       </c>
       <c r="N227" s="11"/>
       <c r="O227" s="19" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="P227" s="7"/>
       <c r="Q227" s="24"/>
@@ -17414,10 +17453,10 @@
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B228" s="7" t="s">
         <v>1188</v>
-      </c>
-      <c r="B228" s="7" t="s">
-        <v>1189</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>267</v>
@@ -17452,7 +17491,7 @@
       </c>
       <c r="N228" s="11"/>
       <c r="O228" s="19" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="P228" s="7"/>
       <c r="Q228" s="24"/>
@@ -17505,7 +17544,7 @@
       </c>
       <c r="N229" s="11"/>
       <c r="O229" s="19" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="P229" s="7"/>
       <c r="Q229" s="24"/>
@@ -17558,7 +17597,7 @@
       </c>
       <c r="N230" s="11"/>
       <c r="O230" s="19" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="P230" s="7"/>
       <c r="Q230" s="24"/>
@@ -17573,10 +17612,10 @@
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B231" s="7" t="s">
         <v>1191</v>
-      </c>
-      <c r="B231" s="7" t="s">
-        <v>1192</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>267</v>
@@ -17611,7 +17650,7 @@
       </c>
       <c r="N231" s="11"/>
       <c r="O231" s="19" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="P231" s="7"/>
       <c r="Q231" s="24"/>
@@ -17717,7 +17756,7 @@
       </c>
       <c r="N233" s="11"/>
       <c r="O233" s="19" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="P233" s="7"/>
       <c r="Q233" s="24"/>
@@ -17753,7 +17792,7 @@
         <v>99</v>
       </c>
       <c r="H234" s="18" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I234" s="18" t="s">
         <v>14</v>
@@ -17770,7 +17809,7 @@
       </c>
       <c r="N234" s="11"/>
       <c r="O234" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="P234" s="7"/>
       <c r="Q234" s="24"/>
@@ -17785,7 +17824,7 @@
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B235" s="7" t="s">
         <v>1051</v>
@@ -17806,7 +17845,7 @@
         <v>99</v>
       </c>
       <c r="H235" s="18" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I235" s="18" t="s">
         <v>14</v>
@@ -17823,7 +17862,7 @@
       </c>
       <c r="N235" s="11"/>
       <c r="O235" s="19" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="P235" s="7"/>
       <c r="Q235" s="24"/>
@@ -17859,7 +17898,7 @@
         <v>99</v>
       </c>
       <c r="H236" s="18" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="I236" s="18" t="s">
         <v>14</v>
@@ -17876,7 +17915,7 @@
       </c>
       <c r="N236" s="11"/>
       <c r="O236" s="19" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="P236" s="7"/>
       <c r="Q236" s="24"/>
@@ -17929,7 +17968,7 @@
       </c>
       <c r="N237" s="11"/>
       <c r="O237" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="P237" s="7"/>
       <c r="Q237" s="24"/>
@@ -17982,7 +18021,7 @@
       </c>
       <c r="N238" s="11"/>
       <c r="O238" s="19" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P238" s="7"/>
       <c r="Q238" s="24"/>
@@ -18003,10 +18042,10 @@
         <v>980</v>
       </c>
       <c r="C239" s="7" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D239" s="7" t="s">
         <v>1213</v>
-      </c>
-      <c r="D239" s="7" t="s">
-        <v>1214</v>
       </c>
       <c r="E239" s="18">
         <v>2023</v>
@@ -18035,7 +18074,7 @@
       </c>
       <c r="N239" s="11"/>
       <c r="O239" s="19" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="P239" s="7"/>
       <c r="Q239" s="24"/>
@@ -18050,10 +18089,10 @@
     </row>
     <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B240" s="7" t="s">
         <v>1241</v>
-      </c>
-      <c r="B240" s="7" t="s">
-        <v>1242</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>1085</v>
@@ -18071,7 +18110,7 @@
         <v>69</v>
       </c>
       <c r="H240" s="18" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="I240" s="18" t="s">
         <v>14</v>
@@ -18088,7 +18127,7 @@
       </c>
       <c r="N240" s="11"/>
       <c r="O240" s="19" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="P240" s="7"/>
       <c r="Q240" s="24"/>
@@ -18106,7 +18145,7 @@
         <v>1083</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C241" s="7" t="s">
         <v>1084</v>
@@ -18141,7 +18180,7 @@
       </c>
       <c r="N241" s="11"/>
       <c r="O241" s="19" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="P241" s="7"/>
       <c r="Q241" s="24"/>
@@ -18156,16 +18195,16 @@
     </row>
     <row r="242" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B242" s="7" t="s">
         <v>1168</v>
       </c>
       <c r="C242" s="7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D242" s="7" t="s">
         <v>1223</v>
-      </c>
-      <c r="D242" s="7" t="s">
-        <v>1224</v>
       </c>
       <c r="E242" s="18">
         <v>2023</v>
@@ -18194,7 +18233,7 @@
       </c>
       <c r="N242" s="11"/>
       <c r="O242" s="19" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="P242" s="7"/>
       <c r="Q242" s="24"/>
@@ -18315,10 +18354,10 @@
     </row>
     <row r="245" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B245" s="7" t="s">
         <v>1206</v>
-      </c>
-      <c r="B245" s="7" t="s">
-        <v>1207</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>160</v>
@@ -18336,7 +18375,7 @@
         <v>101</v>
       </c>
       <c r="H245" s="18" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="I245" s="18" t="s">
         <v>14</v>
@@ -18353,7 +18392,7 @@
       </c>
       <c r="N245" s="11"/>
       <c r="O245" s="19" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="P245" s="7"/>
       <c r="Q245" s="24"/>
@@ -18369,7 +18408,7 @@
         <v>1088</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>1138</v>
@@ -18387,7 +18426,7 @@
         <v>91</v>
       </c>
       <c r="H246" s="18" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="I246" s="18" t="s">
         <v>14</v>
@@ -18404,7 +18443,7 @@
       </c>
       <c r="N246" s="11"/>
       <c r="O246" s="19" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="P246" s="7"/>
       <c r="Q246" s="24"/>
@@ -18417,10 +18456,10 @@
     </row>
     <row r="247" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B247" s="7" t="s">
         <v>1211</v>
-      </c>
-      <c r="B247" s="7" t="s">
-        <v>1212</v>
       </c>
       <c r="C247" s="7" t="s">
         <v>160</v>
@@ -18438,7 +18477,7 @@
         <v>125</v>
       </c>
       <c r="H247" s="18" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="I247" s="18" t="s">
         <v>14</v>
@@ -18455,7 +18494,7 @@
       </c>
       <c r="N247" s="11"/>
       <c r="O247" s="19" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="P247" s="7"/>
       <c r="Q247" s="24"/>
@@ -18506,7 +18545,7 @@
       </c>
       <c r="N248" s="11"/>
       <c r="O248" s="19" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="P248" s="7"/>
       <c r="Q248" s="24"/>
@@ -18519,16 +18558,16 @@
     </row>
     <row r="249" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B249" s="7" t="s">
         <v>1087</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="D249" s="7" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="E249" s="18">
         <v>2024</v>
@@ -18557,7 +18596,7 @@
       </c>
       <c r="N249" s="11"/>
       <c r="O249" s="19" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="P249" s="7"/>
       <c r="Q249" s="24"/>
@@ -18608,7 +18647,7 @@
       </c>
       <c r="N250" s="11"/>
       <c r="O250" s="19" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="P250" s="7"/>
       <c r="Q250" s="24"/>
@@ -18659,7 +18698,7 @@
       </c>
       <c r="N251" s="11"/>
       <c r="O251" s="19" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="P251" s="7"/>
       <c r="Q251" s="24"/>
@@ -18672,10 +18711,10 @@
     </row>
     <row r="252" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>1178</v>
+        <v>1335</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>668</v>
@@ -18710,39 +18749,41 @@
       </c>
       <c r="N252" s="11"/>
       <c r="O252" s="19" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="P252" s="7"/>
       <c r="Q252" s="24"/>
       <c r="R252" s="25"/>
       <c r="S252" s="7"/>
       <c r="T252" s="7"/>
-      <c r="U252" s="7"/>
+      <c r="U252" s="7" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="253" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
-        <v>1320</v>
+        <v>1136</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>1265</v>
+        <v>1319</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>1266</v>
+        <v>89</v>
       </c>
       <c r="D253" s="7" t="s">
-        <v>1267</v>
+        <v>89</v>
       </c>
       <c r="E253" s="18">
         <v>2024</v>
       </c>
       <c r="F253" s="18">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G253" s="19" t="s">
         <v>14</v>
       </c>
       <c r="H253" s="18">
-        <v>100496</v>
+        <v>1374</v>
       </c>
       <c r="I253" s="18" t="s">
         <v>14</v>
@@ -18751,7 +18792,7 @@
         <v>14</v>
       </c>
       <c r="K253" s="42">
-        <v>45444</v>
+        <v>45434</v>
       </c>
       <c r="L253" s="42"/>
       <c r="M253" s="42" t="s">
@@ -18759,76 +18800,80 @@
       </c>
       <c r="N253" s="11"/>
       <c r="O253" s="19" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="P253" s="7"/>
       <c r="Q253" s="24"/>
       <c r="R253" s="25"/>
       <c r="S253" s="7"/>
       <c r="T253" s="7"/>
-      <c r="U253" s="7"/>
+      <c r="U253" s="7" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="254" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A254" s="13" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B254" s="13" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C254" s="13" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D254" s="13" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E254" s="14">
+      <c r="A254" s="7" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B254" s="7" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D254" s="7" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E254" s="18">
         <v>2024</v>
       </c>
-      <c r="F254" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G254" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H254" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I254" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J254" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K254" s="31">
-        <v>45658</v>
-      </c>
-      <c r="L254" s="31"/>
-      <c r="M254" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="N254" s="45"/>
-      <c r="O254" s="44" t="s">
-        <v>1268</v>
-      </c>
-      <c r="P254" s="27"/>
+      <c r="F254" s="18">
+        <v>18</v>
+      </c>
+      <c r="G254" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H254" s="18">
+        <v>100496</v>
+      </c>
+      <c r="I254" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J254" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K254" s="42">
+        <v>45444</v>
+      </c>
+      <c r="L254" s="42"/>
+      <c r="M254" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="N254" s="11"/>
+      <c r="O254" s="19" t="s">
+        <v>1317</v>
+      </c>
+      <c r="P254" s="7"/>
       <c r="Q254" s="24"/>
       <c r="R254" s="25"/>
       <c r="S254" s="7"/>
       <c r="T254" s="7"/>
-      <c r="U254" s="7"/>
+      <c r="U254" s="7" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="255" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A255" s="13" t="s">
-        <v>1136</v>
+        <v>1093</v>
       </c>
       <c r="B255" s="13" t="s">
-        <v>1258</v>
+        <v>1094</v>
       </c>
       <c r="C255" s="13" t="s">
-        <v>89</v>
+        <v>1095</v>
       </c>
       <c r="D255" s="13" t="s">
-        <v>89</v>
+        <v>1096</v>
       </c>
       <c r="E255" s="14">
         <v>2024</v>
@@ -18849,14 +18894,16 @@
         <v>14</v>
       </c>
       <c r="K255" s="31">
-        <v>45659</v>
+        <v>45658</v>
       </c>
       <c r="L255" s="31"/>
       <c r="M255" s="31" t="s">
         <v>273</v>
       </c>
       <c r="N255" s="45"/>
-      <c r="O255" s="44"/>
+      <c r="O255" s="44" t="s">
+        <v>1266</v>
+      </c>
       <c r="P255" s="27"/>
       <c r="Q255" s="24"/>
       <c r="R255" s="25"/>
@@ -19297,10 +19344,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19336,11 +19383,11 @@
       </c>
       <c r="I1" s="55" t="str">
         <f ca="1">ROUND(J1/30,0)&amp;" md"</f>
-        <v>5 md</v>
+        <v>4 md</v>
       </c>
       <c r="J1" s="55">
         <f ca="1">AVERAGE(G:G)</f>
-        <v>136.18181818181819</v>
+        <v>131.25</v>
       </c>
       <c r="K1" s="54" t="s">
         <v>1164</v>
@@ -19364,38 +19411,38 @@
         <v>44958</v>
       </c>
       <c r="G2" s="12">
-        <f t="shared" ref="G2:G12" ca="1" si="0">TODAY()-F2</f>
-        <v>472</v>
+        <f ca="1">TODAY()-F2</f>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="10">
         <v>45146</v>
       </c>
       <c r="G3" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>284</v>
+        <f ca="1">TODAY()-F3</f>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>259</v>
@@ -19408,52 +19455,52 @@
         <v>45208</v>
       </c>
       <c r="G4" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>222</v>
+        <f ca="1">TODAY()-F4</f>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>1270</v>
+        <v>1255</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1273</v>
+        <v>1256</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1271</v>
+        <v>267</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1272</v>
+        <v>268</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="10">
-        <v>45299</v>
+        <v>45320</v>
       </c>
       <c r="G5" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>131</v>
+        <f ca="1">TODAY()-F5</f>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>1256</v>
+        <v>1291</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1257</v>
+        <v>1292</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>267</v>
+        <v>1293</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>268</v>
+        <v>1294</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="10">
-        <v>45320</v>
+        <v>45363</v>
       </c>
       <c r="G6" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>110</v>
+        <f ca="1">TODAY()-F6</f>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -19461,131 +19508,241 @@
         <v>1295</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1296</v>
+        <v>1310</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>1297</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="10">
-        <v>45363</v>
+        <v>45372</v>
       </c>
       <c r="G7" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <f ca="1">TODAY()-F7</f>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>1299</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>1314</v>
-      </c>
       <c r="C8" s="7" t="s">
-        <v>1301</v>
+        <v>428</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1300</v>
+        <v>429</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="10">
-        <v>45372</v>
+        <v>45380</v>
       </c>
       <c r="G8" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <f ca="1">TODAY()-F8</f>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1303</v>
+        <v>1063</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>428</v>
+        <v>1084</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>429</v>
+        <v>344</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="10">
-        <v>45380</v>
+        <v>45393</v>
       </c>
       <c r="G9" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <f ca="1">TODAY()-F9</f>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>1304</v>
+        <v>1277</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1063</v>
+        <v>1278</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1084</v>
+        <v>108</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>344</v>
+        <v>109</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="10">
-        <v>45393</v>
+        <v>45395</v>
       </c>
       <c r="G10" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <f ca="1">TODAY()-F10</f>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>1281</v>
+        <v>1313</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1282</v>
+        <v>1314</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>108</v>
+        <v>1315</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>109</v>
+        <v>1315</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="10">
-        <v>45395</v>
+        <v>45398</v>
       </c>
       <c r="G11" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <f ca="1">TODAY()-F11</f>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>1317</v>
+        <v>1326</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1318</v>
+        <v>1327</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1319</v>
+        <v>1328</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1319</v>
+        <v>1328</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="10">
-        <v>45398</v>
+        <v>45434</v>
       </c>
       <c r="G12" s="12">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">TODAY()-F12</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="10">
+        <v>45447</v>
+      </c>
+      <c r="G13" s="12">
+        <f ca="1">TODAY()-F13</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="10">
+        <v>45454</v>
+      </c>
+      <c r="G14" s="12">
+        <f ca="1">TODAY()-F14</f>
         <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="10">
+        <v>45460</v>
+      </c>
+      <c r="G15" s="12">
+        <f ca="1">TODAY()-F15</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="10">
+        <v>45468</v>
+      </c>
+      <c r="G16" s="12">
+        <f ca="1">TODAY()-F16</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="10">
+        <v>45480</v>
+      </c>
+      <c r="G17" s="12">
+        <f ca="1">TODAY()-F17</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -19650,7 +19807,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>8.5534246575342472</v>
+        <v>8.706849315068494</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -19671,7 +19828,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5534246575342472</v>
+        <v>8.706849315068494</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -19692,7 +19849,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9315068493150687</v>
+        <v>8.0849315068493155</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -19713,7 +19870,7 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>6.3013698630136989</v>
+        <v>6.4547945205479449</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -19815,7 +19972,7 @@
         <v>1036</v>
       </c>
       <c r="L2" s="53" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -19829,13 +19986,13 @@
         <v>1039</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F3" s="48" t="s">
         <v>1037</v>
       </c>
       <c r="M3" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -19855,7 +20012,7 @@
         <v>1037</v>
       </c>
       <c r="M4" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -19875,7 +20032,7 @@
         <v>1037</v>
       </c>
       <c r="M5" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -19940,7 +20097,7 @@
         <v>1104</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F9" s="48" t="s">
         <v>1037</v>
@@ -19957,7 +20114,7 @@
         <v>1107</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="G10" s="48" t="s">
         <v>1037</v>
@@ -19974,7 +20131,7 @@
         <v>1118</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="I11" s="48" t="s">
         <v>1037</v>
@@ -20008,7 +20165,7 @@
         <v>1132</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="I13" s="48" t="s">
         <v>1037</v>
@@ -20160,13 +20317,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B23" s="49" t="s">
         <v>1180</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="C23" s="49" t="s">
         <v>1181</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>1182</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>1044</v>
@@ -20177,13 +20334,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C24" s="49" t="s">
         <v>1185</v>
-      </c>
-      <c r="B24" s="49" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>1186</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>1044</v>
@@ -20194,13 +20351,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B25" s="49" t="s">
         <v>1196</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="C25" s="49" t="s">
         <v>1197</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>1198</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>1055</v>
@@ -20211,16 +20368,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B26" s="49" t="s">
         <v>1219</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="C26" s="49" t="s">
         <v>1220</v>
       </c>
-      <c r="C26" s="49" t="s">
-        <v>1221</v>
-      </c>
       <c r="D26" s="15" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="E26" s="48" t="s">
         <v>1037</v>
@@ -20228,16 +20385,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B27" s="49" t="s">
         <v>1226</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="C27" s="49" t="s">
         <v>1227</v>
       </c>
-      <c r="C27" s="49" t="s">
-        <v>1228</v>
-      </c>
       <c r="D27" s="15" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F27" s="48" t="s">
         <v>1037</v>
@@ -20245,16 +20402,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B28" s="49" t="s">
         <v>1229</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="C28" s="49" t="s">
         <v>1230</v>
       </c>
-      <c r="C28" s="49" t="s">
-        <v>1231</v>
-      </c>
       <c r="D28" s="15" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="E28" s="48" t="s">
         <v>1037</v>
@@ -20262,13 +20419,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B29" s="49" t="s">
         <v>1232</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="C29" s="49" t="s">
         <v>1233</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>1234</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>1044</v>
@@ -20279,16 +20436,16 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C30" s="49" t="s">
         <v>1235</v>
       </c>
-      <c r="B30" s="49" t="s">
-        <v>1237</v>
-      </c>
-      <c r="C30" s="49" t="s">
-        <v>1236</v>
-      </c>
       <c r="D30" s="15" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="G30" s="48" t="s">
         <v>1037</v>
@@ -20296,13 +20453,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B31" s="49" t="s">
         <v>1238</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="C31" s="49" t="s">
         <v>1239</v>
-      </c>
-      <c r="C31" s="49" t="s">
-        <v>1240</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>1044</v>
@@ -20313,13 +20470,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B32" s="49" t="s">
         <v>1245</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="C32" s="49" t="s">
         <v>1246</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>1247</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>1055</v>
@@ -20330,13 +20487,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B33" s="49" t="s">
         <v>1248</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="C33" s="49" t="s">
         <v>1249</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>1250</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>1055</v>
@@ -20347,13 +20504,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="B34" s="49" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="C34" s="49" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>1044</v>
@@ -20364,13 +20521,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="B35" s="49" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>1044</v>
@@ -20381,13 +20538,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="B36" s="49" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="C36" s="49" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>1044</v>
@@ -20398,13 +20555,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="B37" s="49" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="C37" s="49" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>1044</v>
@@ -20415,13 +20572,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="B38" s="49" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="C38" s="49" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>1044</v>
@@ -20432,13 +20589,13 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="B39" s="49" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="C39" s="49" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>1044</v>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41E1F3A-699C-48B6-8E13-8FB310E6AD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B985B802-F3AD-43C6-98CC-7627941C2CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="1336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3221" uniqueCount="1342">
   <si>
     <t>title</t>
   </si>
@@ -3980,9 +3980,6 @@
     <t>Baklicharov, Georgi; Ley, Christophe; Gorasso, Vanessa; Devleesschauwer, Brecht; Vansteelandt, Stijn</t>
   </si>
   <si>
-    <t>Biometrika</t>
-  </si>
-  <si>
     <t>Area and individual level analyses of demographic and socio-economic disparities in COVID-19 vaccination uptake in Belgium</t>
   </si>
   <si>
@@ -4028,12 +4025,6 @@
     <t>Ghattas, Jinane; Makovski, Tatjana T; Monnier-Besnard, Stéphanie; Cavillot, Lisa; Ambrožová, Monika; Vašinová, Barbora; Feteira-Santos, Rodrigo; Bezzegh, Peter; Bollmann, Felipe Ponce; Cottam, James; Haneef, Romana; Speybroeck, Niko; Nogueira, Paulo Jorge; Forjaz, Maria João; Coste, Joël; Carcaillon-Bentata, Laure; Devleesschauwer, Brecht</t>
   </si>
   <si>
-    <t>BMJ Global Health</t>
-  </si>
-  <si>
-    <t>BMJ Glob. Health</t>
-  </si>
-  <si>
     <t>The economic burden of smoking in Belgium: incremental healthcare costs and lost productivity</t>
   </si>
   <si>
@@ -4041,6 +4032,33 @@
   </si>
   <si>
     <t>Pelgrims, Ingrid; Devleesschauwer, Brecht; Vandevijvere, Stefanie; De Clercq, Eva M; Van der Heyden, Johan; Vansteelandt, Stijn</t>
+  </si>
+  <si>
+    <t>10.1186/s13023-024-03342-3</t>
+  </si>
+  <si>
+    <t>Journal of Epidemiology &amp; Community Health</t>
+  </si>
+  <si>
+    <t>The role of vaccination, underlying health conditions, and working in healthcare in the socioeconomic disparities in COVID-19 hospitalization: A mediation analysis using interventional effect models</t>
+  </si>
+  <si>
+    <t>Journal of Business &amp; Economic Statistics</t>
+  </si>
+  <si>
+    <t>J. Bus. Econ. Stat.</t>
+  </si>
+  <si>
+    <t>Cavillot, Lisa; Moerkerke, Beatrijs; Devleesschauwer, Brecht; Ghattas, Jinane; van Loenhout, Joris A F; Van den Borre, Laura; Speybroeck, Niko; Loeys, Tom; De Pauw, Robby</t>
+  </si>
+  <si>
+    <t>Linking animal and human health burden: challenges and opportunities</t>
+  </si>
+  <si>
+    <t>Devleesschauwer, Brecht; di Bari, Carlotta; Fastl, Christina; Babo Martins, Sara; Venkateswaran, Narmada; Pigott, David Michael</t>
+  </si>
+  <si>
+    <t>10.20506/rst.43.3520</t>
   </si>
 </sst>
 </file>
@@ -4382,6 +4400,86 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -4545,86 +4643,6 @@
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -4639,74 +4657,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabel1" displayName="Tabel1" ref="A1:U255" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
-  <autoFilter ref="A1:U255" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U255">
-    <sortCondition ref="K1:K255"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabel1" displayName="Tabel1" ref="A1:U258" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+  <autoFilter ref="A1:U258" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U258">
+    <sortCondition ref="K1:K258"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="title" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="authors" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="journal_full" dataDxfId="51"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="journal_short" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="year" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="volume" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="issue" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="eID" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="from" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="to" dataDxfId="44"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="date" dataDxfId="43"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="date_submitted" dataDxfId="42" dataCellStyle="Neutral"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="classification" dataDxfId="41"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="IF" dataDxfId="40"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="DOI" dataDxfId="39"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="WoS" dataDxfId="38"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="rank" dataDxfId="37"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="quartile" dataDxfId="36"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="category" dataDxfId="35"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="SC" dataDxfId="34"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="UGent" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="title" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="authors" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="journal_full" dataDxfId="59"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="journal_short" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="year" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="volume" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="issue" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="eID" dataDxfId="54"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="from" dataDxfId="53"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="to" dataDxfId="52"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="date" dataDxfId="51"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="date_submitted" dataDxfId="50" dataCellStyle="Neutral"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="classification" dataDxfId="49"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="IF" dataDxfId="48"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="DOI" dataDxfId="47"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="WoS" dataDxfId="46"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="rank" dataDxfId="45"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="quartile" dataDxfId="44"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="category" dataDxfId="43"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="SC" dataDxfId="42"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="UGent" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabel14" displayName="Tabel14" ref="A1:J12" totalsRowShown="0" headerRowDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabel14" displayName="Tabel14" ref="A1:J12" totalsRowShown="0" headerRowDxfId="40">
   <autoFilter ref="A1:J12" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N50">
     <sortCondition ref="H1:H50"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="title" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="authors" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="editors" dataDxfId="29"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="book" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="year" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="from" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="to" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="date" dataDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="IF" dataDxfId="23"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="DOI" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="title" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="authors" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="editors" dataDxfId="37"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="book" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="year" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="from" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="to" dataDxfId="33"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="date" dataDxfId="32"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="IF" dataDxfId="31"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="DOI" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabel13" displayName="Tabel13" ref="A1:G17" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:G17" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G17">
-    <sortCondition ref="F1:F17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabel13" displayName="Tabel13" ref="A1:G16" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:G16" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G16">
+    <sortCondition ref="F1:F16"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="title" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="authors" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="journal_full" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="journal_short" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="doi_preprint" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="date" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="COUNT" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="title" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="authors" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="journal_full" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="journal_short" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="doi_preprint" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="date" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="COUNT" dataDxfId="21">
       <calculatedColumnFormula>TODAY()-F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4715,18 +4733,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabel135" displayName="Tabel135" ref="A1:F5" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:F5" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K14">
     <sortCondition ref="E1:E14"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="title" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="authors" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="journal_full" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="journal_short" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="date" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="COUNT" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="title" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="authors" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="journal_full" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="journal_short" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="date" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="COUNT" dataDxfId="13">
       <calculatedColumnFormula>(TODAY()-E2)/365</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5055,10 +5073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U255"/>
+  <dimension ref="A1:U258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A254" sqref="A254"/>
+    <sheetView tabSelected="1" topLeftCell="A219" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A256" sqref="A256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18408,7 +18426,7 @@
         <v>1088</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>1138</v>
@@ -18714,7 +18732,7 @@
         <v>1311</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>668</v>
@@ -18765,7 +18783,7 @@
         <v>1136</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>89</v>
@@ -18800,7 +18818,7 @@
       </c>
       <c r="N253" s="11"/>
       <c r="O253" s="19" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="P253" s="7"/>
       <c r="Q253" s="24"/>
@@ -18813,7 +18831,7 @@
     </row>
     <row r="254" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B254" s="7" t="s">
         <v>1263</v>
@@ -18851,7 +18869,7 @@
       </c>
       <c r="N254" s="11"/>
       <c r="O254" s="19" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="P254" s="7"/>
       <c r="Q254" s="24"/>
@@ -18863,84 +18881,233 @@
       </c>
     </row>
     <row r="255" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A255" s="13" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B255" s="13" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C255" s="13" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D255" s="13" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E255" s="14">
+      <c r="A255" s="7" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B255" s="7" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="D255" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="E255" s="18">
         <v>2024</v>
       </c>
-      <c r="F255" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G255" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H255" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I255" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J255" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K255" s="31">
-        <v>45658</v>
-      </c>
-      <c r="L255" s="31"/>
-      <c r="M255" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="N255" s="45"/>
-      <c r="O255" s="44" t="s">
-        <v>1266</v>
-      </c>
-      <c r="P255" s="27"/>
+      <c r="F255" s="18">
+        <v>43</v>
+      </c>
+      <c r="G255" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H255" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I255" s="18">
+        <v>79</v>
+      </c>
+      <c r="J255" s="18">
+        <v>86</v>
+      </c>
+      <c r="K255" s="42">
+        <v>45505</v>
+      </c>
+      <c r="L255" s="42"/>
+      <c r="M255" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="N255" s="11"/>
+      <c r="O255" s="19" t="s">
+        <v>1341</v>
+      </c>
+      <c r="P255" s="7"/>
       <c r="Q255" s="24"/>
       <c r="R255" s="25"/>
       <c r="S255" s="7"/>
       <c r="T255" s="7"/>
-      <c r="U255" s="7"/>
+      <c r="U255" s="7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A256" s="7" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D256" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E256" s="18">
+        <v>2024</v>
+      </c>
+      <c r="F256" s="18">
+        <v>19</v>
+      </c>
+      <c r="G256" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H256" s="18">
+        <v>333</v>
+      </c>
+      <c r="I256" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J256" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K256" s="42">
+        <v>45544</v>
+      </c>
+      <c r="L256" s="42"/>
+      <c r="M256" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="N256" s="11"/>
+      <c r="O256" s="19" t="s">
+        <v>1333</v>
+      </c>
+      <c r="P256" s="7"/>
+      <c r="Q256" s="24"/>
+      <c r="R256" s="25"/>
+      <c r="S256" s="7"/>
+      <c r="T256" s="7"/>
+      <c r="U256" s="7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A257" s="13" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B257" s="13" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C257" s="13" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D257" s="13" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E257" s="14">
+        <v>2024</v>
+      </c>
+      <c r="F257" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G257" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H257" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I257" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J257" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K257" s="31">
+        <v>45658</v>
+      </c>
+      <c r="L257" s="31"/>
+      <c r="M257" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="N257" s="45"/>
+      <c r="O257" s="44" t="s">
+        <v>1266</v>
+      </c>
+      <c r="P257" s="27"/>
+      <c r="Q257" s="24"/>
+      <c r="R257" s="25"/>
+      <c r="S257" s="7"/>
+      <c r="T257" s="7"/>
+      <c r="U257" s="7"/>
+    </row>
+    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A258" s="13" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B258" s="13" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C258" s="13" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D258" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="E258" s="14">
+        <v>2024</v>
+      </c>
+      <c r="F258" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G258" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H258" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I258" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J258" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K258" s="31">
+        <v>45659</v>
+      </c>
+      <c r="L258" s="31"/>
+      <c r="M258" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="N258" s="45"/>
+      <c r="O258" s="44"/>
+      <c r="P258" s="27"/>
+      <c r="Q258" s="24"/>
+      <c r="R258" s="25"/>
+      <c r="S258" s="7"/>
+      <c r="T258" s="7"/>
+      <c r="U258" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="T1:U112 T114:U231 V246:V247 T232:V240 V241:V242 T241:T242 T243:V245 U246 T248:V1048576">
-    <cfRule type="cellIs" dxfId="63" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="31" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="32" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T113:U113">
-    <cfRule type="cellIs" dxfId="61" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="29" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="30" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U241:U242">
-    <cfRule type="cellIs" dxfId="59" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T247:U247 T246">
-    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19344,10 +19511,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19383,11 +19550,11 @@
       </c>
       <c r="I1" s="55" t="str">
         <f ca="1">ROUND(J1/30,0)&amp;" md"</f>
-        <v>4 md</v>
+        <v>5 md</v>
       </c>
       <c r="J1" s="55">
         <f ca="1">AVERAGE(G:G)</f>
-        <v>131.25</v>
+        <v>147.46666666666667</v>
       </c>
       <c r="K1" s="54" t="s">
         <v>1164</v>
@@ -19395,354 +19562,332 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>1061</v>
+        <v>1262</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1062</v>
+        <v>1261</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>25</v>
+        <v>1260</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>28</v>
+        <v>1267</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="10">
-        <v>44958</v>
+        <v>45146</v>
       </c>
       <c r="G2" s="12">
         <f ca="1">TODAY()-F2</f>
-        <v>528</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>1262</v>
+        <v>1204</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1261</v>
+        <v>1214</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>1260</v>
+        <v>259</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1267</v>
+        <v>262</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="10">
-        <v>45146</v>
+        <v>45208</v>
       </c>
       <c r="G3" s="12">
         <f ca="1">TODAY()-F3</f>
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>1204</v>
+        <v>1255</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1214</v>
+        <v>1256</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="10">
-        <v>45208</v>
+        <v>45320</v>
       </c>
       <c r="G4" s="12">
         <f ca="1">TODAY()-F4</f>
-        <v>278</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>1255</v>
+        <v>1291</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1256</v>
+        <v>1292</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>267</v>
+        <v>1293</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>268</v>
+        <v>1294</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="10">
-        <v>45320</v>
+        <v>45363</v>
       </c>
       <c r="G5" s="12">
         <f ca="1">TODAY()-F5</f>
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>1291</v>
+        <v>1295</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1292</v>
+        <v>1310</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1293</v>
+        <v>1297</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="10">
-        <v>45363</v>
+        <v>45372</v>
       </c>
       <c r="G6" s="12">
         <f ca="1">TODAY()-F6</f>
-        <v>123</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>1295</v>
+        <v>1298</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1310</v>
+        <v>1299</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>1297</v>
+        <v>428</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>1296</v>
+        <v>429</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="10">
-        <v>45372</v>
+        <v>45380</v>
       </c>
       <c r="G7" s="12">
         <f ca="1">TODAY()-F7</f>
-        <v>114</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>1298</v>
+        <v>1277</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1299</v>
+        <v>1278</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>428</v>
+        <v>108</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>429</v>
+        <v>109</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="10">
-        <v>45380</v>
+        <v>45395</v>
       </c>
       <c r="G8" s="12">
         <f ca="1">TODAY()-F8</f>
-        <v>106</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>1300</v>
+        <v>1325</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1063</v>
+        <v>1326</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1084</v>
+        <v>1327</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>344</v>
+        <v>1327</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="10">
-        <v>45393</v>
+        <v>45434</v>
       </c>
       <c r="G9" s="12">
         <f ca="1">TODAY()-F9</f>
-        <v>93</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>1277</v>
+        <v>1324</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1278</v>
+        <v>1328</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>108</v>
+        <v>1111</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>109</v>
+        <v>1112</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="10">
-        <v>45395</v>
+        <v>45447</v>
       </c>
       <c r="G10" s="12">
         <f ca="1">TODAY()-F10</f>
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>1313</v>
+        <v>1330</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1314</v>
+        <v>1331</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1315</v>
+        <v>287</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1315</v>
+        <v>330</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="10">
-        <v>45398</v>
+        <v>45454</v>
       </c>
       <c r="G11" s="12">
         <f ca="1">TODAY()-F11</f>
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1328</v>
+        <v>160</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1328</v>
+        <v>1321</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="10">
-        <v>45434</v>
+        <v>45468</v>
       </c>
       <c r="G12" s="12">
         <f ca="1">TODAY()-F12</f>
-        <v>52</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>1325</v>
+        <v>1268</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1329</v>
+        <v>1269</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1111</v>
+        <v>373</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1112</v>
+        <v>374</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="10">
-        <v>45447</v>
+        <v>45480</v>
       </c>
       <c r="G13" s="12">
         <f ca="1">TODAY()-F13</f>
-        <v>39</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>1333</v>
+        <v>1313</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1334</v>
+        <v>1314</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>287</v>
+        <v>1336</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>330</v>
+        <v>1337</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="10">
-        <v>45454</v>
+        <v>45488</v>
       </c>
       <c r="G14" s="12">
         <f ca="1">TODAY()-F14</f>
-        <v>32</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>1324</v>
+        <v>1335</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>1330</v>
+        <v>1338</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>1331</v>
+        <v>252</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1332</v>
+        <v>344</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="10">
-        <v>45460</v>
+        <v>45524</v>
       </c>
       <c r="G15" s="12">
         <f ca="1">TODAY()-F15</f>
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1323</v>
+        <v>1329</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>160</v>
+        <v>1334</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>1322</v>
+        <v>262</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="10">
-        <v>45468</v>
+        <v>45544</v>
       </c>
       <c r="G16" s="12">
         <f ca="1">TODAY()-F16</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>1269</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="10">
-        <v>45480</v>
-      </c>
-      <c r="G17" s="12">
-        <f ca="1">TODAY()-F17</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -19807,7 +19952,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>8.706849315068494</v>
+        <v>8.8794520547945197</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -19828,7 +19973,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>8.706849315068494</v>
+        <v>8.8794520547945197</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -19849,7 +19994,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0849315068493155</v>
+        <v>8.257534246575343</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -19870,7 +20015,7 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>6.4547945205479449</v>
+        <v>6.6273972602739724</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B985B802-F3AD-43C6-98CC-7627941C2CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13E38DA-AF98-4C63-BF8E-C48035C0EC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3221" uniqueCount="1342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3250" uniqueCount="1353">
   <si>
     <t>title</t>
   </si>
@@ -3920,9 +3920,6 @@
     <t>J. Subst. Use Addict. Treat.</t>
   </si>
   <si>
-    <t>Environmental burden of disease related to pyrethroid-insecticide exposure and ADHD in Europe based on Human Biomonitoring</t>
-  </si>
-  <si>
     <t>Environ. Health</t>
   </si>
   <si>
@@ -3965,9 +3962,6 @@
     <t>https://doi.org/10.1016/j.appet.2024.107291</t>
   </si>
   <si>
-    <t>Purece, Anthony; Thomsen, Sofie Theresa; Plass, Dietrich; Spyropoulou, Anastasia; Machera, Kyriaki; Palmont, Philippe; Crépet, Amélie; Benchrih, Rafiqa; Devleesschauwer, Brecht; Wieland, Nina; Scheepers, Paul T J</t>
-  </si>
-  <si>
     <t>The potential impact fraction of population weight reduction scenarios on non-communicable diseases in Belgium: application of the g-computation approach</t>
   </si>
   <si>
@@ -4059,6 +4053,45 @@
   </si>
   <si>
     <t>10.20506/rst.43.3520</t>
+  </si>
+  <si>
+    <t>10.1186/s12879-024-09847-3</t>
+  </si>
+  <si>
+    <t>BMC Medical Informatics and Decision Making</t>
+  </si>
+  <si>
+    <t>Opportunities and bottlenecks regarding the development of an administrative health data cohort and research infrastructure in Belgium: a qualitative interview study</t>
+  </si>
+  <si>
+    <t>Saelaert, Marlies; Devleesschauwer, Brecht</t>
+  </si>
+  <si>
+    <t>BMC Med. Inform. Decis. Mak.</t>
+  </si>
+  <si>
+    <t>Urban and transport planning, air pollution, and green space: health effects in three Belgian cities</t>
+  </si>
+  <si>
+    <t>Vandeninden, Bram; Devleesschauwer, Brecht; Otavova, Martina; Faes, Christel; Bouland, Catherine; De Clercq, Eva M</t>
+  </si>
+  <si>
+    <t>Journal of Urban Health</t>
+  </si>
+  <si>
+    <t>J. Urban Health</t>
+  </si>
+  <si>
+    <t>A preliminary estimate of the environmental burden of disease associated with exposure to pyrethroid insecticides and ADHD in Europe based on human biomonitoring</t>
+  </si>
+  <si>
+    <t>Purece, Anthony; Thomsen, Sofie Theresa; Plass, Dietrich; Spyropoulou, Anastasia; Machera, Kyriaki; Palmont, Philippe; Crépet, Amélie; Benchrih, Rafiqa; Devleesschauwer, Brecht; Wieland, Nina; Scheepers, Paul T J; Deepika, Deepika; Kumar, Vikas; Sanchez, Gerardo; Bessems, Jos; Piselli, Dario; Buekers, Jurgen</t>
+  </si>
+  <si>
+    <t>10.1186/s12940-024-01131-w</t>
+  </si>
+  <si>
+    <t>10.1186/s12963-024-00347-9</t>
   </si>
 </sst>
 </file>
@@ -4657,10 +4690,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabel1" displayName="Tabel1" ref="A1:U258" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
-  <autoFilter ref="A1:U258" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U258">
-    <sortCondition ref="K1:K258"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabel1" displayName="Tabel1" ref="A1:U262" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+  <autoFilter ref="A1:U262" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U262">
+    <sortCondition ref="K1:K262"/>
   </sortState>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="title" dataDxfId="61"/>
@@ -4712,10 +4745,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabel13" displayName="Tabel13" ref="A1:G16" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="A1:G16" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G16">
-    <sortCondition ref="F1:F16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabel13" displayName="Tabel13" ref="A1:G14" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:G14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">
+    <sortCondition ref="F1:F12"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="title" dataDxfId="27"/>
@@ -5073,10 +5106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U258"/>
+  <dimension ref="A1:U262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A256" sqref="A256"/>
+    <sheetView tabSelected="1" topLeftCell="A224" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A260" sqref="A260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18426,7 +18459,7 @@
         <v>1088</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>1138</v>
@@ -18729,10 +18762,10 @@
     </row>
     <row r="252" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>668</v>
@@ -18767,7 +18800,7 @@
       </c>
       <c r="N252" s="11"/>
       <c r="O252" s="19" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="P252" s="7"/>
       <c r="Q252" s="24"/>
@@ -18783,7 +18816,7 @@
         <v>1136</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>89</v>
@@ -18818,7 +18851,7 @@
       </c>
       <c r="N253" s="11"/>
       <c r="O253" s="19" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="P253" s="7"/>
       <c r="Q253" s="24"/>
@@ -18831,7 +18864,7 @@
     </row>
     <row r="254" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="B254" s="7" t="s">
         <v>1263</v>
@@ -18869,7 +18902,7 @@
       </c>
       <c r="N254" s="11"/>
       <c r="O254" s="19" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="P254" s="7"/>
       <c r="Q254" s="24"/>
@@ -18882,10 +18915,10 @@
     </row>
     <row r="255" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>813</v>
@@ -18920,7 +18953,7 @@
       </c>
       <c r="N255" s="11"/>
       <c r="O255" s="19" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="P255" s="7"/>
       <c r="Q255" s="24"/>
@@ -18971,7 +19004,7 @@
       </c>
       <c r="N256" s="11"/>
       <c r="O256" s="19" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="P256" s="7"/>
       <c r="Q256" s="24"/>
@@ -18983,48 +19016,48 @@
       </c>
     </row>
     <row r="257" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A257" s="13" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B257" s="13" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C257" s="13" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D257" s="13" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E257" s="14">
+      <c r="A257" s="7" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B257" s="7" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D257" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="E257" s="18">
         <v>2024</v>
       </c>
-      <c r="F257" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G257" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H257" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I257" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J257" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K257" s="31">
-        <v>45658</v>
-      </c>
-      <c r="L257" s="31"/>
-      <c r="M257" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="N257" s="45"/>
-      <c r="O257" s="44" t="s">
-        <v>1266</v>
-      </c>
-      <c r="P257" s="27"/>
+      <c r="F257" s="18">
+        <v>24</v>
+      </c>
+      <c r="G257" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H257" s="18">
+        <v>1027</v>
+      </c>
+      <c r="I257" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J257" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K257" s="42">
+        <v>45561</v>
+      </c>
+      <c r="L257" s="42"/>
+      <c r="M257" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="N257" s="11"/>
+      <c r="O257" s="19" t="s">
+        <v>1340</v>
+      </c>
+      <c r="P257" s="7"/>
       <c r="Q257" s="24"/>
       <c r="R257" s="25"/>
       <c r="S257" s="7"/>
@@ -19032,51 +19065,245 @@
       <c r="U257" s="7"/>
     </row>
     <row r="258" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A258" s="13" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B258" s="13" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C258" s="13" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D258" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="E258" s="14">
+      <c r="A258" s="7" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B258" s="7" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D258" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E258" s="18">
         <v>2024</v>
       </c>
-      <c r="F258" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G258" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H258" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I258" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J258" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K258" s="31">
-        <v>45659</v>
-      </c>
-      <c r="L258" s="31"/>
-      <c r="M258" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="N258" s="45"/>
-      <c r="O258" s="44"/>
-      <c r="P258" s="27"/>
+      <c r="F258" s="18">
+        <v>22</v>
+      </c>
+      <c r="G258" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H258" s="18">
+        <v>28</v>
+      </c>
+      <c r="I258" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J258" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K258" s="42">
+        <v>45572</v>
+      </c>
+      <c r="L258" s="42"/>
+      <c r="M258" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="N258" s="11"/>
+      <c r="O258" s="19" t="s">
+        <v>1352</v>
+      </c>
+      <c r="P258" s="7"/>
       <c r="Q258" s="24"/>
       <c r="R258" s="25"/>
       <c r="S258" s="7"/>
       <c r="T258" s="7"/>
       <c r="U258" s="7"/>
+    </row>
+    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A259" s="7" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B259" s="7" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D259" s="7" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E259" s="18">
+        <v>2024</v>
+      </c>
+      <c r="F259" s="18">
+        <v>23</v>
+      </c>
+      <c r="G259" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H259" s="18">
+        <v>91</v>
+      </c>
+      <c r="I259" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J259" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K259" s="42">
+        <v>45588</v>
+      </c>
+      <c r="L259" s="42"/>
+      <c r="M259" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="N259" s="11"/>
+      <c r="O259" s="19" t="s">
+        <v>1351</v>
+      </c>
+      <c r="P259" s="7"/>
+      <c r="Q259" s="24"/>
+      <c r="R259" s="25"/>
+      <c r="S259" s="7"/>
+      <c r="T259" s="7"/>
+      <c r="U259" s="7"/>
+    </row>
+    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A260" s="13" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B260" s="13" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C260" s="13" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D260" s="13" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E260" s="14">
+        <v>2024</v>
+      </c>
+      <c r="F260" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G260" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H260" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I260" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J260" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K260" s="31">
+        <v>45658</v>
+      </c>
+      <c r="L260" s="31"/>
+      <c r="M260" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="N260" s="45"/>
+      <c r="O260" s="44" t="s">
+        <v>1266</v>
+      </c>
+      <c r="P260" s="27"/>
+      <c r="Q260" s="24"/>
+      <c r="R260" s="25"/>
+      <c r="S260" s="7"/>
+      <c r="T260" s="7"/>
+      <c r="U260" s="7"/>
+    </row>
+    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A261" s="13" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B261" s="13" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C261" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D261" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E261" s="14">
+        <v>2024</v>
+      </c>
+      <c r="F261" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G261" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H261" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I261" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J261" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K261" s="31">
+        <v>45659</v>
+      </c>
+      <c r="L261" s="31"/>
+      <c r="M261" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="N261" s="45"/>
+      <c r="O261" s="44"/>
+      <c r="P261" s="27"/>
+      <c r="Q261" s="24"/>
+      <c r="R261" s="25"/>
+      <c r="S261" s="7"/>
+      <c r="T261" s="7"/>
+      <c r="U261" s="7"/>
+    </row>
+    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A262" s="13" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B262" s="13" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C262" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D262" s="13" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E262" s="14">
+        <v>2024</v>
+      </c>
+      <c r="F262" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G262" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H262" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I262" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J262" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K262" s="31">
+        <v>45659</v>
+      </c>
+      <c r="L262" s="31"/>
+      <c r="M262" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="N262" s="45"/>
+      <c r="O262" s="44"/>
+      <c r="P262" s="27"/>
+      <c r="Q262" s="24"/>
+      <c r="R262" s="25"/>
+      <c r="S262" s="7"/>
+      <c r="T262" s="7"/>
+      <c r="U262" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="T1:U112 T114:U231 V246:V247 T232:V240 V241:V242 T241:T242 T243:V245 U246 T248:V1048576">
@@ -19511,11 +19738,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19550,11 +19775,11 @@
       </c>
       <c r="I1" s="55" t="str">
         <f ca="1">ROUND(J1/30,0)&amp;" md"</f>
-        <v>5 md</v>
+        <v>6 md</v>
       </c>
       <c r="J1" s="55">
         <f ca="1">AVERAGE(G:G)</f>
-        <v>147.46666666666667</v>
+        <v>176.15384615384616</v>
       </c>
       <c r="K1" s="54" t="s">
         <v>1164</v>
@@ -19578,8 +19803,8 @@
         <v>45146</v>
       </c>
       <c r="G2" s="12">
-        <f ca="1">TODAY()-F2</f>
-        <v>403</v>
+        <f t="shared" ref="G2:G14" ca="1" si="0">TODAY()-F2</f>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -19600,8 +19825,8 @@
         <v>45208</v>
       </c>
       <c r="G3" s="12">
-        <f ca="1">TODAY()-F3</f>
-        <v>341</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -19622,8 +19847,8 @@
         <v>45320</v>
       </c>
       <c r="G4" s="12">
-        <f ca="1">TODAY()-F4</f>
-        <v>229</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -19644,250 +19869,206 @@
         <v>45363</v>
       </c>
       <c r="G5" s="12">
-        <f ca="1">TODAY()-F5</f>
-        <v>186</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1310</v>
+        <v>1298</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1297</v>
+        <v>428</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1296</v>
+        <v>429</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="10">
-        <v>45372</v>
+        <v>45380</v>
       </c>
       <c r="G6" s="12">
-        <f ca="1">TODAY()-F6</f>
-        <v>177</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>1298</v>
+        <v>1323</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1299</v>
+        <v>1324</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>428</v>
+        <v>1325</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>429</v>
+        <v>1325</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="10">
-        <v>45380</v>
+        <v>45434</v>
       </c>
       <c r="G7" s="12">
-        <f ca="1">TODAY()-F7</f>
-        <v>169</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>1277</v>
+        <v>1328</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1278</v>
+        <v>1329</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>108</v>
+        <v>287</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>109</v>
+        <v>330</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="10">
-        <v>45395</v>
+        <v>45454</v>
       </c>
       <c r="G8" s="12">
-        <f ca="1">TODAY()-F8</f>
-        <v>154</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>1325</v>
+        <v>1268</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1326</v>
+        <v>1269</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1327</v>
+        <v>373</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1327</v>
+        <v>374</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="10">
-        <v>45434</v>
+        <v>45480</v>
       </c>
       <c r="G9" s="12">
-        <f ca="1">TODAY()-F9</f>
-        <v>115</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>1324</v>
+        <v>1311</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1328</v>
+        <v>1312</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1111</v>
+        <v>1334</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1112</v>
+        <v>1335</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="10">
-        <v>45447</v>
+        <v>45488</v>
       </c>
       <c r="G10" s="12">
-        <f ca="1">TODAY()-F10</f>
-        <v>102</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>1330</v>
+        <v>1333</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1331</v>
+        <v>1336</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="10">
-        <v>45454</v>
+        <v>45524</v>
       </c>
       <c r="G11" s="12">
-        <f ca="1">TODAY()-F11</f>
-        <v>95</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1322</v>
+        <v>1327</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>160</v>
+        <v>1332</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1321</v>
+        <v>262</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="10">
-        <v>45468</v>
+        <v>45544</v>
       </c>
       <c r="G12" s="12">
-        <f ca="1">TODAY()-F12</f>
-        <v>81</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>1268</v>
+        <v>1342</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1269</v>
+        <v>1343</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>373</v>
+        <v>1341</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>374</v>
+        <v>1344</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="10">
-        <v>45480</v>
+        <v>45562</v>
       </c>
       <c r="G13" s="12">
-        <f ca="1">TODAY()-F13</f>
-        <v>69</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>1313</v>
+        <v>1345</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1314</v>
+        <v>1346</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1337</v>
+        <v>1348</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="10">
-        <v>45488</v>
+        <v>45581</v>
       </c>
       <c r="G14" s="12">
-        <f ca="1">TODAY()-F14</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>1335</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="10">
-        <v>45524</v>
-      </c>
-      <c r="G15" s="12">
-        <f ca="1">TODAY()-F15</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>1329</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>1334</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="10">
-        <v>45544</v>
-      </c>
-      <c r="G16" s="12">
-        <f ca="1">TODAY()-F16</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -19952,7 +20133,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>8.8794520547945197</v>
+        <v>9.0136986301369859</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -19973,7 +20154,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8794520547945197</v>
+        <v>9.0136986301369859</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -19994,7 +20175,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>8.257534246575343</v>
+        <v>8.3917808219178074</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -20015,7 +20196,7 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>6.6273972602739724</v>
+        <v>6.7616438356164386</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -20700,13 +20881,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B37" s="49" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C37" s="49" t="s">
         <v>1301</v>
-      </c>
-      <c r="B37" s="49" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C37" s="49" t="s">
-        <v>1302</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>1044</v>
@@ -20717,13 +20898,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B38" s="49" t="s">
         <v>1304</v>
       </c>
-      <c r="B38" s="49" t="s">
+      <c r="C38" s="49" t="s">
         <v>1305</v>
-      </c>
-      <c r="C38" s="49" t="s">
-        <v>1306</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>1044</v>
@@ -20734,13 +20915,13 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C39" s="49" t="s">
         <v>1307</v>
-      </c>
-      <c r="B39" s="49" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C39" s="49" t="s">
-        <v>1308</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>1044</v>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13E38DA-AF98-4C63-BF8E-C48035C0EC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460B7FBE-D438-4EDD-A843-AA339F5566CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3250" uniqueCount="1353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3273" uniqueCount="1358">
   <si>
     <t>title</t>
   </si>
@@ -3908,12 +3908,6 @@
     <t>10.1136/jech-2023-220751</t>
   </si>
   <si>
-    <t>Comparing people with substance use disorders entering treatment in general mental health centres or specialised addiction centres: the role of the main problematic substance</t>
-  </si>
-  <si>
-    <t>Fernandez, Kim; Antoine, Jérôme; Sinclair, Deborah Louise; Cosgrove, Shona; Daman, Elena; Devleesschauwer, Brecht</t>
-  </si>
-  <si>
     <t>Journal of Substance Use and Addiction Treatment</t>
   </si>
   <si>
@@ -4092,6 +4086,27 @@
   </si>
   <si>
     <t>10.1186/s12963-024-00347-9</t>
+  </si>
+  <si>
+    <t>Fernandez, Kim; Antoine, Jérôme; Damian, Elena; Sinclair, Deborah Louise; Cosgrove, Shona; Devleesschauwer, Brecht</t>
+  </si>
+  <si>
+    <t>Impact of substance type and patient characteristics on the choice of treatment setting for substance use disorder in Belgium</t>
+  </si>
+  <si>
+    <t>10.1016/j.josat.2024.209561</t>
+  </si>
+  <si>
+    <t>A systematic review of the methodological considerations in Campylobacter burden of disease studies</t>
+  </si>
+  <si>
+    <t>Tumulty, Megan; Di Bari, Carlotta; Devleesschauwer, Brecht; Pires, Sara M.; Kabir, Zubair</t>
+  </si>
+  <si>
+    <t>Fascioliasis in north-central Vietnam: assessing community knowledge, attitudes, and practices</t>
+  </si>
+  <si>
+    <t>Quang Hoang, Vinh; Trung Do, Dun; Thi Lam Vu, Binh; Thi Thu Nguyen, Hien; Thi Tran, Tuyen; Thuy Le, Dung; Ngoc Nguyen, Ha; Duc Nguyen, Thuy; Devleesschauwer, Brecht; Levecke, Bruno; Polman, Katja; de Jong, Theodorus; Dorny, Pierre; Paredis, Linda; Goossens, Kathy; Dermauw, Veronique</t>
   </si>
 </sst>
 </file>
@@ -4690,10 +4705,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabel1" displayName="Tabel1" ref="A1:U262" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
-  <autoFilter ref="A1:U262" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U262">
-    <sortCondition ref="K1:K262"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabel1" displayName="Tabel1" ref="A1:U264" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+  <autoFilter ref="A1:U264" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U264">
+    <sortCondition ref="K1:K264"/>
   </sortState>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="title" dataDxfId="61"/>
@@ -4747,8 +4762,8 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabel13" displayName="Tabel13" ref="A1:G14" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:G14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">
-    <sortCondition ref="F1:F12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
+    <sortCondition ref="F1:F14"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="title" dataDxfId="27"/>
@@ -5106,10 +5121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U262"/>
+  <dimension ref="A1:U264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A260" sqref="A260"/>
+    <sheetView tabSelected="1" topLeftCell="A228" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A261" sqref="A261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18459,7 +18474,7 @@
         <v>1088</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>1138</v>
@@ -18762,10 +18777,10 @@
     </row>
     <row r="252" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>668</v>
@@ -18800,7 +18815,7 @@
       </c>
       <c r="N252" s="11"/>
       <c r="O252" s="19" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="P252" s="7"/>
       <c r="Q252" s="24"/>
@@ -18816,7 +18831,7 @@
         <v>1136</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>89</v>
@@ -18851,7 +18866,7 @@
       </c>
       <c r="N253" s="11"/>
       <c r="O253" s="19" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="P253" s="7"/>
       <c r="Q253" s="24"/>
@@ -18864,7 +18879,7 @@
     </row>
     <row r="254" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="B254" s="7" t="s">
         <v>1263</v>
@@ -18902,7 +18917,7 @@
       </c>
       <c r="N254" s="11"/>
       <c r="O254" s="19" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="P254" s="7"/>
       <c r="Q254" s="24"/>
@@ -18915,10 +18930,10 @@
     </row>
     <row r="255" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>813</v>
@@ -18953,7 +18968,7 @@
       </c>
       <c r="N255" s="11"/>
       <c r="O255" s="19" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="P255" s="7"/>
       <c r="Q255" s="24"/>
@@ -19004,7 +19019,7 @@
       </c>
       <c r="N256" s="11"/>
       <c r="O256" s="19" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="P256" s="7"/>
       <c r="Q256" s="24"/>
@@ -19017,7 +19032,7 @@
     </row>
     <row r="257" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="B257" s="7" t="s">
         <v>1063</v>
@@ -19055,14 +19070,16 @@
       </c>
       <c r="N257" s="11"/>
       <c r="O257" s="19" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="P257" s="7"/>
       <c r="Q257" s="24"/>
       <c r="R257" s="25"/>
       <c r="S257" s="7"/>
       <c r="T257" s="7"/>
-      <c r="U257" s="7"/>
+      <c r="U257" s="7" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="258" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
@@ -19104,27 +19121,29 @@
       </c>
       <c r="N258" s="11"/>
       <c r="O258" s="19" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="P258" s="7"/>
       <c r="Q258" s="24"/>
       <c r="R258" s="25"/>
       <c r="S258" s="7"/>
       <c r="T258" s="7"/>
-      <c r="U258" s="7"/>
+      <c r="U258" s="7" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="259" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="D259" s="7" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="E259" s="18">
         <v>2024</v>
@@ -19153,76 +19172,80 @@
       </c>
       <c r="N259" s="11"/>
       <c r="O259" s="19" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="P259" s="7"/>
       <c r="Q259" s="24"/>
       <c r="R259" s="25"/>
       <c r="S259" s="7"/>
       <c r="T259" s="7"/>
-      <c r="U259" s="7"/>
+      <c r="U259" s="7" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="260" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A260" s="13" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B260" s="13" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C260" s="13" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D260" s="13" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E260" s="14">
+      <c r="A260" s="7" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B260" s="7" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D260" s="7" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E260" s="18">
         <v>2024</v>
       </c>
-      <c r="F260" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G260" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H260" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I260" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J260" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K260" s="31">
+      <c r="F260" s="18">
+        <v>168</v>
+      </c>
+      <c r="G260" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H260" s="18">
+        <v>209561</v>
+      </c>
+      <c r="I260" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J260" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K260" s="42">
         <v>45658</v>
       </c>
-      <c r="L260" s="31"/>
-      <c r="M260" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="N260" s="45"/>
-      <c r="O260" s="44" t="s">
-        <v>1266</v>
-      </c>
-      <c r="P260" s="27"/>
+      <c r="L260" s="42"/>
+      <c r="M260" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="N260" s="11"/>
+      <c r="O260" s="19" t="s">
+        <v>1353</v>
+      </c>
+      <c r="P260" s="7"/>
       <c r="Q260" s="24"/>
       <c r="R260" s="25"/>
       <c r="S260" s="7"/>
       <c r="T260" s="7"/>
-      <c r="U260" s="7"/>
+      <c r="U260" s="7" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="261" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A261" s="13" t="s">
-        <v>1322</v>
+        <v>1093</v>
       </c>
       <c r="B261" s="13" t="s">
-        <v>1326</v>
+        <v>1094</v>
       </c>
       <c r="C261" s="13" t="s">
-        <v>267</v>
+        <v>1095</v>
       </c>
       <c r="D261" s="13" t="s">
-        <v>268</v>
+        <v>1096</v>
       </c>
       <c r="E261" s="14">
         <v>2024</v>
@@ -19243,14 +19266,16 @@
         <v>14</v>
       </c>
       <c r="K261" s="31">
-        <v>45659</v>
+        <v>46023</v>
       </c>
       <c r="L261" s="31"/>
       <c r="M261" s="31" t="s">
         <v>273</v>
       </c>
       <c r="N261" s="45"/>
-      <c r="O261" s="44"/>
+      <c r="O261" s="44" t="s">
+        <v>1266</v>
+      </c>
       <c r="P261" s="27"/>
       <c r="Q261" s="24"/>
       <c r="R261" s="25"/>
@@ -19260,16 +19285,16 @@
     </row>
     <row r="262" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A262" s="13" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="B262" s="13" t="s">
-        <v>1320</v>
+        <v>1324</v>
       </c>
       <c r="C262" s="13" t="s">
-        <v>160</v>
+        <v>267</v>
       </c>
       <c r="D262" s="13" t="s">
-        <v>1319</v>
+        <v>268</v>
       </c>
       <c r="E262" s="14">
         <v>2024</v>
@@ -19290,7 +19315,7 @@
         <v>14</v>
       </c>
       <c r="K262" s="31">
-        <v>45659</v>
+        <v>46024</v>
       </c>
       <c r="L262" s="31"/>
       <c r="M262" s="31" t="s">
@@ -19304,6 +19329,100 @@
       <c r="S262" s="7"/>
       <c r="T262" s="7"/>
       <c r="U262" s="7"/>
+    </row>
+    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A263" s="13" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B263" s="13" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C263" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D263" s="13" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E263" s="14">
+        <v>2024</v>
+      </c>
+      <c r="F263" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G263" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H263" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I263" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J263" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K263" s="31">
+        <v>46025</v>
+      </c>
+      <c r="L263" s="31"/>
+      <c r="M263" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="N263" s="45"/>
+      <c r="O263" s="44"/>
+      <c r="P263" s="27"/>
+      <c r="Q263" s="24"/>
+      <c r="R263" s="25"/>
+      <c r="S263" s="7"/>
+      <c r="T263" s="7"/>
+      <c r="U263" s="7"/>
+    </row>
+    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A264" s="13" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B264" s="13" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C264" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D264" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E264" s="14">
+        <v>2024</v>
+      </c>
+      <c r="F264" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G264" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H264" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I264" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J264" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K264" s="31">
+        <v>46026</v>
+      </c>
+      <c r="L264" s="31"/>
+      <c r="M264" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="N264" s="45"/>
+      <c r="O264" s="44"/>
+      <c r="P264" s="27"/>
+      <c r="Q264" s="24"/>
+      <c r="R264" s="25"/>
+      <c r="S264" s="7"/>
+      <c r="T264" s="7"/>
+      <c r="U264" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="T1:U112 T114:U231 V246:V247 T232:V240 V241:V242 T241:T242 T243:V245 U246 T248:V1048576">
@@ -19740,7 +19859,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19775,11 +19896,11 @@
       </c>
       <c r="I1" s="55" t="str">
         <f ca="1">ROUND(J1/30,0)&amp;" md"</f>
-        <v>6 md</v>
+        <v>5 md</v>
       </c>
       <c r="J1" s="55">
         <f ca="1">AVERAGE(G:G)</f>
-        <v>176.15384615384616</v>
+        <v>143.30769230769232</v>
       </c>
       <c r="K1" s="54" t="s">
         <v>1164</v>
@@ -19803,8 +19924,8 @@
         <v>45146</v>
       </c>
       <c r="G2" s="12">
-        <f t="shared" ref="G2:G14" ca="1" si="0">TODAY()-F2</f>
-        <v>452</v>
+        <f ca="1">TODAY()-F2</f>
+        <v>459</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -19825,250 +19946,250 @@
         <v>45208</v>
       </c>
       <c r="G3" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>390</v>
+        <f ca="1">TODAY()-F3</f>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>1255</v>
+        <v>1295</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1256</v>
+        <v>1296</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>267</v>
+        <v>428</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>268</v>
+        <v>429</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="10">
-        <v>45320</v>
+        <v>45380</v>
       </c>
       <c r="G4" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>278</v>
+        <f ca="1">TODAY()-F4</f>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>1291</v>
+        <v>1321</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1292</v>
+        <v>1322</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1293</v>
+        <v>1323</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1294</v>
+        <v>1323</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="10">
-        <v>45363</v>
+        <v>45434</v>
       </c>
       <c r="G5" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>235</v>
+        <f ca="1">TODAY()-F5</f>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>1297</v>
+        <v>1326</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1298</v>
+        <v>1327</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>428</v>
+        <v>287</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>429</v>
+        <v>330</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="10">
-        <v>45380</v>
+        <v>45454</v>
       </c>
       <c r="G6" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>218</v>
+        <f ca="1">TODAY()-F6</f>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>1323</v>
+        <v>1268</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1324</v>
+        <v>1269</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>1325</v>
+        <v>373</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>1325</v>
+        <v>374</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="10">
-        <v>45434</v>
+        <v>45480</v>
       </c>
       <c r="G7" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>164</v>
+        <f ca="1">TODAY()-F7</f>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>1328</v>
+        <v>1309</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1329</v>
+        <v>1310</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>287</v>
+        <v>1332</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>330</v>
+        <v>1333</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="10">
-        <v>45454</v>
+        <v>45488</v>
       </c>
       <c r="G8" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <f ca="1">TODAY()-F8</f>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>1268</v>
+        <v>1331</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1269</v>
+        <v>1334</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>373</v>
+        <v>252</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="10">
-        <v>45480</v>
+        <v>45524</v>
       </c>
       <c r="G9" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>118</v>
+        <f ca="1">TODAY()-F9</f>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>1311</v>
+        <v>1319</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1312</v>
+        <v>1325</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1335</v>
+        <v>262</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="10">
-        <v>45488</v>
+        <v>45544</v>
       </c>
       <c r="G10" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>110</v>
+        <f ca="1">TODAY()-F10</f>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>1333</v>
+        <v>1340</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1336</v>
+        <v>1341</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>252</v>
+        <v>1339</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>344</v>
+        <v>1342</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="10">
-        <v>45524</v>
+        <v>45562</v>
       </c>
       <c r="G11" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <f ca="1">TODAY()-F11</f>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>1321</v>
+        <v>1343</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1327</v>
+        <v>1344</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1332</v>
+        <v>1345</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>262</v>
+        <v>1346</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="10">
-        <v>45544</v>
+        <v>45581</v>
       </c>
       <c r="G12" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <f ca="1">TODAY()-F12</f>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>1342</v>
+        <v>1356</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1343</v>
+        <v>1357</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1341</v>
+        <v>160</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1344</v>
+        <v>1317</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="10">
-        <v>45562</v>
+        <v>45600</v>
       </c>
       <c r="G13" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <f ca="1">TODAY()-F13</f>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>1345</v>
+        <v>1354</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1346</v>
+        <v>1355</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>1347</v>
+        <v>160</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1348</v>
+        <v>1317</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="10">
-        <v>45581</v>
+        <v>45601</v>
       </c>
       <c r="G14" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <f ca="1">TODAY()-F14</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -20133,7 +20254,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>9.0136986301369859</v>
+        <v>9.0328767123287665</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -20154,7 +20275,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0136986301369859</v>
+        <v>9.0328767123287665</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -20175,7 +20296,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3917808219178074</v>
+        <v>8.4109589041095898</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -20196,7 +20317,7 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>6.7616438356164386</v>
+        <v>6.7808219178082192</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -20881,13 +21002,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B37" s="49" t="s">
         <v>1300</v>
       </c>
-      <c r="B37" s="49" t="s">
-        <v>1302</v>
-      </c>
       <c r="C37" s="49" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>1044</v>
@@ -20898,13 +21019,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C38" s="49" t="s">
         <v>1303</v>
-      </c>
-      <c r="B38" s="49" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C38" s="49" t="s">
-        <v>1305</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>1044</v>
@@ -20915,13 +21036,13 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B39" s="49" t="s">
         <v>1306</v>
       </c>
-      <c r="B39" s="49" t="s">
-        <v>1308</v>
-      </c>
       <c r="C39" s="49" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>1044</v>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460B7FBE-D438-4EDD-A843-AA339F5566CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19830446-8DB6-4867-8ECB-AF6EA9263649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
     <sheet name="SCI" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">SCI!$A$2:$I$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">SCI!$A$2:$J$71</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3273" uniqueCount="1358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3477" uniqueCount="1465">
   <si>
     <t>title</t>
   </si>
@@ -3989,9 +3989,6 @@
     <t>PLOS Neglect. Trop. Dis.</t>
   </si>
   <si>
-    <t xml:space="preserve">Van Acker, Lisa; Toribio, Luz; Chachage, Mkunde; Zeng, Hang; Devleesschauwer, Brecht; Garcia, Héctor H.; Gabriël, Sarah </t>
-  </si>
-  <si>
     <t>The role of socio-economic determinants in SARS-CoV-2 health outcomes: systematic review of population-based studies</t>
   </si>
   <si>
@@ -4070,12 +4067,6 @@
     <t>Vandeninden, Bram; Devleesschauwer, Brecht; Otavova, Martina; Faes, Christel; Bouland, Catherine; De Clercq, Eva M</t>
   </si>
   <si>
-    <t>Journal of Urban Health</t>
-  </si>
-  <si>
-    <t>J. Urban Health</t>
-  </si>
-  <si>
     <t>A preliminary estimate of the environmental burden of disease associated with exposure to pyrethroid insecticides and ADHD in Europe based on human biomonitoring</t>
   </si>
   <si>
@@ -4107,6 +4098,336 @@
   </si>
   <si>
     <t>Quang Hoang, Vinh; Trung Do, Dun; Thi Lam Vu, Binh; Thi Thu Nguyen, Hien; Thi Tran, Tuyen; Thuy Le, Dung; Ngoc Nguyen, Ha; Duc Nguyen, Thuy; Devleesschauwer, Brecht; Levecke, Bruno; Polman, Katja; de Jong, Theodorus; Dorny, Pierre; Paredis, Linda; Goossens, Kathy; Dermauw, Veronique</t>
+  </si>
+  <si>
+    <t>Van Acker, Lisa; Toribio, Luz; Chachage, Mkunde; Zeng, Hang; Devleesschauwer, Brecht; Garcia, Héctor H.; Gabriël, Sarah; on behalf of the NeuroSolve Consortium</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pntd.0012643</t>
+  </si>
+  <si>
+    <t>e0012643</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>Characterizing the extent and nature of digital food and beverage marketing in Singapore - a descriptive study</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1017/s1368980024002428</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/39663980/</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-024-79327-w</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/39632907/</t>
+  </si>
+  <si>
+    <t>Communicative health literacy and associated variables in nine European countries: results from the HLS19 survey</t>
+  </si>
+  <si>
+    <t>The potential of including the microbiome as biomarker in population-based health studies: methods and benefits</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fpubh.2024.1467121</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/39507669/</t>
+  </si>
+  <si>
+    <t>Twenty-year trend in the prevalence of increased cardiometabolic risk, measured by abdominal obesity, among Spanish children and adolescents across body mass index categories</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/39501283/</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12916-024-03719-y</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.josat.2024.209561</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/39500442/</t>
+  </si>
+  <si>
+    <t>The burden of antimicrobial resistance in livestock: A framework to estimate its impact within the Global Burden of Animal Diseases programme</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.onehlt.2024.100917</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/39497949/</t>
+  </si>
+  <si>
+    <t>Modelling the cost differential between current and healthy diets according to household education level in Belgium</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/09637486.2024.2415126</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/39463036/</t>
+  </si>
+  <si>
+    <t>The promotion of ultra-processed foods in modern retail food outlets in rural and urban areas in Kenya</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1017/s1368980024002155</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/39444290/</t>
+  </si>
+  <si>
+    <t>The economic burden of type 2 diabetes on the public healthcare system in Kenya: a cost of illness study</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12913-024-11700-x</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/39402597/</t>
+  </si>
+  <si>
+    <t>A protocol for identifying the needs related to drug use, health and social (re)integration of people living in prison within five European countries</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13690-024-01405-2</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/39380107/</t>
+  </si>
+  <si>
+    <t>Maladaptive eating behaviors and health-related quality of life in Spanish children</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/39368780/</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.appet.2024.107702</t>
+  </si>
+  <si>
+    <t>Development of the Local Food Systems Policy Index (Local Food-EPI+) tool and assessment process to benchmark the implementation of local government policies for creating healthy, equitable and environmentally sustainable food systems</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1017/s136898002400140x</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/39354657/</t>
+  </si>
+  <si>
+    <t>Exploring the multiple dimensions of perceived food access in the local food environment in Flanders: Perceptions of adults in socioeconomically disadvantaged situations</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.appet.2024.107609</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/39094845/</t>
+  </si>
+  <si>
+    <t>Food environment in Burkina Faso: priority actions recommended to the government using Food-EPI tool</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fnut.2024.1420323</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/39091684/</t>
+  </si>
+  <si>
+    <t>The Spider: a visual, multisystemic symptom impact questionnaire for people with hypermobility-related disorders-validation in adults</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/39085705/</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10067-024-07071-7</t>
+  </si>
+  <si>
+    <t>Determinants of food insecurity among adults residing in peri-urban municipal settings in Flanders, Belgium</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12889-024-19389-7</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/39075409/</t>
+  </si>
+  <si>
+    <t>Which government policies to create sustainable food systems have the potential to simultaneously address undernutrition, obesity and environmental sustainability?</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12992-024-01060-w</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/39068420/</t>
+  </si>
+  <si>
+    <t>Trauma Exposure, Social Support and Mental Health in the General Population in Belgium</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/39056651/</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/ejihpe14070136</t>
+  </si>
+  <si>
+    <t>Policy implementation and recommended actions to create healthy food environments using the Healthy Food Environment Policy Index (Food-EPI): a comparative analysis in South Asia</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/39040122/</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.lansea.2024.100428</t>
+  </si>
+  <si>
+    <t>Differences in the cost and environmental impact between the current diet in Brazil and healthy and sustainable diets: a modeling study</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12937-024-00973-x</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/38982483/</t>
+  </si>
+  <si>
+    <t>Lifestyle predictors of colorectal cancer in European populations: a systematic review</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1136/bmjnph-2022-000554</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/38966096/</t>
+  </si>
+  <si>
+    <t>Rising socioeconomic disparities in childhood overweight and obesity in Belgium</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13690-024-01328-y</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/38956737/</t>
+  </si>
+  <si>
+    <t>Activity-based detection of synthetic cannabinoid receptor agonists in plant materials</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12954-024-01044-4</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/38951904/</t>
+  </si>
+  <si>
+    <t>Anxiety and depression in people with post-COVID condition: a Belgian population-based cohort study three months after SARS-CoV-2 infection</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s00127-024-02655-9</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/38819519/</t>
+  </si>
+  <si>
+    <t>Prevalence of SARS-CoV-2 antibodies and associated factors in the adult population of Belgium: a general population cohort study between March 2021 and April 2022</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13690-024-01298-1</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/38750563/</t>
+  </si>
+  <si>
+    <t>Cross-border mobility in the Meuse-Rhine Euroregion: impact of COVID-19 border restrictions on everyday activities and visiting social network members</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fpubh.2024.1281072</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/38726234/</t>
+  </si>
+  <si>
+    <t>Associations between the objective and perceived food environment and eating behavior in relation to socioeconomic status among adults in peri-urban settings: results from the CIVISANO study in Flanders, Belgium</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12942-024-00369-4</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/38724949/</t>
+  </si>
+  <si>
+    <t>Seroprevalence of Japanese encephalitis virus in pig populations of Tamil Nadu, India: Exploring the tropical endemic link of virus</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.cimid.2024.102189</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/38718722/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food Environment in Burkina Faso: Review of Public Policies and Government Actions Using the Food-EPI Tool </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1177/03795721241248214</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/38716753/</t>
+  </si>
+  <si>
+    <t>Does health literacy mediate the relationship between socioeconomic status and health related outcomes in the Belgian adult population?</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12889-024-18676-7</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/38678179/</t>
+  </si>
+  <si>
+    <t>The future burden of type 2 diabetes in Belgium: a microsimulation model</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12963-024-00328-y</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/38654242/</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12888-024-05696-1</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/38553669/</t>
+  </si>
+  <si>
+    <t>Are social pressure, bullying and low social support associated with depressive symptoms, self-harm and self-directed violence among adolescents? A cross-sectional study using a structural equation modeling approach</t>
+  </si>
+  <si>
+    <t>10.1186/s13690-024-01444-9</t>
+  </si>
+  <si>
+    <t>10.1186/s13690-024-01437-8</t>
+  </si>
+  <si>
+    <t>Assessing the benefits of hypothetical air pollution reduction scenarios on stroke in Belgium: a g-computation approach</t>
+  </si>
+  <si>
+    <t>Pelgrims, Ingrid; Van der Heyden, Johan; Devleesschauwer, Brecht; De Clercq, Eva</t>
+  </si>
+  <si>
+    <t>Spatial variation in cause-specific premature mortality and its association with socioeconomic deprivation in Belgium from 2000 to 2019</t>
+  </si>
+  <si>
+    <t>Otavova, Martina; Masquelier, Bruno; Faes, Christel; Devleesschauwer, Brecht; Schlüter, Benjamin-Samuel</t>
+  </si>
+  <si>
+    <t>Local approach to attributable disease burden: a case study on air pollution and mortality in Belgium</t>
+  </si>
+  <si>
+    <t>Pauwels, Arno; Demoury, Claire; De Clercq, Eva; Devleesschauwer, Brecht</t>
+  </si>
+  <si>
+    <t>Environmental Pollution</t>
+  </si>
+  <si>
+    <t>Environ. Pollut.</t>
+  </si>
+  <si>
+    <t>The economic burden of alcohol in Belgium: incremental healthcare costs and lost productivity</t>
   </si>
 </sst>
 </file>
@@ -4705,8 +5026,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabel1" displayName="Tabel1" ref="A1:U264" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
-  <autoFilter ref="A1:U264" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabel1" displayName="Tabel1" ref="A1:U265" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+  <autoFilter ref="A1:U265" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U264">
     <sortCondition ref="K1:K264"/>
   </sortState>
@@ -4760,10 +5081,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabel13" displayName="Tabel13" ref="A1:G14" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="A1:G14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
-    <sortCondition ref="F1:F14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabel13" displayName="Tabel13" ref="A1:G17" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:G17" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
+    <sortCondition ref="F1:F13"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="title" dataDxfId="27"/>
@@ -5121,10 +5442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U264"/>
+  <dimension ref="A1:U265"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A228" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A261" sqref="A261"/>
+      <selection activeCell="A264" sqref="A264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18464,7 +18785,9 @@
       <c r="Q245" s="24"/>
       <c r="R245" s="25"/>
       <c r="S245" s="7"/>
-      <c r="T245" s="7"/>
+      <c r="T245" s="7" t="s">
+        <v>603</v>
+      </c>
       <c r="U245" s="7" t="s">
         <v>603</v>
       </c>
@@ -18515,7 +18838,9 @@
       <c r="Q246" s="24"/>
       <c r="R246" s="25"/>
       <c r="S246" s="7"/>
-      <c r="T246" s="7"/>
+      <c r="T246" s="7" t="s">
+        <v>603</v>
+      </c>
       <c r="U246" s="7" t="s">
         <v>603</v>
       </c>
@@ -18566,13 +18891,15 @@
       <c r="Q247" s="24"/>
       <c r="R247" s="25"/>
       <c r="S247" s="7"/>
-      <c r="T247" s="7"/>
+      <c r="T247" s="7" t="s">
+        <v>603</v>
+      </c>
       <c r="U247" s="7" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="248" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A248" s="7" t="s">
+      <c r="A248" s="13" t="s">
         <v>1159</v>
       </c>
       <c r="B248" s="7" t="s">
@@ -18617,7 +18944,9 @@
       <c r="Q248" s="24"/>
       <c r="R248" s="25"/>
       <c r="S248" s="7"/>
-      <c r="T248" s="7"/>
+      <c r="T248" s="7" t="s">
+        <v>603</v>
+      </c>
       <c r="U248" s="7" t="s">
         <v>603</v>
       </c>
@@ -18668,7 +18997,9 @@
       <c r="Q249" s="24"/>
       <c r="R249" s="25"/>
       <c r="S249" s="7"/>
-      <c r="T249" s="7"/>
+      <c r="T249" s="7" t="s">
+        <v>603</v>
+      </c>
       <c r="U249" s="7" t="s">
         <v>603</v>
       </c>
@@ -18719,7 +19050,9 @@
       <c r="Q250" s="24"/>
       <c r="R250" s="25"/>
       <c r="S250" s="7"/>
-      <c r="T250" s="7"/>
+      <c r="T250" s="7" t="s">
+        <v>603</v>
+      </c>
       <c r="U250" s="7" t="s">
         <v>603</v>
       </c>
@@ -18770,7 +19103,9 @@
       <c r="Q251" s="24"/>
       <c r="R251" s="25"/>
       <c r="S251" s="7"/>
-      <c r="T251" s="7"/>
+      <c r="T251" s="7" t="s">
+        <v>603</v>
+      </c>
       <c r="U251" s="7" t="s">
         <v>603</v>
       </c>
@@ -18780,7 +19115,7 @@
         <v>1307</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>668</v>
@@ -18821,7 +19156,9 @@
       <c r="Q252" s="24"/>
       <c r="R252" s="25"/>
       <c r="S252" s="7"/>
-      <c r="T252" s="7"/>
+      <c r="T252" s="7" t="s">
+        <v>603</v>
+      </c>
       <c r="U252" s="7" t="s">
         <v>603</v>
       </c>
@@ -18872,7 +19209,9 @@
       <c r="Q253" s="24"/>
       <c r="R253" s="25"/>
       <c r="S253" s="7"/>
-      <c r="T253" s="7"/>
+      <c r="T253" s="7" t="s">
+        <v>603</v>
+      </c>
       <c r="U253" s="7" t="s">
         <v>603</v>
       </c>
@@ -18923,17 +19262,19 @@
       <c r="Q254" s="24"/>
       <c r="R254" s="25"/>
       <c r="S254" s="7"/>
-      <c r="T254" s="7"/>
+      <c r="T254" s="7" t="s">
+        <v>603</v>
+      </c>
       <c r="U254" s="7" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="255" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B255" s="7" t="s">
         <v>1335</v>
-      </c>
-      <c r="B255" s="7" t="s">
-        <v>1336</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>813</v>
@@ -18968,13 +19309,15 @@
       </c>
       <c r="N255" s="11"/>
       <c r="O255" s="19" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="P255" s="7"/>
       <c r="Q255" s="24"/>
       <c r="R255" s="25"/>
       <c r="S255" s="7"/>
-      <c r="T255" s="7"/>
+      <c r="T255" s="7" t="s">
+        <v>603</v>
+      </c>
       <c r="U255" s="7" t="s">
         <v>603</v>
       </c>
@@ -19019,13 +19362,15 @@
       </c>
       <c r="N256" s="11"/>
       <c r="O256" s="19" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="P256" s="7"/>
       <c r="Q256" s="24"/>
       <c r="R256" s="25"/>
       <c r="S256" s="7"/>
-      <c r="T256" s="7"/>
+      <c r="T256" s="7" t="s">
+        <v>603</v>
+      </c>
       <c r="U256" s="7" t="s">
         <v>603</v>
       </c>
@@ -19070,13 +19415,15 @@
       </c>
       <c r="N257" s="11"/>
       <c r="O257" s="19" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="P257" s="7"/>
       <c r="Q257" s="24"/>
       <c r="R257" s="25"/>
       <c r="S257" s="7"/>
-      <c r="T257" s="7"/>
+      <c r="T257" s="7" t="s">
+        <v>603</v>
+      </c>
       <c r="U257" s="7" t="s">
         <v>603</v>
       </c>
@@ -19121,23 +19468,25 @@
       </c>
       <c r="N258" s="11"/>
       <c r="O258" s="19" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="P258" s="7"/>
       <c r="Q258" s="24"/>
       <c r="R258" s="25"/>
       <c r="S258" s="7"/>
-      <c r="T258" s="7"/>
+      <c r="T258" s="7" t="s">
+        <v>603</v>
+      </c>
       <c r="U258" s="7" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="259" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="C259" s="7" t="s">
         <v>1294</v>
@@ -19172,41 +19521,43 @@
       </c>
       <c r="N259" s="11"/>
       <c r="O259" s="19" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="P259" s="7"/>
       <c r="Q259" s="24"/>
       <c r="R259" s="25"/>
       <c r="S259" s="7"/>
-      <c r="T259" s="7"/>
+      <c r="T259" s="7" t="s">
+        <v>603</v>
+      </c>
       <c r="U259" s="7" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="260" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
-        <v>1352</v>
+        <v>1316</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>1351</v>
+        <v>1355</v>
       </c>
       <c r="C260" s="7" t="s">
-        <v>1291</v>
+        <v>160</v>
       </c>
       <c r="D260" s="7" t="s">
-        <v>1292</v>
+        <v>1317</v>
       </c>
       <c r="E260" s="18">
         <v>2024</v>
       </c>
       <c r="F260" s="18">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="G260" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H260" s="18">
-        <v>209561</v>
+        <v>69</v>
+      </c>
+      <c r="H260" s="18" t="s">
+        <v>1357</v>
       </c>
       <c r="I260" s="18" t="s">
         <v>14</v>
@@ -19215,7 +19566,7 @@
         <v>14</v>
       </c>
       <c r="K260" s="42">
-        <v>45658</v>
+        <v>45607</v>
       </c>
       <c r="L260" s="42"/>
       <c r="M260" s="42" t="s">
@@ -19223,172 +19574,190 @@
       </c>
       <c r="N260" s="11"/>
       <c r="O260" s="19" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="P260" s="7"/>
       <c r="Q260" s="24"/>
       <c r="R260" s="25"/>
       <c r="S260" s="7"/>
-      <c r="T260" s="7"/>
+      <c r="T260" s="7" t="s">
+        <v>603</v>
+      </c>
       <c r="U260" s="7" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="261" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A261" s="13" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B261" s="13" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C261" s="13" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D261" s="13" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E261" s="14">
+      <c r="A261" s="7" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B261" s="7" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C261" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D261" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E261" s="18">
         <v>2024</v>
       </c>
-      <c r="F261" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G261" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H261" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I261" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J261" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K261" s="31">
-        <v>46023</v>
-      </c>
-      <c r="L261" s="31"/>
-      <c r="M261" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="N261" s="45"/>
-      <c r="O261" s="44" t="s">
-        <v>1266</v>
-      </c>
-      <c r="P261" s="27"/>
+      <c r="F261" s="18">
+        <v>82</v>
+      </c>
+      <c r="G261" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H261" s="18">
+        <v>209</v>
+      </c>
+      <c r="I261" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J261" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K261" s="42">
+        <v>45609</v>
+      </c>
+      <c r="L261" s="42"/>
+      <c r="M261" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="N261" s="11"/>
+      <c r="O261" s="19" t="s">
+        <v>1455</v>
+      </c>
+      <c r="P261" s="7"/>
       <c r="Q261" s="24"/>
       <c r="R261" s="25"/>
       <c r="S261" s="7"/>
-      <c r="T261" s="7"/>
-      <c r="U261" s="7"/>
+      <c r="T261" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="U261" s="7" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="262" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A262" s="13" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B262" s="13" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C262" s="13" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C262" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="D262" s="13" t="s">
+      <c r="D262" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="E262" s="14">
+      <c r="E262" s="18">
         <v>2024</v>
       </c>
-      <c r="F262" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G262" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H262" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I262" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J262" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K262" s="31">
-        <v>46024</v>
-      </c>
-      <c r="L262" s="31"/>
-      <c r="M262" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="N262" s="45"/>
-      <c r="O262" s="44"/>
-      <c r="P262" s="27"/>
+      <c r="F262" s="18">
+        <v>82</v>
+      </c>
+      <c r="G262" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H262" s="18">
+        <v>217</v>
+      </c>
+      <c r="I262" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J262" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K262" s="42">
+        <v>45614</v>
+      </c>
+      <c r="L262" s="42"/>
+      <c r="M262" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="N262" s="11"/>
+      <c r="O262" s="19" t="s">
+        <v>1454</v>
+      </c>
+      <c r="P262" s="7"/>
       <c r="Q262" s="24"/>
       <c r="R262" s="25"/>
       <c r="S262" s="7"/>
-      <c r="T262" s="7"/>
-      <c r="U262" s="7"/>
+      <c r="T262" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="U262" s="7" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="263" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A263" s="13" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B263" s="13" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C263" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D263" s="13" t="s">
-        <v>1317</v>
-      </c>
-      <c r="E263" s="14">
+      <c r="A263" s="7" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B263" s="7" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D263" s="7" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E263" s="18">
         <v>2024</v>
       </c>
-      <c r="F263" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G263" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H263" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I263" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J263" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K263" s="31">
-        <v>46025</v>
-      </c>
-      <c r="L263" s="31"/>
-      <c r="M263" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="N263" s="45"/>
-      <c r="O263" s="44"/>
-      <c r="P263" s="27"/>
+      <c r="F263" s="18">
+        <v>168</v>
+      </c>
+      <c r="G263" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H263" s="18">
+        <v>209561</v>
+      </c>
+      <c r="I263" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J263" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K263" s="42">
+        <v>45658</v>
+      </c>
+      <c r="L263" s="42"/>
+      <c r="M263" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="N263" s="11"/>
+      <c r="O263" s="19" t="s">
+        <v>1350</v>
+      </c>
+      <c r="P263" s="7"/>
       <c r="Q263" s="24"/>
       <c r="R263" s="25"/>
       <c r="S263" s="7"/>
-      <c r="T263" s="7"/>
-      <c r="U263" s="7"/>
+      <c r="T263" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="U263" s="7" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="264" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A264" s="13" t="s">
-        <v>1255</v>
+        <v>1093</v>
       </c>
       <c r="B264" s="13" t="s">
-        <v>1256</v>
+        <v>1094</v>
       </c>
       <c r="C264" s="13" t="s">
-        <v>267</v>
+        <v>1095</v>
       </c>
       <c r="D264" s="13" t="s">
-        <v>268</v>
+        <v>1096</v>
       </c>
       <c r="E264" s="14">
         <v>2024</v>
@@ -19409,14 +19778,16 @@
         <v>14</v>
       </c>
       <c r="K264" s="31">
-        <v>46026</v>
+        <v>46023</v>
       </c>
       <c r="L264" s="31"/>
       <c r="M264" s="31" t="s">
         <v>273</v>
       </c>
       <c r="N264" s="45"/>
-      <c r="O264" s="44"/>
+      <c r="O264" s="44" t="s">
+        <v>1266</v>
+      </c>
       <c r="P264" s="27"/>
       <c r="Q264" s="24"/>
       <c r="R264" s="25"/>
@@ -19424,8 +19795,55 @@
       <c r="T264" s="7"/>
       <c r="U264" s="7"/>
     </row>
+    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A265" s="13" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B265" s="13" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C265" s="13" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D265" s="13" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E265" s="14">
+        <v>2024</v>
+      </c>
+      <c r="F265" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G265" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H265" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I265" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J265" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K265" s="31">
+        <v>46024</v>
+      </c>
+      <c r="L265" s="31"/>
+      <c r="M265" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="N265" s="45"/>
+      <c r="O265" s="44"/>
+      <c r="P265" s="27"/>
+      <c r="Q265" s="24"/>
+      <c r="R265" s="25"/>
+      <c r="S265" s="7"/>
+      <c r="T265" s="7"/>
+      <c r="U265" s="7"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="T1:U112 T114:U231 V246:V247 T232:V240 V241:V242 T241:T242 T243:V245 U246 T248:V1048576">
+  <conditionalFormatting sqref="T1:U112 T114:U231 V246:V247 T232:V240 V241:V242 T241:T242 T248:V1048576 T243:V245 T246:U246">
     <cfRule type="cellIs" dxfId="12" priority="31" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
@@ -19449,7 +19867,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T247:U247 T246">
+  <conditionalFormatting sqref="T247:U247">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
@@ -19857,10 +20275,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19896,11 +20314,11 @@
       </c>
       <c r="I1" s="55" t="str">
         <f ca="1">ROUND(J1/30,0)&amp;" md"</f>
-        <v>5 md</v>
+        <v>4 md</v>
       </c>
       <c r="J1" s="55">
         <f ca="1">AVERAGE(G:G)</f>
-        <v>143.30769230769232</v>
+        <v>127.6875</v>
       </c>
       <c r="K1" s="54" t="s">
         <v>1164</v>
@@ -19924,8 +20342,8 @@
         <v>45146</v>
       </c>
       <c r="G2" s="12">
-        <f ca="1">TODAY()-F2</f>
-        <v>459</v>
+        <f t="shared" ref="G2:G17" ca="1" si="0">TODAY()-F2</f>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -19946,214 +20364,214 @@
         <v>45208</v>
       </c>
       <c r="G3" s="12">
-        <f ca="1">TODAY()-F3</f>
-        <v>397</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>1295</v>
+        <v>1320</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1296</v>
+        <v>1321</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>428</v>
+        <v>1322</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>429</v>
+        <v>1322</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="10">
-        <v>45380</v>
+        <v>45434</v>
       </c>
       <c r="G4" s="12">
-        <f ca="1">TODAY()-F4</f>
-        <v>225</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>1321</v>
+        <v>1325</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1322</v>
+        <v>1326</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1323</v>
+        <v>287</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1323</v>
+        <v>330</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="10">
-        <v>45434</v>
+        <v>45454</v>
       </c>
       <c r="G5" s="12">
-        <f ca="1">TODAY()-F5</f>
-        <v>171</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>1326</v>
+        <v>1268</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1327</v>
+        <v>1269</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>287</v>
+        <v>373</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>330</v>
+        <v>374</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="10">
-        <v>45454</v>
+        <v>45480</v>
       </c>
       <c r="G6" s="12">
-        <f ca="1">TODAY()-F6</f>
-        <v>151</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>1268</v>
+        <v>1309</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1269</v>
+        <v>1310</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>373</v>
+        <v>1331</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>374</v>
+        <v>1332</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="10">
-        <v>45480</v>
+        <v>45488</v>
       </c>
       <c r="G7" s="12">
-        <f ca="1">TODAY()-F7</f>
-        <v>125</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>1309</v>
+        <v>1330</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1310</v>
+        <v>1333</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>1332</v>
+        <v>252</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1333</v>
+        <v>344</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="10">
-        <v>45488</v>
+        <v>45524</v>
       </c>
       <c r="G8" s="12">
-        <f ca="1">TODAY()-F8</f>
-        <v>117</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>1331</v>
+        <v>1318</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1334</v>
+        <v>1324</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>252</v>
+        <v>1329</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>344</v>
+        <v>262</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="10">
-        <v>45524</v>
+        <v>45544</v>
       </c>
       <c r="G9" s="12">
-        <f ca="1">TODAY()-F9</f>
-        <v>81</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>1319</v>
+        <v>1339</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1325</v>
+        <v>1340</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1330</v>
+        <v>1338</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>262</v>
+        <v>1341</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="10">
-        <v>45544</v>
+        <v>45562</v>
       </c>
       <c r="G10" s="12">
-        <f ca="1">TODAY()-F10</f>
-        <v>61</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1339</v>
+        <v>1095</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1342</v>
+        <v>1096</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="10">
-        <v>45562</v>
+        <v>45624</v>
       </c>
       <c r="G11" s="12">
-        <f ca="1">TODAY()-F11</f>
-        <v>43</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>1343</v>
+        <v>1353</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1344</v>
+        <v>1354</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1345</v>
+        <v>160</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1346</v>
+        <v>1317</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="10">
-        <v>45581</v>
+        <v>45600</v>
       </c>
       <c r="G12" s="12">
-        <f ca="1">TODAY()-F12</f>
-        <v>24</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>160</v>
@@ -20163,33 +20581,99 @@
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="10">
-        <v>45600</v>
+        <v>45601</v>
       </c>
       <c r="G13" s="12">
-        <f ca="1">TODAY()-F13</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>1354</v>
+        <v>1456</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1355</v>
+        <v>1457</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>160</v>
+        <v>668</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1317</v>
+        <v>669</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="10">
-        <v>45601</v>
+        <v>45637</v>
       </c>
       <c r="G14" s="12">
-        <f ca="1">TODAY()-F14</f>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="10">
+        <v>45636</v>
+      </c>
+      <c r="G15" s="12">
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="10">
+        <v>45635</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="10">
+        <v>45624</v>
+      </c>
+      <c r="G17" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -20254,7 +20738,7 @@
       </c>
       <c r="F2" s="40">
         <f t="shared" ref="F2:F4" ca="1" si="0">(TODAY()-E2)/365</f>
-        <v>9.0328767123287665</v>
+        <v>9.1287671232876715</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -20275,7 +20759,7 @@
       </c>
       <c r="F3" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0328767123287665</v>
+        <v>9.1287671232876715</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -20296,7 +20780,7 @@
       </c>
       <c r="F4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4109589041095898</v>
+        <v>8.506849315068493</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -20317,7 +20801,7 @@
       </c>
       <c r="F5" s="40">
         <f ca="1">(TODAY()-E5)/365</f>
-        <v>6.7808219178082192</v>
+        <v>6.8767123287671232</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -20349,716 +20833,1486 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M39"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
+      <pane ySplit="2" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="81.28515625" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="15"/>
-    <col min="5" max="9" width="9.140625" style="48"/>
+    <col min="2" max="2" width="13.140625" style="15" customWidth="1"/>
+    <col min="3" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="15"/>
+    <col min="6" max="10" width="9.140625" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="50">
-        <f>COUNTA(E3:E997)</f>
-        <v>5</v>
-      </c>
+    <row r="1" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F1" s="50">
-        <f>COUNTA(F3:F997)</f>
+        <f>COUNTA(F3:F990)</f>
         <v>8</v>
       </c>
       <c r="G1" s="50">
-        <f>COUNTA(G3:G997)</f>
-        <v>6</v>
+        <f>COUNTA(G3:G990)</f>
+        <v>17</v>
       </c>
       <c r="H1" s="50">
-        <f>COUNTA(H3:H997)</f>
-        <v>15</v>
+        <f>COUNTA(H3:H990)</f>
+        <v>9</v>
       </c>
       <c r="I1" s="50">
-        <f>COUNTA(I3:I997)</f>
+        <f>COUNTA(I3:I990)</f>
+        <v>33</v>
+      </c>
+      <c r="J1" s="50">
+        <f>COUNTA(J3:J990)</f>
         <v>3</v>
       </c>
-      <c r="J1" s="51">
-        <f>SUM(E1:I1)</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="51">
+        <f>SUM(F1:J1)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>1045</v>
       </c>
       <c r="B2" s="52" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C2" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="D2" s="52" t="s">
         <v>1046</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="E2" s="52" t="s">
         <v>1047</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="F2" s="53" t="s">
         <v>1162</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="G2" s="53" t="s">
         <v>1033</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="H2" s="53" t="s">
         <v>1034</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="I2" s="53" t="s">
         <v>1035</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="J2" s="53" t="s">
         <v>1036</v>
       </c>
-      <c r="L2" s="53" t="s">
+      <c r="M2" s="53" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1127</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C3" s="49" t="s">
         <v>1038</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="D3" s="49" t="s">
         <v>1039</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>1250</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="G3" s="48" t="s">
         <v>1037</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1126</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C4" s="49" t="s">
         <v>1040</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="D4" s="49" t="s">
         <v>1041</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="15" t="s">
         <v>1055</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="J4" s="48" t="s">
         <v>1037</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1125</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C5" s="49" t="s">
         <v>1042</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="D5" s="49" t="s">
         <v>1043</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>1055</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="G5" s="48" t="s">
         <v>1037</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1124</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C6" s="49" t="s">
         <v>1052</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="D6" s="49" t="s">
         <v>1053</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="15" t="s">
         <v>1044</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="I6" s="48" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1123</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C7" s="49" t="s">
         <v>1066</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="D7" s="49" t="s">
         <v>1067</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="E7" s="15" t="s">
         <v>1044</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="I7" s="48" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1068</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C8" s="49" t="s">
         <v>1069</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="D8" s="49" t="s">
         <v>1070</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="E8" s="15" t="s">
         <v>1055</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="H8" s="48" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1102</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C9" s="49" t="s">
         <v>1103</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="D9" s="49" t="s">
         <v>1104</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="E9" s="15" t="s">
         <v>1250</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="G9" s="48" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>1106</v>
+        <v>1116</v>
+      </c>
+      <c r="B10" s="15">
+        <v>2023</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D10" s="15" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>1250</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="J10" s="48" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>1117</v>
+        <v>1122</v>
+      </c>
+      <c r="B11" s="15">
+        <v>2023</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>1250</v>
+        <v>1128</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>1044</v>
       </c>
       <c r="I11" s="48" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>1128</v>
+        <v>1130</v>
+      </c>
+      <c r="B12" s="15">
+        <v>2023</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D12" s="15" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>1250</v>
+      </c>
+      <c r="J12" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B13" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>1044</v>
-      </c>
-      <c r="H12" s="48" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>1250</v>
       </c>
       <c r="I13" s="48" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>1144</v>
+        <v>1146</v>
+      </c>
+      <c r="B14" s="15">
+        <v>2023</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D14" s="15" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I14" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B15" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B16" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B17" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>1044</v>
       </c>
-      <c r="H14" s="48" t="s">
+      <c r="I17" s="48" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D15" s="15" t="s">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B18" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15" t="s">
         <v>1055</v>
       </c>
-      <c r="H15" s="48" t="s">
+      <c r="F18" s="48" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D16" s="15" t="s">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B19" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I19" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B20" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I20" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B21" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I21" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B22" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I22" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B23" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I23" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B24" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>1055</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="G24" s="48" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D17" s="15" t="s">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B25" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G25" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B26" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F26" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B27" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I27" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B28" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E28" s="15" t="s">
         <v>1055</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="H28" s="48" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H18" s="48" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D19" s="15" t="s">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B29" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E29" s="15" t="s">
         <v>1055</v>
-      </c>
-      <c r="E19" s="48" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>1167</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H20" s="48" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B21" s="49" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H21" s="48" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H22" s="48" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B23" s="49" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H23" s="48" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B24" s="49" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>1185</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H24" s="48" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>1055</v>
-      </c>
-      <c r="F25" s="48" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>1250</v>
-      </c>
-      <c r="E26" s="48" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B27" s="49" t="s">
-        <v>1226</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>1227</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>1250</v>
-      </c>
-      <c r="F27" s="48" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B28" s="49" t="s">
-        <v>1229</v>
-      </c>
-      <c r="C28" s="49" t="s">
-        <v>1230</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>1250</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B29" s="49" t="s">
-        <v>1232</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>1233</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>1044</v>
       </c>
       <c r="H29" s="48" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B30" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H30" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B31" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D31" s="49" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F31" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B32" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D32" s="49" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I32" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>1234</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B33" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C33" s="49" t="s">
         <v>1236</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="D33" s="49" t="s">
         <v>1235</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="E33" s="15" t="s">
         <v>1250</v>
       </c>
-      <c r="G30" s="48" t="s">
+      <c r="H33" s="48" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B31" s="49" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C31" s="49" t="s">
-        <v>1239</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H31" s="48" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B32" s="49" t="s">
-        <v>1245</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>1246</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>1055</v>
-      </c>
-      <c r="G32" s="48" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B33" s="49" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>1249</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>1055</v>
-      </c>
-      <c r="G33" s="48" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1270</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C34" s="49" t="s">
         <v>1271</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="D34" s="49" t="s">
         <v>1272</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="E34" s="15" t="s">
         <v>1044</v>
       </c>
-      <c r="E34" s="48" t="s">
+      <c r="F34" s="48" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1273</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C35" s="49" t="s">
         <v>1275</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="D35" s="49" t="s">
         <v>1274</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="E35" s="15" t="s">
         <v>1044</v>
       </c>
-      <c r="F35" s="48" t="s">
+      <c r="G35" s="48" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1285</v>
       </c>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C36" s="49" t="s">
         <v>1286</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="D36" s="49" t="s">
         <v>1287</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="E36" s="15" t="s">
         <v>1044</v>
       </c>
-      <c r="H36" s="48" t="s">
+      <c r="I36" s="48" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1298</v>
       </c>
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C37" s="49" t="s">
         <v>1300</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="D37" s="49" t="s">
         <v>1299</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="E37" s="15" t="s">
         <v>1044</v>
       </c>
-      <c r="E37" s="48" t="s">
+      <c r="F37" s="48" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1301</v>
       </c>
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C38" s="49" t="s">
         <v>1302</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="D38" s="49" t="s">
         <v>1303</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="E38" s="15" t="s">
         <v>1044</v>
       </c>
-      <c r="G38" s="48" t="s">
+      <c r="H38" s="48" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1304</v>
       </c>
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C39" s="49" t="s">
         <v>1306</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="D39" s="49" t="s">
         <v>1305</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="E39" s="15" t="s">
         <v>1044</v>
       </c>
-      <c r="H39" s="48" t="s">
+      <c r="I39" s="48" t="s">
         <v>1037</v>
       </c>
     </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B40" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C40" s="49" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D40" s="49" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I40" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B41" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C41" s="49" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D41" s="49" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G41" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B42" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C42" s="49" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G42" s="48" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I42" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B43" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C43" s="49" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D43" s="49" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I43" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B44" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C44" s="49" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D44" s="49" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H44" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B45" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C45" s="49" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D45" s="49" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F45" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B46" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D46" s="49" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I46" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B47" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C47" s="49" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D47" s="49" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I47" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B48" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C48" s="49" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D48" s="49" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I48" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B49" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C49" s="49" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D49" s="49" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H49" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B50" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C50" s="49" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D50" s="49" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I50" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B51" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C51" s="49" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D51" s="49" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I51" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B52" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C52" s="49" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D52" s="49" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I52" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B53" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C53" s="49" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D53" s="49" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I53" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B54" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C54" s="49" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D54" s="49" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F54" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B55" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C55" s="49" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D55" s="49" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I55" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B56" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C56" s="49" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D56" s="49" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I56" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B57" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C57" s="49" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D57" s="49" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G57" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B58" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C58" s="49" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D58" s="49" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I58" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B59" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C59" s="49" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D59" s="49" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I59" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B60" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C60" s="49" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D60" s="49" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I60" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B61" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C61" s="49" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D61" s="49" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G61" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B62" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C62" s="49" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D62" s="49" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H62" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B63" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C63" s="49" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D63" s="49" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G63" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B64" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C64" s="49" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D64" s="49" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G64" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B65" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C65" s="49" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D65" s="49" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G65" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B66" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C66" s="49" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D66" s="49" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I66" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B67" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C67" s="49" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D67" s="49" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F67" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B68" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C68" s="49" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D68" s="49" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I68" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B69" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C69" s="49" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D69" s="49" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G69" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B70" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C70" s="49" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D70" s="49" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I70" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B71" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C71" s="49" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D71" s="49" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G71" s="48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:I33" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
-  <conditionalFormatting sqref="E1:I1048576 L2">
+  <autoFilter ref="A2:J71" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="2024"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J71">
+      <sortCondition ref="B2:B33"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="M2 F1:J1048576">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1 D2:E1048576">
+  <conditionalFormatting sqref="E1 E2:F1048576">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
@@ -21066,90 +22320,154 @@
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1">
+  <conditionalFormatting sqref="F1">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Added"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="C5" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink ref="B6" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
-    <hyperlink ref="C6" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
-    <hyperlink ref="B7" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
-    <hyperlink ref="C7" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
-    <hyperlink ref="B8" r:id="rId11" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
-    <hyperlink ref="C8" r:id="rId12" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
-    <hyperlink ref="B9" r:id="rId13" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
-    <hyperlink ref="C9" r:id="rId14" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
-    <hyperlink ref="B10" r:id="rId15" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
-    <hyperlink ref="C10" r:id="rId16" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
-    <hyperlink ref="B11" r:id="rId17" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
-    <hyperlink ref="C11" r:id="rId18" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
-    <hyperlink ref="B12" r:id="rId19" xr:uid="{00000000-0004-0000-0400-000012000000}"/>
-    <hyperlink ref="C12" r:id="rId20" xr:uid="{00000000-0004-0000-0400-000013000000}"/>
-    <hyperlink ref="B13" r:id="rId21" xr:uid="{00000000-0004-0000-0400-000014000000}"/>
-    <hyperlink ref="C13" r:id="rId22" xr:uid="{00000000-0004-0000-0400-000015000000}"/>
-    <hyperlink ref="B14" r:id="rId23" xr:uid="{00000000-0004-0000-0400-000016000000}"/>
-    <hyperlink ref="C14" r:id="rId24" xr:uid="{00000000-0004-0000-0400-000017000000}"/>
-    <hyperlink ref="B15" r:id="rId25" xr:uid="{00000000-0004-0000-0400-000018000000}"/>
-    <hyperlink ref="C15" r:id="rId26" xr:uid="{00000000-0004-0000-0400-000019000000}"/>
-    <hyperlink ref="B16" r:id="rId27" xr:uid="{00000000-0004-0000-0400-00001A000000}"/>
-    <hyperlink ref="B17" r:id="rId28" xr:uid="{00000000-0004-0000-0400-00001B000000}"/>
-    <hyperlink ref="B18" r:id="rId29" xr:uid="{00000000-0004-0000-0400-00001C000000}"/>
-    <hyperlink ref="C18" r:id="rId30" xr:uid="{00000000-0004-0000-0400-00001D000000}"/>
-    <hyperlink ref="B19" r:id="rId31" xr:uid="{00000000-0004-0000-0400-00001E000000}"/>
-    <hyperlink ref="B20" r:id="rId32" xr:uid="{00000000-0004-0000-0400-00001F000000}"/>
-    <hyperlink ref="C20" r:id="rId33" xr:uid="{00000000-0004-0000-0400-000020000000}"/>
-    <hyperlink ref="C21" r:id="rId34" xr:uid="{00000000-0004-0000-0400-000021000000}"/>
-    <hyperlink ref="B21" r:id="rId35" xr:uid="{00000000-0004-0000-0400-000022000000}"/>
-    <hyperlink ref="B22" r:id="rId36" xr:uid="{00000000-0004-0000-0400-000023000000}"/>
-    <hyperlink ref="C22" r:id="rId37" xr:uid="{00000000-0004-0000-0400-000024000000}"/>
-    <hyperlink ref="B23" r:id="rId38" xr:uid="{00000000-0004-0000-0400-000025000000}"/>
-    <hyperlink ref="C23" r:id="rId39" xr:uid="{00000000-0004-0000-0400-000026000000}"/>
-    <hyperlink ref="C24" r:id="rId40" xr:uid="{00000000-0004-0000-0400-000027000000}"/>
-    <hyperlink ref="B24" r:id="rId41" xr:uid="{00000000-0004-0000-0400-000028000000}"/>
-    <hyperlink ref="B25" r:id="rId42" xr:uid="{00000000-0004-0000-0400-000029000000}"/>
-    <hyperlink ref="C25" r:id="rId43" xr:uid="{00000000-0004-0000-0400-00002A000000}"/>
-    <hyperlink ref="C26" r:id="rId44" xr:uid="{00000000-0004-0000-0400-00002B000000}"/>
-    <hyperlink ref="B26" r:id="rId45" xr:uid="{00000000-0004-0000-0400-00002C000000}"/>
-    <hyperlink ref="B27" r:id="rId46" xr:uid="{00000000-0004-0000-0400-00002D000000}"/>
-    <hyperlink ref="C27" r:id="rId47" xr:uid="{00000000-0004-0000-0400-00002E000000}"/>
-    <hyperlink ref="B28" r:id="rId48" xr:uid="{00000000-0004-0000-0400-00002F000000}"/>
-    <hyperlink ref="C28" r:id="rId49" xr:uid="{00000000-0004-0000-0400-000030000000}"/>
-    <hyperlink ref="B29" r:id="rId50" xr:uid="{00000000-0004-0000-0400-000031000000}"/>
-    <hyperlink ref="C29" r:id="rId51" xr:uid="{00000000-0004-0000-0400-000032000000}"/>
-    <hyperlink ref="C30" r:id="rId52" xr:uid="{00000000-0004-0000-0400-000033000000}"/>
-    <hyperlink ref="B30" r:id="rId53" xr:uid="{00000000-0004-0000-0400-000034000000}"/>
-    <hyperlink ref="B31" r:id="rId54" xr:uid="{00000000-0004-0000-0400-000035000000}"/>
-    <hyperlink ref="C31" r:id="rId55" xr:uid="{00000000-0004-0000-0400-000036000000}"/>
-    <hyperlink ref="B32" r:id="rId56" xr:uid="{00000000-0004-0000-0400-000037000000}"/>
-    <hyperlink ref="C32" r:id="rId57" xr:uid="{00000000-0004-0000-0400-000038000000}"/>
-    <hyperlink ref="B33" r:id="rId58" xr:uid="{00000000-0004-0000-0400-000039000000}"/>
-    <hyperlink ref="C33" r:id="rId59" xr:uid="{00000000-0004-0000-0400-00003A000000}"/>
-    <hyperlink ref="B34" r:id="rId60" xr:uid="{00000000-0004-0000-0400-00003B000000}"/>
-    <hyperlink ref="C34" r:id="rId61" xr:uid="{00000000-0004-0000-0400-00003C000000}"/>
-    <hyperlink ref="C35" r:id="rId62" xr:uid="{00000000-0004-0000-0400-00003D000000}"/>
-    <hyperlink ref="B35" r:id="rId63" xr:uid="{00000000-0004-0000-0400-00003E000000}"/>
-    <hyperlink ref="B36" r:id="rId64" xr:uid="{00000000-0004-0000-0400-00003F000000}"/>
-    <hyperlink ref="C36" r:id="rId65" xr:uid="{00000000-0004-0000-0400-000040000000}"/>
-    <hyperlink ref="C37" r:id="rId66" xr:uid="{814559AB-90D6-4407-9A63-447B71F7D3F5}"/>
-    <hyperlink ref="B37" r:id="rId67" xr:uid="{9CB31E9C-4B19-418D-8207-A7C6A2D214FE}"/>
-    <hyperlink ref="B38" r:id="rId68" xr:uid="{71E4239E-8EC8-447F-8997-2698964BC16B}"/>
-    <hyperlink ref="C38" r:id="rId69" xr:uid="{B6BCAA2F-C442-40F4-B33C-CE18B3CC69B9}"/>
-    <hyperlink ref="C39" r:id="rId70" xr:uid="{C19CAC3E-3CF3-4020-9BE0-035F64F0E91E}"/>
-    <hyperlink ref="B39" r:id="rId71" xr:uid="{A75C1C32-D094-44FE-8BAE-57ED6CCBE1CD}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="D5" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="C6" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="D6" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="C7" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="D7" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="C8" r:id="rId11" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="D8" r:id="rId12" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
+    <hyperlink ref="C9" r:id="rId13" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
+    <hyperlink ref="D9" r:id="rId14" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
+    <hyperlink ref="C30" r:id="rId15" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
+    <hyperlink ref="D30" r:id="rId16" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
+    <hyperlink ref="C10" r:id="rId17" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
+    <hyperlink ref="D10" r:id="rId18" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
+    <hyperlink ref="C11" r:id="rId19" xr:uid="{00000000-0004-0000-0400-000012000000}"/>
+    <hyperlink ref="D11" r:id="rId20" xr:uid="{00000000-0004-0000-0400-000013000000}"/>
+    <hyperlink ref="C12" r:id="rId21" xr:uid="{00000000-0004-0000-0400-000014000000}"/>
+    <hyperlink ref="D12" r:id="rId22" xr:uid="{00000000-0004-0000-0400-000015000000}"/>
+    <hyperlink ref="C13" r:id="rId23" xr:uid="{00000000-0004-0000-0400-000016000000}"/>
+    <hyperlink ref="D13" r:id="rId24" xr:uid="{00000000-0004-0000-0400-000017000000}"/>
+    <hyperlink ref="C14" r:id="rId25" xr:uid="{00000000-0004-0000-0400-000018000000}"/>
+    <hyperlink ref="D14" r:id="rId26" xr:uid="{00000000-0004-0000-0400-000019000000}"/>
+    <hyperlink ref="C15" r:id="rId27" xr:uid="{00000000-0004-0000-0400-00001A000000}"/>
+    <hyperlink ref="C16" r:id="rId28" xr:uid="{00000000-0004-0000-0400-00001B000000}"/>
+    <hyperlink ref="C17" r:id="rId29" xr:uid="{00000000-0004-0000-0400-00001C000000}"/>
+    <hyperlink ref="D17" r:id="rId30" xr:uid="{00000000-0004-0000-0400-00001D000000}"/>
+    <hyperlink ref="C18" r:id="rId31" xr:uid="{00000000-0004-0000-0400-00001E000000}"/>
+    <hyperlink ref="C19" r:id="rId32" xr:uid="{00000000-0004-0000-0400-00001F000000}"/>
+    <hyperlink ref="D19" r:id="rId33" xr:uid="{00000000-0004-0000-0400-000020000000}"/>
+    <hyperlink ref="D20" r:id="rId34" xr:uid="{00000000-0004-0000-0400-000021000000}"/>
+    <hyperlink ref="C20" r:id="rId35" xr:uid="{00000000-0004-0000-0400-000022000000}"/>
+    <hyperlink ref="C21" r:id="rId36" xr:uid="{00000000-0004-0000-0400-000023000000}"/>
+    <hyperlink ref="D21" r:id="rId37" xr:uid="{00000000-0004-0000-0400-000024000000}"/>
+    <hyperlink ref="C22" r:id="rId38" xr:uid="{00000000-0004-0000-0400-000025000000}"/>
+    <hyperlink ref="D22" r:id="rId39" xr:uid="{00000000-0004-0000-0400-000026000000}"/>
+    <hyperlink ref="D23" r:id="rId40" xr:uid="{00000000-0004-0000-0400-000027000000}"/>
+    <hyperlink ref="C23" r:id="rId41" xr:uid="{00000000-0004-0000-0400-000028000000}"/>
+    <hyperlink ref="C24" r:id="rId42" xr:uid="{00000000-0004-0000-0400-000029000000}"/>
+    <hyperlink ref="D24" r:id="rId43" xr:uid="{00000000-0004-0000-0400-00002A000000}"/>
+    <hyperlink ref="D31" r:id="rId44" xr:uid="{00000000-0004-0000-0400-00002B000000}"/>
+    <hyperlink ref="C31" r:id="rId45" xr:uid="{00000000-0004-0000-0400-00002C000000}"/>
+    <hyperlink ref="C25" r:id="rId46" xr:uid="{00000000-0004-0000-0400-00002D000000}"/>
+    <hyperlink ref="D25" r:id="rId47" xr:uid="{00000000-0004-0000-0400-00002E000000}"/>
+    <hyperlink ref="C26" r:id="rId48" xr:uid="{00000000-0004-0000-0400-00002F000000}"/>
+    <hyperlink ref="D26" r:id="rId49" xr:uid="{00000000-0004-0000-0400-000030000000}"/>
+    <hyperlink ref="C32" r:id="rId50" xr:uid="{00000000-0004-0000-0400-000031000000}"/>
+    <hyperlink ref="D32" r:id="rId51" xr:uid="{00000000-0004-0000-0400-000032000000}"/>
+    <hyperlink ref="D33" r:id="rId52" xr:uid="{00000000-0004-0000-0400-000033000000}"/>
+    <hyperlink ref="C33" r:id="rId53" xr:uid="{00000000-0004-0000-0400-000034000000}"/>
+    <hyperlink ref="C27" r:id="rId54" xr:uid="{00000000-0004-0000-0400-000035000000}"/>
+    <hyperlink ref="D27" r:id="rId55" xr:uid="{00000000-0004-0000-0400-000036000000}"/>
+    <hyperlink ref="C28" r:id="rId56" xr:uid="{00000000-0004-0000-0400-000037000000}"/>
+    <hyperlink ref="D28" r:id="rId57" xr:uid="{00000000-0004-0000-0400-000038000000}"/>
+    <hyperlink ref="C29" r:id="rId58" xr:uid="{00000000-0004-0000-0400-000039000000}"/>
+    <hyperlink ref="D29" r:id="rId59" xr:uid="{00000000-0004-0000-0400-00003A000000}"/>
+    <hyperlink ref="C34" r:id="rId60" xr:uid="{00000000-0004-0000-0400-00003B000000}"/>
+    <hyperlink ref="D34" r:id="rId61" xr:uid="{00000000-0004-0000-0400-00003C000000}"/>
+    <hyperlink ref="D35" r:id="rId62" xr:uid="{00000000-0004-0000-0400-00003D000000}"/>
+    <hyperlink ref="C35" r:id="rId63" xr:uid="{00000000-0004-0000-0400-00003E000000}"/>
+    <hyperlink ref="C36" r:id="rId64" xr:uid="{00000000-0004-0000-0400-00003F000000}"/>
+    <hyperlink ref="D36" r:id="rId65" xr:uid="{00000000-0004-0000-0400-000040000000}"/>
+    <hyperlink ref="D37" r:id="rId66" xr:uid="{814559AB-90D6-4407-9A63-447B71F7D3F5}"/>
+    <hyperlink ref="C37" r:id="rId67" xr:uid="{9CB31E9C-4B19-418D-8207-A7C6A2D214FE}"/>
+    <hyperlink ref="C38" r:id="rId68" xr:uid="{71E4239E-8EC8-447F-8997-2698964BC16B}"/>
+    <hyperlink ref="D38" r:id="rId69" xr:uid="{B6BCAA2F-C442-40F4-B33C-CE18B3CC69B9}"/>
+    <hyperlink ref="D39" r:id="rId70" xr:uid="{C19CAC3E-3CF3-4020-9BE0-035F64F0E91E}"/>
+    <hyperlink ref="C39" r:id="rId71" xr:uid="{A75C1C32-D094-44FE-8BAE-57ED6CCBE1CD}"/>
+    <hyperlink ref="C40" r:id="rId72" xr:uid="{33AB1DF2-62D7-4D95-B4BF-149A6989220B}"/>
+    <hyperlink ref="C41" r:id="rId73" xr:uid="{BB6E9745-49D2-41EF-B125-03F9D7822DCF}"/>
+    <hyperlink ref="D40" r:id="rId74" xr:uid="{36B8B585-67DF-42C7-B4F8-8915E4EF3EA4}"/>
+    <hyperlink ref="D41" r:id="rId75" xr:uid="{43983FC0-80ED-41E8-9B5D-5C2AFCBDEA5F}"/>
+    <hyperlink ref="C42" r:id="rId76" xr:uid="{564F0CA4-B757-482D-8B90-EB7B13ADCAE8}"/>
+    <hyperlink ref="D42" r:id="rId77" xr:uid="{5B7D12BB-3D8D-412E-9CE2-53B323A4B2C8}"/>
+    <hyperlink ref="D43" r:id="rId78" xr:uid="{5AD91EAA-C103-42E2-A5F8-6F055D3E96D8}"/>
+    <hyperlink ref="C43" r:id="rId79" xr:uid="{444A76FA-7553-4B0E-A3C9-2A8DB62E504D}"/>
+    <hyperlink ref="C44" r:id="rId80" xr:uid="{28D54E71-7374-4783-8E10-A7BEA912994F}"/>
+    <hyperlink ref="D44" r:id="rId81" xr:uid="{91A28F00-F4C4-49AB-9B5D-85DEE6212700}"/>
+    <hyperlink ref="C45" r:id="rId82" xr:uid="{8171560D-5557-40DE-85EA-B07D3B21BB4A}"/>
+    <hyperlink ref="D45" r:id="rId83" xr:uid="{AECA8763-F72D-46BD-AAB8-1ED3FB553687}"/>
+    <hyperlink ref="C46" r:id="rId84" xr:uid="{6782BEFE-52F4-4BED-8056-878DA81C1EFE}"/>
+    <hyperlink ref="D46" r:id="rId85" xr:uid="{B310D8E5-FAC0-48D8-A0BF-E640BB80D337}"/>
+    <hyperlink ref="C47" r:id="rId86" xr:uid="{102C16B3-3BF9-4B8D-9B5A-53D44EE2ADB0}"/>
+    <hyperlink ref="D47" r:id="rId87" xr:uid="{D13AFC51-FCD1-4C1E-A3F6-05B7856912CF}"/>
+    <hyperlink ref="C48" r:id="rId88" xr:uid="{413ECCC6-836A-4726-96AD-411A0C62496C}"/>
+    <hyperlink ref="D48" r:id="rId89" xr:uid="{F6C811F8-FA68-413B-8376-044FC3184BBF}"/>
+    <hyperlink ref="C49" r:id="rId90" xr:uid="{0842025A-EF03-47CB-9D0D-CACCAF425FF3}"/>
+    <hyperlink ref="D49" r:id="rId91" xr:uid="{06F18BEB-F34A-4423-9843-861852258640}"/>
+    <hyperlink ref="D50" r:id="rId92" xr:uid="{F748E840-EF76-4A13-B7BB-8ADE18CAEFC2}"/>
+    <hyperlink ref="C50" r:id="rId93" xr:uid="{AAE2FAE1-C8C9-4122-A78E-758C8482050C}"/>
+    <hyperlink ref="C51" r:id="rId94" xr:uid="{E2D57091-66ED-410D-98A6-8BAF6D32528E}"/>
+    <hyperlink ref="D51" r:id="rId95" xr:uid="{29EF9F7B-7CE1-4FB7-BFC9-26E13408808E}"/>
+    <hyperlink ref="C52" r:id="rId96" xr:uid="{F08AE79B-356C-4B51-B9BC-464D0755CAD6}"/>
+    <hyperlink ref="D52" r:id="rId97" xr:uid="{BA4F28A2-301E-4429-B81D-358DB9308F7D}"/>
+    <hyperlink ref="C53" r:id="rId98" xr:uid="{1E2D93D2-5F77-4256-90C9-BA5C4C06A04A}"/>
+    <hyperlink ref="D53" r:id="rId99" xr:uid="{D6ADF23F-CA03-4752-8C47-39EAA8D62B03}"/>
+    <hyperlink ref="D54" r:id="rId100" xr:uid="{754B50BE-9ACD-4197-A75E-DFA020847714}"/>
+    <hyperlink ref="C54" r:id="rId101" xr:uid="{3EA71871-3D3F-4DFD-ABE1-11958EE59D6A}"/>
+    <hyperlink ref="C55" r:id="rId102" xr:uid="{0AE3667B-77FF-4240-87DE-CB0AAF7BC1FA}"/>
+    <hyperlink ref="D55" r:id="rId103" xr:uid="{5A2615B2-557C-4DE0-ABCB-1E34711A010D}"/>
+    <hyperlink ref="C56" r:id="rId104" xr:uid="{D8965DF8-E82F-44AD-A27E-8895EC026A65}"/>
+    <hyperlink ref="D56" r:id="rId105" xr:uid="{6095EFB3-692D-4669-808E-536BA1E750AB}"/>
+    <hyperlink ref="D57" r:id="rId106" xr:uid="{7980FCA7-5AF7-4113-8EF2-C64013C787FE}"/>
+    <hyperlink ref="C57" r:id="rId107" xr:uid="{3DAC5F65-A8C9-4EB6-96B0-23662AB5671D}"/>
+    <hyperlink ref="D58" r:id="rId108" xr:uid="{BFF641BE-38CB-4D26-AF35-94F9102C45ED}"/>
+    <hyperlink ref="C58" r:id="rId109" xr:uid="{03CFEA10-CFB0-44A8-A1DA-713966A7660C}"/>
+    <hyperlink ref="C59" r:id="rId110" xr:uid="{D6A7C163-68FC-477C-9B74-0605367750F7}"/>
+    <hyperlink ref="D59" r:id="rId111" xr:uid="{078DE03F-11A4-4710-80A0-C10038E2ABDD}"/>
+    <hyperlink ref="C60" r:id="rId112" xr:uid="{5C889907-5FD9-4B05-A7CF-EF14865DAF65}"/>
+    <hyperlink ref="D60" r:id="rId113" xr:uid="{8E0C178B-003E-47FE-A6F5-055AEB653346}"/>
+    <hyperlink ref="C61" r:id="rId114" xr:uid="{3B558016-8DDD-4859-A5BA-CC73103F8FD2}"/>
+    <hyperlink ref="D61" r:id="rId115" xr:uid="{A1DDED79-B170-4399-A572-124D8FFC89C9}"/>
+    <hyperlink ref="C62" r:id="rId116" xr:uid="{125D7192-4E2A-477F-A8B0-56E9F46982AF}"/>
+    <hyperlink ref="D62" r:id="rId117" xr:uid="{E4EA0B32-0A8F-431B-AB87-D5165FD6740C}"/>
+    <hyperlink ref="C63" r:id="rId118" xr:uid="{6CAE252D-4FD2-42CC-9FB7-BF3DE9F009BA}"/>
+    <hyperlink ref="D63" r:id="rId119" xr:uid="{F9FBAC2C-D70B-4E75-8B48-D6F057D905F4}"/>
+    <hyperlink ref="C64" r:id="rId120" xr:uid="{76A7E272-6EA0-4410-8060-C921C0B72847}"/>
+    <hyperlink ref="D64" r:id="rId121" xr:uid="{9754B9E2-5FCD-4E94-B3C4-AAFCF930D26C}"/>
+    <hyperlink ref="C65" r:id="rId122" xr:uid="{7CCB0A57-536D-474B-AECE-28C94063DCEC}"/>
+    <hyperlink ref="D65" r:id="rId123" xr:uid="{6BC80B74-FC87-47B1-832A-8B7C1F91EC26}"/>
+    <hyperlink ref="C66" r:id="rId124" xr:uid="{5CBEDEF0-B6B6-4E1B-BDD6-439CD45A629C}"/>
+    <hyperlink ref="D66" r:id="rId125" xr:uid="{A37190F7-9D71-48E0-8370-9C4CCB5D60C2}"/>
+    <hyperlink ref="C67" r:id="rId126" xr:uid="{86BD93C1-03EC-4243-8FE1-9F5E0E0E33CF}"/>
+    <hyperlink ref="D67" r:id="rId127" xr:uid="{7E763A27-9FA5-4283-84FF-CCCFD6E91E3A}"/>
+    <hyperlink ref="C68" r:id="rId128" xr:uid="{063ACEDC-0BF1-467B-93D3-F3F4BCB1FA47}"/>
+    <hyperlink ref="D68" r:id="rId129" xr:uid="{EF850FDD-0781-4232-B4C7-42899A107D39}"/>
+    <hyperlink ref="C69" r:id="rId130" xr:uid="{8DA9C2EE-9FA9-4959-A9AE-E00D04D0949C}"/>
+    <hyperlink ref="D69" r:id="rId131" xr:uid="{B0BE79E0-DA9B-4161-8835-2F20D2597F2C}"/>
+    <hyperlink ref="C70" r:id="rId132" xr:uid="{976AE2F5-128B-429D-ACBE-674EA26D0A75}"/>
+    <hyperlink ref="D70" r:id="rId133" xr:uid="{F4E98569-6928-46E5-AF89-AA2D73559F5A}"/>
+    <hyperlink ref="C71" r:id="rId134" xr:uid="{C745C07D-756F-471D-9FE7-4E619AC53A52}"/>
+    <hyperlink ref="D71" r:id="rId135" xr:uid="{307CA646-4695-42B5-B6F8-C59F0D18F4BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId72"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId136"/>
 </worksheet>
 </file>
--- a/publications.xlsx
+++ b/publications.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19830446-8DB6-4867-8ECB-AF6EA9263649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C9953F-0BBC-4AED-B6DB-A2F1D1B84BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3477" uniqueCount="1465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3493" uniqueCount="1473">
   <si>
     <t>title</t>
   </si>
@@ -3647,9 +3647,6 @@
     <t xml:space="preserve"> 10.1136/bmjopen-2023-072726 </t>
   </si>
   <si>
-    <t>The burden of disease attributable to high body mass index in Belgium</t>
-  </si>
-  <si>
     <t>Fasciola spp. in Southeast Asia: A systematic review</t>
   </si>
   <si>
@@ -4428,6 +4425,33 @@
   </si>
   <si>
     <t>The economic burden of alcohol in Belgium: incremental healthcare costs and lost productivity</t>
+  </si>
+  <si>
+    <t>The importance of including a mental health dimension in a multimorbidity indicator: an analysis of Belgian health survey data</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/39695533/</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12889-024-21028-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARS-CoV-2 infection and COVID-19 outcomes across mental disorders and the role of sex: A register-based study from Catalonia </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.psychres.2024.116325</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/39708616/</t>
+  </si>
+  <si>
+    <t>The burden of disease attributable to high body mass index in Belgium: a comparative risk assessment analysis</t>
+  </si>
+  <si>
+    <t>BMJ Public Health</t>
   </si>
 </sst>
 </file>
@@ -5026,8 +5050,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabel1" displayName="Tabel1" ref="A1:U265" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
-  <autoFilter ref="A1:U265" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/offi